--- a/WebContent/발표/3조 5차 요구사항정의서.xlsx
+++ b/WebContent/발표/3조 5차 요구사항정의서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\507-15\Desktop\github\project05\WebContent\발표\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a01_javaexp\github\project05\WebContent\발표\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="354">
   <si>
     <t>구분</t>
   </si>
@@ -1317,6 +1317,54 @@
     <t>4월27일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>4월7일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월9일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월13일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월16일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월13일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월17일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월16일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월17일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월13일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월16일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1402,7 +1450,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -1959,19 +2007,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -2002,13 +2037,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2225,19 +2282,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2291,25 +2336,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2366,12 +2393,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2393,13 +2414,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2408,13 +2444,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2426,58 +2468,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2492,10 +2486,49 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2503,6 +2536,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2545,7 +2599,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$4" spid="_x0000_s1236"/>
+                  <a14:cameraTool cellRange="$O$4" spid="_x0000_s1255"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2604,7 +2658,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$7" spid="_x0000_s1237"/>
+                  <a14:cameraTool cellRange="$O$7" spid="_x0000_s1256"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2663,7 +2717,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$N$10" spid="_x0000_s1238"/>
+                  <a14:cameraTool cellRange="$N$10" spid="_x0000_s1257"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2722,7 +2776,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$10" spid="_x0000_s1239"/>
+                  <a14:cameraTool cellRange="$O$10" spid="_x0000_s1258"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2781,7 +2835,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$15" spid="_x0000_s1240"/>
+                  <a14:cameraTool cellRange="$O$15" spid="_x0000_s1259"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2840,7 +2894,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$19" spid="_x0000_s1241"/>
+                  <a14:cameraTool cellRange="$O$19" spid="_x0000_s1260"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2899,7 +2953,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$21" spid="_x0000_s1242"/>
+                  <a14:cameraTool cellRange="$O$21" spid="_x0000_s1261"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2958,7 +3012,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$23" spid="_x0000_s1243"/>
+                  <a14:cameraTool cellRange="$O$23" spid="_x0000_s1262"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3017,7 +3071,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$26" spid="_x0000_s1244"/>
+                  <a14:cameraTool cellRange="$O$26" spid="_x0000_s1263"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3076,7 +3130,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$N$30" spid="_x0000_s1245"/>
+                  <a14:cameraTool cellRange="$N$30" spid="_x0000_s1264"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3135,7 +3189,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$N$37" spid="_x0000_s1246"/>
+                  <a14:cameraTool cellRange="$N$37" spid="_x0000_s1265"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3194,7 +3248,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$30" spid="_x0000_s1247"/>
+                  <a14:cameraTool cellRange="$O$30" spid="_x0000_s1266"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3253,7 +3307,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$34" spid="_x0000_s1248"/>
+                  <a14:cameraTool cellRange="$O$34" spid="_x0000_s1267"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3312,7 +3366,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$37" spid="_x0000_s1249"/>
+                  <a14:cameraTool cellRange="$O$37" spid="_x0000_s1268"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3371,7 +3425,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$39" spid="_x0000_s1250"/>
+                  <a14:cameraTool cellRange="$O$39" spid="_x0000_s1269"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3430,7 +3484,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$42" spid="_x0000_s1251"/>
+                  <a14:cameraTool cellRange="$O$42" spid="_x0000_s1270"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3489,7 +3543,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$44" spid="_x0000_s1252"/>
+                  <a14:cameraTool cellRange="$O$44" spid="_x0000_s1271"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3548,7 +3602,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$46" spid="_x0000_s1253"/>
+                  <a14:cameraTool cellRange="$O$46" spid="_x0000_s1272"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3607,7 +3661,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$N$4" spid="_x0000_s1254"/>
+                  <a14:cameraTool cellRange="$N$4" spid="_x0000_s1273"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3993,10 +4047,10 @@
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="136" t="s">
+      <c r="B3" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="122" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="15" t="s">
@@ -4013,8 +4067,8 @@
       <c r="K3" s="11"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="137"/>
-      <c r="C4" s="134"/>
+      <c r="B4" s="132"/>
+      <c r="C4" s="123"/>
       <c r="D4" s="13" t="s">
         <v>13</v>
       </c>
@@ -4029,8 +4083,8 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="137"/>
-      <c r="C5" s="135"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="126"/>
       <c r="D5" s="16" t="s">
         <v>15</v>
       </c>
@@ -4045,8 +4099,8 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="137"/>
-      <c r="C6" s="133" t="s">
+      <c r="B6" s="132"/>
+      <c r="C6" s="122" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="12" t="s">
@@ -4063,8 +4117,8 @@
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="137"/>
-      <c r="C7" s="134"/>
+      <c r="B7" s="132"/>
+      <c r="C7" s="123"/>
       <c r="D7" s="13" t="s">
         <v>20</v>
       </c>
@@ -4079,8 +4133,8 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="138"/>
-      <c r="C8" s="135"/>
+      <c r="B8" s="133"/>
+      <c r="C8" s="126"/>
       <c r="D8" s="16" t="s">
         <v>17</v>
       </c>
@@ -4100,7 +4154,7 @@
       <c r="B9" s="130" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="133" t="s">
+      <c r="C9" s="122" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="15" t="s">
@@ -4117,8 +4171,8 @@
       <c r="K9" s="11"/>
     </row>
     <row r="10" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="131"/>
-      <c r="C10" s="135"/>
+      <c r="B10" s="124"/>
+      <c r="C10" s="126"/>
       <c r="D10" s="17" t="s">
         <v>25</v>
       </c>
@@ -4133,11 +4187,11 @@
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="131"/>
-      <c r="C11" s="133" t="s">
+      <c r="B11" s="124"/>
+      <c r="C11" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="139" t="s">
+      <c r="D11" s="127" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="10" t="s">
@@ -4151,9 +4205,9 @@
       <c r="K11" s="11"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="131"/>
-      <c r="C12" s="134"/>
-      <c r="D12" s="140"/>
+      <c r="B12" s="124"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="129"/>
       <c r="E12" s="1" t="s">
         <v>34</v>
       </c>
@@ -4165,8 +4219,8 @@
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="131"/>
-      <c r="C13" s="134"/>
+      <c r="B13" s="124"/>
+      <c r="C13" s="123"/>
       <c r="D13" s="13" t="s">
         <v>31</v>
       </c>
@@ -4181,8 +4235,8 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="131"/>
-      <c r="C14" s="134"/>
+      <c r="B14" s="124"/>
+      <c r="C14" s="123"/>
       <c r="D14" s="13" t="s">
         <v>32</v>
       </c>
@@ -4197,8 +4251,8 @@
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="131"/>
-      <c r="C15" s="135"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="126"/>
       <c r="D15" s="17" t="s">
         <v>35</v>
       </c>
@@ -4215,8 +4269,8 @@
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="131"/>
-      <c r="C16" s="133" t="s">
+      <c r="B16" s="124"/>
+      <c r="C16" s="122" t="s">
         <v>38</v>
       </c>
       <c r="D16" s="15" t="s">
@@ -4233,8 +4287,8 @@
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="131"/>
-      <c r="C17" s="134"/>
+      <c r="B17" s="124"/>
+      <c r="C17" s="123"/>
       <c r="D17" s="13" t="s">
         <v>31</v>
       </c>
@@ -4249,8 +4303,8 @@
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="131"/>
-      <c r="C18" s="134"/>
+      <c r="B18" s="124"/>
+      <c r="C18" s="123"/>
       <c r="D18" s="13" t="s">
         <v>42</v>
       </c>
@@ -4265,8 +4319,8 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="132"/>
-      <c r="C19" s="135"/>
+      <c r="B19" s="125"/>
+      <c r="C19" s="126"/>
       <c r="D19" s="17" t="s">
         <v>35</v>
       </c>
@@ -4284,7 +4338,7 @@
       <c r="B20" s="130" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="133" t="s">
+      <c r="C20" s="122" t="s">
         <v>46</v>
       </c>
       <c r="D20" s="15" t="s">
@@ -4301,8 +4355,8 @@
       <c r="K20" s="11"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="131"/>
-      <c r="C21" s="134"/>
+      <c r="B21" s="124"/>
+      <c r="C21" s="123"/>
       <c r="D21" s="13" t="s">
         <v>48</v>
       </c>
@@ -4317,8 +4371,8 @@
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="131"/>
-      <c r="C22" s="135"/>
+      <c r="B22" s="124"/>
+      <c r="C22" s="126"/>
       <c r="D22" s="16" t="s">
         <v>52</v>
       </c>
@@ -4333,7 +4387,7 @@
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="131"/>
+      <c r="B23" s="124"/>
       <c r="C23" s="21" t="s">
         <v>54</v>
       </c>
@@ -4354,7 +4408,7 @@
       <c r="B24" s="130" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="133" t="s">
+      <c r="C24" s="122" t="s">
         <v>49</v>
       </c>
       <c r="D24" s="15" t="s">
@@ -4371,8 +4425,8 @@
       <c r="K24" s="11"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="131"/>
-      <c r="C25" s="134"/>
+      <c r="B25" s="124"/>
+      <c r="C25" s="123"/>
       <c r="D25" s="13" t="s">
         <v>59</v>
       </c>
@@ -4387,8 +4441,8 @@
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="131"/>
-      <c r="C26" s="135"/>
+      <c r="B26" s="124"/>
+      <c r="C26" s="126"/>
       <c r="D26" s="16" t="s">
         <v>61</v>
       </c>
@@ -4403,7 +4457,7 @@
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="131"/>
+      <c r="B27" s="124"/>
       <c r="C27" s="23" t="s">
         <v>56</v>
       </c>
@@ -4421,7 +4475,7 @@
       <c r="K27" s="20"/>
     </row>
     <row r="28" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="132"/>
+      <c r="B28" s="125"/>
       <c r="C28" s="23" t="s">
         <v>44</v>
       </c>
@@ -4459,10 +4513,10 @@
       <c r="K29" s="20"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="133" t="s">
+      <c r="B30" s="122" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="139" t="s">
+      <c r="C30" s="127" t="s">
         <v>71</v>
       </c>
       <c r="D30" s="15" t="s">
@@ -4479,8 +4533,8 @@
       <c r="K30" s="11"/>
     </row>
     <row r="31" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="134"/>
-      <c r="C31" s="141"/>
+      <c r="B31" s="123"/>
+      <c r="C31" s="128"/>
       <c r="D31" s="14" t="s">
         <v>74</v>
       </c>
@@ -4495,8 +4549,8 @@
       <c r="K31" s="27"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="131"/>
-      <c r="C32" s="133" t="s">
+      <c r="B32" s="124"/>
+      <c r="C32" s="122" t="s">
         <v>85</v>
       </c>
       <c r="D32" s="15" t="s">
@@ -4513,8 +4567,8 @@
       <c r="K32" s="11"/>
     </row>
     <row r="33" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="131"/>
-      <c r="C33" s="135"/>
+      <c r="B33" s="124"/>
+      <c r="C33" s="126"/>
       <c r="D33" s="16" t="s">
         <v>88</v>
       </c>
@@ -4529,8 +4583,8 @@
       <c r="K33" s="4"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="131"/>
-      <c r="C34" s="133" t="s">
+      <c r="B34" s="124"/>
+      <c r="C34" s="122" t="s">
         <v>90</v>
       </c>
       <c r="D34" s="15" t="s">
@@ -4547,8 +4601,8 @@
       <c r="K34" s="11"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="131"/>
-      <c r="C35" s="134"/>
+      <c r="B35" s="124"/>
+      <c r="C35" s="123"/>
       <c r="D35" s="13"/>
       <c r="E35" s="1" t="s">
         <v>34</v>
@@ -4561,8 +4615,8 @@
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="131"/>
-      <c r="C36" s="134"/>
+      <c r="B36" s="124"/>
+      <c r="C36" s="123"/>
       <c r="D36" s="13" t="s">
         <v>31</v>
       </c>
@@ -4577,8 +4631,8 @@
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="131"/>
-      <c r="C37" s="134"/>
+      <c r="B37" s="124"/>
+      <c r="C37" s="123"/>
       <c r="D37" s="13" t="s">
         <v>92</v>
       </c>
@@ -4593,8 +4647,8 @@
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="131"/>
-      <c r="C38" s="135"/>
+      <c r="B38" s="124"/>
+      <c r="C38" s="126"/>
       <c r="D38" s="16" t="s">
         <v>94</v>
       </c>
@@ -4609,8 +4663,8 @@
       <c r="K38" s="4"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="131"/>
-      <c r="C39" s="133" t="s">
+      <c r="B39" s="124"/>
+      <c r="C39" s="122" t="s">
         <v>38</v>
       </c>
       <c r="D39" s="15" t="s">
@@ -4627,8 +4681,8 @@
       <c r="K39" s="11"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="131"/>
-      <c r="C40" s="134"/>
+      <c r="B40" s="124"/>
+      <c r="C40" s="123"/>
       <c r="D40" s="13" t="s">
         <v>31</v>
       </c>
@@ -4643,8 +4697,8 @@
       <c r="K40" s="2"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="131"/>
-      <c r="C41" s="134"/>
+      <c r="B41" s="124"/>
+      <c r="C41" s="123"/>
       <c r="D41" s="13" t="s">
         <v>92</v>
       </c>
@@ -4659,8 +4713,8 @@
       <c r="K41" s="2"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="131"/>
-      <c r="C42" s="134"/>
+      <c r="B42" s="124"/>
+      <c r="C42" s="123"/>
       <c r="D42" s="13" t="s">
         <v>35</v>
       </c>
@@ -4675,8 +4729,8 @@
       <c r="K42" s="2"/>
     </row>
     <row r="43" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="131"/>
-      <c r="C43" s="135"/>
+      <c r="B43" s="124"/>
+      <c r="C43" s="126"/>
       <c r="D43" s="16" t="s">
         <v>97</v>
       </c>
@@ -4691,8 +4745,8 @@
       <c r="K43" s="4"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="131"/>
-      <c r="C44" s="133" t="s">
+      <c r="B44" s="124"/>
+      <c r="C44" s="122" t="s">
         <v>76</v>
       </c>
       <c r="D44" s="15" t="s">
@@ -4709,8 +4763,8 @@
       <c r="K44" s="11"/>
     </row>
     <row r="45" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="131"/>
-      <c r="C45" s="135"/>
+      <c r="B45" s="124"/>
+      <c r="C45" s="126"/>
       <c r="D45" s="16" t="s">
         <v>79</v>
       </c>
@@ -4725,8 +4779,8 @@
       <c r="K45" s="4"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="131"/>
-      <c r="C46" s="133" t="s">
+      <c r="B46" s="124"/>
+      <c r="C46" s="122" t="s">
         <v>81</v>
       </c>
       <c r="D46" s="15" t="s">
@@ -4743,8 +4797,8 @@
       <c r="K46" s="11"/>
     </row>
     <row r="47" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="131"/>
-      <c r="C47" s="135"/>
+      <c r="B47" s="124"/>
+      <c r="C47" s="126"/>
       <c r="D47" s="16" t="s">
         <v>83</v>
       </c>
@@ -4759,8 +4813,8 @@
       <c r="K47" s="4"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="131"/>
-      <c r="C48" s="133" t="s">
+      <c r="B48" s="124"/>
+      <c r="C48" s="122" t="s">
         <v>56</v>
       </c>
       <c r="D48" s="15" t="s">
@@ -4777,8 +4831,8 @@
       <c r="K48" s="11"/>
     </row>
     <row r="49" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="132"/>
-      <c r="C49" s="135"/>
+      <c r="B49" s="125"/>
+      <c r="C49" s="126"/>
       <c r="D49" s="16" t="s">
         <v>101</v>
       </c>
@@ -4794,6 +4848,18 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B9:B19"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C22"/>
     <mergeCell ref="B30:B49"/>
     <mergeCell ref="C39:C43"/>
     <mergeCell ref="C34:C38"/>
@@ -4802,18 +4868,6 @@
     <mergeCell ref="C48:C49"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B9:B19"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4843,15 +4897,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="146"/>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="148"/>
+      <c r="A1" s="145"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="147"/>
     </row>
     <row r="2" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
@@ -4883,21 +4937,21 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="157"/>
-      <c r="B3" s="158"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="159"/>
+      <c r="A3" s="136"/>
+      <c r="B3" s="137"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="138"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="160" t="s">
+      <c r="A4" s="139" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="154" t="s">
+      <c r="B4" s="142" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="37" t="s">
@@ -4913,8 +4967,8 @@
       <c r="I4" s="32"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="152"/>
-      <c r="B5" s="142"/>
+      <c r="A5" s="140"/>
+      <c r="B5" s="143"/>
       <c r="C5" s="38" t="s">
         <v>13</v>
       </c>
@@ -4928,8 +4982,8 @@
       <c r="I5" s="34"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="152"/>
-      <c r="B6" s="142"/>
+      <c r="A6" s="140"/>
+      <c r="B6" s="143"/>
       <c r="C6" s="38" t="s">
         <v>15</v>
       </c>
@@ -4943,8 +4997,8 @@
       <c r="I6" s="34"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="152"/>
-      <c r="B7" s="142" t="s">
+      <c r="A7" s="140"/>
+      <c r="B7" s="143" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="38" t="s">
@@ -4960,8 +5014,8 @@
       <c r="I7" s="34"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="152"/>
-      <c r="B8" s="142"/>
+      <c r="A8" s="140"/>
+      <c r="B8" s="143"/>
       <c r="C8" s="38" t="s">
         <v>20</v>
       </c>
@@ -4975,8 +5029,8 @@
       <c r="I8" s="34"/>
     </row>
     <row r="9" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="161"/>
-      <c r="B9" s="162"/>
+      <c r="A9" s="141"/>
+      <c r="B9" s="144"/>
       <c r="C9" s="39" t="s">
         <v>17</v>
       </c>
@@ -4990,10 +5044,10 @@
       <c r="I9" s="36"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="149" t="s">
+      <c r="A10" s="134" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="155" t="s">
+      <c r="B10" s="151" t="s">
         <v>103</v>
       </c>
       <c r="C10" s="37" t="s">
@@ -5009,8 +5063,8 @@
       <c r="I10" s="32"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="150"/>
-      <c r="B11" s="144"/>
+      <c r="A11" s="135"/>
+      <c r="B11" s="152"/>
       <c r="C11" s="38" t="s">
         <v>105</v>
       </c>
@@ -5024,8 +5078,8 @@
       <c r="I11" s="34"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="150"/>
-      <c r="B12" s="144"/>
+      <c r="A12" s="135"/>
+      <c r="B12" s="152"/>
       <c r="C12" s="38" t="s">
         <v>92</v>
       </c>
@@ -5039,8 +5093,8 @@
       <c r="I12" s="34"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="150"/>
-      <c r="B13" s="145"/>
+      <c r="A13" s="135"/>
+      <c r="B13" s="150"/>
       <c r="C13" s="38" t="s">
         <v>109</v>
       </c>
@@ -5056,8 +5110,8 @@
       <c r="I13" s="34"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="150"/>
-      <c r="B14" s="143" t="s">
+      <c r="A14" s="135"/>
+      <c r="B14" s="153" t="s">
         <v>180</v>
       </c>
       <c r="C14" s="38" t="s">
@@ -5073,8 +5127,8 @@
       <c r="I14" s="34"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="150"/>
-      <c r="B15" s="144"/>
+      <c r="A15" s="135"/>
+      <c r="B15" s="152"/>
       <c r="C15" s="38" t="s">
         <v>184</v>
       </c>
@@ -5088,8 +5142,8 @@
       <c r="I15" s="34"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="150"/>
-      <c r="B16" s="143" t="s">
+      <c r="A16" s="135"/>
+      <c r="B16" s="153" t="s">
         <v>111</v>
       </c>
       <c r="C16" s="58" t="s">
@@ -5105,8 +5159,8 @@
       <c r="I16" s="34"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="150"/>
-      <c r="B17" s="144"/>
+      <c r="A17" s="135"/>
+      <c r="B17" s="152"/>
       <c r="C17" s="38" t="s">
         <v>105</v>
       </c>
@@ -5120,8 +5174,8 @@
       <c r="I17" s="34"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="150"/>
-      <c r="B18" s="144"/>
+      <c r="A18" s="135"/>
+      <c r="B18" s="152"/>
       <c r="C18" s="38" t="s">
         <v>113</v>
       </c>
@@ -5137,8 +5191,8 @@
       <c r="I18" s="34"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="150"/>
-      <c r="B19" s="145"/>
+      <c r="A19" s="135"/>
+      <c r="B19" s="150"/>
       <c r="C19" s="38" t="s">
         <v>109</v>
       </c>
@@ -5152,8 +5206,8 @@
       <c r="I19" s="34"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="150"/>
-      <c r="B20" s="143" t="s">
+      <c r="A20" s="135"/>
+      <c r="B20" s="153" t="s">
         <v>193</v>
       </c>
       <c r="C20" s="59" t="s">
@@ -5169,8 +5223,8 @@
       <c r="I20" s="34"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="150"/>
-      <c r="B21" s="145"/>
+      <c r="A21" s="135"/>
+      <c r="B21" s="150"/>
       <c r="C21" s="59" t="s">
         <v>194</v>
       </c>
@@ -5184,8 +5238,8 @@
       <c r="I21" s="34"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="150"/>
-      <c r="B22" s="143" t="s">
+      <c r="A22" s="135"/>
+      <c r="B22" s="153" t="s">
         <v>115</v>
       </c>
       <c r="C22" s="38" t="s">
@@ -5201,8 +5255,8 @@
       <c r="I22" s="34"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="150"/>
-      <c r="B23" s="144"/>
+      <c r="A23" s="135"/>
+      <c r="B23" s="152"/>
       <c r="C23" s="38" t="s">
         <v>118</v>
       </c>
@@ -5216,8 +5270,8 @@
       <c r="I23" s="34"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="150"/>
-      <c r="B24" s="144"/>
+      <c r="A24" s="135"/>
+      <c r="B24" s="152"/>
       <c r="C24" s="38" t="s">
         <v>120</v>
       </c>
@@ -5231,8 +5285,8 @@
       <c r="I24" s="34"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="150"/>
-      <c r="B25" s="145"/>
+      <c r="A25" s="135"/>
+      <c r="B25" s="150"/>
       <c r="C25" s="38" t="s">
         <v>122</v>
       </c>
@@ -5246,8 +5300,8 @@
       <c r="I25" s="34"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="150"/>
-      <c r="B26" s="143" t="s">
+      <c r="A26" s="135"/>
+      <c r="B26" s="153" t="s">
         <v>174</v>
       </c>
       <c r="C26" s="38" t="s">
@@ -5263,8 +5317,8 @@
       <c r="I26" s="34"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="150"/>
-      <c r="B27" s="144"/>
+      <c r="A27" s="135"/>
+      <c r="B27" s="152"/>
       <c r="C27" s="38" t="s">
         <v>178</v>
       </c>
@@ -5278,8 +5332,8 @@
       <c r="I27" s="34"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="150"/>
-      <c r="B28" s="144"/>
+      <c r="A28" s="135"/>
+      <c r="B28" s="152"/>
       <c r="C28" s="38" t="s">
         <v>182</v>
       </c>
@@ -5293,8 +5347,8 @@
       <c r="I28" s="34"/>
     </row>
     <row r="29" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="150"/>
-      <c r="B29" s="144"/>
+      <c r="A29" s="135"/>
+      <c r="B29" s="152"/>
       <c r="C29" s="58" t="s">
         <v>176</v>
       </c>
@@ -5308,10 +5362,10 @@
       <c r="I29" s="45"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="149" t="s">
+      <c r="A30" s="134" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="154" t="s">
+      <c r="B30" s="142" t="s">
         <v>127</v>
       </c>
       <c r="C30" s="62" t="s">
@@ -5327,8 +5381,8 @@
       <c r="I30" s="32"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="150"/>
-      <c r="B31" s="142"/>
+      <c r="A31" s="135"/>
+      <c r="B31" s="143"/>
       <c r="C31" s="63" t="s">
         <v>129</v>
       </c>
@@ -5342,8 +5396,8 @@
       <c r="I31" s="34"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="150"/>
-      <c r="B32" s="142"/>
+      <c r="A32" s="135"/>
+      <c r="B32" s="143"/>
       <c r="C32" s="63" t="s">
         <v>132</v>
       </c>
@@ -5357,8 +5411,8 @@
       <c r="I32" s="34"/>
     </row>
     <row r="33" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A33" s="150"/>
-      <c r="B33" s="142"/>
+      <c r="A33" s="135"/>
+      <c r="B33" s="143"/>
       <c r="C33" s="63" t="s">
         <v>125</v>
       </c>
@@ -5372,8 +5426,8 @@
       <c r="I33" s="34"/>
     </row>
     <row r="34" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A34" s="150"/>
-      <c r="B34" s="142" t="s">
+      <c r="A34" s="135"/>
+      <c r="B34" s="143" t="s">
         <v>133</v>
       </c>
       <c r="C34" s="63" t="s">
@@ -5389,8 +5443,8 @@
       <c r="I34" s="45"/>
     </row>
     <row r="35" spans="1:16384" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="150"/>
-      <c r="B35" s="142"/>
+      <c r="A35" s="135"/>
+      <c r="B35" s="143"/>
       <c r="C35" s="63" t="s">
         <v>134</v>
       </c>
@@ -21779,8 +21833,8 @@
       <c r="XFD35" s="46"/>
     </row>
     <row r="36" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A36" s="150"/>
-      <c r="B36" s="142"/>
+      <c r="A36" s="135"/>
+      <c r="B36" s="143"/>
       <c r="C36" s="64" t="s">
         <v>187</v>
       </c>
@@ -21792,8 +21846,8 @@
       <c r="I36" s="56"/>
     </row>
     <row r="37" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A37" s="150"/>
-      <c r="B37" s="142" t="s">
+      <c r="A37" s="135"/>
+      <c r="B37" s="143" t="s">
         <v>136</v>
       </c>
       <c r="C37" s="63" t="s">
@@ -21809,8 +21863,8 @@
       <c r="I37" s="34"/>
     </row>
     <row r="38" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A38" s="150"/>
-      <c r="B38" s="142"/>
+      <c r="A38" s="135"/>
+      <c r="B38" s="143"/>
       <c r="C38" s="63" t="s">
         <v>92</v>
       </c>
@@ -21824,7 +21878,7 @@
       <c r="I38" s="34"/>
     </row>
     <row r="39" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A39" s="150"/>
+      <c r="A39" s="135"/>
       <c r="B39" s="57" t="s">
         <v>139</v>
       </c>
@@ -21841,10 +21895,10 @@
       <c r="I39" s="34"/>
     </row>
     <row r="40" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A40" s="151" t="s">
+      <c r="A40" s="148" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="145" t="s">
+      <c r="B40" s="150" t="s">
         <v>71</v>
       </c>
       <c r="C40" s="41" t="s">
@@ -21860,8 +21914,8 @@
       <c r="I40" s="56"/>
     </row>
     <row r="41" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A41" s="152"/>
-      <c r="B41" s="142"/>
+      <c r="A41" s="140"/>
+      <c r="B41" s="143"/>
       <c r="C41" s="40" t="s">
         <v>74</v>
       </c>
@@ -21875,8 +21929,8 @@
       <c r="I41" s="34"/>
     </row>
     <row r="42" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A42" s="152"/>
-      <c r="B42" s="142" t="s">
+      <c r="A42" s="140"/>
+      <c r="B42" s="143" t="s">
         <v>152</v>
       </c>
       <c r="C42" s="40" t="s">
@@ -21892,8 +21946,8 @@
       <c r="I42" s="34"/>
     </row>
     <row r="43" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A43" s="152"/>
-      <c r="B43" s="142"/>
+      <c r="A43" s="140"/>
+      <c r="B43" s="143"/>
       <c r="C43" s="40" t="s">
         <v>144</v>
       </c>
@@ -21907,11 +21961,11 @@
       <c r="I43" s="34"/>
     </row>
     <row r="44" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A44" s="152"/>
-      <c r="B44" s="142" t="s">
+      <c r="A44" s="140"/>
+      <c r="B44" s="143" t="s">
         <v>163</v>
       </c>
-      <c r="C44" s="143" t="s">
+      <c r="C44" s="153" t="s">
         <v>162</v>
       </c>
       <c r="D44" s="33" t="s">
@@ -21924,9 +21978,9 @@
       <c r="I44" s="34"/>
     </row>
     <row r="45" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A45" s="152"/>
-      <c r="B45" s="142"/>
-      <c r="C45" s="145"/>
+      <c r="A45" s="140"/>
+      <c r="B45" s="143"/>
+      <c r="C45" s="150"/>
       <c r="D45" s="33" t="s">
         <v>164</v>
       </c>
@@ -21937,8 +21991,8 @@
       <c r="I45" s="34"/>
     </row>
     <row r="46" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A46" s="152"/>
-      <c r="B46" s="142"/>
+      <c r="A46" s="140"/>
+      <c r="B46" s="143"/>
       <c r="C46" s="40" t="s">
         <v>112</v>
       </c>
@@ -21952,8 +22006,8 @@
       <c r="I46" s="34"/>
     </row>
     <row r="47" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A47" s="152"/>
-      <c r="B47" s="142"/>
+      <c r="A47" s="140"/>
+      <c r="B47" s="143"/>
       <c r="C47" s="40" t="s">
         <v>106</v>
       </c>
@@ -21967,8 +22021,8 @@
       <c r="I47" s="34"/>
     </row>
     <row r="48" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A48" s="152"/>
-      <c r="B48" s="142"/>
+      <c r="A48" s="140"/>
+      <c r="B48" s="143"/>
       <c r="C48" s="40" t="s">
         <v>147</v>
       </c>
@@ -21982,8 +22036,8 @@
       <c r="I48" s="34"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="152"/>
-      <c r="B49" s="142" t="s">
+      <c r="A49" s="140"/>
+      <c r="B49" s="143" t="s">
         <v>153</v>
       </c>
       <c r="C49" s="40" t="s">
@@ -21999,8 +22053,8 @@
       <c r="I49" s="34"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="152"/>
-      <c r="B50" s="142"/>
+      <c r="A50" s="140"/>
+      <c r="B50" s="143"/>
       <c r="C50" s="40" t="s">
         <v>112</v>
       </c>
@@ -22014,8 +22068,8 @@
       <c r="I50" s="34"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="152"/>
-      <c r="B51" s="142"/>
+      <c r="A51" s="140"/>
+      <c r="B51" s="143"/>
       <c r="C51" s="40" t="s">
         <v>106</v>
       </c>
@@ -22029,8 +22083,8 @@
       <c r="I51" s="34"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="152"/>
-      <c r="B52" s="142"/>
+      <c r="A52" s="140"/>
+      <c r="B52" s="143"/>
       <c r="C52" s="40" t="s">
         <v>147</v>
       </c>
@@ -22044,8 +22098,8 @@
       <c r="I52" s="34"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="152"/>
-      <c r="B53" s="143" t="s">
+      <c r="A53" s="140"/>
+      <c r="B53" s="153" t="s">
         <v>154</v>
       </c>
       <c r="C53" s="40" t="s">
@@ -22061,8 +22115,8 @@
       <c r="I53" s="34"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="152"/>
-      <c r="B54" s="144"/>
+      <c r="A54" s="140"/>
+      <c r="B54" s="152"/>
       <c r="C54" s="49" t="s">
         <v>159</v>
       </c>
@@ -22076,8 +22130,8 @@
       <c r="I54" s="34"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="152"/>
-      <c r="B55" s="142" t="s">
+      <c r="A55" s="140"/>
+      <c r="B55" s="143" t="s">
         <v>76</v>
       </c>
       <c r="C55" s="40" t="s">
@@ -22093,8 +22147,8 @@
       <c r="I55" s="34"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="152"/>
-      <c r="B56" s="142"/>
+      <c r="A56" s="140"/>
+      <c r="B56" s="143"/>
       <c r="C56" s="40" t="s">
         <v>79</v>
       </c>
@@ -22108,8 +22162,8 @@
       <c r="I56" s="34"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="152"/>
-      <c r="B57" s="143" t="s">
+      <c r="A57" s="140"/>
+      <c r="B57" s="153" t="s">
         <v>81</v>
       </c>
       <c r="C57" s="40" t="s">
@@ -22125,8 +22179,8 @@
       <c r="I57" s="34"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="153"/>
-      <c r="B58" s="145"/>
+      <c r="A58" s="149"/>
+      <c r="B58" s="150"/>
       <c r="C58" s="50" t="s">
         <v>167</v>
       </c>
@@ -22140,8 +22194,8 @@
       <c r="I58" s="45"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="153"/>
-      <c r="B59" s="143" t="s">
+      <c r="A59" s="149"/>
+      <c r="B59" s="153" t="s">
         <v>172</v>
       </c>
       <c r="C59" s="50" t="s">
@@ -22157,8 +22211,8 @@
       <c r="I59" s="45"/>
     </row>
     <row r="60" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="153"/>
-      <c r="B60" s="156"/>
+      <c r="A60" s="149"/>
+      <c r="B60" s="154"/>
       <c r="C60" s="42" t="s">
         <v>171</v>
       </c>
@@ -22421,11 +22475,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A30:A39"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B20:B21"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A10:A29"/>
     <mergeCell ref="A40:A60"/>
@@ -22442,11 +22496,11 @@
     <mergeCell ref="C44:C45"/>
     <mergeCell ref="B59:B60"/>
     <mergeCell ref="B44:B48"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A30:A39"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22491,15 +22545,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="146"/>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="148"/>
+      <c r="A1" s="145"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="147"/>
     </row>
     <row r="2" spans="1:15" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
@@ -22531,24 +22585,24 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="157"/>
-      <c r="B3" s="158"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="159"/>
+      <c r="A3" s="136"/>
+      <c r="B3" s="137"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="138"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="101" t="s">
+      <c r="C4" s="91" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="31" t="s">
@@ -22559,21 +22613,21 @@
       <c r="G4" s="31"/>
       <c r="H4" s="31"/>
       <c r="I4" s="32"/>
-      <c r="N4" s="163" t="s">
+      <c r="N4" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="163" t="s">
+      <c r="O4" s="155" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="102" t="s">
+      <c r="C5" s="92" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="33" t="s">
@@ -22584,17 +22638,17 @@
       <c r="G5" s="33"/>
       <c r="H5" s="33"/>
       <c r="I5" s="34"/>
-      <c r="N5" s="163"/>
-      <c r="O5" s="163"/>
+      <c r="N5" s="155"/>
+      <c r="O5" s="155"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="92" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="33" t="s">
@@ -22605,17 +22659,17 @@
       <c r="G6" s="33"/>
       <c r="H6" s="33"/>
       <c r="I6" s="34"/>
-      <c r="N6" s="163"/>
-      <c r="O6" s="163"/>
+      <c r="N6" s="155"/>
+      <c r="O6" s="155"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="78" t="s">
         <v>275</v>
       </c>
-      <c r="C7" s="102" t="s">
+      <c r="C7" s="92" t="s">
         <v>277</v>
       </c>
       <c r="D7" s="33" t="s">
@@ -22626,19 +22680,19 @@
       <c r="G7" s="33"/>
       <c r="H7" s="33"/>
       <c r="I7" s="34"/>
-      <c r="N7" s="163"/>
-      <c r="O7" s="163" t="s">
+      <c r="N7" s="155"/>
+      <c r="O7" s="155" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="78" t="s">
         <v>288</v>
       </c>
-      <c r="C8" s="102" t="s">
+      <c r="C8" s="92" t="s">
         <v>276</v>
       </c>
       <c r="D8" s="33" t="s">
@@ -22649,17 +22703,17 @@
       <c r="G8" s="33"/>
       <c r="H8" s="33"/>
       <c r="I8" s="34"/>
-      <c r="N8" s="163"/>
-      <c r="O8" s="163"/>
+      <c r="N8" s="155"/>
+      <c r="O8" s="155"/>
     </row>
     <row r="9" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="83" t="s">
+      <c r="B9" s="79" t="s">
         <v>288</v>
       </c>
-      <c r="C9" s="103" t="s">
+      <c r="C9" s="93" t="s">
         <v>275</v>
       </c>
       <c r="D9" s="35" t="s">
@@ -22670,17 +22724,17 @@
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
       <c r="I9" s="36"/>
-      <c r="N9" s="163"/>
-      <c r="O9" s="163"/>
+      <c r="N9" s="155"/>
+      <c r="O9" s="155"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="84" t="s">
+      <c r="A10" s="80" t="s">
         <v>198</v>
       </c>
-      <c r="B10" s="85" t="s">
+      <c r="B10" s="81" t="s">
         <v>199</v>
       </c>
-      <c r="C10" s="109" t="s">
+      <c r="C10" s="99" t="s">
         <v>200</v>
       </c>
       <c r="D10" s="31" t="s">
@@ -22693,21 +22747,21 @@
       <c r="G10" s="31"/>
       <c r="H10" s="31"/>
       <c r="I10" s="32"/>
-      <c r="N10" s="163" t="s">
+      <c r="N10" s="155" t="s">
         <v>23</v>
       </c>
-      <c r="O10" s="163" t="s">
+      <c r="O10" s="155" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="86" t="s">
+      <c r="A11" s="82" t="s">
         <v>289</v>
       </c>
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="83" t="s">
         <v>290</v>
       </c>
-      <c r="C11" s="110" t="s">
+      <c r="C11" s="100" t="s">
         <v>203</v>
       </c>
       <c r="D11" s="33" t="s">
@@ -22720,17 +22774,17 @@
       <c r="G11" s="33"/>
       <c r="H11" s="33"/>
       <c r="I11" s="34"/>
-      <c r="N11" s="163"/>
-      <c r="O11" s="163"/>
+      <c r="N11" s="155"/>
+      <c r="O11" s="155"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="86" t="s">
+      <c r="A12" s="82" t="s">
         <v>289</v>
       </c>
-      <c r="B12" s="87" t="s">
+      <c r="B12" s="83" t="s">
         <v>290</v>
       </c>
-      <c r="C12" s="110" t="s">
+      <c r="C12" s="100" t="s">
         <v>206</v>
       </c>
       <c r="D12" s="33" t="s">
@@ -22743,17 +22797,17 @@
       <c r="G12" s="33"/>
       <c r="H12" s="33"/>
       <c r="I12" s="34"/>
-      <c r="N12" s="163"/>
-      <c r="O12" s="163"/>
+      <c r="N12" s="155"/>
+      <c r="O12" s="155"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="86" t="s">
+      <c r="A13" s="82" t="s">
         <v>289</v>
       </c>
-      <c r="B13" s="87" t="s">
+      <c r="B13" s="83" t="s">
         <v>290</v>
       </c>
-      <c r="C13" s="110" t="s">
+      <c r="C13" s="100" t="s">
         <v>209</v>
       </c>
       <c r="D13" s="33" t="s">
@@ -22764,17 +22818,17 @@
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
       <c r="I13" s="34"/>
-      <c r="N13" s="163"/>
-      <c r="O13" s="163"/>
+      <c r="N13" s="155"/>
+      <c r="O13" s="155"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="86" t="s">
+      <c r="A14" s="82" t="s">
         <v>289</v>
       </c>
-      <c r="B14" s="88" t="s">
+      <c r="B14" s="84" t="s">
         <v>290</v>
       </c>
-      <c r="C14" s="113" t="s">
+      <c r="C14" s="103" t="s">
         <v>211</v>
       </c>
       <c r="D14" s="33" t="s">
@@ -22787,17 +22841,17 @@
       <c r="G14" s="33"/>
       <c r="H14" s="33"/>
       <c r="I14" s="34"/>
-      <c r="N14" s="163"/>
-      <c r="O14" s="163"/>
+      <c r="N14" s="155"/>
+      <c r="O14" s="155"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="86" t="s">
+      <c r="A15" s="82" t="s">
         <v>289</v>
       </c>
-      <c r="B15" s="89" t="s">
+      <c r="B15" s="85" t="s">
         <v>219</v>
       </c>
-      <c r="C15" s="111" t="s">
+      <c r="C15" s="101" t="s">
         <v>220</v>
       </c>
       <c r="D15" s="33" t="s">
@@ -22810,19 +22864,19 @@
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
       <c r="I15" s="34"/>
-      <c r="N15" s="163"/>
-      <c r="O15" s="163" t="s">
+      <c r="N15" s="155"/>
+      <c r="O15" s="155" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="86" t="s">
+      <c r="A16" s="82" t="s">
         <v>289</v>
       </c>
-      <c r="B16" s="87" t="s">
+      <c r="B16" s="83" t="s">
         <v>291</v>
       </c>
-      <c r="C16" s="110" t="s">
+      <c r="C16" s="100" t="s">
         <v>223</v>
       </c>
       <c r="D16" s="33" t="s">
@@ -22835,17 +22889,17 @@
       <c r="G16" s="33"/>
       <c r="H16" s="33"/>
       <c r="I16" s="34"/>
-      <c r="N16" s="163"/>
-      <c r="O16" s="163"/>
+      <c r="N16" s="155"/>
+      <c r="O16" s="155"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="86" t="s">
+      <c r="A17" s="82" t="s">
         <v>289</v>
       </c>
-      <c r="B17" s="87" t="s">
+      <c r="B17" s="83" t="s">
         <v>291</v>
       </c>
-      <c r="C17" s="110" t="s">
+      <c r="C17" s="100" t="s">
         <v>225</v>
       </c>
       <c r="D17" s="33" t="s">
@@ -22858,17 +22912,17 @@
       <c r="G17" s="33"/>
       <c r="H17" s="33"/>
       <c r="I17" s="34"/>
-      <c r="N17" s="163"/>
-      <c r="O17" s="163"/>
+      <c r="N17" s="155"/>
+      <c r="O17" s="155"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="86" t="s">
+      <c r="A18" s="82" t="s">
         <v>289</v>
       </c>
-      <c r="B18" s="88" t="s">
+      <c r="B18" s="84" t="s">
         <v>291</v>
       </c>
-      <c r="C18" s="113" t="s">
+      <c r="C18" s="103" t="s">
         <v>228</v>
       </c>
       <c r="D18" s="33" t="s">
@@ -22881,17 +22935,17 @@
       <c r="G18" s="33"/>
       <c r="H18" s="33"/>
       <c r="I18" s="34"/>
-      <c r="N18" s="163"/>
-      <c r="O18" s="163"/>
+      <c r="N18" s="155"/>
+      <c r="O18" s="155"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="86" t="s">
+      <c r="A19" s="82" t="s">
         <v>289</v>
       </c>
-      <c r="B19" s="89" t="s">
+      <c r="B19" s="85" t="s">
         <v>214</v>
       </c>
-      <c r="C19" s="107" t="s">
+      <c r="C19" s="97" t="s">
         <v>215</v>
       </c>
       <c r="D19" s="33" t="s">
@@ -22904,19 +22958,19 @@
       <c r="G19" s="33"/>
       <c r="H19" s="33"/>
       <c r="I19" s="34"/>
-      <c r="N19" s="163"/>
-      <c r="O19" s="163" t="s">
+      <c r="N19" s="155"/>
+      <c r="O19" s="155" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="86" t="s">
+      <c r="A20" s="82" t="s">
         <v>289</v>
       </c>
-      <c r="B20" s="87" t="s">
+      <c r="B20" s="83" t="s">
         <v>292</v>
       </c>
-      <c r="C20" s="107" t="s">
+      <c r="C20" s="97" t="s">
         <v>217</v>
       </c>
       <c r="D20" s="33" t="s">
@@ -22929,17 +22983,17 @@
       <c r="G20" s="33"/>
       <c r="H20" s="33"/>
       <c r="I20" s="34"/>
-      <c r="N20" s="163"/>
-      <c r="O20" s="163"/>
+      <c r="N20" s="155"/>
+      <c r="O20" s="155"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="86" t="s">
+      <c r="A21" s="82" t="s">
         <v>289</v>
       </c>
-      <c r="B21" s="89" t="s">
+      <c r="B21" s="85" t="s">
         <v>231</v>
       </c>
-      <c r="C21" s="107" t="s">
+      <c r="C21" s="97" t="s">
         <v>232</v>
       </c>
       <c r="D21" s="33" t="s">
@@ -22950,19 +23004,19 @@
       <c r="G21" s="33"/>
       <c r="H21" s="33"/>
       <c r="I21" s="34"/>
-      <c r="N21" s="163"/>
-      <c r="O21" s="163" t="s">
+      <c r="N21" s="155"/>
+      <c r="O21" s="155" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="86" t="s">
+      <c r="A22" s="82" t="s">
         <v>289</v>
       </c>
-      <c r="B22" s="88" t="s">
+      <c r="B22" s="84" t="s">
         <v>293</v>
       </c>
-      <c r="C22" s="113" t="s">
+      <c r="C22" s="103" t="s">
         <v>234</v>
       </c>
       <c r="D22" s="33" t="s">
@@ -22973,17 +23027,17 @@
       <c r="G22" s="33"/>
       <c r="H22" s="33"/>
       <c r="I22" s="34"/>
-      <c r="N22" s="163"/>
-      <c r="O22" s="163"/>
+      <c r="N22" s="155"/>
+      <c r="O22" s="155"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="86" t="s">
+      <c r="A23" s="82" t="s">
         <v>289</v>
       </c>
-      <c r="B23" s="89" t="s">
+      <c r="B23" s="85" t="s">
         <v>115</v>
       </c>
-      <c r="C23" s="113" t="s">
+      <c r="C23" s="103" t="s">
         <v>116</v>
       </c>
       <c r="D23" s="33" t="s">
@@ -22994,19 +23048,19 @@
       <c r="G23" s="33"/>
       <c r="H23" s="33"/>
       <c r="I23" s="34"/>
-      <c r="N23" s="163"/>
-      <c r="O23" s="163" t="s">
+      <c r="N23" s="155"/>
+      <c r="O23" s="155" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="86" t="s">
+      <c r="A24" s="82" t="s">
         <v>289</v>
       </c>
-      <c r="B24" s="87" t="s">
+      <c r="B24" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="C24" s="113" t="s">
+      <c r="C24" s="103" t="s">
         <v>118</v>
       </c>
       <c r="D24" s="33" t="s">
@@ -23017,17 +23071,17 @@
       <c r="G24" s="33"/>
       <c r="H24" s="33"/>
       <c r="I24" s="34"/>
-      <c r="N24" s="163"/>
-      <c r="O24" s="163"/>
+      <c r="N24" s="155"/>
+      <c r="O24" s="155"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="86" t="s">
+      <c r="A25" s="82" t="s">
         <v>289</v>
       </c>
-      <c r="B25" s="87" t="s">
+      <c r="B25" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="C25" s="113" t="s">
+      <c r="C25" s="103" t="s">
         <v>236</v>
       </c>
       <c r="D25" s="33" t="s">
@@ -23038,17 +23092,17 @@
       <c r="G25" s="33"/>
       <c r="H25" s="33"/>
       <c r="I25" s="34"/>
-      <c r="N25" s="163"/>
-      <c r="O25" s="163"/>
+      <c r="N25" s="155"/>
+      <c r="O25" s="155"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="86" t="s">
+      <c r="A26" s="82" t="s">
         <v>289</v>
       </c>
-      <c r="B26" s="89" t="s">
+      <c r="B26" s="85" t="s">
         <v>238</v>
       </c>
-      <c r="C26" s="107" t="s">
+      <c r="C26" s="97" t="s">
         <v>239</v>
       </c>
       <c r="D26" s="33" t="s">
@@ -23059,19 +23113,19 @@
       <c r="G26" s="33"/>
       <c r="H26" s="33"/>
       <c r="I26" s="34"/>
-      <c r="N26" s="163"/>
-      <c r="O26" s="163" t="s">
+      <c r="N26" s="155"/>
+      <c r="O26" s="155" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="86" t="s">
+      <c r="A27" s="82" t="s">
         <v>289</v>
       </c>
-      <c r="B27" s="87" t="s">
+      <c r="B27" s="83" t="s">
         <v>294</v>
       </c>
-      <c r="C27" s="107" t="s">
+      <c r="C27" s="97" t="s">
         <v>241</v>
       </c>
       <c r="D27" s="33" t="s">
@@ -23082,17 +23136,17 @@
       <c r="G27" s="33"/>
       <c r="H27" s="33"/>
       <c r="I27" s="34"/>
-      <c r="N27" s="163"/>
-      <c r="O27" s="163"/>
+      <c r="N27" s="155"/>
+      <c r="O27" s="155"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="86" t="s">
+      <c r="A28" s="82" t="s">
         <v>289</v>
       </c>
-      <c r="B28" s="87" t="s">
+      <c r="B28" s="83" t="s">
         <v>294</v>
       </c>
-      <c r="C28" s="107" t="s">
+      <c r="C28" s="97" t="s">
         <v>306</v>
       </c>
       <c r="D28" s="33" t="s">
@@ -23103,17 +23157,17 @@
       <c r="G28" s="33"/>
       <c r="H28" s="33"/>
       <c r="I28" s="34"/>
-      <c r="N28" s="163"/>
-      <c r="O28" s="163"/>
+      <c r="N28" s="155"/>
+      <c r="O28" s="155"/>
     </row>
     <row r="29" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="86" t="s">
+      <c r="A29" s="82" t="s">
         <v>289</v>
       </c>
-      <c r="B29" s="87" t="s">
+      <c r="B29" s="83" t="s">
         <v>294</v>
       </c>
-      <c r="C29" s="108" t="s">
+      <c r="C29" s="98" t="s">
         <v>243</v>
       </c>
       <c r="D29" s="44" t="s">
@@ -23124,17 +23178,17 @@
       <c r="G29" s="44"/>
       <c r="H29" s="44"/>
       <c r="I29" s="45"/>
-      <c r="N29" s="163"/>
-      <c r="O29" s="163"/>
+      <c r="N29" s="155"/>
+      <c r="O29" s="155"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="84" t="s">
+      <c r="A30" s="80" t="s">
         <v>245</v>
       </c>
-      <c r="B30" s="81" t="s">
+      <c r="B30" s="77" t="s">
         <v>246</v>
       </c>
-      <c r="C30" s="104" t="s">
+      <c r="C30" s="94" t="s">
         <v>126</v>
       </c>
       <c r="D30" s="31" t="s">
@@ -23145,21 +23199,21 @@
       <c r="G30" s="31"/>
       <c r="H30" s="31"/>
       <c r="I30" s="32"/>
-      <c r="N30" s="163" t="s">
+      <c r="N30" s="155" t="s">
         <v>45</v>
       </c>
-      <c r="O30" s="163" t="s">
+      <c r="O30" s="155" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="86" t="s">
+      <c r="A31" s="82" t="s">
         <v>295</v>
       </c>
-      <c r="B31" s="82" t="s">
+      <c r="B31" s="78" t="s">
         <v>296</v>
       </c>
-      <c r="C31" s="105" t="s">
+      <c r="C31" s="95" t="s">
         <v>129</v>
       </c>
       <c r="D31" s="33" t="s">
@@ -23170,17 +23224,17 @@
       <c r="G31" s="33"/>
       <c r="H31" s="33"/>
       <c r="I31" s="34"/>
-      <c r="N31" s="163"/>
-      <c r="O31" s="163"/>
+      <c r="N31" s="155"/>
+      <c r="O31" s="155"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="86" t="s">
+      <c r="A32" s="82" t="s">
         <v>295</v>
       </c>
-      <c r="B32" s="82" t="s">
+      <c r="B32" s="78" t="s">
         <v>296</v>
       </c>
-      <c r="C32" s="114" t="s">
+      <c r="C32" s="104" t="s">
         <v>249</v>
       </c>
       <c r="D32" s="33" t="s">
@@ -23191,17 +23245,17 @@
       <c r="G32" s="33"/>
       <c r="H32" s="33"/>
       <c r="I32" s="34"/>
-      <c r="N32" s="163"/>
-      <c r="O32" s="163"/>
+      <c r="N32" s="155"/>
+      <c r="O32" s="155"/>
     </row>
     <row r="33" spans="1:16383" x14ac:dyDescent="0.3">
-      <c r="A33" s="86" t="s">
+      <c r="A33" s="82" t="s">
         <v>295</v>
       </c>
-      <c r="B33" s="82" t="s">
+      <c r="B33" s="78" t="s">
         <v>296</v>
       </c>
-      <c r="C33" s="114" t="s">
+      <c r="C33" s="104" t="s">
         <v>125</v>
       </c>
       <c r="D33" s="33" t="s">
@@ -23212,17 +23266,17 @@
       <c r="G33" s="33"/>
       <c r="H33" s="33"/>
       <c r="I33" s="34"/>
-      <c r="N33" s="163"/>
-      <c r="O33" s="163"/>
+      <c r="N33" s="155"/>
+      <c r="O33" s="155"/>
     </row>
     <row r="34" spans="1:16383" x14ac:dyDescent="0.3">
-      <c r="A34" s="86" t="s">
+      <c r="A34" s="82" t="s">
         <v>295</v>
       </c>
-      <c r="B34" s="82" t="s">
+      <c r="B34" s="78" t="s">
         <v>252</v>
       </c>
-      <c r="C34" s="112" t="s">
+      <c r="C34" s="102" t="s">
         <v>253</v>
       </c>
       <c r="D34" s="33" t="s">
@@ -23235,19 +23289,19 @@
       <c r="G34" s="44"/>
       <c r="H34" s="44"/>
       <c r="I34" s="45"/>
-      <c r="N34" s="163"/>
-      <c r="O34" s="163" t="s">
+      <c r="N34" s="155"/>
+      <c r="O34" s="155" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:16383" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="86" t="s">
+      <c r="A35" s="82" t="s">
         <v>295</v>
       </c>
-      <c r="B35" s="82" t="s">
+      <c r="B35" s="78" t="s">
         <v>297</v>
       </c>
-      <c r="C35" s="112" t="s">
+      <c r="C35" s="102" t="s">
         <v>255</v>
       </c>
       <c r="D35" s="60" t="s">
@@ -23262,8 +23316,8 @@
       <c r="K35" s="46"/>
       <c r="L35" s="46"/>
       <c r="M35" s="46"/>
-      <c r="N35" s="163"/>
-      <c r="O35" s="163"/>
+      <c r="N35" s="155"/>
+      <c r="O35" s="155"/>
       <c r="P35" s="46"/>
       <c r="Q35" s="46"/>
       <c r="R35" s="46"/>
@@ -39634,13 +39688,13 @@
       <c r="XFC35" s="46"/>
     </row>
     <row r="36" spans="1:16383" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="90" t="s">
+      <c r="A36" s="86" t="s">
         <v>295</v>
       </c>
       <c r="B36" s="69" t="s">
         <v>257</v>
       </c>
-      <c r="C36" s="115" t="s">
+      <c r="C36" s="105" t="s">
         <v>258</v>
       </c>
       <c r="D36" s="35" t="s">
@@ -39653,19 +39707,19 @@
       <c r="G36" s="35"/>
       <c r="H36" s="35"/>
       <c r="I36" s="36"/>
-      <c r="N36" s="163"/>
-      <c r="O36" s="80" t="s">
+      <c r="N36" s="155"/>
+      <c r="O36" s="76" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:16383" x14ac:dyDescent="0.3">
-      <c r="A37" s="91" t="s">
+      <c r="A37" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="88" t="s">
+      <c r="B37" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="106" t="s">
+      <c r="C37" s="96" t="s">
         <v>72</v>
       </c>
       <c r="D37" s="55" t="s">
@@ -39676,21 +39730,21 @@
       <c r="G37" s="55"/>
       <c r="H37" s="55"/>
       <c r="I37" s="56"/>
-      <c r="N37" s="163" t="s">
+      <c r="N37" s="155" t="s">
         <v>67</v>
       </c>
-      <c r="O37" s="163" t="s">
+      <c r="O37" s="155" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:16383" x14ac:dyDescent="0.3">
-      <c r="A38" s="78" t="s">
+      <c r="A38" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="B38" s="82" t="s">
+      <c r="B38" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="C38" s="102" t="s">
+      <c r="C38" s="92" t="s">
         <v>74</v>
       </c>
       <c r="D38" s="33" t="s">
@@ -39701,17 +39755,17 @@
       <c r="G38" s="33"/>
       <c r="H38" s="33"/>
       <c r="I38" s="34"/>
-      <c r="N38" s="163"/>
-      <c r="O38" s="163"/>
+      <c r="N38" s="155"/>
+      <c r="O38" s="155"/>
     </row>
     <row r="39" spans="1:16383" x14ac:dyDescent="0.3">
-      <c r="A39" s="78" t="s">
+      <c r="A39" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="B39" s="89" t="s">
+      <c r="B39" s="85" t="s">
         <v>280</v>
       </c>
-      <c r="C39" s="110" t="s">
+      <c r="C39" s="100" t="s">
         <v>281</v>
       </c>
       <c r="D39" s="33" t="s">
@@ -39722,19 +39776,19 @@
       <c r="G39" s="33"/>
       <c r="H39" s="33"/>
       <c r="I39" s="34"/>
-      <c r="N39" s="163"/>
-      <c r="O39" s="163" t="s">
+      <c r="N39" s="155"/>
+      <c r="O39" s="155" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="40" spans="1:16383" x14ac:dyDescent="0.3">
-      <c r="A40" s="78" t="s">
+      <c r="A40" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="87" t="s">
+      <c r="B40" s="83" t="s">
         <v>298</v>
       </c>
-      <c r="C40" s="110" t="s">
+      <c r="C40" s="100" t="s">
         <v>283</v>
       </c>
       <c r="D40" s="33" t="s">
@@ -39745,17 +39799,17 @@
       <c r="G40" s="33"/>
       <c r="H40" s="33"/>
       <c r="I40" s="34"/>
-      <c r="N40" s="163"/>
-      <c r="O40" s="163"/>
+      <c r="N40" s="155"/>
+      <c r="O40" s="155"/>
     </row>
     <row r="41" spans="1:16383" x14ac:dyDescent="0.3">
-      <c r="A41" s="78" t="s">
+      <c r="A41" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="B41" s="88" t="s">
+      <c r="B41" s="84" t="s">
         <v>298</v>
       </c>
-      <c r="C41" s="110" t="s">
+      <c r="C41" s="100" t="s">
         <v>282</v>
       </c>
       <c r="D41" s="33" t="s">
@@ -39768,17 +39822,17 @@
       <c r="G41" s="33"/>
       <c r="H41" s="33"/>
       <c r="I41" s="34"/>
-      <c r="N41" s="163"/>
-      <c r="O41" s="163"/>
+      <c r="N41" s="155"/>
+      <c r="O41" s="155"/>
     </row>
     <row r="42" spans="1:16383" x14ac:dyDescent="0.3">
-      <c r="A42" s="78" t="s">
+      <c r="A42" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="82" t="s">
+      <c r="B42" s="78" t="s">
         <v>260</v>
       </c>
-      <c r="C42" s="107" t="s">
+      <c r="C42" s="97" t="s">
         <v>142</v>
       </c>
       <c r="D42" s="33" t="s">
@@ -39789,19 +39843,19 @@
       <c r="G42" s="33"/>
       <c r="H42" s="33"/>
       <c r="I42" s="34"/>
-      <c r="N42" s="163"/>
-      <c r="O42" s="163" t="s">
+      <c r="N42" s="155"/>
+      <c r="O42" s="155" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="43" spans="1:16383" x14ac:dyDescent="0.3">
-      <c r="A43" s="78" t="s">
+      <c r="A43" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="B43" s="82" t="s">
+      <c r="B43" s="78" t="s">
         <v>299</v>
       </c>
-      <c r="C43" s="107" t="s">
+      <c r="C43" s="97" t="s">
         <v>144</v>
       </c>
       <c r="D43" s="33" t="s">
@@ -39814,17 +39868,17 @@
       <c r="G43" s="33"/>
       <c r="H43" s="33"/>
       <c r="I43" s="34"/>
-      <c r="N43" s="163"/>
-      <c r="O43" s="163"/>
+      <c r="N43" s="155"/>
+      <c r="O43" s="155"/>
     </row>
     <row r="44" spans="1:16383" x14ac:dyDescent="0.3">
-      <c r="A44" s="78" t="s">
+      <c r="A44" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="B44" s="89" t="s">
+      <c r="B44" s="85" t="s">
         <v>264</v>
       </c>
-      <c r="C44" s="113" t="s">
+      <c r="C44" s="103" t="s">
         <v>265</v>
       </c>
       <c r="D44" s="33" t="s">
@@ -39837,19 +39891,19 @@
       <c r="G44" s="33"/>
       <c r="H44" s="33"/>
       <c r="I44" s="34"/>
-      <c r="N44" s="163"/>
-      <c r="O44" s="163" t="s">
+      <c r="N44" s="155"/>
+      <c r="O44" s="155" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="45" spans="1:16383" x14ac:dyDescent="0.3">
-      <c r="A45" s="78" t="s">
+      <c r="A45" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="B45" s="87" t="s">
+      <c r="B45" s="83" t="s">
         <v>300</v>
       </c>
-      <c r="C45" s="113" t="s">
+      <c r="C45" s="103" t="s">
         <v>268</v>
       </c>
       <c r="D45" s="33" t="s">
@@ -39862,17 +39916,17 @@
       <c r="G45" s="33"/>
       <c r="H45" s="33"/>
       <c r="I45" s="34"/>
-      <c r="N45" s="163"/>
-      <c r="O45" s="163"/>
+      <c r="N45" s="155"/>
+      <c r="O45" s="155"/>
     </row>
     <row r="46" spans="1:16383" x14ac:dyDescent="0.3">
-      <c r="A46" s="92" t="s">
+      <c r="A46" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="89" t="s">
+      <c r="B46" s="85" t="s">
         <v>302</v>
       </c>
-      <c r="C46" s="108" t="s">
+      <c r="C46" s="98" t="s">
         <v>303</v>
       </c>
       <c r="D46" s="44" t="s">
@@ -39885,19 +39939,19 @@
       <c r="G46" s="44"/>
       <c r="H46" s="44"/>
       <c r="I46" s="45"/>
-      <c r="N46" s="163"/>
-      <c r="O46" s="163" t="s">
+      <c r="N46" s="155"/>
+      <c r="O46" s="155" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="47" spans="1:16383" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="92" t="s">
+      <c r="A47" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="B47" s="93" t="s">
+      <c r="B47" s="89" t="s">
         <v>302</v>
       </c>
-      <c r="C47" s="108" t="s">
+      <c r="C47" s="98" t="s">
         <v>304</v>
       </c>
       <c r="D47" s="44" t="s">
@@ -39910,8 +39964,8 @@
       <c r="G47" s="44"/>
       <c r="H47" s="44"/>
       <c r="I47" s="45"/>
-      <c r="N47" s="163"/>
-      <c r="O47" s="163"/>
+      <c r="N47" s="155"/>
+      <c r="O47" s="155"/>
     </row>
     <row r="48" spans="1:16383" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="70" t="s">
@@ -39920,7 +39974,7 @@
       <c r="B48" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="C48" s="116" t="s">
+      <c r="C48" s="106" t="s">
         <v>69</v>
       </c>
       <c r="D48" s="53" t="s">
@@ -40163,18 +40217,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="N4:N9"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="O7:O9"/>
-    <mergeCell ref="N10:N29"/>
-    <mergeCell ref="O10:O14"/>
-    <mergeCell ref="O15:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="O23:O25"/>
-    <mergeCell ref="O26:O29"/>
     <mergeCell ref="N30:N36"/>
     <mergeCell ref="O30:O33"/>
     <mergeCell ref="O34:O35"/>
@@ -40184,6 +40226,18 @@
     <mergeCell ref="O42:O43"/>
     <mergeCell ref="O44:O45"/>
     <mergeCell ref="O46:O47"/>
+    <mergeCell ref="N10:N29"/>
+    <mergeCell ref="O10:O14"/>
+    <mergeCell ref="O15:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="O23:O25"/>
+    <mergeCell ref="O26:O29"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="N4:N9"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="O7:O9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -40197,8 +40251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XEV67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -40206,27 +40260,27 @@
     <col min="1" max="1" width="16.375" customWidth="1"/>
     <col min="2" max="2" width="17.375" customWidth="1"/>
     <col min="3" max="3" width="19.75" customWidth="1"/>
-    <col min="4" max="4" width="7" style="124" customWidth="1"/>
-    <col min="5" max="5" width="11.25" style="124" customWidth="1"/>
-    <col min="6" max="6" width="5.375" style="124" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="124" customWidth="1"/>
-    <col min="8" max="8" width="8.25" style="124" customWidth="1"/>
-    <col min="9" max="9" width="5.375" style="124" customWidth="1"/>
-    <col min="10" max="11" width="7.125" style="124" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="112" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="112" customWidth="1"/>
+    <col min="6" max="6" width="5.375" style="112" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="112" customWidth="1"/>
+    <col min="8" max="8" width="8.25" style="112" customWidth="1"/>
+    <col min="9" max="9" width="5.375" style="112" customWidth="1"/>
+    <col min="10" max="11" width="7.125" style="112" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="117"/>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
+      <c r="A1" s="107"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
     </row>
     <row r="2" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
@@ -40247,644 +40301,664 @@
       <c r="F2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="121" t="s">
+      <c r="G2" s="109" t="s">
         <v>309</v>
       </c>
-      <c r="H2" s="121" t="s">
+      <c r="H2" s="109" t="s">
         <v>308</v>
       </c>
-      <c r="I2" s="121" t="s">
+      <c r="I2" s="109" t="s">
         <v>307</v>
       </c>
-      <c r="J2" s="121" t="s">
+      <c r="J2" s="109" t="s">
         <v>310</v>
       </c>
-      <c r="K2" s="121" t="s">
+      <c r="K2" s="109" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="119"/>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
+      <c r="A3" s="107"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="119"/>
     </row>
-    <row r="4" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="149" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="155" t="s">
+      <c r="B4" s="152" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="101" t="s">
+      <c r="C4" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="98">
+      <c r="D4" s="118">
         <v>1</v>
       </c>
-      <c r="E4" s="155" t="s">
+      <c r="E4" s="152" t="s">
         <v>316</v>
       </c>
-      <c r="F4" s="98"/>
-      <c r="G4" s="122" t="s">
+      <c r="F4" s="115"/>
+      <c r="G4" s="115" t="s">
         <v>330</v>
       </c>
-      <c r="H4" s="125"/>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125" t="s">
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115" t="s">
         <v>334</v>
       </c>
-      <c r="K4" s="125"/>
+      <c r="K4" s="115"/>
     </row>
-    <row r="5" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="150"/>
-      <c r="B5" s="144"/>
-      <c r="C5" s="102" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="135"/>
+      <c r="B5" s="152"/>
+      <c r="C5" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="94">
+      <c r="D5" s="116">
         <v>1</v>
       </c>
-      <c r="E5" s="144"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="122" t="s">
+      <c r="E5" s="152"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110" t="s">
         <v>330</v>
       </c>
-      <c r="H5" s="125"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="125" t="s">
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="110" t="s">
         <v>334</v>
       </c>
-      <c r="K5" s="122"/>
+      <c r="K5" s="110"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="150"/>
-      <c r="B6" s="145"/>
-      <c r="C6" s="102" t="s">
+      <c r="A6" s="135"/>
+      <c r="B6" s="150"/>
+      <c r="C6" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="94">
+      <c r="D6" s="116">
         <v>1</v>
       </c>
-      <c r="E6" s="144"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="122" t="s">
+      <c r="E6" s="152"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="110" t="s">
         <v>330</v>
       </c>
-      <c r="H6" s="125"/>
-      <c r="I6" s="122"/>
-      <c r="J6" s="125" t="s">
+      <c r="H6" s="110"/>
+      <c r="I6" s="110"/>
+      <c r="J6" s="110" t="s">
         <v>334</v>
       </c>
-      <c r="K6" s="122"/>
+      <c r="K6" s="110"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="150"/>
-      <c r="B7" s="143" t="s">
+      <c r="A7" s="135"/>
+      <c r="B7" s="153" t="s">
         <v>275</v>
       </c>
-      <c r="C7" s="102" t="s">
+      <c r="C7" s="92" t="s">
         <v>277</v>
       </c>
-      <c r="D7" s="94">
+      <c r="D7" s="116">
         <v>1</v>
       </c>
-      <c r="E7" s="144"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="122" t="s">
+      <c r="E7" s="152"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="110" t="s">
         <v>338</v>
       </c>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="122" t="s">
+      <c r="H7" s="110"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="110" t="s">
         <v>335</v>
       </c>
-      <c r="K7" s="122"/>
+      <c r="K7" s="110"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="150"/>
-      <c r="B8" s="144"/>
-      <c r="C8" s="102" t="s">
+      <c r="A8" s="135"/>
+      <c r="B8" s="152"/>
+      <c r="C8" s="92" t="s">
         <v>276</v>
       </c>
-      <c r="D8" s="94">
+      <c r="D8" s="116">
         <v>1</v>
       </c>
-      <c r="E8" s="144"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="122" t="s">
+      <c r="E8" s="152"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="110" t="s">
         <v>339</v>
       </c>
-      <c r="H8" s="122"/>
-      <c r="I8" s="122"/>
-      <c r="J8" s="122" t="s">
+      <c r="H8" s="110"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="110" t="s">
         <v>335</v>
       </c>
-      <c r="K8" s="122"/>
+      <c r="K8" s="110"/>
     </row>
     <row r="9" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="164"/>
-      <c r="B9" s="156"/>
-      <c r="C9" s="103" t="s">
+      <c r="A9" s="156"/>
+      <c r="B9" s="154"/>
+      <c r="C9" s="93" t="s">
         <v>275</v>
       </c>
-      <c r="D9" s="100">
+      <c r="D9" s="121">
         <v>1</v>
       </c>
-      <c r="E9" s="156"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="122" t="s">
+      <c r="E9" s="154"/>
+      <c r="F9" s="113"/>
+      <c r="G9" s="113" t="s">
         <v>340</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="126"/>
-      <c r="J9" s="122" t="s">
+      <c r="H9" s="113"/>
+      <c r="I9" s="113"/>
+      <c r="J9" s="113" t="s">
         <v>335</v>
       </c>
-      <c r="K9" s="126"/>
+      <c r="K9" s="113"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="149" t="s">
+      <c r="A10" s="135" t="s">
         <v>198</v>
       </c>
-      <c r="B10" s="155" t="s">
+      <c r="B10" s="152" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="109" t="s">
+      <c r="C10" s="163" t="s">
         <v>200</v>
       </c>
-      <c r="D10" s="98">
+      <c r="D10" s="118">
         <v>2</v>
       </c>
-      <c r="E10" s="155" t="s">
+      <c r="E10" s="152" t="s">
         <v>320</v>
       </c>
-      <c r="F10" s="98"/>
-      <c r="G10" s="125"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="125"/>
-      <c r="J10" s="125"/>
-      <c r="K10" s="125"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="115"/>
+      <c r="J10" s="115"/>
+      <c r="K10" s="115"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="150"/>
-      <c r="B11" s="144"/>
-      <c r="C11" s="110" t="s">
+      <c r="A11" s="135"/>
+      <c r="B11" s="152"/>
+      <c r="C11" s="100" t="s">
         <v>203</v>
       </c>
-      <c r="D11" s="94">
+      <c r="D11" s="116">
         <v>1</v>
       </c>
-      <c r="E11" s="144"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="122"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="122"/>
-      <c r="J11" s="122"/>
-      <c r="K11" s="122"/>
+      <c r="E11" s="152"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="110"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="150"/>
-      <c r="B12" s="144"/>
-      <c r="C12" s="110" t="s">
+      <c r="A12" s="135"/>
+      <c r="B12" s="152"/>
+      <c r="C12" s="100" t="s">
         <v>206</v>
       </c>
-      <c r="D12" s="94">
+      <c r="D12" s="116">
         <v>1</v>
       </c>
-      <c r="E12" s="144"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="122"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="122"/>
-      <c r="J12" s="122"/>
-      <c r="K12" s="122"/>
+      <c r="E12" s="152"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="110"/>
+      <c r="K12" s="110"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="150"/>
-      <c r="B13" s="144"/>
-      <c r="C13" s="110" t="s">
+      <c r="A13" s="135"/>
+      <c r="B13" s="152"/>
+      <c r="C13" s="100" t="s">
         <v>209</v>
       </c>
-      <c r="D13" s="94">
+      <c r="D13" s="116">
         <v>2</v>
       </c>
-      <c r="E13" s="145"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="122"/>
-      <c r="J13" s="122"/>
-      <c r="K13" s="122"/>
+      <c r="E13" s="150"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="110"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="150"/>
-      <c r="B14" s="145"/>
-      <c r="C14" s="113" t="s">
+      <c r="A14" s="135"/>
+      <c r="B14" s="150"/>
+      <c r="C14" s="103" t="s">
         <v>211</v>
       </c>
-      <c r="D14" s="94"/>
-      <c r="E14" s="73" t="s">
+      <c r="D14" s="116"/>
+      <c r="E14" s="116" t="s">
         <v>321</v>
       </c>
-      <c r="F14" s="94"/>
-      <c r="G14" s="122"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="122"/>
-      <c r="J14" s="122"/>
-      <c r="K14" s="122"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="110"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="150"/>
-      <c r="B15" s="143" t="s">
+      <c r="A15" s="135"/>
+      <c r="B15" s="153" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="111" t="s">
+      <c r="C15" s="101" t="s">
         <v>220</v>
       </c>
-      <c r="D15" s="94">
+      <c r="D15" s="116">
         <v>2</v>
       </c>
-      <c r="E15" s="143" t="s">
+      <c r="E15" s="153" t="s">
         <v>320</v>
       </c>
-      <c r="F15" s="94"/>
-      <c r="G15" s="122"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="122"/>
-      <c r="J15" s="122"/>
-      <c r="K15" s="122"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="110"/>
+      <c r="K15" s="110"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="150"/>
-      <c r="B16" s="144"/>
-      <c r="C16" s="110" t="s">
+      <c r="A16" s="135"/>
+      <c r="B16" s="152"/>
+      <c r="C16" s="100" t="s">
         <v>223</v>
       </c>
-      <c r="D16" s="94">
+      <c r="D16" s="116">
         <v>1</v>
       </c>
-      <c r="E16" s="144"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="122"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="122"/>
-      <c r="J16" s="122"/>
-      <c r="K16" s="122"/>
+      <c r="E16" s="152"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="110"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="150"/>
-      <c r="B17" s="144"/>
-      <c r="C17" s="110" t="s">
+      <c r="A17" s="135"/>
+      <c r="B17" s="152"/>
+      <c r="C17" s="100" t="s">
         <v>225</v>
       </c>
-      <c r="D17" s="94">
+      <c r="D17" s="116">
         <v>1</v>
       </c>
-      <c r="E17" s="145"/>
-      <c r="F17" s="94"/>
-      <c r="G17" s="122"/>
-      <c r="H17" s="122"/>
-      <c r="I17" s="122"/>
-      <c r="J17" s="122"/>
-      <c r="K17" s="122"/>
+      <c r="E17" s="150"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="110"/>
+      <c r="H17" s="110"/>
+      <c r="I17" s="110"/>
+      <c r="J17" s="110"/>
+      <c r="K17" s="110"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="150"/>
-      <c r="B18" s="145"/>
-      <c r="C18" s="113" t="s">
+      <c r="A18" s="135"/>
+      <c r="B18" s="150"/>
+      <c r="C18" s="103" t="s">
         <v>228</v>
       </c>
-      <c r="D18" s="94"/>
-      <c r="E18" s="73" t="s">
+      <c r="D18" s="116"/>
+      <c r="E18" s="116" t="s">
         <v>321</v>
       </c>
-      <c r="F18" s="94"/>
-      <c r="G18" s="122"/>
-      <c r="H18" s="122"/>
-      <c r="I18" s="122"/>
-      <c r="J18" s="122"/>
-      <c r="K18" s="122"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="110"/>
+      <c r="I18" s="110"/>
+      <c r="J18" s="110"/>
+      <c r="K18" s="110"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="150"/>
-      <c r="B19" s="143" t="s">
+      <c r="A19" s="135"/>
+      <c r="B19" s="153" t="s">
         <v>180</v>
       </c>
-      <c r="C19" s="107" t="s">
+      <c r="C19" s="97" t="s">
         <v>185</v>
       </c>
-      <c r="D19" s="94">
+      <c r="D19" s="116">
         <v>1</v>
       </c>
-      <c r="E19" s="143" t="s">
+      <c r="E19" s="153" t="s">
         <v>328</v>
       </c>
-      <c r="F19" s="94"/>
-      <c r="G19" s="122"/>
-      <c r="H19" s="122"/>
-      <c r="I19" s="122"/>
-      <c r="J19" s="122"/>
-      <c r="K19" s="122"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110" t="s">
+        <v>342</v>
+      </c>
+      <c r="H19" s="110"/>
+      <c r="I19" s="110"/>
+      <c r="J19" s="110" t="s">
+        <v>343</v>
+      </c>
+      <c r="K19" s="110"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="150"/>
-      <c r="B20" s="145"/>
-      <c r="C20" s="107" t="s">
+      <c r="A20" s="135"/>
+      <c r="B20" s="150"/>
+      <c r="C20" s="97" t="s">
         <v>184</v>
       </c>
-      <c r="D20" s="94">
+      <c r="D20" s="116">
         <v>2</v>
       </c>
-      <c r="E20" s="144"/>
-      <c r="F20" s="94"/>
-      <c r="G20" s="122"/>
-      <c r="H20" s="122"/>
-      <c r="I20" s="122"/>
-      <c r="J20" s="122"/>
-      <c r="K20" s="122"/>
+      <c r="E20" s="152"/>
+      <c r="F20" s="110"/>
+      <c r="G20" s="110" t="s">
+        <v>344</v>
+      </c>
+      <c r="H20" s="110"/>
+      <c r="I20" s="110"/>
+      <c r="J20" s="110" t="s">
+        <v>332</v>
+      </c>
+      <c r="K20" s="110"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="150"/>
-      <c r="B21" s="143" t="s">
+      <c r="A21" s="135"/>
+      <c r="B21" s="153" t="s">
         <v>193</v>
       </c>
-      <c r="C21" s="107" t="s">
+      <c r="C21" s="97" t="s">
         <v>195</v>
       </c>
-      <c r="D21" s="94">
+      <c r="D21" s="116">
         <v>3</v>
       </c>
-      <c r="E21" s="145"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="122"/>
-      <c r="H21" s="122"/>
-      <c r="I21" s="122"/>
-      <c r="J21" s="122"/>
-      <c r="K21" s="122"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="110"/>
+      <c r="G21" s="110" t="s">
+        <v>345</v>
+      </c>
+      <c r="H21" s="110"/>
+      <c r="I21" s="110"/>
+      <c r="J21" s="110" t="s">
+        <v>332</v>
+      </c>
+      <c r="K21" s="110"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="150"/>
-      <c r="B22" s="145"/>
-      <c r="C22" s="113" t="s">
+      <c r="A22" s="135"/>
+      <c r="B22" s="150"/>
+      <c r="C22" s="103" t="s">
         <v>194</v>
       </c>
-      <c r="D22" s="94"/>
-      <c r="E22" s="143" t="s">
+      <c r="D22" s="116"/>
+      <c r="E22" s="153" t="s">
         <v>322</v>
       </c>
-      <c r="F22" s="94"/>
-      <c r="G22" s="122"/>
-      <c r="H22" s="122"/>
-      <c r="I22" s="122"/>
-      <c r="J22" s="122"/>
-      <c r="K22" s="122"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="110"/>
+      <c r="H22" s="110"/>
+      <c r="I22" s="110"/>
+      <c r="J22" s="110"/>
+      <c r="K22" s="110"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="150"/>
-      <c r="B23" s="143" t="s">
+      <c r="A23" s="135"/>
+      <c r="B23" s="153" t="s">
         <v>115</v>
       </c>
-      <c r="C23" s="113" t="s">
+      <c r="C23" s="103" t="s">
         <v>116</v>
       </c>
-      <c r="D23" s="94"/>
-      <c r="E23" s="144"/>
-      <c r="F23" s="94"/>
-      <c r="G23" s="122"/>
-      <c r="H23" s="122"/>
-      <c r="I23" s="122"/>
-      <c r="J23" s="122"/>
-      <c r="K23" s="122"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="152"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="110"/>
+      <c r="H23" s="110"/>
+      <c r="I23" s="110"/>
+      <c r="J23" s="110"/>
+      <c r="K23" s="110"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="150"/>
-      <c r="B24" s="144"/>
-      <c r="C24" s="113" t="s">
+      <c r="A24" s="135"/>
+      <c r="B24" s="152"/>
+      <c r="C24" s="103" t="s">
         <v>118</v>
       </c>
-      <c r="D24" s="94"/>
-      <c r="E24" s="144"/>
-      <c r="F24" s="94"/>
-      <c r="G24" s="122"/>
-      <c r="H24" s="122"/>
-      <c r="I24" s="122"/>
-      <c r="J24" s="122"/>
-      <c r="K24" s="122"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="152"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="110"/>
+      <c r="I24" s="110"/>
+      <c r="J24" s="110"/>
+      <c r="K24" s="110"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="150"/>
-      <c r="B25" s="145"/>
-      <c r="C25" s="113" t="s">
+      <c r="A25" s="135"/>
+      <c r="B25" s="150"/>
+      <c r="C25" s="103" t="s">
         <v>236</v>
       </c>
-      <c r="D25" s="94"/>
-      <c r="E25" s="145"/>
-      <c r="F25" s="94"/>
-      <c r="G25" s="122"/>
-      <c r="H25" s="122"/>
-      <c r="I25" s="122"/>
-      <c r="J25" s="122"/>
-      <c r="K25" s="122"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="150"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="110"/>
+      <c r="H25" s="110"/>
+      <c r="I25" s="110"/>
+      <c r="J25" s="110"/>
+      <c r="K25" s="110"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="150"/>
-      <c r="B26" s="143" t="s">
+      <c r="A26" s="135"/>
+      <c r="B26" s="153" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="107" t="s">
+      <c r="C26" s="97" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="94"/>
-      <c r="E26" s="143" t="s">
+      <c r="D26" s="116"/>
+      <c r="E26" s="153" t="s">
         <v>317</v>
       </c>
-      <c r="F26" s="94"/>
-      <c r="G26" s="122" t="s">
+      <c r="F26" s="110"/>
+      <c r="G26" s="110" t="s">
         <v>331</v>
       </c>
-      <c r="H26" s="122"/>
-      <c r="I26" s="122"/>
-      <c r="J26" s="122" t="s">
+      <c r="H26" s="110"/>
+      <c r="I26" s="110"/>
+      <c r="J26" s="110" t="s">
         <v>341</v>
       </c>
-      <c r="K26" s="122"/>
+      <c r="K26" s="110"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="150"/>
-      <c r="B27" s="144"/>
-      <c r="C27" s="107" t="s">
+      <c r="A27" s="135"/>
+      <c r="B27" s="152"/>
+      <c r="C27" s="97" t="s">
         <v>178</v>
       </c>
-      <c r="D27" s="94"/>
-      <c r="E27" s="144"/>
-      <c r="F27" s="94"/>
-      <c r="G27" s="122" t="s">
+      <c r="D27" s="116"/>
+      <c r="E27" s="152"/>
+      <c r="F27" s="110"/>
+      <c r="G27" s="110" t="s">
         <v>331</v>
       </c>
-      <c r="H27" s="122"/>
-      <c r="I27" s="122"/>
-      <c r="J27" s="122" t="s">
+      <c r="H27" s="110"/>
+      <c r="I27" s="110"/>
+      <c r="J27" s="110" t="s">
         <v>341</v>
       </c>
-      <c r="K27" s="122"/>
+      <c r="K27" s="110"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="150"/>
-      <c r="B28" s="144"/>
-      <c r="C28" s="107" t="s">
+      <c r="A28" s="135"/>
+      <c r="B28" s="152"/>
+      <c r="C28" s="97" t="s">
         <v>312</v>
       </c>
-      <c r="D28" s="94"/>
-      <c r="E28" s="144"/>
-      <c r="F28" s="94"/>
-      <c r="G28" s="122" t="s">
+      <c r="D28" s="116"/>
+      <c r="E28" s="152"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="110" t="s">
         <v>331</v>
       </c>
-      <c r="H28" s="122"/>
-      <c r="I28" s="122"/>
-      <c r="J28" s="122" t="s">
+      <c r="H28" s="110"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="110" t="s">
         <v>341</v>
       </c>
-      <c r="K28" s="122"/>
+      <c r="K28" s="110"/>
     </row>
     <row r="29" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="164"/>
-      <c r="B29" s="156"/>
-      <c r="C29" s="108" t="s">
+      <c r="A29" s="156"/>
+      <c r="B29" s="154"/>
+      <c r="C29" s="161" t="s">
         <v>305</v>
       </c>
-      <c r="D29" s="95"/>
-      <c r="E29" s="76" t="s">
+      <c r="D29" s="121"/>
+      <c r="E29" s="120" t="s">
         <v>322</v>
       </c>
-      <c r="F29" s="95"/>
-      <c r="G29" s="127"/>
-      <c r="H29" s="127"/>
-      <c r="I29" s="127"/>
-      <c r="J29" s="127"/>
-      <c r="K29" s="127"/>
+      <c r="F29" s="113"/>
+      <c r="G29" s="113"/>
+      <c r="H29" s="113"/>
+      <c r="I29" s="113"/>
+      <c r="J29" s="113"/>
+      <c r="K29" s="113"/>
     </row>
-    <row r="30" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="149" t="s">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="135" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="155" t="s">
+      <c r="B30" s="152" t="s">
         <v>127</v>
       </c>
-      <c r="C30" s="104" t="s">
+      <c r="C30" s="162" t="s">
         <v>126</v>
       </c>
-      <c r="D30" s="98"/>
-      <c r="E30" s="155" t="s">
+      <c r="D30" s="118"/>
+      <c r="E30" s="152" t="s">
         <v>318</v>
       </c>
-      <c r="F30" s="98"/>
-      <c r="G30" s="125" t="s">
+      <c r="F30" s="115"/>
+      <c r="G30" s="115" t="s">
         <v>332</v>
       </c>
-      <c r="H30" s="125"/>
-      <c r="I30" s="125"/>
-      <c r="J30" s="125" t="s">
+      <c r="H30" s="115"/>
+      <c r="I30" s="115"/>
+      <c r="J30" s="115" t="s">
         <v>336</v>
       </c>
-      <c r="K30" s="125"/>
+      <c r="K30" s="115"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="150"/>
-      <c r="B31" s="144"/>
-      <c r="C31" s="105" t="s">
+      <c r="A31" s="135"/>
+      <c r="B31" s="152"/>
+      <c r="C31" s="95" t="s">
         <v>129</v>
       </c>
-      <c r="D31" s="94"/>
-      <c r="E31" s="145"/>
-      <c r="F31" s="94"/>
-      <c r="G31" s="125" t="s">
+      <c r="D31" s="116"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="110"/>
+      <c r="G31" s="110" t="s">
         <v>332</v>
       </c>
-      <c r="H31" s="125"/>
-      <c r="I31" s="122"/>
-      <c r="J31" s="125" t="s">
+      <c r="H31" s="110"/>
+      <c r="I31" s="110"/>
+      <c r="J31" s="110" t="s">
         <v>336</v>
       </c>
-      <c r="K31" s="122"/>
+      <c r="K31" s="110"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="150"/>
-      <c r="B32" s="144"/>
-      <c r="C32" s="114" t="s">
+      <c r="A32" s="135"/>
+      <c r="B32" s="152"/>
+      <c r="C32" s="104" t="s">
         <v>132</v>
       </c>
-      <c r="D32" s="94"/>
-      <c r="E32" s="143" t="s">
+      <c r="D32" s="116"/>
+      <c r="E32" s="153" t="s">
         <v>321</v>
       </c>
-      <c r="F32" s="94"/>
-      <c r="G32" s="122"/>
-      <c r="H32" s="122"/>
-      <c r="I32" s="122"/>
-      <c r="J32" s="122"/>
-      <c r="K32" s="122"/>
+      <c r="F32" s="110"/>
+      <c r="G32" s="110"/>
+      <c r="H32" s="110"/>
+      <c r="I32" s="110"/>
+      <c r="J32" s="110"/>
+      <c r="K32" s="110"/>
     </row>
     <row r="33" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A33" s="150"/>
-      <c r="B33" s="145"/>
-      <c r="C33" s="114" t="s">
+      <c r="A33" s="135"/>
+      <c r="B33" s="150"/>
+      <c r="C33" s="104" t="s">
         <v>125</v>
       </c>
-      <c r="D33" s="94"/>
-      <c r="E33" s="145"/>
-      <c r="F33" s="94"/>
-      <c r="G33" s="122"/>
-      <c r="H33" s="122"/>
-      <c r="I33" s="122"/>
-      <c r="J33" s="122"/>
-      <c r="K33" s="122"/>
+      <c r="D33" s="116"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="110"/>
+      <c r="G33" s="110"/>
+      <c r="H33" s="110"/>
+      <c r="I33" s="110"/>
+      <c r="J33" s="110"/>
+      <c r="K33" s="110"/>
     </row>
     <row r="34" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A34" s="150"/>
-      <c r="B34" s="143" t="s">
+      <c r="A34" s="135"/>
+      <c r="B34" s="153" t="s">
         <v>133</v>
       </c>
-      <c r="C34" s="112" t="s">
+      <c r="C34" s="102" t="s">
         <v>188</v>
       </c>
-      <c r="D34" s="95">
+      <c r="D34" s="117">
         <v>2</v>
       </c>
-      <c r="E34" s="143" t="s">
+      <c r="E34" s="153" t="s">
         <v>327</v>
       </c>
-      <c r="F34" s="95"/>
-      <c r="G34" s="127"/>
-      <c r="H34" s="127"/>
-      <c r="I34" s="127"/>
-      <c r="J34" s="127"/>
-      <c r="K34" s="127"/>
+      <c r="F34" s="110"/>
+      <c r="G34" s="110" t="s">
+        <v>346</v>
+      </c>
+      <c r="H34" s="110"/>
+      <c r="I34" s="110"/>
+      <c r="J34" s="110" t="s">
+        <v>347</v>
+      </c>
+      <c r="K34" s="110"/>
     </row>
     <row r="35" spans="1:16376" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="150"/>
-      <c r="B35" s="145"/>
-      <c r="C35" s="112" t="s">
+      <c r="A35" s="135"/>
+      <c r="B35" s="150"/>
+      <c r="C35" s="102" t="s">
         <v>134</v>
       </c>
-      <c r="D35" s="94">
+      <c r="D35" s="116">
         <v>3</v>
       </c>
-      <c r="E35" s="145"/>
-      <c r="F35" s="94"/>
-      <c r="G35" s="122"/>
-      <c r="H35" s="122"/>
-      <c r="I35" s="122"/>
-      <c r="J35" s="122"/>
-      <c r="K35" s="122"/>
+      <c r="E35" s="150"/>
+      <c r="F35" s="110"/>
+      <c r="G35" s="110" t="s">
+        <v>348</v>
+      </c>
+      <c r="H35" s="110"/>
+      <c r="I35" s="110"/>
+      <c r="J35" s="110" t="s">
+        <v>349</v>
+      </c>
+      <c r="K35" s="110"/>
       <c r="L35" s="46"/>
       <c r="M35" s="46"/>
       <c r="N35" s="46"/>
@@ -57252,259 +57326,267 @@
       <c r="XEV35" s="46"/>
     </row>
     <row r="36" spans="1:16376" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="164"/>
-      <c r="B36" s="100" t="s">
+      <c r="A36" s="156"/>
+      <c r="B36" s="121" t="s">
         <v>139</v>
       </c>
-      <c r="C36" s="115" t="s">
+      <c r="C36" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="D36" s="100"/>
-      <c r="E36" s="74" t="s">
+      <c r="D36" s="121"/>
+      <c r="E36" s="121" t="s">
         <v>323</v>
       </c>
-      <c r="F36" s="100"/>
-      <c r="G36" s="126"/>
-      <c r="H36" s="126"/>
-      <c r="I36" s="126"/>
-      <c r="J36" s="126"/>
-      <c r="K36" s="126"/>
+      <c r="F36" s="113"/>
+      <c r="G36" s="113"/>
+      <c r="H36" s="113"/>
+      <c r="I36" s="113"/>
+      <c r="J36" s="113"/>
+      <c r="K36" s="113"/>
     </row>
-    <row r="37" spans="1:16376" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="149" t="s">
+    <row r="37" spans="1:16376" x14ac:dyDescent="0.3">
+      <c r="A37" s="135" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="155" t="s">
+      <c r="B37" s="152" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="106" t="s">
+      <c r="C37" s="96" t="s">
         <v>72</v>
       </c>
-      <c r="D37" s="96">
+      <c r="D37" s="118">
         <v>3</v>
       </c>
-      <c r="E37" s="155" t="s">
+      <c r="E37" s="152" t="s">
         <v>319</v>
       </c>
-      <c r="F37" s="96"/>
-      <c r="G37" s="125" t="s">
+      <c r="F37" s="115"/>
+      <c r="G37" s="115" t="s">
         <v>332</v>
       </c>
-      <c r="H37" s="128"/>
-      <c r="I37" s="128"/>
-      <c r="J37" s="128" t="s">
+      <c r="H37" s="115"/>
+      <c r="I37" s="115"/>
+      <c r="J37" s="115" t="s">
         <v>337</v>
       </c>
-      <c r="K37" s="128"/>
+      <c r="K37" s="115"/>
     </row>
     <row r="38" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A38" s="150"/>
-      <c r="B38" s="145"/>
-      <c r="C38" s="102" t="s">
+      <c r="A38" s="135"/>
+      <c r="B38" s="150"/>
+      <c r="C38" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="D38" s="94">
+      <c r="D38" s="116">
         <v>3</v>
       </c>
-      <c r="E38" s="145"/>
-      <c r="F38" s="94"/>
-      <c r="G38" s="125" t="s">
+      <c r="E38" s="150"/>
+      <c r="F38" s="110"/>
+      <c r="G38" s="110" t="s">
         <v>332</v>
       </c>
-      <c r="H38" s="122"/>
-      <c r="I38" s="122"/>
-      <c r="J38" s="122" t="s">
+      <c r="H38" s="110"/>
+      <c r="I38" s="110"/>
+      <c r="J38" s="110" t="s">
         <v>337</v>
       </c>
-      <c r="K38" s="122"/>
+      <c r="K38" s="110"/>
     </row>
     <row r="39" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A39" s="150"/>
-      <c r="B39" s="143" t="s">
+      <c r="A39" s="135"/>
+      <c r="B39" s="153" t="s">
         <v>280</v>
       </c>
-      <c r="C39" s="110" t="s">
+      <c r="C39" s="100" t="s">
         <v>281</v>
       </c>
-      <c r="D39" s="94">
+      <c r="D39" s="116">
         <v>1</v>
       </c>
-      <c r="E39" s="143" t="s">
+      <c r="E39" s="153" t="s">
         <v>320</v>
       </c>
-      <c r="F39" s="94"/>
-      <c r="G39" s="122"/>
-      <c r="H39" s="122"/>
-      <c r="I39" s="122"/>
-      <c r="J39" s="122"/>
-      <c r="K39" s="122"/>
+      <c r="F39" s="110"/>
+      <c r="G39" s="110"/>
+      <c r="H39" s="110"/>
+      <c r="I39" s="110"/>
+      <c r="J39" s="110"/>
+      <c r="K39" s="110"/>
     </row>
     <row r="40" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A40" s="150"/>
-      <c r="B40" s="144"/>
-      <c r="C40" s="110" t="s">
+      <c r="A40" s="135"/>
+      <c r="B40" s="152"/>
+      <c r="C40" s="100" t="s">
         <v>283</v>
       </c>
-      <c r="D40" s="94">
+      <c r="D40" s="116">
         <v>1</v>
       </c>
-      <c r="E40" s="144"/>
-      <c r="F40" s="94"/>
-      <c r="G40" s="122"/>
-      <c r="H40" s="122"/>
-      <c r="I40" s="122"/>
-      <c r="J40" s="122"/>
-      <c r="K40" s="122"/>
+      <c r="E40" s="152"/>
+      <c r="F40" s="110"/>
+      <c r="G40" s="110"/>
+      <c r="H40" s="110"/>
+      <c r="I40" s="110"/>
+      <c r="J40" s="110"/>
+      <c r="K40" s="110"/>
     </row>
     <row r="41" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A41" s="150"/>
-      <c r="B41" s="145"/>
-      <c r="C41" s="110" t="s">
+      <c r="A41" s="135"/>
+      <c r="B41" s="150"/>
+      <c r="C41" s="100" t="s">
         <v>282</v>
       </c>
-      <c r="D41" s="94">
+      <c r="D41" s="116">
         <v>1</v>
       </c>
-      <c r="E41" s="145"/>
-      <c r="F41" s="94"/>
-      <c r="G41" s="122"/>
-      <c r="H41" s="122"/>
-      <c r="I41" s="122"/>
-      <c r="J41" s="122"/>
-      <c r="K41" s="122"/>
+      <c r="E41" s="150"/>
+      <c r="F41" s="110"/>
+      <c r="G41" s="110"/>
+      <c r="H41" s="110"/>
+      <c r="I41" s="110"/>
+      <c r="J41" s="110"/>
+      <c r="K41" s="110"/>
     </row>
     <row r="42" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A42" s="150"/>
-      <c r="B42" s="143" t="s">
+      <c r="A42" s="135"/>
+      <c r="B42" s="153" t="s">
         <v>152</v>
       </c>
-      <c r="C42" s="107" t="s">
+      <c r="C42" s="97" t="s">
         <v>142</v>
       </c>
-      <c r="D42" s="94">
+      <c r="D42" s="116">
         <v>2</v>
       </c>
-      <c r="E42" s="143" t="s">
+      <c r="E42" s="153" t="s">
         <v>326</v>
       </c>
-      <c r="F42" s="94"/>
-      <c r="G42" s="122"/>
-      <c r="H42" s="122"/>
-      <c r="I42" s="122"/>
-      <c r="J42" s="122"/>
-      <c r="K42" s="122"/>
+      <c r="F42" s="110"/>
+      <c r="G42" s="110" t="s">
+        <v>350</v>
+      </c>
+      <c r="H42" s="110"/>
+      <c r="I42" s="110"/>
+      <c r="J42" s="110" t="s">
+        <v>351</v>
+      </c>
+      <c r="K42" s="110"/>
     </row>
     <row r="43" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A43" s="150"/>
-      <c r="B43" s="145"/>
-      <c r="C43" s="107" t="s">
+      <c r="A43" s="135"/>
+      <c r="B43" s="150"/>
+      <c r="C43" s="97" t="s">
         <v>144</v>
       </c>
-      <c r="D43" s="94">
+      <c r="D43" s="116">
         <v>3</v>
       </c>
-      <c r="E43" s="145"/>
-      <c r="F43" s="94"/>
-      <c r="G43" s="122"/>
-      <c r="H43" s="122"/>
-      <c r="I43" s="122"/>
-      <c r="J43" s="122"/>
-      <c r="K43" s="122"/>
+      <c r="E43" s="150"/>
+      <c r="F43" s="110"/>
+      <c r="G43" s="110" t="s">
+        <v>352</v>
+      </c>
+      <c r="H43" s="110"/>
+      <c r="I43" s="110"/>
+      <c r="J43" s="110" t="s">
+        <v>353</v>
+      </c>
+      <c r="K43" s="110"/>
     </row>
     <row r="44" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A44" s="150"/>
-      <c r="B44" s="143" t="s">
+      <c r="A44" s="135"/>
+      <c r="B44" s="153" t="s">
         <v>154</v>
       </c>
-      <c r="C44" s="113" t="s">
+      <c r="C44" s="103" t="s">
         <v>155</v>
       </c>
-      <c r="D44" s="94"/>
-      <c r="E44" s="143" t="s">
+      <c r="D44" s="116"/>
+      <c r="E44" s="153" t="s">
         <v>324</v>
       </c>
-      <c r="F44" s="94"/>
-      <c r="G44" s="122"/>
-      <c r="H44" s="122"/>
-      <c r="I44" s="122"/>
-      <c r="J44" s="122"/>
-      <c r="K44" s="122"/>
+      <c r="F44" s="110"/>
+      <c r="G44" s="110"/>
+      <c r="H44" s="110"/>
+      <c r="I44" s="110"/>
+      <c r="J44" s="110"/>
+      <c r="K44" s="110"/>
     </row>
     <row r="45" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A45" s="150"/>
-      <c r="B45" s="145"/>
-      <c r="C45" s="113" t="s">
+      <c r="A45" s="135"/>
+      <c r="B45" s="150"/>
+      <c r="C45" s="103" t="s">
         <v>92</v>
       </c>
-      <c r="D45" s="94"/>
-      <c r="E45" s="145"/>
-      <c r="F45" s="94"/>
-      <c r="G45" s="122"/>
-      <c r="H45" s="122"/>
-      <c r="I45" s="122"/>
-      <c r="J45" s="122"/>
-      <c r="K45" s="122"/>
+      <c r="D45" s="116"/>
+      <c r="E45" s="150"/>
+      <c r="F45" s="116"/>
+      <c r="G45" s="110"/>
+      <c r="H45" s="110"/>
+      <c r="I45" s="110"/>
+      <c r="J45" s="110"/>
+      <c r="K45" s="110"/>
     </row>
     <row r="46" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A46" s="150"/>
-      <c r="B46" s="143" t="s">
+      <c r="A46" s="135"/>
+      <c r="B46" s="153" t="s">
         <v>301</v>
       </c>
-      <c r="C46" s="108" t="s">
+      <c r="C46" s="98" t="s">
         <v>303</v>
       </c>
-      <c r="D46" s="95"/>
-      <c r="E46" s="143" t="s">
+      <c r="D46" s="117"/>
+      <c r="E46" s="153" t="s">
         <v>325</v>
       </c>
-      <c r="F46" s="95"/>
-      <c r="G46" s="127"/>
-      <c r="H46" s="127"/>
-      <c r="I46" s="127"/>
-      <c r="J46" s="127"/>
-      <c r="K46" s="127"/>
+      <c r="F46" s="117"/>
+      <c r="G46" s="114"/>
+      <c r="H46" s="114"/>
+      <c r="I46" s="114"/>
+      <c r="J46" s="114"/>
+      <c r="K46" s="114"/>
     </row>
     <row r="47" spans="1:16376" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="164"/>
-      <c r="B47" s="156"/>
-      <c r="C47" s="108" t="s">
+      <c r="A47" s="156"/>
+      <c r="B47" s="154"/>
+      <c r="C47" s="161" t="s">
         <v>304</v>
       </c>
-      <c r="D47" s="95"/>
-      <c r="E47" s="156"/>
-      <c r="F47" s="95"/>
-      <c r="G47" s="127"/>
-      <c r="H47" s="127"/>
-      <c r="I47" s="127"/>
-      <c r="J47" s="127"/>
-      <c r="K47" s="127"/>
+      <c r="D47" s="121"/>
+      <c r="E47" s="154"/>
+      <c r="F47" s="121"/>
+      <c r="G47" s="113"/>
+      <c r="H47" s="113"/>
+      <c r="I47" s="113"/>
+      <c r="J47" s="113"/>
+      <c r="K47" s="113"/>
     </row>
     <row r="48" spans="1:16376" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="70" t="s">
+      <c r="A48" s="157" t="s">
         <v>68</v>
       </c>
-      <c r="B48" s="71" t="s">
+      <c r="B48" s="158" t="s">
         <v>69</v>
       </c>
-      <c r="C48" s="116" t="s">
+      <c r="C48" s="159" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="52">
+      <c r="D48" s="120">
         <v>1</v>
       </c>
-      <c r="E48" s="52" t="s">
+      <c r="E48" s="120" t="s">
         <v>315</v>
       </c>
-      <c r="F48" s="52"/>
-      <c r="G48" s="129" t="s">
+      <c r="F48" s="120"/>
+      <c r="G48" s="160" t="s">
         <v>329</v>
       </c>
-      <c r="H48" s="129"/>
-      <c r="I48" s="129"/>
-      <c r="J48" s="129" t="s">
+      <c r="H48" s="160"/>
+      <c r="I48" s="160"/>
+      <c r="J48" s="160" t="s">
         <v>333</v>
       </c>
-      <c r="K48" s="129"/>
+      <c r="K48" s="160"/>
       <c r="L48" s="48"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -57707,88 +57789,83 @@
       <c r="A63" s="48"/>
       <c r="B63" s="48"/>
       <c r="C63" s="48"/>
-      <c r="D63" s="123"/>
-      <c r="E63" s="123"/>
-      <c r="F63" s="123"/>
-      <c r="G63" s="123"/>
-      <c r="H63" s="123"/>
-      <c r="I63" s="123"/>
-      <c r="J63" s="123"/>
-      <c r="K63" s="123"/>
+      <c r="D63" s="111"/>
+      <c r="E63" s="111"/>
+      <c r="F63" s="111"/>
+      <c r="G63" s="111"/>
+      <c r="H63" s="111"/>
+      <c r="I63" s="111"/>
+      <c r="J63" s="111"/>
+      <c r="K63" s="111"/>
       <c r="L63" s="48"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="48"/>
       <c r="B64" s="48"/>
       <c r="C64" s="48"/>
-      <c r="D64" s="123"/>
-      <c r="E64" s="123"/>
-      <c r="F64" s="123"/>
-      <c r="G64" s="123"/>
-      <c r="H64" s="123"/>
-      <c r="I64" s="123"/>
-      <c r="J64" s="123"/>
-      <c r="K64" s="123"/>
+      <c r="D64" s="111"/>
+      <c r="E64" s="111"/>
+      <c r="F64" s="111"/>
+      <c r="G64" s="111"/>
+      <c r="H64" s="111"/>
+      <c r="I64" s="111"/>
+      <c r="J64" s="111"/>
+      <c r="K64" s="111"/>
       <c r="L64" s="48"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="48"/>
       <c r="B65" s="48"/>
       <c r="C65" s="48"/>
-      <c r="D65" s="123"/>
-      <c r="E65" s="123"/>
-      <c r="F65" s="123"/>
-      <c r="G65" s="123"/>
-      <c r="H65" s="123"/>
-      <c r="I65" s="123"/>
-      <c r="J65" s="123"/>
-      <c r="K65" s="123"/>
+      <c r="D65" s="111"/>
+      <c r="E65" s="111"/>
+      <c r="F65" s="111"/>
+      <c r="G65" s="111"/>
+      <c r="H65" s="111"/>
+      <c r="I65" s="111"/>
+      <c r="J65" s="111"/>
+      <c r="K65" s="111"/>
       <c r="L65" s="48"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="48"/>
       <c r="B66" s="48"/>
       <c r="C66" s="48"/>
-      <c r="D66" s="123"/>
-      <c r="E66" s="123"/>
-      <c r="F66" s="123"/>
-      <c r="G66" s="123"/>
-      <c r="H66" s="123"/>
-      <c r="I66" s="123"/>
-      <c r="J66" s="123"/>
-      <c r="K66" s="123"/>
+      <c r="D66" s="111"/>
+      <c r="E66" s="111"/>
+      <c r="F66" s="111"/>
+      <c r="G66" s="111"/>
+      <c r="H66" s="111"/>
+      <c r="I66" s="111"/>
+      <c r="J66" s="111"/>
+      <c r="K66" s="111"/>
       <c r="L66" s="48"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="48"/>
       <c r="B67" s="48"/>
       <c r="C67" s="48"/>
-      <c r="D67" s="123"/>
-      <c r="E67" s="123"/>
-      <c r="F67" s="123"/>
-      <c r="G67" s="123"/>
-      <c r="H67" s="123"/>
-      <c r="I67" s="123"/>
-      <c r="J67" s="123"/>
-      <c r="K67" s="123"/>
+      <c r="D67" s="111"/>
+      <c r="E67" s="111"/>
+      <c r="F67" s="111"/>
+      <c r="G67" s="111"/>
+      <c r="H67" s="111"/>
+      <c r="I67" s="111"/>
+      <c r="J67" s="111"/>
+      <c r="K67" s="111"/>
       <c r="L67" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="E4:E9"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A37:A47"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B7:B9"/>
@@ -57799,15 +57876,20 @@
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B26:B29"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A37:A47"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="E4:E9"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="E42:E43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WebContent/발표/3조 5차 요구사항정의서.xlsx
+++ b/WebContent/발표/3조 5차 요구사항정의서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a01_javaexp\github\project05\WebContent\발표\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a01_javaexp\project04\project05\WebContent\발표\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="363">
   <si>
     <t>구분</t>
   </si>
@@ -1365,6 +1365,42 @@
     <t>X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월13일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월15일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월17일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월21일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월24일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월27일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월27일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월24일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2432,111 +2468,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2557,6 +2488,111 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2599,7 +2635,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$4" spid="_x0000_s1255"/>
+                  <a14:cameraTool cellRange="$O$4" spid="_x0000_s1274"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2658,7 +2694,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$7" spid="_x0000_s1256"/>
+                  <a14:cameraTool cellRange="$O$7" spid="_x0000_s1275"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2717,7 +2753,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$N$10" spid="_x0000_s1257"/>
+                  <a14:cameraTool cellRange="$N$10" spid="_x0000_s1276"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2776,7 +2812,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$10" spid="_x0000_s1258"/>
+                  <a14:cameraTool cellRange="$O$10" spid="_x0000_s1277"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2835,7 +2871,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$15" spid="_x0000_s1259"/>
+                  <a14:cameraTool cellRange="$O$15" spid="_x0000_s1278"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2894,7 +2930,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$19" spid="_x0000_s1260"/>
+                  <a14:cameraTool cellRange="$O$19" spid="_x0000_s1279"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2953,7 +2989,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$21" spid="_x0000_s1261"/>
+                  <a14:cameraTool cellRange="$O$21" spid="_x0000_s1280"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3012,7 +3048,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$23" spid="_x0000_s1262"/>
+                  <a14:cameraTool cellRange="$O$23" spid="_x0000_s1281"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3071,7 +3107,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$26" spid="_x0000_s1263"/>
+                  <a14:cameraTool cellRange="$O$26" spid="_x0000_s1282"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3130,7 +3166,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$N$30" spid="_x0000_s1264"/>
+                  <a14:cameraTool cellRange="$N$30" spid="_x0000_s1283"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3189,7 +3225,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$N$37" spid="_x0000_s1265"/>
+                  <a14:cameraTool cellRange="$N$37" spid="_x0000_s1284"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3248,7 +3284,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$30" spid="_x0000_s1266"/>
+                  <a14:cameraTool cellRange="$O$30" spid="_x0000_s1285"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3307,7 +3343,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$34" spid="_x0000_s1267"/>
+                  <a14:cameraTool cellRange="$O$34" spid="_x0000_s1286"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3366,7 +3402,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$37" spid="_x0000_s1268"/>
+                  <a14:cameraTool cellRange="$O$37" spid="_x0000_s1287"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3425,7 +3461,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$39" spid="_x0000_s1269"/>
+                  <a14:cameraTool cellRange="$O$39" spid="_x0000_s1288"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3484,7 +3520,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$42" spid="_x0000_s1270"/>
+                  <a14:cameraTool cellRange="$O$42" spid="_x0000_s1289"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3543,7 +3579,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$44" spid="_x0000_s1271"/>
+                  <a14:cameraTool cellRange="$O$44" spid="_x0000_s1290"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3602,7 +3638,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$46" spid="_x0000_s1272"/>
+                  <a14:cameraTool cellRange="$O$46" spid="_x0000_s1291"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3661,7 +3697,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$N$4" spid="_x0000_s1273"/>
+                  <a14:cameraTool cellRange="$N$4" spid="_x0000_s1292"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4047,10 +4083,10 @@
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="131" t="s">
+      <c r="B3" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="122" t="s">
+      <c r="C3" s="132" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="15" t="s">
@@ -4067,8 +4103,8 @@
       <c r="K3" s="11"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="132"/>
-      <c r="C4" s="123"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="133"/>
       <c r="D4" s="13" t="s">
         <v>13</v>
       </c>
@@ -4083,8 +4119,8 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="132"/>
-      <c r="C5" s="126"/>
+      <c r="B5" s="136"/>
+      <c r="C5" s="134"/>
       <c r="D5" s="16" t="s">
         <v>15</v>
       </c>
@@ -4099,8 +4135,8 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="132"/>
-      <c r="C6" s="122" t="s">
+      <c r="B6" s="136"/>
+      <c r="C6" s="132" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="12" t="s">
@@ -4117,8 +4153,8 @@
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="132"/>
-      <c r="C7" s="123"/>
+      <c r="B7" s="136"/>
+      <c r="C7" s="133"/>
       <c r="D7" s="13" t="s">
         <v>20</v>
       </c>
@@ -4133,8 +4169,8 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="133"/>
-      <c r="C8" s="126"/>
+      <c r="B8" s="137"/>
+      <c r="C8" s="134"/>
       <c r="D8" s="16" t="s">
         <v>17</v>
       </c>
@@ -4151,10 +4187,10 @@
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="130" t="s">
+      <c r="B9" s="129" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="122" t="s">
+      <c r="C9" s="132" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="15" t="s">
@@ -4171,8 +4207,8 @@
       <c r="K9" s="11"/>
     </row>
     <row r="10" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="124"/>
-      <c r="C10" s="126"/>
+      <c r="B10" s="130"/>
+      <c r="C10" s="134"/>
       <c r="D10" s="17" t="s">
         <v>25</v>
       </c>
@@ -4187,11 +4223,11 @@
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="124"/>
-      <c r="C11" s="122" t="s">
+      <c r="B11" s="130"/>
+      <c r="C11" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="127" t="s">
+      <c r="D11" s="138" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="10" t="s">
@@ -4205,9 +4241,9 @@
       <c r="K11" s="11"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="124"/>
-      <c r="C12" s="123"/>
-      <c r="D12" s="129"/>
+      <c r="B12" s="130"/>
+      <c r="C12" s="133"/>
+      <c r="D12" s="139"/>
       <c r="E12" s="1" t="s">
         <v>34</v>
       </c>
@@ -4219,8 +4255,8 @@
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="124"/>
-      <c r="C13" s="123"/>
+      <c r="B13" s="130"/>
+      <c r="C13" s="133"/>
       <c r="D13" s="13" t="s">
         <v>31</v>
       </c>
@@ -4235,8 +4271,8 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="124"/>
-      <c r="C14" s="123"/>
+      <c r="B14" s="130"/>
+      <c r="C14" s="133"/>
       <c r="D14" s="13" t="s">
         <v>32</v>
       </c>
@@ -4251,8 +4287,8 @@
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="124"/>
-      <c r="C15" s="126"/>
+      <c r="B15" s="130"/>
+      <c r="C15" s="134"/>
       <c r="D15" s="17" t="s">
         <v>35</v>
       </c>
@@ -4269,8 +4305,8 @@
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="124"/>
-      <c r="C16" s="122" t="s">
+      <c r="B16" s="130"/>
+      <c r="C16" s="132" t="s">
         <v>38</v>
       </c>
       <c r="D16" s="15" t="s">
@@ -4287,8 +4323,8 @@
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="124"/>
-      <c r="C17" s="123"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="133"/>
       <c r="D17" s="13" t="s">
         <v>31</v>
       </c>
@@ -4303,8 +4339,8 @@
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="124"/>
-      <c r="C18" s="123"/>
+      <c r="B18" s="130"/>
+      <c r="C18" s="133"/>
       <c r="D18" s="13" t="s">
         <v>42</v>
       </c>
@@ -4319,8 +4355,8 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="125"/>
-      <c r="C19" s="126"/>
+      <c r="B19" s="131"/>
+      <c r="C19" s="134"/>
       <c r="D19" s="17" t="s">
         <v>35</v>
       </c>
@@ -4335,10 +4371,10 @@
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="130" t="s">
+      <c r="B20" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="122" t="s">
+      <c r="C20" s="132" t="s">
         <v>46</v>
       </c>
       <c r="D20" s="15" t="s">
@@ -4355,8 +4391,8 @@
       <c r="K20" s="11"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="124"/>
-      <c r="C21" s="123"/>
+      <c r="B21" s="130"/>
+      <c r="C21" s="133"/>
       <c r="D21" s="13" t="s">
         <v>48</v>
       </c>
@@ -4371,8 +4407,8 @@
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="124"/>
-      <c r="C22" s="126"/>
+      <c r="B22" s="130"/>
+      <c r="C22" s="134"/>
       <c r="D22" s="16" t="s">
         <v>52</v>
       </c>
@@ -4387,7 +4423,7 @@
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="124"/>
+      <c r="B23" s="130"/>
       <c r="C23" s="21" t="s">
         <v>54</v>
       </c>
@@ -4405,10 +4441,10 @@
       <c r="K23" s="20"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="130" t="s">
+      <c r="B24" s="129" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="122" t="s">
+      <c r="C24" s="132" t="s">
         <v>49</v>
       </c>
       <c r="D24" s="15" t="s">
@@ -4425,8 +4461,8 @@
       <c r="K24" s="11"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="124"/>
-      <c r="C25" s="123"/>
+      <c r="B25" s="130"/>
+      <c r="C25" s="133"/>
       <c r="D25" s="13" t="s">
         <v>59</v>
       </c>
@@ -4441,8 +4477,8 @@
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="124"/>
-      <c r="C26" s="126"/>
+      <c r="B26" s="130"/>
+      <c r="C26" s="134"/>
       <c r="D26" s="16" t="s">
         <v>61</v>
       </c>
@@ -4457,7 +4493,7 @@
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="124"/>
+      <c r="B27" s="130"/>
       <c r="C27" s="23" t="s">
         <v>56</v>
       </c>
@@ -4475,7 +4511,7 @@
       <c r="K27" s="20"/>
     </row>
     <row r="28" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="125"/>
+      <c r="B28" s="131"/>
       <c r="C28" s="23" t="s">
         <v>44</v>
       </c>
@@ -4513,10 +4549,10 @@
       <c r="K29" s="20"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="122" t="s">
+      <c r="B30" s="132" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="127" t="s">
+      <c r="C30" s="138" t="s">
         <v>71</v>
       </c>
       <c r="D30" s="15" t="s">
@@ -4533,8 +4569,8 @@
       <c r="K30" s="11"/>
     </row>
     <row r="31" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="123"/>
-      <c r="C31" s="128"/>
+      <c r="B31" s="133"/>
+      <c r="C31" s="140"/>
       <c r="D31" s="14" t="s">
         <v>74</v>
       </c>
@@ -4549,8 +4585,8 @@
       <c r="K31" s="27"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="124"/>
-      <c r="C32" s="122" t="s">
+      <c r="B32" s="130"/>
+      <c r="C32" s="132" t="s">
         <v>85</v>
       </c>
       <c r="D32" s="15" t="s">
@@ -4567,8 +4603,8 @@
       <c r="K32" s="11"/>
     </row>
     <row r="33" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="124"/>
-      <c r="C33" s="126"/>
+      <c r="B33" s="130"/>
+      <c r="C33" s="134"/>
       <c r="D33" s="16" t="s">
         <v>88</v>
       </c>
@@ -4583,8 +4619,8 @@
       <c r="K33" s="4"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="124"/>
-      <c r="C34" s="122" t="s">
+      <c r="B34" s="130"/>
+      <c r="C34" s="132" t="s">
         <v>90</v>
       </c>
       <c r="D34" s="15" t="s">
@@ -4601,8 +4637,8 @@
       <c r="K34" s="11"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="124"/>
-      <c r="C35" s="123"/>
+      <c r="B35" s="130"/>
+      <c r="C35" s="133"/>
       <c r="D35" s="13"/>
       <c r="E35" s="1" t="s">
         <v>34</v>
@@ -4615,8 +4651,8 @@
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="124"/>
-      <c r="C36" s="123"/>
+      <c r="B36" s="130"/>
+      <c r="C36" s="133"/>
       <c r="D36" s="13" t="s">
         <v>31</v>
       </c>
@@ -4631,8 +4667,8 @@
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="124"/>
-      <c r="C37" s="123"/>
+      <c r="B37" s="130"/>
+      <c r="C37" s="133"/>
       <c r="D37" s="13" t="s">
         <v>92</v>
       </c>
@@ -4647,8 +4683,8 @@
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="124"/>
-      <c r="C38" s="126"/>
+      <c r="B38" s="130"/>
+      <c r="C38" s="134"/>
       <c r="D38" s="16" t="s">
         <v>94</v>
       </c>
@@ -4663,8 +4699,8 @@
       <c r="K38" s="4"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="124"/>
-      <c r="C39" s="122" t="s">
+      <c r="B39" s="130"/>
+      <c r="C39" s="132" t="s">
         <v>38</v>
       </c>
       <c r="D39" s="15" t="s">
@@ -4681,8 +4717,8 @@
       <c r="K39" s="11"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="124"/>
-      <c r="C40" s="123"/>
+      <c r="B40" s="130"/>
+      <c r="C40" s="133"/>
       <c r="D40" s="13" t="s">
         <v>31</v>
       </c>
@@ -4697,8 +4733,8 @@
       <c r="K40" s="2"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="124"/>
-      <c r="C41" s="123"/>
+      <c r="B41" s="130"/>
+      <c r="C41" s="133"/>
       <c r="D41" s="13" t="s">
         <v>92</v>
       </c>
@@ -4713,8 +4749,8 @@
       <c r="K41" s="2"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="124"/>
-      <c r="C42" s="123"/>
+      <c r="B42" s="130"/>
+      <c r="C42" s="133"/>
       <c r="D42" s="13" t="s">
         <v>35</v>
       </c>
@@ -4729,8 +4765,8 @@
       <c r="K42" s="2"/>
     </row>
     <row r="43" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="124"/>
-      <c r="C43" s="126"/>
+      <c r="B43" s="130"/>
+      <c r="C43" s="134"/>
       <c r="D43" s="16" t="s">
         <v>97</v>
       </c>
@@ -4745,8 +4781,8 @@
       <c r="K43" s="4"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="124"/>
-      <c r="C44" s="122" t="s">
+      <c r="B44" s="130"/>
+      <c r="C44" s="132" t="s">
         <v>76</v>
       </c>
       <c r="D44" s="15" t="s">
@@ -4763,8 +4799,8 @@
       <c r="K44" s="11"/>
     </row>
     <row r="45" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="124"/>
-      <c r="C45" s="126"/>
+      <c r="B45" s="130"/>
+      <c r="C45" s="134"/>
       <c r="D45" s="16" t="s">
         <v>79</v>
       </c>
@@ -4779,8 +4815,8 @@
       <c r="K45" s="4"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="124"/>
-      <c r="C46" s="122" t="s">
+      <c r="B46" s="130"/>
+      <c r="C46" s="132" t="s">
         <v>81</v>
       </c>
       <c r="D46" s="15" t="s">
@@ -4797,8 +4833,8 @@
       <c r="K46" s="11"/>
     </row>
     <row r="47" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="124"/>
-      <c r="C47" s="126"/>
+      <c r="B47" s="130"/>
+      <c r="C47" s="134"/>
       <c r="D47" s="16" t="s">
         <v>83</v>
       </c>
@@ -4813,8 +4849,8 @@
       <c r="K47" s="4"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="124"/>
-      <c r="C48" s="122" t="s">
+      <c r="B48" s="130"/>
+      <c r="C48" s="132" t="s">
         <v>56</v>
       </c>
       <c r="D48" s="15" t="s">
@@ -4831,8 +4867,8 @@
       <c r="K48" s="11"/>
     </row>
     <row r="49" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="125"/>
-      <c r="C49" s="126"/>
+      <c r="B49" s="131"/>
+      <c r="C49" s="134"/>
       <c r="D49" s="16" t="s">
         <v>101</v>
       </c>
@@ -4848,18 +4884,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B9:B19"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C22"/>
     <mergeCell ref="B30:B49"/>
     <mergeCell ref="C39:C43"/>
     <mergeCell ref="C34:C38"/>
@@ -4868,6 +4892,18 @@
     <mergeCell ref="C48:C49"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B9:B19"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4937,21 +4973,21 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="136"/>
-      <c r="B3" s="137"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="138"/>
+      <c r="A3" s="156"/>
+      <c r="B3" s="157"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="157"/>
+      <c r="I3" s="158"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="139" t="s">
+      <c r="A4" s="159" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="142" t="s">
+      <c r="B4" s="153" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="37" t="s">
@@ -4967,8 +5003,8 @@
       <c r="I4" s="32"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="140"/>
-      <c r="B5" s="143"/>
+      <c r="A5" s="151"/>
+      <c r="B5" s="141"/>
       <c r="C5" s="38" t="s">
         <v>13</v>
       </c>
@@ -4982,8 +5018,8 @@
       <c r="I5" s="34"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="140"/>
-      <c r="B6" s="143"/>
+      <c r="A6" s="151"/>
+      <c r="B6" s="141"/>
       <c r="C6" s="38" t="s">
         <v>15</v>
       </c>
@@ -4997,8 +5033,8 @@
       <c r="I6" s="34"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="140"/>
-      <c r="B7" s="143" t="s">
+      <c r="A7" s="151"/>
+      <c r="B7" s="141" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="38" t="s">
@@ -5014,8 +5050,8 @@
       <c r="I7" s="34"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="140"/>
-      <c r="B8" s="143"/>
+      <c r="A8" s="151"/>
+      <c r="B8" s="141"/>
       <c r="C8" s="38" t="s">
         <v>20</v>
       </c>
@@ -5029,8 +5065,8 @@
       <c r="I8" s="34"/>
     </row>
     <row r="9" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="141"/>
-      <c r="B9" s="144"/>
+      <c r="A9" s="160"/>
+      <c r="B9" s="161"/>
       <c r="C9" s="39" t="s">
         <v>17</v>
       </c>
@@ -5044,10 +5080,10 @@
       <c r="I9" s="36"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="134" t="s">
+      <c r="A10" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="151" t="s">
+      <c r="B10" s="154" t="s">
         <v>103</v>
       </c>
       <c r="C10" s="37" t="s">
@@ -5063,8 +5099,8 @@
       <c r="I10" s="32"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="135"/>
-      <c r="B11" s="152"/>
+      <c r="A11" s="149"/>
+      <c r="B11" s="143"/>
       <c r="C11" s="38" t="s">
         <v>105</v>
       </c>
@@ -5078,8 +5114,8 @@
       <c r="I11" s="34"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="135"/>
-      <c r="B12" s="152"/>
+      <c r="A12" s="149"/>
+      <c r="B12" s="143"/>
       <c r="C12" s="38" t="s">
         <v>92</v>
       </c>
@@ -5093,8 +5129,8 @@
       <c r="I12" s="34"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="135"/>
-      <c r="B13" s="150"/>
+      <c r="A13" s="149"/>
+      <c r="B13" s="144"/>
       <c r="C13" s="38" t="s">
         <v>109</v>
       </c>
@@ -5110,8 +5146,8 @@
       <c r="I13" s="34"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="135"/>
-      <c r="B14" s="153" t="s">
+      <c r="A14" s="149"/>
+      <c r="B14" s="142" t="s">
         <v>180</v>
       </c>
       <c r="C14" s="38" t="s">
@@ -5127,8 +5163,8 @@
       <c r="I14" s="34"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="135"/>
-      <c r="B15" s="152"/>
+      <c r="A15" s="149"/>
+      <c r="B15" s="143"/>
       <c r="C15" s="38" t="s">
         <v>184</v>
       </c>
@@ -5142,8 +5178,8 @@
       <c r="I15" s="34"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="135"/>
-      <c r="B16" s="153" t="s">
+      <c r="A16" s="149"/>
+      <c r="B16" s="142" t="s">
         <v>111</v>
       </c>
       <c r="C16" s="58" t="s">
@@ -5159,8 +5195,8 @@
       <c r="I16" s="34"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="135"/>
-      <c r="B17" s="152"/>
+      <c r="A17" s="149"/>
+      <c r="B17" s="143"/>
       <c r="C17" s="38" t="s">
         <v>105</v>
       </c>
@@ -5174,8 +5210,8 @@
       <c r="I17" s="34"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="135"/>
-      <c r="B18" s="152"/>
+      <c r="A18" s="149"/>
+      <c r="B18" s="143"/>
       <c r="C18" s="38" t="s">
         <v>113</v>
       </c>
@@ -5191,8 +5227,8 @@
       <c r="I18" s="34"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="135"/>
-      <c r="B19" s="150"/>
+      <c r="A19" s="149"/>
+      <c r="B19" s="144"/>
       <c r="C19" s="38" t="s">
         <v>109</v>
       </c>
@@ -5206,8 +5242,8 @@
       <c r="I19" s="34"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="135"/>
-      <c r="B20" s="153" t="s">
+      <c r="A20" s="149"/>
+      <c r="B20" s="142" t="s">
         <v>193</v>
       </c>
       <c r="C20" s="59" t="s">
@@ -5223,8 +5259,8 @@
       <c r="I20" s="34"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="135"/>
-      <c r="B21" s="150"/>
+      <c r="A21" s="149"/>
+      <c r="B21" s="144"/>
       <c r="C21" s="59" t="s">
         <v>194</v>
       </c>
@@ -5238,8 +5274,8 @@
       <c r="I21" s="34"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="135"/>
-      <c r="B22" s="153" t="s">
+      <c r="A22" s="149"/>
+      <c r="B22" s="142" t="s">
         <v>115</v>
       </c>
       <c r="C22" s="38" t="s">
@@ -5255,8 +5291,8 @@
       <c r="I22" s="34"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="135"/>
-      <c r="B23" s="152"/>
+      <c r="A23" s="149"/>
+      <c r="B23" s="143"/>
       <c r="C23" s="38" t="s">
         <v>118</v>
       </c>
@@ -5270,8 +5306,8 @@
       <c r="I23" s="34"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="135"/>
-      <c r="B24" s="152"/>
+      <c r="A24" s="149"/>
+      <c r="B24" s="143"/>
       <c r="C24" s="38" t="s">
         <v>120</v>
       </c>
@@ -5285,8 +5321,8 @@
       <c r="I24" s="34"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="135"/>
-      <c r="B25" s="150"/>
+      <c r="A25" s="149"/>
+      <c r="B25" s="144"/>
       <c r="C25" s="38" t="s">
         <v>122</v>
       </c>
@@ -5300,8 +5336,8 @@
       <c r="I25" s="34"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="135"/>
-      <c r="B26" s="153" t="s">
+      <c r="A26" s="149"/>
+      <c r="B26" s="142" t="s">
         <v>174</v>
       </c>
       <c r="C26" s="38" t="s">
@@ -5317,8 +5353,8 @@
       <c r="I26" s="34"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="135"/>
-      <c r="B27" s="152"/>
+      <c r="A27" s="149"/>
+      <c r="B27" s="143"/>
       <c r="C27" s="38" t="s">
         <v>178</v>
       </c>
@@ -5332,8 +5368,8 @@
       <c r="I27" s="34"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="135"/>
-      <c r="B28" s="152"/>
+      <c r="A28" s="149"/>
+      <c r="B28" s="143"/>
       <c r="C28" s="38" t="s">
         <v>182</v>
       </c>
@@ -5347,8 +5383,8 @@
       <c r="I28" s="34"/>
     </row>
     <row r="29" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="135"/>
-      <c r="B29" s="152"/>
+      <c r="A29" s="149"/>
+      <c r="B29" s="143"/>
       <c r="C29" s="58" t="s">
         <v>176</v>
       </c>
@@ -5362,10 +5398,10 @@
       <c r="I29" s="45"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="134" t="s">
+      <c r="A30" s="148" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="142" t="s">
+      <c r="B30" s="153" t="s">
         <v>127</v>
       </c>
       <c r="C30" s="62" t="s">
@@ -5381,8 +5417,8 @@
       <c r="I30" s="32"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="135"/>
-      <c r="B31" s="143"/>
+      <c r="A31" s="149"/>
+      <c r="B31" s="141"/>
       <c r="C31" s="63" t="s">
         <v>129</v>
       </c>
@@ -5396,8 +5432,8 @@
       <c r="I31" s="34"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="135"/>
-      <c r="B32" s="143"/>
+      <c r="A32" s="149"/>
+      <c r="B32" s="141"/>
       <c r="C32" s="63" t="s">
         <v>132</v>
       </c>
@@ -5411,8 +5447,8 @@
       <c r="I32" s="34"/>
     </row>
     <row r="33" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A33" s="135"/>
-      <c r="B33" s="143"/>
+      <c r="A33" s="149"/>
+      <c r="B33" s="141"/>
       <c r="C33" s="63" t="s">
         <v>125</v>
       </c>
@@ -5426,8 +5462,8 @@
       <c r="I33" s="34"/>
     </row>
     <row r="34" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A34" s="135"/>
-      <c r="B34" s="143" t="s">
+      <c r="A34" s="149"/>
+      <c r="B34" s="141" t="s">
         <v>133</v>
       </c>
       <c r="C34" s="63" t="s">
@@ -5443,8 +5479,8 @@
       <c r="I34" s="45"/>
     </row>
     <row r="35" spans="1:16384" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="135"/>
-      <c r="B35" s="143"/>
+      <c r="A35" s="149"/>
+      <c r="B35" s="141"/>
       <c r="C35" s="63" t="s">
         <v>134</v>
       </c>
@@ -21833,8 +21869,8 @@
       <c r="XFD35" s="46"/>
     </row>
     <row r="36" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A36" s="135"/>
-      <c r="B36" s="143"/>
+      <c r="A36" s="149"/>
+      <c r="B36" s="141"/>
       <c r="C36" s="64" t="s">
         <v>187</v>
       </c>
@@ -21846,8 +21882,8 @@
       <c r="I36" s="56"/>
     </row>
     <row r="37" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A37" s="135"/>
-      <c r="B37" s="143" t="s">
+      <c r="A37" s="149"/>
+      <c r="B37" s="141" t="s">
         <v>136</v>
       </c>
       <c r="C37" s="63" t="s">
@@ -21863,8 +21899,8 @@
       <c r="I37" s="34"/>
     </row>
     <row r="38" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A38" s="135"/>
-      <c r="B38" s="143"/>
+      <c r="A38" s="149"/>
+      <c r="B38" s="141"/>
       <c r="C38" s="63" t="s">
         <v>92</v>
       </c>
@@ -21878,7 +21914,7 @@
       <c r="I38" s="34"/>
     </row>
     <row r="39" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A39" s="135"/>
+      <c r="A39" s="149"/>
       <c r="B39" s="57" t="s">
         <v>139</v>
       </c>
@@ -21895,10 +21931,10 @@
       <c r="I39" s="34"/>
     </row>
     <row r="40" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A40" s="148" t="s">
+      <c r="A40" s="150" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="150" t="s">
+      <c r="B40" s="144" t="s">
         <v>71</v>
       </c>
       <c r="C40" s="41" t="s">
@@ -21914,8 +21950,8 @@
       <c r="I40" s="56"/>
     </row>
     <row r="41" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A41" s="140"/>
-      <c r="B41" s="143"/>
+      <c r="A41" s="151"/>
+      <c r="B41" s="141"/>
       <c r="C41" s="40" t="s">
         <v>74</v>
       </c>
@@ -21929,8 +21965,8 @@
       <c r="I41" s="34"/>
     </row>
     <row r="42" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A42" s="140"/>
-      <c r="B42" s="143" t="s">
+      <c r="A42" s="151"/>
+      <c r="B42" s="141" t="s">
         <v>152</v>
       </c>
       <c r="C42" s="40" t="s">
@@ -21946,8 +21982,8 @@
       <c r="I42" s="34"/>
     </row>
     <row r="43" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A43" s="140"/>
-      <c r="B43" s="143"/>
+      <c r="A43" s="151"/>
+      <c r="B43" s="141"/>
       <c r="C43" s="40" t="s">
         <v>144</v>
       </c>
@@ -21961,11 +21997,11 @@
       <c r="I43" s="34"/>
     </row>
     <row r="44" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A44" s="140"/>
-      <c r="B44" s="143" t="s">
+      <c r="A44" s="151"/>
+      <c r="B44" s="141" t="s">
         <v>163</v>
       </c>
-      <c r="C44" s="153" t="s">
+      <c r="C44" s="142" t="s">
         <v>162</v>
       </c>
       <c r="D44" s="33" t="s">
@@ -21978,9 +22014,9 @@
       <c r="I44" s="34"/>
     </row>
     <row r="45" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A45" s="140"/>
-      <c r="B45" s="143"/>
-      <c r="C45" s="150"/>
+      <c r="A45" s="151"/>
+      <c r="B45" s="141"/>
+      <c r="C45" s="144"/>
       <c r="D45" s="33" t="s">
         <v>164</v>
       </c>
@@ -21991,8 +22027,8 @@
       <c r="I45" s="34"/>
     </row>
     <row r="46" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A46" s="140"/>
-      <c r="B46" s="143"/>
+      <c r="A46" s="151"/>
+      <c r="B46" s="141"/>
       <c r="C46" s="40" t="s">
         <v>112</v>
       </c>
@@ -22006,8 +22042,8 @@
       <c r="I46" s="34"/>
     </row>
     <row r="47" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A47" s="140"/>
-      <c r="B47" s="143"/>
+      <c r="A47" s="151"/>
+      <c r="B47" s="141"/>
       <c r="C47" s="40" t="s">
         <v>106</v>
       </c>
@@ -22021,8 +22057,8 @@
       <c r="I47" s="34"/>
     </row>
     <row r="48" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A48" s="140"/>
-      <c r="B48" s="143"/>
+      <c r="A48" s="151"/>
+      <c r="B48" s="141"/>
       <c r="C48" s="40" t="s">
         <v>147</v>
       </c>
@@ -22036,8 +22072,8 @@
       <c r="I48" s="34"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="140"/>
-      <c r="B49" s="143" t="s">
+      <c r="A49" s="151"/>
+      <c r="B49" s="141" t="s">
         <v>153</v>
       </c>
       <c r="C49" s="40" t="s">
@@ -22053,8 +22089,8 @@
       <c r="I49" s="34"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="140"/>
-      <c r="B50" s="143"/>
+      <c r="A50" s="151"/>
+      <c r="B50" s="141"/>
       <c r="C50" s="40" t="s">
         <v>112</v>
       </c>
@@ -22068,8 +22104,8 @@
       <c r="I50" s="34"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="140"/>
-      <c r="B51" s="143"/>
+      <c r="A51" s="151"/>
+      <c r="B51" s="141"/>
       <c r="C51" s="40" t="s">
         <v>106</v>
       </c>
@@ -22083,8 +22119,8 @@
       <c r="I51" s="34"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="140"/>
-      <c r="B52" s="143"/>
+      <c r="A52" s="151"/>
+      <c r="B52" s="141"/>
       <c r="C52" s="40" t="s">
         <v>147</v>
       </c>
@@ -22098,8 +22134,8 @@
       <c r="I52" s="34"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="140"/>
-      <c r="B53" s="153" t="s">
+      <c r="A53" s="151"/>
+      <c r="B53" s="142" t="s">
         <v>154</v>
       </c>
       <c r="C53" s="40" t="s">
@@ -22115,8 +22151,8 @@
       <c r="I53" s="34"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="140"/>
-      <c r="B54" s="152"/>
+      <c r="A54" s="151"/>
+      <c r="B54" s="143"/>
       <c r="C54" s="49" t="s">
         <v>159</v>
       </c>
@@ -22130,8 +22166,8 @@
       <c r="I54" s="34"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="140"/>
-      <c r="B55" s="143" t="s">
+      <c r="A55" s="151"/>
+      <c r="B55" s="141" t="s">
         <v>76</v>
       </c>
       <c r="C55" s="40" t="s">
@@ -22147,8 +22183,8 @@
       <c r="I55" s="34"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="140"/>
-      <c r="B56" s="143"/>
+      <c r="A56" s="151"/>
+      <c r="B56" s="141"/>
       <c r="C56" s="40" t="s">
         <v>79</v>
       </c>
@@ -22162,8 +22198,8 @@
       <c r="I56" s="34"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="140"/>
-      <c r="B57" s="153" t="s">
+      <c r="A57" s="151"/>
+      <c r="B57" s="142" t="s">
         <v>81</v>
       </c>
       <c r="C57" s="40" t="s">
@@ -22179,8 +22215,8 @@
       <c r="I57" s="34"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="149"/>
-      <c r="B58" s="150"/>
+      <c r="A58" s="152"/>
+      <c r="B58" s="144"/>
       <c r="C58" s="50" t="s">
         <v>167</v>
       </c>
@@ -22194,8 +22230,8 @@
       <c r="I58" s="45"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="149"/>
-      <c r="B59" s="153" t="s">
+      <c r="A59" s="152"/>
+      <c r="B59" s="142" t="s">
         <v>172</v>
       </c>
       <c r="C59" s="50" t="s">
@@ -22211,8 +22247,8 @@
       <c r="I59" s="45"/>
     </row>
     <row r="60" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="149"/>
-      <c r="B60" s="154"/>
+      <c r="A60" s="152"/>
+      <c r="B60" s="155"/>
       <c r="C60" s="42" t="s">
         <v>171</v>
       </c>
@@ -22475,11 +22511,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A30:A39"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A10:A29"/>
     <mergeCell ref="A40:A60"/>
@@ -22496,11 +22532,11 @@
     <mergeCell ref="C44:C45"/>
     <mergeCell ref="B59:B60"/>
     <mergeCell ref="B44:B48"/>
-    <mergeCell ref="A30:A39"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B20:B21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22585,15 +22621,15 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="136"/>
-      <c r="B3" s="137"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="138"/>
+      <c r="A3" s="156"/>
+      <c r="B3" s="157"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="157"/>
+      <c r="I3" s="158"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="73" t="s">
@@ -22613,10 +22649,10 @@
       <c r="G4" s="31"/>
       <c r="H4" s="31"/>
       <c r="I4" s="32"/>
-      <c r="N4" s="155" t="s">
+      <c r="N4" s="162" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="155" t="s">
+      <c r="O4" s="162" t="s">
         <v>11</v>
       </c>
     </row>
@@ -22638,8 +22674,8 @@
       <c r="G5" s="33"/>
       <c r="H5" s="33"/>
       <c r="I5" s="34"/>
-      <c r="N5" s="155"/>
-      <c r="O5" s="155"/>
+      <c r="N5" s="162"/>
+      <c r="O5" s="162"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="74" t="s">
@@ -22659,8 +22695,8 @@
       <c r="G6" s="33"/>
       <c r="H6" s="33"/>
       <c r="I6" s="34"/>
-      <c r="N6" s="155"/>
-      <c r="O6" s="155"/>
+      <c r="N6" s="162"/>
+      <c r="O6" s="162"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="74" t="s">
@@ -22680,8 +22716,8 @@
       <c r="G7" s="33"/>
       <c r="H7" s="33"/>
       <c r="I7" s="34"/>
-      <c r="N7" s="155"/>
-      <c r="O7" s="155" t="s">
+      <c r="N7" s="162"/>
+      <c r="O7" s="162" t="s">
         <v>275</v>
       </c>
     </row>
@@ -22703,8 +22739,8 @@
       <c r="G8" s="33"/>
       <c r="H8" s="33"/>
       <c r="I8" s="34"/>
-      <c r="N8" s="155"/>
-      <c r="O8" s="155"/>
+      <c r="N8" s="162"/>
+      <c r="O8" s="162"/>
     </row>
     <row r="9" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="75" t="s">
@@ -22724,8 +22760,8 @@
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
       <c r="I9" s="36"/>
-      <c r="N9" s="155"/>
-      <c r="O9" s="155"/>
+      <c r="N9" s="162"/>
+      <c r="O9" s="162"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="80" t="s">
@@ -22747,10 +22783,10 @@
       <c r="G10" s="31"/>
       <c r="H10" s="31"/>
       <c r="I10" s="32"/>
-      <c r="N10" s="155" t="s">
+      <c r="N10" s="162" t="s">
         <v>23</v>
       </c>
-      <c r="O10" s="155" t="s">
+      <c r="O10" s="162" t="s">
         <v>103</v>
       </c>
     </row>
@@ -22774,8 +22810,8 @@
       <c r="G11" s="33"/>
       <c r="H11" s="33"/>
       <c r="I11" s="34"/>
-      <c r="N11" s="155"/>
-      <c r="O11" s="155"/>
+      <c r="N11" s="162"/>
+      <c r="O11" s="162"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="82" t="s">
@@ -22797,8 +22833,8 @@
       <c r="G12" s="33"/>
       <c r="H12" s="33"/>
       <c r="I12" s="34"/>
-      <c r="N12" s="155"/>
-      <c r="O12" s="155"/>
+      <c r="N12" s="162"/>
+      <c r="O12" s="162"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="82" t="s">
@@ -22818,8 +22854,8 @@
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
       <c r="I13" s="34"/>
-      <c r="N13" s="155"/>
-      <c r="O13" s="155"/>
+      <c r="N13" s="162"/>
+      <c r="O13" s="162"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="82" t="s">
@@ -22841,8 +22877,8 @@
       <c r="G14" s="33"/>
       <c r="H14" s="33"/>
       <c r="I14" s="34"/>
-      <c r="N14" s="155"/>
-      <c r="O14" s="155"/>
+      <c r="N14" s="162"/>
+      <c r="O14" s="162"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="82" t="s">
@@ -22864,8 +22900,8 @@
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
       <c r="I15" s="34"/>
-      <c r="N15" s="155"/>
-      <c r="O15" s="155" t="s">
+      <c r="N15" s="162"/>
+      <c r="O15" s="162" t="s">
         <v>111</v>
       </c>
     </row>
@@ -22889,8 +22925,8 @@
       <c r="G16" s="33"/>
       <c r="H16" s="33"/>
       <c r="I16" s="34"/>
-      <c r="N16" s="155"/>
-      <c r="O16" s="155"/>
+      <c r="N16" s="162"/>
+      <c r="O16" s="162"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="82" t="s">
@@ -22912,8 +22948,8 @@
       <c r="G17" s="33"/>
       <c r="H17" s="33"/>
       <c r="I17" s="34"/>
-      <c r="N17" s="155"/>
-      <c r="O17" s="155"/>
+      <c r="N17" s="162"/>
+      <c r="O17" s="162"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="82" t="s">
@@ -22935,8 +22971,8 @@
       <c r="G18" s="33"/>
       <c r="H18" s="33"/>
       <c r="I18" s="34"/>
-      <c r="N18" s="155"/>
-      <c r="O18" s="155"/>
+      <c r="N18" s="162"/>
+      <c r="O18" s="162"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="82" t="s">
@@ -22958,8 +22994,8 @@
       <c r="G19" s="33"/>
       <c r="H19" s="33"/>
       <c r="I19" s="34"/>
-      <c r="N19" s="155"/>
-      <c r="O19" s="155" t="s">
+      <c r="N19" s="162"/>
+      <c r="O19" s="162" t="s">
         <v>180</v>
       </c>
     </row>
@@ -22983,8 +23019,8 @@
       <c r="G20" s="33"/>
       <c r="H20" s="33"/>
       <c r="I20" s="34"/>
-      <c r="N20" s="155"/>
-      <c r="O20" s="155"/>
+      <c r="N20" s="162"/>
+      <c r="O20" s="162"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="82" t="s">
@@ -23004,8 +23040,8 @@
       <c r="G21" s="33"/>
       <c r="H21" s="33"/>
       <c r="I21" s="34"/>
-      <c r="N21" s="155"/>
-      <c r="O21" s="155" t="s">
+      <c r="N21" s="162"/>
+      <c r="O21" s="162" t="s">
         <v>193</v>
       </c>
     </row>
@@ -23027,8 +23063,8 @@
       <c r="G22" s="33"/>
       <c r="H22" s="33"/>
       <c r="I22" s="34"/>
-      <c r="N22" s="155"/>
-      <c r="O22" s="155"/>
+      <c r="N22" s="162"/>
+      <c r="O22" s="162"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="82" t="s">
@@ -23048,8 +23084,8 @@
       <c r="G23" s="33"/>
       <c r="H23" s="33"/>
       <c r="I23" s="34"/>
-      <c r="N23" s="155"/>
-      <c r="O23" s="155" t="s">
+      <c r="N23" s="162"/>
+      <c r="O23" s="162" t="s">
         <v>115</v>
       </c>
     </row>
@@ -23071,8 +23107,8 @@
       <c r="G24" s="33"/>
       <c r="H24" s="33"/>
       <c r="I24" s="34"/>
-      <c r="N24" s="155"/>
-      <c r="O24" s="155"/>
+      <c r="N24" s="162"/>
+      <c r="O24" s="162"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="82" t="s">
@@ -23092,8 +23128,8 @@
       <c r="G25" s="33"/>
       <c r="H25" s="33"/>
       <c r="I25" s="34"/>
-      <c r="N25" s="155"/>
-      <c r="O25" s="155"/>
+      <c r="N25" s="162"/>
+      <c r="O25" s="162"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="82" t="s">
@@ -23113,8 +23149,8 @@
       <c r="G26" s="33"/>
       <c r="H26" s="33"/>
       <c r="I26" s="34"/>
-      <c r="N26" s="155"/>
-      <c r="O26" s="155" t="s">
+      <c r="N26" s="162"/>
+      <c r="O26" s="162" t="s">
         <v>43</v>
       </c>
     </row>
@@ -23136,8 +23172,8 @@
       <c r="G27" s="33"/>
       <c r="H27" s="33"/>
       <c r="I27" s="34"/>
-      <c r="N27" s="155"/>
-      <c r="O27" s="155"/>
+      <c r="N27" s="162"/>
+      <c r="O27" s="162"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="82" t="s">
@@ -23157,8 +23193,8 @@
       <c r="G28" s="33"/>
       <c r="H28" s="33"/>
       <c r="I28" s="34"/>
-      <c r="N28" s="155"/>
-      <c r="O28" s="155"/>
+      <c r="N28" s="162"/>
+      <c r="O28" s="162"/>
     </row>
     <row r="29" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="82" t="s">
@@ -23178,8 +23214,8 @@
       <c r="G29" s="44"/>
       <c r="H29" s="44"/>
       <c r="I29" s="45"/>
-      <c r="N29" s="155"/>
-      <c r="O29" s="155"/>
+      <c r="N29" s="162"/>
+      <c r="O29" s="162"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="80" t="s">
@@ -23199,10 +23235,10 @@
       <c r="G30" s="31"/>
       <c r="H30" s="31"/>
       <c r="I30" s="32"/>
-      <c r="N30" s="155" t="s">
+      <c r="N30" s="162" t="s">
         <v>45</v>
       </c>
-      <c r="O30" s="155" t="s">
+      <c r="O30" s="162" t="s">
         <v>127</v>
       </c>
     </row>
@@ -23224,8 +23260,8 @@
       <c r="G31" s="33"/>
       <c r="H31" s="33"/>
       <c r="I31" s="34"/>
-      <c r="N31" s="155"/>
-      <c r="O31" s="155"/>
+      <c r="N31" s="162"/>
+      <c r="O31" s="162"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="82" t="s">
@@ -23245,8 +23281,8 @@
       <c r="G32" s="33"/>
       <c r="H32" s="33"/>
       <c r="I32" s="34"/>
-      <c r="N32" s="155"/>
-      <c r="O32" s="155"/>
+      <c r="N32" s="162"/>
+      <c r="O32" s="162"/>
     </row>
     <row r="33" spans="1:16383" x14ac:dyDescent="0.3">
       <c r="A33" s="82" t="s">
@@ -23266,8 +23302,8 @@
       <c r="G33" s="33"/>
       <c r="H33" s="33"/>
       <c r="I33" s="34"/>
-      <c r="N33" s="155"/>
-      <c r="O33" s="155"/>
+      <c r="N33" s="162"/>
+      <c r="O33" s="162"/>
     </row>
     <row r="34" spans="1:16383" x14ac:dyDescent="0.3">
       <c r="A34" s="82" t="s">
@@ -23289,8 +23325,8 @@
       <c r="G34" s="44"/>
       <c r="H34" s="44"/>
       <c r="I34" s="45"/>
-      <c r="N34" s="155"/>
-      <c r="O34" s="155" t="s">
+      <c r="N34" s="162"/>
+      <c r="O34" s="162" t="s">
         <v>133</v>
       </c>
     </row>
@@ -23316,8 +23352,8 @@
       <c r="K35" s="46"/>
       <c r="L35" s="46"/>
       <c r="M35" s="46"/>
-      <c r="N35" s="155"/>
-      <c r="O35" s="155"/>
+      <c r="N35" s="162"/>
+      <c r="O35" s="162"/>
       <c r="P35" s="46"/>
       <c r="Q35" s="46"/>
       <c r="R35" s="46"/>
@@ -39707,7 +39743,7 @@
       <c r="G36" s="35"/>
       <c r="H36" s="35"/>
       <c r="I36" s="36"/>
-      <c r="N36" s="155"/>
+      <c r="N36" s="162"/>
       <c r="O36" s="76" t="s">
         <v>139</v>
       </c>
@@ -39730,10 +39766,10 @@
       <c r="G37" s="55"/>
       <c r="H37" s="55"/>
       <c r="I37" s="56"/>
-      <c r="N37" s="155" t="s">
+      <c r="N37" s="162" t="s">
         <v>67</v>
       </c>
-      <c r="O37" s="155" t="s">
+      <c r="O37" s="162" t="s">
         <v>71</v>
       </c>
     </row>
@@ -39755,8 +39791,8 @@
       <c r="G38" s="33"/>
       <c r="H38" s="33"/>
       <c r="I38" s="34"/>
-      <c r="N38" s="155"/>
-      <c r="O38" s="155"/>
+      <c r="N38" s="162"/>
+      <c r="O38" s="162"/>
     </row>
     <row r="39" spans="1:16383" x14ac:dyDescent="0.3">
       <c r="A39" s="74" t="s">
@@ -39776,8 +39812,8 @@
       <c r="G39" s="33"/>
       <c r="H39" s="33"/>
       <c r="I39" s="34"/>
-      <c r="N39" s="155"/>
-      <c r="O39" s="155" t="s">
+      <c r="N39" s="162"/>
+      <c r="O39" s="162" t="s">
         <v>280</v>
       </c>
     </row>
@@ -39799,8 +39835,8 @@
       <c r="G40" s="33"/>
       <c r="H40" s="33"/>
       <c r="I40" s="34"/>
-      <c r="N40" s="155"/>
-      <c r="O40" s="155"/>
+      <c r="N40" s="162"/>
+      <c r="O40" s="162"/>
     </row>
     <row r="41" spans="1:16383" x14ac:dyDescent="0.3">
       <c r="A41" s="74" t="s">
@@ -39822,8 +39858,8 @@
       <c r="G41" s="33"/>
       <c r="H41" s="33"/>
       <c r="I41" s="34"/>
-      <c r="N41" s="155"/>
-      <c r="O41" s="155"/>
+      <c r="N41" s="162"/>
+      <c r="O41" s="162"/>
     </row>
     <row r="42" spans="1:16383" x14ac:dyDescent="0.3">
       <c r="A42" s="74" t="s">
@@ -39843,8 +39879,8 @@
       <c r="G42" s="33"/>
       <c r="H42" s="33"/>
       <c r="I42" s="34"/>
-      <c r="N42" s="155"/>
-      <c r="O42" s="155" t="s">
+      <c r="N42" s="162"/>
+      <c r="O42" s="162" t="s">
         <v>152</v>
       </c>
     </row>
@@ -39868,8 +39904,8 @@
       <c r="G43" s="33"/>
       <c r="H43" s="33"/>
       <c r="I43" s="34"/>
-      <c r="N43" s="155"/>
-      <c r="O43" s="155"/>
+      <c r="N43" s="162"/>
+      <c r="O43" s="162"/>
     </row>
     <row r="44" spans="1:16383" x14ac:dyDescent="0.3">
       <c r="A44" s="74" t="s">
@@ -39891,8 +39927,8 @@
       <c r="G44" s="33"/>
       <c r="H44" s="33"/>
       <c r="I44" s="34"/>
-      <c r="N44" s="155"/>
-      <c r="O44" s="155" t="s">
+      <c r="N44" s="162"/>
+      <c r="O44" s="162" t="s">
         <v>154</v>
       </c>
     </row>
@@ -39916,8 +39952,8 @@
       <c r="G45" s="33"/>
       <c r="H45" s="33"/>
       <c r="I45" s="34"/>
-      <c r="N45" s="155"/>
-      <c r="O45" s="155"/>
+      <c r="N45" s="162"/>
+      <c r="O45" s="162"/>
     </row>
     <row r="46" spans="1:16383" x14ac:dyDescent="0.3">
       <c r="A46" s="88" t="s">
@@ -39939,8 +39975,8 @@
       <c r="G46" s="44"/>
       <c r="H46" s="44"/>
       <c r="I46" s="45"/>
-      <c r="N46" s="155"/>
-      <c r="O46" s="155" t="s">
+      <c r="N46" s="162"/>
+      <c r="O46" s="162" t="s">
         <v>301</v>
       </c>
     </row>
@@ -39964,8 +40000,8 @@
       <c r="G47" s="44"/>
       <c r="H47" s="44"/>
       <c r="I47" s="45"/>
-      <c r="N47" s="155"/>
-      <c r="O47" s="155"/>
+      <c r="N47" s="162"/>
+      <c r="O47" s="162"/>
     </row>
     <row r="48" spans="1:16383" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="70" t="s">
@@ -40217,6 +40253,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="N4:N9"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="O7:O9"/>
+    <mergeCell ref="N10:N29"/>
+    <mergeCell ref="O10:O14"/>
+    <mergeCell ref="O15:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="O23:O25"/>
+    <mergeCell ref="O26:O29"/>
     <mergeCell ref="N30:N36"/>
     <mergeCell ref="O30:O33"/>
     <mergeCell ref="O34:O35"/>
@@ -40226,18 +40274,6 @@
     <mergeCell ref="O42:O43"/>
     <mergeCell ref="O44:O45"/>
     <mergeCell ref="O46:O47"/>
-    <mergeCell ref="N10:N29"/>
-    <mergeCell ref="O10:O14"/>
-    <mergeCell ref="O15:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="O23:O25"/>
-    <mergeCell ref="O26:O29"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="N4:N9"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="O7:O9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -40251,8 +40287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XEV67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -40331,10 +40367,10 @@
       <c r="K3" s="119"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="135" t="s">
+      <c r="A4" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="152" t="s">
+      <c r="B4" s="143" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="96" t="s">
@@ -40343,7 +40379,7 @@
       <c r="D4" s="118">
         <v>1</v>
       </c>
-      <c r="E4" s="152" t="s">
+      <c r="E4" s="143" t="s">
         <v>316</v>
       </c>
       <c r="F4" s="115"/>
@@ -40358,15 +40394,15 @@
       <c r="K4" s="115"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="135"/>
-      <c r="B5" s="152"/>
+      <c r="A5" s="149"/>
+      <c r="B5" s="143"/>
       <c r="C5" s="92" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="116">
         <v>1</v>
       </c>
-      <c r="E5" s="152"/>
+      <c r="E5" s="143"/>
       <c r="F5" s="110"/>
       <c r="G5" s="110" t="s">
         <v>330</v>
@@ -40379,15 +40415,15 @@
       <c r="K5" s="110"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="135"/>
-      <c r="B6" s="150"/>
+      <c r="A6" s="149"/>
+      <c r="B6" s="144"/>
       <c r="C6" s="92" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="116">
         <v>1</v>
       </c>
-      <c r="E6" s="152"/>
+      <c r="E6" s="143"/>
       <c r="F6" s="110"/>
       <c r="G6" s="110" t="s">
         <v>330</v>
@@ -40400,8 +40436,8 @@
       <c r="K6" s="110"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="135"/>
-      <c r="B7" s="153" t="s">
+      <c r="A7" s="149"/>
+      <c r="B7" s="142" t="s">
         <v>275</v>
       </c>
       <c r="C7" s="92" t="s">
@@ -40410,7 +40446,7 @@
       <c r="D7" s="116">
         <v>1</v>
       </c>
-      <c r="E7" s="152"/>
+      <c r="E7" s="143"/>
       <c r="F7" s="110"/>
       <c r="G7" s="110" t="s">
         <v>338</v>
@@ -40423,15 +40459,15 @@
       <c r="K7" s="110"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="135"/>
-      <c r="B8" s="152"/>
+      <c r="A8" s="149"/>
+      <c r="B8" s="143"/>
       <c r="C8" s="92" t="s">
         <v>276</v>
       </c>
       <c r="D8" s="116">
         <v>1</v>
       </c>
-      <c r="E8" s="152"/>
+      <c r="E8" s="143"/>
       <c r="F8" s="110"/>
       <c r="G8" s="110" t="s">
         <v>339</v>
@@ -40444,15 +40480,15 @@
       <c r="K8" s="110"/>
     </row>
     <row r="9" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="156"/>
-      <c r="B9" s="154"/>
+      <c r="A9" s="163"/>
+      <c r="B9" s="155"/>
       <c r="C9" s="93" t="s">
         <v>275</v>
       </c>
       <c r="D9" s="121">
         <v>1</v>
       </c>
-      <c r="E9" s="154"/>
+      <c r="E9" s="155"/>
       <c r="F9" s="113"/>
       <c r="G9" s="113" t="s">
         <v>340</v>
@@ -40465,19 +40501,19 @@
       <c r="K9" s="113"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="135" t="s">
+      <c r="A10" s="149" t="s">
         <v>198</v>
       </c>
-      <c r="B10" s="152" t="s">
+      <c r="B10" s="143" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="163" t="s">
+      <c r="C10" s="128" t="s">
         <v>200</v>
       </c>
       <c r="D10" s="118">
         <v>2</v>
       </c>
-      <c r="E10" s="152" t="s">
+      <c r="E10" s="143" t="s">
         <v>320</v>
       </c>
       <c r="F10" s="115"/>
@@ -40488,15 +40524,15 @@
       <c r="K10" s="115"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="135"/>
-      <c r="B11" s="152"/>
+      <c r="A11" s="149"/>
+      <c r="B11" s="143"/>
       <c r="C11" s="100" t="s">
         <v>203</v>
       </c>
       <c r="D11" s="116">
         <v>1</v>
       </c>
-      <c r="E11" s="152"/>
+      <c r="E11" s="143"/>
       <c r="F11" s="110"/>
       <c r="G11" s="110"/>
       <c r="H11" s="110"/>
@@ -40505,15 +40541,15 @@
       <c r="K11" s="110"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="135"/>
-      <c r="B12" s="152"/>
+      <c r="A12" s="149"/>
+      <c r="B12" s="143"/>
       <c r="C12" s="100" t="s">
         <v>206</v>
       </c>
       <c r="D12" s="116">
         <v>1</v>
       </c>
-      <c r="E12" s="152"/>
+      <c r="E12" s="143"/>
       <c r="F12" s="110"/>
       <c r="G12" s="110"/>
       <c r="H12" s="110"/>
@@ -40522,15 +40558,15 @@
       <c r="K12" s="110"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="135"/>
-      <c r="B13" s="152"/>
+      <c r="A13" s="149"/>
+      <c r="B13" s="143"/>
       <c r="C13" s="100" t="s">
         <v>209</v>
       </c>
       <c r="D13" s="116">
         <v>2</v>
       </c>
-      <c r="E13" s="150"/>
+      <c r="E13" s="144"/>
       <c r="F13" s="110"/>
       <c r="G13" s="110"/>
       <c r="H13" s="110"/>
@@ -40539,25 +40575,31 @@
       <c r="K13" s="110"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="135"/>
-      <c r="B14" s="150"/>
+      <c r="A14" s="149"/>
+      <c r="B14" s="144"/>
       <c r="C14" s="103" t="s">
         <v>211</v>
       </c>
-      <c r="D14" s="116"/>
+      <c r="D14" s="116">
+        <v>1</v>
+      </c>
       <c r="E14" s="116" t="s">
         <v>321</v>
       </c>
       <c r="F14" s="110"/>
-      <c r="G14" s="110"/>
+      <c r="G14" s="110" t="s">
+        <v>342</v>
+      </c>
       <c r="H14" s="110"/>
       <c r="I14" s="110"/>
-      <c r="J14" s="110"/>
+      <c r="J14" s="110" t="s">
+        <v>358</v>
+      </c>
       <c r="K14" s="110"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="135"/>
-      <c r="B15" s="153" t="s">
+      <c r="A15" s="149"/>
+      <c r="B15" s="142" t="s">
         <v>111</v>
       </c>
       <c r="C15" s="101" t="s">
@@ -40566,7 +40608,7 @@
       <c r="D15" s="116">
         <v>2</v>
       </c>
-      <c r="E15" s="153" t="s">
+      <c r="E15" s="142" t="s">
         <v>320</v>
       </c>
       <c r="F15" s="110"/>
@@ -40577,15 +40619,15 @@
       <c r="K15" s="110"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="135"/>
-      <c r="B16" s="152"/>
+      <c r="A16" s="149"/>
+      <c r="B16" s="143"/>
       <c r="C16" s="100" t="s">
         <v>223</v>
       </c>
       <c r="D16" s="116">
         <v>1</v>
       </c>
-      <c r="E16" s="152"/>
+      <c r="E16" s="143"/>
       <c r="F16" s="110"/>
       <c r="G16" s="110"/>
       <c r="H16" s="110"/>
@@ -40594,15 +40636,15 @@
       <c r="K16" s="110"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="135"/>
-      <c r="B17" s="152"/>
+      <c r="A17" s="149"/>
+      <c r="B17" s="143"/>
       <c r="C17" s="100" t="s">
         <v>225</v>
       </c>
       <c r="D17" s="116">
         <v>1</v>
       </c>
-      <c r="E17" s="150"/>
+      <c r="E17" s="144"/>
       <c r="F17" s="110"/>
       <c r="G17" s="110"/>
       <c r="H17" s="110"/>
@@ -40611,25 +40653,31 @@
       <c r="K17" s="110"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="135"/>
-      <c r="B18" s="150"/>
+      <c r="A18" s="149"/>
+      <c r="B18" s="144"/>
       <c r="C18" s="103" t="s">
         <v>228</v>
       </c>
-      <c r="D18" s="116"/>
+      <c r="D18" s="116">
+        <v>1</v>
+      </c>
       <c r="E18" s="116" t="s">
         <v>321</v>
       </c>
       <c r="F18" s="110"/>
-      <c r="G18" s="110"/>
+      <c r="G18" s="110" t="s">
+        <v>342</v>
+      </c>
       <c r="H18" s="110"/>
       <c r="I18" s="110"/>
-      <c r="J18" s="110"/>
+      <c r="J18" s="110" t="s">
+        <v>358</v>
+      </c>
       <c r="K18" s="110"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="135"/>
-      <c r="B19" s="153" t="s">
+      <c r="A19" s="149"/>
+      <c r="B19" s="142" t="s">
         <v>180</v>
       </c>
       <c r="C19" s="97" t="s">
@@ -40638,7 +40686,7 @@
       <c r="D19" s="116">
         <v>1</v>
       </c>
-      <c r="E19" s="153" t="s">
+      <c r="E19" s="142" t="s">
         <v>328</v>
       </c>
       <c r="F19" s="110"/>
@@ -40653,15 +40701,15 @@
       <c r="K19" s="110"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="135"/>
-      <c r="B20" s="150"/>
+      <c r="A20" s="149"/>
+      <c r="B20" s="144"/>
       <c r="C20" s="97" t="s">
         <v>184</v>
       </c>
       <c r="D20" s="116">
         <v>2</v>
       </c>
-      <c r="E20" s="152"/>
+      <c r="E20" s="143"/>
       <c r="F20" s="110"/>
       <c r="G20" s="110" t="s">
         <v>344</v>
@@ -40674,8 +40722,8 @@
       <c r="K20" s="110"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="135"/>
-      <c r="B21" s="153" t="s">
+      <c r="A21" s="149"/>
+      <c r="B21" s="142" t="s">
         <v>193</v>
       </c>
       <c r="C21" s="97" t="s">
@@ -40684,7 +40732,7 @@
       <c r="D21" s="116">
         <v>3</v>
       </c>
-      <c r="E21" s="150"/>
+      <c r="E21" s="144"/>
       <c r="F21" s="110"/>
       <c r="G21" s="110" t="s">
         <v>345</v>
@@ -40697,79 +40745,103 @@
       <c r="K21" s="110"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="135"/>
-      <c r="B22" s="150"/>
+      <c r="A22" s="149"/>
+      <c r="B22" s="144"/>
       <c r="C22" s="103" t="s">
         <v>194</v>
       </c>
-      <c r="D22" s="116"/>
-      <c r="E22" s="153" t="s">
+      <c r="D22" s="116">
+        <v>1</v>
+      </c>
+      <c r="E22" s="142" t="s">
         <v>322</v>
       </c>
       <c r="F22" s="110"/>
-      <c r="G22" s="110"/>
+      <c r="G22" s="110" t="s">
+        <v>342</v>
+      </c>
       <c r="H22" s="110"/>
       <c r="I22" s="110"/>
-      <c r="J22" s="110"/>
+      <c r="J22" s="110" t="s">
+        <v>358</v>
+      </c>
       <c r="K22" s="110"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="135"/>
-      <c r="B23" s="153" t="s">
+      <c r="A23" s="149"/>
+      <c r="B23" s="142" t="s">
         <v>115</v>
       </c>
       <c r="C23" s="103" t="s">
         <v>116</v>
       </c>
-      <c r="D23" s="116"/>
-      <c r="E23" s="152"/>
+      <c r="D23" s="116">
+        <v>1</v>
+      </c>
+      <c r="E23" s="143"/>
       <c r="F23" s="110"/>
-      <c r="G23" s="110"/>
+      <c r="G23" s="110" t="s">
+        <v>330</v>
+      </c>
       <c r="H23" s="110"/>
       <c r="I23" s="110"/>
-      <c r="J23" s="110"/>
+      <c r="J23" s="110" t="s">
+        <v>336</v>
+      </c>
       <c r="K23" s="110"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="135"/>
-      <c r="B24" s="152"/>
+      <c r="A24" s="149"/>
+      <c r="B24" s="143"/>
       <c r="C24" s="103" t="s">
         <v>118</v>
       </c>
-      <c r="D24" s="116"/>
-      <c r="E24" s="152"/>
+      <c r="D24" s="116">
+        <v>2</v>
+      </c>
+      <c r="E24" s="143"/>
       <c r="F24" s="110"/>
-      <c r="G24" s="110"/>
+      <c r="G24" s="110" t="s">
+        <v>330</v>
+      </c>
       <c r="H24" s="110"/>
       <c r="I24" s="110"/>
-      <c r="J24" s="110"/>
+      <c r="J24" s="110" t="s">
+        <v>336</v>
+      </c>
       <c r="K24" s="110"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="135"/>
-      <c r="B25" s="150"/>
+      <c r="A25" s="149"/>
+      <c r="B25" s="144"/>
       <c r="C25" s="103" t="s">
         <v>236</v>
       </c>
-      <c r="D25" s="116"/>
-      <c r="E25" s="150"/>
+      <c r="D25" s="116">
+        <v>1</v>
+      </c>
+      <c r="E25" s="144"/>
       <c r="F25" s="110"/>
-      <c r="G25" s="110"/>
+      <c r="G25" s="110" t="s">
+        <v>342</v>
+      </c>
       <c r="H25" s="110"/>
       <c r="I25" s="110"/>
-      <c r="J25" s="110"/>
+      <c r="J25" s="110" t="s">
+        <v>358</v>
+      </c>
       <c r="K25" s="110"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="135"/>
-      <c r="B26" s="153" t="s">
+      <c r="A26" s="149"/>
+      <c r="B26" s="142" t="s">
         <v>43</v>
       </c>
       <c r="C26" s="97" t="s">
         <v>44</v>
       </c>
       <c r="D26" s="116"/>
-      <c r="E26" s="153" t="s">
+      <c r="E26" s="142" t="s">
         <v>317</v>
       </c>
       <c r="F26" s="110"/>
@@ -40784,13 +40856,13 @@
       <c r="K26" s="110"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="135"/>
-      <c r="B27" s="152"/>
+      <c r="A27" s="149"/>
+      <c r="B27" s="143"/>
       <c r="C27" s="97" t="s">
         <v>178</v>
       </c>
       <c r="D27" s="116"/>
-      <c r="E27" s="152"/>
+      <c r="E27" s="143"/>
       <c r="F27" s="110"/>
       <c r="G27" s="110" t="s">
         <v>331</v>
@@ -40803,13 +40875,13 @@
       <c r="K27" s="110"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="135"/>
-      <c r="B28" s="152"/>
+      <c r="A28" s="149"/>
+      <c r="B28" s="143"/>
       <c r="C28" s="97" t="s">
         <v>312</v>
       </c>
       <c r="D28" s="116"/>
-      <c r="E28" s="152"/>
+      <c r="E28" s="143"/>
       <c r="F28" s="110"/>
       <c r="G28" s="110" t="s">
         <v>331</v>
@@ -40822,34 +40894,40 @@
       <c r="K28" s="110"/>
     </row>
     <row r="29" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="156"/>
-      <c r="B29" s="154"/>
-      <c r="C29" s="161" t="s">
+      <c r="A29" s="163"/>
+      <c r="B29" s="155"/>
+      <c r="C29" s="126" t="s">
         <v>305</v>
       </c>
-      <c r="D29" s="121"/>
+      <c r="D29" s="121">
+        <v>2</v>
+      </c>
       <c r="E29" s="120" t="s">
         <v>322</v>
       </c>
       <c r="F29" s="113"/>
-      <c r="G29" s="113"/>
+      <c r="G29" s="113" t="s">
+        <v>330</v>
+      </c>
       <c r="H29" s="113"/>
       <c r="I29" s="113"/>
-      <c r="J29" s="113"/>
+      <c r="J29" s="113" t="s">
+        <v>359</v>
+      </c>
       <c r="K29" s="113"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="135" t="s">
+      <c r="A30" s="149" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="152" t="s">
+      <c r="B30" s="143" t="s">
         <v>127</v>
       </c>
-      <c r="C30" s="162" t="s">
+      <c r="C30" s="127" t="s">
         <v>126</v>
       </c>
       <c r="D30" s="118"/>
-      <c r="E30" s="152" t="s">
+      <c r="E30" s="143" t="s">
         <v>318</v>
       </c>
       <c r="F30" s="115"/>
@@ -40864,13 +40942,13 @@
       <c r="K30" s="115"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="135"/>
-      <c r="B31" s="152"/>
+      <c r="A31" s="149"/>
+      <c r="B31" s="143"/>
       <c r="C31" s="95" t="s">
         <v>129</v>
       </c>
       <c r="D31" s="116"/>
-      <c r="E31" s="150"/>
+      <c r="E31" s="144"/>
       <c r="F31" s="110"/>
       <c r="G31" s="110" t="s">
         <v>332</v>
@@ -40883,40 +40961,52 @@
       <c r="K31" s="110"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="135"/>
-      <c r="B32" s="152"/>
+      <c r="A32" s="149"/>
+      <c r="B32" s="143"/>
       <c r="C32" s="104" t="s">
         <v>132</v>
       </c>
-      <c r="D32" s="116"/>
-      <c r="E32" s="153" t="s">
+      <c r="D32" s="116">
+        <v>3</v>
+      </c>
+      <c r="E32" s="142" t="s">
         <v>321</v>
       </c>
       <c r="F32" s="110"/>
-      <c r="G32" s="110"/>
+      <c r="G32" s="110" t="s">
+        <v>357</v>
+      </c>
       <c r="H32" s="110"/>
       <c r="I32" s="110"/>
-      <c r="J32" s="110"/>
+      <c r="J32" s="110" t="s">
+        <v>360</v>
+      </c>
       <c r="K32" s="110"/>
     </row>
     <row r="33" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A33" s="135"/>
-      <c r="B33" s="150"/>
+      <c r="A33" s="149"/>
+      <c r="B33" s="144"/>
       <c r="C33" s="104" t="s">
         <v>125</v>
       </c>
-      <c r="D33" s="116"/>
-      <c r="E33" s="150"/>
+      <c r="D33" s="116">
+        <v>3</v>
+      </c>
+      <c r="E33" s="144"/>
       <c r="F33" s="110"/>
-      <c r="G33" s="110"/>
+      <c r="G33" s="110" t="s">
+        <v>357</v>
+      </c>
       <c r="H33" s="110"/>
       <c r="I33" s="110"/>
-      <c r="J33" s="110"/>
+      <c r="J33" s="110" t="s">
+        <v>361</v>
+      </c>
       <c r="K33" s="110"/>
     </row>
     <row r="34" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A34" s="135"/>
-      <c r="B34" s="153" t="s">
+      <c r="A34" s="149"/>
+      <c r="B34" s="142" t="s">
         <v>133</v>
       </c>
       <c r="C34" s="102" t="s">
@@ -40925,7 +41015,7 @@
       <c r="D34" s="117">
         <v>2</v>
       </c>
-      <c r="E34" s="153" t="s">
+      <c r="E34" s="142" t="s">
         <v>327</v>
       </c>
       <c r="F34" s="110"/>
@@ -40940,15 +41030,15 @@
       <c r="K34" s="110"/>
     </row>
     <row r="35" spans="1:16376" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="135"/>
-      <c r="B35" s="150"/>
+      <c r="A35" s="149"/>
+      <c r="B35" s="144"/>
       <c r="C35" s="102" t="s">
         <v>134</v>
       </c>
       <c r="D35" s="116">
         <v>3</v>
       </c>
-      <c r="E35" s="150"/>
+      <c r="E35" s="144"/>
       <c r="F35" s="110"/>
       <c r="G35" s="110" t="s">
         <v>348</v>
@@ -57326,29 +57416,35 @@
       <c r="XEV35" s="46"/>
     </row>
     <row r="36" spans="1:16376" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="156"/>
+      <c r="A36" s="163"/>
       <c r="B36" s="121" t="s">
         <v>139</v>
       </c>
       <c r="C36" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="D36" s="121"/>
+      <c r="D36" s="121">
+        <v>2</v>
+      </c>
       <c r="E36" s="121" t="s">
         <v>323</v>
       </c>
       <c r="F36" s="113"/>
-      <c r="G36" s="113"/>
+      <c r="G36" s="113" t="s">
+        <v>355</v>
+      </c>
       <c r="H36" s="113"/>
       <c r="I36" s="113"/>
-      <c r="J36" s="113"/>
+      <c r="J36" s="113" t="s">
+        <v>362</v>
+      </c>
       <c r="K36" s="113"/>
     </row>
     <row r="37" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A37" s="135" t="s">
+      <c r="A37" s="149" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="152" t="s">
+      <c r="B37" s="143" t="s">
         <v>71</v>
       </c>
       <c r="C37" s="96" t="s">
@@ -57357,7 +57453,7 @@
       <c r="D37" s="118">
         <v>3</v>
       </c>
-      <c r="E37" s="152" t="s">
+      <c r="E37" s="143" t="s">
         <v>319</v>
       </c>
       <c r="F37" s="115"/>
@@ -57372,15 +57468,15 @@
       <c r="K37" s="115"/>
     </row>
     <row r="38" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A38" s="135"/>
-      <c r="B38" s="150"/>
+      <c r="A38" s="149"/>
+      <c r="B38" s="144"/>
       <c r="C38" s="92" t="s">
         <v>74</v>
       </c>
       <c r="D38" s="116">
         <v>3</v>
       </c>
-      <c r="E38" s="150"/>
+      <c r="E38" s="144"/>
       <c r="F38" s="110"/>
       <c r="G38" s="110" t="s">
         <v>332</v>
@@ -57393,8 +57489,8 @@
       <c r="K38" s="110"/>
     </row>
     <row r="39" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A39" s="135"/>
-      <c r="B39" s="153" t="s">
+      <c r="A39" s="149"/>
+      <c r="B39" s="142" t="s">
         <v>280</v>
       </c>
       <c r="C39" s="100" t="s">
@@ -57403,7 +57499,7 @@
       <c r="D39" s="116">
         <v>1</v>
       </c>
-      <c r="E39" s="153" t="s">
+      <c r="E39" s="142" t="s">
         <v>320</v>
       </c>
       <c r="F39" s="110"/>
@@ -57414,15 +57510,15 @@
       <c r="K39" s="110"/>
     </row>
     <row r="40" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A40" s="135"/>
-      <c r="B40" s="152"/>
+      <c r="A40" s="149"/>
+      <c r="B40" s="143"/>
       <c r="C40" s="100" t="s">
         <v>283</v>
       </c>
       <c r="D40" s="116">
         <v>1</v>
       </c>
-      <c r="E40" s="152"/>
+      <c r="E40" s="143"/>
       <c r="F40" s="110"/>
       <c r="G40" s="110"/>
       <c r="H40" s="110"/>
@@ -57431,15 +57527,15 @@
       <c r="K40" s="110"/>
     </row>
     <row r="41" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A41" s="135"/>
-      <c r="B41" s="150"/>
+      <c r="A41" s="149"/>
+      <c r="B41" s="144"/>
       <c r="C41" s="100" t="s">
         <v>282</v>
       </c>
       <c r="D41" s="116">
         <v>1</v>
       </c>
-      <c r="E41" s="150"/>
+      <c r="E41" s="144"/>
       <c r="F41" s="110"/>
       <c r="G41" s="110"/>
       <c r="H41" s="110"/>
@@ -57448,8 +57544,8 @@
       <c r="K41" s="110"/>
     </row>
     <row r="42" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A42" s="135"/>
-      <c r="B42" s="153" t="s">
+      <c r="A42" s="149"/>
+      <c r="B42" s="142" t="s">
         <v>152</v>
       </c>
       <c r="C42" s="97" t="s">
@@ -57458,7 +57554,7 @@
       <c r="D42" s="116">
         <v>2</v>
       </c>
-      <c r="E42" s="153" t="s">
+      <c r="E42" s="142" t="s">
         <v>326</v>
       </c>
       <c r="F42" s="110"/>
@@ -57473,15 +57569,15 @@
       <c r="K42" s="110"/>
     </row>
     <row r="43" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A43" s="135"/>
-      <c r="B43" s="150"/>
+      <c r="A43" s="149"/>
+      <c r="B43" s="144"/>
       <c r="C43" s="97" t="s">
         <v>144</v>
       </c>
       <c r="D43" s="116">
         <v>3</v>
       </c>
-      <c r="E43" s="150"/>
+      <c r="E43" s="144"/>
       <c r="F43" s="110"/>
       <c r="G43" s="110" t="s">
         <v>352</v>
@@ -57494,81 +57590,105 @@
       <c r="K43" s="110"/>
     </row>
     <row r="44" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A44" s="135"/>
-      <c r="B44" s="153" t="s">
+      <c r="A44" s="149"/>
+      <c r="B44" s="142" t="s">
         <v>154</v>
       </c>
       <c r="C44" s="103" t="s">
         <v>155</v>
       </c>
-      <c r="D44" s="116"/>
-      <c r="E44" s="153" t="s">
+      <c r="D44" s="116">
+        <v>2</v>
+      </c>
+      <c r="E44" s="142" t="s">
         <v>324</v>
       </c>
       <c r="F44" s="110"/>
-      <c r="G44" s="110"/>
+      <c r="G44" s="110" t="s">
+        <v>356</v>
+      </c>
       <c r="H44" s="110"/>
       <c r="I44" s="110"/>
-      <c r="J44" s="110"/>
+      <c r="J44" s="110" t="s">
+        <v>337</v>
+      </c>
       <c r="K44" s="110"/>
     </row>
     <row r="45" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A45" s="135"/>
-      <c r="B45" s="150"/>
+      <c r="A45" s="149"/>
+      <c r="B45" s="144"/>
       <c r="C45" s="103" t="s">
         <v>92</v>
       </c>
-      <c r="D45" s="116"/>
-      <c r="E45" s="150"/>
+      <c r="D45" s="116">
+        <v>3</v>
+      </c>
+      <c r="E45" s="144"/>
       <c r="F45" s="116"/>
-      <c r="G45" s="110"/>
+      <c r="G45" s="110" t="s">
+        <v>357</v>
+      </c>
       <c r="H45" s="110"/>
       <c r="I45" s="110"/>
-      <c r="J45" s="110"/>
+      <c r="J45" s="110" t="s">
+        <v>337</v>
+      </c>
       <c r="K45" s="110"/>
     </row>
     <row r="46" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A46" s="135"/>
-      <c r="B46" s="153" t="s">
+      <c r="A46" s="149"/>
+      <c r="B46" s="142" t="s">
         <v>301</v>
       </c>
       <c r="C46" s="98" t="s">
         <v>303</v>
       </c>
-      <c r="D46" s="117"/>
-      <c r="E46" s="153" t="s">
+      <c r="D46" s="117">
+        <v>2</v>
+      </c>
+      <c r="E46" s="142" t="s">
         <v>325</v>
       </c>
       <c r="F46" s="117"/>
-      <c r="G46" s="114"/>
+      <c r="G46" s="110" t="s">
+        <v>356</v>
+      </c>
       <c r="H46" s="114"/>
       <c r="I46" s="114"/>
-      <c r="J46" s="114"/>
+      <c r="J46" s="114" t="s">
+        <v>337</v>
+      </c>
       <c r="K46" s="114"/>
     </row>
     <row r="47" spans="1:16376" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="156"/>
-      <c r="B47" s="154"/>
-      <c r="C47" s="161" t="s">
+      <c r="A47" s="163"/>
+      <c r="B47" s="155"/>
+      <c r="C47" s="126" t="s">
         <v>304</v>
       </c>
-      <c r="D47" s="121"/>
-      <c r="E47" s="154"/>
+      <c r="D47" s="121">
+        <v>3</v>
+      </c>
+      <c r="E47" s="155"/>
       <c r="F47" s="121"/>
-      <c r="G47" s="113"/>
+      <c r="G47" s="113" t="s">
+        <v>331</v>
+      </c>
       <c r="H47" s="113"/>
       <c r="I47" s="113"/>
-      <c r="J47" s="113"/>
+      <c r="J47" s="113" t="s">
+        <v>354</v>
+      </c>
       <c r="K47" s="113"/>
     </row>
     <row r="48" spans="1:16376" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="157" t="s">
+      <c r="A48" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="B48" s="158" t="s">
+      <c r="B48" s="123" t="s">
         <v>69</v>
       </c>
-      <c r="C48" s="159" t="s">
+      <c r="C48" s="124" t="s">
         <v>69</v>
       </c>
       <c r="D48" s="120">
@@ -57578,15 +57698,15 @@
         <v>315</v>
       </c>
       <c r="F48" s="120"/>
-      <c r="G48" s="160" t="s">
+      <c r="G48" s="125" t="s">
         <v>329</v>
       </c>
-      <c r="H48" s="160"/>
-      <c r="I48" s="160"/>
-      <c r="J48" s="160" t="s">
+      <c r="H48" s="125"/>
+      <c r="I48" s="125"/>
+      <c r="J48" s="125" t="s">
         <v>333</v>
       </c>
-      <c r="K48" s="160"/>
+      <c r="K48" s="125"/>
       <c r="L48" s="48"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -57857,15 +57977,20 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A37:A47"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E4:E9"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="E22:E25"/>
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B7:B9"/>
@@ -57876,20 +58001,15 @@
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B26:B29"/>
-    <mergeCell ref="E4:E9"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A37:A47"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WebContent/발표/3조 5차 요구사항정의서.xlsx
+++ b/WebContent/발표/3조 5차 요구사항정의서.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a01_javaexp\project04\project05\WebContent\발표\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a01_javaexp\github\project05\WebContent\발표\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="sw수정" sheetId="4" r:id="rId4"/>
     <sheet name="담당자 및 진행도" sheetId="5" r:id="rId5"/>
+    <sheet name="간략" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="378">
   <si>
     <t>구분</t>
   </si>
@@ -1401,6 +1402,66 @@
     <t>4월24일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>웹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김형준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원서비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조립 컴퓨터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전현규</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴퓨터 부품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한송우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최민기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객센터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김형준,최민기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문/배송관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2101,7 +2162,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2489,7 +2550,25 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2498,13 +2577,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2516,58 +2601,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2582,10 +2619,49 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2635,7 +2711,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$4" spid="_x0000_s1274"/>
+                  <a14:cameraTool cellRange="$O$4" spid="_x0000_s1293"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2694,7 +2770,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$7" spid="_x0000_s1275"/>
+                  <a14:cameraTool cellRange="$O$7" spid="_x0000_s1294"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2753,7 +2829,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$N$10" spid="_x0000_s1276"/>
+                  <a14:cameraTool cellRange="$N$10" spid="_x0000_s1295"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2812,7 +2888,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$10" spid="_x0000_s1277"/>
+                  <a14:cameraTool cellRange="$O$10" spid="_x0000_s1296"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2871,7 +2947,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$15" spid="_x0000_s1278"/>
+                  <a14:cameraTool cellRange="$O$15" spid="_x0000_s1297"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2930,7 +3006,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$19" spid="_x0000_s1279"/>
+                  <a14:cameraTool cellRange="$O$19" spid="_x0000_s1298"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2989,7 +3065,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$21" spid="_x0000_s1280"/>
+                  <a14:cameraTool cellRange="$O$21" spid="_x0000_s1299"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3048,7 +3124,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$23" spid="_x0000_s1281"/>
+                  <a14:cameraTool cellRange="$O$23" spid="_x0000_s1300"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3107,7 +3183,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$26" spid="_x0000_s1282"/>
+                  <a14:cameraTool cellRange="$O$26" spid="_x0000_s1301"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3166,7 +3242,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$N$30" spid="_x0000_s1283"/>
+                  <a14:cameraTool cellRange="$N$30" spid="_x0000_s1302"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3225,7 +3301,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$N$37" spid="_x0000_s1284"/>
+                  <a14:cameraTool cellRange="$N$37" spid="_x0000_s1303"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3284,7 +3360,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$30" spid="_x0000_s1285"/>
+                  <a14:cameraTool cellRange="$O$30" spid="_x0000_s1304"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3343,7 +3419,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$34" spid="_x0000_s1286"/>
+                  <a14:cameraTool cellRange="$O$34" spid="_x0000_s1305"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3402,7 +3478,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$37" spid="_x0000_s1287"/>
+                  <a14:cameraTool cellRange="$O$37" spid="_x0000_s1306"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3461,7 +3537,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$39" spid="_x0000_s1288"/>
+                  <a14:cameraTool cellRange="$O$39" spid="_x0000_s1307"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3520,7 +3596,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$42" spid="_x0000_s1289"/>
+                  <a14:cameraTool cellRange="$O$42" spid="_x0000_s1308"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3579,7 +3655,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$44" spid="_x0000_s1290"/>
+                  <a14:cameraTool cellRange="$O$44" spid="_x0000_s1309"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3638,7 +3714,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$46" spid="_x0000_s1291"/>
+                  <a14:cameraTool cellRange="$O$46" spid="_x0000_s1310"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3697,7 +3773,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$N$4" spid="_x0000_s1292"/>
+                  <a14:cameraTool cellRange="$N$4" spid="_x0000_s1311"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4083,10 +4159,10 @@
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="135" t="s">
+      <c r="B3" s="143" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="132" t="s">
+      <c r="C3" s="134" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="15" t="s">
@@ -4103,8 +4179,8 @@
       <c r="K3" s="11"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="136"/>
-      <c r="C4" s="133"/>
+      <c r="B4" s="144"/>
+      <c r="C4" s="135"/>
       <c r="D4" s="13" t="s">
         <v>13</v>
       </c>
@@ -4119,8 +4195,8 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="136"/>
-      <c r="C5" s="134"/>
+      <c r="B5" s="144"/>
+      <c r="C5" s="138"/>
       <c r="D5" s="16" t="s">
         <v>15</v>
       </c>
@@ -4135,8 +4211,8 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="136"/>
-      <c r="C6" s="132" t="s">
+      <c r="B6" s="144"/>
+      <c r="C6" s="134" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="12" t="s">
@@ -4153,8 +4229,8 @@
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="136"/>
-      <c r="C7" s="133"/>
+      <c r="B7" s="144"/>
+      <c r="C7" s="135"/>
       <c r="D7" s="13" t="s">
         <v>20</v>
       </c>
@@ -4169,8 +4245,8 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="137"/>
-      <c r="C8" s="134"/>
+      <c r="B8" s="145"/>
+      <c r="C8" s="138"/>
       <c r="D8" s="16" t="s">
         <v>17</v>
       </c>
@@ -4187,10 +4263,10 @@
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="129" t="s">
+      <c r="B9" s="142" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="132" t="s">
+      <c r="C9" s="134" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="15" t="s">
@@ -4207,8 +4283,8 @@
       <c r="K9" s="11"/>
     </row>
     <row r="10" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="130"/>
-      <c r="C10" s="134"/>
+      <c r="B10" s="136"/>
+      <c r="C10" s="138"/>
       <c r="D10" s="17" t="s">
         <v>25</v>
       </c>
@@ -4223,11 +4299,11 @@
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="130"/>
-      <c r="C11" s="132" t="s">
+      <c r="B11" s="136"/>
+      <c r="C11" s="134" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="138" t="s">
+      <c r="D11" s="139" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="10" t="s">
@@ -4241,9 +4317,9 @@
       <c r="K11" s="11"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="130"/>
-      <c r="C12" s="133"/>
-      <c r="D12" s="139"/>
+      <c r="B12" s="136"/>
+      <c r="C12" s="135"/>
+      <c r="D12" s="141"/>
       <c r="E12" s="1" t="s">
         <v>34</v>
       </c>
@@ -4255,8 +4331,8 @@
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="130"/>
-      <c r="C13" s="133"/>
+      <c r="B13" s="136"/>
+      <c r="C13" s="135"/>
       <c r="D13" s="13" t="s">
         <v>31</v>
       </c>
@@ -4271,8 +4347,8 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="130"/>
-      <c r="C14" s="133"/>
+      <c r="B14" s="136"/>
+      <c r="C14" s="135"/>
       <c r="D14" s="13" t="s">
         <v>32</v>
       </c>
@@ -4287,8 +4363,8 @@
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="130"/>
-      <c r="C15" s="134"/>
+      <c r="B15" s="136"/>
+      <c r="C15" s="138"/>
       <c r="D15" s="17" t="s">
         <v>35</v>
       </c>
@@ -4305,8 +4381,8 @@
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="130"/>
-      <c r="C16" s="132" t="s">
+      <c r="B16" s="136"/>
+      <c r="C16" s="134" t="s">
         <v>38</v>
       </c>
       <c r="D16" s="15" t="s">
@@ -4323,8 +4399,8 @@
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="130"/>
-      <c r="C17" s="133"/>
+      <c r="B17" s="136"/>
+      <c r="C17" s="135"/>
       <c r="D17" s="13" t="s">
         <v>31</v>
       </c>
@@ -4339,8 +4415,8 @@
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="130"/>
-      <c r="C18" s="133"/>
+      <c r="B18" s="136"/>
+      <c r="C18" s="135"/>
       <c r="D18" s="13" t="s">
         <v>42</v>
       </c>
@@ -4355,8 +4431,8 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="131"/>
-      <c r="C19" s="134"/>
+      <c r="B19" s="137"/>
+      <c r="C19" s="138"/>
       <c r="D19" s="17" t="s">
         <v>35</v>
       </c>
@@ -4371,10 +4447,10 @@
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="129" t="s">
+      <c r="B20" s="142" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="132" t="s">
+      <c r="C20" s="134" t="s">
         <v>46</v>
       </c>
       <c r="D20" s="15" t="s">
@@ -4391,8 +4467,8 @@
       <c r="K20" s="11"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="130"/>
-      <c r="C21" s="133"/>
+      <c r="B21" s="136"/>
+      <c r="C21" s="135"/>
       <c r="D21" s="13" t="s">
         <v>48</v>
       </c>
@@ -4407,8 +4483,8 @@
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="130"/>
-      <c r="C22" s="134"/>
+      <c r="B22" s="136"/>
+      <c r="C22" s="138"/>
       <c r="D22" s="16" t="s">
         <v>52</v>
       </c>
@@ -4423,7 +4499,7 @@
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="130"/>
+      <c r="B23" s="136"/>
       <c r="C23" s="21" t="s">
         <v>54</v>
       </c>
@@ -4441,10 +4517,10 @@
       <c r="K23" s="20"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="129" t="s">
+      <c r="B24" s="142" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="132" t="s">
+      <c r="C24" s="134" t="s">
         <v>49</v>
       </c>
       <c r="D24" s="15" t="s">
@@ -4461,8 +4537,8 @@
       <c r="K24" s="11"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="130"/>
-      <c r="C25" s="133"/>
+      <c r="B25" s="136"/>
+      <c r="C25" s="135"/>
       <c r="D25" s="13" t="s">
         <v>59</v>
       </c>
@@ -4477,8 +4553,8 @@
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="130"/>
-      <c r="C26" s="134"/>
+      <c r="B26" s="136"/>
+      <c r="C26" s="138"/>
       <c r="D26" s="16" t="s">
         <v>61</v>
       </c>
@@ -4493,7 +4569,7 @@
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="130"/>
+      <c r="B27" s="136"/>
       <c r="C27" s="23" t="s">
         <v>56</v>
       </c>
@@ -4511,7 +4587,7 @@
       <c r="K27" s="20"/>
     </row>
     <row r="28" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="131"/>
+      <c r="B28" s="137"/>
       <c r="C28" s="23" t="s">
         <v>44</v>
       </c>
@@ -4549,10 +4625,10 @@
       <c r="K29" s="20"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="132" t="s">
+      <c r="B30" s="134" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="138" t="s">
+      <c r="C30" s="139" t="s">
         <v>71</v>
       </c>
       <c r="D30" s="15" t="s">
@@ -4569,7 +4645,7 @@
       <c r="K30" s="11"/>
     </row>
     <row r="31" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="133"/>
+      <c r="B31" s="135"/>
       <c r="C31" s="140"/>
       <c r="D31" s="14" t="s">
         <v>74</v>
@@ -4585,8 +4661,8 @@
       <c r="K31" s="27"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="130"/>
-      <c r="C32" s="132" t="s">
+      <c r="B32" s="136"/>
+      <c r="C32" s="134" t="s">
         <v>85</v>
       </c>
       <c r="D32" s="15" t="s">
@@ -4603,8 +4679,8 @@
       <c r="K32" s="11"/>
     </row>
     <row r="33" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="130"/>
-      <c r="C33" s="134"/>
+      <c r="B33" s="136"/>
+      <c r="C33" s="138"/>
       <c r="D33" s="16" t="s">
         <v>88</v>
       </c>
@@ -4619,8 +4695,8 @@
       <c r="K33" s="4"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="130"/>
-      <c r="C34" s="132" t="s">
+      <c r="B34" s="136"/>
+      <c r="C34" s="134" t="s">
         <v>90</v>
       </c>
       <c r="D34" s="15" t="s">
@@ -4637,8 +4713,8 @@
       <c r="K34" s="11"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="130"/>
-      <c r="C35" s="133"/>
+      <c r="B35" s="136"/>
+      <c r="C35" s="135"/>
       <c r="D35" s="13"/>
       <c r="E35" s="1" t="s">
         <v>34</v>
@@ -4651,8 +4727,8 @@
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="130"/>
-      <c r="C36" s="133"/>
+      <c r="B36" s="136"/>
+      <c r="C36" s="135"/>
       <c r="D36" s="13" t="s">
         <v>31</v>
       </c>
@@ -4667,8 +4743,8 @@
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="130"/>
-      <c r="C37" s="133"/>
+      <c r="B37" s="136"/>
+      <c r="C37" s="135"/>
       <c r="D37" s="13" t="s">
         <v>92</v>
       </c>
@@ -4683,8 +4759,8 @@
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="130"/>
-      <c r="C38" s="134"/>
+      <c r="B38" s="136"/>
+      <c r="C38" s="138"/>
       <c r="D38" s="16" t="s">
         <v>94</v>
       </c>
@@ -4699,8 +4775,8 @@
       <c r="K38" s="4"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="130"/>
-      <c r="C39" s="132" t="s">
+      <c r="B39" s="136"/>
+      <c r="C39" s="134" t="s">
         <v>38</v>
       </c>
       <c r="D39" s="15" t="s">
@@ -4717,8 +4793,8 @@
       <c r="K39" s="11"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="130"/>
-      <c r="C40" s="133"/>
+      <c r="B40" s="136"/>
+      <c r="C40" s="135"/>
       <c r="D40" s="13" t="s">
         <v>31</v>
       </c>
@@ -4733,8 +4809,8 @@
       <c r="K40" s="2"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="130"/>
-      <c r="C41" s="133"/>
+      <c r="B41" s="136"/>
+      <c r="C41" s="135"/>
       <c r="D41" s="13" t="s">
         <v>92</v>
       </c>
@@ -4749,8 +4825,8 @@
       <c r="K41" s="2"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="130"/>
-      <c r="C42" s="133"/>
+      <c r="B42" s="136"/>
+      <c r="C42" s="135"/>
       <c r="D42" s="13" t="s">
         <v>35</v>
       </c>
@@ -4765,8 +4841,8 @@
       <c r="K42" s="2"/>
     </row>
     <row r="43" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="130"/>
-      <c r="C43" s="134"/>
+      <c r="B43" s="136"/>
+      <c r="C43" s="138"/>
       <c r="D43" s="16" t="s">
         <v>97</v>
       </c>
@@ -4781,8 +4857,8 @@
       <c r="K43" s="4"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="130"/>
-      <c r="C44" s="132" t="s">
+      <c r="B44" s="136"/>
+      <c r="C44" s="134" t="s">
         <v>76</v>
       </c>
       <c r="D44" s="15" t="s">
@@ -4799,8 +4875,8 @@
       <c r="K44" s="11"/>
     </row>
     <row r="45" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="130"/>
-      <c r="C45" s="134"/>
+      <c r="B45" s="136"/>
+      <c r="C45" s="138"/>
       <c r="D45" s="16" t="s">
         <v>79</v>
       </c>
@@ -4815,8 +4891,8 @@
       <c r="K45" s="4"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="130"/>
-      <c r="C46" s="132" t="s">
+      <c r="B46" s="136"/>
+      <c r="C46" s="134" t="s">
         <v>81</v>
       </c>
       <c r="D46" s="15" t="s">
@@ -4833,8 +4909,8 @@
       <c r="K46" s="11"/>
     </row>
     <row r="47" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="130"/>
-      <c r="C47" s="134"/>
+      <c r="B47" s="136"/>
+      <c r="C47" s="138"/>
       <c r="D47" s="16" t="s">
         <v>83</v>
       </c>
@@ -4849,8 +4925,8 @@
       <c r="K47" s="4"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="130"/>
-      <c r="C48" s="132" t="s">
+      <c r="B48" s="136"/>
+      <c r="C48" s="134" t="s">
         <v>56</v>
       </c>
       <c r="D48" s="15" t="s">
@@ -4867,8 +4943,8 @@
       <c r="K48" s="11"/>
     </row>
     <row r="49" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="131"/>
-      <c r="C49" s="134"/>
+      <c r="B49" s="137"/>
+      <c r="C49" s="138"/>
       <c r="D49" s="16" t="s">
         <v>101</v>
       </c>
@@ -4884,6 +4960,18 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B9:B19"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C22"/>
     <mergeCell ref="B30:B49"/>
     <mergeCell ref="C39:C43"/>
     <mergeCell ref="C34:C38"/>
@@ -4892,18 +4980,6 @@
     <mergeCell ref="C48:C49"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B9:B19"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4933,15 +5009,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="145"/>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="147"/>
+      <c r="A1" s="157"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="159"/>
     </row>
     <row r="2" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
@@ -4973,21 +5049,21 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="156"/>
-      <c r="B3" s="157"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="157"/>
-      <c r="I3" s="158"/>
+      <c r="A3" s="148"/>
+      <c r="B3" s="149"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="150"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="159" t="s">
+      <c r="A4" s="151" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="153" t="s">
+      <c r="B4" s="154" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="37" t="s">
@@ -5003,8 +5079,8 @@
       <c r="I4" s="32"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="151"/>
-      <c r="B5" s="141"/>
+      <c r="A5" s="152"/>
+      <c r="B5" s="155"/>
       <c r="C5" s="38" t="s">
         <v>13</v>
       </c>
@@ -5018,8 +5094,8 @@
       <c r="I5" s="34"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="151"/>
-      <c r="B6" s="141"/>
+      <c r="A6" s="152"/>
+      <c r="B6" s="155"/>
       <c r="C6" s="38" t="s">
         <v>15</v>
       </c>
@@ -5033,8 +5109,8 @@
       <c r="I6" s="34"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="151"/>
-      <c r="B7" s="141" t="s">
+      <c r="A7" s="152"/>
+      <c r="B7" s="155" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="38" t="s">
@@ -5050,8 +5126,8 @@
       <c r="I7" s="34"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="151"/>
-      <c r="B8" s="141"/>
+      <c r="A8" s="152"/>
+      <c r="B8" s="155"/>
       <c r="C8" s="38" t="s">
         <v>20</v>
       </c>
@@ -5065,8 +5141,8 @@
       <c r="I8" s="34"/>
     </row>
     <row r="9" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="160"/>
-      <c r="B9" s="161"/>
+      <c r="A9" s="153"/>
+      <c r="B9" s="156"/>
       <c r="C9" s="39" t="s">
         <v>17</v>
       </c>
@@ -5080,10 +5156,10 @@
       <c r="I9" s="36"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="148" t="s">
+      <c r="A10" s="146" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="154" t="s">
+      <c r="B10" s="163" t="s">
         <v>103</v>
       </c>
       <c r="C10" s="37" t="s">
@@ -5099,8 +5175,8 @@
       <c r="I10" s="32"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="149"/>
-      <c r="B11" s="143"/>
+      <c r="A11" s="147"/>
+      <c r="B11" s="164"/>
       <c r="C11" s="38" t="s">
         <v>105</v>
       </c>
@@ -5114,8 +5190,8 @@
       <c r="I11" s="34"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="149"/>
-      <c r="B12" s="143"/>
+      <c r="A12" s="147"/>
+      <c r="B12" s="164"/>
       <c r="C12" s="38" t="s">
         <v>92</v>
       </c>
@@ -5129,8 +5205,8 @@
       <c r="I12" s="34"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="149"/>
-      <c r="B13" s="144"/>
+      <c r="A13" s="147"/>
+      <c r="B13" s="162"/>
       <c r="C13" s="38" t="s">
         <v>109</v>
       </c>
@@ -5146,8 +5222,8 @@
       <c r="I13" s="34"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="149"/>
-      <c r="B14" s="142" t="s">
+      <c r="A14" s="147"/>
+      <c r="B14" s="165" t="s">
         <v>180</v>
       </c>
       <c r="C14" s="38" t="s">
@@ -5163,8 +5239,8 @@
       <c r="I14" s="34"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="149"/>
-      <c r="B15" s="143"/>
+      <c r="A15" s="147"/>
+      <c r="B15" s="164"/>
       <c r="C15" s="38" t="s">
         <v>184</v>
       </c>
@@ -5178,8 +5254,8 @@
       <c r="I15" s="34"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="149"/>
-      <c r="B16" s="142" t="s">
+      <c r="A16" s="147"/>
+      <c r="B16" s="165" t="s">
         <v>111</v>
       </c>
       <c r="C16" s="58" t="s">
@@ -5195,8 +5271,8 @@
       <c r="I16" s="34"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="149"/>
-      <c r="B17" s="143"/>
+      <c r="A17" s="147"/>
+      <c r="B17" s="164"/>
       <c r="C17" s="38" t="s">
         <v>105</v>
       </c>
@@ -5210,8 +5286,8 @@
       <c r="I17" s="34"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="149"/>
-      <c r="B18" s="143"/>
+      <c r="A18" s="147"/>
+      <c r="B18" s="164"/>
       <c r="C18" s="38" t="s">
         <v>113</v>
       </c>
@@ -5227,8 +5303,8 @@
       <c r="I18" s="34"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="149"/>
-      <c r="B19" s="144"/>
+      <c r="A19" s="147"/>
+      <c r="B19" s="162"/>
       <c r="C19" s="38" t="s">
         <v>109</v>
       </c>
@@ -5242,8 +5318,8 @@
       <c r="I19" s="34"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="149"/>
-      <c r="B20" s="142" t="s">
+      <c r="A20" s="147"/>
+      <c r="B20" s="165" t="s">
         <v>193</v>
       </c>
       <c r="C20" s="59" t="s">
@@ -5259,8 +5335,8 @@
       <c r="I20" s="34"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="149"/>
-      <c r="B21" s="144"/>
+      <c r="A21" s="147"/>
+      <c r="B21" s="162"/>
       <c r="C21" s="59" t="s">
         <v>194</v>
       </c>
@@ -5274,8 +5350,8 @@
       <c r="I21" s="34"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="149"/>
-      <c r="B22" s="142" t="s">
+      <c r="A22" s="147"/>
+      <c r="B22" s="165" t="s">
         <v>115</v>
       </c>
       <c r="C22" s="38" t="s">
@@ -5291,8 +5367,8 @@
       <c r="I22" s="34"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="149"/>
-      <c r="B23" s="143"/>
+      <c r="A23" s="147"/>
+      <c r="B23" s="164"/>
       <c r="C23" s="38" t="s">
         <v>118</v>
       </c>
@@ -5306,8 +5382,8 @@
       <c r="I23" s="34"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="149"/>
-      <c r="B24" s="143"/>
+      <c r="A24" s="147"/>
+      <c r="B24" s="164"/>
       <c r="C24" s="38" t="s">
         <v>120</v>
       </c>
@@ -5321,8 +5397,8 @@
       <c r="I24" s="34"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="149"/>
-      <c r="B25" s="144"/>
+      <c r="A25" s="147"/>
+      <c r="B25" s="162"/>
       <c r="C25" s="38" t="s">
         <v>122</v>
       </c>
@@ -5336,8 +5412,8 @@
       <c r="I25" s="34"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="149"/>
-      <c r="B26" s="142" t="s">
+      <c r="A26" s="147"/>
+      <c r="B26" s="165" t="s">
         <v>174</v>
       </c>
       <c r="C26" s="38" t="s">
@@ -5353,8 +5429,8 @@
       <c r="I26" s="34"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="149"/>
-      <c r="B27" s="143"/>
+      <c r="A27" s="147"/>
+      <c r="B27" s="164"/>
       <c r="C27" s="38" t="s">
         <v>178</v>
       </c>
@@ -5368,8 +5444,8 @@
       <c r="I27" s="34"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="149"/>
-      <c r="B28" s="143"/>
+      <c r="A28" s="147"/>
+      <c r="B28" s="164"/>
       <c r="C28" s="38" t="s">
         <v>182</v>
       </c>
@@ -5383,8 +5459,8 @@
       <c r="I28" s="34"/>
     </row>
     <row r="29" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="149"/>
-      <c r="B29" s="143"/>
+      <c r="A29" s="147"/>
+      <c r="B29" s="164"/>
       <c r="C29" s="58" t="s">
         <v>176</v>
       </c>
@@ -5398,10 +5474,10 @@
       <c r="I29" s="45"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="148" t="s">
+      <c r="A30" s="146" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="153" t="s">
+      <c r="B30" s="154" t="s">
         <v>127</v>
       </c>
       <c r="C30" s="62" t="s">
@@ -5417,8 +5493,8 @@
       <c r="I30" s="32"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="149"/>
-      <c r="B31" s="141"/>
+      <c r="A31" s="147"/>
+      <c r="B31" s="155"/>
       <c r="C31" s="63" t="s">
         <v>129</v>
       </c>
@@ -5432,8 +5508,8 @@
       <c r="I31" s="34"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="149"/>
-      <c r="B32" s="141"/>
+      <c r="A32" s="147"/>
+      <c r="B32" s="155"/>
       <c r="C32" s="63" t="s">
         <v>132</v>
       </c>
@@ -5447,8 +5523,8 @@
       <c r="I32" s="34"/>
     </row>
     <row r="33" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A33" s="149"/>
-      <c r="B33" s="141"/>
+      <c r="A33" s="147"/>
+      <c r="B33" s="155"/>
       <c r="C33" s="63" t="s">
         <v>125</v>
       </c>
@@ -5462,8 +5538,8 @@
       <c r="I33" s="34"/>
     </row>
     <row r="34" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A34" s="149"/>
-      <c r="B34" s="141" t="s">
+      <c r="A34" s="147"/>
+      <c r="B34" s="155" t="s">
         <v>133</v>
       </c>
       <c r="C34" s="63" t="s">
@@ -5479,8 +5555,8 @@
       <c r="I34" s="45"/>
     </row>
     <row r="35" spans="1:16384" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="149"/>
-      <c r="B35" s="141"/>
+      <c r="A35" s="147"/>
+      <c r="B35" s="155"/>
       <c r="C35" s="63" t="s">
         <v>134</v>
       </c>
@@ -21869,8 +21945,8 @@
       <c r="XFD35" s="46"/>
     </row>
     <row r="36" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A36" s="149"/>
-      <c r="B36" s="141"/>
+      <c r="A36" s="147"/>
+      <c r="B36" s="155"/>
       <c r="C36" s="64" t="s">
         <v>187</v>
       </c>
@@ -21882,8 +21958,8 @@
       <c r="I36" s="56"/>
     </row>
     <row r="37" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A37" s="149"/>
-      <c r="B37" s="141" t="s">
+      <c r="A37" s="147"/>
+      <c r="B37" s="155" t="s">
         <v>136</v>
       </c>
       <c r="C37" s="63" t="s">
@@ -21899,8 +21975,8 @@
       <c r="I37" s="34"/>
     </row>
     <row r="38" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A38" s="149"/>
-      <c r="B38" s="141"/>
+      <c r="A38" s="147"/>
+      <c r="B38" s="155"/>
       <c r="C38" s="63" t="s">
         <v>92</v>
       </c>
@@ -21914,7 +21990,7 @@
       <c r="I38" s="34"/>
     </row>
     <row r="39" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A39" s="149"/>
+      <c r="A39" s="147"/>
       <c r="B39" s="57" t="s">
         <v>139</v>
       </c>
@@ -21931,10 +22007,10 @@
       <c r="I39" s="34"/>
     </row>
     <row r="40" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A40" s="150" t="s">
+      <c r="A40" s="160" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="144" t="s">
+      <c r="B40" s="162" t="s">
         <v>71</v>
       </c>
       <c r="C40" s="41" t="s">
@@ -21950,8 +22026,8 @@
       <c r="I40" s="56"/>
     </row>
     <row r="41" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A41" s="151"/>
-      <c r="B41" s="141"/>
+      <c r="A41" s="152"/>
+      <c r="B41" s="155"/>
       <c r="C41" s="40" t="s">
         <v>74</v>
       </c>
@@ -21965,8 +22041,8 @@
       <c r="I41" s="34"/>
     </row>
     <row r="42" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A42" s="151"/>
-      <c r="B42" s="141" t="s">
+      <c r="A42" s="152"/>
+      <c r="B42" s="155" t="s">
         <v>152</v>
       </c>
       <c r="C42" s="40" t="s">
@@ -21982,8 +22058,8 @@
       <c r="I42" s="34"/>
     </row>
     <row r="43" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A43" s="151"/>
-      <c r="B43" s="141"/>
+      <c r="A43" s="152"/>
+      <c r="B43" s="155"/>
       <c r="C43" s="40" t="s">
         <v>144</v>
       </c>
@@ -21997,11 +22073,11 @@
       <c r="I43" s="34"/>
     </row>
     <row r="44" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A44" s="151"/>
-      <c r="B44" s="141" t="s">
+      <c r="A44" s="152"/>
+      <c r="B44" s="155" t="s">
         <v>163</v>
       </c>
-      <c r="C44" s="142" t="s">
+      <c r="C44" s="165" t="s">
         <v>162</v>
       </c>
       <c r="D44" s="33" t="s">
@@ -22014,9 +22090,9 @@
       <c r="I44" s="34"/>
     </row>
     <row r="45" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A45" s="151"/>
-      <c r="B45" s="141"/>
-      <c r="C45" s="144"/>
+      <c r="A45" s="152"/>
+      <c r="B45" s="155"/>
+      <c r="C45" s="162"/>
       <c r="D45" s="33" t="s">
         <v>164</v>
       </c>
@@ -22027,8 +22103,8 @@
       <c r="I45" s="34"/>
     </row>
     <row r="46" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A46" s="151"/>
-      <c r="B46" s="141"/>
+      <c r="A46" s="152"/>
+      <c r="B46" s="155"/>
       <c r="C46" s="40" t="s">
         <v>112</v>
       </c>
@@ -22042,8 +22118,8 @@
       <c r="I46" s="34"/>
     </row>
     <row r="47" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A47" s="151"/>
-      <c r="B47" s="141"/>
+      <c r="A47" s="152"/>
+      <c r="B47" s="155"/>
       <c r="C47" s="40" t="s">
         <v>106</v>
       </c>
@@ -22057,8 +22133,8 @@
       <c r="I47" s="34"/>
     </row>
     <row r="48" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A48" s="151"/>
-      <c r="B48" s="141"/>
+      <c r="A48" s="152"/>
+      <c r="B48" s="155"/>
       <c r="C48" s="40" t="s">
         <v>147</v>
       </c>
@@ -22072,8 +22148,8 @@
       <c r="I48" s="34"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="151"/>
-      <c r="B49" s="141" t="s">
+      <c r="A49" s="152"/>
+      <c r="B49" s="155" t="s">
         <v>153</v>
       </c>
       <c r="C49" s="40" t="s">
@@ -22089,8 +22165,8 @@
       <c r="I49" s="34"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="151"/>
-      <c r="B50" s="141"/>
+      <c r="A50" s="152"/>
+      <c r="B50" s="155"/>
       <c r="C50" s="40" t="s">
         <v>112</v>
       </c>
@@ -22104,8 +22180,8 @@
       <c r="I50" s="34"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="151"/>
-      <c r="B51" s="141"/>
+      <c r="A51" s="152"/>
+      <c r="B51" s="155"/>
       <c r="C51" s="40" t="s">
         <v>106</v>
       </c>
@@ -22119,8 +22195,8 @@
       <c r="I51" s="34"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="151"/>
-      <c r="B52" s="141"/>
+      <c r="A52" s="152"/>
+      <c r="B52" s="155"/>
       <c r="C52" s="40" t="s">
         <v>147</v>
       </c>
@@ -22134,8 +22210,8 @@
       <c r="I52" s="34"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="151"/>
-      <c r="B53" s="142" t="s">
+      <c r="A53" s="152"/>
+      <c r="B53" s="165" t="s">
         <v>154</v>
       </c>
       <c r="C53" s="40" t="s">
@@ -22151,8 +22227,8 @@
       <c r="I53" s="34"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="151"/>
-      <c r="B54" s="143"/>
+      <c r="A54" s="152"/>
+      <c r="B54" s="164"/>
       <c r="C54" s="49" t="s">
         <v>159</v>
       </c>
@@ -22166,8 +22242,8 @@
       <c r="I54" s="34"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="151"/>
-      <c r="B55" s="141" t="s">
+      <c r="A55" s="152"/>
+      <c r="B55" s="155" t="s">
         <v>76</v>
       </c>
       <c r="C55" s="40" t="s">
@@ -22183,8 +22259,8 @@
       <c r="I55" s="34"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="151"/>
-      <c r="B56" s="141"/>
+      <c r="A56" s="152"/>
+      <c r="B56" s="155"/>
       <c r="C56" s="40" t="s">
         <v>79</v>
       </c>
@@ -22198,8 +22274,8 @@
       <c r="I56" s="34"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="151"/>
-      <c r="B57" s="142" t="s">
+      <c r="A57" s="152"/>
+      <c r="B57" s="165" t="s">
         <v>81</v>
       </c>
       <c r="C57" s="40" t="s">
@@ -22215,8 +22291,8 @@
       <c r="I57" s="34"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="152"/>
-      <c r="B58" s="144"/>
+      <c r="A58" s="161"/>
+      <c r="B58" s="162"/>
       <c r="C58" s="50" t="s">
         <v>167</v>
       </c>
@@ -22230,8 +22306,8 @@
       <c r="I58" s="45"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="152"/>
-      <c r="B59" s="142" t="s">
+      <c r="A59" s="161"/>
+      <c r="B59" s="165" t="s">
         <v>172</v>
       </c>
       <c r="C59" s="50" t="s">
@@ -22247,8 +22323,8 @@
       <c r="I59" s="45"/>
     </row>
     <row r="60" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="152"/>
-      <c r="B60" s="155"/>
+      <c r="A60" s="161"/>
+      <c r="B60" s="166"/>
       <c r="C60" s="42" t="s">
         <v>171</v>
       </c>
@@ -22511,11 +22587,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A30:A39"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B20:B21"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A10:A29"/>
     <mergeCell ref="A40:A60"/>
@@ -22532,11 +22608,11 @@
     <mergeCell ref="C44:C45"/>
     <mergeCell ref="B59:B60"/>
     <mergeCell ref="B44:B48"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A30:A39"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22581,15 +22657,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="145"/>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="147"/>
+      <c r="A1" s="157"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="159"/>
     </row>
     <row r="2" spans="1:15" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
@@ -22621,15 +22697,15 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="156"/>
-      <c r="B3" s="157"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="157"/>
-      <c r="I3" s="158"/>
+      <c r="A3" s="148"/>
+      <c r="B3" s="149"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="150"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="73" t="s">
@@ -22649,10 +22725,10 @@
       <c r="G4" s="31"/>
       <c r="H4" s="31"/>
       <c r="I4" s="32"/>
-      <c r="N4" s="162" t="s">
+      <c r="N4" s="167" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="162" t="s">
+      <c r="O4" s="167" t="s">
         <v>11</v>
       </c>
     </row>
@@ -22674,8 +22750,8 @@
       <c r="G5" s="33"/>
       <c r="H5" s="33"/>
       <c r="I5" s="34"/>
-      <c r="N5" s="162"/>
-      <c r="O5" s="162"/>
+      <c r="N5" s="167"/>
+      <c r="O5" s="167"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="74" t="s">
@@ -22695,8 +22771,8 @@
       <c r="G6" s="33"/>
       <c r="H6" s="33"/>
       <c r="I6" s="34"/>
-      <c r="N6" s="162"/>
-      <c r="O6" s="162"/>
+      <c r="N6" s="167"/>
+      <c r="O6" s="167"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="74" t="s">
@@ -22716,8 +22792,8 @@
       <c r="G7" s="33"/>
       <c r="H7" s="33"/>
       <c r="I7" s="34"/>
-      <c r="N7" s="162"/>
-      <c r="O7" s="162" t="s">
+      <c r="N7" s="167"/>
+      <c r="O7" s="167" t="s">
         <v>275</v>
       </c>
     </row>
@@ -22739,8 +22815,8 @@
       <c r="G8" s="33"/>
       <c r="H8" s="33"/>
       <c r="I8" s="34"/>
-      <c r="N8" s="162"/>
-      <c r="O8" s="162"/>
+      <c r="N8" s="167"/>
+      <c r="O8" s="167"/>
     </row>
     <row r="9" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="75" t="s">
@@ -22760,8 +22836,8 @@
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
       <c r="I9" s="36"/>
-      <c r="N9" s="162"/>
-      <c r="O9" s="162"/>
+      <c r="N9" s="167"/>
+      <c r="O9" s="167"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="80" t="s">
@@ -22783,10 +22859,10 @@
       <c r="G10" s="31"/>
       <c r="H10" s="31"/>
       <c r="I10" s="32"/>
-      <c r="N10" s="162" t="s">
+      <c r="N10" s="167" t="s">
         <v>23</v>
       </c>
-      <c r="O10" s="162" t="s">
+      <c r="O10" s="167" t="s">
         <v>103</v>
       </c>
     </row>
@@ -22810,8 +22886,8 @@
       <c r="G11" s="33"/>
       <c r="H11" s="33"/>
       <c r="I11" s="34"/>
-      <c r="N11" s="162"/>
-      <c r="O11" s="162"/>
+      <c r="N11" s="167"/>
+      <c r="O11" s="167"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="82" t="s">
@@ -22833,8 +22909,8 @@
       <c r="G12" s="33"/>
       <c r="H12" s="33"/>
       <c r="I12" s="34"/>
-      <c r="N12" s="162"/>
-      <c r="O12" s="162"/>
+      <c r="N12" s="167"/>
+      <c r="O12" s="167"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="82" t="s">
@@ -22854,8 +22930,8 @@
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
       <c r="I13" s="34"/>
-      <c r="N13" s="162"/>
-      <c r="O13" s="162"/>
+      <c r="N13" s="167"/>
+      <c r="O13" s="167"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="82" t="s">
@@ -22877,8 +22953,8 @@
       <c r="G14" s="33"/>
       <c r="H14" s="33"/>
       <c r="I14" s="34"/>
-      <c r="N14" s="162"/>
-      <c r="O14" s="162"/>
+      <c r="N14" s="167"/>
+      <c r="O14" s="167"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="82" t="s">
@@ -22900,8 +22976,8 @@
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
       <c r="I15" s="34"/>
-      <c r="N15" s="162"/>
-      <c r="O15" s="162" t="s">
+      <c r="N15" s="167"/>
+      <c r="O15" s="167" t="s">
         <v>111</v>
       </c>
     </row>
@@ -22925,8 +23001,8 @@
       <c r="G16" s="33"/>
       <c r="H16" s="33"/>
       <c r="I16" s="34"/>
-      <c r="N16" s="162"/>
-      <c r="O16" s="162"/>
+      <c r="N16" s="167"/>
+      <c r="O16" s="167"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="82" t="s">
@@ -22948,8 +23024,8 @@
       <c r="G17" s="33"/>
       <c r="H17" s="33"/>
       <c r="I17" s="34"/>
-      <c r="N17" s="162"/>
-      <c r="O17" s="162"/>
+      <c r="N17" s="167"/>
+      <c r="O17" s="167"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="82" t="s">
@@ -22971,8 +23047,8 @@
       <c r="G18" s="33"/>
       <c r="H18" s="33"/>
       <c r="I18" s="34"/>
-      <c r="N18" s="162"/>
-      <c r="O18" s="162"/>
+      <c r="N18" s="167"/>
+      <c r="O18" s="167"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="82" t="s">
@@ -22994,8 +23070,8 @@
       <c r="G19" s="33"/>
       <c r="H19" s="33"/>
       <c r="I19" s="34"/>
-      <c r="N19" s="162"/>
-      <c r="O19" s="162" t="s">
+      <c r="N19" s="167"/>
+      <c r="O19" s="167" t="s">
         <v>180</v>
       </c>
     </row>
@@ -23019,8 +23095,8 @@
       <c r="G20" s="33"/>
       <c r="H20" s="33"/>
       <c r="I20" s="34"/>
-      <c r="N20" s="162"/>
-      <c r="O20" s="162"/>
+      <c r="N20" s="167"/>
+      <c r="O20" s="167"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="82" t="s">
@@ -23040,8 +23116,8 @@
       <c r="G21" s="33"/>
       <c r="H21" s="33"/>
       <c r="I21" s="34"/>
-      <c r="N21" s="162"/>
-      <c r="O21" s="162" t="s">
+      <c r="N21" s="167"/>
+      <c r="O21" s="167" t="s">
         <v>193</v>
       </c>
     </row>
@@ -23063,8 +23139,8 @@
       <c r="G22" s="33"/>
       <c r="H22" s="33"/>
       <c r="I22" s="34"/>
-      <c r="N22" s="162"/>
-      <c r="O22" s="162"/>
+      <c r="N22" s="167"/>
+      <c r="O22" s="167"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="82" t="s">
@@ -23084,8 +23160,8 @@
       <c r="G23" s="33"/>
       <c r="H23" s="33"/>
       <c r="I23" s="34"/>
-      <c r="N23" s="162"/>
-      <c r="O23" s="162" t="s">
+      <c r="N23" s="167"/>
+      <c r="O23" s="167" t="s">
         <v>115</v>
       </c>
     </row>
@@ -23107,8 +23183,8 @@
       <c r="G24" s="33"/>
       <c r="H24" s="33"/>
       <c r="I24" s="34"/>
-      <c r="N24" s="162"/>
-      <c r="O24" s="162"/>
+      <c r="N24" s="167"/>
+      <c r="O24" s="167"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="82" t="s">
@@ -23128,8 +23204,8 @@
       <c r="G25" s="33"/>
       <c r="H25" s="33"/>
       <c r="I25" s="34"/>
-      <c r="N25" s="162"/>
-      <c r="O25" s="162"/>
+      <c r="N25" s="167"/>
+      <c r="O25" s="167"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="82" t="s">
@@ -23149,8 +23225,8 @@
       <c r="G26" s="33"/>
       <c r="H26" s="33"/>
       <c r="I26" s="34"/>
-      <c r="N26" s="162"/>
-      <c r="O26" s="162" t="s">
+      <c r="N26" s="167"/>
+      <c r="O26" s="167" t="s">
         <v>43</v>
       </c>
     </row>
@@ -23172,8 +23248,8 @@
       <c r="G27" s="33"/>
       <c r="H27" s="33"/>
       <c r="I27" s="34"/>
-      <c r="N27" s="162"/>
-      <c r="O27" s="162"/>
+      <c r="N27" s="167"/>
+      <c r="O27" s="167"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="82" t="s">
@@ -23193,8 +23269,8 @@
       <c r="G28" s="33"/>
       <c r="H28" s="33"/>
       <c r="I28" s="34"/>
-      <c r="N28" s="162"/>
-      <c r="O28" s="162"/>
+      <c r="N28" s="167"/>
+      <c r="O28" s="167"/>
     </row>
     <row r="29" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="82" t="s">
@@ -23214,8 +23290,8 @@
       <c r="G29" s="44"/>
       <c r="H29" s="44"/>
       <c r="I29" s="45"/>
-      <c r="N29" s="162"/>
-      <c r="O29" s="162"/>
+      <c r="N29" s="167"/>
+      <c r="O29" s="167"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="80" t="s">
@@ -23235,10 +23311,10 @@
       <c r="G30" s="31"/>
       <c r="H30" s="31"/>
       <c r="I30" s="32"/>
-      <c r="N30" s="162" t="s">
+      <c r="N30" s="167" t="s">
         <v>45</v>
       </c>
-      <c r="O30" s="162" t="s">
+      <c r="O30" s="167" t="s">
         <v>127</v>
       </c>
     </row>
@@ -23260,8 +23336,8 @@
       <c r="G31" s="33"/>
       <c r="H31" s="33"/>
       <c r="I31" s="34"/>
-      <c r="N31" s="162"/>
-      <c r="O31" s="162"/>
+      <c r="N31" s="167"/>
+      <c r="O31" s="167"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="82" t="s">
@@ -23281,8 +23357,8 @@
       <c r="G32" s="33"/>
       <c r="H32" s="33"/>
       <c r="I32" s="34"/>
-      <c r="N32" s="162"/>
-      <c r="O32" s="162"/>
+      <c r="N32" s="167"/>
+      <c r="O32" s="167"/>
     </row>
     <row r="33" spans="1:16383" x14ac:dyDescent="0.3">
       <c r="A33" s="82" t="s">
@@ -23302,8 +23378,8 @@
       <c r="G33" s="33"/>
       <c r="H33" s="33"/>
       <c r="I33" s="34"/>
-      <c r="N33" s="162"/>
-      <c r="O33" s="162"/>
+      <c r="N33" s="167"/>
+      <c r="O33" s="167"/>
     </row>
     <row r="34" spans="1:16383" x14ac:dyDescent="0.3">
       <c r="A34" s="82" t="s">
@@ -23325,8 +23401,8 @@
       <c r="G34" s="44"/>
       <c r="H34" s="44"/>
       <c r="I34" s="45"/>
-      <c r="N34" s="162"/>
-      <c r="O34" s="162" t="s">
+      <c r="N34" s="167"/>
+      <c r="O34" s="167" t="s">
         <v>133</v>
       </c>
     </row>
@@ -23352,8 +23428,8 @@
       <c r="K35" s="46"/>
       <c r="L35" s="46"/>
       <c r="M35" s="46"/>
-      <c r="N35" s="162"/>
-      <c r="O35" s="162"/>
+      <c r="N35" s="167"/>
+      <c r="O35" s="167"/>
       <c r="P35" s="46"/>
       <c r="Q35" s="46"/>
       <c r="R35" s="46"/>
@@ -39743,7 +39819,7 @@
       <c r="G36" s="35"/>
       <c r="H36" s="35"/>
       <c r="I36" s="36"/>
-      <c r="N36" s="162"/>
+      <c r="N36" s="167"/>
       <c r="O36" s="76" t="s">
         <v>139</v>
       </c>
@@ -39766,10 +39842,10 @@
       <c r="G37" s="55"/>
       <c r="H37" s="55"/>
       <c r="I37" s="56"/>
-      <c r="N37" s="162" t="s">
+      <c r="N37" s="167" t="s">
         <v>67</v>
       </c>
-      <c r="O37" s="162" t="s">
+      <c r="O37" s="167" t="s">
         <v>71</v>
       </c>
     </row>
@@ -39791,8 +39867,8 @@
       <c r="G38" s="33"/>
       <c r="H38" s="33"/>
       <c r="I38" s="34"/>
-      <c r="N38" s="162"/>
-      <c r="O38" s="162"/>
+      <c r="N38" s="167"/>
+      <c r="O38" s="167"/>
     </row>
     <row r="39" spans="1:16383" x14ac:dyDescent="0.3">
       <c r="A39" s="74" t="s">
@@ -39812,8 +39888,8 @@
       <c r="G39" s="33"/>
       <c r="H39" s="33"/>
       <c r="I39" s="34"/>
-      <c r="N39" s="162"/>
-      <c r="O39" s="162" t="s">
+      <c r="N39" s="167"/>
+      <c r="O39" s="167" t="s">
         <v>280</v>
       </c>
     </row>
@@ -39835,8 +39911,8 @@
       <c r="G40" s="33"/>
       <c r="H40" s="33"/>
       <c r="I40" s="34"/>
-      <c r="N40" s="162"/>
-      <c r="O40" s="162"/>
+      <c r="N40" s="167"/>
+      <c r="O40" s="167"/>
     </row>
     <row r="41" spans="1:16383" x14ac:dyDescent="0.3">
       <c r="A41" s="74" t="s">
@@ -39858,8 +39934,8 @@
       <c r="G41" s="33"/>
       <c r="H41" s="33"/>
       <c r="I41" s="34"/>
-      <c r="N41" s="162"/>
-      <c r="O41" s="162"/>
+      <c r="N41" s="167"/>
+      <c r="O41" s="167"/>
     </row>
     <row r="42" spans="1:16383" x14ac:dyDescent="0.3">
       <c r="A42" s="74" t="s">
@@ -39879,8 +39955,8 @@
       <c r="G42" s="33"/>
       <c r="H42" s="33"/>
       <c r="I42" s="34"/>
-      <c r="N42" s="162"/>
-      <c r="O42" s="162" t="s">
+      <c r="N42" s="167"/>
+      <c r="O42" s="167" t="s">
         <v>152</v>
       </c>
     </row>
@@ -39904,8 +39980,8 @@
       <c r="G43" s="33"/>
       <c r="H43" s="33"/>
       <c r="I43" s="34"/>
-      <c r="N43" s="162"/>
-      <c r="O43" s="162"/>
+      <c r="N43" s="167"/>
+      <c r="O43" s="167"/>
     </row>
     <row r="44" spans="1:16383" x14ac:dyDescent="0.3">
       <c r="A44" s="74" t="s">
@@ -39927,8 +40003,8 @@
       <c r="G44" s="33"/>
       <c r="H44" s="33"/>
       <c r="I44" s="34"/>
-      <c r="N44" s="162"/>
-      <c r="O44" s="162" t="s">
+      <c r="N44" s="167"/>
+      <c r="O44" s="167" t="s">
         <v>154</v>
       </c>
     </row>
@@ -39952,8 +40028,8 @@
       <c r="G45" s="33"/>
       <c r="H45" s="33"/>
       <c r="I45" s="34"/>
-      <c r="N45" s="162"/>
-      <c r="O45" s="162"/>
+      <c r="N45" s="167"/>
+      <c r="O45" s="167"/>
     </row>
     <row r="46" spans="1:16383" x14ac:dyDescent="0.3">
       <c r="A46" s="88" t="s">
@@ -39975,8 +40051,8 @@
       <c r="G46" s="44"/>
       <c r="H46" s="44"/>
       <c r="I46" s="45"/>
-      <c r="N46" s="162"/>
-      <c r="O46" s="162" t="s">
+      <c r="N46" s="167"/>
+      <c r="O46" s="167" t="s">
         <v>301</v>
       </c>
     </row>
@@ -40000,8 +40076,8 @@
       <c r="G47" s="44"/>
       <c r="H47" s="44"/>
       <c r="I47" s="45"/>
-      <c r="N47" s="162"/>
-      <c r="O47" s="162"/>
+      <c r="N47" s="167"/>
+      <c r="O47" s="167"/>
     </row>
     <row r="48" spans="1:16383" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="70" t="s">
@@ -40253,18 +40329,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="N4:N9"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="O7:O9"/>
-    <mergeCell ref="N10:N29"/>
-    <mergeCell ref="O10:O14"/>
-    <mergeCell ref="O15:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="O23:O25"/>
-    <mergeCell ref="O26:O29"/>
     <mergeCell ref="N30:N36"/>
     <mergeCell ref="O30:O33"/>
     <mergeCell ref="O34:O35"/>
@@ -40274,6 +40338,18 @@
     <mergeCell ref="O42:O43"/>
     <mergeCell ref="O44:O45"/>
     <mergeCell ref="O46:O47"/>
+    <mergeCell ref="N10:N29"/>
+    <mergeCell ref="O10:O14"/>
+    <mergeCell ref="O15:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="O23:O25"/>
+    <mergeCell ref="O26:O29"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="N4:N9"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="O7:O9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -40287,8 +40363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XEV67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -40367,10 +40443,10 @@
       <c r="K3" s="119"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="149" t="s">
+      <c r="A4" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="143" t="s">
+      <c r="B4" s="164" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="96" t="s">
@@ -40379,7 +40455,7 @@
       <c r="D4" s="118">
         <v>1</v>
       </c>
-      <c r="E4" s="143" t="s">
+      <c r="E4" s="164" t="s">
         <v>316</v>
       </c>
       <c r="F4" s="115"/>
@@ -40394,15 +40470,15 @@
       <c r="K4" s="115"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="149"/>
-      <c r="B5" s="143"/>
+      <c r="A5" s="147"/>
+      <c r="B5" s="164"/>
       <c r="C5" s="92" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="116">
         <v>1</v>
       </c>
-      <c r="E5" s="143"/>
+      <c r="E5" s="164"/>
       <c r="F5" s="110"/>
       <c r="G5" s="110" t="s">
         <v>330</v>
@@ -40415,15 +40491,15 @@
       <c r="K5" s="110"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="149"/>
-      <c r="B6" s="144"/>
+      <c r="A6" s="147"/>
+      <c r="B6" s="162"/>
       <c r="C6" s="92" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="116">
         <v>1</v>
       </c>
-      <c r="E6" s="143"/>
+      <c r="E6" s="164"/>
       <c r="F6" s="110"/>
       <c r="G6" s="110" t="s">
         <v>330</v>
@@ -40436,8 +40512,8 @@
       <c r="K6" s="110"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="149"/>
-      <c r="B7" s="142" t="s">
+      <c r="A7" s="147"/>
+      <c r="B7" s="165" t="s">
         <v>275</v>
       </c>
       <c r="C7" s="92" t="s">
@@ -40446,7 +40522,7 @@
       <c r="D7" s="116">
         <v>1</v>
       </c>
-      <c r="E7" s="143"/>
+      <c r="E7" s="164"/>
       <c r="F7" s="110"/>
       <c r="G7" s="110" t="s">
         <v>338</v>
@@ -40459,15 +40535,15 @@
       <c r="K7" s="110"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="149"/>
-      <c r="B8" s="143"/>
+      <c r="A8" s="147"/>
+      <c r="B8" s="164"/>
       <c r="C8" s="92" t="s">
         <v>276</v>
       </c>
       <c r="D8" s="116">
         <v>1</v>
       </c>
-      <c r="E8" s="143"/>
+      <c r="E8" s="164"/>
       <c r="F8" s="110"/>
       <c r="G8" s="110" t="s">
         <v>339</v>
@@ -40480,15 +40556,15 @@
       <c r="K8" s="110"/>
     </row>
     <row r="9" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="163"/>
-      <c r="B9" s="155"/>
+      <c r="A9" s="168"/>
+      <c r="B9" s="166"/>
       <c r="C9" s="93" t="s">
         <v>275</v>
       </c>
       <c r="D9" s="121">
         <v>1</v>
       </c>
-      <c r="E9" s="155"/>
+      <c r="E9" s="166"/>
       <c r="F9" s="113"/>
       <c r="G9" s="113" t="s">
         <v>340</v>
@@ -40501,10 +40577,10 @@
       <c r="K9" s="113"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="149" t="s">
+      <c r="A10" s="147" t="s">
         <v>198</v>
       </c>
-      <c r="B10" s="143" t="s">
+      <c r="B10" s="164" t="s">
         <v>103</v>
       </c>
       <c r="C10" s="128" t="s">
@@ -40513,7 +40589,7 @@
       <c r="D10" s="118">
         <v>2</v>
       </c>
-      <c r="E10" s="143" t="s">
+      <c r="E10" s="164" t="s">
         <v>320</v>
       </c>
       <c r="F10" s="115"/>
@@ -40524,15 +40600,15 @@
       <c r="K10" s="115"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="149"/>
-      <c r="B11" s="143"/>
+      <c r="A11" s="147"/>
+      <c r="B11" s="164"/>
       <c r="C11" s="100" t="s">
         <v>203</v>
       </c>
       <c r="D11" s="116">
         <v>1</v>
       </c>
-      <c r="E11" s="143"/>
+      <c r="E11" s="164"/>
       <c r="F11" s="110"/>
       <c r="G11" s="110"/>
       <c r="H11" s="110"/>
@@ -40541,15 +40617,15 @@
       <c r="K11" s="110"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="149"/>
-      <c r="B12" s="143"/>
+      <c r="A12" s="147"/>
+      <c r="B12" s="164"/>
       <c r="C12" s="100" t="s">
         <v>206</v>
       </c>
       <c r="D12" s="116">
         <v>1</v>
       </c>
-      <c r="E12" s="143"/>
+      <c r="E12" s="164"/>
       <c r="F12" s="110"/>
       <c r="G12" s="110"/>
       <c r="H12" s="110"/>
@@ -40558,15 +40634,15 @@
       <c r="K12" s="110"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="149"/>
-      <c r="B13" s="143"/>
+      <c r="A13" s="147"/>
+      <c r="B13" s="164"/>
       <c r="C13" s="100" t="s">
         <v>209</v>
       </c>
       <c r="D13" s="116">
         <v>2</v>
       </c>
-      <c r="E13" s="144"/>
+      <c r="E13" s="162"/>
       <c r="F13" s="110"/>
       <c r="G13" s="110"/>
       <c r="H13" s="110"/>
@@ -40575,8 +40651,8 @@
       <c r="K13" s="110"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="149"/>
-      <c r="B14" s="144"/>
+      <c r="A14" s="147"/>
+      <c r="B14" s="162"/>
       <c r="C14" s="103" t="s">
         <v>211</v>
       </c>
@@ -40598,8 +40674,8 @@
       <c r="K14" s="110"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="149"/>
-      <c r="B15" s="142" t="s">
+      <c r="A15" s="147"/>
+      <c r="B15" s="165" t="s">
         <v>111</v>
       </c>
       <c r="C15" s="101" t="s">
@@ -40608,7 +40684,7 @@
       <c r="D15" s="116">
         <v>2</v>
       </c>
-      <c r="E15" s="142" t="s">
+      <c r="E15" s="165" t="s">
         <v>320</v>
       </c>
       <c r="F15" s="110"/>
@@ -40619,15 +40695,15 @@
       <c r="K15" s="110"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="149"/>
-      <c r="B16" s="143"/>
+      <c r="A16" s="147"/>
+      <c r="B16" s="164"/>
       <c r="C16" s="100" t="s">
         <v>223</v>
       </c>
       <c r="D16" s="116">
         <v>1</v>
       </c>
-      <c r="E16" s="143"/>
+      <c r="E16" s="164"/>
       <c r="F16" s="110"/>
       <c r="G16" s="110"/>
       <c r="H16" s="110"/>
@@ -40636,15 +40712,15 @@
       <c r="K16" s="110"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="149"/>
-      <c r="B17" s="143"/>
+      <c r="A17" s="147"/>
+      <c r="B17" s="164"/>
       <c r="C17" s="100" t="s">
         <v>225</v>
       </c>
       <c r="D17" s="116">
         <v>1</v>
       </c>
-      <c r="E17" s="144"/>
+      <c r="E17" s="162"/>
       <c r="F17" s="110"/>
       <c r="G17" s="110"/>
       <c r="H17" s="110"/>
@@ -40653,8 +40729,8 @@
       <c r="K17" s="110"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="149"/>
-      <c r="B18" s="144"/>
+      <c r="A18" s="147"/>
+      <c r="B18" s="162"/>
       <c r="C18" s="103" t="s">
         <v>228</v>
       </c>
@@ -40676,8 +40752,8 @@
       <c r="K18" s="110"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="149"/>
-      <c r="B19" s="142" t="s">
+      <c r="A19" s="147"/>
+      <c r="B19" s="165" t="s">
         <v>180</v>
       </c>
       <c r="C19" s="97" t="s">
@@ -40686,7 +40762,7 @@
       <c r="D19" s="116">
         <v>1</v>
       </c>
-      <c r="E19" s="142" t="s">
+      <c r="E19" s="165" t="s">
         <v>328</v>
       </c>
       <c r="F19" s="110"/>
@@ -40701,15 +40777,15 @@
       <c r="K19" s="110"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="149"/>
-      <c r="B20" s="144"/>
+      <c r="A20" s="147"/>
+      <c r="B20" s="162"/>
       <c r="C20" s="97" t="s">
         <v>184</v>
       </c>
       <c r="D20" s="116">
         <v>2</v>
       </c>
-      <c r="E20" s="143"/>
+      <c r="E20" s="164"/>
       <c r="F20" s="110"/>
       <c r="G20" s="110" t="s">
         <v>344</v>
@@ -40722,8 +40798,8 @@
       <c r="K20" s="110"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="149"/>
-      <c r="B21" s="142" t="s">
+      <c r="A21" s="147"/>
+      <c r="B21" s="165" t="s">
         <v>193</v>
       </c>
       <c r="C21" s="97" t="s">
@@ -40732,7 +40808,7 @@
       <c r="D21" s="116">
         <v>3</v>
       </c>
-      <c r="E21" s="144"/>
+      <c r="E21" s="162"/>
       <c r="F21" s="110"/>
       <c r="G21" s="110" t="s">
         <v>345</v>
@@ -40745,15 +40821,15 @@
       <c r="K21" s="110"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="149"/>
-      <c r="B22" s="144"/>
+      <c r="A22" s="147"/>
+      <c r="B22" s="162"/>
       <c r="C22" s="103" t="s">
         <v>194</v>
       </c>
       <c r="D22" s="116">
         <v>1</v>
       </c>
-      <c r="E22" s="142" t="s">
+      <c r="E22" s="165" t="s">
         <v>322</v>
       </c>
       <c r="F22" s="110"/>
@@ -40768,8 +40844,8 @@
       <c r="K22" s="110"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="149"/>
-      <c r="B23" s="142" t="s">
+      <c r="A23" s="147"/>
+      <c r="B23" s="165" t="s">
         <v>115</v>
       </c>
       <c r="C23" s="103" t="s">
@@ -40778,7 +40854,7 @@
       <c r="D23" s="116">
         <v>1</v>
       </c>
-      <c r="E23" s="143"/>
+      <c r="E23" s="164"/>
       <c r="F23" s="110"/>
       <c r="G23" s="110" t="s">
         <v>330</v>
@@ -40791,15 +40867,15 @@
       <c r="K23" s="110"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="149"/>
-      <c r="B24" s="143"/>
+      <c r="A24" s="147"/>
+      <c r="B24" s="164"/>
       <c r="C24" s="103" t="s">
         <v>118</v>
       </c>
       <c r="D24" s="116">
         <v>2</v>
       </c>
-      <c r="E24" s="143"/>
+      <c r="E24" s="164"/>
       <c r="F24" s="110"/>
       <c r="G24" s="110" t="s">
         <v>330</v>
@@ -40812,15 +40888,15 @@
       <c r="K24" s="110"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="149"/>
-      <c r="B25" s="144"/>
+      <c r="A25" s="147"/>
+      <c r="B25" s="162"/>
       <c r="C25" s="103" t="s">
         <v>236</v>
       </c>
       <c r="D25" s="116">
         <v>1</v>
       </c>
-      <c r="E25" s="144"/>
+      <c r="E25" s="162"/>
       <c r="F25" s="110"/>
       <c r="G25" s="110" t="s">
         <v>342</v>
@@ -40833,15 +40909,15 @@
       <c r="K25" s="110"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="149"/>
-      <c r="B26" s="142" t="s">
+      <c r="A26" s="147"/>
+      <c r="B26" s="165" t="s">
         <v>43</v>
       </c>
       <c r="C26" s="97" t="s">
         <v>44</v>
       </c>
       <c r="D26" s="116"/>
-      <c r="E26" s="142" t="s">
+      <c r="E26" s="165" t="s">
         <v>317</v>
       </c>
       <c r="F26" s="110"/>
@@ -40856,13 +40932,13 @@
       <c r="K26" s="110"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="149"/>
-      <c r="B27" s="143"/>
+      <c r="A27" s="147"/>
+      <c r="B27" s="164"/>
       <c r="C27" s="97" t="s">
         <v>178</v>
       </c>
       <c r="D27" s="116"/>
-      <c r="E27" s="143"/>
+      <c r="E27" s="164"/>
       <c r="F27" s="110"/>
       <c r="G27" s="110" t="s">
         <v>331</v>
@@ -40875,13 +40951,13 @@
       <c r="K27" s="110"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="149"/>
-      <c r="B28" s="143"/>
+      <c r="A28" s="147"/>
+      <c r="B28" s="164"/>
       <c r="C28" s="97" t="s">
         <v>312</v>
       </c>
       <c r="D28" s="116"/>
-      <c r="E28" s="143"/>
+      <c r="E28" s="164"/>
       <c r="F28" s="110"/>
       <c r="G28" s="110" t="s">
         <v>331</v>
@@ -40894,8 +40970,8 @@
       <c r="K28" s="110"/>
     </row>
     <row r="29" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="163"/>
-      <c r="B29" s="155"/>
+      <c r="A29" s="168"/>
+      <c r="B29" s="166"/>
       <c r="C29" s="126" t="s">
         <v>305</v>
       </c>
@@ -40917,17 +40993,17 @@
       <c r="K29" s="113"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="149" t="s">
+      <c r="A30" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="143" t="s">
+      <c r="B30" s="164" t="s">
         <v>127</v>
       </c>
       <c r="C30" s="127" t="s">
         <v>126</v>
       </c>
       <c r="D30" s="118"/>
-      <c r="E30" s="143" t="s">
+      <c r="E30" s="164" t="s">
         <v>318</v>
       </c>
       <c r="F30" s="115"/>
@@ -40942,13 +41018,13 @@
       <c r="K30" s="115"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="149"/>
-      <c r="B31" s="143"/>
+      <c r="A31" s="147"/>
+      <c r="B31" s="164"/>
       <c r="C31" s="95" t="s">
         <v>129</v>
       </c>
       <c r="D31" s="116"/>
-      <c r="E31" s="144"/>
+      <c r="E31" s="162"/>
       <c r="F31" s="110"/>
       <c r="G31" s="110" t="s">
         <v>332</v>
@@ -40961,15 +41037,15 @@
       <c r="K31" s="110"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="149"/>
-      <c r="B32" s="143"/>
+      <c r="A32" s="147"/>
+      <c r="B32" s="164"/>
       <c r="C32" s="104" t="s">
         <v>132</v>
       </c>
       <c r="D32" s="116">
         <v>3</v>
       </c>
-      <c r="E32" s="142" t="s">
+      <c r="E32" s="165" t="s">
         <v>321</v>
       </c>
       <c r="F32" s="110"/>
@@ -40984,15 +41060,15 @@
       <c r="K32" s="110"/>
     </row>
     <row r="33" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A33" s="149"/>
-      <c r="B33" s="144"/>
+      <c r="A33" s="147"/>
+      <c r="B33" s="162"/>
       <c r="C33" s="104" t="s">
         <v>125</v>
       </c>
       <c r="D33" s="116">
         <v>3</v>
       </c>
-      <c r="E33" s="144"/>
+      <c r="E33" s="162"/>
       <c r="F33" s="110"/>
       <c r="G33" s="110" t="s">
         <v>357</v>
@@ -41005,8 +41081,8 @@
       <c r="K33" s="110"/>
     </row>
     <row r="34" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A34" s="149"/>
-      <c r="B34" s="142" t="s">
+      <c r="A34" s="147"/>
+      <c r="B34" s="165" t="s">
         <v>133</v>
       </c>
       <c r="C34" s="102" t="s">
@@ -41015,7 +41091,7 @@
       <c r="D34" s="117">
         <v>2</v>
       </c>
-      <c r="E34" s="142" t="s">
+      <c r="E34" s="165" t="s">
         <v>327</v>
       </c>
       <c r="F34" s="110"/>
@@ -41030,15 +41106,15 @@
       <c r="K34" s="110"/>
     </row>
     <row r="35" spans="1:16376" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="149"/>
-      <c r="B35" s="144"/>
+      <c r="A35" s="147"/>
+      <c r="B35" s="162"/>
       <c r="C35" s="102" t="s">
         <v>134</v>
       </c>
       <c r="D35" s="116">
         <v>3</v>
       </c>
-      <c r="E35" s="144"/>
+      <c r="E35" s="162"/>
       <c r="F35" s="110"/>
       <c r="G35" s="110" t="s">
         <v>348</v>
@@ -57416,7 +57492,7 @@
       <c r="XEV35" s="46"/>
     </row>
     <row r="36" spans="1:16376" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="163"/>
+      <c r="A36" s="168"/>
       <c r="B36" s="121" t="s">
         <v>139</v>
       </c>
@@ -57441,10 +57517,10 @@
       <c r="K36" s="113"/>
     </row>
     <row r="37" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A37" s="149" t="s">
+      <c r="A37" s="147" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="143" t="s">
+      <c r="B37" s="164" t="s">
         <v>71</v>
       </c>
       <c r="C37" s="96" t="s">
@@ -57453,7 +57529,7 @@
       <c r="D37" s="118">
         <v>3</v>
       </c>
-      <c r="E37" s="143" t="s">
+      <c r="E37" s="164" t="s">
         <v>319</v>
       </c>
       <c r="F37" s="115"/>
@@ -57468,15 +57544,15 @@
       <c r="K37" s="115"/>
     </row>
     <row r="38" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A38" s="149"/>
-      <c r="B38" s="144"/>
+      <c r="A38" s="147"/>
+      <c r="B38" s="162"/>
       <c r="C38" s="92" t="s">
         <v>74</v>
       </c>
       <c r="D38" s="116">
         <v>3</v>
       </c>
-      <c r="E38" s="144"/>
+      <c r="E38" s="162"/>
       <c r="F38" s="110"/>
       <c r="G38" s="110" t="s">
         <v>332</v>
@@ -57489,8 +57565,8 @@
       <c r="K38" s="110"/>
     </row>
     <row r="39" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A39" s="149"/>
-      <c r="B39" s="142" t="s">
+      <c r="A39" s="147"/>
+      <c r="B39" s="165" t="s">
         <v>280</v>
       </c>
       <c r="C39" s="100" t="s">
@@ -57499,7 +57575,7 @@
       <c r="D39" s="116">
         <v>1</v>
       </c>
-      <c r="E39" s="142" t="s">
+      <c r="E39" s="165" t="s">
         <v>320</v>
       </c>
       <c r="F39" s="110"/>
@@ -57510,15 +57586,15 @@
       <c r="K39" s="110"/>
     </row>
     <row r="40" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A40" s="149"/>
-      <c r="B40" s="143"/>
+      <c r="A40" s="147"/>
+      <c r="B40" s="164"/>
       <c r="C40" s="100" t="s">
         <v>283</v>
       </c>
       <c r="D40" s="116">
         <v>1</v>
       </c>
-      <c r="E40" s="143"/>
+      <c r="E40" s="164"/>
       <c r="F40" s="110"/>
       <c r="G40" s="110"/>
       <c r="H40" s="110"/>
@@ -57527,15 +57603,15 @@
       <c r="K40" s="110"/>
     </row>
     <row r="41" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A41" s="149"/>
-      <c r="B41" s="144"/>
+      <c r="A41" s="147"/>
+      <c r="B41" s="162"/>
       <c r="C41" s="100" t="s">
         <v>282</v>
       </c>
       <c r="D41" s="116">
         <v>1</v>
       </c>
-      <c r="E41" s="144"/>
+      <c r="E41" s="162"/>
       <c r="F41" s="110"/>
       <c r="G41" s="110"/>
       <c r="H41" s="110"/>
@@ -57544,8 +57620,8 @@
       <c r="K41" s="110"/>
     </row>
     <row r="42" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A42" s="149"/>
-      <c r="B42" s="142" t="s">
+      <c r="A42" s="147"/>
+      <c r="B42" s="165" t="s">
         <v>152</v>
       </c>
       <c r="C42" s="97" t="s">
@@ -57554,7 +57630,7 @@
       <c r="D42" s="116">
         <v>2</v>
       </c>
-      <c r="E42" s="142" t="s">
+      <c r="E42" s="165" t="s">
         <v>326</v>
       </c>
       <c r="F42" s="110"/>
@@ -57569,15 +57645,15 @@
       <c r="K42" s="110"/>
     </row>
     <row r="43" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A43" s="149"/>
-      <c r="B43" s="144"/>
+      <c r="A43" s="147"/>
+      <c r="B43" s="162"/>
       <c r="C43" s="97" t="s">
         <v>144</v>
       </c>
       <c r="D43" s="116">
         <v>3</v>
       </c>
-      <c r="E43" s="144"/>
+      <c r="E43" s="162"/>
       <c r="F43" s="110"/>
       <c r="G43" s="110" t="s">
         <v>352</v>
@@ -57590,8 +57666,8 @@
       <c r="K43" s="110"/>
     </row>
     <row r="44" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A44" s="149"/>
-      <c r="B44" s="142" t="s">
+      <c r="A44" s="147"/>
+      <c r="B44" s="165" t="s">
         <v>154</v>
       </c>
       <c r="C44" s="103" t="s">
@@ -57600,7 +57676,7 @@
       <c r="D44" s="116">
         <v>2</v>
       </c>
-      <c r="E44" s="142" t="s">
+      <c r="E44" s="165" t="s">
         <v>324</v>
       </c>
       <c r="F44" s="110"/>
@@ -57615,15 +57691,15 @@
       <c r="K44" s="110"/>
     </row>
     <row r="45" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A45" s="149"/>
-      <c r="B45" s="144"/>
+      <c r="A45" s="147"/>
+      <c r="B45" s="162"/>
       <c r="C45" s="103" t="s">
         <v>92</v>
       </c>
       <c r="D45" s="116">
         <v>3</v>
       </c>
-      <c r="E45" s="144"/>
+      <c r="E45" s="162"/>
       <c r="F45" s="116"/>
       <c r="G45" s="110" t="s">
         <v>357</v>
@@ -57636,8 +57712,8 @@
       <c r="K45" s="110"/>
     </row>
     <row r="46" spans="1:16376" x14ac:dyDescent="0.3">
-      <c r="A46" s="149"/>
-      <c r="B46" s="142" t="s">
+      <c r="A46" s="147"/>
+      <c r="B46" s="165" t="s">
         <v>301</v>
       </c>
       <c r="C46" s="98" t="s">
@@ -57646,7 +57722,7 @@
       <c r="D46" s="117">
         <v>2</v>
       </c>
-      <c r="E46" s="142" t="s">
+      <c r="E46" s="165" t="s">
         <v>325</v>
       </c>
       <c r="F46" s="117"/>
@@ -57661,15 +57737,15 @@
       <c r="K46" s="114"/>
     </row>
     <row r="47" spans="1:16376" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="163"/>
-      <c r="B47" s="155"/>
+      <c r="A47" s="168"/>
+      <c r="B47" s="166"/>
       <c r="C47" s="126" t="s">
         <v>304</v>
       </c>
       <c r="D47" s="121">
         <v>3</v>
       </c>
-      <c r="E47" s="155"/>
+      <c r="E47" s="166"/>
       <c r="F47" s="121"/>
       <c r="G47" s="113" t="s">
         <v>331</v>
@@ -57977,20 +58053,15 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="E4:E9"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A37:A47"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B7:B9"/>
@@ -58001,15 +58072,481 @@
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B26:B29"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A37:A47"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="E4:E9"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="E42:E43"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="4" max="4" width="11.25" customWidth="1"/>
+    <col min="5" max="5" width="5.375" customWidth="1"/>
+    <col min="6" max="6" width="5.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="157"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="159"/>
+    </row>
+    <row r="2" spans="1:6" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>363</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="148"/>
+      <c r="B3" s="149"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="150"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="161" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="129">
+        <v>1</v>
+      </c>
+      <c r="D4" s="129" t="s">
+        <v>364</v>
+      </c>
+      <c r="E4" s="33"/>
+      <c r="F4" s="34"/>
+    </row>
+    <row r="5" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="168"/>
+      <c r="B5" s="79" t="s">
+        <v>288</v>
+      </c>
+      <c r="C5" s="133">
+        <v>1</v>
+      </c>
+      <c r="D5" s="133" t="s">
+        <v>364</v>
+      </c>
+      <c r="E5" s="35"/>
+      <c r="F5" s="36"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="146" t="s">
+        <v>365</v>
+      </c>
+      <c r="B6" s="81" t="s">
+        <v>366</v>
+      </c>
+      <c r="C6" s="132">
+        <v>1</v>
+      </c>
+      <c r="D6" s="132" t="s">
+        <v>367</v>
+      </c>
+      <c r="E6" s="31"/>
+      <c r="F6" s="32"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="147"/>
+      <c r="B7" s="85" t="s">
+        <v>368</v>
+      </c>
+      <c r="C7" s="129">
+        <v>1</v>
+      </c>
+      <c r="D7" s="129" t="s">
+        <v>367</v>
+      </c>
+      <c r="E7" s="33"/>
+      <c r="F7" s="34"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="147"/>
+      <c r="B8" s="83" t="s">
+        <v>292</v>
+      </c>
+      <c r="C8" s="129">
+        <v>1</v>
+      </c>
+      <c r="D8" s="129" t="s">
+        <v>369</v>
+      </c>
+      <c r="E8" s="33"/>
+      <c r="F8" s="34"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="147"/>
+      <c r="B9" s="78" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="129">
+        <v>1</v>
+      </c>
+      <c r="D9" s="129" t="s">
+        <v>370</v>
+      </c>
+      <c r="E9" s="33"/>
+      <c r="F9" s="34"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="147"/>
+      <c r="B10" s="83" t="s">
+        <v>371</v>
+      </c>
+      <c r="C10" s="129">
+        <v>1</v>
+      </c>
+      <c r="D10" s="129" t="s">
+        <v>370</v>
+      </c>
+      <c r="E10" s="33"/>
+      <c r="F10" s="34"/>
+    </row>
+    <row r="11" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="168"/>
+      <c r="B11" s="85" t="s">
+        <v>372</v>
+      </c>
+      <c r="C11" s="129">
+        <v>2</v>
+      </c>
+      <c r="D11" s="129" t="s">
+        <v>373</v>
+      </c>
+      <c r="E11" s="33"/>
+      <c r="F11" s="34"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="146" t="s">
+        <v>374</v>
+      </c>
+      <c r="B12" s="77" t="s">
+        <v>375</v>
+      </c>
+      <c r="C12" s="132">
+        <v>3</v>
+      </c>
+      <c r="D12" s="132" t="s">
+        <v>373</v>
+      </c>
+      <c r="E12" s="31"/>
+      <c r="F12" s="32"/>
+    </row>
+    <row r="13" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="168"/>
+      <c r="B13" s="69" t="s">
+        <v>376</v>
+      </c>
+      <c r="C13" s="133">
+        <v>2</v>
+      </c>
+      <c r="D13" s="133" t="s">
+        <v>370</v>
+      </c>
+      <c r="E13" s="35"/>
+      <c r="F13" s="36"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="146" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="84" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="131">
+        <v>3</v>
+      </c>
+      <c r="D14" s="131" t="s">
+        <v>364</v>
+      </c>
+      <c r="E14" s="55"/>
+      <c r="F14" s="56"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="147"/>
+      <c r="B15" s="84" t="s">
+        <v>298</v>
+      </c>
+      <c r="C15" s="129">
+        <v>2</v>
+      </c>
+      <c r="D15" s="129" t="s">
+        <v>367</v>
+      </c>
+      <c r="E15" s="33"/>
+      <c r="F15" s="34"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="147"/>
+      <c r="B16" s="78" t="s">
+        <v>300</v>
+      </c>
+      <c r="C16" s="129">
+        <v>3</v>
+      </c>
+      <c r="D16" s="129" t="s">
+        <v>370</v>
+      </c>
+      <c r="E16" s="33"/>
+      <c r="F16" s="34"/>
+    </row>
+    <row r="17" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="168"/>
+      <c r="B17" s="89" t="s">
+        <v>377</v>
+      </c>
+      <c r="C17" s="130">
+        <v>3</v>
+      </c>
+      <c r="D17" s="130" t="s">
+        <v>370</v>
+      </c>
+      <c r="E17" s="44"/>
+      <c r="F17" s="45"/>
+    </row>
+    <row r="18" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="52">
+        <v>1</v>
+      </c>
+      <c r="D18" s="52" t="s">
+        <v>364</v>
+      </c>
+      <c r="E18" s="53"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="48"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="46"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="48"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="48"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="46"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="48"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="46"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="48"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="46"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="48"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="46"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="48"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="46"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="48"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="48"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="46"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="48"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="46"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="48"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="46"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="48"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="46"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="48"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="46"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="48"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="46"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="48"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="48"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="48"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="48"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="48"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="48"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WebContent/발표/3조 5차 요구사항정의서.xlsx
+++ b/WebContent/발표/3조 5차 요구사항정의서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\507-15\Desktop\github\project05\WebContent\발표\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a01_javaexp\project04\project05\WebContent\발표\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="352">
   <si>
     <t>구분</t>
   </si>
@@ -1146,11 +1146,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>한송우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문한 상품, 장바구니에 담긴 상품을 결제하는 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니에 담긴 상품을 조회하는 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>최민기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>최민기</t>
+    <t>김형준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전현규</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전현규</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1158,67 +1230,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회원 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문한 상품, 장바구니에 담긴 상품을 결제하는 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>웹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니에 담긴 상품을 조회하는 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최민기</t>
+    <t>김형준,최민기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김형준,최민기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전현규</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1226,34 +1246,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>전현규</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전현규</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한송우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김형준,최민기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김형준,최민기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전현규</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김형준</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4월8일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1316,6 +1308,54 @@
   <si>
     <t>4월23일</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월15일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월15일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월24일</t>
+  </si>
+  <si>
+    <t>4월14일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월16일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월20일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월27일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월20일</t>
+  </si>
+  <si>
+    <t>4월17일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월27일</t>
+  </si>
+  <si>
+    <t>4월20일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월20일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -2019,7 +2059,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2236,9 +2276,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2434,7 +2471,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2443,13 +2489,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2461,58 +2513,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2527,23 +2531,53 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2558,6 +2592,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2601,7 +2644,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$4" spid="_x0000_s1559"/>
+                  <a14:cameraTool cellRange="$O$4" spid="_x0000_s1578"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2660,7 +2703,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$7" spid="_x0000_s1560"/>
+                  <a14:cameraTool cellRange="$O$7" spid="_x0000_s1579"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2719,7 +2762,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$N$10" spid="_x0000_s1561"/>
+                  <a14:cameraTool cellRange="$N$10" spid="_x0000_s1580"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2778,7 +2821,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$10" spid="_x0000_s1562"/>
+                  <a14:cameraTool cellRange="$O$10" spid="_x0000_s1581"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2837,7 +2880,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$14" spid="_x0000_s1563"/>
+                  <a14:cameraTool cellRange="$O$14" spid="_x0000_s1582"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2896,7 +2939,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$17" spid="_x0000_s1564"/>
+                  <a14:cameraTool cellRange="$O$17" spid="_x0000_s1583"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2955,7 +2998,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="#REF!" spid="_x0000_s1565"/>
+                  <a14:cameraTool cellRange="#REF!" spid="_x0000_s1584"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3014,7 +3057,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$19" spid="_x0000_s1566"/>
+                  <a14:cameraTool cellRange="$O$19" spid="_x0000_s1585"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3073,7 +3116,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$22" spid="_x0000_s1567"/>
+                  <a14:cameraTool cellRange="$O$22" spid="_x0000_s1586"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3132,7 +3175,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$N$26" spid="_x0000_s1568"/>
+                  <a14:cameraTool cellRange="$N$26" spid="_x0000_s1587"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3191,7 +3234,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$N$31" spid="_x0000_s1569"/>
+                  <a14:cameraTool cellRange="$N$31" spid="_x0000_s1588"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3250,7 +3293,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$26" spid="_x0000_s1570"/>
+                  <a14:cameraTool cellRange="$O$26" spid="_x0000_s1589"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3309,7 +3352,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="#REF!" spid="_x0000_s1571"/>
+                  <a14:cameraTool cellRange="#REF!" spid="_x0000_s1590"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3368,7 +3411,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$31" spid="_x0000_s1572"/>
+                  <a14:cameraTool cellRange="$O$31" spid="_x0000_s1591"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3427,7 +3470,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$33" spid="_x0000_s1573"/>
+                  <a14:cameraTool cellRange="$O$33" spid="_x0000_s1592"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3486,7 +3529,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="#REF!" spid="_x0000_s1574"/>
+                  <a14:cameraTool cellRange="#REF!" spid="_x0000_s1593"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3545,7 +3588,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$36" spid="_x0000_s1575"/>
+                  <a14:cameraTool cellRange="$O$36" spid="_x0000_s1594"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3604,7 +3647,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$38" spid="_x0000_s1576"/>
+                  <a14:cameraTool cellRange="$O$38" spid="_x0000_s1595"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3663,7 +3706,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$N$4" spid="_x0000_s1577"/>
+                  <a14:cameraTool cellRange="$N$4" spid="_x0000_s1596"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4049,10 +4092,10 @@
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="144" t="s">
+      <c r="B3" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="141" t="s">
+      <c r="C3" s="139" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="15" t="s">
@@ -4069,8 +4112,8 @@
       <c r="K3" s="11"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="145"/>
-      <c r="C4" s="142"/>
+      <c r="B4" s="149"/>
+      <c r="C4" s="140"/>
       <c r="D4" s="13" t="s">
         <v>13</v>
       </c>
@@ -4085,7 +4128,7 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="145"/>
+      <c r="B5" s="149"/>
       <c r="C5" s="143"/>
       <c r="D5" s="16" t="s">
         <v>15</v>
@@ -4101,8 +4144,8 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="145"/>
-      <c r="C6" s="141" t="s">
+      <c r="B6" s="149"/>
+      <c r="C6" s="139" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="12" t="s">
@@ -4119,8 +4162,8 @@
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="145"/>
-      <c r="C7" s="142"/>
+      <c r="B7" s="149"/>
+      <c r="C7" s="140"/>
       <c r="D7" s="13" t="s">
         <v>20</v>
       </c>
@@ -4135,7 +4178,7 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="146"/>
+      <c r="B8" s="150"/>
       <c r="C8" s="143"/>
       <c r="D8" s="16" t="s">
         <v>17</v>
@@ -4153,10 +4196,10 @@
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="138" t="s">
+      <c r="B9" s="147" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="141" t="s">
+      <c r="C9" s="139" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="15" t="s">
@@ -4173,7 +4216,7 @@
       <c r="K9" s="11"/>
     </row>
     <row r="10" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="139"/>
+      <c r="B10" s="141"/>
       <c r="C10" s="143"/>
       <c r="D10" s="17" t="s">
         <v>25</v>
@@ -4189,11 +4232,11 @@
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="139"/>
-      <c r="C11" s="141" t="s">
+      <c r="B11" s="141"/>
+      <c r="C11" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="147" t="s">
+      <c r="D11" s="144" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="10" t="s">
@@ -4207,9 +4250,9 @@
       <c r="K11" s="11"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="139"/>
-      <c r="C12" s="142"/>
-      <c r="D12" s="148"/>
+      <c r="B12" s="141"/>
+      <c r="C12" s="140"/>
+      <c r="D12" s="146"/>
       <c r="E12" s="1" t="s">
         <v>34</v>
       </c>
@@ -4221,8 +4264,8 @@
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="139"/>
-      <c r="C13" s="142"/>
+      <c r="B13" s="141"/>
+      <c r="C13" s="140"/>
       <c r="D13" s="13" t="s">
         <v>31</v>
       </c>
@@ -4237,8 +4280,8 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="139"/>
-      <c r="C14" s="142"/>
+      <c r="B14" s="141"/>
+      <c r="C14" s="140"/>
       <c r="D14" s="13" t="s">
         <v>32</v>
       </c>
@@ -4253,7 +4296,7 @@
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="139"/>
+      <c r="B15" s="141"/>
       <c r="C15" s="143"/>
       <c r="D15" s="17" t="s">
         <v>35</v>
@@ -4271,8 +4314,8 @@
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="139"/>
-      <c r="C16" s="141" t="s">
+      <c r="B16" s="141"/>
+      <c r="C16" s="139" t="s">
         <v>38</v>
       </c>
       <c r="D16" s="15" t="s">
@@ -4289,8 +4332,8 @@
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="139"/>
-      <c r="C17" s="142"/>
+      <c r="B17" s="141"/>
+      <c r="C17" s="140"/>
       <c r="D17" s="13" t="s">
         <v>31</v>
       </c>
@@ -4305,8 +4348,8 @@
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="139"/>
-      <c r="C18" s="142"/>
+      <c r="B18" s="141"/>
+      <c r="C18" s="140"/>
       <c r="D18" s="13" t="s">
         <v>42</v>
       </c>
@@ -4321,7 +4364,7 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="140"/>
+      <c r="B19" s="142"/>
       <c r="C19" s="143"/>
       <c r="D19" s="17" t="s">
         <v>35</v>
@@ -4337,10 +4380,10 @@
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="138" t="s">
+      <c r="B20" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="141" t="s">
+      <c r="C20" s="139" t="s">
         <v>46</v>
       </c>
       <c r="D20" s="15" t="s">
@@ -4357,8 +4400,8 @@
       <c r="K20" s="11"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="139"/>
-      <c r="C21" s="142"/>
+      <c r="B21" s="141"/>
+      <c r="C21" s="140"/>
       <c r="D21" s="13" t="s">
         <v>48</v>
       </c>
@@ -4373,7 +4416,7 @@
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="139"/>
+      <c r="B22" s="141"/>
       <c r="C22" s="143"/>
       <c r="D22" s="16" t="s">
         <v>52</v>
@@ -4389,7 +4432,7 @@
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="139"/>
+      <c r="B23" s="141"/>
       <c r="C23" s="21" t="s">
         <v>54</v>
       </c>
@@ -4407,10 +4450,10 @@
       <c r="K23" s="20"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="138" t="s">
+      <c r="B24" s="147" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="141" t="s">
+      <c r="C24" s="139" t="s">
         <v>49</v>
       </c>
       <c r="D24" s="15" t="s">
@@ -4427,8 +4470,8 @@
       <c r="K24" s="11"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="139"/>
-      <c r="C25" s="142"/>
+      <c r="B25" s="141"/>
+      <c r="C25" s="140"/>
       <c r="D25" s="13" t="s">
         <v>59</v>
       </c>
@@ -4443,7 +4486,7 @@
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="139"/>
+      <c r="B26" s="141"/>
       <c r="C26" s="143"/>
       <c r="D26" s="16" t="s">
         <v>61</v>
@@ -4459,7 +4502,7 @@
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="139"/>
+      <c r="B27" s="141"/>
       <c r="C27" s="23" t="s">
         <v>56</v>
       </c>
@@ -4477,7 +4520,7 @@
       <c r="K27" s="20"/>
     </row>
     <row r="28" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="140"/>
+      <c r="B28" s="142"/>
       <c r="C28" s="23" t="s">
         <v>44</v>
       </c>
@@ -4515,10 +4558,10 @@
       <c r="K29" s="20"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="141" t="s">
+      <c r="B30" s="139" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="147" t="s">
+      <c r="C30" s="144" t="s">
         <v>71</v>
       </c>
       <c r="D30" s="15" t="s">
@@ -4535,8 +4578,8 @@
       <c r="K30" s="11"/>
     </row>
     <row r="31" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="142"/>
-      <c r="C31" s="149"/>
+      <c r="B31" s="140"/>
+      <c r="C31" s="145"/>
       <c r="D31" s="14" t="s">
         <v>74</v>
       </c>
@@ -4551,8 +4594,8 @@
       <c r="K31" s="27"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="139"/>
-      <c r="C32" s="141" t="s">
+      <c r="B32" s="141"/>
+      <c r="C32" s="139" t="s">
         <v>85</v>
       </c>
       <c r="D32" s="15" t="s">
@@ -4569,7 +4612,7 @@
       <c r="K32" s="11"/>
     </row>
     <row r="33" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="139"/>
+      <c r="B33" s="141"/>
       <c r="C33" s="143"/>
       <c r="D33" s="16" t="s">
         <v>88</v>
@@ -4585,8 +4628,8 @@
       <c r="K33" s="4"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="139"/>
-      <c r="C34" s="141" t="s">
+      <c r="B34" s="141"/>
+      <c r="C34" s="139" t="s">
         <v>90</v>
       </c>
       <c r="D34" s="15" t="s">
@@ -4603,8 +4646,8 @@
       <c r="K34" s="11"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="139"/>
-      <c r="C35" s="142"/>
+      <c r="B35" s="141"/>
+      <c r="C35" s="140"/>
       <c r="D35" s="13"/>
       <c r="E35" s="1" t="s">
         <v>34</v>
@@ -4617,8 +4660,8 @@
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="139"/>
-      <c r="C36" s="142"/>
+      <c r="B36" s="141"/>
+      <c r="C36" s="140"/>
       <c r="D36" s="13" t="s">
         <v>31</v>
       </c>
@@ -4633,8 +4676,8 @@
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="139"/>
-      <c r="C37" s="142"/>
+      <c r="B37" s="141"/>
+      <c r="C37" s="140"/>
       <c r="D37" s="13" t="s">
         <v>92</v>
       </c>
@@ -4649,7 +4692,7 @@
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="139"/>
+      <c r="B38" s="141"/>
       <c r="C38" s="143"/>
       <c r="D38" s="16" t="s">
         <v>94</v>
@@ -4665,8 +4708,8 @@
       <c r="K38" s="4"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="139"/>
-      <c r="C39" s="141" t="s">
+      <c r="B39" s="141"/>
+      <c r="C39" s="139" t="s">
         <v>38</v>
       </c>
       <c r="D39" s="15" t="s">
@@ -4683,8 +4726,8 @@
       <c r="K39" s="11"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="139"/>
-      <c r="C40" s="142"/>
+      <c r="B40" s="141"/>
+      <c r="C40" s="140"/>
       <c r="D40" s="13" t="s">
         <v>31</v>
       </c>
@@ -4699,8 +4742,8 @@
       <c r="K40" s="2"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="139"/>
-      <c r="C41" s="142"/>
+      <c r="B41" s="141"/>
+      <c r="C41" s="140"/>
       <c r="D41" s="13" t="s">
         <v>92</v>
       </c>
@@ -4715,8 +4758,8 @@
       <c r="K41" s="2"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="139"/>
-      <c r="C42" s="142"/>
+      <c r="B42" s="141"/>
+      <c r="C42" s="140"/>
       <c r="D42" s="13" t="s">
         <v>35</v>
       </c>
@@ -4731,7 +4774,7 @@
       <c r="K42" s="2"/>
     </row>
     <row r="43" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="139"/>
+      <c r="B43" s="141"/>
       <c r="C43" s="143"/>
       <c r="D43" s="16" t="s">
         <v>97</v>
@@ -4747,8 +4790,8 @@
       <c r="K43" s="4"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="139"/>
-      <c r="C44" s="141" t="s">
+      <c r="B44" s="141"/>
+      <c r="C44" s="139" t="s">
         <v>76</v>
       </c>
       <c r="D44" s="15" t="s">
@@ -4765,7 +4808,7 @@
       <c r="K44" s="11"/>
     </row>
     <row r="45" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="139"/>
+      <c r="B45" s="141"/>
       <c r="C45" s="143"/>
       <c r="D45" s="16" t="s">
         <v>79</v>
@@ -4781,8 +4824,8 @@
       <c r="K45" s="4"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="139"/>
-      <c r="C46" s="141" t="s">
+      <c r="B46" s="141"/>
+      <c r="C46" s="139" t="s">
         <v>81</v>
       </c>
       <c r="D46" s="15" t="s">
@@ -4799,7 +4842,7 @@
       <c r="K46" s="11"/>
     </row>
     <row r="47" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="139"/>
+      <c r="B47" s="141"/>
       <c r="C47" s="143"/>
       <c r="D47" s="16" t="s">
         <v>83</v>
@@ -4815,8 +4858,8 @@
       <c r="K47" s="4"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="139"/>
-      <c r="C48" s="141" t="s">
+      <c r="B48" s="141"/>
+      <c r="C48" s="139" t="s">
         <v>56</v>
       </c>
       <c r="D48" s="15" t="s">
@@ -4833,7 +4876,7 @@
       <c r="K48" s="11"/>
     </row>
     <row r="49" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="140"/>
+      <c r="B49" s="142"/>
       <c r="C49" s="143"/>
       <c r="D49" s="16" t="s">
         <v>101</v>
@@ -4850,6 +4893,18 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B9:B19"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C22"/>
     <mergeCell ref="B30:B49"/>
     <mergeCell ref="C39:C43"/>
     <mergeCell ref="C34:C38"/>
@@ -4858,18 +4913,6 @@
     <mergeCell ref="C48:C49"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B9:B19"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4899,15 +4942,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="154"/>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
-      <c r="I1" s="156"/>
+      <c r="A1" s="162"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="164"/>
     </row>
     <row r="2" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
@@ -4939,21 +4982,21 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="165"/>
-      <c r="B3" s="166"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="166"/>
-      <c r="G3" s="166"/>
-      <c r="H3" s="166"/>
-      <c r="I3" s="167"/>
+      <c r="A3" s="153"/>
+      <c r="B3" s="154"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="155"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="168" t="s">
+      <c r="A4" s="156" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="162" t="s">
+      <c r="B4" s="159" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="37" t="s">
@@ -4969,8 +5012,8 @@
       <c r="I4" s="32"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="160"/>
-      <c r="B5" s="150"/>
+      <c r="A5" s="157"/>
+      <c r="B5" s="160"/>
       <c r="C5" s="38" t="s">
         <v>13</v>
       </c>
@@ -4984,8 +5027,8 @@
       <c r="I5" s="34"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="160"/>
-      <c r="B6" s="150"/>
+      <c r="A6" s="157"/>
+      <c r="B6" s="160"/>
       <c r="C6" s="38" t="s">
         <v>15</v>
       </c>
@@ -4999,8 +5042,8 @@
       <c r="I6" s="34"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="160"/>
-      <c r="B7" s="150" t="s">
+      <c r="A7" s="157"/>
+      <c r="B7" s="160" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="38" t="s">
@@ -5016,8 +5059,8 @@
       <c r="I7" s="34"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="160"/>
-      <c r="B8" s="150"/>
+      <c r="A8" s="157"/>
+      <c r="B8" s="160"/>
       <c r="C8" s="38" t="s">
         <v>20</v>
       </c>
@@ -5031,8 +5074,8 @@
       <c r="I8" s="34"/>
     </row>
     <row r="9" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="169"/>
-      <c r="B9" s="170"/>
+      <c r="A9" s="158"/>
+      <c r="B9" s="161"/>
       <c r="C9" s="39" t="s">
         <v>17</v>
       </c>
@@ -5046,10 +5089,10 @@
       <c r="I9" s="36"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="157" t="s">
+      <c r="A10" s="151" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="163" t="s">
+      <c r="B10" s="168" t="s">
         <v>103</v>
       </c>
       <c r="C10" s="37" t="s">
@@ -5065,8 +5108,8 @@
       <c r="I10" s="32"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="158"/>
-      <c r="B11" s="152"/>
+      <c r="A11" s="152"/>
+      <c r="B11" s="169"/>
       <c r="C11" s="38" t="s">
         <v>105</v>
       </c>
@@ -5080,8 +5123,8 @@
       <c r="I11" s="34"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="158"/>
-      <c r="B12" s="152"/>
+      <c r="A12" s="152"/>
+      <c r="B12" s="169"/>
       <c r="C12" s="38" t="s">
         <v>92</v>
       </c>
@@ -5095,8 +5138,8 @@
       <c r="I12" s="34"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="158"/>
-      <c r="B13" s="153"/>
+      <c r="A13" s="152"/>
+      <c r="B13" s="167"/>
       <c r="C13" s="38" t="s">
         <v>109</v>
       </c>
@@ -5112,8 +5155,8 @@
       <c r="I13" s="34"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="158"/>
-      <c r="B14" s="151" t="s">
+      <c r="A14" s="152"/>
+      <c r="B14" s="170" t="s">
         <v>180</v>
       </c>
       <c r="C14" s="38" t="s">
@@ -5129,8 +5172,8 @@
       <c r="I14" s="34"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="158"/>
-      <c r="B15" s="152"/>
+      <c r="A15" s="152"/>
+      <c r="B15" s="169"/>
       <c r="C15" s="38" t="s">
         <v>184</v>
       </c>
@@ -5144,8 +5187,8 @@
       <c r="I15" s="34"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="158"/>
-      <c r="B16" s="151" t="s">
+      <c r="A16" s="152"/>
+      <c r="B16" s="170" t="s">
         <v>111</v>
       </c>
       <c r="C16" s="58" t="s">
@@ -5161,8 +5204,8 @@
       <c r="I16" s="34"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="158"/>
-      <c r="B17" s="152"/>
+      <c r="A17" s="152"/>
+      <c r="B17" s="169"/>
       <c r="C17" s="38" t="s">
         <v>105</v>
       </c>
@@ -5176,8 +5219,8 @@
       <c r="I17" s="34"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="158"/>
-      <c r="B18" s="152"/>
+      <c r="A18" s="152"/>
+      <c r="B18" s="169"/>
       <c r="C18" s="38" t="s">
         <v>113</v>
       </c>
@@ -5193,8 +5236,8 @@
       <c r="I18" s="34"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="158"/>
-      <c r="B19" s="153"/>
+      <c r="A19" s="152"/>
+      <c r="B19" s="167"/>
       <c r="C19" s="38" t="s">
         <v>109</v>
       </c>
@@ -5208,8 +5251,8 @@
       <c r="I19" s="34"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="158"/>
-      <c r="B20" s="151" t="s">
+      <c r="A20" s="152"/>
+      <c r="B20" s="170" t="s">
         <v>193</v>
       </c>
       <c r="C20" s="59" t="s">
@@ -5225,8 +5268,8 @@
       <c r="I20" s="34"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="158"/>
-      <c r="B21" s="153"/>
+      <c r="A21" s="152"/>
+      <c r="B21" s="167"/>
       <c r="C21" s="59" t="s">
         <v>194</v>
       </c>
@@ -5240,8 +5283,8 @@
       <c r="I21" s="34"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="158"/>
-      <c r="B22" s="151" t="s">
+      <c r="A22" s="152"/>
+      <c r="B22" s="170" t="s">
         <v>115</v>
       </c>
       <c r="C22" s="38" t="s">
@@ -5257,8 +5300,8 @@
       <c r="I22" s="34"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="158"/>
-      <c r="B23" s="152"/>
+      <c r="A23" s="152"/>
+      <c r="B23" s="169"/>
       <c r="C23" s="38" t="s">
         <v>118</v>
       </c>
@@ -5272,8 +5315,8 @@
       <c r="I23" s="34"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="158"/>
-      <c r="B24" s="152"/>
+      <c r="A24" s="152"/>
+      <c r="B24" s="169"/>
       <c r="C24" s="38" t="s">
         <v>120</v>
       </c>
@@ -5287,8 +5330,8 @@
       <c r="I24" s="34"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="158"/>
-      <c r="B25" s="153"/>
+      <c r="A25" s="152"/>
+      <c r="B25" s="167"/>
       <c r="C25" s="38" t="s">
         <v>122</v>
       </c>
@@ -5302,8 +5345,8 @@
       <c r="I25" s="34"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="158"/>
-      <c r="B26" s="151" t="s">
+      <c r="A26" s="152"/>
+      <c r="B26" s="170" t="s">
         <v>174</v>
       </c>
       <c r="C26" s="38" t="s">
@@ -5319,8 +5362,8 @@
       <c r="I26" s="34"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="158"/>
-      <c r="B27" s="152"/>
+      <c r="A27" s="152"/>
+      <c r="B27" s="169"/>
       <c r="C27" s="38" t="s">
         <v>178</v>
       </c>
@@ -5334,8 +5377,8 @@
       <c r="I27" s="34"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="158"/>
-      <c r="B28" s="152"/>
+      <c r="A28" s="152"/>
+      <c r="B28" s="169"/>
       <c r="C28" s="38" t="s">
         <v>182</v>
       </c>
@@ -5349,8 +5392,8 @@
       <c r="I28" s="34"/>
     </row>
     <row r="29" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="158"/>
-      <c r="B29" s="152"/>
+      <c r="A29" s="152"/>
+      <c r="B29" s="169"/>
       <c r="C29" s="58" t="s">
         <v>176</v>
       </c>
@@ -5364,10 +5407,10 @@
       <c r="I29" s="45"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="157" t="s">
+      <c r="A30" s="151" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="162" t="s">
+      <c r="B30" s="159" t="s">
         <v>127</v>
       </c>
       <c r="C30" s="62" t="s">
@@ -5383,8 +5426,8 @@
       <c r="I30" s="32"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="158"/>
-      <c r="B31" s="150"/>
+      <c r="A31" s="152"/>
+      <c r="B31" s="160"/>
       <c r="C31" s="63" t="s">
         <v>129</v>
       </c>
@@ -5398,8 +5441,8 @@
       <c r="I31" s="34"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="158"/>
-      <c r="B32" s="150"/>
+      <c r="A32" s="152"/>
+      <c r="B32" s="160"/>
       <c r="C32" s="63" t="s">
         <v>132</v>
       </c>
@@ -5413,8 +5456,8 @@
       <c r="I32" s="34"/>
     </row>
     <row r="33" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A33" s="158"/>
-      <c r="B33" s="150"/>
+      <c r="A33" s="152"/>
+      <c r="B33" s="160"/>
       <c r="C33" s="63" t="s">
         <v>125</v>
       </c>
@@ -5428,8 +5471,8 @@
       <c r="I33" s="34"/>
     </row>
     <row r="34" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A34" s="158"/>
-      <c r="B34" s="150" t="s">
+      <c r="A34" s="152"/>
+      <c r="B34" s="160" t="s">
         <v>133</v>
       </c>
       <c r="C34" s="63" t="s">
@@ -5445,8 +5488,8 @@
       <c r="I34" s="45"/>
     </row>
     <row r="35" spans="1:16384" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="158"/>
-      <c r="B35" s="150"/>
+      <c r="A35" s="152"/>
+      <c r="B35" s="160"/>
       <c r="C35" s="63" t="s">
         <v>134</v>
       </c>
@@ -21835,8 +21878,8 @@
       <c r="XFD35" s="46"/>
     </row>
     <row r="36" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A36" s="158"/>
-      <c r="B36" s="150"/>
+      <c r="A36" s="152"/>
+      <c r="B36" s="160"/>
       <c r="C36" s="64" t="s">
         <v>187</v>
       </c>
@@ -21848,8 +21891,8 @@
       <c r="I36" s="56"/>
     </row>
     <row r="37" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A37" s="158"/>
-      <c r="B37" s="150" t="s">
+      <c r="A37" s="152"/>
+      <c r="B37" s="160" t="s">
         <v>136</v>
       </c>
       <c r="C37" s="63" t="s">
@@ -21865,8 +21908,8 @@
       <c r="I37" s="34"/>
     </row>
     <row r="38" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A38" s="158"/>
-      <c r="B38" s="150"/>
+      <c r="A38" s="152"/>
+      <c r="B38" s="160"/>
       <c r="C38" s="63" t="s">
         <v>92</v>
       </c>
@@ -21880,7 +21923,7 @@
       <c r="I38" s="34"/>
     </row>
     <row r="39" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A39" s="158"/>
+      <c r="A39" s="152"/>
       <c r="B39" s="57" t="s">
         <v>139</v>
       </c>
@@ -21897,10 +21940,10 @@
       <c r="I39" s="34"/>
     </row>
     <row r="40" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A40" s="159" t="s">
+      <c r="A40" s="165" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="153" t="s">
+      <c r="B40" s="167" t="s">
         <v>71</v>
       </c>
       <c r="C40" s="41" t="s">
@@ -21916,8 +21959,8 @@
       <c r="I40" s="56"/>
     </row>
     <row r="41" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A41" s="160"/>
-      <c r="B41" s="150"/>
+      <c r="A41" s="157"/>
+      <c r="B41" s="160"/>
       <c r="C41" s="40" t="s">
         <v>74</v>
       </c>
@@ -21931,8 +21974,8 @@
       <c r="I41" s="34"/>
     </row>
     <row r="42" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A42" s="160"/>
-      <c r="B42" s="150" t="s">
+      <c r="A42" s="157"/>
+      <c r="B42" s="160" t="s">
         <v>152</v>
       </c>
       <c r="C42" s="40" t="s">
@@ -21948,8 +21991,8 @@
       <c r="I42" s="34"/>
     </row>
     <row r="43" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A43" s="160"/>
-      <c r="B43" s="150"/>
+      <c r="A43" s="157"/>
+      <c r="B43" s="160"/>
       <c r="C43" s="40" t="s">
         <v>144</v>
       </c>
@@ -21963,11 +22006,11 @@
       <c r="I43" s="34"/>
     </row>
     <row r="44" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A44" s="160"/>
-      <c r="B44" s="150" t="s">
+      <c r="A44" s="157"/>
+      <c r="B44" s="160" t="s">
         <v>163</v>
       </c>
-      <c r="C44" s="151" t="s">
+      <c r="C44" s="170" t="s">
         <v>162</v>
       </c>
       <c r="D44" s="33" t="s">
@@ -21980,9 +22023,9 @@
       <c r="I44" s="34"/>
     </row>
     <row r="45" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A45" s="160"/>
-      <c r="B45" s="150"/>
-      <c r="C45" s="153"/>
+      <c r="A45" s="157"/>
+      <c r="B45" s="160"/>
+      <c r="C45" s="167"/>
       <c r="D45" s="33" t="s">
         <v>164</v>
       </c>
@@ -21993,8 +22036,8 @@
       <c r="I45" s="34"/>
     </row>
     <row r="46" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A46" s="160"/>
-      <c r="B46" s="150"/>
+      <c r="A46" s="157"/>
+      <c r="B46" s="160"/>
       <c r="C46" s="40" t="s">
         <v>112</v>
       </c>
@@ -22008,8 +22051,8 @@
       <c r="I46" s="34"/>
     </row>
     <row r="47" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A47" s="160"/>
-      <c r="B47" s="150"/>
+      <c r="A47" s="157"/>
+      <c r="B47" s="160"/>
       <c r="C47" s="40" t="s">
         <v>106</v>
       </c>
@@ -22023,8 +22066,8 @@
       <c r="I47" s="34"/>
     </row>
     <row r="48" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A48" s="160"/>
-      <c r="B48" s="150"/>
+      <c r="A48" s="157"/>
+      <c r="B48" s="160"/>
       <c r="C48" s="40" t="s">
         <v>147</v>
       </c>
@@ -22038,8 +22081,8 @@
       <c r="I48" s="34"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="160"/>
-      <c r="B49" s="150" t="s">
+      <c r="A49" s="157"/>
+      <c r="B49" s="160" t="s">
         <v>153</v>
       </c>
       <c r="C49" s="40" t="s">
@@ -22055,8 +22098,8 @@
       <c r="I49" s="34"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="160"/>
-      <c r="B50" s="150"/>
+      <c r="A50" s="157"/>
+      <c r="B50" s="160"/>
       <c r="C50" s="40" t="s">
         <v>112</v>
       </c>
@@ -22070,8 +22113,8 @@
       <c r="I50" s="34"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="160"/>
-      <c r="B51" s="150"/>
+      <c r="A51" s="157"/>
+      <c r="B51" s="160"/>
       <c r="C51" s="40" t="s">
         <v>106</v>
       </c>
@@ -22085,8 +22128,8 @@
       <c r="I51" s="34"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="160"/>
-      <c r="B52" s="150"/>
+      <c r="A52" s="157"/>
+      <c r="B52" s="160"/>
       <c r="C52" s="40" t="s">
         <v>147</v>
       </c>
@@ -22100,8 +22143,8 @@
       <c r="I52" s="34"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="160"/>
-      <c r="B53" s="151" t="s">
+      <c r="A53" s="157"/>
+      <c r="B53" s="170" t="s">
         <v>154</v>
       </c>
       <c r="C53" s="40" t="s">
@@ -22117,8 +22160,8 @@
       <c r="I53" s="34"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="160"/>
-      <c r="B54" s="152"/>
+      <c r="A54" s="157"/>
+      <c r="B54" s="169"/>
       <c r="C54" s="49" t="s">
         <v>159</v>
       </c>
@@ -22132,8 +22175,8 @@
       <c r="I54" s="34"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="160"/>
-      <c r="B55" s="150" t="s">
+      <c r="A55" s="157"/>
+      <c r="B55" s="160" t="s">
         <v>76</v>
       </c>
       <c r="C55" s="40" t="s">
@@ -22149,8 +22192,8 @@
       <c r="I55" s="34"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="160"/>
-      <c r="B56" s="150"/>
+      <c r="A56" s="157"/>
+      <c r="B56" s="160"/>
       <c r="C56" s="40" t="s">
         <v>79</v>
       </c>
@@ -22164,8 +22207,8 @@
       <c r="I56" s="34"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="160"/>
-      <c r="B57" s="151" t="s">
+      <c r="A57" s="157"/>
+      <c r="B57" s="170" t="s">
         <v>81</v>
       </c>
       <c r="C57" s="40" t="s">
@@ -22181,8 +22224,8 @@
       <c r="I57" s="34"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="161"/>
-      <c r="B58" s="153"/>
+      <c r="A58" s="166"/>
+      <c r="B58" s="167"/>
       <c r="C58" s="50" t="s">
         <v>167</v>
       </c>
@@ -22196,8 +22239,8 @@
       <c r="I58" s="45"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="161"/>
-      <c r="B59" s="151" t="s">
+      <c r="A59" s="166"/>
+      <c r="B59" s="170" t="s">
         <v>172</v>
       </c>
       <c r="C59" s="50" t="s">
@@ -22213,8 +22256,8 @@
       <c r="I59" s="45"/>
     </row>
     <row r="60" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="161"/>
-      <c r="B60" s="164"/>
+      <c r="A60" s="166"/>
+      <c r="B60" s="171"/>
       <c r="C60" s="42" t="s">
         <v>171</v>
       </c>
@@ -22477,11 +22520,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A30:A39"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B20:B21"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A10:A29"/>
     <mergeCell ref="A40:A60"/>
@@ -22498,11 +22541,11 @@
     <mergeCell ref="C44:C45"/>
     <mergeCell ref="B59:B60"/>
     <mergeCell ref="B44:B48"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A30:A39"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22547,15 +22590,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="154"/>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
-      <c r="I1" s="156"/>
+      <c r="A1" s="162"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="164"/>
     </row>
     <row r="2" spans="1:15" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
@@ -22587,24 +22630,24 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="165"/>
-      <c r="B3" s="166"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="166"/>
-      <c r="G3" s="166"/>
-      <c r="H3" s="166"/>
-      <c r="I3" s="167"/>
+      <c r="A3" s="153"/>
+      <c r="B3" s="154"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="155"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="99" t="s">
+      <c r="C4" s="98" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="31" t="s">
@@ -22615,21 +22658,21 @@
       <c r="G4" s="31"/>
       <c r="H4" s="31"/>
       <c r="I4" s="32"/>
-      <c r="N4" s="171" t="s">
+      <c r="N4" s="172" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="171" t="s">
+      <c r="O4" s="172" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="100" t="s">
+      <c r="C5" s="99" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="33" t="s">
@@ -22640,17 +22683,17 @@
       <c r="G5" s="33"/>
       <c r="H5" s="33"/>
       <c r="I5" s="34"/>
-      <c r="N5" s="171"/>
-      <c r="O5" s="171"/>
+      <c r="N5" s="172"/>
+      <c r="O5" s="172"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="100" t="s">
+      <c r="C6" s="99" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="33" t="s">
@@ -22661,17 +22704,17 @@
       <c r="G6" s="33"/>
       <c r="H6" s="33"/>
       <c r="I6" s="34"/>
-      <c r="N6" s="171"/>
-      <c r="O6" s="171"/>
+      <c r="N6" s="172"/>
+      <c r="O6" s="172"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="79" t="s">
         <v>253</v>
       </c>
-      <c r="C7" s="100" t="s">
+      <c r="C7" s="99" t="s">
         <v>255</v>
       </c>
       <c r="D7" s="33" t="s">
@@ -22682,19 +22725,19 @@
       <c r="G7" s="33"/>
       <c r="H7" s="33"/>
       <c r="I7" s="34"/>
-      <c r="N7" s="171"/>
-      <c r="O7" s="171" t="s">
+      <c r="N7" s="172"/>
+      <c r="O7" s="172" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="79" t="s">
         <v>265</v>
       </c>
-      <c r="C8" s="100" t="s">
+      <c r="C8" s="99" t="s">
         <v>254</v>
       </c>
       <c r="D8" s="33" t="s">
@@ -22705,17 +22748,17 @@
       <c r="G8" s="33"/>
       <c r="H8" s="33"/>
       <c r="I8" s="34"/>
-      <c r="N8" s="171"/>
-      <c r="O8" s="171"/>
+      <c r="N8" s="172"/>
+      <c r="O8" s="172"/>
     </row>
     <row r="9" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="81" t="s">
+      <c r="B9" s="80" t="s">
         <v>265</v>
       </c>
-      <c r="C9" s="101" t="s">
+      <c r="C9" s="100" t="s">
         <v>253</v>
       </c>
       <c r="D9" s="35" t="s">
@@ -22726,17 +22769,17 @@
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
       <c r="I9" s="36"/>
-      <c r="N9" s="171"/>
-      <c r="O9" s="171"/>
+      <c r="N9" s="172"/>
+      <c r="O9" s="172"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="82" t="s">
+      <c r="A10" s="81" t="s">
         <v>198</v>
       </c>
-      <c r="B10" s="83" t="s">
+      <c r="B10" s="82" t="s">
         <v>199</v>
       </c>
-      <c r="C10" s="107" t="s">
+      <c r="C10" s="106" t="s">
         <v>200</v>
       </c>
       <c r="D10" s="31" t="s">
@@ -22749,21 +22792,21 @@
       <c r="G10" s="31"/>
       <c r="H10" s="31"/>
       <c r="I10" s="32"/>
-      <c r="N10" s="171" t="s">
+      <c r="N10" s="172" t="s">
         <v>23</v>
       </c>
-      <c r="O10" s="171" t="s">
+      <c r="O10" s="172" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="84" t="s">
+      <c r="A11" s="83" t="s">
         <v>266</v>
       </c>
-      <c r="B11" s="85" t="s">
+      <c r="B11" s="84" t="s">
         <v>267</v>
       </c>
-      <c r="C11" s="108" t="s">
+      <c r="C11" s="107" t="s">
         <v>203</v>
       </c>
       <c r="D11" s="33" t="s">
@@ -22776,17 +22819,17 @@
       <c r="G11" s="33"/>
       <c r="H11" s="33"/>
       <c r="I11" s="34"/>
-      <c r="N11" s="171"/>
-      <c r="O11" s="171"/>
+      <c r="N11" s="172"/>
+      <c r="O11" s="172"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="84" t="s">
+      <c r="A12" s="83" t="s">
         <v>266</v>
       </c>
-      <c r="B12" s="85" t="s">
+      <c r="B12" s="84" t="s">
         <v>267</v>
       </c>
-      <c r="C12" s="108" t="s">
+      <c r="C12" s="107" t="s">
         <v>206</v>
       </c>
       <c r="D12" s="33" t="s">
@@ -22799,17 +22842,17 @@
       <c r="G12" s="33"/>
       <c r="H12" s="33"/>
       <c r="I12" s="34"/>
-      <c r="N12" s="171"/>
-      <c r="O12" s="171"/>
+      <c r="N12" s="172"/>
+      <c r="O12" s="172"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="84" t="s">
+      <c r="A13" s="83" t="s">
         <v>266</v>
       </c>
-      <c r="B13" s="85" t="s">
+      <c r="B13" s="84" t="s">
         <v>267</v>
       </c>
-      <c r="C13" s="108" t="s">
+      <c r="C13" s="107" t="s">
         <v>209</v>
       </c>
       <c r="D13" s="33" t="s">
@@ -22820,17 +22863,17 @@
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
       <c r="I13" s="34"/>
-      <c r="N13" s="171"/>
-      <c r="O13" s="171"/>
+      <c r="N13" s="172"/>
+      <c r="O13" s="172"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="84" t="s">
+      <c r="A14" s="83" t="s">
         <v>266</v>
       </c>
-      <c r="B14" s="87" t="s">
+      <c r="B14" s="86" t="s">
         <v>216</v>
       </c>
-      <c r="C14" s="109" t="s">
+      <c r="C14" s="108" t="s">
         <v>217</v>
       </c>
       <c r="D14" s="33" t="s">
@@ -22843,19 +22886,19 @@
       <c r="G14" s="33"/>
       <c r="H14" s="33"/>
       <c r="I14" s="34"/>
-      <c r="N14" s="171"/>
-      <c r="O14" s="171" t="s">
+      <c r="N14" s="172"/>
+      <c r="O14" s="172" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="84" t="s">
+      <c r="A15" s="83" t="s">
         <v>266</v>
       </c>
-      <c r="B15" s="85" t="s">
+      <c r="B15" s="84" t="s">
         <v>268</v>
       </c>
-      <c r="C15" s="108" t="s">
+      <c r="C15" s="107" t="s">
         <v>220</v>
       </c>
       <c r="D15" s="33" t="s">
@@ -22868,17 +22911,17 @@
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
       <c r="I15" s="34"/>
-      <c r="N15" s="171"/>
-      <c r="O15" s="171"/>
+      <c r="N15" s="172"/>
+      <c r="O15" s="172"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="84" t="s">
+      <c r="A16" s="83" t="s">
         <v>266</v>
       </c>
-      <c r="B16" s="85" t="s">
+      <c r="B16" s="84" t="s">
         <v>268</v>
       </c>
-      <c r="C16" s="108" t="s">
+      <c r="C16" s="107" t="s">
         <v>222</v>
       </c>
       <c r="D16" s="33" t="s">
@@ -22891,17 +22934,17 @@
       <c r="G16" s="33"/>
       <c r="H16" s="33"/>
       <c r="I16" s="34"/>
-      <c r="N16" s="171"/>
-      <c r="O16" s="171"/>
+      <c r="N16" s="172"/>
+      <c r="O16" s="172"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="84" t="s">
+      <c r="A17" s="83" t="s">
         <v>266</v>
       </c>
-      <c r="B17" s="87" t="s">
+      <c r="B17" s="86" t="s">
         <v>211</v>
       </c>
-      <c r="C17" s="105" t="s">
+      <c r="C17" s="104" t="s">
         <v>212</v>
       </c>
       <c r="D17" s="33" t="s">
@@ -22914,19 +22957,19 @@
       <c r="G17" s="33"/>
       <c r="H17" s="33"/>
       <c r="I17" s="34"/>
-      <c r="N17" s="171"/>
-      <c r="O17" s="171" t="s">
+      <c r="N17" s="172"/>
+      <c r="O17" s="172" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="84" t="s">
+      <c r="A18" s="83" t="s">
         <v>266</v>
       </c>
-      <c r="B18" s="85" t="s">
+      <c r="B18" s="84" t="s">
         <v>269</v>
       </c>
-      <c r="C18" s="105" t="s">
+      <c r="C18" s="104" t="s">
         <v>214</v>
       </c>
       <c r="D18" s="33" t="s">
@@ -22939,40 +22982,40 @@
       <c r="G18" s="33"/>
       <c r="H18" s="33"/>
       <c r="I18" s="34"/>
-      <c r="N18" s="171"/>
-      <c r="O18" s="171"/>
+      <c r="N18" s="172"/>
+      <c r="O18" s="172"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="84" t="s">
+      <c r="A19" s="83" t="s">
         <v>266</v>
       </c>
-      <c r="B19" s="87" t="s">
+      <c r="B19" s="86" t="s">
         <v>115</v>
       </c>
-      <c r="C19" s="110" t="s">
+      <c r="C19" s="109" t="s">
         <v>116</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E19" s="33"/>
       <c r="F19" s="33"/>
       <c r="G19" s="33"/>
       <c r="H19" s="33"/>
       <c r="I19" s="34"/>
-      <c r="N19" s="171"/>
-      <c r="O19" s="171" t="s">
-        <v>303</v>
+      <c r="N19" s="172"/>
+      <c r="O19" s="172" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="84" t="s">
+      <c r="A20" s="83" t="s">
         <v>266</v>
       </c>
-      <c r="B20" s="85" t="s">
+      <c r="B20" s="84" t="s">
         <v>115</v>
       </c>
-      <c r="C20" s="110" t="s">
+      <c r="C20" s="109" t="s">
         <v>118</v>
       </c>
       <c r="D20" s="33" t="s">
@@ -22983,38 +23026,38 @@
       <c r="G20" s="33"/>
       <c r="H20" s="33"/>
       <c r="I20" s="34"/>
-      <c r="N20" s="171"/>
-      <c r="O20" s="171"/>
+      <c r="N20" s="172"/>
+      <c r="O20" s="172"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="84" t="s">
+      <c r="A21" s="83" t="s">
         <v>266</v>
       </c>
-      <c r="B21" s="85" t="s">
-        <v>304</v>
-      </c>
-      <c r="C21" s="110" t="s">
-        <v>314</v>
+      <c r="B21" s="84" t="s">
+        <v>302</v>
+      </c>
+      <c r="C21" s="109" t="s">
+        <v>312</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E21" s="33"/>
       <c r="F21" s="33"/>
       <c r="G21" s="33"/>
       <c r="H21" s="33"/>
       <c r="I21" s="34"/>
-      <c r="N21" s="171"/>
-      <c r="O21" s="133"/>
+      <c r="N21" s="172"/>
+      <c r="O21" s="132"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="84" t="s">
+      <c r="A22" s="83" t="s">
         <v>266</v>
       </c>
-      <c r="B22" s="87" t="s">
+      <c r="B22" s="86" t="s">
         <v>225</v>
       </c>
-      <c r="C22" s="105" t="s">
+      <c r="C22" s="104" t="s">
         <v>226</v>
       </c>
       <c r="D22" s="33" t="s">
@@ -23025,19 +23068,19 @@
       <c r="G22" s="33"/>
       <c r="H22" s="33"/>
       <c r="I22" s="34"/>
-      <c r="N22" s="171"/>
-      <c r="O22" s="171" t="s">
+      <c r="N22" s="172"/>
+      <c r="O22" s="172" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="84" t="s">
+      <c r="A23" s="83" t="s">
         <v>266</v>
       </c>
-      <c r="B23" s="85" t="s">
+      <c r="B23" s="84" t="s">
         <v>270</v>
       </c>
-      <c r="C23" s="105" t="s">
+      <c r="C23" s="104" t="s">
         <v>228</v>
       </c>
       <c r="D23" s="33" t="s">
@@ -23048,17 +23091,17 @@
       <c r="G23" s="33"/>
       <c r="H23" s="33"/>
       <c r="I23" s="34"/>
-      <c r="N23" s="171"/>
-      <c r="O23" s="171"/>
+      <c r="N23" s="172"/>
+      <c r="O23" s="172"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="84" t="s">
+      <c r="A24" s="83" t="s">
         <v>266</v>
       </c>
-      <c r="B24" s="85" t="s">
+      <c r="B24" s="84" t="s">
         <v>270</v>
       </c>
-      <c r="C24" s="105" t="s">
+      <c r="C24" s="104" t="s">
         <v>280</v>
       </c>
       <c r="D24" s="33" t="s">
@@ -23069,17 +23112,17 @@
       <c r="G24" s="33"/>
       <c r="H24" s="33"/>
       <c r="I24" s="34"/>
-      <c r="N24" s="171"/>
-      <c r="O24" s="171"/>
+      <c r="N24" s="172"/>
+      <c r="O24" s="172"/>
     </row>
     <row r="25" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="84" t="s">
+      <c r="A25" s="83" t="s">
         <v>266</v>
       </c>
-      <c r="B25" s="85" t="s">
+      <c r="B25" s="84" t="s">
         <v>270</v>
       </c>
-      <c r="C25" s="106" t="s">
+      <c r="C25" s="105" t="s">
         <v>230</v>
       </c>
       <c r="D25" s="44" t="s">
@@ -23090,17 +23133,17 @@
       <c r="G25" s="44"/>
       <c r="H25" s="44"/>
       <c r="I25" s="45"/>
-      <c r="N25" s="171"/>
-      <c r="O25" s="171"/>
+      <c r="N25" s="172"/>
+      <c r="O25" s="172"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="82" t="s">
+      <c r="A26" s="81" t="s">
         <v>232</v>
       </c>
-      <c r="B26" s="79" t="s">
+      <c r="B26" s="78" t="s">
         <v>233</v>
       </c>
-      <c r="C26" s="102" t="s">
+      <c r="C26" s="101" t="s">
         <v>126</v>
       </c>
       <c r="D26" s="31" t="s">
@@ -23111,21 +23154,21 @@
       <c r="G26" s="31"/>
       <c r="H26" s="31"/>
       <c r="I26" s="32"/>
-      <c r="N26" s="171" t="s">
+      <c r="N26" s="172" t="s">
         <v>45</v>
       </c>
-      <c r="O26" s="171" t="s">
+      <c r="O26" s="172" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="84" t="s">
+      <c r="A27" s="83" t="s">
         <v>271</v>
       </c>
-      <c r="B27" s="80" t="s">
+      <c r="B27" s="79" t="s">
         <v>272</v>
       </c>
-      <c r="C27" s="103" t="s">
+      <c r="C27" s="102" t="s">
         <v>129</v>
       </c>
       <c r="D27" s="33" t="s">
@@ -23136,17 +23179,17 @@
       <c r="G27" s="33"/>
       <c r="H27" s="33"/>
       <c r="I27" s="34"/>
-      <c r="N27" s="171"/>
-      <c r="O27" s="171"/>
+      <c r="N27" s="172"/>
+      <c r="O27" s="172"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="84" t="s">
+      <c r="A28" s="83" t="s">
         <v>271</v>
       </c>
-      <c r="B28" s="80" t="s">
+      <c r="B28" s="79" t="s">
         <v>272</v>
       </c>
-      <c r="C28" s="111" t="s">
+      <c r="C28" s="110" t="s">
         <v>236</v>
       </c>
       <c r="D28" s="33" t="s">
@@ -23157,17 +23200,17 @@
       <c r="G28" s="33"/>
       <c r="H28" s="33"/>
       <c r="I28" s="34"/>
-      <c r="N28" s="171"/>
-      <c r="O28" s="171"/>
+      <c r="N28" s="172"/>
+      <c r="O28" s="172"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="84" t="s">
+      <c r="A29" s="83" t="s">
         <v>271</v>
       </c>
-      <c r="B29" s="80" t="s">
+      <c r="B29" s="79" t="s">
         <v>272</v>
       </c>
-      <c r="C29" s="111" t="s">
+      <c r="C29" s="110" t="s">
         <v>125</v>
       </c>
       <c r="D29" s="33" t="s">
@@ -23178,17 +23221,17 @@
       <c r="G29" s="33"/>
       <c r="H29" s="33"/>
       <c r="I29" s="34"/>
-      <c r="N29" s="171"/>
-      <c r="O29" s="171"/>
+      <c r="N29" s="172"/>
+      <c r="O29" s="172"/>
     </row>
     <row r="30" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="88" t="s">
+      <c r="A30" s="87" t="s">
         <v>271</v>
       </c>
       <c r="B30" s="68" t="s">
         <v>239</v>
       </c>
-      <c r="C30" s="112" t="s">
+      <c r="C30" s="111" t="s">
         <v>240</v>
       </c>
       <c r="D30" s="35" t="s">
@@ -23201,19 +23244,19 @@
       <c r="G30" s="35"/>
       <c r="H30" s="35"/>
       <c r="I30" s="36"/>
-      <c r="N30" s="171"/>
-      <c r="O30" s="78" t="s">
+      <c r="N30" s="172"/>
+      <c r="O30" s="77" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="89" t="s">
+      <c r="A31" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="86" t="s">
+      <c r="B31" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="104" t="s">
+      <c r="C31" s="103" t="s">
         <v>72</v>
       </c>
       <c r="D31" s="55" t="s">
@@ -23224,22 +23267,22 @@
       <c r="G31" s="55"/>
       <c r="H31" s="55"/>
       <c r="I31" s="56"/>
-      <c r="N31" s="171" t="s">
+      <c r="N31" s="172" t="s">
         <v>67</v>
       </c>
-      <c r="O31" s="171" t="s">
+      <c r="O31" s="172" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="76" t="s">
+      <c r="A32" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="80" t="s">
+      <c r="B32" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="100" t="s">
-        <v>302</v>
+      <c r="C32" s="99" t="s">
+        <v>300</v>
       </c>
       <c r="D32" s="33" t="s">
         <v>75</v>
@@ -23249,17 +23292,17 @@
       <c r="G32" s="33"/>
       <c r="H32" s="33"/>
       <c r="I32" s="34"/>
-      <c r="N32" s="171"/>
-      <c r="O32" s="171"/>
+      <c r="N32" s="172"/>
+      <c r="O32" s="172"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" s="76" t="s">
+      <c r="A33" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="87" t="s">
+      <c r="B33" s="86" t="s">
         <v>257</v>
       </c>
-      <c r="C33" s="108" t="s">
+      <c r="C33" s="107" t="s">
         <v>258</v>
       </c>
       <c r="D33" s="33" t="s">
@@ -23270,19 +23313,19 @@
       <c r="G33" s="33"/>
       <c r="H33" s="33"/>
       <c r="I33" s="34"/>
-      <c r="N33" s="171"/>
-      <c r="O33" s="171" t="s">
+      <c r="N33" s="172"/>
+      <c r="O33" s="172" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" s="76" t="s">
+      <c r="A34" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="85" t="s">
+      <c r="B34" s="84" t="s">
         <v>273</v>
       </c>
-      <c r="C34" s="108" t="s">
+      <c r="C34" s="107" t="s">
         <v>260</v>
       </c>
       <c r="D34" s="33" t="s">
@@ -23293,17 +23336,17 @@
       <c r="G34" s="33"/>
       <c r="H34" s="33"/>
       <c r="I34" s="34"/>
-      <c r="N34" s="171"/>
-      <c r="O34" s="171"/>
+      <c r="N34" s="172"/>
+      <c r="O34" s="172"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" s="76" t="s">
+      <c r="A35" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="86" t="s">
+      <c r="B35" s="85" t="s">
         <v>273</v>
       </c>
-      <c r="C35" s="108" t="s">
+      <c r="C35" s="107" t="s">
         <v>259</v>
       </c>
       <c r="D35" s="33" t="s">
@@ -23316,17 +23359,17 @@
       <c r="G35" s="33"/>
       <c r="H35" s="33"/>
       <c r="I35" s="34"/>
-      <c r="N35" s="171"/>
-      <c r="O35" s="171"/>
+      <c r="N35" s="172"/>
+      <c r="O35" s="172"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="76" t="s">
+      <c r="A36" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="87" t="s">
+      <c r="B36" s="86" t="s">
         <v>242</v>
       </c>
-      <c r="C36" s="110" t="s">
+      <c r="C36" s="109" t="s">
         <v>243</v>
       </c>
       <c r="D36" s="33" t="s">
@@ -23339,19 +23382,19 @@
       <c r="G36" s="33"/>
       <c r="H36" s="33"/>
       <c r="I36" s="34"/>
-      <c r="N36" s="171"/>
-      <c r="O36" s="171" t="s">
+      <c r="N36" s="172"/>
+      <c r="O36" s="172" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" s="76" t="s">
+      <c r="A37" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="85" t="s">
+      <c r="B37" s="84" t="s">
         <v>274</v>
       </c>
-      <c r="C37" s="110" t="s">
+      <c r="C37" s="109" t="s">
         <v>246</v>
       </c>
       <c r="D37" s="33" t="s">
@@ -23364,17 +23407,17 @@
       <c r="G37" s="33"/>
       <c r="H37" s="33"/>
       <c r="I37" s="34"/>
-      <c r="N37" s="171"/>
-      <c r="O37" s="171"/>
+      <c r="N37" s="172"/>
+      <c r="O37" s="172"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" s="90" t="s">
+      <c r="A38" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="B38" s="87" t="s">
+      <c r="B38" s="86" t="s">
         <v>276</v>
       </c>
-      <c r="C38" s="106" t="s">
+      <c r="C38" s="105" t="s">
         <v>277</v>
       </c>
       <c r="D38" s="44" t="s">
@@ -23387,19 +23430,19 @@
       <c r="G38" s="44"/>
       <c r="H38" s="44"/>
       <c r="I38" s="45"/>
-      <c r="N38" s="171"/>
-      <c r="O38" s="171" t="s">
+      <c r="N38" s="172"/>
+      <c r="O38" s="172" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="90" t="s">
+      <c r="A39" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="B39" s="91" t="s">
+      <c r="B39" s="90" t="s">
         <v>276</v>
       </c>
-      <c r="C39" s="106" t="s">
+      <c r="C39" s="105" t="s">
         <v>278</v>
       </c>
       <c r="D39" s="44" t="s">
@@ -23412,8 +23455,8 @@
       <c r="G39" s="44"/>
       <c r="H39" s="44"/>
       <c r="I39" s="45"/>
-      <c r="N39" s="171"/>
-      <c r="O39" s="171"/>
+      <c r="N39" s="172"/>
+      <c r="O39" s="172"/>
     </row>
     <row r="40" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="69" t="s">
@@ -23422,7 +23465,7 @@
       <c r="B40" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="C40" s="113" t="s">
+      <c r="C40" s="112" t="s">
         <v>69</v>
       </c>
       <c r="D40" s="53" t="s">
@@ -23665,17 +23708,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="N4:N9"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="O7:O9"/>
-    <mergeCell ref="N10:N25"/>
-    <mergeCell ref="O10:O13"/>
-    <mergeCell ref="O14:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O22:O25"/>
-    <mergeCell ref="O19:O20"/>
     <mergeCell ref="N26:N30"/>
     <mergeCell ref="O26:O29"/>
     <mergeCell ref="N31:N39"/>
@@ -23683,6 +23715,17 @@
     <mergeCell ref="O33:O35"/>
     <mergeCell ref="O36:O37"/>
     <mergeCell ref="O38:O39"/>
+    <mergeCell ref="N10:N25"/>
+    <mergeCell ref="O10:O13"/>
+    <mergeCell ref="O14:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O22:O25"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="N4:N9"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="O7:O9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23696,8 +23739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R51" sqref="R51"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -23705,990 +23748,1030 @@
     <col min="1" max="1" width="16.375" customWidth="1"/>
     <col min="2" max="2" width="17.375" customWidth="1"/>
     <col min="3" max="3" width="19.75" customWidth="1"/>
-    <col min="4" max="4" width="7" style="120" customWidth="1"/>
-    <col min="5" max="5" width="11.25" style="120" customWidth="1"/>
-    <col min="6" max="6" width="5.375" style="120" customWidth="1"/>
-    <col min="7" max="9" width="8.5" style="120" customWidth="1"/>
-    <col min="10" max="10" width="8.25" style="120" customWidth="1"/>
-    <col min="11" max="11" width="5.375" style="120" customWidth="1"/>
-    <col min="12" max="12" width="7.125" style="120" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="7.125" style="120" customWidth="1"/>
-    <col min="15" max="15" width="7.125" style="120" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="119" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="119" customWidth="1"/>
+    <col min="6" max="6" width="5.375" style="119" customWidth="1"/>
+    <col min="7" max="9" width="8.5" style="119" customWidth="1"/>
+    <col min="10" max="10" width="8.25" style="119" customWidth="1"/>
+    <col min="11" max="11" width="5.375" style="119" customWidth="1"/>
+    <col min="12" max="12" width="7.125" style="119" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="7.125" style="119" customWidth="1"/>
+    <col min="15" max="15" width="7.125" style="119" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="114"/>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="130"/>
-      <c r="O1" s="95"/>
+      <c r="A1" s="113"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="94"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="173" t="s">
+      <c r="A2" s="178" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="175" t="s">
+      <c r="B2" s="173" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="175" t="s">
+      <c r="C2" s="173" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="175" t="s">
+      <c r="D2" s="173" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="175" t="s">
+      <c r="E2" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="175" t="s">
+      <c r="F2" s="173" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="175" t="s">
+      <c r="G2" s="173" t="s">
         <v>283</v>
       </c>
-      <c r="H2" s="177" t="s">
+      <c r="H2" s="175" t="s">
         <v>282</v>
       </c>
-      <c r="I2" s="178"/>
-      <c r="J2" s="179"/>
-      <c r="K2" s="175" t="s">
+      <c r="I2" s="176"/>
+      <c r="J2" s="177"/>
+      <c r="K2" s="173" t="s">
         <v>281</v>
       </c>
-      <c r="L2" s="175" t="s">
+      <c r="L2" s="173" t="s">
         <v>284</v>
       </c>
-      <c r="M2" s="177" t="s">
+      <c r="M2" s="175" t="s">
         <v>285</v>
       </c>
-      <c r="N2" s="178"/>
-      <c r="O2" s="179"/>
+      <c r="N2" s="176"/>
+      <c r="O2" s="177"/>
     </row>
     <row r="3" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="174"/>
-      <c r="B3" s="176"/>
-      <c r="C3" s="176"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="176"/>
-      <c r="F3" s="176"/>
-      <c r="G3" s="176"/>
-      <c r="H3" s="134" t="s">
+      <c r="A3" s="179"/>
+      <c r="B3" s="174"/>
+      <c r="C3" s="174"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="174"/>
+      <c r="H3" s="133" t="s">
+        <v>304</v>
+      </c>
+      <c r="I3" s="133" t="s">
+        <v>305</v>
+      </c>
+      <c r="J3" s="133" t="s">
         <v>306</v>
       </c>
-      <c r="I3" s="134" t="s">
+      <c r="K3" s="174"/>
+      <c r="L3" s="174"/>
+      <c r="M3" s="133" t="s">
         <v>307</v>
       </c>
-      <c r="J3" s="134" t="s">
+      <c r="N3" s="133" t="s">
         <v>308</v>
       </c>
-      <c r="K3" s="176"/>
-      <c r="L3" s="176"/>
-      <c r="M3" s="134" t="s">
+      <c r="O3" s="133" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="115"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="125"/>
+      <c r="N4" s="125"/>
+      <c r="O4" s="96"/>
+    </row>
+    <row r="5" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="151" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="168" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="98" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="95">
+        <v>1</v>
+      </c>
+      <c r="E5" s="168" t="s">
+        <v>290</v>
+      </c>
+      <c r="F5" s="95"/>
+      <c r="G5" s="123" t="s">
+        <v>323</v>
+      </c>
+      <c r="H5" s="123"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="134"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="134" t="s">
+        <v>324</v>
+      </c>
+      <c r="M5" s="120"/>
+      <c r="N5" s="120"/>
+      <c r="O5" s="120"/>
+    </row>
+    <row r="6" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="152"/>
+      <c r="B6" s="169"/>
+      <c r="C6" s="99" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="91">
+        <v>1</v>
+      </c>
+      <c r="E6" s="169"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="123" t="s">
+        <v>325</v>
+      </c>
+      <c r="H6" s="123"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="135"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="134" t="s">
+        <v>326</v>
+      </c>
+      <c r="M6" s="123"/>
+      <c r="N6" s="123"/>
+      <c r="O6" s="117"/>
+    </row>
+    <row r="7" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="152"/>
+      <c r="B7" s="167"/>
+      <c r="C7" s="99" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="91">
+        <v>1</v>
+      </c>
+      <c r="E7" s="169"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="123" t="s">
+        <v>325</v>
+      </c>
+      <c r="H7" s="123"/>
+      <c r="I7" s="123"/>
+      <c r="J7" s="123"/>
+      <c r="K7" s="117"/>
+      <c r="L7" s="134" t="s">
+        <v>324</v>
+      </c>
+      <c r="M7" s="123"/>
+      <c r="N7" s="123"/>
+      <c r="O7" s="117"/>
+    </row>
+    <row r="8" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="152"/>
+      <c r="B8" s="170" t="s">
+        <v>253</v>
+      </c>
+      <c r="C8" s="99" t="s">
+        <v>255</v>
+      </c>
+      <c r="D8" s="91">
+        <v>1</v>
+      </c>
+      <c r="E8" s="169"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="117" t="s">
+        <v>327</v>
+      </c>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
+      <c r="L8" s="134" t="s">
+        <v>326</v>
+      </c>
+      <c r="M8" s="117"/>
+      <c r="N8" s="117"/>
+      <c r="O8" s="117"/>
+    </row>
+    <row r="9" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="152"/>
+      <c r="B9" s="169"/>
+      <c r="C9" s="99" t="s">
+        <v>254</v>
+      </c>
+      <c r="D9" s="91">
+        <v>1</v>
+      </c>
+      <c r="E9" s="169"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="117" t="s">
+        <v>328</v>
+      </c>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="134" t="s">
+        <v>329</v>
+      </c>
+      <c r="M9" s="117"/>
+      <c r="N9" s="117"/>
+      <c r="O9" s="117"/>
+    </row>
+    <row r="10" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="180"/>
+      <c r="B10" s="171"/>
+      <c r="C10" s="100" t="s">
+        <v>253</v>
+      </c>
+      <c r="D10" s="97">
+        <v>1</v>
+      </c>
+      <c r="E10" s="171"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="117" t="s">
+        <v>328</v>
+      </c>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="121"/>
+      <c r="L10" s="134" t="s">
+        <v>324</v>
+      </c>
+      <c r="M10" s="122"/>
+      <c r="N10" s="122"/>
+      <c r="O10" s="121"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="151" t="s">
+        <v>198</v>
+      </c>
+      <c r="B11" s="168" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="106" t="s">
+        <v>200</v>
+      </c>
+      <c r="D11" s="95">
+        <v>2</v>
+      </c>
+      <c r="E11" s="168" t="s">
+        <v>294</v>
+      </c>
+      <c r="F11" s="95"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="120"/>
+      <c r="K11" s="120"/>
+      <c r="L11" s="120"/>
+      <c r="M11" s="120"/>
+      <c r="N11" s="120"/>
+      <c r="O11" s="120"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="152"/>
+      <c r="B12" s="169"/>
+      <c r="C12" s="107" t="s">
+        <v>203</v>
+      </c>
+      <c r="D12" s="91">
+        <v>1</v>
+      </c>
+      <c r="E12" s="169"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="117"/>
+      <c r="K12" s="117"/>
+      <c r="L12" s="117"/>
+      <c r="M12" s="117"/>
+      <c r="N12" s="117"/>
+      <c r="O12" s="117"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="152"/>
+      <c r="B13" s="169"/>
+      <c r="C13" s="107" t="s">
+        <v>206</v>
+      </c>
+      <c r="D13" s="91">
+        <v>1</v>
+      </c>
+      <c r="E13" s="169"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="117"/>
+      <c r="K13" s="117"/>
+      <c r="L13" s="117"/>
+      <c r="M13" s="117"/>
+      <c r="N13" s="117"/>
+      <c r="O13" s="117"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="152"/>
+      <c r="B14" s="169"/>
+      <c r="C14" s="107" t="s">
+        <v>209</v>
+      </c>
+      <c r="D14" s="91">
+        <v>2</v>
+      </c>
+      <c r="E14" s="167"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="117"/>
+      <c r="K14" s="117"/>
+      <c r="L14" s="117"/>
+      <c r="M14" s="117"/>
+      <c r="N14" s="117"/>
+      <c r="O14" s="117"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="152"/>
+      <c r="B15" s="170" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="108" t="s">
+        <v>217</v>
+      </c>
+      <c r="D15" s="91">
+        <v>2</v>
+      </c>
+      <c r="E15" s="170" t="s">
+        <v>294</v>
+      </c>
+      <c r="F15" s="91"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="117"/>
+      <c r="I15" s="117"/>
+      <c r="J15" s="117"/>
+      <c r="K15" s="117"/>
+      <c r="L15" s="117"/>
+      <c r="M15" s="117"/>
+      <c r="N15" s="117"/>
+      <c r="O15" s="117"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="152"/>
+      <c r="B16" s="169"/>
+      <c r="C16" s="107" t="s">
+        <v>220</v>
+      </c>
+      <c r="D16" s="91">
+        <v>1</v>
+      </c>
+      <c r="E16" s="169"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="117"/>
+      <c r="K16" s="117"/>
+      <c r="L16" s="117"/>
+      <c r="M16" s="117"/>
+      <c r="N16" s="117"/>
+      <c r="O16" s="117"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="152"/>
+      <c r="B17" s="169"/>
+      <c r="C17" s="107" t="s">
+        <v>222</v>
+      </c>
+      <c r="D17" s="91">
+        <v>1</v>
+      </c>
+      <c r="E17" s="167"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="117"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="117"/>
+      <c r="K17" s="117"/>
+      <c r="L17" s="117"/>
+      <c r="M17" s="117"/>
+      <c r="N17" s="117"/>
+      <c r="O17" s="117"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="152"/>
+      <c r="B18" s="170" t="s">
+        <v>180</v>
+      </c>
+      <c r="C18" s="104" t="s">
+        <v>185</v>
+      </c>
+      <c r="D18" s="91">
+        <v>1</v>
+      </c>
+      <c r="E18" s="170" t="s">
+        <v>298</v>
+      </c>
+      <c r="F18" s="91"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="117"/>
+      <c r="I18" s="117"/>
+      <c r="J18" s="117"/>
+      <c r="K18" s="117"/>
+      <c r="L18" s="117"/>
+      <c r="M18" s="117"/>
+      <c r="N18" s="117"/>
+      <c r="O18" s="117"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="152"/>
+      <c r="B19" s="167"/>
+      <c r="C19" s="104" t="s">
+        <v>184</v>
+      </c>
+      <c r="D19" s="91">
+        <v>2</v>
+      </c>
+      <c r="E19" s="167"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="117"/>
+      <c r="I19" s="117"/>
+      <c r="J19" s="117"/>
+      <c r="K19" s="117"/>
+      <c r="L19" s="117"/>
+      <c r="M19" s="117"/>
+      <c r="N19" s="117"/>
+      <c r="O19" s="117"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="152"/>
+      <c r="B20" s="170" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" s="91">
+        <v>1</v>
+      </c>
+      <c r="E20" s="169" t="s">
+        <v>314</v>
+      </c>
+      <c r="F20" s="91"/>
+      <c r="G20" s="117" t="s">
+        <v>340</v>
+      </c>
+      <c r="H20" s="117"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="117"/>
+      <c r="K20" s="117"/>
+      <c r="L20" s="117" t="s">
+        <v>341</v>
+      </c>
+      <c r="M20" s="117"/>
+      <c r="N20" s="117"/>
+      <c r="O20" s="117"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="152"/>
+      <c r="B21" s="167"/>
+      <c r="C21" s="109" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="91">
+        <v>2</v>
+      </c>
+      <c r="E21" s="169"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="117" t="s">
+        <v>339</v>
+      </c>
+      <c r="H21" s="117"/>
+      <c r="I21" s="117"/>
+      <c r="J21" s="117"/>
+      <c r="K21" s="117"/>
+      <c r="L21" s="117" t="s">
+        <v>341</v>
+      </c>
+      <c r="M21" s="117"/>
+      <c r="N21" s="117"/>
+      <c r="O21" s="117"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="152"/>
+      <c r="B22" s="137" t="s">
         <v>309</v>
       </c>
-      <c r="N3" s="134" t="s">
-        <v>310</v>
-      </c>
-      <c r="O3" s="134" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="116"/>
-      <c r="B4" s="117"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="130"/>
-      <c r="H4" s="130"/>
-      <c r="I4" s="130"/>
-      <c r="J4" s="130"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="126"/>
-      <c r="N4" s="126"/>
-      <c r="O4" s="97"/>
-    </row>
-    <row r="5" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="157" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="163" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="99" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="96">
+      <c r="C22" s="109" t="s">
+        <v>313</v>
+      </c>
+      <c r="D22" s="91">
         <v>1</v>
       </c>
-      <c r="E5" s="163" t="s">
-        <v>290</v>
-      </c>
-      <c r="F5" s="96"/>
-      <c r="G5" s="124" t="s">
-        <v>325</v>
-      </c>
-      <c r="H5" s="124"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="135"/>
-      <c r="K5" s="121"/>
-      <c r="L5" s="135" t="s">
-        <v>326</v>
-      </c>
-      <c r="M5" s="121"/>
-      <c r="N5" s="121"/>
-      <c r="O5" s="121"/>
-    </row>
-    <row r="6" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="158"/>
-      <c r="B6" s="152"/>
-      <c r="C6" s="100" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="92">
+      <c r="E22" s="167"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="117" t="s">
+        <v>342</v>
+      </c>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="117"/>
+      <c r="K22" s="117"/>
+      <c r="L22" s="117" t="s">
+        <v>341</v>
+      </c>
+      <c r="M22" s="117"/>
+      <c r="N22" s="117"/>
+      <c r="O22" s="117"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="152"/>
+      <c r="B23" s="170" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="104" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="91">
+        <v>3</v>
+      </c>
+      <c r="E23" s="170" t="s">
+        <v>291</v>
+      </c>
+      <c r="F23" s="91"/>
+      <c r="G23" s="117" t="s">
+        <v>330</v>
+      </c>
+      <c r="H23" s="117"/>
+      <c r="I23" s="117"/>
+      <c r="J23" s="117"/>
+      <c r="K23" s="117"/>
+      <c r="L23" s="117" t="s">
+        <v>331</v>
+      </c>
+      <c r="M23" s="117"/>
+      <c r="N23" s="117"/>
+      <c r="O23" s="117"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="152"/>
+      <c r="B24" s="169"/>
+      <c r="C24" s="104" t="s">
+        <v>178</v>
+      </c>
+      <c r="D24" s="91">
+        <v>3</v>
+      </c>
+      <c r="E24" s="169"/>
+      <c r="F24" s="91"/>
+      <c r="G24" s="117" t="s">
+        <v>330</v>
+      </c>
+      <c r="H24" s="117"/>
+      <c r="I24" s="117"/>
+      <c r="J24" s="117"/>
+      <c r="K24" s="117"/>
+      <c r="L24" s="117" t="s">
+        <v>332</v>
+      </c>
+      <c r="M24" s="117"/>
+      <c r="N24" s="117"/>
+      <c r="O24" s="117"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="152"/>
+      <c r="B25" s="169"/>
+      <c r="C25" s="104" t="s">
+        <v>286</v>
+      </c>
+      <c r="D25" s="91">
+        <v>3</v>
+      </c>
+      <c r="E25" s="167"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="117" t="s">
+        <v>330</v>
+      </c>
+      <c r="H25" s="117"/>
+      <c r="I25" s="117"/>
+      <c r="J25" s="117"/>
+      <c r="K25" s="117"/>
+      <c r="L25" s="117" t="s">
+        <v>331</v>
+      </c>
+      <c r="M25" s="117"/>
+      <c r="N25" s="117"/>
+      <c r="O25" s="117"/>
+    </row>
+    <row r="26" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="180"/>
+      <c r="B26" s="171"/>
+      <c r="C26" s="105" t="s">
+        <v>279</v>
+      </c>
+      <c r="D26" s="92">
+        <v>2</v>
+      </c>
+      <c r="E26" s="73" t="s">
+        <v>296</v>
+      </c>
+      <c r="F26" s="92"/>
+      <c r="G26" s="122" t="s">
+        <v>343</v>
+      </c>
+      <c r="H26" s="122"/>
+      <c r="I26" s="122"/>
+      <c r="J26" s="122"/>
+      <c r="K26" s="122"/>
+      <c r="L26" s="138" t="s">
+        <v>341</v>
+      </c>
+      <c r="M26" s="122"/>
+      <c r="N26" s="122"/>
+      <c r="O26" s="122"/>
+    </row>
+    <row r="27" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="151" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="168" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" s="101" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" s="95">
         <v>1</v>
       </c>
-      <c r="E6" s="152"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="124" t="s">
-        <v>327</v>
-      </c>
-      <c r="H6" s="124"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="136"/>
-      <c r="K6" s="118"/>
-      <c r="L6" s="135" t="s">
-        <v>328</v>
-      </c>
-      <c r="M6" s="124"/>
-      <c r="N6" s="124"/>
-      <c r="O6" s="118"/>
-    </row>
-    <row r="7" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="158"/>
-      <c r="B7" s="153"/>
-      <c r="C7" s="100" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="92">
+      <c r="E27" s="168" t="s">
+        <v>292</v>
+      </c>
+      <c r="F27" s="95"/>
+      <c r="G27" s="120" t="s">
+        <v>334</v>
+      </c>
+      <c r="H27" s="120"/>
+      <c r="I27" s="120"/>
+      <c r="J27" s="120"/>
+      <c r="K27" s="120"/>
+      <c r="L27" s="117" t="s">
+        <v>331</v>
+      </c>
+      <c r="M27" s="120"/>
+      <c r="N27" s="120"/>
+      <c r="O27" s="120"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="152"/>
+      <c r="B28" s="169"/>
+      <c r="C28" s="102" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28" s="91">
         <v>1</v>
       </c>
-      <c r="E7" s="152"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="124" t="s">
-        <v>327</v>
-      </c>
-      <c r="H7" s="124"/>
-      <c r="I7" s="124"/>
-      <c r="J7" s="124"/>
-      <c r="K7" s="118"/>
-      <c r="L7" s="135" t="s">
-        <v>326</v>
-      </c>
-      <c r="M7" s="124"/>
-      <c r="N7" s="124"/>
-      <c r="O7" s="118"/>
-    </row>
-    <row r="8" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="158"/>
-      <c r="B8" s="151" t="s">
-        <v>253</v>
-      </c>
-      <c r="C8" s="100" t="s">
-        <v>255</v>
-      </c>
-      <c r="D8" s="92">
+      <c r="E28" s="167"/>
+      <c r="F28" s="91"/>
+      <c r="G28" s="120" t="s">
+        <v>333</v>
+      </c>
+      <c r="H28" s="123"/>
+      <c r="I28" s="123"/>
+      <c r="J28" s="123"/>
+      <c r="K28" s="123"/>
+      <c r="L28" s="117" t="s">
+        <v>331</v>
+      </c>
+      <c r="M28" s="123"/>
+      <c r="N28" s="123"/>
+      <c r="O28" s="117"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="152"/>
+      <c r="B29" s="169"/>
+      <c r="C29" s="110" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" s="91">
+        <v>3</v>
+      </c>
+      <c r="E29" s="170" t="s">
+        <v>295</v>
+      </c>
+      <c r="F29" s="91"/>
+      <c r="G29" s="117" t="s">
+        <v>344</v>
+      </c>
+      <c r="H29" s="117"/>
+      <c r="I29" s="117"/>
+      <c r="J29" s="117"/>
+      <c r="K29" s="117"/>
+      <c r="L29" s="117" t="s">
+        <v>345</v>
+      </c>
+      <c r="M29" s="117"/>
+      <c r="N29" s="117"/>
+      <c r="O29" s="117"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="152"/>
+      <c r="B30" s="167"/>
+      <c r="C30" s="110" t="s">
+        <v>125</v>
+      </c>
+      <c r="D30" s="91">
+        <v>3</v>
+      </c>
+      <c r="E30" s="169"/>
+      <c r="F30" s="91"/>
+      <c r="G30" s="117" t="s">
+        <v>346</v>
+      </c>
+      <c r="H30" s="117"/>
+      <c r="I30" s="117"/>
+      <c r="J30" s="117"/>
+      <c r="K30" s="117"/>
+      <c r="L30" s="117" t="s">
+        <v>331</v>
+      </c>
+      <c r="M30" s="117"/>
+      <c r="N30" s="117"/>
+      <c r="O30" s="117"/>
+    </row>
+    <row r="31" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="180"/>
+      <c r="B31" s="97" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" s="111" t="s">
+        <v>140</v>
+      </c>
+      <c r="D31" s="97">
+        <v>2</v>
+      </c>
+      <c r="E31" s="171"/>
+      <c r="F31" s="97"/>
+      <c r="G31" s="121" t="s">
+        <v>347</v>
+      </c>
+      <c r="H31" s="121"/>
+      <c r="I31" s="121"/>
+      <c r="J31" s="121"/>
+      <c r="K31" s="121"/>
+      <c r="L31" s="121" t="s">
+        <v>348</v>
+      </c>
+      <c r="M31" s="121"/>
+      <c r="N31" s="121"/>
+      <c r="O31" s="121"/>
+    </row>
+    <row r="32" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="151" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="168" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="103" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="93">
+        <v>3</v>
+      </c>
+      <c r="E32" s="168" t="s">
+        <v>293</v>
+      </c>
+      <c r="F32" s="93"/>
+      <c r="G32" s="134" t="s">
+        <v>335</v>
+      </c>
+      <c r="H32" s="123"/>
+      <c r="I32" s="123"/>
+      <c r="J32" s="123"/>
+      <c r="K32" s="123"/>
+      <c r="L32" s="123" t="s">
+        <v>336</v>
+      </c>
+      <c r="M32" s="123"/>
+      <c r="N32" s="123"/>
+      <c r="O32" s="123"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" s="152"/>
+      <c r="B33" s="167"/>
+      <c r="C33" s="99" t="s">
+        <v>299</v>
+      </c>
+      <c r="D33" s="91">
+        <v>3</v>
+      </c>
+      <c r="E33" s="167"/>
+      <c r="F33" s="91"/>
+      <c r="G33" s="134" t="s">
+        <v>335</v>
+      </c>
+      <c r="H33" s="123"/>
+      <c r="I33" s="123"/>
+      <c r="J33" s="117"/>
+      <c r="K33" s="117"/>
+      <c r="L33" s="123" t="s">
+        <v>336</v>
+      </c>
+      <c r="M33" s="117"/>
+      <c r="N33" s="117"/>
+      <c r="O33" s="117"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="152"/>
+      <c r="B34" s="170" t="s">
+        <v>257</v>
+      </c>
+      <c r="C34" s="107" t="s">
+        <v>258</v>
+      </c>
+      <c r="D34" s="91">
         <v>1</v>
       </c>
-      <c r="E8" s="152"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="118" t="s">
-        <v>329</v>
-      </c>
-      <c r="H8" s="118"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="118"/>
-      <c r="L8" s="135" t="s">
-        <v>328</v>
-      </c>
-      <c r="M8" s="118"/>
-      <c r="N8" s="118"/>
-      <c r="O8" s="118"/>
-    </row>
-    <row r="9" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="158"/>
-      <c r="B9" s="152"/>
-      <c r="C9" s="100" t="s">
-        <v>254</v>
-      </c>
-      <c r="D9" s="92">
+      <c r="E34" s="170" t="s">
+        <v>294</v>
+      </c>
+      <c r="F34" s="91"/>
+      <c r="G34" s="117"/>
+      <c r="H34" s="117"/>
+      <c r="I34" s="117"/>
+      <c r="J34" s="117"/>
+      <c r="K34" s="117"/>
+      <c r="L34" s="117"/>
+      <c r="M34" s="117"/>
+      <c r="N34" s="117"/>
+      <c r="O34" s="117"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" s="152"/>
+      <c r="B35" s="169"/>
+      <c r="C35" s="107" t="s">
+        <v>260</v>
+      </c>
+      <c r="D35" s="91">
         <v>1</v>
       </c>
-      <c r="E9" s="152"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="118" t="s">
-        <v>330</v>
-      </c>
-      <c r="H9" s="118"/>
-      <c r="I9" s="118"/>
-      <c r="J9" s="118"/>
-      <c r="K9" s="118"/>
-      <c r="L9" s="135" t="s">
-        <v>331</v>
-      </c>
-      <c r="M9" s="118"/>
-      <c r="N9" s="118"/>
-      <c r="O9" s="118"/>
-    </row>
-    <row r="10" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="172"/>
-      <c r="B10" s="164"/>
-      <c r="C10" s="101" t="s">
-        <v>253</v>
-      </c>
-      <c r="D10" s="98">
+      <c r="E35" s="169"/>
+      <c r="F35" s="91"/>
+      <c r="G35" s="117"/>
+      <c r="H35" s="117"/>
+      <c r="I35" s="117"/>
+      <c r="J35" s="117"/>
+      <c r="K35" s="117"/>
+      <c r="L35" s="117"/>
+      <c r="M35" s="117"/>
+      <c r="N35" s="117"/>
+      <c r="O35" s="117"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36" s="152"/>
+      <c r="B36" s="167"/>
+      <c r="C36" s="107" t="s">
+        <v>259</v>
+      </c>
+      <c r="D36" s="91">
         <v>1</v>
       </c>
-      <c r="E10" s="164"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="118" t="s">
-        <v>330</v>
-      </c>
-      <c r="H10" s="118"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="118"/>
-      <c r="K10" s="122"/>
-      <c r="L10" s="135" t="s">
-        <v>326</v>
-      </c>
-      <c r="M10" s="123"/>
-      <c r="N10" s="123"/>
-      <c r="O10" s="122"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="157" t="s">
-        <v>198</v>
-      </c>
-      <c r="B11" s="163" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="107" t="s">
-        <v>200</v>
-      </c>
-      <c r="D11" s="96">
+      <c r="E36" s="167"/>
+      <c r="F36" s="91"/>
+      <c r="G36" s="117"/>
+      <c r="H36" s="117"/>
+      <c r="I36" s="117"/>
+      <c r="J36" s="117"/>
+      <c r="K36" s="117"/>
+      <c r="L36" s="117"/>
+      <c r="M36" s="117"/>
+      <c r="N36" s="117"/>
+      <c r="O36" s="117"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37" s="152"/>
+      <c r="B37" s="170" t="s">
+        <v>154</v>
+      </c>
+      <c r="C37" s="109" t="s">
+        <v>155</v>
+      </c>
+      <c r="D37" s="91">
         <v>2</v>
       </c>
-      <c r="E11" s="163" t="s">
-        <v>294</v>
-      </c>
-      <c r="F11" s="96"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="121"/>
-      <c r="J11" s="121"/>
-      <c r="K11" s="121"/>
-      <c r="L11" s="121"/>
-      <c r="M11" s="121"/>
-      <c r="N11" s="121"/>
-      <c r="O11" s="121"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="158"/>
-      <c r="B12" s="152"/>
-      <c r="C12" s="108" t="s">
-        <v>203</v>
-      </c>
-      <c r="D12" s="92">
-        <v>1</v>
-      </c>
-      <c r="E12" s="152"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="118"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="118"/>
-      <c r="J12" s="118"/>
-      <c r="K12" s="118"/>
-      <c r="L12" s="118"/>
-      <c r="M12" s="118"/>
-      <c r="N12" s="118"/>
-      <c r="O12" s="118"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="158"/>
-      <c r="B13" s="152"/>
-      <c r="C13" s="108" t="s">
-        <v>206</v>
-      </c>
-      <c r="D13" s="92">
-        <v>1</v>
-      </c>
-      <c r="E13" s="152"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="118"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="118"/>
-      <c r="J13" s="118"/>
-      <c r="K13" s="118"/>
-      <c r="L13" s="118"/>
-      <c r="M13" s="118"/>
-      <c r="N13" s="118"/>
-      <c r="O13" s="118"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="158"/>
-      <c r="B14" s="152"/>
-      <c r="C14" s="108" t="s">
-        <v>209</v>
-      </c>
-      <c r="D14" s="92">
+      <c r="E37" s="170" t="s">
+        <v>297</v>
+      </c>
+      <c r="F37" s="91"/>
+      <c r="G37" s="117" t="s">
+        <v>349</v>
+      </c>
+      <c r="H37" s="117"/>
+      <c r="I37" s="117"/>
+      <c r="J37" s="117"/>
+      <c r="K37" s="117"/>
+      <c r="L37" s="123" t="s">
+        <v>336</v>
+      </c>
+      <c r="M37" s="117"/>
+      <c r="N37" s="117"/>
+      <c r="O37" s="117"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38" s="152"/>
+      <c r="B38" s="167"/>
+      <c r="C38" s="109" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" s="91">
+        <v>3</v>
+      </c>
+      <c r="E38" s="169"/>
+      <c r="F38" s="91"/>
+      <c r="G38" s="117" t="s">
+        <v>346</v>
+      </c>
+      <c r="H38" s="117"/>
+      <c r="I38" s="117"/>
+      <c r="J38" s="117"/>
+      <c r="K38" s="117"/>
+      <c r="L38" s="123" t="s">
+        <v>336</v>
+      </c>
+      <c r="M38" s="117"/>
+      <c r="N38" s="117"/>
+      <c r="O38" s="117"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A39" s="152"/>
+      <c r="B39" s="170" t="s">
+        <v>275</v>
+      </c>
+      <c r="C39" s="105" t="s">
+        <v>277</v>
+      </c>
+      <c r="D39" s="92">
         <v>2</v>
       </c>
-      <c r="E14" s="153"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="118"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="118"/>
-      <c r="J14" s="118"/>
-      <c r="K14" s="118"/>
-      <c r="L14" s="118"/>
-      <c r="M14" s="118"/>
-      <c r="N14" s="118"/>
-      <c r="O14" s="118"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="158"/>
-      <c r="B15" s="151" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15" s="109" t="s">
-        <v>217</v>
-      </c>
-      <c r="D15" s="92">
-        <v>2</v>
-      </c>
-      <c r="E15" s="151" t="s">
-        <v>294</v>
-      </c>
-      <c r="F15" s="92"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="118"/>
-      <c r="J15" s="118"/>
-      <c r="K15" s="118"/>
-      <c r="L15" s="118"/>
-      <c r="M15" s="118"/>
-      <c r="N15" s="118"/>
-      <c r="O15" s="118"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="158"/>
-      <c r="B16" s="152"/>
-      <c r="C16" s="108" t="s">
-        <v>220</v>
-      </c>
-      <c r="D16" s="92">
-        <v>1</v>
-      </c>
-      <c r="E16" s="152"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="118"/>
-      <c r="H16" s="118"/>
-      <c r="I16" s="118"/>
-      <c r="J16" s="118"/>
-      <c r="K16" s="118"/>
-      <c r="L16" s="118"/>
-      <c r="M16" s="118"/>
-      <c r="N16" s="118"/>
-      <c r="O16" s="118"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="158"/>
-      <c r="B17" s="152"/>
-      <c r="C17" s="108" t="s">
-        <v>222</v>
-      </c>
-      <c r="D17" s="92">
-        <v>1</v>
-      </c>
-      <c r="E17" s="153"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="118"/>
-      <c r="H17" s="118"/>
-      <c r="I17" s="118"/>
-      <c r="J17" s="118"/>
-      <c r="K17" s="118"/>
-      <c r="L17" s="118"/>
-      <c r="M17" s="118"/>
-      <c r="N17" s="118"/>
-      <c r="O17" s="118"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="158"/>
-      <c r="B18" s="151" t="s">
-        <v>180</v>
-      </c>
-      <c r="C18" s="105" t="s">
-        <v>185</v>
-      </c>
-      <c r="D18" s="92">
-        <v>1</v>
-      </c>
-      <c r="E18" s="151" t="s">
-        <v>300</v>
-      </c>
-      <c r="F18" s="92"/>
-      <c r="G18" s="118"/>
-      <c r="H18" s="118"/>
-      <c r="I18" s="118"/>
-      <c r="J18" s="118"/>
-      <c r="K18" s="118"/>
-      <c r="L18" s="118"/>
-      <c r="M18" s="118"/>
-      <c r="N18" s="118"/>
-      <c r="O18" s="118"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="158"/>
-      <c r="B19" s="153"/>
-      <c r="C19" s="105" t="s">
-        <v>184</v>
-      </c>
-      <c r="D19" s="92">
-        <v>2</v>
-      </c>
-      <c r="E19" s="152"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="118"/>
-      <c r="H19" s="118"/>
-      <c r="I19" s="118"/>
-      <c r="J19" s="118"/>
-      <c r="K19" s="118"/>
-      <c r="L19" s="118"/>
-      <c r="M19" s="118"/>
-      <c r="N19" s="118"/>
-      <c r="O19" s="118"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="158"/>
-      <c r="B20" s="151" t="s">
-        <v>115</v>
-      </c>
-      <c r="C20" s="110" t="s">
-        <v>116</v>
-      </c>
-      <c r="D20" s="92">
-        <v>1</v>
-      </c>
-      <c r="E20" s="152" t="s">
-        <v>316</v>
-      </c>
-      <c r="F20" s="92"/>
-      <c r="G20" s="118"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="118"/>
-      <c r="J20" s="118"/>
-      <c r="K20" s="118"/>
-      <c r="L20" s="118"/>
-      <c r="M20" s="118"/>
-      <c r="N20" s="118"/>
-      <c r="O20" s="118"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="158"/>
-      <c r="B21" s="152"/>
-      <c r="C21" s="110" t="s">
-        <v>118</v>
-      </c>
-      <c r="D21" s="92">
-        <v>2</v>
-      </c>
-      <c r="E21" s="152"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="118"/>
-      <c r="J21" s="118"/>
-      <c r="K21" s="118"/>
-      <c r="L21" s="118"/>
-      <c r="M21" s="118"/>
-      <c r="N21" s="118"/>
-      <c r="O21" s="118"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="158"/>
-      <c r="B22" s="86" t="s">
-        <v>311</v>
-      </c>
-      <c r="C22" s="110" t="s">
-        <v>315</v>
-      </c>
-      <c r="D22" s="92">
-        <v>1</v>
-      </c>
-      <c r="E22" s="153"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="118"/>
-      <c r="K22" s="118"/>
-      <c r="L22" s="118"/>
-      <c r="M22" s="118"/>
-      <c r="N22" s="118"/>
-      <c r="O22" s="118"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="158"/>
-      <c r="B23" s="151" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="105" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="92">
+      <c r="E39" s="169"/>
+      <c r="F39" s="92"/>
+      <c r="G39" s="117" t="s">
+        <v>350</v>
+      </c>
+      <c r="H39" s="122"/>
+      <c r="I39" s="122"/>
+      <c r="J39" s="122"/>
+      <c r="K39" s="122"/>
+      <c r="L39" s="123" t="s">
+        <v>336</v>
+      </c>
+      <c r="M39" s="122"/>
+      <c r="N39" s="122"/>
+      <c r="O39" s="122"/>
+    </row>
+    <row r="40" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="180"/>
+      <c r="B40" s="171"/>
+      <c r="C40" s="105" t="s">
+        <v>278</v>
+      </c>
+      <c r="D40" s="92">
         <v>3</v>
       </c>
-      <c r="E23" s="151" t="s">
-        <v>291</v>
-      </c>
-      <c r="F23" s="92"/>
-      <c r="G23" s="118" t="s">
-        <v>332</v>
-      </c>
-      <c r="H23" s="118"/>
-      <c r="I23" s="118"/>
-      <c r="J23" s="118"/>
-      <c r="K23" s="118"/>
-      <c r="L23" s="118" t="s">
-        <v>333</v>
-      </c>
-      <c r="M23" s="118"/>
-      <c r="N23" s="118"/>
-      <c r="O23" s="118"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="158"/>
-      <c r="B24" s="152"/>
-      <c r="C24" s="105" t="s">
-        <v>178</v>
-      </c>
-      <c r="D24" s="92">
-        <v>3</v>
-      </c>
-      <c r="E24" s="152"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="118" t="s">
-        <v>332</v>
-      </c>
-      <c r="H24" s="118"/>
-      <c r="I24" s="118"/>
-      <c r="J24" s="118"/>
-      <c r="K24" s="118"/>
-      <c r="L24" s="118" t="s">
-        <v>334</v>
-      </c>
-      <c r="M24" s="118"/>
-      <c r="N24" s="118"/>
-      <c r="O24" s="118"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="158"/>
-      <c r="B25" s="152"/>
-      <c r="C25" s="105" t="s">
-        <v>286</v>
-      </c>
-      <c r="D25" s="92">
-        <v>3</v>
-      </c>
-      <c r="E25" s="152"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="118" t="s">
-        <v>332</v>
-      </c>
-      <c r="H25" s="118"/>
-      <c r="I25" s="118"/>
-      <c r="J25" s="118"/>
-      <c r="K25" s="118"/>
-      <c r="L25" s="118" t="s">
-        <v>333</v>
-      </c>
-      <c r="M25" s="118"/>
-      <c r="N25" s="118"/>
-      <c r="O25" s="118"/>
-    </row>
-    <row r="26" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="172"/>
-      <c r="B26" s="164"/>
-      <c r="C26" s="106" t="s">
-        <v>279</v>
-      </c>
-      <c r="D26" s="93">
-        <v>2</v>
-      </c>
-      <c r="E26" s="74" t="s">
-        <v>296</v>
-      </c>
-      <c r="F26" s="93"/>
-      <c r="G26" s="123"/>
-      <c r="H26" s="123"/>
-      <c r="I26" s="123"/>
-      <c r="J26" s="123"/>
-      <c r="K26" s="123"/>
-      <c r="L26" s="123"/>
-      <c r="M26" s="123"/>
-      <c r="N26" s="123"/>
-      <c r="O26" s="123"/>
-    </row>
-    <row r="27" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="157" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="163" t="s">
-        <v>127</v>
-      </c>
-      <c r="C27" s="102" t="s">
-        <v>126</v>
-      </c>
-      <c r="D27" s="96">
-        <v>1</v>
-      </c>
-      <c r="E27" s="163" t="s">
-        <v>292</v>
-      </c>
-      <c r="F27" s="96"/>
-      <c r="G27" s="121" t="s">
-        <v>336</v>
-      </c>
-      <c r="H27" s="121"/>
-      <c r="I27" s="121"/>
-      <c r="J27" s="121"/>
-      <c r="K27" s="121"/>
-      <c r="L27" s="118" t="s">
-        <v>333</v>
-      </c>
-      <c r="M27" s="121"/>
-      <c r="N27" s="121"/>
-      <c r="O27" s="121"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="158"/>
-      <c r="B28" s="152"/>
-      <c r="C28" s="103" t="s">
-        <v>129</v>
-      </c>
-      <c r="D28" s="92">
-        <v>1</v>
-      </c>
-      <c r="E28" s="153"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="121" t="s">
-        <v>335</v>
-      </c>
-      <c r="H28" s="124"/>
-      <c r="I28" s="124"/>
-      <c r="J28" s="124"/>
-      <c r="K28" s="124"/>
-      <c r="L28" s="118" t="s">
-        <v>333</v>
-      </c>
-      <c r="M28" s="124"/>
-      <c r="N28" s="124"/>
-      <c r="O28" s="118"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="158"/>
-      <c r="B29" s="152"/>
-      <c r="C29" s="111" t="s">
-        <v>132</v>
-      </c>
-      <c r="D29" s="92">
-        <v>3</v>
-      </c>
-      <c r="E29" s="151" t="s">
-        <v>295</v>
-      </c>
-      <c r="F29" s="92"/>
-      <c r="G29" s="118"/>
-      <c r="H29" s="118"/>
-      <c r="I29" s="118"/>
-      <c r="J29" s="118"/>
-      <c r="K29" s="118"/>
-      <c r="L29" s="118"/>
-      <c r="M29" s="118"/>
-      <c r="N29" s="118"/>
-      <c r="O29" s="118"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="158"/>
-      <c r="B30" s="153"/>
-      <c r="C30" s="111" t="s">
-        <v>125</v>
-      </c>
-      <c r="D30" s="92">
-        <v>3</v>
-      </c>
-      <c r="E30" s="153"/>
-      <c r="F30" s="92"/>
-      <c r="G30" s="118"/>
-      <c r="H30" s="118"/>
-      <c r="I30" s="118"/>
-      <c r="J30" s="118"/>
-      <c r="K30" s="118"/>
-      <c r="L30" s="118"/>
-      <c r="M30" s="118"/>
-      <c r="N30" s="118"/>
-      <c r="O30" s="118"/>
-    </row>
-    <row r="31" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="172"/>
-      <c r="B31" s="98" t="s">
-        <v>139</v>
-      </c>
-      <c r="C31" s="112" t="s">
-        <v>140</v>
-      </c>
-      <c r="D31" s="98">
-        <v>2</v>
-      </c>
-      <c r="E31" s="72" t="s">
-        <v>297</v>
-      </c>
-      <c r="F31" s="98"/>
-      <c r="G31" s="122"/>
-      <c r="H31" s="122"/>
-      <c r="I31" s="122"/>
-      <c r="J31" s="122"/>
-      <c r="K31" s="122"/>
-      <c r="L31" s="122"/>
-      <c r="M31" s="122"/>
-      <c r="N31" s="122"/>
-      <c r="O31" s="122"/>
-    </row>
-    <row r="32" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="157" t="s">
-        <v>67</v>
-      </c>
-      <c r="B32" s="163" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="104" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" s="94">
-        <v>3</v>
-      </c>
-      <c r="E32" s="163" t="s">
-        <v>293</v>
-      </c>
-      <c r="F32" s="94"/>
-      <c r="G32" s="135" t="s">
-        <v>337</v>
-      </c>
-      <c r="H32" s="124"/>
-      <c r="I32" s="124"/>
-      <c r="J32" s="124"/>
-      <c r="K32" s="124"/>
-      <c r="L32" s="124" t="s">
-        <v>338</v>
-      </c>
-      <c r="M32" s="124"/>
-      <c r="N32" s="124"/>
-      <c r="O32" s="124"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="158"/>
-      <c r="B33" s="153"/>
-      <c r="C33" s="100" t="s">
-        <v>301</v>
-      </c>
-      <c r="D33" s="92">
-        <v>3</v>
-      </c>
-      <c r="E33" s="153"/>
-      <c r="F33" s="92"/>
-      <c r="G33" s="135" t="s">
-        <v>337</v>
-      </c>
-      <c r="H33" s="124"/>
-      <c r="I33" s="124"/>
-      <c r="J33" s="118"/>
-      <c r="K33" s="118"/>
-      <c r="L33" s="124" t="s">
-        <v>338</v>
-      </c>
-      <c r="M33" s="118"/>
-      <c r="N33" s="118"/>
-      <c r="O33" s="118"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="158"/>
-      <c r="B34" s="151" t="s">
-        <v>257</v>
-      </c>
-      <c r="C34" s="108" t="s">
-        <v>258</v>
-      </c>
-      <c r="D34" s="92">
-        <v>1</v>
-      </c>
-      <c r="E34" s="151" t="s">
-        <v>294</v>
-      </c>
-      <c r="F34" s="92"/>
-      <c r="G34" s="118"/>
-      <c r="H34" s="118"/>
-      <c r="I34" s="118"/>
-      <c r="J34" s="118"/>
-      <c r="K34" s="118"/>
-      <c r="L34" s="118"/>
-      <c r="M34" s="118"/>
-      <c r="N34" s="118"/>
-      <c r="O34" s="118"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="158"/>
-      <c r="B35" s="152"/>
-      <c r="C35" s="108" t="s">
-        <v>260</v>
-      </c>
-      <c r="D35" s="92">
-        <v>1</v>
-      </c>
-      <c r="E35" s="152"/>
-      <c r="F35" s="92"/>
-      <c r="G35" s="118"/>
-      <c r="H35" s="118"/>
-      <c r="I35" s="118"/>
-      <c r="J35" s="118"/>
-      <c r="K35" s="118"/>
-      <c r="L35" s="118"/>
-      <c r="M35" s="118"/>
-      <c r="N35" s="118"/>
-      <c r="O35" s="118"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="158"/>
-      <c r="B36" s="153"/>
-      <c r="C36" s="108" t="s">
-        <v>259</v>
-      </c>
-      <c r="D36" s="92">
-        <v>1</v>
-      </c>
-      <c r="E36" s="153"/>
-      <c r="F36" s="92"/>
-      <c r="G36" s="118"/>
-      <c r="H36" s="118"/>
-      <c r="I36" s="118"/>
-      <c r="J36" s="118"/>
-      <c r="K36" s="118"/>
-      <c r="L36" s="118"/>
-      <c r="M36" s="118"/>
-      <c r="N36" s="118"/>
-      <c r="O36" s="118"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="158"/>
-      <c r="B37" s="151" t="s">
-        <v>154</v>
-      </c>
-      <c r="C37" s="110" t="s">
-        <v>155</v>
-      </c>
-      <c r="D37" s="92">
-        <v>2</v>
-      </c>
-      <c r="E37" s="151" t="s">
-        <v>298</v>
-      </c>
-      <c r="F37" s="92"/>
-      <c r="G37" s="118"/>
-      <c r="H37" s="118"/>
-      <c r="I37" s="118"/>
-      <c r="J37" s="118"/>
-      <c r="K37" s="118"/>
-      <c r="L37" s="118"/>
-      <c r="M37" s="118"/>
-      <c r="N37" s="118"/>
-      <c r="O37" s="118"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="158"/>
-      <c r="B38" s="153"/>
-      <c r="C38" s="110" t="s">
-        <v>92</v>
-      </c>
-      <c r="D38" s="92">
-        <v>3</v>
-      </c>
-      <c r="E38" s="153"/>
-      <c r="F38" s="92"/>
-      <c r="G38" s="118"/>
-      <c r="H38" s="118"/>
-      <c r="I38" s="118"/>
-      <c r="J38" s="118"/>
-      <c r="K38" s="118"/>
-      <c r="L38" s="118"/>
-      <c r="M38" s="118"/>
-      <c r="N38" s="118"/>
-      <c r="O38" s="118"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="158"/>
-      <c r="B39" s="151" t="s">
-        <v>275</v>
-      </c>
-      <c r="C39" s="106" t="s">
-        <v>277</v>
-      </c>
-      <c r="D39" s="93">
-        <v>2</v>
-      </c>
-      <c r="E39" s="151" t="s">
-        <v>299</v>
-      </c>
-      <c r="F39" s="93"/>
-      <c r="G39" s="123"/>
-      <c r="H39" s="123"/>
-      <c r="I39" s="123"/>
-      <c r="J39" s="123"/>
-      <c r="K39" s="123"/>
-      <c r="L39" s="123"/>
-      <c r="M39" s="123"/>
-      <c r="N39" s="123"/>
-      <c r="O39" s="123"/>
-    </row>
-    <row r="40" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="172"/>
-      <c r="B40" s="164"/>
-      <c r="C40" s="106" t="s">
-        <v>278</v>
-      </c>
-      <c r="D40" s="93">
-        <v>3</v>
-      </c>
-      <c r="E40" s="164"/>
-      <c r="F40" s="93"/>
-      <c r="G40" s="123"/>
-      <c r="H40" s="123"/>
-      <c r="I40" s="123"/>
-      <c r="J40" s="123"/>
-      <c r="K40" s="123"/>
-      <c r="L40" s="123"/>
-      <c r="M40" s="123"/>
-      <c r="N40" s="123"/>
-      <c r="O40" s="123"/>
+      <c r="E40" s="171"/>
+      <c r="F40" s="92"/>
+      <c r="G40" s="122" t="s">
+        <v>349</v>
+      </c>
+      <c r="H40" s="122"/>
+      <c r="I40" s="122"/>
+      <c r="J40" s="122"/>
+      <c r="K40" s="122"/>
+      <c r="L40" s="122" t="s">
+        <v>351</v>
+      </c>
+      <c r="M40" s="122"/>
+      <c r="N40" s="122"/>
+      <c r="O40" s="122"/>
     </row>
     <row r="41" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="69" t="s">
@@ -24697,7 +24780,7 @@
       <c r="B41" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="113" t="s">
+      <c r="C41" s="112" t="s">
         <v>69</v>
       </c>
       <c r="D41" s="52">
@@ -24707,19 +24790,19 @@
         <v>289</v>
       </c>
       <c r="F41" s="52"/>
-      <c r="G41" s="125" t="s">
-        <v>339</v>
-      </c>
-      <c r="H41" s="125"/>
-      <c r="I41" s="125"/>
-      <c r="J41" s="125"/>
-      <c r="K41" s="125"/>
-      <c r="L41" s="125" t="s">
-        <v>340</v>
-      </c>
-      <c r="M41" s="125"/>
-      <c r="N41" s="125"/>
-      <c r="O41" s="125"/>
+      <c r="G41" s="124" t="s">
+        <v>337</v>
+      </c>
+      <c r="H41" s="124"/>
+      <c r="I41" s="124"/>
+      <c r="J41" s="124"/>
+      <c r="K41" s="124"/>
+      <c r="L41" s="124" t="s">
+        <v>338</v>
+      </c>
+      <c r="M41" s="124"/>
+      <c r="N41" s="124"/>
+      <c r="O41" s="124"/>
       <c r="P41" s="48"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
@@ -24978,94 +25061,122 @@
       <c r="A56" s="48"/>
       <c r="B56" s="48"/>
       <c r="C56" s="48"/>
-      <c r="D56" s="119"/>
-      <c r="E56" s="119"/>
-      <c r="F56" s="119"/>
-      <c r="G56" s="119"/>
-      <c r="H56" s="119"/>
-      <c r="I56" s="119"/>
-      <c r="J56" s="119"/>
-      <c r="K56" s="119"/>
-      <c r="L56" s="119"/>
-      <c r="M56" s="119"/>
-      <c r="N56" s="119"/>
-      <c r="O56" s="119"/>
+      <c r="D56" s="118"/>
+      <c r="E56" s="118"/>
+      <c r="F56" s="118"/>
+      <c r="G56" s="118"/>
+      <c r="H56" s="118"/>
+      <c r="I56" s="118"/>
+      <c r="J56" s="118"/>
+      <c r="K56" s="118"/>
+      <c r="L56" s="118"/>
+      <c r="M56" s="118"/>
+      <c r="N56" s="118"/>
+      <c r="O56" s="118"/>
       <c r="P56" s="48"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="48"/>
       <c r="B57" s="48"/>
       <c r="C57" s="48"/>
-      <c r="D57" s="119"/>
-      <c r="E57" s="119"/>
-      <c r="F57" s="119"/>
-      <c r="G57" s="119"/>
-      <c r="H57" s="119"/>
-      <c r="I57" s="119"/>
-      <c r="J57" s="119"/>
-      <c r="K57" s="119"/>
-      <c r="L57" s="119"/>
-      <c r="M57" s="119"/>
-      <c r="N57" s="119"/>
-      <c r="O57" s="119"/>
+      <c r="D57" s="118"/>
+      <c r="E57" s="118"/>
+      <c r="F57" s="118"/>
+      <c r="G57" s="118"/>
+      <c r="H57" s="118"/>
+      <c r="I57" s="118"/>
+      <c r="J57" s="118"/>
+      <c r="K57" s="118"/>
+      <c r="L57" s="118"/>
+      <c r="M57" s="118"/>
+      <c r="N57" s="118"/>
+      <c r="O57" s="118"/>
       <c r="P57" s="48"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="48"/>
       <c r="B58" s="48"/>
       <c r="C58" s="48"/>
-      <c r="D58" s="119"/>
-      <c r="E58" s="119"/>
-      <c r="F58" s="119"/>
-      <c r="G58" s="119"/>
-      <c r="H58" s="119"/>
-      <c r="I58" s="119"/>
-      <c r="J58" s="119"/>
-      <c r="K58" s="119"/>
-      <c r="L58" s="119"/>
-      <c r="M58" s="119"/>
-      <c r="N58" s="119"/>
-      <c r="O58" s="119"/>
+      <c r="D58" s="118"/>
+      <c r="E58" s="118"/>
+      <c r="F58" s="118"/>
+      <c r="G58" s="118"/>
+      <c r="H58" s="118"/>
+      <c r="I58" s="118"/>
+      <c r="J58" s="118"/>
+      <c r="K58" s="118"/>
+      <c r="L58" s="118"/>
+      <c r="M58" s="118"/>
+      <c r="N58" s="118"/>
+      <c r="O58" s="118"/>
       <c r="P58" s="48"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="48"/>
       <c r="B59" s="48"/>
       <c r="C59" s="48"/>
-      <c r="D59" s="119"/>
-      <c r="E59" s="119"/>
-      <c r="F59" s="119"/>
-      <c r="G59" s="119"/>
-      <c r="H59" s="119"/>
-      <c r="I59" s="119"/>
-      <c r="J59" s="119"/>
-      <c r="K59" s="119"/>
-      <c r="L59" s="119"/>
-      <c r="M59" s="119"/>
-      <c r="N59" s="119"/>
-      <c r="O59" s="119"/>
+      <c r="D59" s="118"/>
+      <c r="E59" s="118"/>
+      <c r="F59" s="118"/>
+      <c r="G59" s="118"/>
+      <c r="H59" s="118"/>
+      <c r="I59" s="118"/>
+      <c r="J59" s="118"/>
+      <c r="K59" s="118"/>
+      <c r="L59" s="118"/>
+      <c r="M59" s="118"/>
+      <c r="N59" s="118"/>
+      <c r="O59" s="118"/>
       <c r="P59" s="48"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="48"/>
       <c r="B60" s="48"/>
       <c r="C60" s="48"/>
-      <c r="D60" s="119"/>
-      <c r="E60" s="119"/>
-      <c r="F60" s="119"/>
-      <c r="G60" s="119"/>
-      <c r="H60" s="119"/>
-      <c r="I60" s="119"/>
-      <c r="J60" s="119"/>
-      <c r="K60" s="119"/>
-      <c r="L60" s="119"/>
-      <c r="M60" s="119"/>
-      <c r="N60" s="119"/>
-      <c r="O60" s="119"/>
+      <c r="D60" s="118"/>
+      <c r="E60" s="118"/>
+      <c r="F60" s="118"/>
+      <c r="G60" s="118"/>
+      <c r="H60" s="118"/>
+      <c r="I60" s="118"/>
+      <c r="J60" s="118"/>
+      <c r="K60" s="118"/>
+      <c r="L60" s="118"/>
+      <c r="M60" s="118"/>
+      <c r="N60" s="118"/>
+      <c r="O60" s="118"/>
       <c r="P60" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="38">
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="E37:E40"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="A32:A40"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A11:A26"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="E5:E10"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="H2:J2"/>
@@ -25076,35 +25187,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="E5:E10"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="A11:A26"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="A32:A40"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25131,12 +25213,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="154"/>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="156"/>
+      <c r="A1" s="162"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="164"/>
     </row>
     <row r="2" spans="1:6" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
@@ -25152,219 +25234,219 @@
         <v>6</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F2" s="30" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="165"/>
-      <c r="B3" s="166"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="167"/>
+      <c r="A3" s="153"/>
+      <c r="B3" s="154"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="155"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="161" t="s">
+      <c r="A4" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="128">
+      <c r="C4" s="127">
         <v>1</v>
       </c>
-      <c r="D4" s="128" t="s">
+      <c r="D4" s="127" t="s">
         <v>289</v>
       </c>
       <c r="E4" s="33"/>
       <c r="F4" s="34"/>
     </row>
     <row r="5" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="172"/>
-      <c r="B5" s="81" t="s">
+      <c r="A5" s="180"/>
+      <c r="B5" s="80" t="s">
         <v>265</v>
       </c>
-      <c r="C5" s="129">
+      <c r="C5" s="128">
         <v>1</v>
       </c>
-      <c r="D5" s="129" t="s">
-        <v>317</v>
+      <c r="D5" s="128" t="s">
+        <v>315</v>
       </c>
       <c r="E5" s="35"/>
       <c r="F5" s="36"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="157" t="s">
+      <c r="A6" s="151" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="83" t="s">
+      <c r="B6" s="82" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="127">
+      <c r="C6" s="126">
         <v>1</v>
       </c>
-      <c r="D6" s="127" t="s">
-        <v>318</v>
+      <c r="D6" s="126" t="s">
+        <v>316</v>
       </c>
       <c r="E6" s="31"/>
       <c r="F6" s="32"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="158"/>
-      <c r="B7" s="87" t="s">
+      <c r="A7" s="152"/>
+      <c r="B7" s="86" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="128">
+      <c r="C7" s="127">
         <v>1</v>
       </c>
-      <c r="D7" s="128" t="s">
-        <v>319</v>
+      <c r="D7" s="127" t="s">
+        <v>317</v>
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="34"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="158"/>
-      <c r="B8" s="85" t="s">
+      <c r="A8" s="152"/>
+      <c r="B8" s="84" t="s">
         <v>269</v>
       </c>
-      <c r="C8" s="128">
+      <c r="C8" s="127">
         <v>1</v>
       </c>
-      <c r="D8" s="128" t="s">
-        <v>320</v>
+      <c r="D8" s="127" t="s">
+        <v>318</v>
       </c>
       <c r="E8" s="33"/>
       <c r="F8" s="34"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="158"/>
-      <c r="B9" s="80" t="s">
+      <c r="A9" s="152"/>
+      <c r="B9" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="128">
+      <c r="C9" s="127">
         <v>1</v>
       </c>
-      <c r="D9" s="128" t="s">
+      <c r="D9" s="127" t="s">
         <v>295</v>
       </c>
       <c r="E9" s="33"/>
       <c r="F9" s="34"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="158"/>
-      <c r="B10" s="85" t="s">
-        <v>304</v>
-      </c>
-      <c r="C10" s="128">
+      <c r="A10" s="152"/>
+      <c r="B10" s="84" t="s">
+        <v>302</v>
+      </c>
+      <c r="C10" s="127">
         <v>1</v>
       </c>
-      <c r="D10" s="128" t="s">
+      <c r="D10" s="127" t="s">
         <v>295</v>
       </c>
       <c r="E10" s="33"/>
       <c r="F10" s="34"/>
     </row>
     <row r="11" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="172"/>
-      <c r="B11" s="87" t="s">
+      <c r="A11" s="180"/>
+      <c r="B11" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="128">
+      <c r="C11" s="127">
         <v>2</v>
       </c>
-      <c r="D11" s="128" t="s">
-        <v>321</v>
+      <c r="D11" s="127" t="s">
+        <v>319</v>
       </c>
       <c r="E11" s="33"/>
       <c r="F11" s="34"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="157" t="s">
+      <c r="A12" s="151" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="79" t="s">
+      <c r="B12" s="78" t="s">
         <v>127</v>
       </c>
-      <c r="C12" s="127">
+      <c r="C12" s="126">
         <v>3</v>
       </c>
-      <c r="D12" s="127" t="s">
-        <v>322</v>
+      <c r="D12" s="126" t="s">
+        <v>320</v>
       </c>
       <c r="E12" s="31"/>
       <c r="F12" s="32"/>
     </row>
     <row r="13" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="172"/>
+      <c r="A13" s="180"/>
       <c r="B13" s="68" t="s">
         <v>139</v>
       </c>
-      <c r="C13" s="129">
+      <c r="C13" s="128">
         <v>2</v>
       </c>
-      <c r="D13" s="129" t="s">
-        <v>316</v>
+      <c r="D13" s="128" t="s">
+        <v>314</v>
       </c>
       <c r="E13" s="35"/>
       <c r="F13" s="36"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="157" t="s">
+      <c r="A14" s="151" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="86" t="s">
+      <c r="B14" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="131">
+      <c r="C14" s="130">
         <v>3</v>
       </c>
-      <c r="D14" s="131" t="s">
+      <c r="D14" s="130" t="s">
         <v>289</v>
       </c>
       <c r="E14" s="55"/>
       <c r="F14" s="56"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="158"/>
-      <c r="B15" s="86" t="s">
+      <c r="A15" s="152"/>
+      <c r="B15" s="85" t="s">
         <v>273</v>
       </c>
-      <c r="C15" s="128">
+      <c r="C15" s="127">
         <v>2</v>
       </c>
-      <c r="D15" s="128" t="s">
-        <v>323</v>
+      <c r="D15" s="127" t="s">
+        <v>321</v>
       </c>
       <c r="E15" s="33"/>
       <c r="F15" s="34"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="158"/>
-      <c r="B16" s="80" t="s">
+      <c r="A16" s="152"/>
+      <c r="B16" s="79" t="s">
         <v>274</v>
       </c>
-      <c r="C16" s="128">
+      <c r="C16" s="127">
         <v>3</v>
       </c>
-      <c r="D16" s="128" t="s">
+      <c r="D16" s="127" t="s">
         <v>295</v>
       </c>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
     </row>
     <row r="17" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="172"/>
-      <c r="B17" s="91" t="s">
+      <c r="A17" s="180"/>
+      <c r="B17" s="90" t="s">
         <v>275</v>
       </c>
-      <c r="C17" s="132">
+      <c r="C17" s="131">
         <v>3</v>
       </c>
-      <c r="D17" s="132" t="s">
+      <c r="D17" s="131" t="s">
         <v>295</v>
       </c>
       <c r="E17" s="44"/>
@@ -25381,7 +25463,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="52" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E18" s="53"/>
       <c r="F18" s="54"/>

--- a/WebContent/발표/3조 5차 요구사항정의서.xlsx
+++ b/WebContent/발표/3조 5차 요구사항정의서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a01_javaexp\project04\project05\WebContent\발표\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\507-14\Desktop\project05\WebContent\발표\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="356">
   <si>
     <t>구분</t>
   </si>
@@ -1030,27 +1030,9 @@
     <t>회원 가입</t>
   </si>
   <si>
-    <t>회원서비스</t>
-  </si>
-  <si>
-    <t>조립 컴퓨터</t>
-  </si>
-  <si>
-    <t>컴퓨터 부품</t>
-  </si>
-  <si>
     <t>컴퓨터 견적 문의</t>
   </si>
   <si>
-    <t>고객센터</t>
-  </si>
-  <si>
-    <t>마이페이지</t>
-  </si>
-  <si>
-    <t>내정보</t>
-  </si>
-  <si>
     <t>상품 관리</t>
   </si>
   <si>
@@ -1158,10 +1140,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>장바구니</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>결제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1214,38 +1192,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>전현규</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한송우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김형준,최민기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김형준,최민기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전현규</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>김형준</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>전현규</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전현규</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한송우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김형준,최민기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김형준,최민기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전현규</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김형준</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4월8일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1356,6 +1326,58 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>4월10일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월16일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월16일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월22일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월10일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월14일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월14일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월14일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월17일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월17일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월17일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월24일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2059,7 +2081,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2267,9 +2289,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2282,18 +2301,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2303,13 +2310,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2319,15 +2320,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2456,9 +2448,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2477,10 +2466,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2489,19 +2484,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2513,10 +2502,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2531,53 +2568,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2592,15 +2596,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2618,1132 +2613,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="5" name="그림 4"/>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$4" spid="_x0000_s1578"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="1247775" y="600075"/>
-              <a:ext cx="1333500" cy="638175"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="6" name="그림 5"/>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$7" spid="_x0000_s1579"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="1247775" y="1228725"/>
-              <a:ext cx="1333500" cy="647700"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>25</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="7" name="그림 6"/>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$N$10" spid="_x0000_s1580"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="1866900"/>
-              <a:ext cx="1257300" cy="4210050"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="8" name="그림 7"/>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$10" spid="_x0000_s1581"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="1247775" y="1866900"/>
-              <a:ext cx="1333500" cy="1057275"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="9" name="그림 8"/>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$14" spid="_x0000_s1582"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="1247775" y="2914650"/>
-              <a:ext cx="1333500" cy="847725"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="10" name="그림 9"/>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$17" spid="_x0000_s1583"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="1247775" y="3752850"/>
-              <a:ext cx="1333500" cy="428625"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="11" name="그림 10"/>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="#REF!" spid="_x0000_s1584"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="1247775" y="4171950"/>
-              <a:ext cx="1333500" cy="428625"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>1</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>20</xdr:row>
-          <xdr:rowOff>1</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="12" name="그림 11"/>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$19" spid="_x0000_s1585"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="1247775" y="3752851"/>
-              <a:ext cx="1333500" cy="419100"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>21</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>25</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="13" name="그림 12"/>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$22" spid="_x0000_s1586"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="1247775" y="5219700"/>
-              <a:ext cx="1333500" cy="857250"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>25</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>30</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="14" name="그림 13"/>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$N$26" spid="_x0000_s1587"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="6067425"/>
-              <a:ext cx="1257300" cy="1485900"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>30</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>39</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="15" name="그림 14"/>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$N$31" spid="_x0000_s1588"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="7543800"/>
-              <a:ext cx="1257300" cy="2324100"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>25</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>29</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="16" name="그림 15"/>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$26" spid="_x0000_s1589"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="1247775" y="6067425"/>
-              <a:ext cx="1333500" cy="847725"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>29</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>29</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="17" name="그림 16"/>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="#REF!" spid="_x0000_s1590"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="1247775" y="6905625"/>
-              <a:ext cx="1333500" cy="428625"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>30</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>32</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="18" name="그림 17"/>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$31" spid="_x0000_s1591"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="1247775" y="7543800"/>
-              <a:ext cx="1333500" cy="428625"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>32</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>35</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="19" name="그림 18"/>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$33" spid="_x0000_s1592"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="1247775" y="7962900"/>
-              <a:ext cx="1333500" cy="638175"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>35</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>35</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="20" name="그림 19"/>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="#REF!" spid="_x0000_s1593"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="1247775" y="8591550"/>
-              <a:ext cx="1333500" cy="428625"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>35</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>37</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="21" name="그림 20"/>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$36" spid="_x0000_s1594"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="1247775" y="9010650"/>
-              <a:ext cx="1333500" cy="428625"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>37</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>39</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="22" name="그림 21"/>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$O$38" spid="_x0000_s1595"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="1247775" y="9429750"/>
-              <a:ext cx="1333500" cy="438150"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="23" name="그림 22"/>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$N$4" spid="_x0000_s1596"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="600075"/>
-              <a:ext cx="1257300" cy="1276350"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4092,10 +2961,10 @@
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="148" t="s">
+      <c r="B3" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="139" t="s">
+      <c r="C3" s="134" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="15" t="s">
@@ -4112,8 +2981,8 @@
       <c r="K3" s="11"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="149"/>
-      <c r="C4" s="140"/>
+      <c r="B4" s="138"/>
+      <c r="C4" s="135"/>
       <c r="D4" s="13" t="s">
         <v>13</v>
       </c>
@@ -4128,8 +2997,8 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="149"/>
-      <c r="C5" s="143"/>
+      <c r="B5" s="138"/>
+      <c r="C5" s="136"/>
       <c r="D5" s="16" t="s">
         <v>15</v>
       </c>
@@ -4144,8 +3013,8 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="149"/>
-      <c r="C6" s="139" t="s">
+      <c r="B6" s="138"/>
+      <c r="C6" s="134" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="12" t="s">
@@ -4162,8 +3031,8 @@
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="149"/>
-      <c r="C7" s="140"/>
+      <c r="B7" s="138"/>
+      <c r="C7" s="135"/>
       <c r="D7" s="13" t="s">
         <v>20</v>
       </c>
@@ -4178,8 +3047,8 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="150"/>
-      <c r="C8" s="143"/>
+      <c r="B8" s="139"/>
+      <c r="C8" s="136"/>
       <c r="D8" s="16" t="s">
         <v>17</v>
       </c>
@@ -4196,10 +3065,10 @@
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="147" t="s">
+      <c r="B9" s="131" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="139" t="s">
+      <c r="C9" s="134" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="15" t="s">
@@ -4216,8 +3085,8 @@
       <c r="K9" s="11"/>
     </row>
     <row r="10" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="141"/>
-      <c r="C10" s="143"/>
+      <c r="B10" s="132"/>
+      <c r="C10" s="136"/>
       <c r="D10" s="17" t="s">
         <v>25</v>
       </c>
@@ -4232,11 +3101,11 @@
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="141"/>
-      <c r="C11" s="139" t="s">
+      <c r="B11" s="132"/>
+      <c r="C11" s="134" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="144" t="s">
+      <c r="D11" s="140" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="10" t="s">
@@ -4250,9 +3119,9 @@
       <c r="K11" s="11"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="141"/>
-      <c r="C12" s="140"/>
-      <c r="D12" s="146"/>
+      <c r="B12" s="132"/>
+      <c r="C12" s="135"/>
+      <c r="D12" s="141"/>
       <c r="E12" s="1" t="s">
         <v>34</v>
       </c>
@@ -4264,8 +3133,8 @@
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="141"/>
-      <c r="C13" s="140"/>
+      <c r="B13" s="132"/>
+      <c r="C13" s="135"/>
       <c r="D13" s="13" t="s">
         <v>31</v>
       </c>
@@ -4280,8 +3149,8 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="141"/>
-      <c r="C14" s="140"/>
+      <c r="B14" s="132"/>
+      <c r="C14" s="135"/>
       <c r="D14" s="13" t="s">
         <v>32</v>
       </c>
@@ -4296,8 +3165,8 @@
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="141"/>
-      <c r="C15" s="143"/>
+      <c r="B15" s="132"/>
+      <c r="C15" s="136"/>
       <c r="D15" s="17" t="s">
         <v>35</v>
       </c>
@@ -4314,8 +3183,8 @@
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="141"/>
-      <c r="C16" s="139" t="s">
+      <c r="B16" s="132"/>
+      <c r="C16" s="134" t="s">
         <v>38</v>
       </c>
       <c r="D16" s="15" t="s">
@@ -4332,8 +3201,8 @@
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="141"/>
-      <c r="C17" s="140"/>
+      <c r="B17" s="132"/>
+      <c r="C17" s="135"/>
       <c r="D17" s="13" t="s">
         <v>31</v>
       </c>
@@ -4348,8 +3217,8 @@
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="141"/>
-      <c r="C18" s="140"/>
+      <c r="B18" s="132"/>
+      <c r="C18" s="135"/>
       <c r="D18" s="13" t="s">
         <v>42</v>
       </c>
@@ -4364,8 +3233,8 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="142"/>
-      <c r="C19" s="143"/>
+      <c r="B19" s="133"/>
+      <c r="C19" s="136"/>
       <c r="D19" s="17" t="s">
         <v>35</v>
       </c>
@@ -4380,10 +3249,10 @@
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="147" t="s">
+      <c r="B20" s="131" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="139" t="s">
+      <c r="C20" s="134" t="s">
         <v>46</v>
       </c>
       <c r="D20" s="15" t="s">
@@ -4400,8 +3269,8 @@
       <c r="K20" s="11"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="141"/>
-      <c r="C21" s="140"/>
+      <c r="B21" s="132"/>
+      <c r="C21" s="135"/>
       <c r="D21" s="13" t="s">
         <v>48</v>
       </c>
@@ -4416,8 +3285,8 @@
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="141"/>
-      <c r="C22" s="143"/>
+      <c r="B22" s="132"/>
+      <c r="C22" s="136"/>
       <c r="D22" s="16" t="s">
         <v>52</v>
       </c>
@@ -4432,7 +3301,7 @@
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="141"/>
+      <c r="B23" s="132"/>
       <c r="C23" s="21" t="s">
         <v>54</v>
       </c>
@@ -4450,10 +3319,10 @@
       <c r="K23" s="20"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="147" t="s">
+      <c r="B24" s="131" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="139" t="s">
+      <c r="C24" s="134" t="s">
         <v>49</v>
       </c>
       <c r="D24" s="15" t="s">
@@ -4470,8 +3339,8 @@
       <c r="K24" s="11"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="141"/>
-      <c r="C25" s="140"/>
+      <c r="B25" s="132"/>
+      <c r="C25" s="135"/>
       <c r="D25" s="13" t="s">
         <v>59</v>
       </c>
@@ -4486,8 +3355,8 @@
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="141"/>
-      <c r="C26" s="143"/>
+      <c r="B26" s="132"/>
+      <c r="C26" s="136"/>
       <c r="D26" s="16" t="s">
         <v>61</v>
       </c>
@@ -4502,7 +3371,7 @@
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="141"/>
+      <c r="B27" s="132"/>
       <c r="C27" s="23" t="s">
         <v>56</v>
       </c>
@@ -4520,7 +3389,7 @@
       <c r="K27" s="20"/>
     </row>
     <row r="28" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="142"/>
+      <c r="B28" s="133"/>
       <c r="C28" s="23" t="s">
         <v>44</v>
       </c>
@@ -4558,10 +3427,10 @@
       <c r="K29" s="20"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="139" t="s">
+      <c r="B30" s="134" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="144" t="s">
+      <c r="C30" s="140" t="s">
         <v>71</v>
       </c>
       <c r="D30" s="15" t="s">
@@ -4578,8 +3447,8 @@
       <c r="K30" s="11"/>
     </row>
     <row r="31" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="140"/>
-      <c r="C31" s="145"/>
+      <c r="B31" s="135"/>
+      <c r="C31" s="142"/>
       <c r="D31" s="14" t="s">
         <v>74</v>
       </c>
@@ -4594,8 +3463,8 @@
       <c r="K31" s="27"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="141"/>
-      <c r="C32" s="139" t="s">
+      <c r="B32" s="132"/>
+      <c r="C32" s="134" t="s">
         <v>85</v>
       </c>
       <c r="D32" s="15" t="s">
@@ -4612,8 +3481,8 @@
       <c r="K32" s="11"/>
     </row>
     <row r="33" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="141"/>
-      <c r="C33" s="143"/>
+      <c r="B33" s="132"/>
+      <c r="C33" s="136"/>
       <c r="D33" s="16" t="s">
         <v>88</v>
       </c>
@@ -4628,8 +3497,8 @@
       <c r="K33" s="4"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="141"/>
-      <c r="C34" s="139" t="s">
+      <c r="B34" s="132"/>
+      <c r="C34" s="134" t="s">
         <v>90</v>
       </c>
       <c r="D34" s="15" t="s">
@@ -4646,8 +3515,8 @@
       <c r="K34" s="11"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="141"/>
-      <c r="C35" s="140"/>
+      <c r="B35" s="132"/>
+      <c r="C35" s="135"/>
       <c r="D35" s="13"/>
       <c r="E35" s="1" t="s">
         <v>34</v>
@@ -4660,8 +3529,8 @@
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="141"/>
-      <c r="C36" s="140"/>
+      <c r="B36" s="132"/>
+      <c r="C36" s="135"/>
       <c r="D36" s="13" t="s">
         <v>31</v>
       </c>
@@ -4676,8 +3545,8 @@
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="141"/>
-      <c r="C37" s="140"/>
+      <c r="B37" s="132"/>
+      <c r="C37" s="135"/>
       <c r="D37" s="13" t="s">
         <v>92</v>
       </c>
@@ -4692,8 +3561,8 @@
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="141"/>
-      <c r="C38" s="143"/>
+      <c r="B38" s="132"/>
+      <c r="C38" s="136"/>
       <c r="D38" s="16" t="s">
         <v>94</v>
       </c>
@@ -4708,8 +3577,8 @@
       <c r="K38" s="4"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="141"/>
-      <c r="C39" s="139" t="s">
+      <c r="B39" s="132"/>
+      <c r="C39" s="134" t="s">
         <v>38</v>
       </c>
       <c r="D39" s="15" t="s">
@@ -4726,8 +3595,8 @@
       <c r="K39" s="11"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="141"/>
-      <c r="C40" s="140"/>
+      <c r="B40" s="132"/>
+      <c r="C40" s="135"/>
       <c r="D40" s="13" t="s">
         <v>31</v>
       </c>
@@ -4742,8 +3611,8 @@
       <c r="K40" s="2"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="141"/>
-      <c r="C41" s="140"/>
+      <c r="B41" s="132"/>
+      <c r="C41" s="135"/>
       <c r="D41" s="13" t="s">
         <v>92</v>
       </c>
@@ -4758,8 +3627,8 @@
       <c r="K41" s="2"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="141"/>
-      <c r="C42" s="140"/>
+      <c r="B42" s="132"/>
+      <c r="C42" s="135"/>
       <c r="D42" s="13" t="s">
         <v>35</v>
       </c>
@@ -4774,8 +3643,8 @@
       <c r="K42" s="2"/>
     </row>
     <row r="43" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="141"/>
-      <c r="C43" s="143"/>
+      <c r="B43" s="132"/>
+      <c r="C43" s="136"/>
       <c r="D43" s="16" t="s">
         <v>97</v>
       </c>
@@ -4790,8 +3659,8 @@
       <c r="K43" s="4"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="141"/>
-      <c r="C44" s="139" t="s">
+      <c r="B44" s="132"/>
+      <c r="C44" s="134" t="s">
         <v>76</v>
       </c>
       <c r="D44" s="15" t="s">
@@ -4808,8 +3677,8 @@
       <c r="K44" s="11"/>
     </row>
     <row r="45" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="141"/>
-      <c r="C45" s="143"/>
+      <c r="B45" s="132"/>
+      <c r="C45" s="136"/>
       <c r="D45" s="16" t="s">
         <v>79</v>
       </c>
@@ -4824,8 +3693,8 @@
       <c r="K45" s="4"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="141"/>
-      <c r="C46" s="139" t="s">
+      <c r="B46" s="132"/>
+      <c r="C46" s="134" t="s">
         <v>81</v>
       </c>
       <c r="D46" s="15" t="s">
@@ -4842,8 +3711,8 @@
       <c r="K46" s="11"/>
     </row>
     <row r="47" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="141"/>
-      <c r="C47" s="143"/>
+      <c r="B47" s="132"/>
+      <c r="C47" s="136"/>
       <c r="D47" s="16" t="s">
         <v>83</v>
       </c>
@@ -4858,8 +3727,8 @@
       <c r="K47" s="4"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="141"/>
-      <c r="C48" s="139" t="s">
+      <c r="B48" s="132"/>
+      <c r="C48" s="134" t="s">
         <v>56</v>
       </c>
       <c r="D48" s="15" t="s">
@@ -4876,8 +3745,8 @@
       <c r="K48" s="11"/>
     </row>
     <row r="49" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="142"/>
-      <c r="C49" s="143"/>
+      <c r="B49" s="133"/>
+      <c r="C49" s="136"/>
       <c r="D49" s="16" t="s">
         <v>101</v>
       </c>
@@ -4893,18 +3762,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B9:B19"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C22"/>
     <mergeCell ref="B30:B49"/>
     <mergeCell ref="C39:C43"/>
     <mergeCell ref="C34:C38"/>
@@ -4913,6 +3770,18 @@
     <mergeCell ref="C48:C49"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B9:B19"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4942,15 +3811,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="162"/>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="164"/>
+      <c r="A1" s="147"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="149"/>
     </row>
     <row r="2" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
@@ -4982,21 +3851,21 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="153"/>
-      <c r="B3" s="154"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="154"/>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="155"/>
+      <c r="A3" s="158"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="160"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="156" t="s">
+      <c r="A4" s="161" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="159" t="s">
+      <c r="B4" s="155" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="37" t="s">
@@ -5012,8 +3881,8 @@
       <c r="I4" s="32"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="157"/>
-      <c r="B5" s="160"/>
+      <c r="A5" s="153"/>
+      <c r="B5" s="143"/>
       <c r="C5" s="38" t="s">
         <v>13</v>
       </c>
@@ -5027,8 +3896,8 @@
       <c r="I5" s="34"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="157"/>
-      <c r="B6" s="160"/>
+      <c r="A6" s="153"/>
+      <c r="B6" s="143"/>
       <c r="C6" s="38" t="s">
         <v>15</v>
       </c>
@@ -5042,8 +3911,8 @@
       <c r="I6" s="34"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="157"/>
-      <c r="B7" s="160" t="s">
+      <c r="A7" s="153"/>
+      <c r="B7" s="143" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="38" t="s">
@@ -5059,8 +3928,8 @@
       <c r="I7" s="34"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="157"/>
-      <c r="B8" s="160"/>
+      <c r="A8" s="153"/>
+      <c r="B8" s="143"/>
       <c r="C8" s="38" t="s">
         <v>20</v>
       </c>
@@ -5074,8 +3943,8 @@
       <c r="I8" s="34"/>
     </row>
     <row r="9" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="158"/>
-      <c r="B9" s="161"/>
+      <c r="A9" s="162"/>
+      <c r="B9" s="163"/>
       <c r="C9" s="39" t="s">
         <v>17</v>
       </c>
@@ -5089,10 +3958,10 @@
       <c r="I9" s="36"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="151" t="s">
+      <c r="A10" s="150" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="168" t="s">
+      <c r="B10" s="156" t="s">
         <v>103</v>
       </c>
       <c r="C10" s="37" t="s">
@@ -5108,8 +3977,8 @@
       <c r="I10" s="32"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="152"/>
-      <c r="B11" s="169"/>
+      <c r="A11" s="151"/>
+      <c r="B11" s="145"/>
       <c r="C11" s="38" t="s">
         <v>105</v>
       </c>
@@ -5123,8 +3992,8 @@
       <c r="I11" s="34"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="152"/>
-      <c r="B12" s="169"/>
+      <c r="A12" s="151"/>
+      <c r="B12" s="145"/>
       <c r="C12" s="38" t="s">
         <v>92</v>
       </c>
@@ -5138,8 +4007,8 @@
       <c r="I12" s="34"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="152"/>
-      <c r="B13" s="167"/>
+      <c r="A13" s="151"/>
+      <c r="B13" s="146"/>
       <c r="C13" s="38" t="s">
         <v>109</v>
       </c>
@@ -5155,8 +4024,8 @@
       <c r="I13" s="34"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="152"/>
-      <c r="B14" s="170" t="s">
+      <c r="A14" s="151"/>
+      <c r="B14" s="144" t="s">
         <v>180</v>
       </c>
       <c r="C14" s="38" t="s">
@@ -5172,8 +4041,8 @@
       <c r="I14" s="34"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="152"/>
-      <c r="B15" s="169"/>
+      <c r="A15" s="151"/>
+      <c r="B15" s="145"/>
       <c r="C15" s="38" t="s">
         <v>184</v>
       </c>
@@ -5187,8 +4056,8 @@
       <c r="I15" s="34"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="152"/>
-      <c r="B16" s="170" t="s">
+      <c r="A16" s="151"/>
+      <c r="B16" s="144" t="s">
         <v>111</v>
       </c>
       <c r="C16" s="58" t="s">
@@ -5204,8 +4073,8 @@
       <c r="I16" s="34"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="152"/>
-      <c r="B17" s="169"/>
+      <c r="A17" s="151"/>
+      <c r="B17" s="145"/>
       <c r="C17" s="38" t="s">
         <v>105</v>
       </c>
@@ -5219,8 +4088,8 @@
       <c r="I17" s="34"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="152"/>
-      <c r="B18" s="169"/>
+      <c r="A18" s="151"/>
+      <c r="B18" s="145"/>
       <c r="C18" s="38" t="s">
         <v>113</v>
       </c>
@@ -5236,8 +4105,8 @@
       <c r="I18" s="34"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="152"/>
-      <c r="B19" s="167"/>
+      <c r="A19" s="151"/>
+      <c r="B19" s="146"/>
       <c r="C19" s="38" t="s">
         <v>109</v>
       </c>
@@ -5251,8 +4120,8 @@
       <c r="I19" s="34"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="152"/>
-      <c r="B20" s="170" t="s">
+      <c r="A20" s="151"/>
+      <c r="B20" s="144" t="s">
         <v>193</v>
       </c>
       <c r="C20" s="59" t="s">
@@ -5268,8 +4137,8 @@
       <c r="I20" s="34"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="152"/>
-      <c r="B21" s="167"/>
+      <c r="A21" s="151"/>
+      <c r="B21" s="146"/>
       <c r="C21" s="59" t="s">
         <v>194</v>
       </c>
@@ -5283,8 +4152,8 @@
       <c r="I21" s="34"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="152"/>
-      <c r="B22" s="170" t="s">
+      <c r="A22" s="151"/>
+      <c r="B22" s="144" t="s">
         <v>115</v>
       </c>
       <c r="C22" s="38" t="s">
@@ -5300,8 +4169,8 @@
       <c r="I22" s="34"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="152"/>
-      <c r="B23" s="169"/>
+      <c r="A23" s="151"/>
+      <c r="B23" s="145"/>
       <c r="C23" s="38" t="s">
         <v>118</v>
       </c>
@@ -5315,8 +4184,8 @@
       <c r="I23" s="34"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="152"/>
-      <c r="B24" s="169"/>
+      <c r="A24" s="151"/>
+      <c r="B24" s="145"/>
       <c r="C24" s="38" t="s">
         <v>120</v>
       </c>
@@ -5330,8 +4199,8 @@
       <c r="I24" s="34"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="152"/>
-      <c r="B25" s="167"/>
+      <c r="A25" s="151"/>
+      <c r="B25" s="146"/>
       <c r="C25" s="38" t="s">
         <v>122</v>
       </c>
@@ -5345,8 +4214,8 @@
       <c r="I25" s="34"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="152"/>
-      <c r="B26" s="170" t="s">
+      <c r="A26" s="151"/>
+      <c r="B26" s="144" t="s">
         <v>174</v>
       </c>
       <c r="C26" s="38" t="s">
@@ -5362,8 +4231,8 @@
       <c r="I26" s="34"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="152"/>
-      <c r="B27" s="169"/>
+      <c r="A27" s="151"/>
+      <c r="B27" s="145"/>
       <c r="C27" s="38" t="s">
         <v>178</v>
       </c>
@@ -5377,8 +4246,8 @@
       <c r="I27" s="34"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="152"/>
-      <c r="B28" s="169"/>
+      <c r="A28" s="151"/>
+      <c r="B28" s="145"/>
       <c r="C28" s="38" t="s">
         <v>182</v>
       </c>
@@ -5392,8 +4261,8 @@
       <c r="I28" s="34"/>
     </row>
     <row r="29" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="152"/>
-      <c r="B29" s="169"/>
+      <c r="A29" s="151"/>
+      <c r="B29" s="145"/>
       <c r="C29" s="58" t="s">
         <v>176</v>
       </c>
@@ -5407,10 +4276,10 @@
       <c r="I29" s="45"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="151" t="s">
+      <c r="A30" s="150" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="159" t="s">
+      <c r="B30" s="155" t="s">
         <v>127</v>
       </c>
       <c r="C30" s="62" t="s">
@@ -5426,8 +4295,8 @@
       <c r="I30" s="32"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="152"/>
-      <c r="B31" s="160"/>
+      <c r="A31" s="151"/>
+      <c r="B31" s="143"/>
       <c r="C31" s="63" t="s">
         <v>129</v>
       </c>
@@ -5441,8 +4310,8 @@
       <c r="I31" s="34"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="152"/>
-      <c r="B32" s="160"/>
+      <c r="A32" s="151"/>
+      <c r="B32" s="143"/>
       <c r="C32" s="63" t="s">
         <v>132</v>
       </c>
@@ -5456,8 +4325,8 @@
       <c r="I32" s="34"/>
     </row>
     <row r="33" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A33" s="152"/>
-      <c r="B33" s="160"/>
+      <c r="A33" s="151"/>
+      <c r="B33" s="143"/>
       <c r="C33" s="63" t="s">
         <v>125</v>
       </c>
@@ -5471,8 +4340,8 @@
       <c r="I33" s="34"/>
     </row>
     <row r="34" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A34" s="152"/>
-      <c r="B34" s="160" t="s">
+      <c r="A34" s="151"/>
+      <c r="B34" s="143" t="s">
         <v>133</v>
       </c>
       <c r="C34" s="63" t="s">
@@ -5488,8 +4357,8 @@
       <c r="I34" s="45"/>
     </row>
     <row r="35" spans="1:16384" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="152"/>
-      <c r="B35" s="160"/>
+      <c r="A35" s="151"/>
+      <c r="B35" s="143"/>
       <c r="C35" s="63" t="s">
         <v>134</v>
       </c>
@@ -21878,8 +20747,8 @@
       <c r="XFD35" s="46"/>
     </row>
     <row r="36" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A36" s="152"/>
-      <c r="B36" s="160"/>
+      <c r="A36" s="151"/>
+      <c r="B36" s="143"/>
       <c r="C36" s="64" t="s">
         <v>187</v>
       </c>
@@ -21891,8 +20760,8 @@
       <c r="I36" s="56"/>
     </row>
     <row r="37" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A37" s="152"/>
-      <c r="B37" s="160" t="s">
+      <c r="A37" s="151"/>
+      <c r="B37" s="143" t="s">
         <v>136</v>
       </c>
       <c r="C37" s="63" t="s">
@@ -21908,8 +20777,8 @@
       <c r="I37" s="34"/>
     </row>
     <row r="38" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A38" s="152"/>
-      <c r="B38" s="160"/>
+      <c r="A38" s="151"/>
+      <c r="B38" s="143"/>
       <c r="C38" s="63" t="s">
         <v>92</v>
       </c>
@@ -21923,7 +20792,7 @@
       <c r="I38" s="34"/>
     </row>
     <row r="39" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A39" s="152"/>
+      <c r="A39" s="151"/>
       <c r="B39" s="57" t="s">
         <v>139</v>
       </c>
@@ -21940,10 +20809,10 @@
       <c r="I39" s="34"/>
     </row>
     <row r="40" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A40" s="165" t="s">
+      <c r="A40" s="152" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="167" t="s">
+      <c r="B40" s="146" t="s">
         <v>71</v>
       </c>
       <c r="C40" s="41" t="s">
@@ -21959,8 +20828,8 @@
       <c r="I40" s="56"/>
     </row>
     <row r="41" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A41" s="157"/>
-      <c r="B41" s="160"/>
+      <c r="A41" s="153"/>
+      <c r="B41" s="143"/>
       <c r="C41" s="40" t="s">
         <v>74</v>
       </c>
@@ -21974,8 +20843,8 @@
       <c r="I41" s="34"/>
     </row>
     <row r="42" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A42" s="157"/>
-      <c r="B42" s="160" t="s">
+      <c r="A42" s="153"/>
+      <c r="B42" s="143" t="s">
         <v>152</v>
       </c>
       <c r="C42" s="40" t="s">
@@ -21991,8 +20860,8 @@
       <c r="I42" s="34"/>
     </row>
     <row r="43" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A43" s="157"/>
-      <c r="B43" s="160"/>
+      <c r="A43" s="153"/>
+      <c r="B43" s="143"/>
       <c r="C43" s="40" t="s">
         <v>144</v>
       </c>
@@ -22006,11 +20875,11 @@
       <c r="I43" s="34"/>
     </row>
     <row r="44" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A44" s="157"/>
-      <c r="B44" s="160" t="s">
+      <c r="A44" s="153"/>
+      <c r="B44" s="143" t="s">
         <v>163</v>
       </c>
-      <c r="C44" s="170" t="s">
+      <c r="C44" s="144" t="s">
         <v>162</v>
       </c>
       <c r="D44" s="33" t="s">
@@ -22023,9 +20892,9 @@
       <c r="I44" s="34"/>
     </row>
     <row r="45" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A45" s="157"/>
-      <c r="B45" s="160"/>
-      <c r="C45" s="167"/>
+      <c r="A45" s="153"/>
+      <c r="B45" s="143"/>
+      <c r="C45" s="146"/>
       <c r="D45" s="33" t="s">
         <v>164</v>
       </c>
@@ -22036,8 +20905,8 @@
       <c r="I45" s="34"/>
     </row>
     <row r="46" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A46" s="157"/>
-      <c r="B46" s="160"/>
+      <c r="A46" s="153"/>
+      <c r="B46" s="143"/>
       <c r="C46" s="40" t="s">
         <v>112</v>
       </c>
@@ -22051,8 +20920,8 @@
       <c r="I46" s="34"/>
     </row>
     <row r="47" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A47" s="157"/>
-      <c r="B47" s="160"/>
+      <c r="A47" s="153"/>
+      <c r="B47" s="143"/>
       <c r="C47" s="40" t="s">
         <v>106</v>
       </c>
@@ -22066,8 +20935,8 @@
       <c r="I47" s="34"/>
     </row>
     <row r="48" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A48" s="157"/>
-      <c r="B48" s="160"/>
+      <c r="A48" s="153"/>
+      <c r="B48" s="143"/>
       <c r="C48" s="40" t="s">
         <v>147</v>
       </c>
@@ -22081,8 +20950,8 @@
       <c r="I48" s="34"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="157"/>
-      <c r="B49" s="160" t="s">
+      <c r="A49" s="153"/>
+      <c r="B49" s="143" t="s">
         <v>153</v>
       </c>
       <c r="C49" s="40" t="s">
@@ -22098,8 +20967,8 @@
       <c r="I49" s="34"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="157"/>
-      <c r="B50" s="160"/>
+      <c r="A50" s="153"/>
+      <c r="B50" s="143"/>
       <c r="C50" s="40" t="s">
         <v>112</v>
       </c>
@@ -22113,8 +20982,8 @@
       <c r="I50" s="34"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="157"/>
-      <c r="B51" s="160"/>
+      <c r="A51" s="153"/>
+      <c r="B51" s="143"/>
       <c r="C51" s="40" t="s">
         <v>106</v>
       </c>
@@ -22128,8 +20997,8 @@
       <c r="I51" s="34"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="157"/>
-      <c r="B52" s="160"/>
+      <c r="A52" s="153"/>
+      <c r="B52" s="143"/>
       <c r="C52" s="40" t="s">
         <v>147</v>
       </c>
@@ -22143,8 +21012,8 @@
       <c r="I52" s="34"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="157"/>
-      <c r="B53" s="170" t="s">
+      <c r="A53" s="153"/>
+      <c r="B53" s="144" t="s">
         <v>154</v>
       </c>
       <c r="C53" s="40" t="s">
@@ -22160,8 +21029,8 @@
       <c r="I53" s="34"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="157"/>
-      <c r="B54" s="169"/>
+      <c r="A54" s="153"/>
+      <c r="B54" s="145"/>
       <c r="C54" s="49" t="s">
         <v>159</v>
       </c>
@@ -22175,8 +21044,8 @@
       <c r="I54" s="34"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="157"/>
-      <c r="B55" s="160" t="s">
+      <c r="A55" s="153"/>
+      <c r="B55" s="143" t="s">
         <v>76</v>
       </c>
       <c r="C55" s="40" t="s">
@@ -22192,8 +21061,8 @@
       <c r="I55" s="34"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="157"/>
-      <c r="B56" s="160"/>
+      <c r="A56" s="153"/>
+      <c r="B56" s="143"/>
       <c r="C56" s="40" t="s">
         <v>79</v>
       </c>
@@ -22207,8 +21076,8 @@
       <c r="I56" s="34"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="157"/>
-      <c r="B57" s="170" t="s">
+      <c r="A57" s="153"/>
+      <c r="B57" s="144" t="s">
         <v>81</v>
       </c>
       <c r="C57" s="40" t="s">
@@ -22224,8 +21093,8 @@
       <c r="I57" s="34"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="166"/>
-      <c r="B58" s="167"/>
+      <c r="A58" s="154"/>
+      <c r="B58" s="146"/>
       <c r="C58" s="50" t="s">
         <v>167</v>
       </c>
@@ -22239,8 +21108,8 @@
       <c r="I58" s="45"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="166"/>
-      <c r="B59" s="170" t="s">
+      <c r="A59" s="154"/>
+      <c r="B59" s="144" t="s">
         <v>172</v>
       </c>
       <c r="C59" s="50" t="s">
@@ -22256,8 +21125,8 @@
       <c r="I59" s="45"/>
     </row>
     <row r="60" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="166"/>
-      <c r="B60" s="171"/>
+      <c r="A60" s="154"/>
+      <c r="B60" s="157"/>
       <c r="C60" s="42" t="s">
         <v>171</v>
       </c>
@@ -22520,11 +21389,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A30:A39"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A10:A29"/>
     <mergeCell ref="A40:A60"/>
@@ -22541,11 +21410,11 @@
     <mergeCell ref="C44:C45"/>
     <mergeCell ref="B59:B60"/>
     <mergeCell ref="B44:B48"/>
-    <mergeCell ref="A30:A39"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B20:B21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22567,11 +21436,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -22580,27 +21449,25 @@
     <col min="2" max="2" width="17.375" customWidth="1"/>
     <col min="3" max="3" width="19.75" customWidth="1"/>
     <col min="4" max="4" width="86.5" customWidth="1"/>
-    <col min="5" max="5" width="47.5" customWidth="1"/>
-    <col min="6" max="6" width="7" customWidth="1"/>
+    <col min="5" max="5" width="47.5" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="7" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="11.25" customWidth="1"/>
     <col min="8" max="8" width="5.375" customWidth="1"/>
     <col min="9" max="9" width="5.75" customWidth="1"/>
-    <col min="14" max="14" width="16.375" customWidth="1"/>
-    <col min="15" max="15" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="162"/>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="164"/>
-    </row>
-    <row r="2" spans="1:15" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="147"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="149"/>
+    </row>
+    <row r="2" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
@@ -22629,25 +21496,25 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="153"/>
-      <c r="B3" s="154"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="154"/>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="155"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="74" t="s">
+    <row r="3" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="158"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="160"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="98" t="s">
+      <c r="C4" s="88" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="31" t="s">
@@ -22655,24 +21522,16 @@
       </c>
       <c r="E4" s="31"/>
       <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
+      <c r="G4" s="156" t="s">
+        <v>284</v>
+      </c>
       <c r="H4" s="31"/>
       <c r="I4" s="32"/>
-      <c r="N4" s="172" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="172" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="75" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="79" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="99" t="s">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="151"/>
+      <c r="B5" s="145"/>
+      <c r="C5" s="89" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="33" t="s">
@@ -22680,20 +21539,14 @@
       </c>
       <c r="E5" s="33"/>
       <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
+      <c r="G5" s="145"/>
       <c r="H5" s="33"/>
       <c r="I5" s="34"/>
-      <c r="N5" s="172"/>
-      <c r="O5" s="172"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="75" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="79" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="99" t="s">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="151"/>
+      <c r="B6" s="146"/>
+      <c r="C6" s="89" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="33" t="s">
@@ -22701,20 +21554,16 @@
       </c>
       <c r="E6" s="33"/>
       <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
+      <c r="G6" s="145"/>
       <c r="H6" s="33"/>
       <c r="I6" s="34"/>
-      <c r="N6" s="172"/>
-      <c r="O6" s="172"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="75" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="79" t="s">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="151"/>
+      <c r="B7" s="144" t="s">
         <v>253</v>
       </c>
-      <c r="C7" s="99" t="s">
+      <c r="C7" s="89" t="s">
         <v>255</v>
       </c>
       <c r="D7" s="33" t="s">
@@ -22722,22 +21571,14 @@
       </c>
       <c r="E7" s="65"/>
       <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
+      <c r="G7" s="145"/>
       <c r="H7" s="33"/>
       <c r="I7" s="34"/>
-      <c r="N7" s="172"/>
-      <c r="O7" s="172" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="75" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="79" t="s">
-        <v>265</v>
-      </c>
-      <c r="C8" s="99" t="s">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="151"/>
+      <c r="B8" s="145"/>
+      <c r="C8" s="89" t="s">
         <v>254</v>
       </c>
       <c r="D8" s="33" t="s">
@@ -22745,20 +21586,14 @@
       </c>
       <c r="E8" s="67"/>
       <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
+      <c r="G8" s="145"/>
       <c r="H8" s="33"/>
       <c r="I8" s="34"/>
-      <c r="N8" s="172"/>
-      <c r="O8" s="172"/>
-    </row>
-    <row r="9" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="76" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="80" t="s">
-        <v>265</v>
-      </c>
-      <c r="C9" s="100" t="s">
+    </row>
+    <row r="9" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="164"/>
+      <c r="B9" s="157"/>
+      <c r="C9" s="90" t="s">
         <v>253</v>
       </c>
       <c r="D9" s="35" t="s">
@@ -22766,20 +21601,18 @@
       </c>
       <c r="E9" s="66"/>
       <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
+      <c r="G9" s="157"/>
       <c r="H9" s="35"/>
       <c r="I9" s="36"/>
-      <c r="N9" s="172"/>
-      <c r="O9" s="172"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="81" t="s">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="150" t="s">
         <v>198</v>
       </c>
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="156" t="s">
         <v>199</v>
       </c>
-      <c r="C10" s="106" t="s">
+      <c r="C10" s="96" t="s">
         <v>200</v>
       </c>
       <c r="D10" s="31" t="s">
@@ -22789,24 +21622,16 @@
         <v>202</v>
       </c>
       <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
+      <c r="G10" s="156" t="s">
+        <v>288</v>
+      </c>
       <c r="H10" s="31"/>
       <c r="I10" s="32"/>
-      <c r="N10" s="172" t="s">
-        <v>23</v>
-      </c>
-      <c r="O10" s="172" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="83" t="s">
-        <v>266</v>
-      </c>
-      <c r="B11" s="84" t="s">
-        <v>267</v>
-      </c>
-      <c r="C11" s="107" t="s">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="151"/>
+      <c r="B11" s="145"/>
+      <c r="C11" s="97" t="s">
         <v>203</v>
       </c>
       <c r="D11" s="33" t="s">
@@ -22816,20 +21641,14 @@
         <v>205</v>
       </c>
       <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
+      <c r="G11" s="145"/>
       <c r="H11" s="33"/>
       <c r="I11" s="34"/>
-      <c r="N11" s="172"/>
-      <c r="O11" s="172"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="83" t="s">
-        <v>266</v>
-      </c>
-      <c r="B12" s="84" t="s">
-        <v>267</v>
-      </c>
-      <c r="C12" s="107" t="s">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="151"/>
+      <c r="B12" s="145"/>
+      <c r="C12" s="97" t="s">
         <v>206</v>
       </c>
       <c r="D12" s="33" t="s">
@@ -22839,20 +21658,14 @@
         <v>208</v>
       </c>
       <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
+      <c r="G12" s="145"/>
       <c r="H12" s="33"/>
       <c r="I12" s="34"/>
-      <c r="N12" s="172"/>
-      <c r="O12" s="172"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="83" t="s">
-        <v>266</v>
-      </c>
-      <c r="B13" s="84" t="s">
-        <v>267</v>
-      </c>
-      <c r="C13" s="107" t="s">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="151"/>
+      <c r="B13" s="146"/>
+      <c r="C13" s="97" t="s">
         <v>209</v>
       </c>
       <c r="D13" s="33" t="s">
@@ -22860,20 +21673,16 @@
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
+      <c r="G13" s="146"/>
       <c r="H13" s="33"/>
       <c r="I13" s="34"/>
-      <c r="N13" s="172"/>
-      <c r="O13" s="172"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="83" t="s">
-        <v>266</v>
-      </c>
-      <c r="B14" s="86" t="s">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="151"/>
+      <c r="B14" s="144" t="s">
         <v>216</v>
       </c>
-      <c r="C14" s="108" t="s">
+      <c r="C14" s="98" t="s">
         <v>217</v>
       </c>
       <c r="D14" s="33" t="s">
@@ -22883,22 +21692,16 @@
         <v>219</v>
       </c>
       <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
+      <c r="G14" s="144" t="s">
+        <v>288</v>
+      </c>
       <c r="H14" s="33"/>
       <c r="I14" s="34"/>
-      <c r="N14" s="172"/>
-      <c r="O14" s="172" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="83" t="s">
-        <v>266</v>
-      </c>
-      <c r="B15" s="84" t="s">
-        <v>268</v>
-      </c>
-      <c r="C15" s="107" t="s">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="151"/>
+      <c r="B15" s="145"/>
+      <c r="C15" s="97" t="s">
         <v>220</v>
       </c>
       <c r="D15" s="33" t="s">
@@ -22908,20 +21711,14 @@
         <v>205</v>
       </c>
       <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
+      <c r="G15" s="145"/>
       <c r="H15" s="33"/>
       <c r="I15" s="34"/>
-      <c r="N15" s="172"/>
-      <c r="O15" s="172"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="83" t="s">
-        <v>266</v>
-      </c>
-      <c r="B16" s="84" t="s">
-        <v>268</v>
-      </c>
-      <c r="C16" s="107" t="s">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="151"/>
+      <c r="B16" s="146"/>
+      <c r="C16" s="97" t="s">
         <v>222</v>
       </c>
       <c r="D16" s="33" t="s">
@@ -22931,91 +21728,71 @@
         <v>224</v>
       </c>
       <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
+      <c r="G16" s="146"/>
       <c r="H16" s="33"/>
       <c r="I16" s="34"/>
-      <c r="N16" s="172"/>
-      <c r="O16" s="172"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="83" t="s">
-        <v>266</v>
-      </c>
-      <c r="B17" s="86" t="s">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="151"/>
+      <c r="B17" s="144" t="s">
         <v>211</v>
       </c>
-      <c r="C17" s="104" t="s">
+      <c r="C17" s="94" t="s">
         <v>212</v>
       </c>
       <c r="D17" s="33" t="s">
         <v>213</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
+      <c r="G17" s="144" t="s">
+        <v>292</v>
+      </c>
       <c r="H17" s="33"/>
       <c r="I17" s="34"/>
-      <c r="N17" s="172"/>
-      <c r="O17" s="172" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="83" t="s">
-        <v>266</v>
-      </c>
-      <c r="B18" s="84" t="s">
-        <v>269</v>
-      </c>
-      <c r="C18" s="104" t="s">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="151"/>
+      <c r="B18" s="146"/>
+      <c r="C18" s="94" t="s">
         <v>214</v>
       </c>
       <c r="D18" s="33" t="s">
         <v>215</v>
       </c>
       <c r="E18" s="33" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
+      <c r="G18" s="146"/>
       <c r="H18" s="33"/>
       <c r="I18" s="34"/>
-      <c r="N18" s="172"/>
-      <c r="O18" s="172"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="83" t="s">
-        <v>266</v>
-      </c>
-      <c r="B19" s="86" t="s">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="151"/>
+      <c r="B19" s="144" t="s">
         <v>115</v>
       </c>
-      <c r="C19" s="109" t="s">
+      <c r="C19" s="99" t="s">
         <v>116</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E19" s="33"/>
       <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
+      <c r="G19" s="145" t="s">
+        <v>291</v>
+      </c>
       <c r="H19" s="33"/>
       <c r="I19" s="34"/>
-      <c r="N19" s="172"/>
-      <c r="O19" s="172" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="83" t="s">
-        <v>266</v>
-      </c>
-      <c r="B20" s="84" t="s">
-        <v>115</v>
-      </c>
-      <c r="C20" s="109" t="s">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="151"/>
+      <c r="B20" s="146"/>
+      <c r="C20" s="99" t="s">
         <v>118</v>
       </c>
       <c r="D20" s="33" t="s">
@@ -23023,41 +21800,33 @@
       </c>
       <c r="E20" s="33"/>
       <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
+      <c r="G20" s="145"/>
       <c r="H20" s="33"/>
       <c r="I20" s="34"/>
-      <c r="N20" s="172"/>
-      <c r="O20" s="172"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="83" t="s">
-        <v>266</v>
-      </c>
-      <c r="B21" s="84" t="s">
-        <v>302</v>
-      </c>
-      <c r="C21" s="109" t="s">
-        <v>312</v>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="151"/>
+      <c r="B21" s="129" t="s">
+        <v>295</v>
+      </c>
+      <c r="C21" s="99" t="s">
+        <v>305</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="E21" s="33"/>
       <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
+      <c r="G21" s="146"/>
       <c r="H21" s="33"/>
       <c r="I21" s="34"/>
-      <c r="N21" s="172"/>
-      <c r="O21" s="132"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="83" t="s">
-        <v>266</v>
-      </c>
-      <c r="B22" s="86" t="s">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="151"/>
+      <c r="B22" s="144" t="s">
         <v>225</v>
       </c>
-      <c r="C22" s="104" t="s">
+      <c r="C22" s="94" t="s">
         <v>226</v>
       </c>
       <c r="D22" s="33" t="s">
@@ -23065,22 +21834,16 @@
       </c>
       <c r="E22" s="33"/>
       <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
+      <c r="G22" s="144" t="s">
+        <v>285</v>
+      </c>
       <c r="H22" s="33"/>
       <c r="I22" s="34"/>
-      <c r="N22" s="172"/>
-      <c r="O22" s="172" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="83" t="s">
-        <v>266</v>
-      </c>
-      <c r="B23" s="84" t="s">
-        <v>270</v>
-      </c>
-      <c r="C23" s="104" t="s">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="151"/>
+      <c r="B23" s="145"/>
+      <c r="C23" s="94" t="s">
         <v>228</v>
       </c>
       <c r="D23" s="33" t="s">
@@ -23088,41 +21851,29 @@
       </c>
       <c r="E23" s="33"/>
       <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
+      <c r="G23" s="145"/>
       <c r="H23" s="33"/>
       <c r="I23" s="34"/>
-      <c r="N23" s="172"/>
-      <c r="O23" s="172"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="83" t="s">
-        <v>266</v>
-      </c>
-      <c r="B24" s="84" t="s">
-        <v>270</v>
-      </c>
-      <c r="C24" s="104" t="s">
-        <v>280</v>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="151"/>
+      <c r="B24" s="145"/>
+      <c r="C24" s="94" t="s">
+        <v>274</v>
       </c>
       <c r="D24" s="33" t="s">
         <v>181</v>
       </c>
       <c r="E24" s="33"/>
       <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
+      <c r="G24" s="146"/>
       <c r="H24" s="33"/>
       <c r="I24" s="34"/>
-      <c r="N24" s="172"/>
-      <c r="O24" s="172"/>
-    </row>
-    <row r="25" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="83" t="s">
-        <v>266</v>
-      </c>
-      <c r="B25" s="84" t="s">
-        <v>270</v>
-      </c>
-      <c r="C25" s="105" t="s">
+    </row>
+    <row r="25" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="164"/>
+      <c r="B25" s="157"/>
+      <c r="C25" s="95" t="s">
         <v>230</v>
       </c>
       <c r="D25" s="44" t="s">
@@ -23130,20 +21881,20 @@
       </c>
       <c r="E25" s="44"/>
       <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
+      <c r="G25" s="130" t="s">
+        <v>290</v>
+      </c>
       <c r="H25" s="44"/>
       <c r="I25" s="45"/>
-      <c r="N25" s="172"/>
-      <c r="O25" s="172"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="81" t="s">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="150" t="s">
         <v>232</v>
       </c>
-      <c r="B26" s="78" t="s">
+      <c r="B26" s="156" t="s">
         <v>233</v>
       </c>
-      <c r="C26" s="101" t="s">
+      <c r="C26" s="91" t="s">
         <v>126</v>
       </c>
       <c r="D26" s="31" t="s">
@@ -23151,24 +21902,16 @@
       </c>
       <c r="E26" s="31"/>
       <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
+      <c r="G26" s="156" t="s">
+        <v>286</v>
+      </c>
       <c r="H26" s="31"/>
       <c r="I26" s="32"/>
-      <c r="N26" s="172" t="s">
-        <v>45</v>
-      </c>
-      <c r="O26" s="172" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="83" t="s">
-        <v>271</v>
-      </c>
-      <c r="B27" s="79" t="s">
-        <v>272</v>
-      </c>
-      <c r="C27" s="102" t="s">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="151"/>
+      <c r="B27" s="145"/>
+      <c r="C27" s="92" t="s">
         <v>129</v>
       </c>
       <c r="D27" s="33" t="s">
@@ -23176,20 +21919,14 @@
       </c>
       <c r="E27" s="33"/>
       <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
+      <c r="G27" s="146"/>
       <c r="H27" s="33"/>
       <c r="I27" s="34"/>
-      <c r="N27" s="172"/>
-      <c r="O27" s="172"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="83" t="s">
-        <v>271</v>
-      </c>
-      <c r="B28" s="79" t="s">
-        <v>272</v>
-      </c>
-      <c r="C28" s="110" t="s">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="151"/>
+      <c r="B28" s="145"/>
+      <c r="C28" s="100" t="s">
         <v>236</v>
       </c>
       <c r="D28" s="33" t="s">
@@ -23197,20 +21934,16 @@
       </c>
       <c r="E28" s="33"/>
       <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
+      <c r="G28" s="144" t="s">
+        <v>289</v>
+      </c>
       <c r="H28" s="33"/>
       <c r="I28" s="34"/>
-      <c r="N28" s="172"/>
-      <c r="O28" s="172"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="83" t="s">
-        <v>271</v>
-      </c>
-      <c r="B29" s="79" t="s">
-        <v>272</v>
-      </c>
-      <c r="C29" s="110" t="s">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="151"/>
+      <c r="B29" s="146"/>
+      <c r="C29" s="100" t="s">
         <v>125</v>
       </c>
       <c r="D29" s="33" t="s">
@@ -23218,20 +21951,16 @@
       </c>
       <c r="E29" s="33"/>
       <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
+      <c r="G29" s="145"/>
       <c r="H29" s="33"/>
       <c r="I29" s="34"/>
-      <c r="N29" s="172"/>
-      <c r="O29" s="172"/>
-    </row>
-    <row r="30" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="87" t="s">
-        <v>271</v>
-      </c>
-      <c r="B30" s="68" t="s">
+    </row>
+    <row r="30" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="164"/>
+      <c r="B30" s="128" t="s">
         <v>239</v>
       </c>
-      <c r="C30" s="111" t="s">
+      <c r="C30" s="101" t="s">
         <v>240</v>
       </c>
       <c r="D30" s="35" t="s">
@@ -23241,22 +21970,18 @@
         <v>256</v>
       </c>
       <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
+      <c r="G30" s="157"/>
       <c r="H30" s="35"/>
       <c r="I30" s="36"/>
-      <c r="N30" s="172"/>
-      <c r="O30" s="77" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="88" t="s">
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="150" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="85" t="s">
+      <c r="B31" s="156" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="103" t="s">
+      <c r="C31" s="93" t="s">
         <v>72</v>
       </c>
       <c r="D31" s="55" t="s">
@@ -23264,45 +21989,33 @@
       </c>
       <c r="E31" s="55"/>
       <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
+      <c r="G31" s="156" t="s">
+        <v>287</v>
+      </c>
       <c r="H31" s="55"/>
       <c r="I31" s="56"/>
-      <c r="N31" s="172" t="s">
-        <v>67</v>
-      </c>
-      <c r="O31" s="172" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="B32" s="79" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="99" t="s">
-        <v>300</v>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="151"/>
+      <c r="B32" s="146"/>
+      <c r="C32" s="89" t="s">
+        <v>294</v>
       </c>
       <c r="D32" s="33" t="s">
         <v>75</v>
       </c>
       <c r="E32" s="33"/>
       <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
+      <c r="G32" s="146"/>
       <c r="H32" s="33"/>
       <c r="I32" s="34"/>
-      <c r="N32" s="172"/>
-      <c r="O32" s="172"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33" s="86" t="s">
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="151"/>
+      <c r="B33" s="144" t="s">
         <v>257</v>
       </c>
-      <c r="C33" s="107" t="s">
+      <c r="C33" s="97" t="s">
         <v>258</v>
       </c>
       <c r="D33" s="33" t="s">
@@ -23310,22 +22023,16 @@
       </c>
       <c r="E33" s="33"/>
       <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
+      <c r="G33" s="144" t="s">
+        <v>288</v>
+      </c>
       <c r="H33" s="33"/>
       <c r="I33" s="34"/>
-      <c r="N33" s="172"/>
-      <c r="O33" s="172" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="84" t="s">
-        <v>273</v>
-      </c>
-      <c r="C34" s="107" t="s">
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="151"/>
+      <c r="B34" s="145"/>
+      <c r="C34" s="97" t="s">
         <v>260</v>
       </c>
       <c r="D34" s="33" t="s">
@@ -23333,20 +22040,14 @@
       </c>
       <c r="E34" s="33"/>
       <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
+      <c r="G34" s="145"/>
       <c r="H34" s="33"/>
       <c r="I34" s="34"/>
-      <c r="N34" s="172"/>
-      <c r="O34" s="172"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" s="85" t="s">
-        <v>273</v>
-      </c>
-      <c r="C35" s="107" t="s">
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="151"/>
+      <c r="B35" s="146"/>
+      <c r="C35" s="97" t="s">
         <v>259</v>
       </c>
       <c r="D35" s="33" t="s">
@@ -23356,20 +22057,16 @@
         <v>264</v>
       </c>
       <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
+      <c r="G35" s="146"/>
       <c r="H35" s="33"/>
       <c r="I35" s="34"/>
-      <c r="N35" s="172"/>
-      <c r="O35" s="172"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="B36" s="86" t="s">
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="151"/>
+      <c r="B36" s="144" t="s">
         <v>242</v>
       </c>
-      <c r="C36" s="109" t="s">
+      <c r="C36" s="99" t="s">
         <v>243</v>
       </c>
       <c r="D36" s="33" t="s">
@@ -23379,22 +22076,16 @@
         <v>245</v>
       </c>
       <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
+      <c r="G36" s="144" t="s">
+        <v>291</v>
+      </c>
       <c r="H36" s="33"/>
       <c r="I36" s="34"/>
-      <c r="N36" s="172"/>
-      <c r="O36" s="172" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="B37" s="84" t="s">
-        <v>274</v>
-      </c>
-      <c r="C37" s="109" t="s">
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="151"/>
+      <c r="B37" s="146"/>
+      <c r="C37" s="99" t="s">
         <v>246</v>
       </c>
       <c r="D37" s="33" t="s">
@@ -23404,21 +22095,17 @@
         <v>248</v>
       </c>
       <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
+      <c r="G37" s="145"/>
       <c r="H37" s="33"/>
       <c r="I37" s="34"/>
-      <c r="N37" s="172"/>
-      <c r="O37" s="172"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" s="89" t="s">
-        <v>67</v>
-      </c>
-      <c r="B38" s="86" t="s">
-        <v>276</v>
-      </c>
-      <c r="C38" s="105" t="s">
-        <v>277</v>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="151"/>
+      <c r="B38" s="144" t="s">
+        <v>270</v>
+      </c>
+      <c r="C38" s="95" t="s">
+        <v>271</v>
       </c>
       <c r="D38" s="44" t="s">
         <v>249</v>
@@ -23427,23 +22114,15 @@
         <v>250</v>
       </c>
       <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
+      <c r="G38" s="145"/>
       <c r="H38" s="44"/>
       <c r="I38" s="45"/>
-      <c r="N38" s="172"/>
-      <c r="O38" s="172" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="89" t="s">
-        <v>67</v>
-      </c>
-      <c r="B39" s="90" t="s">
-        <v>276</v>
-      </c>
-      <c r="C39" s="105" t="s">
-        <v>278</v>
+    </row>
+    <row r="39" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="164"/>
+      <c r="B39" s="157"/>
+      <c r="C39" s="95" t="s">
+        <v>272</v>
       </c>
       <c r="D39" s="44" t="s">
         <v>251</v>
@@ -23452,20 +22131,18 @@
         <v>252</v>
       </c>
       <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
+      <c r="G39" s="157"/>
       <c r="H39" s="44"/>
       <c r="I39" s="45"/>
-      <c r="N39" s="172"/>
-      <c r="O39" s="172"/>
-    </row>
-    <row r="40" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="69" t="s">
+    </row>
+    <row r="40" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="B40" s="70" t="s">
+      <c r="B40" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="C40" s="112" t="s">
+      <c r="C40" s="102" t="s">
         <v>69</v>
       </c>
       <c r="D40" s="53" t="s">
@@ -23473,12 +22150,14 @@
       </c>
       <c r="E40" s="53"/>
       <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
+      <c r="G40" s="52" t="s">
+        <v>283</v>
+      </c>
       <c r="H40" s="53"/>
       <c r="I40" s="54"/>
       <c r="J40" s="48"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="46"/>
       <c r="B41" s="46"/>
       <c r="C41" s="46"/>
@@ -23490,7 +22169,7 @@
       <c r="I41" s="47"/>
       <c r="J41" s="48"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="46"/>
       <c r="B42" s="46"/>
       <c r="C42" s="46"/>
@@ -23502,7 +22181,7 @@
       <c r="I42" s="47"/>
       <c r="J42" s="48"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="46"/>
       <c r="B43" s="46"/>
       <c r="C43" s="46"/>
@@ -23514,7 +22193,7 @@
       <c r="I43" s="47"/>
       <c r="J43" s="48"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="46"/>
       <c r="B44" s="46"/>
       <c r="C44" s="46"/>
@@ -23526,7 +22205,7 @@
       <c r="I44" s="47"/>
       <c r="J44" s="48"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="46"/>
       <c r="B45" s="46"/>
       <c r="C45" s="46"/>
@@ -23538,7 +22217,7 @@
       <c r="I45" s="47"/>
       <c r="J45" s="48"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="46"/>
       <c r="B46" s="46"/>
       <c r="C46" s="46"/>
@@ -23550,7 +22229,7 @@
       <c r="I46" s="47"/>
       <c r="J46" s="48"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="46"/>
       <c r="B47" s="46"/>
       <c r="C47" s="46"/>
@@ -23562,7 +22241,7 @@
       <c r="I47" s="47"/>
       <c r="J47" s="48"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="46"/>
       <c r="B48" s="46"/>
       <c r="C48" s="46"/>
@@ -23707,31 +22386,40 @@
       <c r="J59" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="N26:N30"/>
-    <mergeCell ref="O26:O29"/>
-    <mergeCell ref="N31:N39"/>
-    <mergeCell ref="O31:O32"/>
-    <mergeCell ref="O33:O35"/>
-    <mergeCell ref="O36:O37"/>
-    <mergeCell ref="O38:O39"/>
-    <mergeCell ref="N10:N25"/>
-    <mergeCell ref="O10:O13"/>
-    <mergeCell ref="O14:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O22:O25"/>
-    <mergeCell ref="O19:O20"/>
+  <mergeCells count="29">
+    <mergeCell ref="A10:A25"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A31:A39"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="G22:G24"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="N4:N9"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="O7:O9"/>
+    <mergeCell ref="G4:G9"/>
+    <mergeCell ref="A4:A9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -23739,8 +22427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -23748,1061 +22436,1109 @@
     <col min="1" max="1" width="16.375" customWidth="1"/>
     <col min="2" max="2" width="17.375" customWidth="1"/>
     <col min="3" max="3" width="19.75" customWidth="1"/>
-    <col min="4" max="4" width="7" style="119" customWidth="1"/>
-    <col min="5" max="5" width="11.25" style="119" customWidth="1"/>
-    <col min="6" max="6" width="5.375" style="119" customWidth="1"/>
-    <col min="7" max="9" width="8.5" style="119" customWidth="1"/>
-    <col min="10" max="10" width="8.25" style="119" customWidth="1"/>
-    <col min="11" max="11" width="5.375" style="119" customWidth="1"/>
-    <col min="12" max="12" width="7.125" style="119" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="7.125" style="119" customWidth="1"/>
-    <col min="15" max="15" width="7.125" style="119" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="109" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="109" customWidth="1"/>
+    <col min="6" max="6" width="5.375" style="109" customWidth="1"/>
+    <col min="7" max="9" width="8.5" style="109" customWidth="1"/>
+    <col min="10" max="10" width="8.25" style="109" customWidth="1"/>
+    <col min="11" max="11" width="5.375" style="109" customWidth="1"/>
+    <col min="12" max="12" width="7.125" style="109" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="7.125" style="109" customWidth="1"/>
+    <col min="15" max="15" width="7.125" style="109" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="113"/>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="129"/>
-      <c r="N1" s="129"/>
-      <c r="O1" s="94"/>
+      <c r="A1" s="103"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="84"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="178" t="s">
+      <c r="A2" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="173" t="s">
+      <c r="B2" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="173" t="s">
+      <c r="C2" s="167" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="173" t="s">
+      <c r="D2" s="167" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="173" t="s">
+      <c r="E2" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="173" t="s">
+      <c r="F2" s="167" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="173" t="s">
-        <v>283</v>
-      </c>
-      <c r="H2" s="175" t="s">
-        <v>282</v>
-      </c>
-      <c r="I2" s="176"/>
-      <c r="J2" s="177"/>
-      <c r="K2" s="173" t="s">
-        <v>281</v>
-      </c>
-      <c r="L2" s="173" t="s">
+      <c r="G2" s="167" t="s">
+        <v>277</v>
+      </c>
+      <c r="H2" s="169" t="s">
+        <v>276</v>
+      </c>
+      <c r="I2" s="170"/>
+      <c r="J2" s="171"/>
+      <c r="K2" s="167" t="s">
+        <v>275</v>
+      </c>
+      <c r="L2" s="167" t="s">
+        <v>278</v>
+      </c>
+      <c r="M2" s="169" t="s">
+        <v>279</v>
+      </c>
+      <c r="N2" s="170"/>
+      <c r="O2" s="171"/>
+    </row>
+    <row r="3" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="166"/>
+      <c r="B3" s="168"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="122" t="s">
+        <v>297</v>
+      </c>
+      <c r="I3" s="122" t="s">
+        <v>298</v>
+      </c>
+      <c r="J3" s="122" t="s">
+        <v>299</v>
+      </c>
+      <c r="K3" s="168"/>
+      <c r="L3" s="168"/>
+      <c r="M3" s="122" t="s">
+        <v>300</v>
+      </c>
+      <c r="N3" s="122" t="s">
+        <v>301</v>
+      </c>
+      <c r="O3" s="122" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="105"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="115"/>
+      <c r="N4" s="115"/>
+      <c r="O4" s="86"/>
+    </row>
+    <row r="5" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="150" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="156" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="88" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="85">
+        <v>1</v>
+      </c>
+      <c r="E5" s="156" t="s">
         <v>284</v>
       </c>
-      <c r="M2" s="175" t="s">
+      <c r="F5" s="85"/>
+      <c r="G5" s="113" t="s">
+        <v>314</v>
+      </c>
+      <c r="H5" s="113"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="123"/>
+      <c r="K5" s="110"/>
+      <c r="L5" s="123" t="s">
+        <v>315</v>
+      </c>
+      <c r="M5" s="110"/>
+      <c r="N5" s="110"/>
+      <c r="O5" s="110"/>
+    </row>
+    <row r="6" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="151"/>
+      <c r="B6" s="145"/>
+      <c r="C6" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="81">
+        <v>1</v>
+      </c>
+      <c r="E6" s="145"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="113" t="s">
+        <v>316</v>
+      </c>
+      <c r="H6" s="113"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="124"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="123" t="s">
+        <v>317</v>
+      </c>
+      <c r="M6" s="113"/>
+      <c r="N6" s="113"/>
+      <c r="O6" s="107"/>
+    </row>
+    <row r="7" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="151"/>
+      <c r="B7" s="146"/>
+      <c r="C7" s="89" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="81">
+        <v>1</v>
+      </c>
+      <c r="E7" s="145"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="113" t="s">
+        <v>316</v>
+      </c>
+      <c r="H7" s="113"/>
+      <c r="I7" s="113"/>
+      <c r="J7" s="113"/>
+      <c r="K7" s="107"/>
+      <c r="L7" s="123" t="s">
+        <v>315</v>
+      </c>
+      <c r="M7" s="113"/>
+      <c r="N7" s="113"/>
+      <c r="O7" s="107"/>
+    </row>
+    <row r="8" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="151"/>
+      <c r="B8" s="144" t="s">
+        <v>253</v>
+      </c>
+      <c r="C8" s="89" t="s">
+        <v>255</v>
+      </c>
+      <c r="D8" s="81">
+        <v>1</v>
+      </c>
+      <c r="E8" s="145"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="107" t="s">
+        <v>318</v>
+      </c>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="123" t="s">
+        <v>317</v>
+      </c>
+      <c r="M8" s="107"/>
+      <c r="N8" s="107"/>
+      <c r="O8" s="107"/>
+    </row>
+    <row r="9" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="151"/>
+      <c r="B9" s="145"/>
+      <c r="C9" s="89" t="s">
+        <v>254</v>
+      </c>
+      <c r="D9" s="81">
+        <v>1</v>
+      </c>
+      <c r="E9" s="145"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="107" t="s">
+        <v>319</v>
+      </c>
+      <c r="H9" s="107"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="107"/>
+      <c r="L9" s="123" t="s">
+        <v>320</v>
+      </c>
+      <c r="M9" s="107"/>
+      <c r="N9" s="107"/>
+      <c r="O9" s="107"/>
+    </row>
+    <row r="10" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="164"/>
+      <c r="B10" s="157"/>
+      <c r="C10" s="90" t="s">
+        <v>253</v>
+      </c>
+      <c r="D10" s="87">
+        <v>1</v>
+      </c>
+      <c r="E10" s="157"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="107" t="s">
+        <v>319</v>
+      </c>
+      <c r="H10" s="107"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="123" t="s">
+        <v>315</v>
+      </c>
+      <c r="M10" s="112"/>
+      <c r="N10" s="112"/>
+      <c r="O10" s="111"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="150" t="s">
+        <v>198</v>
+      </c>
+      <c r="B11" s="156" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="96" t="s">
+        <v>200</v>
+      </c>
+      <c r="D11" s="85">
+        <v>2</v>
+      </c>
+      <c r="E11" s="156" t="s">
+        <v>288</v>
+      </c>
+      <c r="F11" s="85"/>
+      <c r="G11" s="110" t="s">
+        <v>349</v>
+      </c>
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="110"/>
+      <c r="L11" s="110" t="s">
+        <v>355</v>
+      </c>
+      <c r="M11" s="110"/>
+      <c r="N11" s="110"/>
+      <c r="O11" s="110"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="151"/>
+      <c r="B12" s="145"/>
+      <c r="C12" s="97" t="s">
+        <v>203</v>
+      </c>
+      <c r="D12" s="81">
+        <v>1</v>
+      </c>
+      <c r="E12" s="145"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="107" t="s">
+        <v>348</v>
+      </c>
+      <c r="H12" s="107"/>
+      <c r="I12" s="107"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="107"/>
+      <c r="L12" s="107" t="s">
+        <v>332</v>
+      </c>
+      <c r="M12" s="107"/>
+      <c r="N12" s="107"/>
+      <c r="O12" s="107"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="151"/>
+      <c r="B13" s="145"/>
+      <c r="C13" s="97" t="s">
+        <v>206</v>
+      </c>
+      <c r="D13" s="81">
+        <v>1</v>
+      </c>
+      <c r="E13" s="145"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="107" t="s">
+        <v>348</v>
+      </c>
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="107"/>
+      <c r="L13" s="107" t="s">
+        <v>332</v>
+      </c>
+      <c r="M13" s="107"/>
+      <c r="N13" s="107"/>
+      <c r="O13" s="107"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="151"/>
+      <c r="B14" s="145"/>
+      <c r="C14" s="97" t="s">
+        <v>209</v>
+      </c>
+      <c r="D14" s="81">
+        <v>2</v>
+      </c>
+      <c r="E14" s="146"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="107" t="s">
+        <v>350</v>
+      </c>
+      <c r="H14" s="107"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="107"/>
+      <c r="K14" s="107"/>
+      <c r="L14" s="107" t="s">
+        <v>332</v>
+      </c>
+      <c r="M14" s="107"/>
+      <c r="N14" s="107"/>
+      <c r="O14" s="107"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="151"/>
+      <c r="B15" s="144" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="98" t="s">
+        <v>217</v>
+      </c>
+      <c r="D15" s="81">
+        <v>2</v>
+      </c>
+      <c r="E15" s="144" t="s">
+        <v>288</v>
+      </c>
+      <c r="F15" s="81"/>
+      <c r="G15" s="107" t="s">
+        <v>351</v>
+      </c>
+      <c r="H15" s="107"/>
+      <c r="I15" s="107"/>
+      <c r="J15" s="107"/>
+      <c r="K15" s="107"/>
+      <c r="L15" s="107" t="s">
+        <v>332</v>
+      </c>
+      <c r="M15" s="107"/>
+      <c r="N15" s="107"/>
+      <c r="O15" s="107"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="151"/>
+      <c r="B16" s="145"/>
+      <c r="C16" s="97" t="s">
+        <v>220</v>
+      </c>
+      <c r="D16" s="81">
+        <v>1</v>
+      </c>
+      <c r="E16" s="145"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="107" t="s">
+        <v>348</v>
+      </c>
+      <c r="H16" s="107"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="107"/>
+      <c r="K16" s="107"/>
+      <c r="L16" s="107" t="s">
+        <v>332</v>
+      </c>
+      <c r="M16" s="107"/>
+      <c r="N16" s="107"/>
+      <c r="O16" s="107"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="151"/>
+      <c r="B17" s="145"/>
+      <c r="C17" s="97" t="s">
+        <v>222</v>
+      </c>
+      <c r="D17" s="81">
+        <v>1</v>
+      </c>
+      <c r="E17" s="146"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="107" t="s">
+        <v>348</v>
+      </c>
+      <c r="H17" s="107"/>
+      <c r="I17" s="107"/>
+      <c r="J17" s="107"/>
+      <c r="K17" s="107"/>
+      <c r="L17" s="107" t="s">
+        <v>332</v>
+      </c>
+      <c r="M17" s="107"/>
+      <c r="N17" s="107"/>
+      <c r="O17" s="107"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="151"/>
+      <c r="B18" s="144" t="s">
+        <v>180</v>
+      </c>
+      <c r="C18" s="94" t="s">
+        <v>185</v>
+      </c>
+      <c r="D18" s="81">
+        <v>1</v>
+      </c>
+      <c r="E18" s="144" t="s">
+        <v>292</v>
+      </c>
+      <c r="F18" s="81"/>
+      <c r="G18" s="107" t="s">
+        <v>343</v>
+      </c>
+      <c r="H18" s="107"/>
+      <c r="I18" s="107"/>
+      <c r="J18" s="107"/>
+      <c r="K18" s="107"/>
+      <c r="L18" s="107" t="s">
+        <v>344</v>
+      </c>
+      <c r="M18" s="107"/>
+      <c r="N18" s="107"/>
+      <c r="O18" s="107"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="151"/>
+      <c r="B19" s="146"/>
+      <c r="C19" s="94" t="s">
+        <v>184</v>
+      </c>
+      <c r="D19" s="81">
+        <v>2</v>
+      </c>
+      <c r="E19" s="146"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="107" t="s">
+        <v>345</v>
+      </c>
+      <c r="H19" s="107"/>
+      <c r="I19" s="107"/>
+      <c r="J19" s="107"/>
+      <c r="K19" s="107"/>
+      <c r="L19" s="107" t="s">
+        <v>346</v>
+      </c>
+      <c r="M19" s="107"/>
+      <c r="N19" s="107"/>
+      <c r="O19" s="107"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="151"/>
+      <c r="B20" s="144" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="99" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" s="81">
+        <v>1</v>
+      </c>
+      <c r="E20" s="145" t="s">
+        <v>307</v>
+      </c>
+      <c r="F20" s="81"/>
+      <c r="G20" s="107" t="s">
+        <v>331</v>
+      </c>
+      <c r="H20" s="107"/>
+      <c r="I20" s="107"/>
+      <c r="J20" s="107"/>
+      <c r="K20" s="107"/>
+      <c r="L20" s="107" t="s">
+        <v>332</v>
+      </c>
+      <c r="M20" s="107"/>
+      <c r="N20" s="107"/>
+      <c r="O20" s="107"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="151"/>
+      <c r="B21" s="146"/>
+      <c r="C21" s="99" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="81">
+        <v>2</v>
+      </c>
+      <c r="E21" s="145"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="107" t="s">
+        <v>330</v>
+      </c>
+      <c r="H21" s="107"/>
+      <c r="I21" s="107"/>
+      <c r="J21" s="107"/>
+      <c r="K21" s="107"/>
+      <c r="L21" s="107" t="s">
+        <v>332</v>
+      </c>
+      <c r="M21" s="107"/>
+      <c r="N21" s="107"/>
+      <c r="O21" s="107"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="151"/>
+      <c r="B22" s="126" t="s">
+        <v>302</v>
+      </c>
+      <c r="C22" s="99" t="s">
+        <v>306</v>
+      </c>
+      <c r="D22" s="81">
+        <v>1</v>
+      </c>
+      <c r="E22" s="146"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="107" t="s">
+        <v>333</v>
+      </c>
+      <c r="H22" s="107"/>
+      <c r="I22" s="107"/>
+      <c r="J22" s="107"/>
+      <c r="K22" s="107"/>
+      <c r="L22" s="107" t="s">
+        <v>332</v>
+      </c>
+      <c r="M22" s="107"/>
+      <c r="N22" s="107"/>
+      <c r="O22" s="107"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="151"/>
+      <c r="B23" s="144" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="94" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="81">
+        <v>3</v>
+      </c>
+      <c r="E23" s="144" t="s">
         <v>285</v>
       </c>
-      <c r="N2" s="176"/>
-      <c r="O2" s="177"/>
-    </row>
-    <row r="3" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="179"/>
-      <c r="B3" s="174"/>
-      <c r="C3" s="174"/>
-      <c r="D3" s="174"/>
-      <c r="E3" s="174"/>
-      <c r="F3" s="174"/>
-      <c r="G3" s="174"/>
-      <c r="H3" s="133" t="s">
-        <v>304</v>
-      </c>
-      <c r="I3" s="133" t="s">
-        <v>305</v>
-      </c>
-      <c r="J3" s="133" t="s">
-        <v>306</v>
-      </c>
-      <c r="K3" s="174"/>
-      <c r="L3" s="174"/>
-      <c r="M3" s="133" t="s">
-        <v>307</v>
-      </c>
-      <c r="N3" s="133" t="s">
-        <v>308</v>
-      </c>
-      <c r="O3" s="133" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="115"/>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="129"/>
-      <c r="H4" s="129"/>
-      <c r="I4" s="129"/>
-      <c r="J4" s="129"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="125"/>
-      <c r="N4" s="125"/>
-      <c r="O4" s="96"/>
-    </row>
-    <row r="5" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="151" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="168" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="98" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="95">
+      <c r="F23" s="81"/>
+      <c r="G23" s="107" t="s">
+        <v>321</v>
+      </c>
+      <c r="H23" s="107"/>
+      <c r="I23" s="107"/>
+      <c r="J23" s="107"/>
+      <c r="K23" s="107"/>
+      <c r="L23" s="107" t="s">
+        <v>322</v>
+      </c>
+      <c r="M23" s="107"/>
+      <c r="N23" s="107"/>
+      <c r="O23" s="107"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="151"/>
+      <c r="B24" s="145"/>
+      <c r="C24" s="94" t="s">
+        <v>178</v>
+      </c>
+      <c r="D24" s="81">
+        <v>3</v>
+      </c>
+      <c r="E24" s="145"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="107" t="s">
+        <v>321</v>
+      </c>
+      <c r="H24" s="107"/>
+      <c r="I24" s="107"/>
+      <c r="J24" s="107"/>
+      <c r="K24" s="107"/>
+      <c r="L24" s="107" t="s">
+        <v>323</v>
+      </c>
+      <c r="M24" s="107"/>
+      <c r="N24" s="107"/>
+      <c r="O24" s="107"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="151"/>
+      <c r="B25" s="145"/>
+      <c r="C25" s="94" t="s">
+        <v>280</v>
+      </c>
+      <c r="D25" s="81">
+        <v>3</v>
+      </c>
+      <c r="E25" s="146"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="107" t="s">
+        <v>321</v>
+      </c>
+      <c r="H25" s="107"/>
+      <c r="I25" s="107"/>
+      <c r="J25" s="107"/>
+      <c r="K25" s="107"/>
+      <c r="L25" s="107" t="s">
+        <v>322</v>
+      </c>
+      <c r="M25" s="107"/>
+      <c r="N25" s="107"/>
+      <c r="O25" s="107"/>
+    </row>
+    <row r="26" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="164"/>
+      <c r="B26" s="157"/>
+      <c r="C26" s="95" t="s">
+        <v>273</v>
+      </c>
+      <c r="D26" s="82">
+        <v>2</v>
+      </c>
+      <c r="E26" s="72" t="s">
+        <v>290</v>
+      </c>
+      <c r="F26" s="82"/>
+      <c r="G26" s="112" t="s">
+        <v>334</v>
+      </c>
+      <c r="H26" s="112"/>
+      <c r="I26" s="112"/>
+      <c r="J26" s="112"/>
+      <c r="K26" s="112"/>
+      <c r="L26" s="127" t="s">
+        <v>332</v>
+      </c>
+      <c r="M26" s="112"/>
+      <c r="N26" s="112"/>
+      <c r="O26" s="112"/>
+    </row>
+    <row r="27" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="150" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="156" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" s="91" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" s="85">
         <v>1</v>
       </c>
-      <c r="E5" s="168" t="s">
-        <v>290</v>
-      </c>
-      <c r="F5" s="95"/>
-      <c r="G5" s="123" t="s">
-        <v>323</v>
-      </c>
-      <c r="H5" s="123"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="134"/>
-      <c r="K5" s="120"/>
-      <c r="L5" s="134" t="s">
+      <c r="E27" s="156" t="s">
+        <v>286</v>
+      </c>
+      <c r="F27" s="85"/>
+      <c r="G27" s="110" t="s">
+        <v>325</v>
+      </c>
+      <c r="H27" s="110"/>
+      <c r="I27" s="110"/>
+      <c r="J27" s="110"/>
+      <c r="K27" s="110"/>
+      <c r="L27" s="107" t="s">
+        <v>322</v>
+      </c>
+      <c r="M27" s="110"/>
+      <c r="N27" s="110"/>
+      <c r="O27" s="110"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="151"/>
+      <c r="B28" s="145"/>
+      <c r="C28" s="92" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28" s="81">
+        <v>1</v>
+      </c>
+      <c r="E28" s="146"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="110" t="s">
         <v>324</v>
       </c>
-      <c r="M5" s="120"/>
-      <c r="N5" s="120"/>
-      <c r="O5" s="120"/>
-    </row>
-    <row r="6" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="152"/>
-      <c r="B6" s="169"/>
-      <c r="C6" s="99" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="91">
-        <v>1</v>
-      </c>
-      <c r="E6" s="169"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="123" t="s">
-        <v>325</v>
-      </c>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="135"/>
-      <c r="K6" s="117"/>
-      <c r="L6" s="134" t="s">
+      <c r="H28" s="113"/>
+      <c r="I28" s="113"/>
+      <c r="J28" s="113"/>
+      <c r="K28" s="113"/>
+      <c r="L28" s="107" t="s">
+        <v>322</v>
+      </c>
+      <c r="M28" s="113"/>
+      <c r="N28" s="113"/>
+      <c r="O28" s="107"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="151"/>
+      <c r="B29" s="145"/>
+      <c r="C29" s="100" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" s="81">
+        <v>3</v>
+      </c>
+      <c r="E29" s="144" t="s">
+        <v>289</v>
+      </c>
+      <c r="F29" s="81"/>
+      <c r="G29" s="107" t="s">
+        <v>335</v>
+      </c>
+      <c r="H29" s="107"/>
+      <c r="I29" s="107"/>
+      <c r="J29" s="107"/>
+      <c r="K29" s="107"/>
+      <c r="L29" s="107" t="s">
+        <v>336</v>
+      </c>
+      <c r="M29" s="107"/>
+      <c r="N29" s="107"/>
+      <c r="O29" s="107"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="151"/>
+      <c r="B30" s="146"/>
+      <c r="C30" s="100" t="s">
+        <v>125</v>
+      </c>
+      <c r="D30" s="81">
+        <v>3</v>
+      </c>
+      <c r="E30" s="145"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="107" t="s">
+        <v>337</v>
+      </c>
+      <c r="H30" s="107"/>
+      <c r="I30" s="107"/>
+      <c r="J30" s="107"/>
+      <c r="K30" s="107"/>
+      <c r="L30" s="107" t="s">
+        <v>322</v>
+      </c>
+      <c r="M30" s="107"/>
+      <c r="N30" s="107"/>
+      <c r="O30" s="107"/>
+    </row>
+    <row r="31" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="164"/>
+      <c r="B31" s="87" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" s="101" t="s">
+        <v>140</v>
+      </c>
+      <c r="D31" s="87">
+        <v>2</v>
+      </c>
+      <c r="E31" s="157"/>
+      <c r="F31" s="87"/>
+      <c r="G31" s="111" t="s">
+        <v>338</v>
+      </c>
+      <c r="H31" s="111"/>
+      <c r="I31" s="111"/>
+      <c r="J31" s="111"/>
+      <c r="K31" s="111"/>
+      <c r="L31" s="111" t="s">
+        <v>339</v>
+      </c>
+      <c r="M31" s="111"/>
+      <c r="N31" s="111"/>
+      <c r="O31" s="111"/>
+    </row>
+    <row r="32" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="150" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="156" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="93" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="83">
+        <v>3</v>
+      </c>
+      <c r="E32" s="156" t="s">
+        <v>287</v>
+      </c>
+      <c r="F32" s="83"/>
+      <c r="G32" s="123" t="s">
         <v>326</v>
       </c>
-      <c r="M6" s="123"/>
-      <c r="N6" s="123"/>
-      <c r="O6" s="117"/>
-    </row>
-    <row r="7" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="152"/>
-      <c r="B7" s="167"/>
-      <c r="C7" s="99" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="91">
-        <v>1</v>
-      </c>
-      <c r="E7" s="169"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="123" t="s">
-        <v>325</v>
-      </c>
-      <c r="H7" s="123"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="123"/>
-      <c r="K7" s="117"/>
-      <c r="L7" s="134" t="s">
-        <v>324</v>
-      </c>
-      <c r="M7" s="123"/>
-      <c r="N7" s="123"/>
-      <c r="O7" s="117"/>
-    </row>
-    <row r="8" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="152"/>
-      <c r="B8" s="170" t="s">
-        <v>253</v>
-      </c>
-      <c r="C8" s="99" t="s">
-        <v>255</v>
-      </c>
-      <c r="D8" s="91">
-        <v>1</v>
-      </c>
-      <c r="E8" s="169"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="117" t="s">
+      <c r="H32" s="113"/>
+      <c r="I32" s="113"/>
+      <c r="J32" s="113"/>
+      <c r="K32" s="113"/>
+      <c r="L32" s="113" t="s">
         <v>327</v>
       </c>
-      <c r="H8" s="117"/>
-      <c r="I8" s="117"/>
-      <c r="J8" s="117"/>
-      <c r="K8" s="117"/>
-      <c r="L8" s="134" t="s">
+      <c r="M32" s="113"/>
+      <c r="N32" s="113"/>
+      <c r="O32" s="113"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" s="151"/>
+      <c r="B33" s="146"/>
+      <c r="C33" s="89" t="s">
+        <v>293</v>
+      </c>
+      <c r="D33" s="81">
+        <v>3</v>
+      </c>
+      <c r="E33" s="146"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="123" t="s">
         <v>326</v>
       </c>
-      <c r="M8" s="117"/>
-      <c r="N8" s="117"/>
-      <c r="O8" s="117"/>
-    </row>
-    <row r="9" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="152"/>
-      <c r="B9" s="169"/>
-      <c r="C9" s="99" t="s">
-        <v>254</v>
-      </c>
-      <c r="D9" s="91">
-        <v>1</v>
-      </c>
-      <c r="E9" s="169"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="117" t="s">
-        <v>328</v>
-      </c>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="134" t="s">
-        <v>329</v>
-      </c>
-      <c r="M9" s="117"/>
-      <c r="N9" s="117"/>
-      <c r="O9" s="117"/>
-    </row>
-    <row r="10" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="180"/>
-      <c r="B10" s="171"/>
-      <c r="C10" s="100" t="s">
-        <v>253</v>
-      </c>
-      <c r="D10" s="97">
-        <v>1</v>
-      </c>
-      <c r="E10" s="171"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="117" t="s">
-        <v>328</v>
-      </c>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="121"/>
-      <c r="L10" s="134" t="s">
-        <v>324</v>
-      </c>
-      <c r="M10" s="122"/>
-      <c r="N10" s="122"/>
-      <c r="O10" s="121"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="151" t="s">
-        <v>198</v>
-      </c>
-      <c r="B11" s="168" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="106" t="s">
-        <v>200</v>
-      </c>
-      <c r="D11" s="95">
+      <c r="H33" s="113"/>
+      <c r="I33" s="113"/>
+      <c r="J33" s="107"/>
+      <c r="K33" s="107"/>
+      <c r="L33" s="113" t="s">
+        <v>327</v>
+      </c>
+      <c r="M33" s="107"/>
+      <c r="N33" s="107"/>
+      <c r="O33" s="107"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="151"/>
+      <c r="B34" s="144" t="s">
+        <v>257</v>
+      </c>
+      <c r="C34" s="97" t="s">
+        <v>258</v>
+      </c>
+      <c r="D34" s="81">
         <v>2</v>
       </c>
-      <c r="E11" s="168" t="s">
-        <v>294</v>
-      </c>
-      <c r="F11" s="95"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="120"/>
-      <c r="K11" s="120"/>
-      <c r="L11" s="120"/>
-      <c r="M11" s="120"/>
-      <c r="N11" s="120"/>
-      <c r="O11" s="120"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="152"/>
-      <c r="B12" s="169"/>
-      <c r="C12" s="107" t="s">
-        <v>203</v>
-      </c>
-      <c r="D12" s="91">
-        <v>1</v>
-      </c>
-      <c r="E12" s="169"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="117"/>
-      <c r="L12" s="117"/>
-      <c r="M12" s="117"/>
-      <c r="N12" s="117"/>
-      <c r="O12" s="117"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="152"/>
-      <c r="B13" s="169"/>
-      <c r="C13" s="107" t="s">
-        <v>206</v>
-      </c>
-      <c r="D13" s="91">
-        <v>1</v>
-      </c>
-      <c r="E13" s="169"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="117"/>
-      <c r="L13" s="117"/>
-      <c r="M13" s="117"/>
-      <c r="N13" s="117"/>
-      <c r="O13" s="117"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="152"/>
-      <c r="B14" s="169"/>
-      <c r="C14" s="107" t="s">
-        <v>209</v>
-      </c>
-      <c r="D14" s="91">
+      <c r="E34" s="144" t="s">
+        <v>288</v>
+      </c>
+      <c r="F34" s="81"/>
+      <c r="G34" s="107" t="s">
+        <v>352</v>
+      </c>
+      <c r="H34" s="107"/>
+      <c r="I34" s="107"/>
+      <c r="J34" s="107"/>
+      <c r="K34" s="107"/>
+      <c r="L34" s="107" t="s">
+        <v>347</v>
+      </c>
+      <c r="M34" s="107"/>
+      <c r="N34" s="107"/>
+      <c r="O34" s="107"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" s="151"/>
+      <c r="B35" s="145"/>
+      <c r="C35" s="97" t="s">
+        <v>260</v>
+      </c>
+      <c r="D35" s="81">
         <v>2</v>
       </c>
-      <c r="E14" s="167"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="117"/>
-      <c r="J14" s="117"/>
-      <c r="K14" s="117"/>
-      <c r="L14" s="117"/>
-      <c r="M14" s="117"/>
-      <c r="N14" s="117"/>
-      <c r="O14" s="117"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="152"/>
-      <c r="B15" s="170" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15" s="108" t="s">
-        <v>217</v>
-      </c>
-      <c r="D15" s="91">
+      <c r="E35" s="145"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="107" t="s">
+        <v>353</v>
+      </c>
+      <c r="H35" s="107"/>
+      <c r="I35" s="107"/>
+      <c r="J35" s="107"/>
+      <c r="K35" s="107"/>
+      <c r="L35" s="107" t="s">
+        <v>347</v>
+      </c>
+      <c r="M35" s="107"/>
+      <c r="N35" s="107"/>
+      <c r="O35" s="107"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36" s="151"/>
+      <c r="B36" s="146"/>
+      <c r="C36" s="97" t="s">
+        <v>259</v>
+      </c>
+      <c r="D36" s="81">
         <v>2</v>
       </c>
-      <c r="E15" s="170" t="s">
-        <v>294</v>
-      </c>
-      <c r="F15" s="91"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="117"/>
-      <c r="I15" s="117"/>
-      <c r="J15" s="117"/>
-      <c r="K15" s="117"/>
-      <c r="L15" s="117"/>
-      <c r="M15" s="117"/>
-      <c r="N15" s="117"/>
-      <c r="O15" s="117"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="152"/>
-      <c r="B16" s="169"/>
-      <c r="C16" s="107" t="s">
-        <v>220</v>
-      </c>
-      <c r="D16" s="91">
-        <v>1</v>
-      </c>
-      <c r="E16" s="169"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="117"/>
-      <c r="J16" s="117"/>
-      <c r="K16" s="117"/>
-      <c r="L16" s="117"/>
-      <c r="M16" s="117"/>
-      <c r="N16" s="117"/>
-      <c r="O16" s="117"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="152"/>
-      <c r="B17" s="169"/>
-      <c r="C17" s="107" t="s">
-        <v>222</v>
-      </c>
-      <c r="D17" s="91">
-        <v>1</v>
-      </c>
-      <c r="E17" s="167"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="117"/>
-      <c r="I17" s="117"/>
-      <c r="J17" s="117"/>
-      <c r="K17" s="117"/>
-      <c r="L17" s="117"/>
-      <c r="M17" s="117"/>
-      <c r="N17" s="117"/>
-      <c r="O17" s="117"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="152"/>
-      <c r="B18" s="170" t="s">
-        <v>180</v>
-      </c>
-      <c r="C18" s="104" t="s">
-        <v>185</v>
-      </c>
-      <c r="D18" s="91">
-        <v>1</v>
-      </c>
-      <c r="E18" s="170" t="s">
-        <v>298</v>
-      </c>
-      <c r="F18" s="91"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="117"/>
-      <c r="I18" s="117"/>
-      <c r="J18" s="117"/>
-      <c r="K18" s="117"/>
-      <c r="L18" s="117"/>
-      <c r="M18" s="117"/>
-      <c r="N18" s="117"/>
-      <c r="O18" s="117"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="152"/>
-      <c r="B19" s="167"/>
-      <c r="C19" s="104" t="s">
-        <v>184</v>
-      </c>
-      <c r="D19" s="91">
+      <c r="E36" s="146"/>
+      <c r="F36" s="81"/>
+      <c r="G36" s="107" t="s">
+        <v>354</v>
+      </c>
+      <c r="H36" s="107"/>
+      <c r="I36" s="107"/>
+      <c r="J36" s="107"/>
+      <c r="K36" s="107"/>
+      <c r="L36" s="107" t="s">
+        <v>347</v>
+      </c>
+      <c r="M36" s="107"/>
+      <c r="N36" s="107"/>
+      <c r="O36" s="107"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37" s="151"/>
+      <c r="B37" s="144" t="s">
+        <v>154</v>
+      </c>
+      <c r="C37" s="99" t="s">
+        <v>155</v>
+      </c>
+      <c r="D37" s="81">
         <v>2</v>
       </c>
-      <c r="E19" s="167"/>
-      <c r="F19" s="91"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="117"/>
-      <c r="I19" s="117"/>
-      <c r="J19" s="117"/>
-      <c r="K19" s="117"/>
-      <c r="L19" s="117"/>
-      <c r="M19" s="117"/>
-      <c r="N19" s="117"/>
-      <c r="O19" s="117"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="152"/>
-      <c r="B20" s="170" t="s">
-        <v>115</v>
-      </c>
-      <c r="C20" s="109" t="s">
-        <v>116</v>
-      </c>
-      <c r="D20" s="91">
-        <v>1</v>
-      </c>
-      <c r="E20" s="169" t="s">
-        <v>314</v>
-      </c>
-      <c r="F20" s="91"/>
-      <c r="G20" s="117" t="s">
+      <c r="E37" s="144" t="s">
+        <v>291</v>
+      </c>
+      <c r="F37" s="81"/>
+      <c r="G37" s="107" t="s">
         <v>340</v>
       </c>
-      <c r="H20" s="117"/>
-      <c r="I20" s="117"/>
-      <c r="J20" s="117"/>
-      <c r="K20" s="117"/>
-      <c r="L20" s="117" t="s">
+      <c r="H37" s="107"/>
+      <c r="I37" s="107"/>
+      <c r="J37" s="107"/>
+      <c r="K37" s="107"/>
+      <c r="L37" s="113" t="s">
+        <v>327</v>
+      </c>
+      <c r="M37" s="107"/>
+      <c r="N37" s="107"/>
+      <c r="O37" s="107"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38" s="151"/>
+      <c r="B38" s="146"/>
+      <c r="C38" s="99" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" s="81">
+        <v>3</v>
+      </c>
+      <c r="E38" s="145"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="107" t="s">
+        <v>337</v>
+      </c>
+      <c r="H38" s="107"/>
+      <c r="I38" s="107"/>
+      <c r="J38" s="107"/>
+      <c r="K38" s="107"/>
+      <c r="L38" s="113" t="s">
+        <v>327</v>
+      </c>
+      <c r="M38" s="107"/>
+      <c r="N38" s="107"/>
+      <c r="O38" s="107"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A39" s="151"/>
+      <c r="B39" s="144" t="s">
+        <v>269</v>
+      </c>
+      <c r="C39" s="95" t="s">
+        <v>271</v>
+      </c>
+      <c r="D39" s="82">
+        <v>2</v>
+      </c>
+      <c r="E39" s="145"/>
+      <c r="F39" s="82"/>
+      <c r="G39" s="107" t="s">
         <v>341</v>
       </c>
-      <c r="M20" s="117"/>
-      <c r="N20" s="117"/>
-      <c r="O20" s="117"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="152"/>
-      <c r="B21" s="167"/>
-      <c r="C21" s="109" t="s">
-        <v>118</v>
-      </c>
-      <c r="D21" s="91">
-        <v>2</v>
-      </c>
-      <c r="E21" s="169"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="117" t="s">
-        <v>339</v>
-      </c>
-      <c r="H21" s="117"/>
-      <c r="I21" s="117"/>
-      <c r="J21" s="117"/>
-      <c r="K21" s="117"/>
-      <c r="L21" s="117" t="s">
-        <v>341</v>
-      </c>
-      <c r="M21" s="117"/>
-      <c r="N21" s="117"/>
-      <c r="O21" s="117"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="152"/>
-      <c r="B22" s="137" t="s">
-        <v>309</v>
-      </c>
-      <c r="C22" s="109" t="s">
-        <v>313</v>
-      </c>
-      <c r="D22" s="91">
-        <v>1</v>
-      </c>
-      <c r="E22" s="167"/>
-      <c r="F22" s="91"/>
-      <c r="G22" s="117" t="s">
+      <c r="H39" s="112"/>
+      <c r="I39" s="112"/>
+      <c r="J39" s="112"/>
+      <c r="K39" s="112"/>
+      <c r="L39" s="113" t="s">
+        <v>327</v>
+      </c>
+      <c r="M39" s="112"/>
+      <c r="N39" s="112"/>
+      <c r="O39" s="112"/>
+    </row>
+    <row r="40" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="164"/>
+      <c r="B40" s="157"/>
+      <c r="C40" s="95" t="s">
+        <v>272</v>
+      </c>
+      <c r="D40" s="82">
+        <v>3</v>
+      </c>
+      <c r="E40" s="157"/>
+      <c r="F40" s="82"/>
+      <c r="G40" s="112" t="s">
+        <v>340</v>
+      </c>
+      <c r="H40" s="112"/>
+      <c r="I40" s="112"/>
+      <c r="J40" s="112"/>
+      <c r="K40" s="112"/>
+      <c r="L40" s="112" t="s">
         <v>342</v>
       </c>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="117"/>
-      <c r="K22" s="117"/>
-      <c r="L22" s="117" t="s">
-        <v>341</v>
-      </c>
-      <c r="M22" s="117"/>
-      <c r="N22" s="117"/>
-      <c r="O22" s="117"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="152"/>
-      <c r="B23" s="170" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="91">
-        <v>3</v>
-      </c>
-      <c r="E23" s="170" t="s">
-        <v>291</v>
-      </c>
-      <c r="F23" s="91"/>
-      <c r="G23" s="117" t="s">
-        <v>330</v>
-      </c>
-      <c r="H23" s="117"/>
-      <c r="I23" s="117"/>
-      <c r="J23" s="117"/>
-      <c r="K23" s="117"/>
-      <c r="L23" s="117" t="s">
-        <v>331</v>
-      </c>
-      <c r="M23" s="117"/>
-      <c r="N23" s="117"/>
-      <c r="O23" s="117"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="152"/>
-      <c r="B24" s="169"/>
-      <c r="C24" s="104" t="s">
-        <v>178</v>
-      </c>
-      <c r="D24" s="91">
-        <v>3</v>
-      </c>
-      <c r="E24" s="169"/>
-      <c r="F24" s="91"/>
-      <c r="G24" s="117" t="s">
-        <v>330</v>
-      </c>
-      <c r="H24" s="117"/>
-      <c r="I24" s="117"/>
-      <c r="J24" s="117"/>
-      <c r="K24" s="117"/>
-      <c r="L24" s="117" t="s">
-        <v>332</v>
-      </c>
-      <c r="M24" s="117"/>
-      <c r="N24" s="117"/>
-      <c r="O24" s="117"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="152"/>
-      <c r="B25" s="169"/>
-      <c r="C25" s="104" t="s">
-        <v>286</v>
-      </c>
-      <c r="D25" s="91">
-        <v>3</v>
-      </c>
-      <c r="E25" s="167"/>
-      <c r="F25" s="91"/>
-      <c r="G25" s="117" t="s">
-        <v>330</v>
-      </c>
-      <c r="H25" s="117"/>
-      <c r="I25" s="117"/>
-      <c r="J25" s="117"/>
-      <c r="K25" s="117"/>
-      <c r="L25" s="117" t="s">
-        <v>331</v>
-      </c>
-      <c r="M25" s="117"/>
-      <c r="N25" s="117"/>
-      <c r="O25" s="117"/>
-    </row>
-    <row r="26" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="180"/>
-      <c r="B26" s="171"/>
-      <c r="C26" s="105" t="s">
-        <v>279</v>
-      </c>
-      <c r="D26" s="92">
-        <v>2</v>
-      </c>
-      <c r="E26" s="73" t="s">
-        <v>296</v>
-      </c>
-      <c r="F26" s="92"/>
-      <c r="G26" s="122" t="s">
-        <v>343</v>
-      </c>
-      <c r="H26" s="122"/>
-      <c r="I26" s="122"/>
-      <c r="J26" s="122"/>
-      <c r="K26" s="122"/>
-      <c r="L26" s="138" t="s">
-        <v>341</v>
-      </c>
-      <c r="M26" s="122"/>
-      <c r="N26" s="122"/>
-      <c r="O26" s="122"/>
-    </row>
-    <row r="27" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="151" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="168" t="s">
-        <v>127</v>
-      </c>
-      <c r="C27" s="101" t="s">
-        <v>126</v>
-      </c>
-      <c r="D27" s="95">
-        <v>1</v>
-      </c>
-      <c r="E27" s="168" t="s">
-        <v>292</v>
-      </c>
-      <c r="F27" s="95"/>
-      <c r="G27" s="120" t="s">
-        <v>334</v>
-      </c>
-      <c r="H27" s="120"/>
-      <c r="I27" s="120"/>
-      <c r="J27" s="120"/>
-      <c r="K27" s="120"/>
-      <c r="L27" s="117" t="s">
-        <v>331</v>
-      </c>
-      <c r="M27" s="120"/>
-      <c r="N27" s="120"/>
-      <c r="O27" s="120"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="152"/>
-      <c r="B28" s="169"/>
-      <c r="C28" s="102" t="s">
-        <v>129</v>
-      </c>
-      <c r="D28" s="91">
-        <v>1</v>
-      </c>
-      <c r="E28" s="167"/>
-      <c r="F28" s="91"/>
-      <c r="G28" s="120" t="s">
-        <v>333</v>
-      </c>
-      <c r="H28" s="123"/>
-      <c r="I28" s="123"/>
-      <c r="J28" s="123"/>
-      <c r="K28" s="123"/>
-      <c r="L28" s="117" t="s">
-        <v>331</v>
-      </c>
-      <c r="M28" s="123"/>
-      <c r="N28" s="123"/>
-      <c r="O28" s="117"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="152"/>
-      <c r="B29" s="169"/>
-      <c r="C29" s="110" t="s">
-        <v>132</v>
-      </c>
-      <c r="D29" s="91">
-        <v>3</v>
-      </c>
-      <c r="E29" s="170" t="s">
-        <v>295</v>
-      </c>
-      <c r="F29" s="91"/>
-      <c r="G29" s="117" t="s">
-        <v>344</v>
-      </c>
-      <c r="H29" s="117"/>
-      <c r="I29" s="117"/>
-      <c r="J29" s="117"/>
-      <c r="K29" s="117"/>
-      <c r="L29" s="117" t="s">
-        <v>345</v>
-      </c>
-      <c r="M29" s="117"/>
-      <c r="N29" s="117"/>
-      <c r="O29" s="117"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="152"/>
-      <c r="B30" s="167"/>
-      <c r="C30" s="110" t="s">
-        <v>125</v>
-      </c>
-      <c r="D30" s="91">
-        <v>3</v>
-      </c>
-      <c r="E30" s="169"/>
-      <c r="F30" s="91"/>
-      <c r="G30" s="117" t="s">
-        <v>346</v>
-      </c>
-      <c r="H30" s="117"/>
-      <c r="I30" s="117"/>
-      <c r="J30" s="117"/>
-      <c r="K30" s="117"/>
-      <c r="L30" s="117" t="s">
-        <v>331</v>
-      </c>
-      <c r="M30" s="117"/>
-      <c r="N30" s="117"/>
-      <c r="O30" s="117"/>
-    </row>
-    <row r="31" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="180"/>
-      <c r="B31" s="97" t="s">
-        <v>139</v>
-      </c>
-      <c r="C31" s="111" t="s">
-        <v>140</v>
-      </c>
-      <c r="D31" s="97">
-        <v>2</v>
-      </c>
-      <c r="E31" s="171"/>
-      <c r="F31" s="97"/>
-      <c r="G31" s="121" t="s">
-        <v>347</v>
-      </c>
-      <c r="H31" s="121"/>
-      <c r="I31" s="121"/>
-      <c r="J31" s="121"/>
-      <c r="K31" s="121"/>
-      <c r="L31" s="121" t="s">
-        <v>348</v>
-      </c>
-      <c r="M31" s="121"/>
-      <c r="N31" s="121"/>
-      <c r="O31" s="121"/>
-    </row>
-    <row r="32" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="151" t="s">
-        <v>67</v>
-      </c>
-      <c r="B32" s="168" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="103" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" s="93">
-        <v>3</v>
-      </c>
-      <c r="E32" s="168" t="s">
-        <v>293</v>
-      </c>
-      <c r="F32" s="93"/>
-      <c r="G32" s="134" t="s">
-        <v>335</v>
-      </c>
-      <c r="H32" s="123"/>
-      <c r="I32" s="123"/>
-      <c r="J32" s="123"/>
-      <c r="K32" s="123"/>
-      <c r="L32" s="123" t="s">
-        <v>336</v>
-      </c>
-      <c r="M32" s="123"/>
-      <c r="N32" s="123"/>
-      <c r="O32" s="123"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="152"/>
-      <c r="B33" s="167"/>
-      <c r="C33" s="99" t="s">
-        <v>299</v>
-      </c>
-      <c r="D33" s="91">
-        <v>3</v>
-      </c>
-      <c r="E33" s="167"/>
-      <c r="F33" s="91"/>
-      <c r="G33" s="134" t="s">
-        <v>335</v>
-      </c>
-      <c r="H33" s="123"/>
-      <c r="I33" s="123"/>
-      <c r="J33" s="117"/>
-      <c r="K33" s="117"/>
-      <c r="L33" s="123" t="s">
-        <v>336</v>
-      </c>
-      <c r="M33" s="117"/>
-      <c r="N33" s="117"/>
-      <c r="O33" s="117"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="152"/>
-      <c r="B34" s="170" t="s">
-        <v>257</v>
-      </c>
-      <c r="C34" s="107" t="s">
-        <v>258</v>
-      </c>
-      <c r="D34" s="91">
-        <v>1</v>
-      </c>
-      <c r="E34" s="170" t="s">
-        <v>294</v>
-      </c>
-      <c r="F34" s="91"/>
-      <c r="G34" s="117"/>
-      <c r="H34" s="117"/>
-      <c r="I34" s="117"/>
-      <c r="J34" s="117"/>
-      <c r="K34" s="117"/>
-      <c r="L34" s="117"/>
-      <c r="M34" s="117"/>
-      <c r="N34" s="117"/>
-      <c r="O34" s="117"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="152"/>
-      <c r="B35" s="169"/>
-      <c r="C35" s="107" t="s">
-        <v>260</v>
-      </c>
-      <c r="D35" s="91">
-        <v>1</v>
-      </c>
-      <c r="E35" s="169"/>
-      <c r="F35" s="91"/>
-      <c r="G35" s="117"/>
-      <c r="H35" s="117"/>
-      <c r="I35" s="117"/>
-      <c r="J35" s="117"/>
-      <c r="K35" s="117"/>
-      <c r="L35" s="117"/>
-      <c r="M35" s="117"/>
-      <c r="N35" s="117"/>
-      <c r="O35" s="117"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="152"/>
-      <c r="B36" s="167"/>
-      <c r="C36" s="107" t="s">
-        <v>259</v>
-      </c>
-      <c r="D36" s="91">
-        <v>1</v>
-      </c>
-      <c r="E36" s="167"/>
-      <c r="F36" s="91"/>
-      <c r="G36" s="117"/>
-      <c r="H36" s="117"/>
-      <c r="I36" s="117"/>
-      <c r="J36" s="117"/>
-      <c r="K36" s="117"/>
-      <c r="L36" s="117"/>
-      <c r="M36" s="117"/>
-      <c r="N36" s="117"/>
-      <c r="O36" s="117"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="152"/>
-      <c r="B37" s="170" t="s">
-        <v>154</v>
-      </c>
-      <c r="C37" s="109" t="s">
-        <v>155</v>
-      </c>
-      <c r="D37" s="91">
-        <v>2</v>
-      </c>
-      <c r="E37" s="170" t="s">
-        <v>297</v>
-      </c>
-      <c r="F37" s="91"/>
-      <c r="G37" s="117" t="s">
-        <v>349</v>
-      </c>
-      <c r="H37" s="117"/>
-      <c r="I37" s="117"/>
-      <c r="J37" s="117"/>
-      <c r="K37" s="117"/>
-      <c r="L37" s="123" t="s">
-        <v>336</v>
-      </c>
-      <c r="M37" s="117"/>
-      <c r="N37" s="117"/>
-      <c r="O37" s="117"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="152"/>
-      <c r="B38" s="167"/>
-      <c r="C38" s="109" t="s">
-        <v>92</v>
-      </c>
-      <c r="D38" s="91">
-        <v>3</v>
-      </c>
-      <c r="E38" s="169"/>
-      <c r="F38" s="91"/>
-      <c r="G38" s="117" t="s">
-        <v>346</v>
-      </c>
-      <c r="H38" s="117"/>
-      <c r="I38" s="117"/>
-      <c r="J38" s="117"/>
-      <c r="K38" s="117"/>
-      <c r="L38" s="123" t="s">
-        <v>336</v>
-      </c>
-      <c r="M38" s="117"/>
-      <c r="N38" s="117"/>
-      <c r="O38" s="117"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="152"/>
-      <c r="B39" s="170" t="s">
-        <v>275</v>
-      </c>
-      <c r="C39" s="105" t="s">
-        <v>277</v>
-      </c>
-      <c r="D39" s="92">
-        <v>2</v>
-      </c>
-      <c r="E39" s="169"/>
-      <c r="F39" s="92"/>
-      <c r="G39" s="117" t="s">
-        <v>350</v>
-      </c>
-      <c r="H39" s="122"/>
-      <c r="I39" s="122"/>
-      <c r="J39" s="122"/>
-      <c r="K39" s="122"/>
-      <c r="L39" s="123" t="s">
-        <v>336</v>
-      </c>
-      <c r="M39" s="122"/>
-      <c r="N39" s="122"/>
-      <c r="O39" s="122"/>
-    </row>
-    <row r="40" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="180"/>
-      <c r="B40" s="171"/>
-      <c r="C40" s="105" t="s">
-        <v>278</v>
-      </c>
-      <c r="D40" s="92">
-        <v>3</v>
-      </c>
-      <c r="E40" s="171"/>
-      <c r="F40" s="92"/>
-      <c r="G40" s="122" t="s">
-        <v>349</v>
-      </c>
-      <c r="H40" s="122"/>
-      <c r="I40" s="122"/>
-      <c r="J40" s="122"/>
-      <c r="K40" s="122"/>
-      <c r="L40" s="122" t="s">
-        <v>351</v>
-      </c>
-      <c r="M40" s="122"/>
-      <c r="N40" s="122"/>
-      <c r="O40" s="122"/>
+      <c r="M40" s="112"/>
+      <c r="N40" s="112"/>
+      <c r="O40" s="112"/>
     </row>
     <row r="41" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="69" t="s">
+      <c r="A41" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="B41" s="70" t="s">
+      <c r="B41" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="112" t="s">
+      <c r="C41" s="102" t="s">
         <v>69</v>
       </c>
       <c r="D41" s="52">
         <v>1</v>
       </c>
       <c r="E41" s="52" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F41" s="52"/>
-      <c r="G41" s="124" t="s">
-        <v>337</v>
-      </c>
-      <c r="H41" s="124"/>
-      <c r="I41" s="124"/>
-      <c r="J41" s="124"/>
-      <c r="K41" s="124"/>
-      <c r="L41" s="124" t="s">
-        <v>338</v>
-      </c>
-      <c r="M41" s="124"/>
-      <c r="N41" s="124"/>
-      <c r="O41" s="124"/>
+      <c r="G41" s="114" t="s">
+        <v>328</v>
+      </c>
+      <c r="H41" s="114"/>
+      <c r="I41" s="114"/>
+      <c r="J41" s="114"/>
+      <c r="K41" s="114"/>
+      <c r="L41" s="114" t="s">
+        <v>329</v>
+      </c>
+      <c r="M41" s="114"/>
+      <c r="N41" s="114"/>
+      <c r="O41" s="114"/>
       <c r="P41" s="48"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
@@ -25061,109 +23797,104 @@
       <c r="A56" s="48"/>
       <c r="B56" s="48"/>
       <c r="C56" s="48"/>
-      <c r="D56" s="118"/>
-      <c r="E56" s="118"/>
-      <c r="F56" s="118"/>
-      <c r="G56" s="118"/>
-      <c r="H56" s="118"/>
-      <c r="I56" s="118"/>
-      <c r="J56" s="118"/>
-      <c r="K56" s="118"/>
-      <c r="L56" s="118"/>
-      <c r="M56" s="118"/>
-      <c r="N56" s="118"/>
-      <c r="O56" s="118"/>
+      <c r="D56" s="108"/>
+      <c r="E56" s="108"/>
+      <c r="F56" s="108"/>
+      <c r="G56" s="108"/>
+      <c r="H56" s="108"/>
+      <c r="I56" s="108"/>
+      <c r="J56" s="108"/>
+      <c r="K56" s="108"/>
+      <c r="L56" s="108"/>
+      <c r="M56" s="108"/>
+      <c r="N56" s="108"/>
+      <c r="O56" s="108"/>
       <c r="P56" s="48"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="48"/>
       <c r="B57" s="48"/>
       <c r="C57" s="48"/>
-      <c r="D57" s="118"/>
-      <c r="E57" s="118"/>
-      <c r="F57" s="118"/>
-      <c r="G57" s="118"/>
-      <c r="H57" s="118"/>
-      <c r="I57" s="118"/>
-      <c r="J57" s="118"/>
-      <c r="K57" s="118"/>
-      <c r="L57" s="118"/>
-      <c r="M57" s="118"/>
-      <c r="N57" s="118"/>
-      <c r="O57" s="118"/>
+      <c r="D57" s="108"/>
+      <c r="E57" s="108"/>
+      <c r="F57" s="108"/>
+      <c r="G57" s="108"/>
+      <c r="H57" s="108"/>
+      <c r="I57" s="108"/>
+      <c r="J57" s="108"/>
+      <c r="K57" s="108"/>
+      <c r="L57" s="108"/>
+      <c r="M57" s="108"/>
+      <c r="N57" s="108"/>
+      <c r="O57" s="108"/>
       <c r="P57" s="48"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="48"/>
       <c r="B58" s="48"/>
       <c r="C58" s="48"/>
-      <c r="D58" s="118"/>
-      <c r="E58" s="118"/>
-      <c r="F58" s="118"/>
-      <c r="G58" s="118"/>
-      <c r="H58" s="118"/>
-      <c r="I58" s="118"/>
-      <c r="J58" s="118"/>
-      <c r="K58" s="118"/>
-      <c r="L58" s="118"/>
-      <c r="M58" s="118"/>
-      <c r="N58" s="118"/>
-      <c r="O58" s="118"/>
+      <c r="D58" s="108"/>
+      <c r="E58" s="108"/>
+      <c r="F58" s="108"/>
+      <c r="G58" s="108"/>
+      <c r="H58" s="108"/>
+      <c r="I58" s="108"/>
+      <c r="J58" s="108"/>
+      <c r="K58" s="108"/>
+      <c r="L58" s="108"/>
+      <c r="M58" s="108"/>
+      <c r="N58" s="108"/>
+      <c r="O58" s="108"/>
       <c r="P58" s="48"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="48"/>
       <c r="B59" s="48"/>
       <c r="C59" s="48"/>
-      <c r="D59" s="118"/>
-      <c r="E59" s="118"/>
-      <c r="F59" s="118"/>
-      <c r="G59" s="118"/>
-      <c r="H59" s="118"/>
-      <c r="I59" s="118"/>
-      <c r="J59" s="118"/>
-      <c r="K59" s="118"/>
-      <c r="L59" s="118"/>
-      <c r="M59" s="118"/>
-      <c r="N59" s="118"/>
-      <c r="O59" s="118"/>
+      <c r="D59" s="108"/>
+      <c r="E59" s="108"/>
+      <c r="F59" s="108"/>
+      <c r="G59" s="108"/>
+      <c r="H59" s="108"/>
+      <c r="I59" s="108"/>
+      <c r="J59" s="108"/>
+      <c r="K59" s="108"/>
+      <c r="L59" s="108"/>
+      <c r="M59" s="108"/>
+      <c r="N59" s="108"/>
+      <c r="O59" s="108"/>
       <c r="P59" s="48"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="48"/>
       <c r="B60" s="48"/>
       <c r="C60" s="48"/>
-      <c r="D60" s="118"/>
-      <c r="E60" s="118"/>
-      <c r="F60" s="118"/>
-      <c r="G60" s="118"/>
-      <c r="H60" s="118"/>
-      <c r="I60" s="118"/>
-      <c r="J60" s="118"/>
-      <c r="K60" s="118"/>
-      <c r="L60" s="118"/>
-      <c r="M60" s="118"/>
-      <c r="N60" s="118"/>
-      <c r="O60" s="118"/>
+      <c r="D60" s="108"/>
+      <c r="E60" s="108"/>
+      <c r="F60" s="108"/>
+      <c r="G60" s="108"/>
+      <c r="H60" s="108"/>
+      <c r="I60" s="108"/>
+      <c r="J60" s="108"/>
+      <c r="K60" s="108"/>
+      <c r="L60" s="108"/>
+      <c r="M60" s="108"/>
+      <c r="N60" s="108"/>
+      <c r="O60" s="108"/>
       <c r="P60" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="E37:E40"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="A32:A40"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A11:A26"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="E23:E25"/>
     <mergeCell ref="E27:E28"/>
@@ -25177,16 +23908,21 @@
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B8:B10"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A11:A26"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="E37:E40"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="A32:A40"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25199,7 +23935,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="F18" sqref="A1:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -25213,12 +23949,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="162"/>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="164"/>
+      <c r="A1" s="147"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="149"/>
     </row>
     <row r="2" spans="1:6" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
@@ -25234,221 +23970,213 @@
         <v>6</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="F2" s="30" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="153"/>
-      <c r="B3" s="154"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="154"/>
-      <c r="F3" s="155"/>
+      <c r="A3" s="158"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="160"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="166" t="s">
+      <c r="A4" s="154" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="127">
+      <c r="C4" s="117">
         <v>1</v>
       </c>
-      <c r="D4" s="127" t="s">
-        <v>289</v>
+      <c r="D4" s="144" t="s">
+        <v>283</v>
       </c>
       <c r="E4" s="33"/>
       <c r="F4" s="34"/>
     </row>
     <row r="5" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="180"/>
-      <c r="B5" s="80" t="s">
+      <c r="A5" s="164"/>
+      <c r="B5" s="75" t="s">
         <v>265</v>
       </c>
-      <c r="C5" s="128">
+      <c r="C5" s="118">
         <v>1</v>
       </c>
-      <c r="D5" s="128" t="s">
-        <v>315</v>
-      </c>
+      <c r="D5" s="157"/>
       <c r="E5" s="35"/>
       <c r="F5" s="36"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="151" t="s">
+      <c r="A6" s="150" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="126">
+      <c r="C6" s="116">
         <v>1</v>
       </c>
-      <c r="D6" s="126" t="s">
-        <v>316</v>
+      <c r="D6" s="156" t="s">
+        <v>308</v>
       </c>
       <c r="E6" s="31"/>
       <c r="F6" s="32"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="152"/>
-      <c r="B7" s="86" t="s">
+      <c r="A7" s="151"/>
+      <c r="B7" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="127">
+      <c r="C7" s="117">
         <v>1</v>
       </c>
-      <c r="D7" s="127" t="s">
-        <v>317</v>
-      </c>
+      <c r="D7" s="146"/>
       <c r="E7" s="33"/>
       <c r="F7" s="34"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="152"/>
-      <c r="B8" s="84" t="s">
-        <v>269</v>
-      </c>
-      <c r="C8" s="127">
+      <c r="A8" s="151"/>
+      <c r="B8" s="77" t="s">
+        <v>266</v>
+      </c>
+      <c r="C8" s="117">
         <v>1</v>
       </c>
-      <c r="D8" s="127" t="s">
-        <v>318</v>
+      <c r="D8" s="117" t="s">
+        <v>309</v>
       </c>
       <c r="E8" s="33"/>
       <c r="F8" s="34"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="152"/>
-      <c r="B9" s="79" t="s">
+      <c r="A9" s="151"/>
+      <c r="B9" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="127">
+      <c r="C9" s="117">
         <v>1</v>
       </c>
-      <c r="D9" s="127" t="s">
-        <v>295</v>
+      <c r="D9" s="144" t="s">
+        <v>289</v>
       </c>
       <c r="E9" s="33"/>
       <c r="F9" s="34"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="152"/>
-      <c r="B10" s="84" t="s">
-        <v>302</v>
-      </c>
-      <c r="C10" s="127">
+      <c r="A10" s="151"/>
+      <c r="B10" s="77" t="s">
+        <v>295</v>
+      </c>
+      <c r="C10" s="117">
         <v>1</v>
       </c>
-      <c r="D10" s="127" t="s">
-        <v>295</v>
-      </c>
+      <c r="D10" s="146"/>
       <c r="E10" s="33"/>
       <c r="F10" s="34"/>
     </row>
     <row r="11" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="180"/>
-      <c r="B11" s="86" t="s">
+      <c r="A11" s="164"/>
+      <c r="B11" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="127">
+      <c r="C11" s="117">
         <v>2</v>
       </c>
-      <c r="D11" s="127" t="s">
-        <v>319</v>
+      <c r="D11" s="117" t="s">
+        <v>310</v>
       </c>
       <c r="E11" s="33"/>
       <c r="F11" s="34"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="151" t="s">
+      <c r="A12" s="150" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="78" t="s">
+      <c r="B12" s="73" t="s">
         <v>127</v>
       </c>
-      <c r="C12" s="126">
+      <c r="C12" s="116">
         <v>3</v>
       </c>
-      <c r="D12" s="126" t="s">
-        <v>320</v>
+      <c r="D12" s="116" t="s">
+        <v>311</v>
       </c>
       <c r="E12" s="31"/>
       <c r="F12" s="32"/>
     </row>
     <row r="13" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="180"/>
+      <c r="A13" s="164"/>
       <c r="B13" s="68" t="s">
         <v>139</v>
       </c>
-      <c r="C13" s="128">
+      <c r="C13" s="118">
         <v>2</v>
       </c>
-      <c r="D13" s="128" t="s">
-        <v>314</v>
+      <c r="D13" s="118" t="s">
+        <v>307</v>
       </c>
       <c r="E13" s="35"/>
       <c r="F13" s="36"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="151" t="s">
+      <c r="A14" s="150" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="85" t="s">
+      <c r="B14" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="130">
+      <c r="C14" s="120">
         <v>3</v>
       </c>
-      <c r="D14" s="130" t="s">
-        <v>289</v>
+      <c r="D14" s="120" t="s">
+        <v>283</v>
       </c>
       <c r="E14" s="55"/>
       <c r="F14" s="56"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="152"/>
-      <c r="B15" s="85" t="s">
-        <v>273</v>
-      </c>
-      <c r="C15" s="127">
+      <c r="A15" s="151"/>
+      <c r="B15" s="78" t="s">
+        <v>267</v>
+      </c>
+      <c r="C15" s="117">
         <v>2</v>
       </c>
-      <c r="D15" s="127" t="s">
-        <v>321</v>
+      <c r="D15" s="117" t="s">
+        <v>312</v>
       </c>
       <c r="E15" s="33"/>
       <c r="F15" s="34"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="152"/>
-      <c r="B16" s="79" t="s">
-        <v>274</v>
-      </c>
-      <c r="C16" s="127">
+      <c r="A16" s="151"/>
+      <c r="B16" s="74" t="s">
+        <v>268</v>
+      </c>
+      <c r="C16" s="117">
         <v>3</v>
       </c>
-      <c r="D16" s="127" t="s">
-        <v>295</v>
+      <c r="D16" s="144" t="s">
+        <v>289</v>
       </c>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
     </row>
     <row r="17" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="180"/>
-      <c r="B17" s="90" t="s">
-        <v>275</v>
-      </c>
-      <c r="C17" s="131">
+      <c r="A17" s="164"/>
+      <c r="B17" s="80" t="s">
+        <v>269</v>
+      </c>
+      <c r="C17" s="121">
         <v>3</v>
       </c>
-      <c r="D17" s="131" t="s">
-        <v>295</v>
-      </c>
+      <c r="D17" s="157"/>
       <c r="E17" s="44"/>
       <c r="F17" s="45"/>
     </row>
@@ -25456,14 +24184,14 @@
       <c r="A18" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="70" t="s">
+      <c r="B18" s="69" t="s">
         <v>69</v>
       </c>
       <c r="C18" s="52">
         <v>1</v>
       </c>
       <c r="D18" s="52" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="E18" s="53"/>
       <c r="F18" s="54"/>
@@ -25641,13 +24369,17 @@
       <c r="G37" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="10">
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:F3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D16:D17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WebContent/발표/3조 5차 요구사항정의서.xlsx
+++ b/WebContent/발표/3조 5차 요구사항정의서.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a01_javaexp\github\project05\WebContent\발표\1차\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\507-14\Desktop\project05\WebContent\발표\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,8 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="sw수정" sheetId="4" r:id="rId4"/>
     <sheet name="담당자 및 진행도" sheetId="5" r:id="rId5"/>
-    <sheet name="간략" sheetId="6" r:id="rId6"/>
+    <sheet name="진행상황" sheetId="7" r:id="rId6"/>
+    <sheet name="간략" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="441">
   <si>
     <t>구분</t>
   </si>
@@ -1402,6 +1403,772 @@
   <si>
     <t>메인
 main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마감일</t>
+  </si>
+  <si>
+    <t>진행도</t>
+  </si>
+  <si>
+    <t>화면</t>
+  </si>
+  <si>
+    <t>기능</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>김형준</t>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>일</t>
+    </r>
+  </si>
+  <si>
+    <t>0/1</t>
+  </si>
+  <si>
+    <t>상품 조회</t>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>일</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0/1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>　</t>
+    </r>
+  </si>
+  <si>
+    <t>상품 상세보기</t>
+  </si>
+  <si>
+    <r>
+      <t>0/2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>　</t>
+    </r>
+  </si>
+  <si>
+    <t>상품 등록</t>
+  </si>
+  <si>
+    <t>주문목록</t>
+  </si>
+  <si>
+    <t>최민기</t>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>일</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>관리</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>목록</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>상세</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>일</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>일</t>
+    </r>
+  </si>
+  <si>
+    <t>0/2</t>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>일</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>일</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>일</t>
+    </r>
+  </si>
+  <si>
+    <t>회원서비스</t>
+  </si>
+  <si>
+    <t>조립 컴퓨터</t>
+  </si>
+  <si>
+    <t>조립 컴퓨터 카테고리</t>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>일</t>
+    </r>
+  </si>
+  <si>
+    <t>조립 컴퓨터 목록</t>
+  </si>
+  <si>
+    <t>조립 컴퓨터 상세보기</t>
+  </si>
+  <si>
+    <t>조립 컴퓨터 부품추가</t>
+  </si>
+  <si>
+    <t>컴퓨터 부품</t>
+  </si>
+  <si>
+    <t>컴퓨터 부품 카테고리</t>
+  </si>
+  <si>
+    <t>컴퓨터 부품 목록</t>
+  </si>
+  <si>
+    <t>컴퓨터 부품 상세</t>
+  </si>
+  <si>
+    <t>견적문의</t>
+  </si>
+  <si>
+    <t>한송우</t>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>일</t>
+    </r>
+  </si>
+  <si>
+    <t>0/6</t>
+  </si>
+  <si>
+    <t>견적목록</t>
+  </si>
+  <si>
+    <t>0/3</t>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>일</t>
+    </r>
+  </si>
+  <si>
+    <t>결제</t>
+  </si>
+  <si>
+    <t>결제하기</t>
+  </si>
+  <si>
+    <t>고객센터</t>
+  </si>
+  <si>
+    <t>공지사항</t>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>27</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>일</t>
+    </r>
+  </si>
+  <si>
+    <t>문의사항</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>신청</t>
+    </r>
+  </si>
+  <si>
+    <t>0/12</t>
+  </si>
+  <si>
+    <t>마이페이지</t>
+  </si>
+  <si>
+    <t>내정보</t>
+  </si>
+  <si>
+    <r>
+      <t>주문</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>배송관리</t>
+    </r>
+  </si>
+  <si>
+    <t>주문내역조회</t>
+  </si>
+  <si>
+    <t>세부유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마일리지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조회</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0/1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/1</t>
+  </si>
+  <si>
+    <t>1/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면설계</t>
+  </si>
+  <si>
+    <t>DB(SQL)</t>
+  </si>
+  <si>
+    <t>66%(2/3)</t>
+  </si>
+  <si>
+    <t>50%(1/2)</t>
+  </si>
+  <si>
+    <r>
+      <t>김형준</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>최민기</t>
+    </r>
+  </si>
+  <si>
+    <t>1/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1409,7 +2176,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1432,8 +2199,66 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="굴림"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1488,8 +2313,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0CECE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="48">
+  <borders count="81">
     <border>
       <left/>
       <right/>
@@ -2100,13 +2949,448 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="272">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2500,10 +3784,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2512,19 +3796,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2536,10 +3814,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2554,52 +3880,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2617,17 +3913,299 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="12" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="12" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="12" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="10" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="13" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="13" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="12" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="12" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="12" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="12" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="12" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="12" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2992,10 +4570,10 @@
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="140" t="s">
+      <c r="B3" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="131" t="s">
+      <c r="C3" s="135" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="15" t="s">
@@ -3012,8 +4590,8 @@
       <c r="K3" s="11"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="141"/>
-      <c r="C4" s="132"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="136"/>
       <c r="D4" s="13" t="s">
         <v>13</v>
       </c>
@@ -3028,8 +4606,8 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="141"/>
-      <c r="C5" s="135"/>
+      <c r="B5" s="139"/>
+      <c r="C5" s="137"/>
       <c r="D5" s="16" t="s">
         <v>15</v>
       </c>
@@ -3044,8 +4622,8 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="141"/>
-      <c r="C6" s="131" t="s">
+      <c r="B6" s="139"/>
+      <c r="C6" s="135" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="12" t="s">
@@ -3062,8 +4640,8 @@
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="141"/>
-      <c r="C7" s="132"/>
+      <c r="B7" s="139"/>
+      <c r="C7" s="136"/>
       <c r="D7" s="13" t="s">
         <v>20</v>
       </c>
@@ -3078,8 +4656,8 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="142"/>
-      <c r="C8" s="135"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="137"/>
       <c r="D8" s="16" t="s">
         <v>17</v>
       </c>
@@ -3096,10 +4674,10 @@
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="132" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="131" t="s">
+      <c r="C9" s="135" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="15" t="s">
@@ -3117,7 +4695,7 @@
     </row>
     <row r="10" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="133"/>
-      <c r="C10" s="135"/>
+      <c r="C10" s="137"/>
       <c r="D10" s="17" t="s">
         <v>25</v>
       </c>
@@ -3133,10 +4711,10 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="133"/>
-      <c r="C11" s="131" t="s">
+      <c r="C11" s="135" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="136" t="s">
+      <c r="D11" s="141" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="10" t="s">
@@ -3151,8 +4729,8 @@
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="133"/>
-      <c r="C12" s="132"/>
-      <c r="D12" s="138"/>
+      <c r="C12" s="136"/>
+      <c r="D12" s="142"/>
       <c r="E12" s="1" t="s">
         <v>34</v>
       </c>
@@ -3165,7 +4743,7 @@
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="133"/>
-      <c r="C13" s="132"/>
+      <c r="C13" s="136"/>
       <c r="D13" s="13" t="s">
         <v>31</v>
       </c>
@@ -3181,7 +4759,7 @@
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="133"/>
-      <c r="C14" s="132"/>
+      <c r="C14" s="136"/>
       <c r="D14" s="13" t="s">
         <v>32</v>
       </c>
@@ -3197,7 +4775,7 @@
     </row>
     <row r="15" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="133"/>
-      <c r="C15" s="135"/>
+      <c r="C15" s="137"/>
       <c r="D15" s="17" t="s">
         <v>35</v>
       </c>
@@ -3215,7 +4793,7 @@
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="133"/>
-      <c r="C16" s="131" t="s">
+      <c r="C16" s="135" t="s">
         <v>38</v>
       </c>
       <c r="D16" s="15" t="s">
@@ -3233,7 +4811,7 @@
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="133"/>
-      <c r="C17" s="132"/>
+      <c r="C17" s="136"/>
       <c r="D17" s="13" t="s">
         <v>31</v>
       </c>
@@ -3249,7 +4827,7 @@
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="133"/>
-      <c r="C18" s="132"/>
+      <c r="C18" s="136"/>
       <c r="D18" s="13" t="s">
         <v>42</v>
       </c>
@@ -3265,7 +4843,7 @@
     </row>
     <row r="19" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="134"/>
-      <c r="C19" s="135"/>
+      <c r="C19" s="137"/>
       <c r="D19" s="17" t="s">
         <v>35</v>
       </c>
@@ -3280,10 +4858,10 @@
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="139" t="s">
+      <c r="B20" s="132" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="131" t="s">
+      <c r="C20" s="135" t="s">
         <v>46</v>
       </c>
       <c r="D20" s="15" t="s">
@@ -3301,7 +4879,7 @@
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="133"/>
-      <c r="C21" s="132"/>
+      <c r="C21" s="136"/>
       <c r="D21" s="13" t="s">
         <v>48</v>
       </c>
@@ -3317,7 +4895,7 @@
     </row>
     <row r="22" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="133"/>
-      <c r="C22" s="135"/>
+      <c r="C22" s="137"/>
       <c r="D22" s="16" t="s">
         <v>52</v>
       </c>
@@ -3350,10 +4928,10 @@
       <c r="K23" s="20"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="139" t="s">
+      <c r="B24" s="132" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="131" t="s">
+      <c r="C24" s="135" t="s">
         <v>49</v>
       </c>
       <c r="D24" s="15" t="s">
@@ -3371,7 +4949,7 @@
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" s="133"/>
-      <c r="C25" s="132"/>
+      <c r="C25" s="136"/>
       <c r="D25" s="13" t="s">
         <v>59</v>
       </c>
@@ -3387,7 +4965,7 @@
     </row>
     <row r="26" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="133"/>
-      <c r="C26" s="135"/>
+      <c r="C26" s="137"/>
       <c r="D26" s="16" t="s">
         <v>61</v>
       </c>
@@ -3458,10 +5036,10 @@
       <c r="K29" s="20"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="131" t="s">
+      <c r="B30" s="135" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="136" t="s">
+      <c r="C30" s="141" t="s">
         <v>71</v>
       </c>
       <c r="D30" s="15" t="s">
@@ -3478,8 +5056,8 @@
       <c r="K30" s="11"/>
     </row>
     <row r="31" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="132"/>
-      <c r="C31" s="137"/>
+      <c r="B31" s="136"/>
+      <c r="C31" s="143"/>
       <c r="D31" s="14" t="s">
         <v>74</v>
       </c>
@@ -3495,7 +5073,7 @@
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B32" s="133"/>
-      <c r="C32" s="131" t="s">
+      <c r="C32" s="135" t="s">
         <v>85</v>
       </c>
       <c r="D32" s="15" t="s">
@@ -3513,7 +5091,7 @@
     </row>
     <row r="33" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="133"/>
-      <c r="C33" s="135"/>
+      <c r="C33" s="137"/>
       <c r="D33" s="16" t="s">
         <v>88</v>
       </c>
@@ -3529,7 +5107,7 @@
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B34" s="133"/>
-      <c r="C34" s="131" t="s">
+      <c r="C34" s="135" t="s">
         <v>90</v>
       </c>
       <c r="D34" s="15" t="s">
@@ -3547,7 +5125,7 @@
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B35" s="133"/>
-      <c r="C35" s="132"/>
+      <c r="C35" s="136"/>
       <c r="D35" s="13"/>
       <c r="E35" s="1" t="s">
         <v>34</v>
@@ -3561,7 +5139,7 @@
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B36" s="133"/>
-      <c r="C36" s="132"/>
+      <c r="C36" s="136"/>
       <c r="D36" s="13" t="s">
         <v>31</v>
       </c>
@@ -3577,7 +5155,7 @@
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="133"/>
-      <c r="C37" s="132"/>
+      <c r="C37" s="136"/>
       <c r="D37" s="13" t="s">
         <v>92</v>
       </c>
@@ -3593,7 +5171,7 @@
     </row>
     <row r="38" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="133"/>
-      <c r="C38" s="135"/>
+      <c r="C38" s="137"/>
       <c r="D38" s="16" t="s">
         <v>94</v>
       </c>
@@ -3609,7 +5187,7 @@
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B39" s="133"/>
-      <c r="C39" s="131" t="s">
+      <c r="C39" s="135" t="s">
         <v>38</v>
       </c>
       <c r="D39" s="15" t="s">
@@ -3627,7 +5205,7 @@
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B40" s="133"/>
-      <c r="C40" s="132"/>
+      <c r="C40" s="136"/>
       <c r="D40" s="13" t="s">
         <v>31</v>
       </c>
@@ -3643,7 +5221,7 @@
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B41" s="133"/>
-      <c r="C41" s="132"/>
+      <c r="C41" s="136"/>
       <c r="D41" s="13" t="s">
         <v>92</v>
       </c>
@@ -3659,7 +5237,7 @@
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B42" s="133"/>
-      <c r="C42" s="132"/>
+      <c r="C42" s="136"/>
       <c r="D42" s="13" t="s">
         <v>35</v>
       </c>
@@ -3675,7 +5253,7 @@
     </row>
     <row r="43" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="133"/>
-      <c r="C43" s="135"/>
+      <c r="C43" s="137"/>
       <c r="D43" s="16" t="s">
         <v>97</v>
       </c>
@@ -3691,7 +5269,7 @@
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B44" s="133"/>
-      <c r="C44" s="131" t="s">
+      <c r="C44" s="135" t="s">
         <v>76</v>
       </c>
       <c r="D44" s="15" t="s">
@@ -3709,7 +5287,7 @@
     </row>
     <row r="45" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B45" s="133"/>
-      <c r="C45" s="135"/>
+      <c r="C45" s="137"/>
       <c r="D45" s="16" t="s">
         <v>79</v>
       </c>
@@ -3725,7 +5303,7 @@
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B46" s="133"/>
-      <c r="C46" s="131" t="s">
+      <c r="C46" s="135" t="s">
         <v>81</v>
       </c>
       <c r="D46" s="15" t="s">
@@ -3743,7 +5321,7 @@
     </row>
     <row r="47" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="133"/>
-      <c r="C47" s="135"/>
+      <c r="C47" s="137"/>
       <c r="D47" s="16" t="s">
         <v>83</v>
       </c>
@@ -3759,7 +5337,7 @@
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B48" s="133"/>
-      <c r="C48" s="131" t="s">
+      <c r="C48" s="135" t="s">
         <v>56</v>
       </c>
       <c r="D48" s="15" t="s">
@@ -3777,7 +5355,7 @@
     </row>
     <row r="49" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49" s="134"/>
-      <c r="C49" s="135"/>
+      <c r="C49" s="137"/>
       <c r="D49" s="16" t="s">
         <v>101</v>
       </c>
@@ -3793,18 +5371,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B9:B19"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C22"/>
     <mergeCell ref="B30:B49"/>
     <mergeCell ref="C39:C43"/>
     <mergeCell ref="C34:C38"/>
@@ -3813,6 +5379,18 @@
     <mergeCell ref="C48:C49"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B9:B19"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3842,15 +5420,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="154"/>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
-      <c r="I1" s="156"/>
+      <c r="A1" s="148"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="150"/>
     </row>
     <row r="2" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
@@ -3882,21 +5460,21 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="145"/>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="147"/>
+      <c r="A3" s="159"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="161"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="148" t="s">
+      <c r="A4" s="162" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="151" t="s">
+      <c r="B4" s="156" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="37" t="s">
@@ -3912,8 +5490,8 @@
       <c r="I4" s="32"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="149"/>
-      <c r="B5" s="152"/>
+      <c r="A5" s="154"/>
+      <c r="B5" s="144"/>
       <c r="C5" s="38" t="s">
         <v>13</v>
       </c>
@@ -3927,8 +5505,8 @@
       <c r="I5" s="34"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="149"/>
-      <c r="B6" s="152"/>
+      <c r="A6" s="154"/>
+      <c r="B6" s="144"/>
       <c r="C6" s="38" t="s">
         <v>15</v>
       </c>
@@ -3942,8 +5520,8 @@
       <c r="I6" s="34"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="149"/>
-      <c r="B7" s="152" t="s">
+      <c r="A7" s="154"/>
+      <c r="B7" s="144" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="38" t="s">
@@ -3959,8 +5537,8 @@
       <c r="I7" s="34"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="149"/>
-      <c r="B8" s="152"/>
+      <c r="A8" s="154"/>
+      <c r="B8" s="144"/>
       <c r="C8" s="38" t="s">
         <v>20</v>
       </c>
@@ -3974,8 +5552,8 @@
       <c r="I8" s="34"/>
     </row>
     <row r="9" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="150"/>
-      <c r="B9" s="153"/>
+      <c r="A9" s="163"/>
+      <c r="B9" s="164"/>
       <c r="C9" s="39" t="s">
         <v>17</v>
       </c>
@@ -3989,10 +5567,10 @@
       <c r="I9" s="36"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="143" t="s">
+      <c r="A10" s="151" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="160" t="s">
+      <c r="B10" s="157" t="s">
         <v>103</v>
       </c>
       <c r="C10" s="37" t="s">
@@ -4008,8 +5586,8 @@
       <c r="I10" s="32"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="144"/>
-      <c r="B11" s="161"/>
+      <c r="A11" s="152"/>
+      <c r="B11" s="146"/>
       <c r="C11" s="38" t="s">
         <v>105</v>
       </c>
@@ -4023,8 +5601,8 @@
       <c r="I11" s="34"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="144"/>
-      <c r="B12" s="161"/>
+      <c r="A12" s="152"/>
+      <c r="B12" s="146"/>
       <c r="C12" s="38" t="s">
         <v>92</v>
       </c>
@@ -4038,8 +5616,8 @@
       <c r="I12" s="34"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="144"/>
-      <c r="B13" s="159"/>
+      <c r="A13" s="152"/>
+      <c r="B13" s="147"/>
       <c r="C13" s="38" t="s">
         <v>109</v>
       </c>
@@ -4055,8 +5633,8 @@
       <c r="I13" s="34"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="144"/>
-      <c r="B14" s="162" t="s">
+      <c r="A14" s="152"/>
+      <c r="B14" s="145" t="s">
         <v>180</v>
       </c>
       <c r="C14" s="38" t="s">
@@ -4072,8 +5650,8 @@
       <c r="I14" s="34"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="144"/>
-      <c r="B15" s="161"/>
+      <c r="A15" s="152"/>
+      <c r="B15" s="146"/>
       <c r="C15" s="38" t="s">
         <v>184</v>
       </c>
@@ -4087,8 +5665,8 @@
       <c r="I15" s="34"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="144"/>
-      <c r="B16" s="162" t="s">
+      <c r="A16" s="152"/>
+      <c r="B16" s="145" t="s">
         <v>111</v>
       </c>
       <c r="C16" s="58" t="s">
@@ -4104,8 +5682,8 @@
       <c r="I16" s="34"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="144"/>
-      <c r="B17" s="161"/>
+      <c r="A17" s="152"/>
+      <c r="B17" s="146"/>
       <c r="C17" s="38" t="s">
         <v>105</v>
       </c>
@@ -4119,8 +5697,8 @@
       <c r="I17" s="34"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="144"/>
-      <c r="B18" s="161"/>
+      <c r="A18" s="152"/>
+      <c r="B18" s="146"/>
       <c r="C18" s="38" t="s">
         <v>113</v>
       </c>
@@ -4136,8 +5714,8 @@
       <c r="I18" s="34"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="144"/>
-      <c r="B19" s="159"/>
+      <c r="A19" s="152"/>
+      <c r="B19" s="147"/>
       <c r="C19" s="38" t="s">
         <v>109</v>
       </c>
@@ -4151,8 +5729,8 @@
       <c r="I19" s="34"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="144"/>
-      <c r="B20" s="162" t="s">
+      <c r="A20" s="152"/>
+      <c r="B20" s="145" t="s">
         <v>193</v>
       </c>
       <c r="C20" s="59" t="s">
@@ -4168,8 +5746,8 @@
       <c r="I20" s="34"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="144"/>
-      <c r="B21" s="159"/>
+      <c r="A21" s="152"/>
+      <c r="B21" s="147"/>
       <c r="C21" s="59" t="s">
         <v>194</v>
       </c>
@@ -4183,8 +5761,8 @@
       <c r="I21" s="34"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="144"/>
-      <c r="B22" s="162" t="s">
+      <c r="A22" s="152"/>
+      <c r="B22" s="145" t="s">
         <v>115</v>
       </c>
       <c r="C22" s="38" t="s">
@@ -4200,8 +5778,8 @@
       <c r="I22" s="34"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="144"/>
-      <c r="B23" s="161"/>
+      <c r="A23" s="152"/>
+      <c r="B23" s="146"/>
       <c r="C23" s="38" t="s">
         <v>118</v>
       </c>
@@ -4215,8 +5793,8 @@
       <c r="I23" s="34"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="144"/>
-      <c r="B24" s="161"/>
+      <c r="A24" s="152"/>
+      <c r="B24" s="146"/>
       <c r="C24" s="38" t="s">
         <v>120</v>
       </c>
@@ -4230,8 +5808,8 @@
       <c r="I24" s="34"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="144"/>
-      <c r="B25" s="159"/>
+      <c r="A25" s="152"/>
+      <c r="B25" s="147"/>
       <c r="C25" s="38" t="s">
         <v>122</v>
       </c>
@@ -4245,8 +5823,8 @@
       <c r="I25" s="34"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="144"/>
-      <c r="B26" s="162" t="s">
+      <c r="A26" s="152"/>
+      <c r="B26" s="145" t="s">
         <v>174</v>
       </c>
       <c r="C26" s="38" t="s">
@@ -4262,8 +5840,8 @@
       <c r="I26" s="34"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="144"/>
-      <c r="B27" s="161"/>
+      <c r="A27" s="152"/>
+      <c r="B27" s="146"/>
       <c r="C27" s="38" t="s">
         <v>178</v>
       </c>
@@ -4277,8 +5855,8 @@
       <c r="I27" s="34"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="144"/>
-      <c r="B28" s="161"/>
+      <c r="A28" s="152"/>
+      <c r="B28" s="146"/>
       <c r="C28" s="38" t="s">
         <v>182</v>
       </c>
@@ -4292,8 +5870,8 @@
       <c r="I28" s="34"/>
     </row>
     <row r="29" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="144"/>
-      <c r="B29" s="161"/>
+      <c r="A29" s="152"/>
+      <c r="B29" s="146"/>
       <c r="C29" s="58" t="s">
         <v>176</v>
       </c>
@@ -4307,10 +5885,10 @@
       <c r="I29" s="45"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="143" t="s">
+      <c r="A30" s="151" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="151" t="s">
+      <c r="B30" s="156" t="s">
         <v>127</v>
       </c>
       <c r="C30" s="62" t="s">
@@ -4326,8 +5904,8 @@
       <c r="I30" s="32"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="144"/>
-      <c r="B31" s="152"/>
+      <c r="A31" s="152"/>
+      <c r="B31" s="144"/>
       <c r="C31" s="63" t="s">
         <v>129</v>
       </c>
@@ -4341,8 +5919,8 @@
       <c r="I31" s="34"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="144"/>
-      <c r="B32" s="152"/>
+      <c r="A32" s="152"/>
+      <c r="B32" s="144"/>
       <c r="C32" s="63" t="s">
         <v>132</v>
       </c>
@@ -4356,8 +5934,8 @@
       <c r="I32" s="34"/>
     </row>
     <row r="33" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A33" s="144"/>
-      <c r="B33" s="152"/>
+      <c r="A33" s="152"/>
+      <c r="B33" s="144"/>
       <c r="C33" s="63" t="s">
         <v>125</v>
       </c>
@@ -4371,8 +5949,8 @@
       <c r="I33" s="34"/>
     </row>
     <row r="34" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A34" s="144"/>
-      <c r="B34" s="152" t="s">
+      <c r="A34" s="152"/>
+      <c r="B34" s="144" t="s">
         <v>133</v>
       </c>
       <c r="C34" s="63" t="s">
@@ -4388,8 +5966,8 @@
       <c r="I34" s="45"/>
     </row>
     <row r="35" spans="1:16384" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="144"/>
-      <c r="B35" s="152"/>
+      <c r="A35" s="152"/>
+      <c r="B35" s="144"/>
       <c r="C35" s="63" t="s">
         <v>134</v>
       </c>
@@ -20778,8 +22356,8 @@
       <c r="XFD35" s="46"/>
     </row>
     <row r="36" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A36" s="144"/>
-      <c r="B36" s="152"/>
+      <c r="A36" s="152"/>
+      <c r="B36" s="144"/>
       <c r="C36" s="64" t="s">
         <v>187</v>
       </c>
@@ -20791,8 +22369,8 @@
       <c r="I36" s="56"/>
     </row>
     <row r="37" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A37" s="144"/>
-      <c r="B37" s="152" t="s">
+      <c r="A37" s="152"/>
+      <c r="B37" s="144" t="s">
         <v>136</v>
       </c>
       <c r="C37" s="63" t="s">
@@ -20808,8 +22386,8 @@
       <c r="I37" s="34"/>
     </row>
     <row r="38" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A38" s="144"/>
-      <c r="B38" s="152"/>
+      <c r="A38" s="152"/>
+      <c r="B38" s="144"/>
       <c r="C38" s="63" t="s">
         <v>92</v>
       </c>
@@ -20823,7 +22401,7 @@
       <c r="I38" s="34"/>
     </row>
     <row r="39" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A39" s="144"/>
+      <c r="A39" s="152"/>
       <c r="B39" s="57" t="s">
         <v>139</v>
       </c>
@@ -20840,10 +22418,10 @@
       <c r="I39" s="34"/>
     </row>
     <row r="40" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A40" s="157" t="s">
+      <c r="A40" s="153" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="159" t="s">
+      <c r="B40" s="147" t="s">
         <v>71</v>
       </c>
       <c r="C40" s="41" t="s">
@@ -20859,8 +22437,8 @@
       <c r="I40" s="56"/>
     </row>
     <row r="41" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A41" s="149"/>
-      <c r="B41" s="152"/>
+      <c r="A41" s="154"/>
+      <c r="B41" s="144"/>
       <c r="C41" s="40" t="s">
         <v>74</v>
       </c>
@@ -20874,8 +22452,8 @@
       <c r="I41" s="34"/>
     </row>
     <row r="42" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A42" s="149"/>
-      <c r="B42" s="152" t="s">
+      <c r="A42" s="154"/>
+      <c r="B42" s="144" t="s">
         <v>152</v>
       </c>
       <c r="C42" s="40" t="s">
@@ -20891,8 +22469,8 @@
       <c r="I42" s="34"/>
     </row>
     <row r="43" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A43" s="149"/>
-      <c r="B43" s="152"/>
+      <c r="A43" s="154"/>
+      <c r="B43" s="144"/>
       <c r="C43" s="40" t="s">
         <v>144</v>
       </c>
@@ -20906,11 +22484,11 @@
       <c r="I43" s="34"/>
     </row>
     <row r="44" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A44" s="149"/>
-      <c r="B44" s="152" t="s">
+      <c r="A44" s="154"/>
+      <c r="B44" s="144" t="s">
         <v>163</v>
       </c>
-      <c r="C44" s="162" t="s">
+      <c r="C44" s="145" t="s">
         <v>162</v>
       </c>
       <c r="D44" s="33" t="s">
@@ -20923,9 +22501,9 @@
       <c r="I44" s="34"/>
     </row>
     <row r="45" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A45" s="149"/>
-      <c r="B45" s="152"/>
-      <c r="C45" s="159"/>
+      <c r="A45" s="154"/>
+      <c r="B45" s="144"/>
+      <c r="C45" s="147"/>
       <c r="D45" s="33" t="s">
         <v>164</v>
       </c>
@@ -20936,8 +22514,8 @@
       <c r="I45" s="34"/>
     </row>
     <row r="46" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A46" s="149"/>
-      <c r="B46" s="152"/>
+      <c r="A46" s="154"/>
+      <c r="B46" s="144"/>
       <c r="C46" s="40" t="s">
         <v>112</v>
       </c>
@@ -20951,8 +22529,8 @@
       <c r="I46" s="34"/>
     </row>
     <row r="47" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A47" s="149"/>
-      <c r="B47" s="152"/>
+      <c r="A47" s="154"/>
+      <c r="B47" s="144"/>
       <c r="C47" s="40" t="s">
         <v>106</v>
       </c>
@@ -20966,8 +22544,8 @@
       <c r="I47" s="34"/>
     </row>
     <row r="48" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A48" s="149"/>
-      <c r="B48" s="152"/>
+      <c r="A48" s="154"/>
+      <c r="B48" s="144"/>
       <c r="C48" s="40" t="s">
         <v>147</v>
       </c>
@@ -20981,8 +22559,8 @@
       <c r="I48" s="34"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="149"/>
-      <c r="B49" s="152" t="s">
+      <c r="A49" s="154"/>
+      <c r="B49" s="144" t="s">
         <v>153</v>
       </c>
       <c r="C49" s="40" t="s">
@@ -20998,8 +22576,8 @@
       <c r="I49" s="34"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="149"/>
-      <c r="B50" s="152"/>
+      <c r="A50" s="154"/>
+      <c r="B50" s="144"/>
       <c r="C50" s="40" t="s">
         <v>112</v>
       </c>
@@ -21013,8 +22591,8 @@
       <c r="I50" s="34"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="149"/>
-      <c r="B51" s="152"/>
+      <c r="A51" s="154"/>
+      <c r="B51" s="144"/>
       <c r="C51" s="40" t="s">
         <v>106</v>
       </c>
@@ -21028,8 +22606,8 @@
       <c r="I51" s="34"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="149"/>
-      <c r="B52" s="152"/>
+      <c r="A52" s="154"/>
+      <c r="B52" s="144"/>
       <c r="C52" s="40" t="s">
         <v>147</v>
       </c>
@@ -21043,8 +22621,8 @@
       <c r="I52" s="34"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="149"/>
-      <c r="B53" s="162" t="s">
+      <c r="A53" s="154"/>
+      <c r="B53" s="145" t="s">
         <v>154</v>
       </c>
       <c r="C53" s="40" t="s">
@@ -21060,8 +22638,8 @@
       <c r="I53" s="34"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="149"/>
-      <c r="B54" s="161"/>
+      <c r="A54" s="154"/>
+      <c r="B54" s="146"/>
       <c r="C54" s="49" t="s">
         <v>159</v>
       </c>
@@ -21075,8 +22653,8 @@
       <c r="I54" s="34"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="149"/>
-      <c r="B55" s="152" t="s">
+      <c r="A55" s="154"/>
+      <c r="B55" s="144" t="s">
         <v>76</v>
       </c>
       <c r="C55" s="40" t="s">
@@ -21092,8 +22670,8 @@
       <c r="I55" s="34"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="149"/>
-      <c r="B56" s="152"/>
+      <c r="A56" s="154"/>
+      <c r="B56" s="144"/>
       <c r="C56" s="40" t="s">
         <v>79</v>
       </c>
@@ -21107,8 +22685,8 @@
       <c r="I56" s="34"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="149"/>
-      <c r="B57" s="162" t="s">
+      <c r="A57" s="154"/>
+      <c r="B57" s="145" t="s">
         <v>81</v>
       </c>
       <c r="C57" s="40" t="s">
@@ -21124,8 +22702,8 @@
       <c r="I57" s="34"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="158"/>
-      <c r="B58" s="159"/>
+      <c r="A58" s="155"/>
+      <c r="B58" s="147"/>
       <c r="C58" s="50" t="s">
         <v>167</v>
       </c>
@@ -21139,8 +22717,8 @@
       <c r="I58" s="45"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="158"/>
-      <c r="B59" s="162" t="s">
+      <c r="A59" s="155"/>
+      <c r="B59" s="145" t="s">
         <v>172</v>
       </c>
       <c r="C59" s="50" t="s">
@@ -21156,8 +22734,8 @@
       <c r="I59" s="45"/>
     </row>
     <row r="60" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="158"/>
-      <c r="B60" s="163"/>
+      <c r="A60" s="155"/>
+      <c r="B60" s="158"/>
       <c r="C60" s="42" t="s">
         <v>171</v>
       </c>
@@ -21420,11 +22998,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A30:A39"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A10:A29"/>
     <mergeCell ref="A40:A60"/>
@@ -21441,11 +23019,11 @@
     <mergeCell ref="C44:C45"/>
     <mergeCell ref="B59:B60"/>
     <mergeCell ref="B44:B48"/>
-    <mergeCell ref="A30:A39"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B20:B21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21488,15 +23066,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="154"/>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
-      <c r="I1" s="156"/>
+      <c r="A1" s="148"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="150"/>
     </row>
     <row r="2" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
@@ -21528,21 +23106,21 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="145"/>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="147"/>
+      <c r="A3" s="159"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="161"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="143" t="s">
+      <c r="A4" s="151" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="160" t="s">
+      <c r="B4" s="157" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="88" t="s">
@@ -21553,15 +23131,15 @@
       </c>
       <c r="E4" s="31"/>
       <c r="F4" s="31"/>
-      <c r="G4" s="160" t="s">
+      <c r="G4" s="157" t="s">
         <v>284</v>
       </c>
       <c r="H4" s="31"/>
       <c r="I4" s="32"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="144"/>
-      <c r="B5" s="161"/>
+      <c r="A5" s="152"/>
+      <c r="B5" s="146"/>
       <c r="C5" s="89" t="s">
         <v>13</v>
       </c>
@@ -21570,13 +23148,13 @@
       </c>
       <c r="E5" s="33"/>
       <c r="F5" s="33"/>
-      <c r="G5" s="161"/>
+      <c r="G5" s="146"/>
       <c r="H5" s="33"/>
       <c r="I5" s="34"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="144"/>
-      <c r="B6" s="159"/>
+      <c r="A6" s="152"/>
+      <c r="B6" s="147"/>
       <c r="C6" s="89" t="s">
         <v>15</v>
       </c>
@@ -21585,13 +23163,13 @@
       </c>
       <c r="E6" s="33"/>
       <c r="F6" s="33"/>
-      <c r="G6" s="161"/>
+      <c r="G6" s="146"/>
       <c r="H6" s="33"/>
       <c r="I6" s="34"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="144"/>
-      <c r="B7" s="162" t="s">
+      <c r="A7" s="152"/>
+      <c r="B7" s="145" t="s">
         <v>253</v>
       </c>
       <c r="C7" s="89" t="s">
@@ -21602,13 +23180,13 @@
       </c>
       <c r="E7" s="65"/>
       <c r="F7" s="33"/>
-      <c r="G7" s="161"/>
+      <c r="G7" s="146"/>
       <c r="H7" s="33"/>
       <c r="I7" s="34"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="144"/>
-      <c r="B8" s="161"/>
+      <c r="A8" s="152"/>
+      <c r="B8" s="146"/>
       <c r="C8" s="89" t="s">
         <v>254</v>
       </c>
@@ -21617,13 +23195,13 @@
       </c>
       <c r="E8" s="67"/>
       <c r="F8" s="33"/>
-      <c r="G8" s="161"/>
+      <c r="G8" s="146"/>
       <c r="H8" s="33"/>
       <c r="I8" s="34"/>
     </row>
     <row r="9" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="164"/>
-      <c r="B9" s="163"/>
+      <c r="A9" s="165"/>
+      <c r="B9" s="158"/>
       <c r="C9" s="90" t="s">
         <v>253</v>
       </c>
@@ -21632,15 +23210,15 @@
       </c>
       <c r="E9" s="66"/>
       <c r="F9" s="35"/>
-      <c r="G9" s="163"/>
+      <c r="G9" s="158"/>
       <c r="H9" s="35"/>
       <c r="I9" s="36"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="143" t="s">
+      <c r="A10" s="151" t="s">
         <v>198</v>
       </c>
-      <c r="B10" s="160" t="s">
+      <c r="B10" s="157" t="s">
         <v>199</v>
       </c>
       <c r="C10" s="96" t="s">
@@ -21653,15 +23231,15 @@
         <v>202</v>
       </c>
       <c r="F10" s="31"/>
-      <c r="G10" s="160" t="s">
+      <c r="G10" s="157" t="s">
         <v>288</v>
       </c>
       <c r="H10" s="31"/>
       <c r="I10" s="32"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="144"/>
-      <c r="B11" s="161"/>
+      <c r="A11" s="152"/>
+      <c r="B11" s="146"/>
       <c r="C11" s="97" t="s">
         <v>203</v>
       </c>
@@ -21672,13 +23250,13 @@
         <v>205</v>
       </c>
       <c r="F11" s="33"/>
-      <c r="G11" s="161"/>
+      <c r="G11" s="146"/>
       <c r="H11" s="33"/>
       <c r="I11" s="34"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="144"/>
-      <c r="B12" s="161"/>
+      <c r="A12" s="152"/>
+      <c r="B12" s="146"/>
       <c r="C12" s="97" t="s">
         <v>206</v>
       </c>
@@ -21689,13 +23267,13 @@
         <v>208</v>
       </c>
       <c r="F12" s="33"/>
-      <c r="G12" s="161"/>
+      <c r="G12" s="146"/>
       <c r="H12" s="33"/>
       <c r="I12" s="34"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="144"/>
-      <c r="B13" s="159"/>
+      <c r="A13" s="152"/>
+      <c r="B13" s="147"/>
       <c r="C13" s="97" t="s">
         <v>209</v>
       </c>
@@ -21704,13 +23282,13 @@
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="33"/>
-      <c r="G13" s="159"/>
+      <c r="G13" s="147"/>
       <c r="H13" s="33"/>
       <c r="I13" s="34"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="144"/>
-      <c r="B14" s="162" t="s">
+      <c r="A14" s="152"/>
+      <c r="B14" s="145" t="s">
         <v>216</v>
       </c>
       <c r="C14" s="98" t="s">
@@ -21723,15 +23301,15 @@
         <v>219</v>
       </c>
       <c r="F14" s="33"/>
-      <c r="G14" s="162" t="s">
+      <c r="G14" s="145" t="s">
         <v>288</v>
       </c>
       <c r="H14" s="33"/>
       <c r="I14" s="34"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="144"/>
-      <c r="B15" s="161"/>
+      <c r="A15" s="152"/>
+      <c r="B15" s="146"/>
       <c r="C15" s="97" t="s">
         <v>220</v>
       </c>
@@ -21742,13 +23320,13 @@
         <v>205</v>
       </c>
       <c r="F15" s="33"/>
-      <c r="G15" s="161"/>
+      <c r="G15" s="146"/>
       <c r="H15" s="33"/>
       <c r="I15" s="34"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="144"/>
-      <c r="B16" s="159"/>
+      <c r="A16" s="152"/>
+      <c r="B16" s="147"/>
       <c r="C16" s="97" t="s">
         <v>222</v>
       </c>
@@ -21759,13 +23337,13 @@
         <v>224</v>
       </c>
       <c r="F16" s="33"/>
-      <c r="G16" s="159"/>
+      <c r="G16" s="147"/>
       <c r="H16" s="33"/>
       <c r="I16" s="34"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="144"/>
-      <c r="B17" s="162" t="s">
+      <c r="A17" s="152"/>
+      <c r="B17" s="145" t="s">
         <v>211</v>
       </c>
       <c r="C17" s="94" t="s">
@@ -21778,15 +23356,15 @@
         <v>282</v>
       </c>
       <c r="F17" s="33"/>
-      <c r="G17" s="162" t="s">
+      <c r="G17" s="145" t="s">
         <v>292</v>
       </c>
       <c r="H17" s="33"/>
       <c r="I17" s="34"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="144"/>
-      <c r="B18" s="159"/>
+      <c r="A18" s="152"/>
+      <c r="B18" s="147"/>
       <c r="C18" s="94" t="s">
         <v>214</v>
       </c>
@@ -21797,13 +23375,13 @@
         <v>281</v>
       </c>
       <c r="F18" s="33"/>
-      <c r="G18" s="159"/>
+      <c r="G18" s="147"/>
       <c r="H18" s="33"/>
       <c r="I18" s="34"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="144"/>
-      <c r="B19" s="162" t="s">
+      <c r="A19" s="152"/>
+      <c r="B19" s="145" t="s">
         <v>115</v>
       </c>
       <c r="C19" s="99" t="s">
@@ -21814,15 +23392,15 @@
       </c>
       <c r="E19" s="33"/>
       <c r="F19" s="33"/>
-      <c r="G19" s="161" t="s">
+      <c r="G19" s="146" t="s">
         <v>291</v>
       </c>
       <c r="H19" s="33"/>
       <c r="I19" s="34"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="144"/>
-      <c r="B20" s="159"/>
+      <c r="A20" s="152"/>
+      <c r="B20" s="147"/>
       <c r="C20" s="99" t="s">
         <v>118</v>
       </c>
@@ -21831,12 +23409,12 @@
       </c>
       <c r="E20" s="33"/>
       <c r="F20" s="33"/>
-      <c r="G20" s="161"/>
+      <c r="G20" s="146"/>
       <c r="H20" s="33"/>
       <c r="I20" s="34"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="144"/>
+      <c r="A21" s="152"/>
       <c r="B21" s="129" t="s">
         <v>295</v>
       </c>
@@ -21848,13 +23426,13 @@
       </c>
       <c r="E21" s="33"/>
       <c r="F21" s="33"/>
-      <c r="G21" s="159"/>
+      <c r="G21" s="147"/>
       <c r="H21" s="33"/>
       <c r="I21" s="34"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="144"/>
-      <c r="B22" s="162" t="s">
+      <c r="A22" s="152"/>
+      <c r="B22" s="145" t="s">
         <v>225</v>
       </c>
       <c r="C22" s="94" t="s">
@@ -21865,15 +23443,15 @@
       </c>
       <c r="E22" s="33"/>
       <c r="F22" s="33"/>
-      <c r="G22" s="162" t="s">
+      <c r="G22" s="145" t="s">
         <v>285</v>
       </c>
       <c r="H22" s="33"/>
       <c r="I22" s="34"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="144"/>
-      <c r="B23" s="161"/>
+      <c r="A23" s="152"/>
+      <c r="B23" s="146"/>
       <c r="C23" s="94" t="s">
         <v>228</v>
       </c>
@@ -21882,13 +23460,13 @@
       </c>
       <c r="E23" s="33"/>
       <c r="F23" s="33"/>
-      <c r="G23" s="161"/>
+      <c r="G23" s="146"/>
       <c r="H23" s="33"/>
       <c r="I23" s="34"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="144"/>
-      <c r="B24" s="161"/>
+      <c r="A24" s="152"/>
+      <c r="B24" s="146"/>
       <c r="C24" s="94" t="s">
         <v>274</v>
       </c>
@@ -21897,13 +23475,13 @@
       </c>
       <c r="E24" s="33"/>
       <c r="F24" s="33"/>
-      <c r="G24" s="159"/>
+      <c r="G24" s="147"/>
       <c r="H24" s="33"/>
       <c r="I24" s="34"/>
     </row>
     <row r="25" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="164"/>
-      <c r="B25" s="163"/>
+      <c r="A25" s="165"/>
+      <c r="B25" s="158"/>
       <c r="C25" s="95" t="s">
         <v>230</v>
       </c>
@@ -21919,10 +23497,10 @@
       <c r="I25" s="45"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="143" t="s">
+      <c r="A26" s="151" t="s">
         <v>232</v>
       </c>
-      <c r="B26" s="160" t="s">
+      <c r="B26" s="157" t="s">
         <v>233</v>
       </c>
       <c r="C26" s="91" t="s">
@@ -21933,15 +23511,15 @@
       </c>
       <c r="E26" s="31"/>
       <c r="F26" s="31"/>
-      <c r="G26" s="160" t="s">
+      <c r="G26" s="157" t="s">
         <v>286</v>
       </c>
       <c r="H26" s="31"/>
       <c r="I26" s="32"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="144"/>
-      <c r="B27" s="161"/>
+      <c r="A27" s="152"/>
+      <c r="B27" s="146"/>
       <c r="C27" s="92" t="s">
         <v>129</v>
       </c>
@@ -21950,13 +23528,13 @@
       </c>
       <c r="E27" s="33"/>
       <c r="F27" s="33"/>
-      <c r="G27" s="159"/>
+      <c r="G27" s="147"/>
       <c r="H27" s="33"/>
       <c r="I27" s="34"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="144"/>
-      <c r="B28" s="161"/>
+      <c r="A28" s="152"/>
+      <c r="B28" s="146"/>
       <c r="C28" s="100" t="s">
         <v>236</v>
       </c>
@@ -21965,15 +23543,15 @@
       </c>
       <c r="E28" s="33"/>
       <c r="F28" s="33"/>
-      <c r="G28" s="162" t="s">
+      <c r="G28" s="145" t="s">
         <v>289</v>
       </c>
       <c r="H28" s="33"/>
       <c r="I28" s="34"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="144"/>
-      <c r="B29" s="159"/>
+      <c r="A29" s="152"/>
+      <c r="B29" s="147"/>
       <c r="C29" s="100" t="s">
         <v>125</v>
       </c>
@@ -21982,12 +23560,12 @@
       </c>
       <c r="E29" s="33"/>
       <c r="F29" s="33"/>
-      <c r="G29" s="161"/>
+      <c r="G29" s="146"/>
       <c r="H29" s="33"/>
       <c r="I29" s="34"/>
     </row>
     <row r="30" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="164"/>
+      <c r="A30" s="165"/>
       <c r="B30" s="128" t="s">
         <v>239</v>
       </c>
@@ -22001,15 +23579,15 @@
         <v>256</v>
       </c>
       <c r="F30" s="35"/>
-      <c r="G30" s="163"/>
+      <c r="G30" s="158"/>
       <c r="H30" s="35"/>
       <c r="I30" s="36"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="143" t="s">
+      <c r="A31" s="151" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="160" t="s">
+      <c r="B31" s="157" t="s">
         <v>71</v>
       </c>
       <c r="C31" s="93" t="s">
@@ -22020,15 +23598,15 @@
       </c>
       <c r="E31" s="55"/>
       <c r="F31" s="55"/>
-      <c r="G31" s="160" t="s">
+      <c r="G31" s="157" t="s">
         <v>287</v>
       </c>
       <c r="H31" s="55"/>
       <c r="I31" s="56"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="144"/>
-      <c r="B32" s="159"/>
+      <c r="A32" s="152"/>
+      <c r="B32" s="147"/>
       <c r="C32" s="89" t="s">
         <v>294</v>
       </c>
@@ -22037,13 +23615,13 @@
       </c>
       <c r="E32" s="33"/>
       <c r="F32" s="33"/>
-      <c r="G32" s="159"/>
+      <c r="G32" s="147"/>
       <c r="H32" s="33"/>
       <c r="I32" s="34"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="144"/>
-      <c r="B33" s="162" t="s">
+      <c r="A33" s="152"/>
+      <c r="B33" s="145" t="s">
         <v>257</v>
       </c>
       <c r="C33" s="97" t="s">
@@ -22054,15 +23632,15 @@
       </c>
       <c r="E33" s="33"/>
       <c r="F33" s="33"/>
-      <c r="G33" s="162" t="s">
+      <c r="G33" s="145" t="s">
         <v>288</v>
       </c>
       <c r="H33" s="33"/>
       <c r="I33" s="34"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="144"/>
-      <c r="B34" s="161"/>
+      <c r="A34" s="152"/>
+      <c r="B34" s="146"/>
       <c r="C34" s="97" t="s">
         <v>260</v>
       </c>
@@ -22071,13 +23649,13 @@
       </c>
       <c r="E34" s="33"/>
       <c r="F34" s="33"/>
-      <c r="G34" s="161"/>
+      <c r="G34" s="146"/>
       <c r="H34" s="33"/>
       <c r="I34" s="34"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="144"/>
-      <c r="B35" s="159"/>
+      <c r="A35" s="152"/>
+      <c r="B35" s="147"/>
       <c r="C35" s="97" t="s">
         <v>259</v>
       </c>
@@ -22088,13 +23666,13 @@
         <v>264</v>
       </c>
       <c r="F35" s="33"/>
-      <c r="G35" s="159"/>
+      <c r="G35" s="147"/>
       <c r="H35" s="33"/>
       <c r="I35" s="34"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="144"/>
-      <c r="B36" s="162" t="s">
+      <c r="A36" s="152"/>
+      <c r="B36" s="145" t="s">
         <v>242</v>
       </c>
       <c r="C36" s="99" t="s">
@@ -22107,15 +23685,15 @@
         <v>245</v>
       </c>
       <c r="F36" s="33"/>
-      <c r="G36" s="162" t="s">
+      <c r="G36" s="145" t="s">
         <v>291</v>
       </c>
       <c r="H36" s="33"/>
       <c r="I36" s="34"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="144"/>
-      <c r="B37" s="159"/>
+      <c r="A37" s="152"/>
+      <c r="B37" s="147"/>
       <c r="C37" s="99" t="s">
         <v>246</v>
       </c>
@@ -22126,13 +23704,13 @@
         <v>248</v>
       </c>
       <c r="F37" s="33"/>
-      <c r="G37" s="161"/>
+      <c r="G37" s="146"/>
       <c r="H37" s="33"/>
       <c r="I37" s="34"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="144"/>
-      <c r="B38" s="162" t="s">
+      <c r="A38" s="152"/>
+      <c r="B38" s="145" t="s">
         <v>270</v>
       </c>
       <c r="C38" s="95" t="s">
@@ -22145,13 +23723,13 @@
         <v>250</v>
       </c>
       <c r="F38" s="44"/>
-      <c r="G38" s="161"/>
+      <c r="G38" s="146"/>
       <c r="H38" s="44"/>
       <c r="I38" s="45"/>
     </row>
     <row r="39" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="164"/>
-      <c r="B39" s="163"/>
+      <c r="A39" s="165"/>
+      <c r="B39" s="158"/>
       <c r="C39" s="95" t="s">
         <v>272</v>
       </c>
@@ -22162,7 +23740,7 @@
         <v>252</v>
       </c>
       <c r="F39" s="44"/>
-      <c r="G39" s="163"/>
+      <c r="G39" s="158"/>
       <c r="H39" s="44"/>
       <c r="I39" s="45"/>
     </row>
@@ -22418,16 +23996,7 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="G4:G9"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="B38:B39"/>
     <mergeCell ref="G28:G30"/>
     <mergeCell ref="G31:G32"/>
     <mergeCell ref="G33:G35"/>
@@ -22435,8 +24004,6 @@
     <mergeCell ref="A10:A25"/>
     <mergeCell ref="A26:A30"/>
     <mergeCell ref="A31:A39"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B9"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B17:B18"/>
@@ -22446,7 +24013,18 @@
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="B33:B35"/>
     <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="G4:G9"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22458,8 +24036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -22496,52 +24074,52 @@
       <c r="O1" s="84"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="170" t="s">
+      <c r="A2" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="165" t="s">
+      <c r="B2" s="169" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="165" t="s">
+      <c r="C2" s="169" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="165" t="s">
+      <c r="D2" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="165" t="s">
+      <c r="E2" s="169" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="165" t="s">
+      <c r="F2" s="169" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="165" t="s">
+      <c r="G2" s="169" t="s">
         <v>277</v>
       </c>
-      <c r="H2" s="167" t="s">
+      <c r="H2" s="171" t="s">
         <v>276</v>
       </c>
-      <c r="I2" s="168"/>
-      <c r="J2" s="169"/>
-      <c r="K2" s="165" t="s">
+      <c r="I2" s="172"/>
+      <c r="J2" s="173"/>
+      <c r="K2" s="169" t="s">
         <v>275</v>
       </c>
-      <c r="L2" s="165" t="s">
+      <c r="L2" s="169" t="s">
         <v>278</v>
       </c>
-      <c r="M2" s="167" t="s">
+      <c r="M2" s="171" t="s">
         <v>279</v>
       </c>
-      <c r="N2" s="168"/>
-      <c r="O2" s="169"/>
+      <c r="N2" s="172"/>
+      <c r="O2" s="173"/>
     </row>
     <row r="3" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="171"/>
-      <c r="B3" s="166"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="166"/>
-      <c r="G3" s="166"/>
+      <c r="A3" s="168"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="170"/>
+      <c r="G3" s="170"/>
       <c r="H3" s="122" t="s">
         <v>297</v>
       </c>
@@ -22551,8 +24129,8 @@
       <c r="J3" s="122" t="s">
         <v>299</v>
       </c>
-      <c r="K3" s="166"/>
-      <c r="L3" s="166"/>
+      <c r="K3" s="170"/>
+      <c r="L3" s="170"/>
       <c r="M3" s="122" t="s">
         <v>300</v>
       </c>
@@ -22581,10 +24159,10 @@
       <c r="O4" s="86"/>
     </row>
     <row r="5" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="172" t="s">
+      <c r="A5" s="166" t="s">
         <v>356</v>
       </c>
-      <c r="B5" s="160" t="s">
+      <c r="B5" s="157" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="88" t="s">
@@ -22593,7 +24171,7 @@
       <c r="D5" s="85">
         <v>1</v>
       </c>
-      <c r="E5" s="160" t="s">
+      <c r="E5" s="157" t="s">
         <v>284</v>
       </c>
       <c r="F5" s="85"/>
@@ -22612,15 +24190,15 @@
       <c r="O5" s="110"/>
     </row>
     <row r="6" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="144"/>
-      <c r="B6" s="161"/>
+      <c r="A6" s="152"/>
+      <c r="B6" s="146"/>
       <c r="C6" s="89" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="81">
         <v>1</v>
       </c>
-      <c r="E6" s="161"/>
+      <c r="E6" s="146"/>
       <c r="F6" s="81"/>
       <c r="G6" s="113" t="s">
         <v>316</v>
@@ -22637,15 +24215,15 @@
       <c r="O6" s="107"/>
     </row>
     <row r="7" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="144"/>
-      <c r="B7" s="159"/>
+      <c r="A7" s="152"/>
+      <c r="B7" s="147"/>
       <c r="C7" s="89" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="81">
         <v>1</v>
       </c>
-      <c r="E7" s="161"/>
+      <c r="E7" s="146"/>
       <c r="F7" s="81"/>
       <c r="G7" s="113" t="s">
         <v>316</v>
@@ -22662,8 +24240,8 @@
       <c r="O7" s="107"/>
     </row>
     <row r="8" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="144"/>
-      <c r="B8" s="162" t="s">
+      <c r="A8" s="152"/>
+      <c r="B8" s="145" t="s">
         <v>253</v>
       </c>
       <c r="C8" s="89" t="s">
@@ -22672,7 +24250,7 @@
       <c r="D8" s="81">
         <v>1</v>
       </c>
-      <c r="E8" s="161"/>
+      <c r="E8" s="146"/>
       <c r="F8" s="81"/>
       <c r="G8" s="107" t="s">
         <v>318</v>
@@ -22689,15 +24267,15 @@
       <c r="O8" s="107"/>
     </row>
     <row r="9" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="144"/>
-      <c r="B9" s="161"/>
+      <c r="A9" s="152"/>
+      <c r="B9" s="146"/>
       <c r="C9" s="89" t="s">
         <v>254</v>
       </c>
       <c r="D9" s="81">
         <v>1</v>
       </c>
-      <c r="E9" s="161"/>
+      <c r="E9" s="146"/>
       <c r="F9" s="81"/>
       <c r="G9" s="107" t="s">
         <v>319</v>
@@ -22714,15 +24292,15 @@
       <c r="O9" s="107"/>
     </row>
     <row r="10" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="164"/>
-      <c r="B10" s="163"/>
+      <c r="A10" s="165"/>
+      <c r="B10" s="158"/>
       <c r="C10" s="90" t="s">
         <v>253</v>
       </c>
       <c r="D10" s="87">
         <v>1</v>
       </c>
-      <c r="E10" s="163"/>
+      <c r="E10" s="158"/>
       <c r="F10" s="87"/>
       <c r="G10" s="107" t="s">
         <v>319</v>
@@ -22739,10 +24317,10 @@
       <c r="O10" s="111"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="172" t="s">
+      <c r="A11" s="166" t="s">
         <v>357</v>
       </c>
-      <c r="B11" s="160" t="s">
+      <c r="B11" s="157" t="s">
         <v>103</v>
       </c>
       <c r="C11" s="96" t="s">
@@ -22751,7 +24329,7 @@
       <c r="D11" s="85">
         <v>2</v>
       </c>
-      <c r="E11" s="160" t="s">
+      <c r="E11" s="157" t="s">
         <v>288</v>
       </c>
       <c r="F11" s="85"/>
@@ -22770,15 +24348,15 @@
       <c r="O11" s="110"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="144"/>
-      <c r="B12" s="161"/>
+      <c r="A12" s="152"/>
+      <c r="B12" s="146"/>
       <c r="C12" s="97" t="s">
         <v>203</v>
       </c>
       <c r="D12" s="81">
         <v>1</v>
       </c>
-      <c r="E12" s="161"/>
+      <c r="E12" s="146"/>
       <c r="F12" s="81"/>
       <c r="G12" s="107" t="s">
         <v>348</v>
@@ -22795,15 +24373,15 @@
       <c r="O12" s="107"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="144"/>
-      <c r="B13" s="161"/>
+      <c r="A13" s="152"/>
+      <c r="B13" s="146"/>
       <c r="C13" s="97" t="s">
         <v>206</v>
       </c>
       <c r="D13" s="81">
         <v>1</v>
       </c>
-      <c r="E13" s="161"/>
+      <c r="E13" s="146"/>
       <c r="F13" s="81"/>
       <c r="G13" s="107" t="s">
         <v>348</v>
@@ -22820,15 +24398,15 @@
       <c r="O13" s="107"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="144"/>
-      <c r="B14" s="159"/>
+      <c r="A14" s="152"/>
+      <c r="B14" s="147"/>
       <c r="C14" s="97" t="s">
         <v>209</v>
       </c>
       <c r="D14" s="81">
         <v>2</v>
       </c>
-      <c r="E14" s="159"/>
+      <c r="E14" s="147"/>
       <c r="F14" s="81"/>
       <c r="G14" s="107" t="s">
         <v>350</v>
@@ -22845,8 +24423,8 @@
       <c r="O14" s="107"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="144"/>
-      <c r="B15" s="162" t="s">
+      <c r="A15" s="152"/>
+      <c r="B15" s="145" t="s">
         <v>111</v>
       </c>
       <c r="C15" s="98" t="s">
@@ -22855,7 +24433,7 @@
       <c r="D15" s="81">
         <v>2</v>
       </c>
-      <c r="E15" s="162" t="s">
+      <c r="E15" s="145" t="s">
         <v>288</v>
       </c>
       <c r="F15" s="81"/>
@@ -22874,15 +24452,15 @@
       <c r="O15" s="107"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="144"/>
-      <c r="B16" s="161"/>
+      <c r="A16" s="152"/>
+      <c r="B16" s="146"/>
       <c r="C16" s="97" t="s">
         <v>220</v>
       </c>
       <c r="D16" s="81">
         <v>1</v>
       </c>
-      <c r="E16" s="161"/>
+      <c r="E16" s="146"/>
       <c r="F16" s="81"/>
       <c r="G16" s="107" t="s">
         <v>348</v>
@@ -22899,15 +24477,15 @@
       <c r="O16" s="107"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="144"/>
-      <c r="B17" s="161"/>
+      <c r="A17" s="152"/>
+      <c r="B17" s="146"/>
       <c r="C17" s="97" t="s">
         <v>222</v>
       </c>
       <c r="D17" s="81">
         <v>1</v>
       </c>
-      <c r="E17" s="159"/>
+      <c r="E17" s="147"/>
       <c r="F17" s="81"/>
       <c r="G17" s="107" t="s">
         <v>348</v>
@@ -22924,8 +24502,8 @@
       <c r="O17" s="107"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="144"/>
-      <c r="B18" s="162" t="s">
+      <c r="A18" s="152"/>
+      <c r="B18" s="145" t="s">
         <v>180</v>
       </c>
       <c r="C18" s="94" t="s">
@@ -22934,7 +24512,7 @@
       <c r="D18" s="81">
         <v>1</v>
       </c>
-      <c r="E18" s="162" t="s">
+      <c r="E18" s="145" t="s">
         <v>292</v>
       </c>
       <c r="F18" s="81"/>
@@ -22953,15 +24531,15 @@
       <c r="O18" s="107"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="144"/>
-      <c r="B19" s="159"/>
+      <c r="A19" s="152"/>
+      <c r="B19" s="147"/>
       <c r="C19" s="94" t="s">
         <v>184</v>
       </c>
       <c r="D19" s="81">
         <v>2</v>
       </c>
-      <c r="E19" s="159"/>
+      <c r="E19" s="147"/>
       <c r="F19" s="81"/>
       <c r="G19" s="107" t="s">
         <v>345</v>
@@ -22978,8 +24556,8 @@
       <c r="O19" s="107"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="144"/>
-      <c r="B20" s="162" t="s">
+      <c r="A20" s="152"/>
+      <c r="B20" s="145" t="s">
         <v>115</v>
       </c>
       <c r="C20" s="99" t="s">
@@ -22988,7 +24566,7 @@
       <c r="D20" s="81">
         <v>1</v>
       </c>
-      <c r="E20" s="161" t="s">
+      <c r="E20" s="146" t="s">
         <v>307</v>
       </c>
       <c r="F20" s="81"/>
@@ -23007,15 +24585,15 @@
       <c r="O20" s="107"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="144"/>
-      <c r="B21" s="159"/>
+      <c r="A21" s="152"/>
+      <c r="B21" s="147"/>
       <c r="C21" s="99" t="s">
         <v>118</v>
       </c>
       <c r="D21" s="81">
         <v>2</v>
       </c>
-      <c r="E21" s="161"/>
+      <c r="E21" s="146"/>
       <c r="F21" s="81"/>
       <c r="G21" s="107" t="s">
         <v>330</v>
@@ -23032,7 +24610,7 @@
       <c r="O21" s="107"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="144"/>
+      <c r="A22" s="152"/>
       <c r="B22" s="126" t="s">
         <v>302</v>
       </c>
@@ -23042,7 +24620,7 @@
       <c r="D22" s="81">
         <v>1</v>
       </c>
-      <c r="E22" s="159"/>
+      <c r="E22" s="147"/>
       <c r="F22" s="81"/>
       <c r="G22" s="107" t="s">
         <v>333</v>
@@ -23059,8 +24637,8 @@
       <c r="O22" s="107"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="144"/>
-      <c r="B23" s="162" t="s">
+      <c r="A23" s="152"/>
+      <c r="B23" s="145" t="s">
         <v>43</v>
       </c>
       <c r="C23" s="94" t="s">
@@ -23069,7 +24647,7 @@
       <c r="D23" s="81">
         <v>3</v>
       </c>
-      <c r="E23" s="162" t="s">
+      <c r="E23" s="145" t="s">
         <v>285</v>
       </c>
       <c r="F23" s="81"/>
@@ -23088,15 +24666,15 @@
       <c r="O23" s="107"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="144"/>
-      <c r="B24" s="161"/>
+      <c r="A24" s="152"/>
+      <c r="B24" s="146"/>
       <c r="C24" s="94" t="s">
         <v>178</v>
       </c>
       <c r="D24" s="81">
         <v>3</v>
       </c>
-      <c r="E24" s="161"/>
+      <c r="E24" s="146"/>
       <c r="F24" s="81"/>
       <c r="G24" s="107" t="s">
         <v>321</v>
@@ -23113,15 +24691,15 @@
       <c r="O24" s="107"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="144"/>
-      <c r="B25" s="161"/>
+      <c r="A25" s="152"/>
+      <c r="B25" s="146"/>
       <c r="C25" s="94" t="s">
         <v>280</v>
       </c>
       <c r="D25" s="81">
         <v>3</v>
       </c>
-      <c r="E25" s="159"/>
+      <c r="E25" s="147"/>
       <c r="F25" s="81"/>
       <c r="G25" s="107" t="s">
         <v>321</v>
@@ -23138,8 +24716,8 @@
       <c r="O25" s="107"/>
     </row>
     <row r="26" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="164"/>
-      <c r="B26" s="163"/>
+      <c r="A26" s="165"/>
+      <c r="B26" s="158"/>
       <c r="C26" s="95" t="s">
         <v>273</v>
       </c>
@@ -23165,10 +24743,10 @@
       <c r="O26" s="112"/>
     </row>
     <row r="27" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="172" t="s">
+      <c r="A27" s="166" t="s">
         <v>358</v>
       </c>
-      <c r="B27" s="160" t="s">
+      <c r="B27" s="157" t="s">
         <v>127</v>
       </c>
       <c r="C27" s="91" t="s">
@@ -23177,7 +24755,7 @@
       <c r="D27" s="85">
         <v>1</v>
       </c>
-      <c r="E27" s="160" t="s">
+      <c r="E27" s="157" t="s">
         <v>286</v>
       </c>
       <c r="F27" s="85"/>
@@ -23196,15 +24774,15 @@
       <c r="O27" s="110"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="144"/>
-      <c r="B28" s="161"/>
+      <c r="A28" s="152"/>
+      <c r="B28" s="146"/>
       <c r="C28" s="92" t="s">
         <v>129</v>
       </c>
       <c r="D28" s="81">
         <v>1</v>
       </c>
-      <c r="E28" s="159"/>
+      <c r="E28" s="147"/>
       <c r="F28" s="81"/>
       <c r="G28" s="110" t="s">
         <v>324</v>
@@ -23221,15 +24799,15 @@
       <c r="O28" s="107"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="144"/>
-      <c r="B29" s="161"/>
+      <c r="A29" s="152"/>
+      <c r="B29" s="146"/>
       <c r="C29" s="100" t="s">
         <v>132</v>
       </c>
       <c r="D29" s="81">
         <v>3</v>
       </c>
-      <c r="E29" s="162" t="s">
+      <c r="E29" s="145" t="s">
         <v>289</v>
       </c>
       <c r="F29" s="81"/>
@@ -23248,15 +24826,15 @@
       <c r="O29" s="107"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="144"/>
-      <c r="B30" s="159"/>
+      <c r="A30" s="152"/>
+      <c r="B30" s="147"/>
       <c r="C30" s="100" t="s">
         <v>125</v>
       </c>
       <c r="D30" s="81">
         <v>3</v>
       </c>
-      <c r="E30" s="161"/>
+      <c r="E30" s="146"/>
       <c r="F30" s="81"/>
       <c r="G30" s="107" t="s">
         <v>337</v>
@@ -23273,7 +24851,7 @@
       <c r="O30" s="107"/>
     </row>
     <row r="31" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="164"/>
+      <c r="A31" s="165"/>
       <c r="B31" s="87" t="s">
         <v>139</v>
       </c>
@@ -23283,7 +24861,7 @@
       <c r="D31" s="87">
         <v>2</v>
       </c>
-      <c r="E31" s="163"/>
+      <c r="E31" s="158"/>
       <c r="F31" s="87"/>
       <c r="G31" s="111" t="s">
         <v>338</v>
@@ -23300,10 +24878,10 @@
       <c r="O31" s="111"/>
     </row>
     <row r="32" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="172" t="s">
+      <c r="A32" s="166" t="s">
         <v>359</v>
       </c>
-      <c r="B32" s="160" t="s">
+      <c r="B32" s="157" t="s">
         <v>71</v>
       </c>
       <c r="C32" s="93" t="s">
@@ -23312,7 +24890,7 @@
       <c r="D32" s="83">
         <v>3</v>
       </c>
-      <c r="E32" s="160" t="s">
+      <c r="E32" s="157" t="s">
         <v>287</v>
       </c>
       <c r="F32" s="83"/>
@@ -23331,15 +24909,15 @@
       <c r="O32" s="113"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="144"/>
-      <c r="B33" s="159"/>
+      <c r="A33" s="152"/>
+      <c r="B33" s="147"/>
       <c r="C33" s="89" t="s">
         <v>293</v>
       </c>
       <c r="D33" s="81">
         <v>3</v>
       </c>
-      <c r="E33" s="159"/>
+      <c r="E33" s="147"/>
       <c r="F33" s="81"/>
       <c r="G33" s="123" t="s">
         <v>326</v>
@@ -23356,8 +24934,8 @@
       <c r="O33" s="107"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="144"/>
-      <c r="B34" s="162" t="s">
+      <c r="A34" s="152"/>
+      <c r="B34" s="145" t="s">
         <v>257</v>
       </c>
       <c r="C34" s="97" t="s">
@@ -23366,7 +24944,7 @@
       <c r="D34" s="81">
         <v>2</v>
       </c>
-      <c r="E34" s="162" t="s">
+      <c r="E34" s="145" t="s">
         <v>288</v>
       </c>
       <c r="F34" s="81"/>
@@ -23385,15 +24963,15 @@
       <c r="O34" s="107"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="144"/>
-      <c r="B35" s="161"/>
+      <c r="A35" s="152"/>
+      <c r="B35" s="146"/>
       <c r="C35" s="97" t="s">
         <v>260</v>
       </c>
       <c r="D35" s="81">
         <v>2</v>
       </c>
-      <c r="E35" s="161"/>
+      <c r="E35" s="146"/>
       <c r="F35" s="81"/>
       <c r="G35" s="107" t="s">
         <v>353</v>
@@ -23410,15 +24988,15 @@
       <c r="O35" s="107"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="144"/>
-      <c r="B36" s="159"/>
+      <c r="A36" s="152"/>
+      <c r="B36" s="147"/>
       <c r="C36" s="97" t="s">
         <v>259</v>
       </c>
       <c r="D36" s="81">
         <v>2</v>
       </c>
-      <c r="E36" s="159"/>
+      <c r="E36" s="147"/>
       <c r="F36" s="81"/>
       <c r="G36" s="107" t="s">
         <v>354</v>
@@ -23435,8 +25013,8 @@
       <c r="O36" s="107"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="144"/>
-      <c r="B37" s="162" t="s">
+      <c r="A37" s="152"/>
+      <c r="B37" s="145" t="s">
         <v>154</v>
       </c>
       <c r="C37" s="99" t="s">
@@ -23445,7 +25023,7 @@
       <c r="D37" s="81">
         <v>2</v>
       </c>
-      <c r="E37" s="162" t="s">
+      <c r="E37" s="145" t="s">
         <v>291</v>
       </c>
       <c r="F37" s="81"/>
@@ -23464,15 +25042,15 @@
       <c r="O37" s="107"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="144"/>
-      <c r="B38" s="159"/>
+      <c r="A38" s="152"/>
+      <c r="B38" s="147"/>
       <c r="C38" s="99" t="s">
         <v>92</v>
       </c>
       <c r="D38" s="81">
         <v>3</v>
       </c>
-      <c r="E38" s="161"/>
+      <c r="E38" s="146"/>
       <c r="F38" s="81"/>
       <c r="G38" s="107" t="s">
         <v>337</v>
@@ -23489,8 +25067,8 @@
       <c r="O38" s="107"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="144"/>
-      <c r="B39" s="162" t="s">
+      <c r="A39" s="152"/>
+      <c r="B39" s="145" t="s">
         <v>269</v>
       </c>
       <c r="C39" s="95" t="s">
@@ -23499,7 +25077,7 @@
       <c r="D39" s="82">
         <v>2</v>
       </c>
-      <c r="E39" s="161"/>
+      <c r="E39" s="146"/>
       <c r="F39" s="82"/>
       <c r="G39" s="107" t="s">
         <v>341</v>
@@ -23516,15 +25094,15 @@
       <c r="O39" s="112"/>
     </row>
     <row r="40" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="164"/>
-      <c r="B40" s="163"/>
+      <c r="A40" s="165"/>
+      <c r="B40" s="158"/>
       <c r="C40" s="95" t="s">
         <v>272</v>
       </c>
       <c r="D40" s="82">
         <v>3</v>
       </c>
-      <c r="E40" s="163"/>
+      <c r="E40" s="158"/>
       <c r="F40" s="82"/>
       <c r="G40" s="112" t="s">
         <v>340</v>
@@ -23541,7 +25119,7 @@
       <c r="O40" s="112"/>
     </row>
     <row r="41" spans="1:16" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="173" t="s">
+      <c r="A41" s="131" t="s">
         <v>360</v>
       </c>
       <c r="B41" s="52" t="s">
@@ -23916,18 +25494,16 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="A32:A40"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="E37:E40"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="E23:E25"/>
     <mergeCell ref="E27:E28"/>
@@ -23944,16 +25520,18 @@
     <mergeCell ref="A11:A26"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="B15:B17"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="E37:E40"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="A32:A40"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23962,6 +25540,1835 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="21.125" customWidth="1"/>
+    <col min="7" max="13" width="9" style="223"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="186" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="186" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="205" t="s">
+        <v>417</v>
+      </c>
+      <c r="D1" s="186" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="186" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="189" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="224" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="225"/>
+      <c r="L1" s="225"/>
+      <c r="M1" s="226"/>
+    </row>
+    <row r="2" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="187"/>
+      <c r="B2" s="187"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="186" t="s">
+        <v>361</v>
+      </c>
+      <c r="G2" s="224" t="s">
+        <v>362</v>
+      </c>
+      <c r="H2" s="225"/>
+      <c r="I2" s="226"/>
+      <c r="J2" s="227" t="s">
+        <v>361</v>
+      </c>
+      <c r="K2" s="224" t="s">
+        <v>362</v>
+      </c>
+      <c r="L2" s="225"/>
+      <c r="M2" s="226"/>
+    </row>
+    <row r="3" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="188"/>
+      <c r="B3" s="188"/>
+      <c r="C3" s="188"/>
+      <c r="D3" s="188"/>
+      <c r="E3" s="188"/>
+      <c r="F3" s="188"/>
+      <c r="G3" s="217" t="s">
+        <v>363</v>
+      </c>
+      <c r="H3" s="217" t="s">
+        <v>364</v>
+      </c>
+      <c r="I3" s="228" t="s">
+        <v>365</v>
+      </c>
+      <c r="J3" s="229"/>
+      <c r="K3" s="217" t="s">
+        <v>363</v>
+      </c>
+      <c r="L3" s="217" t="s">
+        <v>364</v>
+      </c>
+      <c r="M3" s="228" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="174"/>
+      <c r="B4" s="175"/>
+      <c r="C4" s="175"/>
+      <c r="D4" s="176"/>
+      <c r="E4" s="176"/>
+      <c r="F4" s="176"/>
+      <c r="G4" s="216"/>
+      <c r="H4" s="216"/>
+      <c r="I4" s="216"/>
+      <c r="J4" s="216"/>
+      <c r="K4" s="216"/>
+      <c r="L4" s="216"/>
+      <c r="M4" s="216"/>
+    </row>
+    <row r="5" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="264" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="192" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="178" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="179">
+        <v>1</v>
+      </c>
+      <c r="E5" s="192" t="s">
+        <v>366</v>
+      </c>
+      <c r="F5" s="179" t="s">
+        <v>384</v>
+      </c>
+      <c r="G5" s="206" t="s">
+        <v>428</v>
+      </c>
+      <c r="H5" s="206" t="s">
+        <v>428</v>
+      </c>
+      <c r="I5" s="206" t="s">
+        <v>428</v>
+      </c>
+      <c r="J5" s="207" t="s">
+        <v>385</v>
+      </c>
+      <c r="K5" s="208" t="s">
+        <v>368</v>
+      </c>
+      <c r="L5" s="208" t="s">
+        <v>368</v>
+      </c>
+      <c r="M5" s="209" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="265"/>
+      <c r="B6" s="195"/>
+      <c r="C6" s="181" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="182">
+        <v>1</v>
+      </c>
+      <c r="E6" s="195"/>
+      <c r="F6" s="182" t="s">
+        <v>384</v>
+      </c>
+      <c r="G6" s="210" t="s">
+        <v>429</v>
+      </c>
+      <c r="H6" s="211" t="s">
+        <v>420</v>
+      </c>
+      <c r="I6" s="211" t="s">
+        <v>371</v>
+      </c>
+      <c r="J6" s="207" t="s">
+        <v>385</v>
+      </c>
+      <c r="K6" s="211" t="s">
+        <v>383</v>
+      </c>
+      <c r="L6" s="211" t="s">
+        <v>368</v>
+      </c>
+      <c r="M6" s="212" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="265"/>
+      <c r="B7" s="193"/>
+      <c r="C7" s="181" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="182">
+        <v>1</v>
+      </c>
+      <c r="E7" s="195"/>
+      <c r="F7" s="182" t="s">
+        <v>384</v>
+      </c>
+      <c r="G7" s="210" t="s">
+        <v>430</v>
+      </c>
+      <c r="H7" s="211" t="s">
+        <v>368</v>
+      </c>
+      <c r="I7" s="211" t="s">
+        <v>371</v>
+      </c>
+      <c r="J7" s="207" t="s">
+        <v>385</v>
+      </c>
+      <c r="K7" s="211" t="s">
+        <v>383</v>
+      </c>
+      <c r="L7" s="211" t="s">
+        <v>368</v>
+      </c>
+      <c r="M7" s="212" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="263"/>
+      <c r="B8" s="202" t="s">
+        <v>265</v>
+      </c>
+      <c r="C8" s="203" t="s">
+        <v>265</v>
+      </c>
+      <c r="D8" s="185">
+        <v>1</v>
+      </c>
+      <c r="E8" s="196"/>
+      <c r="F8" s="185" t="s">
+        <v>386</v>
+      </c>
+      <c r="G8" s="213" t="s">
+        <v>421</v>
+      </c>
+      <c r="H8" s="214" t="s">
+        <v>383</v>
+      </c>
+      <c r="I8" s="214" t="s">
+        <v>383</v>
+      </c>
+      <c r="J8" s="207" t="s">
+        <v>385</v>
+      </c>
+      <c r="K8" s="214" t="s">
+        <v>368</v>
+      </c>
+      <c r="L8" s="214" t="s">
+        <v>383</v>
+      </c>
+      <c r="M8" s="215" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="38.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="264" t="s">
+        <v>387</v>
+      </c>
+      <c r="B9" s="192" t="s">
+        <v>388</v>
+      </c>
+      <c r="C9" s="178" t="s">
+        <v>389</v>
+      </c>
+      <c r="D9" s="179">
+        <v>2</v>
+      </c>
+      <c r="E9" s="192" t="s">
+        <v>288</v>
+      </c>
+      <c r="F9" s="179" t="s">
+        <v>390</v>
+      </c>
+      <c r="G9" s="206" t="s">
+        <v>421</v>
+      </c>
+      <c r="H9" s="208" t="s">
+        <v>368</v>
+      </c>
+      <c r="I9" s="208" t="s">
+        <v>368</v>
+      </c>
+      <c r="J9" s="208" t="s">
+        <v>385</v>
+      </c>
+      <c r="K9" s="208" t="s">
+        <v>368</v>
+      </c>
+      <c r="L9" s="208" t="s">
+        <v>368</v>
+      </c>
+      <c r="M9" s="209" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="265"/>
+      <c r="B10" s="195"/>
+      <c r="C10" s="181" t="s">
+        <v>391</v>
+      </c>
+      <c r="D10" s="182">
+        <v>1</v>
+      </c>
+      <c r="E10" s="195"/>
+      <c r="F10" s="182" t="s">
+        <v>386</v>
+      </c>
+      <c r="G10" s="210" t="s">
+        <v>422</v>
+      </c>
+      <c r="H10" s="211" t="s">
+        <v>368</v>
+      </c>
+      <c r="I10" s="211" t="s">
+        <v>368</v>
+      </c>
+      <c r="J10" s="211" t="s">
+        <v>385</v>
+      </c>
+      <c r="K10" s="211" t="s">
+        <v>383</v>
+      </c>
+      <c r="L10" s="211" t="s">
+        <v>368</v>
+      </c>
+      <c r="M10" s="212" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="38.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="265"/>
+      <c r="B11" s="195"/>
+      <c r="C11" s="181" t="s">
+        <v>392</v>
+      </c>
+      <c r="D11" s="182">
+        <v>1</v>
+      </c>
+      <c r="E11" s="195"/>
+      <c r="F11" s="182" t="s">
+        <v>386</v>
+      </c>
+      <c r="G11" s="210" t="s">
+        <v>421</v>
+      </c>
+      <c r="H11" s="211" t="s">
+        <v>368</v>
+      </c>
+      <c r="I11" s="211" t="s">
+        <v>368</v>
+      </c>
+      <c r="J11" s="211" t="s">
+        <v>385</v>
+      </c>
+      <c r="K11" s="211" t="s">
+        <v>368</v>
+      </c>
+      <c r="L11" s="211" t="s">
+        <v>368</v>
+      </c>
+      <c r="M11" s="212" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="38.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="265"/>
+      <c r="B12" s="193"/>
+      <c r="C12" s="181" t="s">
+        <v>393</v>
+      </c>
+      <c r="D12" s="182">
+        <v>2</v>
+      </c>
+      <c r="E12" s="193"/>
+      <c r="F12" s="182" t="s">
+        <v>390</v>
+      </c>
+      <c r="G12" s="210" t="s">
+        <v>421</v>
+      </c>
+      <c r="H12" s="211" t="s">
+        <v>368</v>
+      </c>
+      <c r="I12" s="211" t="s">
+        <v>368</v>
+      </c>
+      <c r="J12" s="211" t="s">
+        <v>385</v>
+      </c>
+      <c r="K12" s="211" t="s">
+        <v>383</v>
+      </c>
+      <c r="L12" s="211" t="s">
+        <v>368</v>
+      </c>
+      <c r="M12" s="212" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="38.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="265"/>
+      <c r="B13" s="194" t="s">
+        <v>394</v>
+      </c>
+      <c r="C13" s="181" t="s">
+        <v>395</v>
+      </c>
+      <c r="D13" s="182">
+        <v>2</v>
+      </c>
+      <c r="E13" s="194" t="s">
+        <v>288</v>
+      </c>
+      <c r="F13" s="182" t="s">
+        <v>390</v>
+      </c>
+      <c r="G13" s="210" t="s">
+        <v>421</v>
+      </c>
+      <c r="H13" s="211" t="s">
+        <v>368</v>
+      </c>
+      <c r="I13" s="211" t="s">
+        <v>368</v>
+      </c>
+      <c r="J13" s="211" t="s">
+        <v>385</v>
+      </c>
+      <c r="K13" s="211" t="s">
+        <v>368</v>
+      </c>
+      <c r="L13" s="211" t="s">
+        <v>368</v>
+      </c>
+      <c r="M13" s="212" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="265"/>
+      <c r="B14" s="195"/>
+      <c r="C14" s="181" t="s">
+        <v>396</v>
+      </c>
+      <c r="D14" s="182">
+        <v>1</v>
+      </c>
+      <c r="E14" s="195"/>
+      <c r="F14" s="182" t="s">
+        <v>386</v>
+      </c>
+      <c r="G14" s="210" t="s">
+        <v>421</v>
+      </c>
+      <c r="H14" s="211" t="s">
+        <v>368</v>
+      </c>
+      <c r="I14" s="211" t="s">
+        <v>368</v>
+      </c>
+      <c r="J14" s="211" t="s">
+        <v>385</v>
+      </c>
+      <c r="K14" s="211" t="s">
+        <v>383</v>
+      </c>
+      <c r="L14" s="211" t="s">
+        <v>368</v>
+      </c>
+      <c r="M14" s="212" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="265"/>
+      <c r="B15" s="193"/>
+      <c r="C15" s="181" t="s">
+        <v>397</v>
+      </c>
+      <c r="D15" s="182">
+        <v>1</v>
+      </c>
+      <c r="E15" s="193"/>
+      <c r="F15" s="182" t="s">
+        <v>386</v>
+      </c>
+      <c r="G15" s="211" t="s">
+        <v>368</v>
+      </c>
+      <c r="H15" s="211" t="s">
+        <v>368</v>
+      </c>
+      <c r="I15" s="211" t="s">
+        <v>368</v>
+      </c>
+      <c r="J15" s="211" t="s">
+        <v>385</v>
+      </c>
+      <c r="K15" s="211" t="s">
+        <v>368</v>
+      </c>
+      <c r="L15" s="211" t="s">
+        <v>368</v>
+      </c>
+      <c r="M15" s="212" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="265"/>
+      <c r="B16" s="192" t="s">
+        <v>266</v>
+      </c>
+      <c r="C16" s="178" t="s">
+        <v>398</v>
+      </c>
+      <c r="D16" s="179">
+        <v>1</v>
+      </c>
+      <c r="E16" s="192" t="s">
+        <v>399</v>
+      </c>
+      <c r="F16" s="179" t="s">
+        <v>386</v>
+      </c>
+      <c r="G16" s="206" t="s">
+        <v>431</v>
+      </c>
+      <c r="H16" s="236" t="s">
+        <v>435</v>
+      </c>
+      <c r="I16" s="236" t="s">
+        <v>436</v>
+      </c>
+      <c r="J16" s="208" t="s">
+        <v>400</v>
+      </c>
+      <c r="K16" s="208" t="s">
+        <v>383</v>
+      </c>
+      <c r="L16" s="208" t="s">
+        <v>401</v>
+      </c>
+      <c r="M16" s="209" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="265"/>
+      <c r="B17" s="193"/>
+      <c r="C17" s="181" t="s">
+        <v>402</v>
+      </c>
+      <c r="D17" s="182">
+        <v>2</v>
+      </c>
+      <c r="E17" s="193"/>
+      <c r="F17" s="182" t="s">
+        <v>400</v>
+      </c>
+      <c r="G17" s="211" t="s">
+        <v>383</v>
+      </c>
+      <c r="H17" s="211" t="s">
+        <v>403</v>
+      </c>
+      <c r="I17" s="211" t="s">
+        <v>403</v>
+      </c>
+      <c r="J17" s="211" t="s">
+        <v>367</v>
+      </c>
+      <c r="K17" s="211" t="s">
+        <v>383</v>
+      </c>
+      <c r="L17" s="211" t="s">
+        <v>403</v>
+      </c>
+      <c r="M17" s="212" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="265"/>
+      <c r="B18" s="194" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="181" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" s="182">
+        <v>1</v>
+      </c>
+      <c r="E18" s="194" t="s">
+        <v>376</v>
+      </c>
+      <c r="F18" s="182" t="s">
+        <v>404</v>
+      </c>
+      <c r="G18" s="210" t="s">
+        <v>432</v>
+      </c>
+      <c r="H18" s="211" t="s">
+        <v>403</v>
+      </c>
+      <c r="I18" s="211" t="s">
+        <v>403</v>
+      </c>
+      <c r="J18" s="211" t="s">
+        <v>385</v>
+      </c>
+      <c r="K18" s="211" t="s">
+        <v>368</v>
+      </c>
+      <c r="L18" s="211" t="s">
+        <v>368</v>
+      </c>
+      <c r="M18" s="212" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="265"/>
+      <c r="B19" s="193"/>
+      <c r="C19" s="181" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="182">
+        <v>2</v>
+      </c>
+      <c r="E19" s="195"/>
+      <c r="F19" s="182" t="s">
+        <v>404</v>
+      </c>
+      <c r="G19" s="210" t="s">
+        <v>421</v>
+      </c>
+      <c r="H19" s="211" t="s">
+        <v>368</v>
+      </c>
+      <c r="I19" s="211" t="s">
+        <v>368</v>
+      </c>
+      <c r="J19" s="211" t="s">
+        <v>385</v>
+      </c>
+      <c r="K19" s="211" t="s">
+        <v>368</v>
+      </c>
+      <c r="L19" s="211" t="s">
+        <v>368</v>
+      </c>
+      <c r="M19" s="212" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="265"/>
+      <c r="B20" s="204" t="s">
+        <v>405</v>
+      </c>
+      <c r="C20" s="181" t="s">
+        <v>406</v>
+      </c>
+      <c r="D20" s="182">
+        <v>1</v>
+      </c>
+      <c r="E20" s="193"/>
+      <c r="F20" s="182" t="s">
+        <v>390</v>
+      </c>
+      <c r="G20" s="210" t="s">
+        <v>421</v>
+      </c>
+      <c r="H20" s="211" t="s">
+        <v>383</v>
+      </c>
+      <c r="I20" s="211" t="s">
+        <v>383</v>
+      </c>
+      <c r="J20" s="211" t="s">
+        <v>385</v>
+      </c>
+      <c r="K20" s="211" t="s">
+        <v>368</v>
+      </c>
+      <c r="L20" s="211" t="s">
+        <v>383</v>
+      </c>
+      <c r="M20" s="212" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="265"/>
+      <c r="B21" s="194" t="s">
+        <v>407</v>
+      </c>
+      <c r="C21" s="181" t="s">
+        <v>408</v>
+      </c>
+      <c r="D21" s="182">
+        <v>3</v>
+      </c>
+      <c r="E21" s="194" t="s">
+        <v>366</v>
+      </c>
+      <c r="F21" s="182" t="s">
+        <v>404</v>
+      </c>
+      <c r="G21" s="210" t="s">
+        <v>433</v>
+      </c>
+      <c r="H21" s="211" t="s">
+        <v>403</v>
+      </c>
+      <c r="I21" s="211" t="s">
+        <v>403</v>
+      </c>
+      <c r="J21" s="211" t="s">
+        <v>409</v>
+      </c>
+      <c r="K21" s="211" t="s">
+        <v>403</v>
+      </c>
+      <c r="L21" s="211" t="s">
+        <v>403</v>
+      </c>
+      <c r="M21" s="212" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="265"/>
+      <c r="B22" s="195"/>
+      <c r="C22" s="181" t="s">
+        <v>410</v>
+      </c>
+      <c r="D22" s="182">
+        <v>3</v>
+      </c>
+      <c r="E22" s="195"/>
+      <c r="F22" s="182" t="s">
+        <v>404</v>
+      </c>
+      <c r="G22" s="210" t="s">
+        <v>433</v>
+      </c>
+      <c r="H22" s="211" t="s">
+        <v>403</v>
+      </c>
+      <c r="I22" s="211" t="s">
+        <v>403</v>
+      </c>
+      <c r="J22" s="211" t="s">
+        <v>409</v>
+      </c>
+      <c r="K22" s="211" t="s">
+        <v>403</v>
+      </c>
+      <c r="L22" s="211" t="s">
+        <v>403</v>
+      </c>
+      <c r="M22" s="212" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="265"/>
+      <c r="B23" s="195"/>
+      <c r="C23" s="181" t="s">
+        <v>280</v>
+      </c>
+      <c r="D23" s="182">
+        <v>3</v>
+      </c>
+      <c r="E23" s="193"/>
+      <c r="F23" s="182" t="s">
+        <v>404</v>
+      </c>
+      <c r="G23" s="210" t="s">
+        <v>433</v>
+      </c>
+      <c r="H23" s="211" t="s">
+        <v>403</v>
+      </c>
+      <c r="I23" s="211" t="s">
+        <v>403</v>
+      </c>
+      <c r="J23" s="211" t="s">
+        <v>409</v>
+      </c>
+      <c r="K23" s="211" t="s">
+        <v>403</v>
+      </c>
+      <c r="L23" s="211" t="s">
+        <v>403</v>
+      </c>
+      <c r="M23" s="212" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="263"/>
+      <c r="B24" s="196"/>
+      <c r="C24" s="184" t="s">
+        <v>411</v>
+      </c>
+      <c r="D24" s="185">
+        <v>2</v>
+      </c>
+      <c r="E24" s="202" t="s">
+        <v>376</v>
+      </c>
+      <c r="F24" s="185" t="s">
+        <v>400</v>
+      </c>
+      <c r="G24" s="222" t="s">
+        <v>434</v>
+      </c>
+      <c r="H24" s="214" t="s">
+        <v>412</v>
+      </c>
+      <c r="I24" s="214" t="s">
+        <v>412</v>
+      </c>
+      <c r="J24" s="211" t="s">
+        <v>385</v>
+      </c>
+      <c r="K24" s="214" t="s">
+        <v>403</v>
+      </c>
+      <c r="L24" s="214" t="s">
+        <v>401</v>
+      </c>
+      <c r="M24" s="215" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="264" t="s">
+        <v>413</v>
+      </c>
+      <c r="B25" s="192" t="s">
+        <v>414</v>
+      </c>
+      <c r="C25" s="178" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" s="179">
+        <v>1</v>
+      </c>
+      <c r="E25" s="192" t="s">
+        <v>366</v>
+      </c>
+      <c r="F25" s="180" t="s">
+        <v>370</v>
+      </c>
+      <c r="G25" s="206" t="s">
+        <v>437</v>
+      </c>
+      <c r="H25" s="208" t="s">
+        <v>368</v>
+      </c>
+      <c r="I25" s="208" t="s">
+        <v>368</v>
+      </c>
+      <c r="J25" s="211" t="s">
+        <v>409</v>
+      </c>
+      <c r="K25" s="208" t="s">
+        <v>368</v>
+      </c>
+      <c r="L25" s="208" t="s">
+        <v>368</v>
+      </c>
+      <c r="M25" s="209" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="265"/>
+      <c r="B26" s="195"/>
+      <c r="C26" s="181" t="s">
+        <v>129</v>
+      </c>
+      <c r="D26" s="182">
+        <v>1</v>
+      </c>
+      <c r="E26" s="193"/>
+      <c r="F26" s="179" t="s">
+        <v>370</v>
+      </c>
+      <c r="G26" s="210" t="s">
+        <v>422</v>
+      </c>
+      <c r="H26" s="211" t="s">
+        <v>368</v>
+      </c>
+      <c r="I26" s="211" t="s">
+        <v>368</v>
+      </c>
+      <c r="J26" s="211" t="s">
+        <v>409</v>
+      </c>
+      <c r="K26" s="211" t="s">
+        <v>368</v>
+      </c>
+      <c r="L26" s="211" t="s">
+        <v>368</v>
+      </c>
+      <c r="M26" s="212" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="24.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="265"/>
+      <c r="B27" s="195"/>
+      <c r="C27" s="181" t="s">
+        <v>418</v>
+      </c>
+      <c r="D27" s="182">
+        <v>3</v>
+      </c>
+      <c r="E27" s="194" t="s">
+        <v>376</v>
+      </c>
+      <c r="F27" s="182" t="s">
+        <v>377</v>
+      </c>
+      <c r="G27" s="210" t="s">
+        <v>438</v>
+      </c>
+      <c r="H27" s="211" t="s">
+        <v>419</v>
+      </c>
+      <c r="I27" s="211" t="s">
+        <v>368</v>
+      </c>
+      <c r="J27" s="211" t="s">
+        <v>409</v>
+      </c>
+      <c r="K27" s="211" t="s">
+        <v>368</v>
+      </c>
+      <c r="L27" s="211" t="s">
+        <v>368</v>
+      </c>
+      <c r="M27" s="212" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="265"/>
+      <c r="B28" s="193"/>
+      <c r="C28" s="181" t="s">
+        <v>125</v>
+      </c>
+      <c r="D28" s="182">
+        <v>3</v>
+      </c>
+      <c r="E28" s="195"/>
+      <c r="F28" s="182" t="s">
+        <v>377</v>
+      </c>
+      <c r="G28" s="210" t="s">
+        <v>438</v>
+      </c>
+      <c r="H28" s="211" t="s">
+        <v>368</v>
+      </c>
+      <c r="I28" s="211" t="s">
+        <v>368</v>
+      </c>
+      <c r="J28" s="211" t="s">
+        <v>409</v>
+      </c>
+      <c r="K28" s="211" t="s">
+        <v>368</v>
+      </c>
+      <c r="L28" s="211" t="s">
+        <v>368</v>
+      </c>
+      <c r="M28" s="212" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="263"/>
+      <c r="B29" s="202" t="s">
+        <v>415</v>
+      </c>
+      <c r="C29" s="203" t="s">
+        <v>416</v>
+      </c>
+      <c r="D29" s="185">
+        <v>2</v>
+      </c>
+      <c r="E29" s="196"/>
+      <c r="F29" s="185" t="s">
+        <v>370</v>
+      </c>
+      <c r="G29" s="222" t="s">
+        <v>439</v>
+      </c>
+      <c r="H29" s="214" t="s">
+        <v>403</v>
+      </c>
+      <c r="I29" s="214" t="s">
+        <v>403</v>
+      </c>
+      <c r="J29" s="214" t="s">
+        <v>409</v>
+      </c>
+      <c r="K29" s="214" t="s">
+        <v>383</v>
+      </c>
+      <c r="L29" s="214" t="s">
+        <v>403</v>
+      </c>
+      <c r="M29" s="215" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="264" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="192" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="178" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="179">
+        <v>3</v>
+      </c>
+      <c r="E30" s="192" t="s">
+        <v>366</v>
+      </c>
+      <c r="F30" s="180" t="s">
+        <v>367</v>
+      </c>
+      <c r="G30" s="206" t="s">
+        <v>422</v>
+      </c>
+      <c r="H30" s="208" t="s">
+        <v>368</v>
+      </c>
+      <c r="I30" s="208" t="s">
+        <v>368</v>
+      </c>
+      <c r="J30" s="208" t="s">
+        <v>342</v>
+      </c>
+      <c r="K30" s="208" t="s">
+        <v>342</v>
+      </c>
+      <c r="L30" s="208" t="s">
+        <v>342</v>
+      </c>
+      <c r="M30" s="209" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="265"/>
+      <c r="B31" s="193"/>
+      <c r="C31" s="181" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="182">
+        <v>3</v>
+      </c>
+      <c r="E31" s="193"/>
+      <c r="F31" s="179" t="s">
+        <v>367</v>
+      </c>
+      <c r="G31" s="210" t="s">
+        <v>422</v>
+      </c>
+      <c r="H31" s="211" t="s">
+        <v>368</v>
+      </c>
+      <c r="I31" s="211" t="s">
+        <v>368</v>
+      </c>
+      <c r="J31" s="211" t="s">
+        <v>342</v>
+      </c>
+      <c r="K31" s="211" t="s">
+        <v>342</v>
+      </c>
+      <c r="L31" s="211" t="s">
+        <v>342</v>
+      </c>
+      <c r="M31" s="212" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="265"/>
+      <c r="B32" s="194" t="s">
+        <v>267</v>
+      </c>
+      <c r="C32" s="181" t="s">
+        <v>369</v>
+      </c>
+      <c r="D32" s="182">
+        <v>2</v>
+      </c>
+      <c r="E32" s="194" t="s">
+        <v>288</v>
+      </c>
+      <c r="F32" s="182" t="s">
+        <v>370</v>
+      </c>
+      <c r="G32" s="211" t="s">
+        <v>371</v>
+      </c>
+      <c r="H32" s="211" t="s">
+        <v>368</v>
+      </c>
+      <c r="I32" s="211" t="s">
+        <v>368</v>
+      </c>
+      <c r="J32" s="211" t="s">
+        <v>342</v>
+      </c>
+      <c r="K32" s="211" t="s">
+        <v>342</v>
+      </c>
+      <c r="L32" s="211" t="s">
+        <v>342</v>
+      </c>
+      <c r="M32" s="212" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="265"/>
+      <c r="B33" s="195"/>
+      <c r="C33" s="181" t="s">
+        <v>372</v>
+      </c>
+      <c r="D33" s="182">
+        <v>2</v>
+      </c>
+      <c r="E33" s="195"/>
+      <c r="F33" s="182" t="s">
+        <v>370</v>
+      </c>
+      <c r="G33" s="211" t="s">
+        <v>373</v>
+      </c>
+      <c r="H33" s="211" t="s">
+        <v>368</v>
+      </c>
+      <c r="I33" s="211" t="s">
+        <v>368</v>
+      </c>
+      <c r="J33" s="211" t="s">
+        <v>342</v>
+      </c>
+      <c r="K33" s="211" t="s">
+        <v>342</v>
+      </c>
+      <c r="L33" s="211" t="s">
+        <v>342</v>
+      </c>
+      <c r="M33" s="212" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="265"/>
+      <c r="B34" s="193"/>
+      <c r="C34" s="181" t="s">
+        <v>374</v>
+      </c>
+      <c r="D34" s="182">
+        <v>2</v>
+      </c>
+      <c r="E34" s="193"/>
+      <c r="F34" s="182" t="s">
+        <v>370</v>
+      </c>
+      <c r="G34" s="211" t="s">
+        <v>373</v>
+      </c>
+      <c r="H34" s="211" t="s">
+        <v>368</v>
+      </c>
+      <c r="I34" s="211" t="s">
+        <v>368</v>
+      </c>
+      <c r="J34" s="211" t="s">
+        <v>342</v>
+      </c>
+      <c r="K34" s="211" t="s">
+        <v>342</v>
+      </c>
+      <c r="L34" s="211" t="s">
+        <v>342</v>
+      </c>
+      <c r="M34" s="212" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="265"/>
+      <c r="B35" s="194" t="s">
+        <v>268</v>
+      </c>
+      <c r="C35" s="181" t="s">
+        <v>375</v>
+      </c>
+      <c r="D35" s="182">
+        <v>2</v>
+      </c>
+      <c r="E35" s="194" t="s">
+        <v>376</v>
+      </c>
+      <c r="F35" s="182" t="s">
+        <v>377</v>
+      </c>
+      <c r="G35" s="218" t="s">
+        <v>371</v>
+      </c>
+      <c r="H35" s="211" t="s">
+        <v>368</v>
+      </c>
+      <c r="I35" s="211" t="s">
+        <v>368</v>
+      </c>
+      <c r="J35" s="211" t="s">
+        <v>342</v>
+      </c>
+      <c r="K35" s="211" t="s">
+        <v>342</v>
+      </c>
+      <c r="L35" s="211" t="s">
+        <v>342</v>
+      </c>
+      <c r="M35" s="212" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="265"/>
+      <c r="B36" s="193"/>
+      <c r="C36" s="181" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="182">
+        <v>3</v>
+      </c>
+      <c r="E36" s="195"/>
+      <c r="F36" s="182" t="s">
+        <v>377</v>
+      </c>
+      <c r="G36" s="218" t="s">
+        <v>371</v>
+      </c>
+      <c r="H36" s="211" t="s">
+        <v>368</v>
+      </c>
+      <c r="I36" s="211" t="s">
+        <v>368</v>
+      </c>
+      <c r="J36" s="211" t="s">
+        <v>342</v>
+      </c>
+      <c r="K36" s="211" t="s">
+        <v>342</v>
+      </c>
+      <c r="L36" s="211" t="s">
+        <v>342</v>
+      </c>
+      <c r="M36" s="212" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="265"/>
+      <c r="B37" s="197" t="s">
+        <v>378</v>
+      </c>
+      <c r="C37" s="183" t="s">
+        <v>379</v>
+      </c>
+      <c r="D37" s="182">
+        <v>2</v>
+      </c>
+      <c r="E37" s="195"/>
+      <c r="F37" s="182" t="s">
+        <v>377</v>
+      </c>
+      <c r="G37" s="218" t="s">
+        <v>371</v>
+      </c>
+      <c r="H37" s="211" t="s">
+        <v>368</v>
+      </c>
+      <c r="I37" s="211" t="s">
+        <v>368</v>
+      </c>
+      <c r="J37" s="211" t="s">
+        <v>342</v>
+      </c>
+      <c r="K37" s="211" t="s">
+        <v>342</v>
+      </c>
+      <c r="L37" s="211" t="s">
+        <v>342</v>
+      </c>
+      <c r="M37" s="212" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="263"/>
+      <c r="B38" s="198"/>
+      <c r="C38" s="184" t="s">
+        <v>380</v>
+      </c>
+      <c r="D38" s="185">
+        <v>3</v>
+      </c>
+      <c r="E38" s="196"/>
+      <c r="F38" s="185" t="s">
+        <v>377</v>
+      </c>
+      <c r="G38" s="219" t="s">
+        <v>371</v>
+      </c>
+      <c r="H38" s="214" t="s">
+        <v>368</v>
+      </c>
+      <c r="I38" s="214" t="s">
+        <v>368</v>
+      </c>
+      <c r="J38" s="214" t="s">
+        <v>342</v>
+      </c>
+      <c r="K38" s="214" t="s">
+        <v>342</v>
+      </c>
+      <c r="L38" s="214" t="s">
+        <v>342</v>
+      </c>
+      <c r="M38" s="215" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" s="264" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" s="192" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="199" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" s="201">
+        <v>1</v>
+      </c>
+      <c r="E39" s="192" t="s">
+        <v>366</v>
+      </c>
+      <c r="F39" s="201" t="s">
+        <v>381</v>
+      </c>
+      <c r="G39" s="220" t="s">
+        <v>422</v>
+      </c>
+      <c r="H39" s="230" t="s">
+        <v>440</v>
+      </c>
+      <c r="I39" s="231" t="s">
+        <v>371</v>
+      </c>
+      <c r="J39" s="231" t="s">
+        <v>382</v>
+      </c>
+      <c r="K39" s="231" t="s">
+        <v>368</v>
+      </c>
+      <c r="L39" s="231" t="s">
+        <v>383</v>
+      </c>
+      <c r="M39" s="232" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="263"/>
+      <c r="B40" s="196"/>
+      <c r="C40" s="200"/>
+      <c r="D40" s="198"/>
+      <c r="E40" s="196"/>
+      <c r="F40" s="198"/>
+      <c r="G40" s="221"/>
+      <c r="H40" s="233"/>
+      <c r="I40" s="234"/>
+      <c r="J40" s="234"/>
+      <c r="K40" s="234"/>
+      <c r="L40" s="234"/>
+      <c r="M40" s="235"/>
+    </row>
+    <row r="41" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="237"/>
+      <c r="B42" s="268"/>
+      <c r="C42" s="268"/>
+      <c r="D42" s="268"/>
+      <c r="E42" s="268"/>
+      <c r="F42" s="268"/>
+      <c r="G42" s="268"/>
+      <c r="H42" s="269"/>
+    </row>
+    <row r="43" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="238" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="239" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="239" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="239" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="239" t="s">
+        <v>423</v>
+      </c>
+      <c r="F43" s="240" t="s">
+        <v>424</v>
+      </c>
+      <c r="G43" s="239" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" s="241" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" s="242"/>
+      <c r="B44" s="270"/>
+      <c r="C44" s="270"/>
+      <c r="D44" s="270"/>
+      <c r="E44" s="270"/>
+      <c r="F44" s="270"/>
+      <c r="G44" s="270"/>
+      <c r="H44" s="271"/>
+    </row>
+    <row r="45" spans="1:13" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A45" s="243" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="181" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="182">
+        <v>1</v>
+      </c>
+      <c r="D45" s="194" t="s">
+        <v>366</v>
+      </c>
+      <c r="E45" s="244">
+        <v>1</v>
+      </c>
+      <c r="F45" s="244">
+        <v>1</v>
+      </c>
+      <c r="G45" s="245"/>
+      <c r="H45" s="246"/>
+    </row>
+    <row r="46" spans="1:13" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="267"/>
+      <c r="B46" s="203" t="s">
+        <v>265</v>
+      </c>
+      <c r="C46" s="185">
+        <v>1</v>
+      </c>
+      <c r="D46" s="196"/>
+      <c r="E46" s="247">
+        <v>1</v>
+      </c>
+      <c r="F46" s="247">
+        <v>1</v>
+      </c>
+      <c r="G46" s="248"/>
+      <c r="H46" s="249"/>
+    </row>
+    <row r="47" spans="1:13" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A47" s="177" t="s">
+        <v>387</v>
+      </c>
+      <c r="B47" s="178" t="s">
+        <v>388</v>
+      </c>
+      <c r="C47" s="179">
+        <v>1</v>
+      </c>
+      <c r="D47" s="192" t="s">
+        <v>288</v>
+      </c>
+      <c r="E47" s="250">
+        <v>1</v>
+      </c>
+      <c r="F47" s="250">
+        <v>1</v>
+      </c>
+      <c r="G47" s="251"/>
+      <c r="H47" s="252"/>
+    </row>
+    <row r="48" spans="1:13" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A48" s="266"/>
+      <c r="B48" s="181" t="s">
+        <v>394</v>
+      </c>
+      <c r="C48" s="182">
+        <v>1</v>
+      </c>
+      <c r="D48" s="193"/>
+      <c r="E48" s="244">
+        <v>1</v>
+      </c>
+      <c r="F48" s="244">
+        <v>1</v>
+      </c>
+      <c r="G48" s="245"/>
+      <c r="H48" s="246"/>
+    </row>
+    <row r="49" spans="1:8" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A49" s="266"/>
+      <c r="B49" s="181" t="s">
+        <v>266</v>
+      </c>
+      <c r="C49" s="182">
+        <v>1</v>
+      </c>
+      <c r="D49" s="204" t="s">
+        <v>399</v>
+      </c>
+      <c r="E49" s="244">
+        <v>1</v>
+      </c>
+      <c r="F49" s="253" t="s">
+        <v>425</v>
+      </c>
+      <c r="G49" s="253" t="s">
+        <v>426</v>
+      </c>
+      <c r="H49" s="246"/>
+    </row>
+    <row r="50" spans="1:8" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A50" s="266"/>
+      <c r="B50" s="181" t="s">
+        <v>115</v>
+      </c>
+      <c r="C50" s="182">
+        <v>1</v>
+      </c>
+      <c r="D50" s="194" t="s">
+        <v>376</v>
+      </c>
+      <c r="E50" s="244">
+        <v>1</v>
+      </c>
+      <c r="F50" s="244">
+        <v>1</v>
+      </c>
+      <c r="G50" s="245"/>
+      <c r="H50" s="246"/>
+    </row>
+    <row r="51" spans="1:8" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A51" s="266"/>
+      <c r="B51" s="181" t="s">
+        <v>405</v>
+      </c>
+      <c r="C51" s="182">
+        <v>1</v>
+      </c>
+      <c r="D51" s="193"/>
+      <c r="E51" s="244">
+        <v>1</v>
+      </c>
+      <c r="F51" s="253" t="s">
+        <v>425</v>
+      </c>
+      <c r="G51" s="245"/>
+      <c r="H51" s="246"/>
+    </row>
+    <row r="52" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="267"/>
+      <c r="B52" s="203" t="s">
+        <v>407</v>
+      </c>
+      <c r="C52" s="185">
+        <v>2</v>
+      </c>
+      <c r="D52" s="202" t="s">
+        <v>427</v>
+      </c>
+      <c r="E52" s="247">
+        <v>1</v>
+      </c>
+      <c r="F52" s="254" t="s">
+        <v>425</v>
+      </c>
+      <c r="G52" s="248"/>
+      <c r="H52" s="249"/>
+    </row>
+    <row r="53" spans="1:8" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A53" s="177" t="s">
+        <v>413</v>
+      </c>
+      <c r="B53" s="178" t="s">
+        <v>414</v>
+      </c>
+      <c r="C53" s="179">
+        <v>3</v>
+      </c>
+      <c r="D53" s="255" t="s">
+        <v>427</v>
+      </c>
+      <c r="E53" s="250">
+        <v>1</v>
+      </c>
+      <c r="F53" s="256" t="s">
+        <v>425</v>
+      </c>
+      <c r="G53" s="251"/>
+      <c r="H53" s="252"/>
+    </row>
+    <row r="54" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="267"/>
+      <c r="B54" s="203" t="s">
+        <v>415</v>
+      </c>
+      <c r="C54" s="185">
+        <v>2</v>
+      </c>
+      <c r="D54" s="202" t="s">
+        <v>376</v>
+      </c>
+      <c r="E54" s="247">
+        <v>1</v>
+      </c>
+      <c r="F54" s="247">
+        <v>1</v>
+      </c>
+      <c r="G54" s="248"/>
+      <c r="H54" s="249"/>
+    </row>
+    <row r="55" spans="1:8" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A55" s="177" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" s="178" t="s">
+        <v>71</v>
+      </c>
+      <c r="C55" s="179">
+        <v>3</v>
+      </c>
+      <c r="D55" s="255" t="s">
+        <v>366</v>
+      </c>
+      <c r="E55" s="250">
+        <v>1</v>
+      </c>
+      <c r="F55" s="250">
+        <v>1</v>
+      </c>
+      <c r="G55" s="251"/>
+      <c r="H55" s="252"/>
+    </row>
+    <row r="56" spans="1:8" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A56" s="266"/>
+      <c r="B56" s="181" t="s">
+        <v>267</v>
+      </c>
+      <c r="C56" s="182">
+        <v>2</v>
+      </c>
+      <c r="D56" s="204" t="s">
+        <v>288</v>
+      </c>
+      <c r="E56" s="244">
+        <v>1</v>
+      </c>
+      <c r="F56" s="244">
+        <v>1</v>
+      </c>
+      <c r="G56" s="245"/>
+      <c r="H56" s="246"/>
+    </row>
+    <row r="57" spans="1:8" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A57" s="266"/>
+      <c r="B57" s="181" t="s">
+        <v>268</v>
+      </c>
+      <c r="C57" s="182">
+        <v>3</v>
+      </c>
+      <c r="D57" s="194" t="s">
+        <v>376</v>
+      </c>
+      <c r="E57" s="244">
+        <v>1</v>
+      </c>
+      <c r="F57" s="244">
+        <v>1</v>
+      </c>
+      <c r="G57" s="245"/>
+      <c r="H57" s="246"/>
+    </row>
+    <row r="58" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="267"/>
+      <c r="B58" s="184" t="s">
+        <v>378</v>
+      </c>
+      <c r="C58" s="185">
+        <v>3</v>
+      </c>
+      <c r="D58" s="196"/>
+      <c r="E58" s="247">
+        <v>1</v>
+      </c>
+      <c r="F58" s="247">
+        <v>1</v>
+      </c>
+      <c r="G58" s="248"/>
+      <c r="H58" s="249"/>
+    </row>
+    <row r="59" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="257" t="s">
+        <v>68</v>
+      </c>
+      <c r="B59" s="258" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="180">
+        <v>1</v>
+      </c>
+      <c r="D59" s="259" t="s">
+        <v>366</v>
+      </c>
+      <c r="E59" s="260">
+        <v>1</v>
+      </c>
+      <c r="F59" s="260">
+        <v>1</v>
+      </c>
+      <c r="G59" s="261"/>
+      <c r="H59" s="262"/>
+    </row>
+  </sheetData>
+  <mergeCells count="54">
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A9:A24"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="A30:A38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="F1:I1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
@@ -23980,12 +27387,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="154"/>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="156"/>
+      <c r="A1" s="148"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="150"/>
     </row>
     <row r="2" spans="1:6" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
@@ -24008,15 +27415,15 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="145"/>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="147"/>
+      <c r="A3" s="159"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="161"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="158" t="s">
+      <c r="A4" s="155" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="74" t="s">
@@ -24025,26 +27432,26 @@
       <c r="C4" s="117">
         <v>1</v>
       </c>
-      <c r="D4" s="162" t="s">
+      <c r="D4" s="145" t="s">
         <v>283</v>
       </c>
       <c r="E4" s="33"/>
       <c r="F4" s="34"/>
     </row>
     <row r="5" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="164"/>
+      <c r="A5" s="165"/>
       <c r="B5" s="75" t="s">
         <v>265</v>
       </c>
       <c r="C5" s="118">
         <v>1</v>
       </c>
-      <c r="D5" s="163"/>
+      <c r="D5" s="158"/>
       <c r="E5" s="35"/>
       <c r="F5" s="36"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="143" t="s">
+      <c r="A6" s="151" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="76" t="s">
@@ -24053,26 +27460,26 @@
       <c r="C6" s="116">
         <v>1</v>
       </c>
-      <c r="D6" s="160" t="s">
+      <c r="D6" s="157" t="s">
         <v>308</v>
       </c>
       <c r="E6" s="31"/>
       <c r="F6" s="32"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="144"/>
+      <c r="A7" s="152"/>
       <c r="B7" s="74" t="s">
         <v>111</v>
       </c>
       <c r="C7" s="117">
         <v>1</v>
       </c>
-      <c r="D7" s="159"/>
+      <c r="D7" s="147"/>
       <c r="E7" s="33"/>
       <c r="F7" s="34"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="144"/>
+      <c r="A8" s="152"/>
       <c r="B8" s="77" t="s">
         <v>266</v>
       </c>
@@ -24086,33 +27493,33 @@
       <c r="F8" s="34"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="144"/>
+      <c r="A9" s="152"/>
       <c r="B9" s="74" t="s">
         <v>115</v>
       </c>
       <c r="C9" s="117">
         <v>1</v>
       </c>
-      <c r="D9" s="162" t="s">
+      <c r="D9" s="145" t="s">
         <v>289</v>
       </c>
       <c r="E9" s="33"/>
       <c r="F9" s="34"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="144"/>
+      <c r="A10" s="152"/>
       <c r="B10" s="77" t="s">
         <v>295</v>
       </c>
       <c r="C10" s="117">
         <v>1</v>
       </c>
-      <c r="D10" s="159"/>
+      <c r="D10" s="147"/>
       <c r="E10" s="33"/>
       <c r="F10" s="34"/>
     </row>
     <row r="11" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="164"/>
+      <c r="A11" s="165"/>
       <c r="B11" s="79" t="s">
         <v>43</v>
       </c>
@@ -24126,7 +27533,7 @@
       <c r="F11" s="34"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="143" t="s">
+      <c r="A12" s="151" t="s">
         <v>45</v>
       </c>
       <c r="B12" s="73" t="s">
@@ -24142,7 +27549,7 @@
       <c r="F12" s="32"/>
     </row>
     <row r="13" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="164"/>
+      <c r="A13" s="165"/>
       <c r="B13" s="68" t="s">
         <v>139</v>
       </c>
@@ -24156,7 +27563,7 @@
       <c r="F13" s="36"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="143" t="s">
+      <c r="A14" s="151" t="s">
         <v>67</v>
       </c>
       <c r="B14" s="78" t="s">
@@ -24172,7 +27579,7 @@
       <c r="F14" s="56"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="144"/>
+      <c r="A15" s="152"/>
       <c r="B15" s="78" t="s">
         <v>267</v>
       </c>
@@ -24186,28 +27593,28 @@
       <c r="F15" s="34"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="144"/>
+      <c r="A16" s="152"/>
       <c r="B16" s="74" t="s">
         <v>268</v>
       </c>
       <c r="C16" s="117">
         <v>3</v>
       </c>
-      <c r="D16" s="162" t="s">
+      <c r="D16" s="145" t="s">
         <v>289</v>
       </c>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
     </row>
     <row r="17" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="164"/>
+      <c r="A17" s="165"/>
       <c r="B17" s="80" t="s">
         <v>269</v>
       </c>
       <c r="C17" s="121">
         <v>3</v>
       </c>
-      <c r="D17" s="163"/>
+      <c r="D17" s="158"/>
       <c r="E17" s="44"/>
       <c r="F17" s="45"/>
     </row>

--- a/WebContent/발표/3조 5차 요구사항정의서.xlsx
+++ b/WebContent/발표/3조 5차 요구사항정의서.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="442">
   <si>
     <t>구분</t>
   </si>
@@ -2061,22 +2061,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>0/1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>　</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1/1</t>
   </si>
   <si>
@@ -2148,27 +2132,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2/6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0/1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1/6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2/6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3787,132 +3791,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -3949,54 +3827,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -4004,9 +3834,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="12" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4051,52 +3878,13 @@
     <xf numFmtId="49" fontId="7" fillId="13" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="12" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="12" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4180,15 +3968,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -4205,6 +3984,231 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="12" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="12" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -4570,10 +4574,10 @@
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="138" t="s">
+      <c r="B3" s="206" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="135" t="s">
+      <c r="C3" s="197" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="15" t="s">
@@ -4590,8 +4594,8 @@
       <c r="K3" s="11"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="139"/>
-      <c r="C4" s="136"/>
+      <c r="B4" s="207"/>
+      <c r="C4" s="198"/>
       <c r="D4" s="13" t="s">
         <v>13</v>
       </c>
@@ -4606,8 +4610,8 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="139"/>
-      <c r="C5" s="137"/>
+      <c r="B5" s="207"/>
+      <c r="C5" s="201"/>
       <c r="D5" s="16" t="s">
         <v>15</v>
       </c>
@@ -4622,8 +4626,8 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="139"/>
-      <c r="C6" s="135" t="s">
+      <c r="B6" s="207"/>
+      <c r="C6" s="197" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="12" t="s">
@@ -4640,8 +4644,8 @@
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="139"/>
-      <c r="C7" s="136"/>
+      <c r="B7" s="207"/>
+      <c r="C7" s="198"/>
       <c r="D7" s="13" t="s">
         <v>20</v>
       </c>
@@ -4656,8 +4660,8 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="140"/>
-      <c r="C8" s="137"/>
+      <c r="B8" s="208"/>
+      <c r="C8" s="201"/>
       <c r="D8" s="16" t="s">
         <v>17</v>
       </c>
@@ -4674,10 +4678,10 @@
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="132" t="s">
+      <c r="B9" s="205" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="135" t="s">
+      <c r="C9" s="197" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="15" t="s">
@@ -4694,8 +4698,8 @@
       <c r="K9" s="11"/>
     </row>
     <row r="10" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="133"/>
-      <c r="C10" s="137"/>
+      <c r="B10" s="199"/>
+      <c r="C10" s="201"/>
       <c r="D10" s="17" t="s">
         <v>25</v>
       </c>
@@ -4710,11 +4714,11 @@
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="133"/>
-      <c r="C11" s="135" t="s">
+      <c r="B11" s="199"/>
+      <c r="C11" s="197" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="141" t="s">
+      <c r="D11" s="202" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="10" t="s">
@@ -4728,9 +4732,9 @@
       <c r="K11" s="11"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="133"/>
-      <c r="C12" s="136"/>
-      <c r="D12" s="142"/>
+      <c r="B12" s="199"/>
+      <c r="C12" s="198"/>
+      <c r="D12" s="204"/>
       <c r="E12" s="1" t="s">
         <v>34</v>
       </c>
@@ -4742,8 +4746,8 @@
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="133"/>
-      <c r="C13" s="136"/>
+      <c r="B13" s="199"/>
+      <c r="C13" s="198"/>
       <c r="D13" s="13" t="s">
         <v>31</v>
       </c>
@@ -4758,8 +4762,8 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="133"/>
-      <c r="C14" s="136"/>
+      <c r="B14" s="199"/>
+      <c r="C14" s="198"/>
       <c r="D14" s="13" t="s">
         <v>32</v>
       </c>
@@ -4774,8 +4778,8 @@
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="133"/>
-      <c r="C15" s="137"/>
+      <c r="B15" s="199"/>
+      <c r="C15" s="201"/>
       <c r="D15" s="17" t="s">
         <v>35</v>
       </c>
@@ -4792,8 +4796,8 @@
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="133"/>
-      <c r="C16" s="135" t="s">
+      <c r="B16" s="199"/>
+      <c r="C16" s="197" t="s">
         <v>38</v>
       </c>
       <c r="D16" s="15" t="s">
@@ -4810,8 +4814,8 @@
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="133"/>
-      <c r="C17" s="136"/>
+      <c r="B17" s="199"/>
+      <c r="C17" s="198"/>
       <c r="D17" s="13" t="s">
         <v>31</v>
       </c>
@@ -4826,8 +4830,8 @@
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="133"/>
-      <c r="C18" s="136"/>
+      <c r="B18" s="199"/>
+      <c r="C18" s="198"/>
       <c r="D18" s="13" t="s">
         <v>42</v>
       </c>
@@ -4842,8 +4846,8 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="134"/>
-      <c r="C19" s="137"/>
+      <c r="B19" s="200"/>
+      <c r="C19" s="201"/>
       <c r="D19" s="17" t="s">
         <v>35</v>
       </c>
@@ -4858,10 +4862,10 @@
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="132" t="s">
+      <c r="B20" s="205" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="135" t="s">
+      <c r="C20" s="197" t="s">
         <v>46</v>
       </c>
       <c r="D20" s="15" t="s">
@@ -4878,8 +4882,8 @@
       <c r="K20" s="11"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="133"/>
-      <c r="C21" s="136"/>
+      <c r="B21" s="199"/>
+      <c r="C21" s="198"/>
       <c r="D21" s="13" t="s">
         <v>48</v>
       </c>
@@ -4894,8 +4898,8 @@
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="133"/>
-      <c r="C22" s="137"/>
+      <c r="B22" s="199"/>
+      <c r="C22" s="201"/>
       <c r="D22" s="16" t="s">
         <v>52</v>
       </c>
@@ -4910,7 +4914,7 @@
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="133"/>
+      <c r="B23" s="199"/>
       <c r="C23" s="21" t="s">
         <v>54</v>
       </c>
@@ -4928,10 +4932,10 @@
       <c r="K23" s="20"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="132" t="s">
+      <c r="B24" s="205" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="135" t="s">
+      <c r="C24" s="197" t="s">
         <v>49</v>
       </c>
       <c r="D24" s="15" t="s">
@@ -4948,8 +4952,8 @@
       <c r="K24" s="11"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="133"/>
-      <c r="C25" s="136"/>
+      <c r="B25" s="199"/>
+      <c r="C25" s="198"/>
       <c r="D25" s="13" t="s">
         <v>59</v>
       </c>
@@ -4964,8 +4968,8 @@
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="133"/>
-      <c r="C26" s="137"/>
+      <c r="B26" s="199"/>
+      <c r="C26" s="201"/>
       <c r="D26" s="16" t="s">
         <v>61</v>
       </c>
@@ -4980,7 +4984,7 @@
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="133"/>
+      <c r="B27" s="199"/>
       <c r="C27" s="23" t="s">
         <v>56</v>
       </c>
@@ -4998,7 +5002,7 @@
       <c r="K27" s="20"/>
     </row>
     <row r="28" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="134"/>
+      <c r="B28" s="200"/>
       <c r="C28" s="23" t="s">
         <v>44</v>
       </c>
@@ -5036,10 +5040,10 @@
       <c r="K29" s="20"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="135" t="s">
+      <c r="B30" s="197" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="141" t="s">
+      <c r="C30" s="202" t="s">
         <v>71</v>
       </c>
       <c r="D30" s="15" t="s">
@@ -5056,8 +5060,8 @@
       <c r="K30" s="11"/>
     </row>
     <row r="31" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="136"/>
-      <c r="C31" s="143"/>
+      <c r="B31" s="198"/>
+      <c r="C31" s="203"/>
       <c r="D31" s="14" t="s">
         <v>74</v>
       </c>
@@ -5072,8 +5076,8 @@
       <c r="K31" s="27"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="133"/>
-      <c r="C32" s="135" t="s">
+      <c r="B32" s="199"/>
+      <c r="C32" s="197" t="s">
         <v>85</v>
       </c>
       <c r="D32" s="15" t="s">
@@ -5090,8 +5094,8 @@
       <c r="K32" s="11"/>
     </row>
     <row r="33" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="133"/>
-      <c r="C33" s="137"/>
+      <c r="B33" s="199"/>
+      <c r="C33" s="201"/>
       <c r="D33" s="16" t="s">
         <v>88</v>
       </c>
@@ -5106,8 +5110,8 @@
       <c r="K33" s="4"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="133"/>
-      <c r="C34" s="135" t="s">
+      <c r="B34" s="199"/>
+      <c r="C34" s="197" t="s">
         <v>90</v>
       </c>
       <c r="D34" s="15" t="s">
@@ -5124,8 +5128,8 @@
       <c r="K34" s="11"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="133"/>
-      <c r="C35" s="136"/>
+      <c r="B35" s="199"/>
+      <c r="C35" s="198"/>
       <c r="D35" s="13"/>
       <c r="E35" s="1" t="s">
         <v>34</v>
@@ -5138,8 +5142,8 @@
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="133"/>
-      <c r="C36" s="136"/>
+      <c r="B36" s="199"/>
+      <c r="C36" s="198"/>
       <c r="D36" s="13" t="s">
         <v>31</v>
       </c>
@@ -5154,8 +5158,8 @@
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="133"/>
-      <c r="C37" s="136"/>
+      <c r="B37" s="199"/>
+      <c r="C37" s="198"/>
       <c r="D37" s="13" t="s">
         <v>92</v>
       </c>
@@ -5170,8 +5174,8 @@
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="133"/>
-      <c r="C38" s="137"/>
+      <c r="B38" s="199"/>
+      <c r="C38" s="201"/>
       <c r="D38" s="16" t="s">
         <v>94</v>
       </c>
@@ -5186,8 +5190,8 @@
       <c r="K38" s="4"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="133"/>
-      <c r="C39" s="135" t="s">
+      <c r="B39" s="199"/>
+      <c r="C39" s="197" t="s">
         <v>38</v>
       </c>
       <c r="D39" s="15" t="s">
@@ -5204,8 +5208,8 @@
       <c r="K39" s="11"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="133"/>
-      <c r="C40" s="136"/>
+      <c r="B40" s="199"/>
+      <c r="C40" s="198"/>
       <c r="D40" s="13" t="s">
         <v>31</v>
       </c>
@@ -5220,8 +5224,8 @@
       <c r="K40" s="2"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="133"/>
-      <c r="C41" s="136"/>
+      <c r="B41" s="199"/>
+      <c r="C41" s="198"/>
       <c r="D41" s="13" t="s">
         <v>92</v>
       </c>
@@ -5236,8 +5240,8 @@
       <c r="K41" s="2"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="133"/>
-      <c r="C42" s="136"/>
+      <c r="B42" s="199"/>
+      <c r="C42" s="198"/>
       <c r="D42" s="13" t="s">
         <v>35</v>
       </c>
@@ -5252,8 +5256,8 @@
       <c r="K42" s="2"/>
     </row>
     <row r="43" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="133"/>
-      <c r="C43" s="137"/>
+      <c r="B43" s="199"/>
+      <c r="C43" s="201"/>
       <c r="D43" s="16" t="s">
         <v>97</v>
       </c>
@@ -5268,8 +5272,8 @@
       <c r="K43" s="4"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="133"/>
-      <c r="C44" s="135" t="s">
+      <c r="B44" s="199"/>
+      <c r="C44" s="197" t="s">
         <v>76</v>
       </c>
       <c r="D44" s="15" t="s">
@@ -5286,8 +5290,8 @@
       <c r="K44" s="11"/>
     </row>
     <row r="45" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="133"/>
-      <c r="C45" s="137"/>
+      <c r="B45" s="199"/>
+      <c r="C45" s="201"/>
       <c r="D45" s="16" t="s">
         <v>79</v>
       </c>
@@ -5302,8 +5306,8 @@
       <c r="K45" s="4"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="133"/>
-      <c r="C46" s="135" t="s">
+      <c r="B46" s="199"/>
+      <c r="C46" s="197" t="s">
         <v>81</v>
       </c>
       <c r="D46" s="15" t="s">
@@ -5320,8 +5324,8 @@
       <c r="K46" s="11"/>
     </row>
     <row r="47" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="133"/>
-      <c r="C47" s="137"/>
+      <c r="B47" s="199"/>
+      <c r="C47" s="201"/>
       <c r="D47" s="16" t="s">
         <v>83</v>
       </c>
@@ -5336,8 +5340,8 @@
       <c r="K47" s="4"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="133"/>
-      <c r="C48" s="135" t="s">
+      <c r="B48" s="199"/>
+      <c r="C48" s="197" t="s">
         <v>56</v>
       </c>
       <c r="D48" s="15" t="s">
@@ -5354,8 +5358,8 @@
       <c r="K48" s="11"/>
     </row>
     <row r="49" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="134"/>
-      <c r="C49" s="137"/>
+      <c r="B49" s="200"/>
+      <c r="C49" s="201"/>
       <c r="D49" s="16" t="s">
         <v>101</v>
       </c>
@@ -5371,6 +5375,18 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B9:B19"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C22"/>
     <mergeCell ref="B30:B49"/>
     <mergeCell ref="C39:C43"/>
     <mergeCell ref="C34:C38"/>
@@ -5379,18 +5395,6 @@
     <mergeCell ref="C48:C49"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B9:B19"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5420,15 +5424,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="148"/>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="150"/>
+      <c r="A1" s="220"/>
+      <c r="B1" s="221"/>
+      <c r="C1" s="221"/>
+      <c r="D1" s="221"/>
+      <c r="E1" s="221"/>
+      <c r="F1" s="221"/>
+      <c r="G1" s="221"/>
+      <c r="H1" s="221"/>
+      <c r="I1" s="222"/>
     </row>
     <row r="2" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
@@ -5460,21 +5464,21 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="159"/>
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="161"/>
+      <c r="A3" s="211"/>
+      <c r="B3" s="212"/>
+      <c r="C3" s="212"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="212"/>
+      <c r="F3" s="212"/>
+      <c r="G3" s="212"/>
+      <c r="H3" s="212"/>
+      <c r="I3" s="213"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="162" t="s">
+      <c r="A4" s="214" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="156" t="s">
+      <c r="B4" s="217" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="37" t="s">
@@ -5490,8 +5494,8 @@
       <c r="I4" s="32"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="154"/>
-      <c r="B5" s="144"/>
+      <c r="A5" s="215"/>
+      <c r="B5" s="218"/>
       <c r="C5" s="38" t="s">
         <v>13</v>
       </c>
@@ -5505,8 +5509,8 @@
       <c r="I5" s="34"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="154"/>
-      <c r="B6" s="144"/>
+      <c r="A6" s="215"/>
+      <c r="B6" s="218"/>
       <c r="C6" s="38" t="s">
         <v>15</v>
       </c>
@@ -5520,8 +5524,8 @@
       <c r="I6" s="34"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="154"/>
-      <c r="B7" s="144" t="s">
+      <c r="A7" s="215"/>
+      <c r="B7" s="218" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="38" t="s">
@@ -5537,8 +5541,8 @@
       <c r="I7" s="34"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="154"/>
-      <c r="B8" s="144"/>
+      <c r="A8" s="215"/>
+      <c r="B8" s="218"/>
       <c r="C8" s="38" t="s">
         <v>20</v>
       </c>
@@ -5552,8 +5556,8 @@
       <c r="I8" s="34"/>
     </row>
     <row r="9" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="163"/>
-      <c r="B9" s="164"/>
+      <c r="A9" s="216"/>
+      <c r="B9" s="219"/>
       <c r="C9" s="39" t="s">
         <v>17</v>
       </c>
@@ -5567,10 +5571,10 @@
       <c r="I9" s="36"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="151" t="s">
+      <c r="A10" s="209" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="157" t="s">
+      <c r="B10" s="226" t="s">
         <v>103</v>
       </c>
       <c r="C10" s="37" t="s">
@@ -5586,8 +5590,8 @@
       <c r="I10" s="32"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="152"/>
-      <c r="B11" s="146"/>
+      <c r="A11" s="210"/>
+      <c r="B11" s="227"/>
       <c r="C11" s="38" t="s">
         <v>105</v>
       </c>
@@ -5601,8 +5605,8 @@
       <c r="I11" s="34"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="152"/>
-      <c r="B12" s="146"/>
+      <c r="A12" s="210"/>
+      <c r="B12" s="227"/>
       <c r="C12" s="38" t="s">
         <v>92</v>
       </c>
@@ -5616,8 +5620,8 @@
       <c r="I12" s="34"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="152"/>
-      <c r="B13" s="147"/>
+      <c r="A13" s="210"/>
+      <c r="B13" s="225"/>
       <c r="C13" s="38" t="s">
         <v>109</v>
       </c>
@@ -5633,8 +5637,8 @@
       <c r="I13" s="34"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="152"/>
-      <c r="B14" s="145" t="s">
+      <c r="A14" s="210"/>
+      <c r="B14" s="228" t="s">
         <v>180</v>
       </c>
       <c r="C14" s="38" t="s">
@@ -5650,8 +5654,8 @@
       <c r="I14" s="34"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="152"/>
-      <c r="B15" s="146"/>
+      <c r="A15" s="210"/>
+      <c r="B15" s="227"/>
       <c r="C15" s="38" t="s">
         <v>184</v>
       </c>
@@ -5665,8 +5669,8 @@
       <c r="I15" s="34"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="152"/>
-      <c r="B16" s="145" t="s">
+      <c r="A16" s="210"/>
+      <c r="B16" s="228" t="s">
         <v>111</v>
       </c>
       <c r="C16" s="58" t="s">
@@ -5682,8 +5686,8 @@
       <c r="I16" s="34"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="152"/>
-      <c r="B17" s="146"/>
+      <c r="A17" s="210"/>
+      <c r="B17" s="227"/>
       <c r="C17" s="38" t="s">
         <v>105</v>
       </c>
@@ -5697,8 +5701,8 @@
       <c r="I17" s="34"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="152"/>
-      <c r="B18" s="146"/>
+      <c r="A18" s="210"/>
+      <c r="B18" s="227"/>
       <c r="C18" s="38" t="s">
         <v>113</v>
       </c>
@@ -5714,8 +5718,8 @@
       <c r="I18" s="34"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="152"/>
-      <c r="B19" s="147"/>
+      <c r="A19" s="210"/>
+      <c r="B19" s="225"/>
       <c r="C19" s="38" t="s">
         <v>109</v>
       </c>
@@ -5729,8 +5733,8 @@
       <c r="I19" s="34"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="152"/>
-      <c r="B20" s="145" t="s">
+      <c r="A20" s="210"/>
+      <c r="B20" s="228" t="s">
         <v>193</v>
       </c>
       <c r="C20" s="59" t="s">
@@ -5746,8 +5750,8 @@
       <c r="I20" s="34"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="152"/>
-      <c r="B21" s="147"/>
+      <c r="A21" s="210"/>
+      <c r="B21" s="225"/>
       <c r="C21" s="59" t="s">
         <v>194</v>
       </c>
@@ -5761,8 +5765,8 @@
       <c r="I21" s="34"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="152"/>
-      <c r="B22" s="145" t="s">
+      <c r="A22" s="210"/>
+      <c r="B22" s="228" t="s">
         <v>115</v>
       </c>
       <c r="C22" s="38" t="s">
@@ -5778,8 +5782,8 @@
       <c r="I22" s="34"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="152"/>
-      <c r="B23" s="146"/>
+      <c r="A23" s="210"/>
+      <c r="B23" s="227"/>
       <c r="C23" s="38" t="s">
         <v>118</v>
       </c>
@@ -5793,8 +5797,8 @@
       <c r="I23" s="34"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="152"/>
-      <c r="B24" s="146"/>
+      <c r="A24" s="210"/>
+      <c r="B24" s="227"/>
       <c r="C24" s="38" t="s">
         <v>120</v>
       </c>
@@ -5808,8 +5812,8 @@
       <c r="I24" s="34"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="152"/>
-      <c r="B25" s="147"/>
+      <c r="A25" s="210"/>
+      <c r="B25" s="225"/>
       <c r="C25" s="38" t="s">
         <v>122</v>
       </c>
@@ -5823,8 +5827,8 @@
       <c r="I25" s="34"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="152"/>
-      <c r="B26" s="145" t="s">
+      <c r="A26" s="210"/>
+      <c r="B26" s="228" t="s">
         <v>174</v>
       </c>
       <c r="C26" s="38" t="s">
@@ -5840,8 +5844,8 @@
       <c r="I26" s="34"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="152"/>
-      <c r="B27" s="146"/>
+      <c r="A27" s="210"/>
+      <c r="B27" s="227"/>
       <c r="C27" s="38" t="s">
         <v>178</v>
       </c>
@@ -5855,8 +5859,8 @@
       <c r="I27" s="34"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="152"/>
-      <c r="B28" s="146"/>
+      <c r="A28" s="210"/>
+      <c r="B28" s="227"/>
       <c r="C28" s="38" t="s">
         <v>182</v>
       </c>
@@ -5870,8 +5874,8 @@
       <c r="I28" s="34"/>
     </row>
     <row r="29" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="152"/>
-      <c r="B29" s="146"/>
+      <c r="A29" s="210"/>
+      <c r="B29" s="227"/>
       <c r="C29" s="58" t="s">
         <v>176</v>
       </c>
@@ -5885,10 +5889,10 @@
       <c r="I29" s="45"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="151" t="s">
+      <c r="A30" s="209" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="156" t="s">
+      <c r="B30" s="217" t="s">
         <v>127</v>
       </c>
       <c r="C30" s="62" t="s">
@@ -5904,8 +5908,8 @@
       <c r="I30" s="32"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="152"/>
-      <c r="B31" s="144"/>
+      <c r="A31" s="210"/>
+      <c r="B31" s="218"/>
       <c r="C31" s="63" t="s">
         <v>129</v>
       </c>
@@ -5919,8 +5923,8 @@
       <c r="I31" s="34"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="152"/>
-      <c r="B32" s="144"/>
+      <c r="A32" s="210"/>
+      <c r="B32" s="218"/>
       <c r="C32" s="63" t="s">
         <v>132</v>
       </c>
@@ -5934,8 +5938,8 @@
       <c r="I32" s="34"/>
     </row>
     <row r="33" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A33" s="152"/>
-      <c r="B33" s="144"/>
+      <c r="A33" s="210"/>
+      <c r="B33" s="218"/>
       <c r="C33" s="63" t="s">
         <v>125</v>
       </c>
@@ -5949,8 +5953,8 @@
       <c r="I33" s="34"/>
     </row>
     <row r="34" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A34" s="152"/>
-      <c r="B34" s="144" t="s">
+      <c r="A34" s="210"/>
+      <c r="B34" s="218" t="s">
         <v>133</v>
       </c>
       <c r="C34" s="63" t="s">
@@ -5966,8 +5970,8 @@
       <c r="I34" s="45"/>
     </row>
     <row r="35" spans="1:16384" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="152"/>
-      <c r="B35" s="144"/>
+      <c r="A35" s="210"/>
+      <c r="B35" s="218"/>
       <c r="C35" s="63" t="s">
         <v>134</v>
       </c>
@@ -22356,8 +22360,8 @@
       <c r="XFD35" s="46"/>
     </row>
     <row r="36" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A36" s="152"/>
-      <c r="B36" s="144"/>
+      <c r="A36" s="210"/>
+      <c r="B36" s="218"/>
       <c r="C36" s="64" t="s">
         <v>187</v>
       </c>
@@ -22369,8 +22373,8 @@
       <c r="I36" s="56"/>
     </row>
     <row r="37" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A37" s="152"/>
-      <c r="B37" s="144" t="s">
+      <c r="A37" s="210"/>
+      <c r="B37" s="218" t="s">
         <v>136</v>
       </c>
       <c r="C37" s="63" t="s">
@@ -22386,8 +22390,8 @@
       <c r="I37" s="34"/>
     </row>
     <row r="38" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A38" s="152"/>
-      <c r="B38" s="144"/>
+      <c r="A38" s="210"/>
+      <c r="B38" s="218"/>
       <c r="C38" s="63" t="s">
         <v>92</v>
       </c>
@@ -22401,7 +22405,7 @@
       <c r="I38" s="34"/>
     </row>
     <row r="39" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A39" s="152"/>
+      <c r="A39" s="210"/>
       <c r="B39" s="57" t="s">
         <v>139</v>
       </c>
@@ -22418,10 +22422,10 @@
       <c r="I39" s="34"/>
     </row>
     <row r="40" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A40" s="153" t="s">
+      <c r="A40" s="223" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="147" t="s">
+      <c r="B40" s="225" t="s">
         <v>71</v>
       </c>
       <c r="C40" s="41" t="s">
@@ -22437,8 +22441,8 @@
       <c r="I40" s="56"/>
     </row>
     <row r="41" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A41" s="154"/>
-      <c r="B41" s="144"/>
+      <c r="A41" s="215"/>
+      <c r="B41" s="218"/>
       <c r="C41" s="40" t="s">
         <v>74</v>
       </c>
@@ -22452,8 +22456,8 @@
       <c r="I41" s="34"/>
     </row>
     <row r="42" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A42" s="154"/>
-      <c r="B42" s="144" t="s">
+      <c r="A42" s="215"/>
+      <c r="B42" s="218" t="s">
         <v>152</v>
       </c>
       <c r="C42" s="40" t="s">
@@ -22469,8 +22473,8 @@
       <c r="I42" s="34"/>
     </row>
     <row r="43" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A43" s="154"/>
-      <c r="B43" s="144"/>
+      <c r="A43" s="215"/>
+      <c r="B43" s="218"/>
       <c r="C43" s="40" t="s">
         <v>144</v>
       </c>
@@ -22484,11 +22488,11 @@
       <c r="I43" s="34"/>
     </row>
     <row r="44" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A44" s="154"/>
-      <c r="B44" s="144" t="s">
+      <c r="A44" s="215"/>
+      <c r="B44" s="218" t="s">
         <v>163</v>
       </c>
-      <c r="C44" s="145" t="s">
+      <c r="C44" s="228" t="s">
         <v>162</v>
       </c>
       <c r="D44" s="33" t="s">
@@ -22501,9 +22505,9 @@
       <c r="I44" s="34"/>
     </row>
     <row r="45" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A45" s="154"/>
-      <c r="B45" s="144"/>
-      <c r="C45" s="147"/>
+      <c r="A45" s="215"/>
+      <c r="B45" s="218"/>
+      <c r="C45" s="225"/>
       <c r="D45" s="33" t="s">
         <v>164</v>
       </c>
@@ -22514,8 +22518,8 @@
       <c r="I45" s="34"/>
     </row>
     <row r="46" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A46" s="154"/>
-      <c r="B46" s="144"/>
+      <c r="A46" s="215"/>
+      <c r="B46" s="218"/>
       <c r="C46" s="40" t="s">
         <v>112</v>
       </c>
@@ -22529,8 +22533,8 @@
       <c r="I46" s="34"/>
     </row>
     <row r="47" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A47" s="154"/>
-      <c r="B47" s="144"/>
+      <c r="A47" s="215"/>
+      <c r="B47" s="218"/>
       <c r="C47" s="40" t="s">
         <v>106</v>
       </c>
@@ -22544,8 +22548,8 @@
       <c r="I47" s="34"/>
     </row>
     <row r="48" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A48" s="154"/>
-      <c r="B48" s="144"/>
+      <c r="A48" s="215"/>
+      <c r="B48" s="218"/>
       <c r="C48" s="40" t="s">
         <v>147</v>
       </c>
@@ -22559,8 +22563,8 @@
       <c r="I48" s="34"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="154"/>
-      <c r="B49" s="144" t="s">
+      <c r="A49" s="215"/>
+      <c r="B49" s="218" t="s">
         <v>153</v>
       </c>
       <c r="C49" s="40" t="s">
@@ -22576,8 +22580,8 @@
       <c r="I49" s="34"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="154"/>
-      <c r="B50" s="144"/>
+      <c r="A50" s="215"/>
+      <c r="B50" s="218"/>
       <c r="C50" s="40" t="s">
         <v>112</v>
       </c>
@@ -22591,8 +22595,8 @@
       <c r="I50" s="34"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="154"/>
-      <c r="B51" s="144"/>
+      <c r="A51" s="215"/>
+      <c r="B51" s="218"/>
       <c r="C51" s="40" t="s">
         <v>106</v>
       </c>
@@ -22606,8 +22610,8 @@
       <c r="I51" s="34"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="154"/>
-      <c r="B52" s="144"/>
+      <c r="A52" s="215"/>
+      <c r="B52" s="218"/>
       <c r="C52" s="40" t="s">
         <v>147</v>
       </c>
@@ -22621,8 +22625,8 @@
       <c r="I52" s="34"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="154"/>
-      <c r="B53" s="145" t="s">
+      <c r="A53" s="215"/>
+      <c r="B53" s="228" t="s">
         <v>154</v>
       </c>
       <c r="C53" s="40" t="s">
@@ -22638,8 +22642,8 @@
       <c r="I53" s="34"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="154"/>
-      <c r="B54" s="146"/>
+      <c r="A54" s="215"/>
+      <c r="B54" s="227"/>
       <c r="C54" s="49" t="s">
         <v>159</v>
       </c>
@@ -22653,8 +22657,8 @@
       <c r="I54" s="34"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="154"/>
-      <c r="B55" s="144" t="s">
+      <c r="A55" s="215"/>
+      <c r="B55" s="218" t="s">
         <v>76</v>
       </c>
       <c r="C55" s="40" t="s">
@@ -22670,8 +22674,8 @@
       <c r="I55" s="34"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="154"/>
-      <c r="B56" s="144"/>
+      <c r="A56" s="215"/>
+      <c r="B56" s="218"/>
       <c r="C56" s="40" t="s">
         <v>79</v>
       </c>
@@ -22685,8 +22689,8 @@
       <c r="I56" s="34"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="154"/>
-      <c r="B57" s="145" t="s">
+      <c r="A57" s="215"/>
+      <c r="B57" s="228" t="s">
         <v>81</v>
       </c>
       <c r="C57" s="40" t="s">
@@ -22702,8 +22706,8 @@
       <c r="I57" s="34"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="155"/>
-      <c r="B58" s="147"/>
+      <c r="A58" s="224"/>
+      <c r="B58" s="225"/>
       <c r="C58" s="50" t="s">
         <v>167</v>
       </c>
@@ -22717,8 +22721,8 @@
       <c r="I58" s="45"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="155"/>
-      <c r="B59" s="145" t="s">
+      <c r="A59" s="224"/>
+      <c r="B59" s="228" t="s">
         <v>172</v>
       </c>
       <c r="C59" s="50" t="s">
@@ -22734,8 +22738,8 @@
       <c r="I59" s="45"/>
     </row>
     <row r="60" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="155"/>
-      <c r="B60" s="158"/>
+      <c r="A60" s="224"/>
+      <c r="B60" s="229"/>
       <c r="C60" s="42" t="s">
         <v>171</v>
       </c>
@@ -22998,11 +23002,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A30:A39"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B20:B21"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A10:A29"/>
     <mergeCell ref="A40:A60"/>
@@ -23019,11 +23023,11 @@
     <mergeCell ref="C44:C45"/>
     <mergeCell ref="B59:B60"/>
     <mergeCell ref="B44:B48"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A30:A39"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23066,15 +23070,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="148"/>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="150"/>
+      <c r="A1" s="220"/>
+      <c r="B1" s="221"/>
+      <c r="C1" s="221"/>
+      <c r="D1" s="221"/>
+      <c r="E1" s="221"/>
+      <c r="F1" s="221"/>
+      <c r="G1" s="221"/>
+      <c r="H1" s="221"/>
+      <c r="I1" s="222"/>
     </row>
     <row r="2" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
@@ -23106,21 +23110,21 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="159"/>
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="161"/>
+      <c r="A3" s="211"/>
+      <c r="B3" s="212"/>
+      <c r="C3" s="212"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="212"/>
+      <c r="F3" s="212"/>
+      <c r="G3" s="212"/>
+      <c r="H3" s="212"/>
+      <c r="I3" s="213"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="151" t="s">
+      <c r="A4" s="209" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="157" t="s">
+      <c r="B4" s="226" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="88" t="s">
@@ -23131,15 +23135,15 @@
       </c>
       <c r="E4" s="31"/>
       <c r="F4" s="31"/>
-      <c r="G4" s="157" t="s">
+      <c r="G4" s="226" t="s">
         <v>284</v>
       </c>
       <c r="H4" s="31"/>
       <c r="I4" s="32"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="152"/>
-      <c r="B5" s="146"/>
+      <c r="A5" s="210"/>
+      <c r="B5" s="227"/>
       <c r="C5" s="89" t="s">
         <v>13</v>
       </c>
@@ -23148,13 +23152,13 @@
       </c>
       <c r="E5" s="33"/>
       <c r="F5" s="33"/>
-      <c r="G5" s="146"/>
+      <c r="G5" s="227"/>
       <c r="H5" s="33"/>
       <c r="I5" s="34"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="152"/>
-      <c r="B6" s="147"/>
+      <c r="A6" s="210"/>
+      <c r="B6" s="225"/>
       <c r="C6" s="89" t="s">
         <v>15</v>
       </c>
@@ -23163,13 +23167,13 @@
       </c>
       <c r="E6" s="33"/>
       <c r="F6" s="33"/>
-      <c r="G6" s="146"/>
+      <c r="G6" s="227"/>
       <c r="H6" s="33"/>
       <c r="I6" s="34"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="152"/>
-      <c r="B7" s="145" t="s">
+      <c r="A7" s="210"/>
+      <c r="B7" s="228" t="s">
         <v>253</v>
       </c>
       <c r="C7" s="89" t="s">
@@ -23180,13 +23184,13 @@
       </c>
       <c r="E7" s="65"/>
       <c r="F7" s="33"/>
-      <c r="G7" s="146"/>
+      <c r="G7" s="227"/>
       <c r="H7" s="33"/>
       <c r="I7" s="34"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="152"/>
-      <c r="B8" s="146"/>
+      <c r="A8" s="210"/>
+      <c r="B8" s="227"/>
       <c r="C8" s="89" t="s">
         <v>254</v>
       </c>
@@ -23195,13 +23199,13 @@
       </c>
       <c r="E8" s="67"/>
       <c r="F8" s="33"/>
-      <c r="G8" s="146"/>
+      <c r="G8" s="227"/>
       <c r="H8" s="33"/>
       <c r="I8" s="34"/>
     </row>
     <row r="9" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="165"/>
-      <c r="B9" s="158"/>
+      <c r="A9" s="230"/>
+      <c r="B9" s="229"/>
       <c r="C9" s="90" t="s">
         <v>253</v>
       </c>
@@ -23210,15 +23214,15 @@
       </c>
       <c r="E9" s="66"/>
       <c r="F9" s="35"/>
-      <c r="G9" s="158"/>
+      <c r="G9" s="229"/>
       <c r="H9" s="35"/>
       <c r="I9" s="36"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="151" t="s">
+      <c r="A10" s="209" t="s">
         <v>198</v>
       </c>
-      <c r="B10" s="157" t="s">
+      <c r="B10" s="226" t="s">
         <v>199</v>
       </c>
       <c r="C10" s="96" t="s">
@@ -23231,15 +23235,15 @@
         <v>202</v>
       </c>
       <c r="F10" s="31"/>
-      <c r="G10" s="157" t="s">
+      <c r="G10" s="226" t="s">
         <v>288</v>
       </c>
       <c r="H10" s="31"/>
       <c r="I10" s="32"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="152"/>
-      <c r="B11" s="146"/>
+      <c r="A11" s="210"/>
+      <c r="B11" s="227"/>
       <c r="C11" s="97" t="s">
         <v>203</v>
       </c>
@@ -23250,13 +23254,13 @@
         <v>205</v>
       </c>
       <c r="F11" s="33"/>
-      <c r="G11" s="146"/>
+      <c r="G11" s="227"/>
       <c r="H11" s="33"/>
       <c r="I11" s="34"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="152"/>
-      <c r="B12" s="146"/>
+      <c r="A12" s="210"/>
+      <c r="B12" s="227"/>
       <c r="C12" s="97" t="s">
         <v>206</v>
       </c>
@@ -23267,13 +23271,13 @@
         <v>208</v>
       </c>
       <c r="F12" s="33"/>
-      <c r="G12" s="146"/>
+      <c r="G12" s="227"/>
       <c r="H12" s="33"/>
       <c r="I12" s="34"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="152"/>
-      <c r="B13" s="147"/>
+      <c r="A13" s="210"/>
+      <c r="B13" s="225"/>
       <c r="C13" s="97" t="s">
         <v>209</v>
       </c>
@@ -23282,13 +23286,13 @@
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="33"/>
-      <c r="G13" s="147"/>
+      <c r="G13" s="225"/>
       <c r="H13" s="33"/>
       <c r="I13" s="34"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="152"/>
-      <c r="B14" s="145" t="s">
+      <c r="A14" s="210"/>
+      <c r="B14" s="228" t="s">
         <v>216</v>
       </c>
       <c r="C14" s="98" t="s">
@@ -23301,15 +23305,15 @@
         <v>219</v>
       </c>
       <c r="F14" s="33"/>
-      <c r="G14" s="145" t="s">
+      <c r="G14" s="228" t="s">
         <v>288</v>
       </c>
       <c r="H14" s="33"/>
       <c r="I14" s="34"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="152"/>
-      <c r="B15" s="146"/>
+      <c r="A15" s="210"/>
+      <c r="B15" s="227"/>
       <c r="C15" s="97" t="s">
         <v>220</v>
       </c>
@@ -23320,13 +23324,13 @@
         <v>205</v>
       </c>
       <c r="F15" s="33"/>
-      <c r="G15" s="146"/>
+      <c r="G15" s="227"/>
       <c r="H15" s="33"/>
       <c r="I15" s="34"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="152"/>
-      <c r="B16" s="147"/>
+      <c r="A16" s="210"/>
+      <c r="B16" s="225"/>
       <c r="C16" s="97" t="s">
         <v>222</v>
       </c>
@@ -23337,13 +23341,13 @@
         <v>224</v>
       </c>
       <c r="F16" s="33"/>
-      <c r="G16" s="147"/>
+      <c r="G16" s="225"/>
       <c r="H16" s="33"/>
       <c r="I16" s="34"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="152"/>
-      <c r="B17" s="145" t="s">
+      <c r="A17" s="210"/>
+      <c r="B17" s="228" t="s">
         <v>211</v>
       </c>
       <c r="C17" s="94" t="s">
@@ -23356,15 +23360,15 @@
         <v>282</v>
       </c>
       <c r="F17" s="33"/>
-      <c r="G17" s="145" t="s">
+      <c r="G17" s="228" t="s">
         <v>292</v>
       </c>
       <c r="H17" s="33"/>
       <c r="I17" s="34"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="152"/>
-      <c r="B18" s="147"/>
+      <c r="A18" s="210"/>
+      <c r="B18" s="225"/>
       <c r="C18" s="94" t="s">
         <v>214</v>
       </c>
@@ -23375,13 +23379,13 @@
         <v>281</v>
       </c>
       <c r="F18" s="33"/>
-      <c r="G18" s="147"/>
+      <c r="G18" s="225"/>
       <c r="H18" s="33"/>
       <c r="I18" s="34"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="152"/>
-      <c r="B19" s="145" t="s">
+      <c r="A19" s="210"/>
+      <c r="B19" s="228" t="s">
         <v>115</v>
       </c>
       <c r="C19" s="99" t="s">
@@ -23392,15 +23396,15 @@
       </c>
       <c r="E19" s="33"/>
       <c r="F19" s="33"/>
-      <c r="G19" s="146" t="s">
+      <c r="G19" s="227" t="s">
         <v>291</v>
       </c>
       <c r="H19" s="33"/>
       <c r="I19" s="34"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="152"/>
-      <c r="B20" s="147"/>
+      <c r="A20" s="210"/>
+      <c r="B20" s="225"/>
       <c r="C20" s="99" t="s">
         <v>118</v>
       </c>
@@ -23409,12 +23413,12 @@
       </c>
       <c r="E20" s="33"/>
       <c r="F20" s="33"/>
-      <c r="G20" s="146"/>
+      <c r="G20" s="227"/>
       <c r="H20" s="33"/>
       <c r="I20" s="34"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="152"/>
+      <c r="A21" s="210"/>
       <c r="B21" s="129" t="s">
         <v>295</v>
       </c>
@@ -23426,13 +23430,13 @@
       </c>
       <c r="E21" s="33"/>
       <c r="F21" s="33"/>
-      <c r="G21" s="147"/>
+      <c r="G21" s="225"/>
       <c r="H21" s="33"/>
       <c r="I21" s="34"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="152"/>
-      <c r="B22" s="145" t="s">
+      <c r="A22" s="210"/>
+      <c r="B22" s="228" t="s">
         <v>225</v>
       </c>
       <c r="C22" s="94" t="s">
@@ -23443,15 +23447,15 @@
       </c>
       <c r="E22" s="33"/>
       <c r="F22" s="33"/>
-      <c r="G22" s="145" t="s">
+      <c r="G22" s="228" t="s">
         <v>285</v>
       </c>
       <c r="H22" s="33"/>
       <c r="I22" s="34"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="152"/>
-      <c r="B23" s="146"/>
+      <c r="A23" s="210"/>
+      <c r="B23" s="227"/>
       <c r="C23" s="94" t="s">
         <v>228</v>
       </c>
@@ -23460,13 +23464,13 @@
       </c>
       <c r="E23" s="33"/>
       <c r="F23" s="33"/>
-      <c r="G23" s="146"/>
+      <c r="G23" s="227"/>
       <c r="H23" s="33"/>
       <c r="I23" s="34"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="152"/>
-      <c r="B24" s="146"/>
+      <c r="A24" s="210"/>
+      <c r="B24" s="227"/>
       <c r="C24" s="94" t="s">
         <v>274</v>
       </c>
@@ -23475,13 +23479,13 @@
       </c>
       <c r="E24" s="33"/>
       <c r="F24" s="33"/>
-      <c r="G24" s="147"/>
+      <c r="G24" s="225"/>
       <c r="H24" s="33"/>
       <c r="I24" s="34"/>
     </row>
     <row r="25" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="165"/>
-      <c r="B25" s="158"/>
+      <c r="A25" s="230"/>
+      <c r="B25" s="229"/>
       <c r="C25" s="95" t="s">
         <v>230</v>
       </c>
@@ -23497,10 +23501,10 @@
       <c r="I25" s="45"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="151" t="s">
+      <c r="A26" s="209" t="s">
         <v>232</v>
       </c>
-      <c r="B26" s="157" t="s">
+      <c r="B26" s="226" t="s">
         <v>233</v>
       </c>
       <c r="C26" s="91" t="s">
@@ -23511,15 +23515,15 @@
       </c>
       <c r="E26" s="31"/>
       <c r="F26" s="31"/>
-      <c r="G26" s="157" t="s">
+      <c r="G26" s="226" t="s">
         <v>286</v>
       </c>
       <c r="H26" s="31"/>
       <c r="I26" s="32"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="152"/>
-      <c r="B27" s="146"/>
+      <c r="A27" s="210"/>
+      <c r="B27" s="227"/>
       <c r="C27" s="92" t="s">
         <v>129</v>
       </c>
@@ -23528,13 +23532,13 @@
       </c>
       <c r="E27" s="33"/>
       <c r="F27" s="33"/>
-      <c r="G27" s="147"/>
+      <c r="G27" s="225"/>
       <c r="H27" s="33"/>
       <c r="I27" s="34"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="152"/>
-      <c r="B28" s="146"/>
+      <c r="A28" s="210"/>
+      <c r="B28" s="227"/>
       <c r="C28" s="100" t="s">
         <v>236</v>
       </c>
@@ -23543,15 +23547,15 @@
       </c>
       <c r="E28" s="33"/>
       <c r="F28" s="33"/>
-      <c r="G28" s="145" t="s">
+      <c r="G28" s="228" t="s">
         <v>289</v>
       </c>
       <c r="H28" s="33"/>
       <c r="I28" s="34"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="152"/>
-      <c r="B29" s="147"/>
+      <c r="A29" s="210"/>
+      <c r="B29" s="225"/>
       <c r="C29" s="100" t="s">
         <v>125</v>
       </c>
@@ -23560,12 +23564,12 @@
       </c>
       <c r="E29" s="33"/>
       <c r="F29" s="33"/>
-      <c r="G29" s="146"/>
+      <c r="G29" s="227"/>
       <c r="H29" s="33"/>
       <c r="I29" s="34"/>
     </row>
     <row r="30" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="165"/>
+      <c r="A30" s="230"/>
       <c r="B30" s="128" t="s">
         <v>239</v>
       </c>
@@ -23579,15 +23583,15 @@
         <v>256</v>
       </c>
       <c r="F30" s="35"/>
-      <c r="G30" s="158"/>
+      <c r="G30" s="229"/>
       <c r="H30" s="35"/>
       <c r="I30" s="36"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="151" t="s">
+      <c r="A31" s="209" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="157" t="s">
+      <c r="B31" s="226" t="s">
         <v>71</v>
       </c>
       <c r="C31" s="93" t="s">
@@ -23598,15 +23602,15 @@
       </c>
       <c r="E31" s="55"/>
       <c r="F31" s="55"/>
-      <c r="G31" s="157" t="s">
+      <c r="G31" s="226" t="s">
         <v>287</v>
       </c>
       <c r="H31" s="55"/>
       <c r="I31" s="56"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="152"/>
-      <c r="B32" s="147"/>
+      <c r="A32" s="210"/>
+      <c r="B32" s="225"/>
       <c r="C32" s="89" t="s">
         <v>294</v>
       </c>
@@ -23615,13 +23619,13 @@
       </c>
       <c r="E32" s="33"/>
       <c r="F32" s="33"/>
-      <c r="G32" s="147"/>
+      <c r="G32" s="225"/>
       <c r="H32" s="33"/>
       <c r="I32" s="34"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="152"/>
-      <c r="B33" s="145" t="s">
+      <c r="A33" s="210"/>
+      <c r="B33" s="228" t="s">
         <v>257</v>
       </c>
       <c r="C33" s="97" t="s">
@@ -23632,15 +23636,15 @@
       </c>
       <c r="E33" s="33"/>
       <c r="F33" s="33"/>
-      <c r="G33" s="145" t="s">
+      <c r="G33" s="228" t="s">
         <v>288</v>
       </c>
       <c r="H33" s="33"/>
       <c r="I33" s="34"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="152"/>
-      <c r="B34" s="146"/>
+      <c r="A34" s="210"/>
+      <c r="B34" s="227"/>
       <c r="C34" s="97" t="s">
         <v>260</v>
       </c>
@@ -23649,13 +23653,13 @@
       </c>
       <c r="E34" s="33"/>
       <c r="F34" s="33"/>
-      <c r="G34" s="146"/>
+      <c r="G34" s="227"/>
       <c r="H34" s="33"/>
       <c r="I34" s="34"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="152"/>
-      <c r="B35" s="147"/>
+      <c r="A35" s="210"/>
+      <c r="B35" s="225"/>
       <c r="C35" s="97" t="s">
         <v>259</v>
       </c>
@@ -23666,13 +23670,13 @@
         <v>264</v>
       </c>
       <c r="F35" s="33"/>
-      <c r="G35" s="147"/>
+      <c r="G35" s="225"/>
       <c r="H35" s="33"/>
       <c r="I35" s="34"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="152"/>
-      <c r="B36" s="145" t="s">
+      <c r="A36" s="210"/>
+      <c r="B36" s="228" t="s">
         <v>242</v>
       </c>
       <c r="C36" s="99" t="s">
@@ -23685,15 +23689,15 @@
         <v>245</v>
       </c>
       <c r="F36" s="33"/>
-      <c r="G36" s="145" t="s">
+      <c r="G36" s="228" t="s">
         <v>291</v>
       </c>
       <c r="H36" s="33"/>
       <c r="I36" s="34"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="152"/>
-      <c r="B37" s="147"/>
+      <c r="A37" s="210"/>
+      <c r="B37" s="225"/>
       <c r="C37" s="99" t="s">
         <v>246</v>
       </c>
@@ -23704,13 +23708,13 @@
         <v>248</v>
       </c>
       <c r="F37" s="33"/>
-      <c r="G37" s="146"/>
+      <c r="G37" s="227"/>
       <c r="H37" s="33"/>
       <c r="I37" s="34"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="152"/>
-      <c r="B38" s="145" t="s">
+      <c r="A38" s="210"/>
+      <c r="B38" s="228" t="s">
         <v>270</v>
       </c>
       <c r="C38" s="95" t="s">
@@ -23723,13 +23727,13 @@
         <v>250</v>
       </c>
       <c r="F38" s="44"/>
-      <c r="G38" s="146"/>
+      <c r="G38" s="227"/>
       <c r="H38" s="44"/>
       <c r="I38" s="45"/>
     </row>
     <row r="39" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="165"/>
-      <c r="B39" s="158"/>
+      <c r="A39" s="230"/>
+      <c r="B39" s="229"/>
       <c r="C39" s="95" t="s">
         <v>272</v>
       </c>
@@ -23740,7 +23744,7 @@
         <v>252</v>
       </c>
       <c r="F39" s="44"/>
-      <c r="G39" s="158"/>
+      <c r="G39" s="229"/>
       <c r="H39" s="44"/>
       <c r="I39" s="45"/>
     </row>
@@ -23996,11 +24000,18 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="G4:G9"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="G26:G27"/>
     <mergeCell ref="A10:A25"/>
     <mergeCell ref="A26:A30"/>
     <mergeCell ref="A31:A39"/>
@@ -24013,18 +24024,11 @@
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="B33:B35"/>
     <mergeCell ref="B36:B37"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="G4:G9"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="G36:G39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24074,52 +24078,52 @@
       <c r="O1" s="84"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="167" t="s">
+      <c r="A2" s="236" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="169" t="s">
+      <c r="B2" s="231" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="169" t="s">
+      <c r="C2" s="231" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="169" t="s">
+      <c r="D2" s="231" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="169" t="s">
+      <c r="E2" s="231" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="169" t="s">
+      <c r="F2" s="231" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="169" t="s">
+      <c r="G2" s="231" t="s">
         <v>277</v>
       </c>
-      <c r="H2" s="171" t="s">
+      <c r="H2" s="233" t="s">
         <v>276</v>
       </c>
-      <c r="I2" s="172"/>
-      <c r="J2" s="173"/>
-      <c r="K2" s="169" t="s">
+      <c r="I2" s="234"/>
+      <c r="J2" s="235"/>
+      <c r="K2" s="231" t="s">
         <v>275</v>
       </c>
-      <c r="L2" s="169" t="s">
+      <c r="L2" s="231" t="s">
         <v>278</v>
       </c>
-      <c r="M2" s="171" t="s">
+      <c r="M2" s="233" t="s">
         <v>279</v>
       </c>
-      <c r="N2" s="172"/>
-      <c r="O2" s="173"/>
+      <c r="N2" s="234"/>
+      <c r="O2" s="235"/>
     </row>
     <row r="3" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="168"/>
-      <c r="B3" s="170"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
+      <c r="A3" s="237"/>
+      <c r="B3" s="232"/>
+      <c r="C3" s="232"/>
+      <c r="D3" s="232"/>
+      <c r="E3" s="232"/>
+      <c r="F3" s="232"/>
+      <c r="G3" s="232"/>
       <c r="H3" s="122" t="s">
         <v>297</v>
       </c>
@@ -24129,8 +24133,8 @@
       <c r="J3" s="122" t="s">
         <v>299</v>
       </c>
-      <c r="K3" s="170"/>
-      <c r="L3" s="170"/>
+      <c r="K3" s="232"/>
+      <c r="L3" s="232"/>
       <c r="M3" s="122" t="s">
         <v>300</v>
       </c>
@@ -24159,10 +24163,10 @@
       <c r="O4" s="86"/>
     </row>
     <row r="5" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="166" t="s">
+      <c r="A5" s="238" t="s">
         <v>356</v>
       </c>
-      <c r="B5" s="157" t="s">
+      <c r="B5" s="226" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="88" t="s">
@@ -24171,7 +24175,7 @@
       <c r="D5" s="85">
         <v>1</v>
       </c>
-      <c r="E5" s="157" t="s">
+      <c r="E5" s="226" t="s">
         <v>284</v>
       </c>
       <c r="F5" s="85"/>
@@ -24190,15 +24194,15 @@
       <c r="O5" s="110"/>
     </row>
     <row r="6" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="152"/>
-      <c r="B6" s="146"/>
+      <c r="A6" s="210"/>
+      <c r="B6" s="227"/>
       <c r="C6" s="89" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="81">
         <v>1</v>
       </c>
-      <c r="E6" s="146"/>
+      <c r="E6" s="227"/>
       <c r="F6" s="81"/>
       <c r="G6" s="113" t="s">
         <v>316</v>
@@ -24215,15 +24219,15 @@
       <c r="O6" s="107"/>
     </row>
     <row r="7" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="152"/>
-      <c r="B7" s="147"/>
+      <c r="A7" s="210"/>
+      <c r="B7" s="225"/>
       <c r="C7" s="89" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="81">
         <v>1</v>
       </c>
-      <c r="E7" s="146"/>
+      <c r="E7" s="227"/>
       <c r="F7" s="81"/>
       <c r="G7" s="113" t="s">
         <v>316</v>
@@ -24240,8 +24244,8 @@
       <c r="O7" s="107"/>
     </row>
     <row r="8" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="152"/>
-      <c r="B8" s="145" t="s">
+      <c r="A8" s="210"/>
+      <c r="B8" s="228" t="s">
         <v>253</v>
       </c>
       <c r="C8" s="89" t="s">
@@ -24250,7 +24254,7 @@
       <c r="D8" s="81">
         <v>1</v>
       </c>
-      <c r="E8" s="146"/>
+      <c r="E8" s="227"/>
       <c r="F8" s="81"/>
       <c r="G8" s="107" t="s">
         <v>318</v>
@@ -24267,15 +24271,15 @@
       <c r="O8" s="107"/>
     </row>
     <row r="9" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="152"/>
-      <c r="B9" s="146"/>
+      <c r="A9" s="210"/>
+      <c r="B9" s="227"/>
       <c r="C9" s="89" t="s">
         <v>254</v>
       </c>
       <c r="D9" s="81">
         <v>1</v>
       </c>
-      <c r="E9" s="146"/>
+      <c r="E9" s="227"/>
       <c r="F9" s="81"/>
       <c r="G9" s="107" t="s">
         <v>319</v>
@@ -24292,15 +24296,15 @@
       <c r="O9" s="107"/>
     </row>
     <row r="10" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="165"/>
-      <c r="B10" s="158"/>
+      <c r="A10" s="230"/>
+      <c r="B10" s="229"/>
       <c r="C10" s="90" t="s">
         <v>253</v>
       </c>
       <c r="D10" s="87">
         <v>1</v>
       </c>
-      <c r="E10" s="158"/>
+      <c r="E10" s="229"/>
       <c r="F10" s="87"/>
       <c r="G10" s="107" t="s">
         <v>319</v>
@@ -24317,10 +24321,10 @@
       <c r="O10" s="111"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="166" t="s">
+      <c r="A11" s="238" t="s">
         <v>357</v>
       </c>
-      <c r="B11" s="157" t="s">
+      <c r="B11" s="226" t="s">
         <v>103</v>
       </c>
       <c r="C11" s="96" t="s">
@@ -24329,7 +24333,7 @@
       <c r="D11" s="85">
         <v>2</v>
       </c>
-      <c r="E11" s="157" t="s">
+      <c r="E11" s="226" t="s">
         <v>288</v>
       </c>
       <c r="F11" s="85"/>
@@ -24348,15 +24352,15 @@
       <c r="O11" s="110"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="152"/>
-      <c r="B12" s="146"/>
+      <c r="A12" s="210"/>
+      <c r="B12" s="227"/>
       <c r="C12" s="97" t="s">
         <v>203</v>
       </c>
       <c r="D12" s="81">
         <v>1</v>
       </c>
-      <c r="E12" s="146"/>
+      <c r="E12" s="227"/>
       <c r="F12" s="81"/>
       <c r="G12" s="107" t="s">
         <v>348</v>
@@ -24373,15 +24377,15 @@
       <c r="O12" s="107"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="152"/>
-      <c r="B13" s="146"/>
+      <c r="A13" s="210"/>
+      <c r="B13" s="227"/>
       <c r="C13" s="97" t="s">
         <v>206</v>
       </c>
       <c r="D13" s="81">
         <v>1</v>
       </c>
-      <c r="E13" s="146"/>
+      <c r="E13" s="227"/>
       <c r="F13" s="81"/>
       <c r="G13" s="107" t="s">
         <v>348</v>
@@ -24398,15 +24402,15 @@
       <c r="O13" s="107"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="152"/>
-      <c r="B14" s="147"/>
+      <c r="A14" s="210"/>
+      <c r="B14" s="225"/>
       <c r="C14" s="97" t="s">
         <v>209</v>
       </c>
       <c r="D14" s="81">
         <v>2</v>
       </c>
-      <c r="E14" s="147"/>
+      <c r="E14" s="225"/>
       <c r="F14" s="81"/>
       <c r="G14" s="107" t="s">
         <v>350</v>
@@ -24423,8 +24427,8 @@
       <c r="O14" s="107"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="152"/>
-      <c r="B15" s="145" t="s">
+      <c r="A15" s="210"/>
+      <c r="B15" s="228" t="s">
         <v>111</v>
       </c>
       <c r="C15" s="98" t="s">
@@ -24433,7 +24437,7 @@
       <c r="D15" s="81">
         <v>2</v>
       </c>
-      <c r="E15" s="145" t="s">
+      <c r="E15" s="228" t="s">
         <v>288</v>
       </c>
       <c r="F15" s="81"/>
@@ -24452,15 +24456,15 @@
       <c r="O15" s="107"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="152"/>
-      <c r="B16" s="146"/>
+      <c r="A16" s="210"/>
+      <c r="B16" s="227"/>
       <c r="C16" s="97" t="s">
         <v>220</v>
       </c>
       <c r="D16" s="81">
         <v>1</v>
       </c>
-      <c r="E16" s="146"/>
+      <c r="E16" s="227"/>
       <c r="F16" s="81"/>
       <c r="G16" s="107" t="s">
         <v>348</v>
@@ -24477,15 +24481,15 @@
       <c r="O16" s="107"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="152"/>
-      <c r="B17" s="146"/>
+      <c r="A17" s="210"/>
+      <c r="B17" s="227"/>
       <c r="C17" s="97" t="s">
         <v>222</v>
       </c>
       <c r="D17" s="81">
         <v>1</v>
       </c>
-      <c r="E17" s="147"/>
+      <c r="E17" s="225"/>
       <c r="F17" s="81"/>
       <c r="G17" s="107" t="s">
         <v>348</v>
@@ -24502,8 +24506,8 @@
       <c r="O17" s="107"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="152"/>
-      <c r="B18" s="145" t="s">
+      <c r="A18" s="210"/>
+      <c r="B18" s="228" t="s">
         <v>180</v>
       </c>
       <c r="C18" s="94" t="s">
@@ -24512,7 +24516,7 @@
       <c r="D18" s="81">
         <v>1</v>
       </c>
-      <c r="E18" s="145" t="s">
+      <c r="E18" s="228" t="s">
         <v>292</v>
       </c>
       <c r="F18" s="81"/>
@@ -24531,15 +24535,15 @@
       <c r="O18" s="107"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="152"/>
-      <c r="B19" s="147"/>
+      <c r="A19" s="210"/>
+      <c r="B19" s="225"/>
       <c r="C19" s="94" t="s">
         <v>184</v>
       </c>
       <c r="D19" s="81">
         <v>2</v>
       </c>
-      <c r="E19" s="147"/>
+      <c r="E19" s="225"/>
       <c r="F19" s="81"/>
       <c r="G19" s="107" t="s">
         <v>345</v>
@@ -24556,8 +24560,8 @@
       <c r="O19" s="107"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="152"/>
-      <c r="B20" s="145" t="s">
+      <c r="A20" s="210"/>
+      <c r="B20" s="228" t="s">
         <v>115</v>
       </c>
       <c r="C20" s="99" t="s">
@@ -24566,7 +24570,7 @@
       <c r="D20" s="81">
         <v>1</v>
       </c>
-      <c r="E20" s="146" t="s">
+      <c r="E20" s="227" t="s">
         <v>307</v>
       </c>
       <c r="F20" s="81"/>
@@ -24585,15 +24589,15 @@
       <c r="O20" s="107"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="152"/>
-      <c r="B21" s="147"/>
+      <c r="A21" s="210"/>
+      <c r="B21" s="225"/>
       <c r="C21" s="99" t="s">
         <v>118</v>
       </c>
       <c r="D21" s="81">
         <v>2</v>
       </c>
-      <c r="E21" s="146"/>
+      <c r="E21" s="227"/>
       <c r="F21" s="81"/>
       <c r="G21" s="107" t="s">
         <v>330</v>
@@ -24610,7 +24614,7 @@
       <c r="O21" s="107"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="152"/>
+      <c r="A22" s="210"/>
       <c r="B22" s="126" t="s">
         <v>302</v>
       </c>
@@ -24620,7 +24624,7 @@
       <c r="D22" s="81">
         <v>1</v>
       </c>
-      <c r="E22" s="147"/>
+      <c r="E22" s="225"/>
       <c r="F22" s="81"/>
       <c r="G22" s="107" t="s">
         <v>333</v>
@@ -24637,8 +24641,8 @@
       <c r="O22" s="107"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="152"/>
-      <c r="B23" s="145" t="s">
+      <c r="A23" s="210"/>
+      <c r="B23" s="228" t="s">
         <v>43</v>
       </c>
       <c r="C23" s="94" t="s">
@@ -24647,7 +24651,7 @@
       <c r="D23" s="81">
         <v>3</v>
       </c>
-      <c r="E23" s="145" t="s">
+      <c r="E23" s="228" t="s">
         <v>285</v>
       </c>
       <c r="F23" s="81"/>
@@ -24666,15 +24670,15 @@
       <c r="O23" s="107"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="152"/>
-      <c r="B24" s="146"/>
+      <c r="A24" s="210"/>
+      <c r="B24" s="227"/>
       <c r="C24" s="94" t="s">
         <v>178</v>
       </c>
       <c r="D24" s="81">
         <v>3</v>
       </c>
-      <c r="E24" s="146"/>
+      <c r="E24" s="227"/>
       <c r="F24" s="81"/>
       <c r="G24" s="107" t="s">
         <v>321</v>
@@ -24691,15 +24695,15 @@
       <c r="O24" s="107"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="152"/>
-      <c r="B25" s="146"/>
+      <c r="A25" s="210"/>
+      <c r="B25" s="227"/>
       <c r="C25" s="94" t="s">
         <v>280</v>
       </c>
       <c r="D25" s="81">
         <v>3</v>
       </c>
-      <c r="E25" s="147"/>
+      <c r="E25" s="225"/>
       <c r="F25" s="81"/>
       <c r="G25" s="107" t="s">
         <v>321</v>
@@ -24716,8 +24720,8 @@
       <c r="O25" s="107"/>
     </row>
     <row r="26" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="165"/>
-      <c r="B26" s="158"/>
+      <c r="A26" s="230"/>
+      <c r="B26" s="229"/>
       <c r="C26" s="95" t="s">
         <v>273</v>
       </c>
@@ -24743,10 +24747,10 @@
       <c r="O26" s="112"/>
     </row>
     <row r="27" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="166" t="s">
+      <c r="A27" s="238" t="s">
         <v>358</v>
       </c>
-      <c r="B27" s="157" t="s">
+      <c r="B27" s="226" t="s">
         <v>127</v>
       </c>
       <c r="C27" s="91" t="s">
@@ -24755,7 +24759,7 @@
       <c r="D27" s="85">
         <v>1</v>
       </c>
-      <c r="E27" s="157" t="s">
+      <c r="E27" s="226" t="s">
         <v>286</v>
       </c>
       <c r="F27" s="85"/>
@@ -24774,15 +24778,15 @@
       <c r="O27" s="110"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="152"/>
-      <c r="B28" s="146"/>
+      <c r="A28" s="210"/>
+      <c r="B28" s="227"/>
       <c r="C28" s="92" t="s">
         <v>129</v>
       </c>
       <c r="D28" s="81">
         <v>1</v>
       </c>
-      <c r="E28" s="147"/>
+      <c r="E28" s="225"/>
       <c r="F28" s="81"/>
       <c r="G28" s="110" t="s">
         <v>324</v>
@@ -24799,15 +24803,15 @@
       <c r="O28" s="107"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="152"/>
-      <c r="B29" s="146"/>
+      <c r="A29" s="210"/>
+      <c r="B29" s="227"/>
       <c r="C29" s="100" t="s">
         <v>132</v>
       </c>
       <c r="D29" s="81">
         <v>3</v>
       </c>
-      <c r="E29" s="145" t="s">
+      <c r="E29" s="228" t="s">
         <v>289</v>
       </c>
       <c r="F29" s="81"/>
@@ -24826,15 +24830,15 @@
       <c r="O29" s="107"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="152"/>
-      <c r="B30" s="147"/>
+      <c r="A30" s="210"/>
+      <c r="B30" s="225"/>
       <c r="C30" s="100" t="s">
         <v>125</v>
       </c>
       <c r="D30" s="81">
         <v>3</v>
       </c>
-      <c r="E30" s="146"/>
+      <c r="E30" s="227"/>
       <c r="F30" s="81"/>
       <c r="G30" s="107" t="s">
         <v>337</v>
@@ -24851,7 +24855,7 @@
       <c r="O30" s="107"/>
     </row>
     <row r="31" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="165"/>
+      <c r="A31" s="230"/>
       <c r="B31" s="87" t="s">
         <v>139</v>
       </c>
@@ -24861,7 +24865,7 @@
       <c r="D31" s="87">
         <v>2</v>
       </c>
-      <c r="E31" s="158"/>
+      <c r="E31" s="229"/>
       <c r="F31" s="87"/>
       <c r="G31" s="111" t="s">
         <v>338</v>
@@ -24878,10 +24882,10 @@
       <c r="O31" s="111"/>
     </row>
     <row r="32" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="166" t="s">
+      <c r="A32" s="238" t="s">
         <v>359</v>
       </c>
-      <c r="B32" s="157" t="s">
+      <c r="B32" s="226" t="s">
         <v>71</v>
       </c>
       <c r="C32" s="93" t="s">
@@ -24890,7 +24894,7 @@
       <c r="D32" s="83">
         <v>3</v>
       </c>
-      <c r="E32" s="157" t="s">
+      <c r="E32" s="226" t="s">
         <v>287</v>
       </c>
       <c r="F32" s="83"/>
@@ -24909,15 +24913,15 @@
       <c r="O32" s="113"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="152"/>
-      <c r="B33" s="147"/>
+      <c r="A33" s="210"/>
+      <c r="B33" s="225"/>
       <c r="C33" s="89" t="s">
         <v>293</v>
       </c>
       <c r="D33" s="81">
         <v>3</v>
       </c>
-      <c r="E33" s="147"/>
+      <c r="E33" s="225"/>
       <c r="F33" s="81"/>
       <c r="G33" s="123" t="s">
         <v>326</v>
@@ -24934,8 +24938,8 @@
       <c r="O33" s="107"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="152"/>
-      <c r="B34" s="145" t="s">
+      <c r="A34" s="210"/>
+      <c r="B34" s="228" t="s">
         <v>257</v>
       </c>
       <c r="C34" s="97" t="s">
@@ -24944,7 +24948,7 @@
       <c r="D34" s="81">
         <v>2</v>
       </c>
-      <c r="E34" s="145" t="s">
+      <c r="E34" s="228" t="s">
         <v>288</v>
       </c>
       <c r="F34" s="81"/>
@@ -24963,15 +24967,15 @@
       <c r="O34" s="107"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="152"/>
-      <c r="B35" s="146"/>
+      <c r="A35" s="210"/>
+      <c r="B35" s="227"/>
       <c r="C35" s="97" t="s">
         <v>260</v>
       </c>
       <c r="D35" s="81">
         <v>2</v>
       </c>
-      <c r="E35" s="146"/>
+      <c r="E35" s="227"/>
       <c r="F35" s="81"/>
       <c r="G35" s="107" t="s">
         <v>353</v>
@@ -24988,15 +24992,15 @@
       <c r="O35" s="107"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="152"/>
-      <c r="B36" s="147"/>
+      <c r="A36" s="210"/>
+      <c r="B36" s="225"/>
       <c r="C36" s="97" t="s">
         <v>259</v>
       </c>
       <c r="D36" s="81">
         <v>2</v>
       </c>
-      <c r="E36" s="147"/>
+      <c r="E36" s="225"/>
       <c r="F36" s="81"/>
       <c r="G36" s="107" t="s">
         <v>354</v>
@@ -25013,8 +25017,8 @@
       <c r="O36" s="107"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="152"/>
-      <c r="B37" s="145" t="s">
+      <c r="A37" s="210"/>
+      <c r="B37" s="228" t="s">
         <v>154</v>
       </c>
       <c r="C37" s="99" t="s">
@@ -25023,7 +25027,7 @@
       <c r="D37" s="81">
         <v>2</v>
       </c>
-      <c r="E37" s="145" t="s">
+      <c r="E37" s="228" t="s">
         <v>291</v>
       </c>
       <c r="F37" s="81"/>
@@ -25042,15 +25046,15 @@
       <c r="O37" s="107"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="152"/>
-      <c r="B38" s="147"/>
+      <c r="A38" s="210"/>
+      <c r="B38" s="225"/>
       <c r="C38" s="99" t="s">
         <v>92</v>
       </c>
       <c r="D38" s="81">
         <v>3</v>
       </c>
-      <c r="E38" s="146"/>
+      <c r="E38" s="227"/>
       <c r="F38" s="81"/>
       <c r="G38" s="107" t="s">
         <v>337</v>
@@ -25067,8 +25071,8 @@
       <c r="O38" s="107"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="152"/>
-      <c r="B39" s="145" t="s">
+      <c r="A39" s="210"/>
+      <c r="B39" s="228" t="s">
         <v>269</v>
       </c>
       <c r="C39" s="95" t="s">
@@ -25077,7 +25081,7 @@
       <c r="D39" s="82">
         <v>2</v>
       </c>
-      <c r="E39" s="146"/>
+      <c r="E39" s="227"/>
       <c r="F39" s="82"/>
       <c r="G39" s="107" t="s">
         <v>341</v>
@@ -25094,15 +25098,15 @@
       <c r="O39" s="112"/>
     </row>
     <row r="40" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="165"/>
-      <c r="B40" s="158"/>
+      <c r="A40" s="230"/>
+      <c r="B40" s="229"/>
       <c r="C40" s="95" t="s">
         <v>272</v>
       </c>
       <c r="D40" s="82">
         <v>3</v>
       </c>
-      <c r="E40" s="158"/>
+      <c r="E40" s="229"/>
       <c r="F40" s="82"/>
       <c r="G40" s="112" t="s">
         <v>340</v>
@@ -25494,16 +25498,18 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="A32:A40"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="E37:E40"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="E23:E25"/>
     <mergeCell ref="E27:E28"/>
@@ -25520,18 +25526,16 @@
     <mergeCell ref="A11:A26"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="E37:E40"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="A32:A40"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25543,1770 +25547,1812 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.75" customWidth="1"/>
     <col min="3" max="3" width="21.125" customWidth="1"/>
-    <col min="7" max="13" width="9" style="223"/>
+    <col min="7" max="13" width="9" style="162"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="186" t="s">
+      <c r="A1" s="246" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="186" t="s">
+      <c r="B1" s="246" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="205" t="s">
+      <c r="C1" s="249" t="s">
         <v>417</v>
       </c>
-      <c r="D1" s="186" t="s">
+      <c r="D1" s="246" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="186" t="s">
+      <c r="E1" s="246" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="189" t="s">
+      <c r="F1" s="269" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="190"/>
-      <c r="H1" s="190"/>
-      <c r="I1" s="191"/>
-      <c r="J1" s="224" t="s">
+      <c r="G1" s="270"/>
+      <c r="H1" s="270"/>
+      <c r="I1" s="271"/>
+      <c r="J1" s="264" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="225"/>
-      <c r="L1" s="225"/>
-      <c r="M1" s="226"/>
+      <c r="K1" s="265"/>
+      <c r="L1" s="265"/>
+      <c r="M1" s="266"/>
     </row>
     <row r="2" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="187"/>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="186" t="s">
+      <c r="A2" s="247"/>
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
+      <c r="F2" s="246" t="s">
         <v>361</v>
       </c>
-      <c r="G2" s="224" t="s">
+      <c r="G2" s="264" t="s">
         <v>362</v>
       </c>
-      <c r="H2" s="225"/>
-      <c r="I2" s="226"/>
-      <c r="J2" s="227" t="s">
+      <c r="H2" s="265"/>
+      <c r="I2" s="266"/>
+      <c r="J2" s="267" t="s">
         <v>361</v>
       </c>
-      <c r="K2" s="224" t="s">
+      <c r="K2" s="264" t="s">
         <v>362</v>
       </c>
-      <c r="L2" s="225"/>
-      <c r="M2" s="226"/>
+      <c r="L2" s="265"/>
+      <c r="M2" s="266"/>
     </row>
     <row r="3" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="188"/>
-      <c r="B3" s="188"/>
-      <c r="C3" s="188"/>
-      <c r="D3" s="188"/>
-      <c r="E3" s="188"/>
-      <c r="F3" s="188"/>
-      <c r="G3" s="217" t="s">
+      <c r="A3" s="248"/>
+      <c r="B3" s="248"/>
+      <c r="C3" s="248"/>
+      <c r="D3" s="248"/>
+      <c r="E3" s="248"/>
+      <c r="F3" s="248"/>
+      <c r="G3" s="158" t="s">
         <v>363</v>
       </c>
-      <c r="H3" s="217" t="s">
+      <c r="H3" s="158" t="s">
         <v>364</v>
       </c>
-      <c r="I3" s="228" t="s">
+      <c r="I3" s="163" t="s">
         <v>365</v>
       </c>
-      <c r="J3" s="229"/>
-      <c r="K3" s="217" t="s">
+      <c r="J3" s="268"/>
+      <c r="K3" s="158" t="s">
         <v>363</v>
       </c>
-      <c r="L3" s="217" t="s">
+      <c r="L3" s="158" t="s">
         <v>364</v>
       </c>
-      <c r="M3" s="228" t="s">
+      <c r="M3" s="163" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="174"/>
-      <c r="B4" s="175"/>
-      <c r="C4" s="175"/>
-      <c r="D4" s="176"/>
-      <c r="E4" s="176"/>
-      <c r="F4" s="176"/>
-      <c r="G4" s="216"/>
-      <c r="H4" s="216"/>
-      <c r="I4" s="216"/>
-      <c r="J4" s="216"/>
-      <c r="K4" s="216"/>
-      <c r="L4" s="216"/>
-      <c r="M4" s="216"/>
+      <c r="A4" s="132"/>
+      <c r="B4" s="133"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="134"/>
+      <c r="G4" s="157"/>
+      <c r="H4" s="157"/>
+      <c r="I4" s="157"/>
+      <c r="J4" s="157"/>
+      <c r="K4" s="157"/>
+      <c r="L4" s="157"/>
+      <c r="M4" s="157"/>
     </row>
     <row r="5" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="264" t="s">
+      <c r="A5" s="241" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="192" t="s">
+      <c r="B5" s="244" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="178" t="s">
+      <c r="C5" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="179">
+      <c r="D5" s="137">
         <v>1</v>
       </c>
-      <c r="E5" s="192" t="s">
+      <c r="E5" s="244" t="s">
         <v>366</v>
       </c>
-      <c r="F5" s="179" t="s">
+      <c r="F5" s="137" t="s">
         <v>384</v>
       </c>
-      <c r="G5" s="206" t="s">
+      <c r="G5" s="147" t="s">
+        <v>427</v>
+      </c>
+      <c r="H5" s="147" t="s">
+        <v>427</v>
+      </c>
+      <c r="I5" s="147" t="s">
+        <v>427</v>
+      </c>
+      <c r="J5" s="148" t="s">
+        <v>385</v>
+      </c>
+      <c r="K5" s="149" t="s">
+        <v>368</v>
+      </c>
+      <c r="L5" s="149" t="s">
+        <v>368</v>
+      </c>
+      <c r="M5" s="150" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="242"/>
+      <c r="B6" s="262"/>
+      <c r="C6" s="139" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="140">
+        <v>1</v>
+      </c>
+      <c r="E6" s="262"/>
+      <c r="F6" s="140" t="s">
+        <v>384</v>
+      </c>
+      <c r="G6" s="151" t="s">
         <v>428</v>
       </c>
-      <c r="H5" s="206" t="s">
-        <v>428</v>
-      </c>
-      <c r="I5" s="206" t="s">
-        <v>428</v>
-      </c>
-      <c r="J5" s="207" t="s">
+      <c r="H6" s="152" t="s">
+        <v>439</v>
+      </c>
+      <c r="I6" s="152" t="s">
+        <v>371</v>
+      </c>
+      <c r="J6" s="148" t="s">
         <v>385</v>
       </c>
-      <c r="K5" s="208" t="s">
+      <c r="K6" s="152" t="s">
+        <v>383</v>
+      </c>
+      <c r="L6" s="152" t="s">
         <v>368</v>
       </c>
-      <c r="L5" s="208" t="s">
+      <c r="M6" s="153" t="s">
         <v>368</v>
       </c>
-      <c r="M5" s="209" t="s">
+    </row>
+    <row r="7" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="242"/>
+      <c r="B7" s="245"/>
+      <c r="C7" s="139" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="140">
+        <v>1</v>
+      </c>
+      <c r="E7" s="262"/>
+      <c r="F7" s="140" t="s">
+        <v>384</v>
+      </c>
+      <c r="G7" s="151" t="s">
+        <v>429</v>
+      </c>
+      <c r="H7" s="152" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="265"/>
-      <c r="B6" s="195"/>
-      <c r="C6" s="181" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="182">
+      <c r="I7" s="152" t="s">
+        <v>371</v>
+      </c>
+      <c r="J7" s="148" t="s">
+        <v>385</v>
+      </c>
+      <c r="K7" s="152" t="s">
+        <v>383</v>
+      </c>
+      <c r="L7" s="152" t="s">
+        <v>368</v>
+      </c>
+      <c r="M7" s="153" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="243"/>
+      <c r="B8" s="144" t="s">
+        <v>265</v>
+      </c>
+      <c r="C8" s="145" t="s">
+        <v>265</v>
+      </c>
+      <c r="D8" s="143">
         <v>1</v>
       </c>
-      <c r="E6" s="195"/>
-      <c r="F6" s="182" t="s">
-        <v>384</v>
-      </c>
-      <c r="G6" s="210" t="s">
-        <v>429</v>
-      </c>
-      <c r="H6" s="211" t="s">
+      <c r="E8" s="240"/>
+      <c r="F8" s="143" t="s">
+        <v>386</v>
+      </c>
+      <c r="G8" s="154" t="s">
         <v>420</v>
       </c>
-      <c r="I6" s="211" t="s">
+      <c r="H8" s="155" t="s">
+        <v>383</v>
+      </c>
+      <c r="I8" s="155" t="s">
+        <v>383</v>
+      </c>
+      <c r="J8" s="148" t="s">
+        <v>385</v>
+      </c>
+      <c r="K8" s="155" t="s">
+        <v>368</v>
+      </c>
+      <c r="L8" s="155" t="s">
+        <v>383</v>
+      </c>
+      <c r="M8" s="156" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="241" t="s">
+        <v>387</v>
+      </c>
+      <c r="B9" s="244" t="s">
+        <v>388</v>
+      </c>
+      <c r="C9" s="136" t="s">
+        <v>389</v>
+      </c>
+      <c r="D9" s="137">
+        <v>2</v>
+      </c>
+      <c r="E9" s="244" t="s">
+        <v>288</v>
+      </c>
+      <c r="F9" s="137" t="s">
+        <v>390</v>
+      </c>
+      <c r="G9" s="147" t="s">
+        <v>420</v>
+      </c>
+      <c r="H9" s="149" t="s">
+        <v>368</v>
+      </c>
+      <c r="I9" s="149" t="s">
+        <v>368</v>
+      </c>
+      <c r="J9" s="149" t="s">
+        <v>385</v>
+      </c>
+      <c r="K9" s="149" t="s">
+        <v>368</v>
+      </c>
+      <c r="L9" s="149" t="s">
+        <v>368</v>
+      </c>
+      <c r="M9" s="150" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="242"/>
+      <c r="B10" s="262"/>
+      <c r="C10" s="139" t="s">
+        <v>391</v>
+      </c>
+      <c r="D10" s="140">
+        <v>1</v>
+      </c>
+      <c r="E10" s="262"/>
+      <c r="F10" s="140" t="s">
+        <v>386</v>
+      </c>
+      <c r="G10" s="151" t="s">
+        <v>421</v>
+      </c>
+      <c r="H10" s="152" t="s">
+        <v>368</v>
+      </c>
+      <c r="I10" s="152" t="s">
+        <v>368</v>
+      </c>
+      <c r="J10" s="152" t="s">
+        <v>385</v>
+      </c>
+      <c r="K10" s="152" t="s">
+        <v>383</v>
+      </c>
+      <c r="L10" s="152" t="s">
+        <v>368</v>
+      </c>
+      <c r="M10" s="153" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="242"/>
+      <c r="B11" s="262"/>
+      <c r="C11" s="139" t="s">
+        <v>392</v>
+      </c>
+      <c r="D11" s="140">
+        <v>1</v>
+      </c>
+      <c r="E11" s="262"/>
+      <c r="F11" s="140" t="s">
+        <v>386</v>
+      </c>
+      <c r="G11" s="151" t="s">
+        <v>420</v>
+      </c>
+      <c r="H11" s="152" t="s">
+        <v>368</v>
+      </c>
+      <c r="I11" s="152" t="s">
+        <v>368</v>
+      </c>
+      <c r="J11" s="152" t="s">
+        <v>385</v>
+      </c>
+      <c r="K11" s="152" t="s">
+        <v>368</v>
+      </c>
+      <c r="L11" s="152" t="s">
+        <v>368</v>
+      </c>
+      <c r="M11" s="153" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="242"/>
+      <c r="B12" s="245"/>
+      <c r="C12" s="139" t="s">
+        <v>393</v>
+      </c>
+      <c r="D12" s="140">
+        <v>2</v>
+      </c>
+      <c r="E12" s="245"/>
+      <c r="F12" s="140" t="s">
+        <v>390</v>
+      </c>
+      <c r="G12" s="151" t="s">
+        <v>420</v>
+      </c>
+      <c r="H12" s="152" t="s">
+        <v>368</v>
+      </c>
+      <c r="I12" s="152" t="s">
+        <v>368</v>
+      </c>
+      <c r="J12" s="152" t="s">
+        <v>385</v>
+      </c>
+      <c r="K12" s="152" t="s">
+        <v>383</v>
+      </c>
+      <c r="L12" s="152" t="s">
+        <v>368</v>
+      </c>
+      <c r="M12" s="153" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="242"/>
+      <c r="B13" s="239" t="s">
+        <v>394</v>
+      </c>
+      <c r="C13" s="139" t="s">
+        <v>395</v>
+      </c>
+      <c r="D13" s="140">
+        <v>2</v>
+      </c>
+      <c r="E13" s="239" t="s">
+        <v>288</v>
+      </c>
+      <c r="F13" s="140" t="s">
+        <v>390</v>
+      </c>
+      <c r="G13" s="151" t="s">
+        <v>420</v>
+      </c>
+      <c r="H13" s="152" t="s">
+        <v>368</v>
+      </c>
+      <c r="I13" s="152" t="s">
+        <v>368</v>
+      </c>
+      <c r="J13" s="152" t="s">
+        <v>385</v>
+      </c>
+      <c r="K13" s="152" t="s">
+        <v>368</v>
+      </c>
+      <c r="L13" s="152" t="s">
+        <v>368</v>
+      </c>
+      <c r="M13" s="153" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="242"/>
+      <c r="B14" s="262"/>
+      <c r="C14" s="139" t="s">
+        <v>396</v>
+      </c>
+      <c r="D14" s="140">
+        <v>1</v>
+      </c>
+      <c r="E14" s="262"/>
+      <c r="F14" s="140" t="s">
+        <v>386</v>
+      </c>
+      <c r="G14" s="151" t="s">
+        <v>420</v>
+      </c>
+      <c r="H14" s="152" t="s">
+        <v>368</v>
+      </c>
+      <c r="I14" s="152" t="s">
+        <v>368</v>
+      </c>
+      <c r="J14" s="152" t="s">
+        <v>385</v>
+      </c>
+      <c r="K14" s="152" t="s">
+        <v>383</v>
+      </c>
+      <c r="L14" s="152" t="s">
+        <v>368</v>
+      </c>
+      <c r="M14" s="153" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="242"/>
+      <c r="B15" s="245"/>
+      <c r="C15" s="139" t="s">
+        <v>397</v>
+      </c>
+      <c r="D15" s="140">
+        <v>1</v>
+      </c>
+      <c r="E15" s="245"/>
+      <c r="F15" s="140" t="s">
+        <v>386</v>
+      </c>
+      <c r="G15" s="152" t="s">
+        <v>368</v>
+      </c>
+      <c r="H15" s="152" t="s">
+        <v>368</v>
+      </c>
+      <c r="I15" s="152" t="s">
+        <v>368</v>
+      </c>
+      <c r="J15" s="152" t="s">
+        <v>385</v>
+      </c>
+      <c r="K15" s="152" t="s">
+        <v>368</v>
+      </c>
+      <c r="L15" s="152" t="s">
+        <v>368</v>
+      </c>
+      <c r="M15" s="153" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="242"/>
+      <c r="B16" s="244" t="s">
+        <v>266</v>
+      </c>
+      <c r="C16" s="136" t="s">
+        <v>398</v>
+      </c>
+      <c r="D16" s="137">
+        <v>1</v>
+      </c>
+      <c r="E16" s="244" t="s">
+        <v>399</v>
+      </c>
+      <c r="F16" s="137" t="s">
+        <v>386</v>
+      </c>
+      <c r="G16" s="147" t="s">
+        <v>430</v>
+      </c>
+      <c r="H16" s="164" t="s">
+        <v>441</v>
+      </c>
+      <c r="I16" s="164" t="s">
+        <v>434</v>
+      </c>
+      <c r="J16" s="149" t="s">
+        <v>400</v>
+      </c>
+      <c r="K16" s="149" t="s">
+        <v>383</v>
+      </c>
+      <c r="L16" s="149" t="s">
+        <v>401</v>
+      </c>
+      <c r="M16" s="150" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="242"/>
+      <c r="B17" s="245"/>
+      <c r="C17" s="139" t="s">
+        <v>402</v>
+      </c>
+      <c r="D17" s="140">
+        <v>2</v>
+      </c>
+      <c r="E17" s="245"/>
+      <c r="F17" s="140" t="s">
+        <v>400</v>
+      </c>
+      <c r="G17" s="152" t="s">
+        <v>383</v>
+      </c>
+      <c r="H17" s="152" t="s">
+        <v>403</v>
+      </c>
+      <c r="I17" s="152" t="s">
+        <v>403</v>
+      </c>
+      <c r="J17" s="152" t="s">
+        <v>367</v>
+      </c>
+      <c r="K17" s="152" t="s">
+        <v>383</v>
+      </c>
+      <c r="L17" s="152" t="s">
+        <v>403</v>
+      </c>
+      <c r="M17" s="153" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="242"/>
+      <c r="B18" s="239" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="139" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" s="140">
+        <v>1</v>
+      </c>
+      <c r="E18" s="239" t="s">
+        <v>376</v>
+      </c>
+      <c r="F18" s="140" t="s">
+        <v>404</v>
+      </c>
+      <c r="G18" s="151" t="s">
+        <v>431</v>
+      </c>
+      <c r="H18" s="152" t="s">
+        <v>403</v>
+      </c>
+      <c r="I18" s="152" t="s">
+        <v>403</v>
+      </c>
+      <c r="J18" s="152" t="s">
+        <v>385</v>
+      </c>
+      <c r="K18" s="152" t="s">
+        <v>368</v>
+      </c>
+      <c r="L18" s="152" t="s">
+        <v>368</v>
+      </c>
+      <c r="M18" s="153" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="242"/>
+      <c r="B19" s="245"/>
+      <c r="C19" s="139" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="140">
+        <v>2</v>
+      </c>
+      <c r="E19" s="262"/>
+      <c r="F19" s="140" t="s">
+        <v>404</v>
+      </c>
+      <c r="G19" s="151" t="s">
+        <v>420</v>
+      </c>
+      <c r="H19" s="152" t="s">
+        <v>440</v>
+      </c>
+      <c r="I19" s="152" t="s">
+        <v>368</v>
+      </c>
+      <c r="J19" s="152" t="s">
+        <v>385</v>
+      </c>
+      <c r="K19" s="152" t="s">
+        <v>368</v>
+      </c>
+      <c r="L19" s="152" t="s">
+        <v>368</v>
+      </c>
+      <c r="M19" s="153" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="242"/>
+      <c r="B20" s="146" t="s">
+        <v>405</v>
+      </c>
+      <c r="C20" s="139" t="s">
+        <v>406</v>
+      </c>
+      <c r="D20" s="140">
+        <v>1</v>
+      </c>
+      <c r="E20" s="245"/>
+      <c r="F20" s="140" t="s">
+        <v>390</v>
+      </c>
+      <c r="G20" s="151" t="s">
+        <v>420</v>
+      </c>
+      <c r="H20" s="152" t="s">
+        <v>383</v>
+      </c>
+      <c r="I20" s="152" t="s">
+        <v>383</v>
+      </c>
+      <c r="J20" s="152" t="s">
+        <v>385</v>
+      </c>
+      <c r="K20" s="152" t="s">
+        <v>368</v>
+      </c>
+      <c r="L20" s="152" t="s">
+        <v>383</v>
+      </c>
+      <c r="M20" s="153" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="242"/>
+      <c r="B21" s="239" t="s">
+        <v>407</v>
+      </c>
+      <c r="C21" s="139" t="s">
+        <v>408</v>
+      </c>
+      <c r="D21" s="140">
+        <v>3</v>
+      </c>
+      <c r="E21" s="239" t="s">
+        <v>366</v>
+      </c>
+      <c r="F21" s="140" t="s">
+        <v>404</v>
+      </c>
+      <c r="G21" s="151" t="s">
+        <v>432</v>
+      </c>
+      <c r="H21" s="152" t="s">
+        <v>403</v>
+      </c>
+      <c r="I21" s="152" t="s">
+        <v>403</v>
+      </c>
+      <c r="J21" s="152" t="s">
+        <v>409</v>
+      </c>
+      <c r="K21" s="152" t="s">
+        <v>403</v>
+      </c>
+      <c r="L21" s="152" t="s">
+        <v>403</v>
+      </c>
+      <c r="M21" s="153" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="242"/>
+      <c r="B22" s="262"/>
+      <c r="C22" s="139" t="s">
+        <v>410</v>
+      </c>
+      <c r="D22" s="140">
+        <v>3</v>
+      </c>
+      <c r="E22" s="262"/>
+      <c r="F22" s="140" t="s">
+        <v>404</v>
+      </c>
+      <c r="G22" s="151" t="s">
+        <v>432</v>
+      </c>
+      <c r="H22" s="152" t="s">
+        <v>403</v>
+      </c>
+      <c r="I22" s="152" t="s">
+        <v>403</v>
+      </c>
+      <c r="J22" s="152" t="s">
+        <v>409</v>
+      </c>
+      <c r="K22" s="152" t="s">
+        <v>403</v>
+      </c>
+      <c r="L22" s="152" t="s">
+        <v>403</v>
+      </c>
+      <c r="M22" s="153" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="242"/>
+      <c r="B23" s="262"/>
+      <c r="C23" s="139" t="s">
+        <v>280</v>
+      </c>
+      <c r="D23" s="140">
+        <v>3</v>
+      </c>
+      <c r="E23" s="245"/>
+      <c r="F23" s="140" t="s">
+        <v>404</v>
+      </c>
+      <c r="G23" s="151" t="s">
+        <v>432</v>
+      </c>
+      <c r="H23" s="152" t="s">
+        <v>403</v>
+      </c>
+      <c r="I23" s="152" t="s">
+        <v>403</v>
+      </c>
+      <c r="J23" s="152" t="s">
+        <v>409</v>
+      </c>
+      <c r="K23" s="152" t="s">
+        <v>403</v>
+      </c>
+      <c r="L23" s="152" t="s">
+        <v>403</v>
+      </c>
+      <c r="M23" s="153" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="243"/>
+      <c r="B24" s="240"/>
+      <c r="C24" s="142" t="s">
+        <v>411</v>
+      </c>
+      <c r="D24" s="143">
+        <v>2</v>
+      </c>
+      <c r="E24" s="144" t="s">
+        <v>376</v>
+      </c>
+      <c r="F24" s="143" t="s">
+        <v>400</v>
+      </c>
+      <c r="G24" s="161" t="s">
+        <v>433</v>
+      </c>
+      <c r="H24" s="155" t="s">
+        <v>412</v>
+      </c>
+      <c r="I24" s="155" t="s">
+        <v>412</v>
+      </c>
+      <c r="J24" s="152" t="s">
+        <v>385</v>
+      </c>
+      <c r="K24" s="155" t="s">
+        <v>403</v>
+      </c>
+      <c r="L24" s="155" t="s">
+        <v>401</v>
+      </c>
+      <c r="M24" s="156" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="241" t="s">
+        <v>413</v>
+      </c>
+      <c r="B25" s="244" t="s">
+        <v>414</v>
+      </c>
+      <c r="C25" s="136" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" s="137">
+        <v>1</v>
+      </c>
+      <c r="E25" s="244" t="s">
+        <v>366</v>
+      </c>
+      <c r="F25" s="138" t="s">
+        <v>370</v>
+      </c>
+      <c r="G25" s="147" t="s">
+        <v>435</v>
+      </c>
+      <c r="H25" s="149" t="s">
+        <v>368</v>
+      </c>
+      <c r="I25" s="149" t="s">
+        <v>368</v>
+      </c>
+      <c r="J25" s="152" t="s">
+        <v>409</v>
+      </c>
+      <c r="K25" s="149" t="s">
+        <v>368</v>
+      </c>
+      <c r="L25" s="149" t="s">
+        <v>368</v>
+      </c>
+      <c r="M25" s="150" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="242"/>
+      <c r="B26" s="262"/>
+      <c r="C26" s="139" t="s">
+        <v>129</v>
+      </c>
+      <c r="D26" s="140">
+        <v>1</v>
+      </c>
+      <c r="E26" s="245"/>
+      <c r="F26" s="137" t="s">
+        <v>370</v>
+      </c>
+      <c r="G26" s="151" t="s">
+        <v>421</v>
+      </c>
+      <c r="H26" s="152" t="s">
+        <v>368</v>
+      </c>
+      <c r="I26" s="152" t="s">
+        <v>368</v>
+      </c>
+      <c r="J26" s="152" t="s">
+        <v>409</v>
+      </c>
+      <c r="K26" s="152" t="s">
+        <v>368</v>
+      </c>
+      <c r="L26" s="152" t="s">
+        <v>368</v>
+      </c>
+      <c r="M26" s="153" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="242"/>
+      <c r="B27" s="262"/>
+      <c r="C27" s="139" t="s">
+        <v>418</v>
+      </c>
+      <c r="D27" s="140">
+        <v>3</v>
+      </c>
+      <c r="E27" s="239" t="s">
+        <v>376</v>
+      </c>
+      <c r="F27" s="140" t="s">
+        <v>377</v>
+      </c>
+      <c r="G27" s="151" t="s">
+        <v>436</v>
+      </c>
+      <c r="H27" s="152" t="s">
+        <v>419</v>
+      </c>
+      <c r="I27" s="152" t="s">
+        <v>368</v>
+      </c>
+      <c r="J27" s="152" t="s">
+        <v>409</v>
+      </c>
+      <c r="K27" s="152" t="s">
+        <v>368</v>
+      </c>
+      <c r="L27" s="152" t="s">
+        <v>368</v>
+      </c>
+      <c r="M27" s="153" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="242"/>
+      <c r="B28" s="245"/>
+      <c r="C28" s="139" t="s">
+        <v>125</v>
+      </c>
+      <c r="D28" s="140">
+        <v>3</v>
+      </c>
+      <c r="E28" s="262"/>
+      <c r="F28" s="140" t="s">
+        <v>377</v>
+      </c>
+      <c r="G28" s="151" t="s">
+        <v>436</v>
+      </c>
+      <c r="H28" s="152" t="s">
+        <v>368</v>
+      </c>
+      <c r="I28" s="152" t="s">
+        <v>368</v>
+      </c>
+      <c r="J28" s="152" t="s">
+        <v>409</v>
+      </c>
+      <c r="K28" s="152" t="s">
+        <v>368</v>
+      </c>
+      <c r="L28" s="152" t="s">
+        <v>368</v>
+      </c>
+      <c r="M28" s="153" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="243"/>
+      <c r="B29" s="144" t="s">
+        <v>415</v>
+      </c>
+      <c r="C29" s="145" t="s">
+        <v>416</v>
+      </c>
+      <c r="D29" s="143">
+        <v>2</v>
+      </c>
+      <c r="E29" s="240"/>
+      <c r="F29" s="143" t="s">
+        <v>370</v>
+      </c>
+      <c r="G29" s="161" t="s">
+        <v>437</v>
+      </c>
+      <c r="H29" s="155" t="s">
+        <v>403</v>
+      </c>
+      <c r="I29" s="155" t="s">
+        <v>403</v>
+      </c>
+      <c r="J29" s="155" t="s">
+        <v>409</v>
+      </c>
+      <c r="K29" s="155" t="s">
+        <v>383</v>
+      </c>
+      <c r="L29" s="155" t="s">
+        <v>403</v>
+      </c>
+      <c r="M29" s="156" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="241" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="244" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="136" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="137">
+        <v>3</v>
+      </c>
+      <c r="E30" s="244" t="s">
+        <v>366</v>
+      </c>
+      <c r="F30" s="138" t="s">
+        <v>367</v>
+      </c>
+      <c r="G30" s="147" t="s">
+        <v>421</v>
+      </c>
+      <c r="H30" s="149" t="s">
+        <v>368</v>
+      </c>
+      <c r="I30" s="149" t="s">
+        <v>368</v>
+      </c>
+      <c r="J30" s="149" t="s">
+        <v>342</v>
+      </c>
+      <c r="K30" s="149" t="s">
+        <v>342</v>
+      </c>
+      <c r="L30" s="149" t="s">
+        <v>342</v>
+      </c>
+      <c r="M30" s="150" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="242"/>
+      <c r="B31" s="245"/>
+      <c r="C31" s="139" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="140">
+        <v>3</v>
+      </c>
+      <c r="E31" s="245"/>
+      <c r="F31" s="137" t="s">
+        <v>367</v>
+      </c>
+      <c r="G31" s="151" t="s">
+        <v>421</v>
+      </c>
+      <c r="H31" s="152" t="s">
+        <v>368</v>
+      </c>
+      <c r="I31" s="152" t="s">
+        <v>368</v>
+      </c>
+      <c r="J31" s="152" t="s">
+        <v>342</v>
+      </c>
+      <c r="K31" s="152" t="s">
+        <v>342</v>
+      </c>
+      <c r="L31" s="152" t="s">
+        <v>342</v>
+      </c>
+      <c r="M31" s="153" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="242"/>
+      <c r="B32" s="239" t="s">
+        <v>267</v>
+      </c>
+      <c r="C32" s="139" t="s">
+        <v>369</v>
+      </c>
+      <c r="D32" s="140">
+        <v>2</v>
+      </c>
+      <c r="E32" s="239" t="s">
+        <v>288</v>
+      </c>
+      <c r="F32" s="140" t="s">
+        <v>370</v>
+      </c>
+      <c r="G32" s="152" t="s">
         <v>371</v>
       </c>
-      <c r="J6" s="207" t="s">
-        <v>385</v>
-      </c>
-      <c r="K6" s="211" t="s">
+      <c r="H32" s="152" t="s">
+        <v>368</v>
+      </c>
+      <c r="I32" s="152" t="s">
+        <v>368</v>
+      </c>
+      <c r="J32" s="152" t="s">
+        <v>342</v>
+      </c>
+      <c r="K32" s="152" t="s">
+        <v>342</v>
+      </c>
+      <c r="L32" s="152" t="s">
+        <v>342</v>
+      </c>
+      <c r="M32" s="153" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="242"/>
+      <c r="B33" s="262"/>
+      <c r="C33" s="139" t="s">
+        <v>372</v>
+      </c>
+      <c r="D33" s="140">
+        <v>2</v>
+      </c>
+      <c r="E33" s="262"/>
+      <c r="F33" s="140" t="s">
+        <v>370</v>
+      </c>
+      <c r="G33" s="152" t="s">
+        <v>373</v>
+      </c>
+      <c r="H33" s="152" t="s">
+        <v>368</v>
+      </c>
+      <c r="I33" s="152" t="s">
+        <v>368</v>
+      </c>
+      <c r="J33" s="152" t="s">
+        <v>342</v>
+      </c>
+      <c r="K33" s="152" t="s">
+        <v>342</v>
+      </c>
+      <c r="L33" s="152" t="s">
+        <v>342</v>
+      </c>
+      <c r="M33" s="153" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="242"/>
+      <c r="B34" s="245"/>
+      <c r="C34" s="139" t="s">
+        <v>374</v>
+      </c>
+      <c r="D34" s="140">
+        <v>2</v>
+      </c>
+      <c r="E34" s="245"/>
+      <c r="F34" s="140" t="s">
+        <v>370</v>
+      </c>
+      <c r="G34" s="152" t="s">
+        <v>373</v>
+      </c>
+      <c r="H34" s="152" t="s">
+        <v>368</v>
+      </c>
+      <c r="I34" s="152" t="s">
+        <v>368</v>
+      </c>
+      <c r="J34" s="152" t="s">
+        <v>342</v>
+      </c>
+      <c r="K34" s="152" t="s">
+        <v>342</v>
+      </c>
+      <c r="L34" s="152" t="s">
+        <v>342</v>
+      </c>
+      <c r="M34" s="153" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="242"/>
+      <c r="B35" s="239" t="s">
+        <v>268</v>
+      </c>
+      <c r="C35" s="139" t="s">
+        <v>375</v>
+      </c>
+      <c r="D35" s="140">
+        <v>2</v>
+      </c>
+      <c r="E35" s="239" t="s">
+        <v>376</v>
+      </c>
+      <c r="F35" s="140" t="s">
+        <v>377</v>
+      </c>
+      <c r="G35" s="159" t="s">
+        <v>371</v>
+      </c>
+      <c r="H35" s="152" t="s">
+        <v>368</v>
+      </c>
+      <c r="I35" s="152" t="s">
+        <v>368</v>
+      </c>
+      <c r="J35" s="152" t="s">
+        <v>342</v>
+      </c>
+      <c r="K35" s="152" t="s">
+        <v>342</v>
+      </c>
+      <c r="L35" s="152" t="s">
+        <v>342</v>
+      </c>
+      <c r="M35" s="153" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="242"/>
+      <c r="B36" s="245"/>
+      <c r="C36" s="139" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="140">
+        <v>3</v>
+      </c>
+      <c r="E36" s="262"/>
+      <c r="F36" s="140" t="s">
+        <v>377</v>
+      </c>
+      <c r="G36" s="159" t="s">
+        <v>371</v>
+      </c>
+      <c r="H36" s="152" t="s">
+        <v>368</v>
+      </c>
+      <c r="I36" s="152" t="s">
+        <v>368</v>
+      </c>
+      <c r="J36" s="152" t="s">
+        <v>342</v>
+      </c>
+      <c r="K36" s="152" t="s">
+        <v>342</v>
+      </c>
+      <c r="L36" s="152" t="s">
+        <v>342</v>
+      </c>
+      <c r="M36" s="153" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="242"/>
+      <c r="B37" s="263" t="s">
+        <v>378</v>
+      </c>
+      <c r="C37" s="141" t="s">
+        <v>379</v>
+      </c>
+      <c r="D37" s="140">
+        <v>2</v>
+      </c>
+      <c r="E37" s="262"/>
+      <c r="F37" s="140" t="s">
+        <v>377</v>
+      </c>
+      <c r="G37" s="159" t="s">
+        <v>371</v>
+      </c>
+      <c r="H37" s="152" t="s">
+        <v>368</v>
+      </c>
+      <c r="I37" s="152" t="s">
+        <v>368</v>
+      </c>
+      <c r="J37" s="152" t="s">
+        <v>342</v>
+      </c>
+      <c r="K37" s="152" t="s">
+        <v>342</v>
+      </c>
+      <c r="L37" s="152" t="s">
+        <v>342</v>
+      </c>
+      <c r="M37" s="153" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="243"/>
+      <c r="B38" s="259"/>
+      <c r="C38" s="142" t="s">
+        <v>380</v>
+      </c>
+      <c r="D38" s="143">
+        <v>3</v>
+      </c>
+      <c r="E38" s="240"/>
+      <c r="F38" s="143" t="s">
+        <v>377</v>
+      </c>
+      <c r="G38" s="160" t="s">
+        <v>371</v>
+      </c>
+      <c r="H38" s="155" t="s">
+        <v>368</v>
+      </c>
+      <c r="I38" s="155" t="s">
+        <v>368</v>
+      </c>
+      <c r="J38" s="155" t="s">
+        <v>342</v>
+      </c>
+      <c r="K38" s="155" t="s">
+        <v>342</v>
+      </c>
+      <c r="L38" s="155" t="s">
+        <v>342</v>
+      </c>
+      <c r="M38" s="156" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" s="241" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" s="244" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="256" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" s="258">
+        <v>1</v>
+      </c>
+      <c r="E39" s="244" t="s">
+        <v>366</v>
+      </c>
+      <c r="F39" s="258" t="s">
+        <v>381</v>
+      </c>
+      <c r="G39" s="260" t="s">
+        <v>421</v>
+      </c>
+      <c r="H39" s="250" t="s">
+        <v>438</v>
+      </c>
+      <c r="I39" s="252" t="s">
+        <v>371</v>
+      </c>
+      <c r="J39" s="252" t="s">
+        <v>382</v>
+      </c>
+      <c r="K39" s="252" t="s">
+        <v>368</v>
+      </c>
+      <c r="L39" s="252" t="s">
         <v>383</v>
       </c>
-      <c r="L6" s="211" t="s">
+      <c r="M39" s="254" t="s">
         <v>368</v>
       </c>
-      <c r="M6" s="212" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="265"/>
-      <c r="B7" s="193"/>
-      <c r="C7" s="181" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="182">
-        <v>1</v>
-      </c>
-      <c r="E7" s="195"/>
-      <c r="F7" s="182" t="s">
-        <v>384</v>
-      </c>
-      <c r="G7" s="210" t="s">
-        <v>430</v>
-      </c>
-      <c r="H7" s="211" t="s">
-        <v>368</v>
-      </c>
-      <c r="I7" s="211" t="s">
-        <v>371</v>
-      </c>
-      <c r="J7" s="207" t="s">
-        <v>385</v>
-      </c>
-      <c r="K7" s="211" t="s">
-        <v>383</v>
-      </c>
-      <c r="L7" s="211" t="s">
-        <v>368</v>
-      </c>
-      <c r="M7" s="212" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="263"/>
-      <c r="B8" s="202" t="s">
-        <v>265</v>
-      </c>
-      <c r="C8" s="203" t="s">
-        <v>265</v>
-      </c>
-      <c r="D8" s="185">
-        <v>1</v>
-      </c>
-      <c r="E8" s="196"/>
-      <c r="F8" s="185" t="s">
-        <v>386</v>
-      </c>
-      <c r="G8" s="213" t="s">
-        <v>421</v>
-      </c>
-      <c r="H8" s="214" t="s">
-        <v>383</v>
-      </c>
-      <c r="I8" s="214" t="s">
-        <v>383</v>
-      </c>
-      <c r="J8" s="207" t="s">
-        <v>385</v>
-      </c>
-      <c r="K8" s="214" t="s">
-        <v>368</v>
-      </c>
-      <c r="L8" s="214" t="s">
-        <v>383</v>
-      </c>
-      <c r="M8" s="215" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="38.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="264" t="s">
-        <v>387</v>
-      </c>
-      <c r="B9" s="192" t="s">
-        <v>388</v>
-      </c>
-      <c r="C9" s="178" t="s">
-        <v>389</v>
-      </c>
-      <c r="D9" s="179">
-        <v>2</v>
-      </c>
-      <c r="E9" s="192" t="s">
-        <v>288</v>
-      </c>
-      <c r="F9" s="179" t="s">
-        <v>390</v>
-      </c>
-      <c r="G9" s="206" t="s">
-        <v>421</v>
-      </c>
-      <c r="H9" s="208" t="s">
-        <v>368</v>
-      </c>
-      <c r="I9" s="208" t="s">
-        <v>368</v>
-      </c>
-      <c r="J9" s="208" t="s">
-        <v>385</v>
-      </c>
-      <c r="K9" s="208" t="s">
-        <v>368</v>
-      </c>
-      <c r="L9" s="208" t="s">
-        <v>368</v>
-      </c>
-      <c r="M9" s="209" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="265"/>
-      <c r="B10" s="195"/>
-      <c r="C10" s="181" t="s">
-        <v>391</v>
-      </c>
-      <c r="D10" s="182">
-        <v>1</v>
-      </c>
-      <c r="E10" s="195"/>
-      <c r="F10" s="182" t="s">
-        <v>386</v>
-      </c>
-      <c r="G10" s="210" t="s">
-        <v>422</v>
-      </c>
-      <c r="H10" s="211" t="s">
-        <v>368</v>
-      </c>
-      <c r="I10" s="211" t="s">
-        <v>368</v>
-      </c>
-      <c r="J10" s="211" t="s">
-        <v>385</v>
-      </c>
-      <c r="K10" s="211" t="s">
-        <v>383</v>
-      </c>
-      <c r="L10" s="211" t="s">
-        <v>368</v>
-      </c>
-      <c r="M10" s="212" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="38.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="265"/>
-      <c r="B11" s="195"/>
-      <c r="C11" s="181" t="s">
-        <v>392</v>
-      </c>
-      <c r="D11" s="182">
-        <v>1</v>
-      </c>
-      <c r="E11" s="195"/>
-      <c r="F11" s="182" t="s">
-        <v>386</v>
-      </c>
-      <c r="G11" s="210" t="s">
-        <v>421</v>
-      </c>
-      <c r="H11" s="211" t="s">
-        <v>368</v>
-      </c>
-      <c r="I11" s="211" t="s">
-        <v>368</v>
-      </c>
-      <c r="J11" s="211" t="s">
-        <v>385</v>
-      </c>
-      <c r="K11" s="211" t="s">
-        <v>368</v>
-      </c>
-      <c r="L11" s="211" t="s">
-        <v>368</v>
-      </c>
-      <c r="M11" s="212" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="38.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="265"/>
-      <c r="B12" s="193"/>
-      <c r="C12" s="181" t="s">
-        <v>393</v>
-      </c>
-      <c r="D12" s="182">
-        <v>2</v>
-      </c>
-      <c r="E12" s="193"/>
-      <c r="F12" s="182" t="s">
-        <v>390</v>
-      </c>
-      <c r="G12" s="210" t="s">
-        <v>421</v>
-      </c>
-      <c r="H12" s="211" t="s">
-        <v>368</v>
-      </c>
-      <c r="I12" s="211" t="s">
-        <v>368</v>
-      </c>
-      <c r="J12" s="211" t="s">
-        <v>385</v>
-      </c>
-      <c r="K12" s="211" t="s">
-        <v>383</v>
-      </c>
-      <c r="L12" s="211" t="s">
-        <v>368</v>
-      </c>
-      <c r="M12" s="212" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="38.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="265"/>
-      <c r="B13" s="194" t="s">
-        <v>394</v>
-      </c>
-      <c r="C13" s="181" t="s">
-        <v>395</v>
-      </c>
-      <c r="D13" s="182">
-        <v>2</v>
-      </c>
-      <c r="E13" s="194" t="s">
-        <v>288</v>
-      </c>
-      <c r="F13" s="182" t="s">
-        <v>390</v>
-      </c>
-      <c r="G13" s="210" t="s">
-        <v>421</v>
-      </c>
-      <c r="H13" s="211" t="s">
-        <v>368</v>
-      </c>
-      <c r="I13" s="211" t="s">
-        <v>368</v>
-      </c>
-      <c r="J13" s="211" t="s">
-        <v>385</v>
-      </c>
-      <c r="K13" s="211" t="s">
-        <v>368</v>
-      </c>
-      <c r="L13" s="211" t="s">
-        <v>368</v>
-      </c>
-      <c r="M13" s="212" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="265"/>
-      <c r="B14" s="195"/>
-      <c r="C14" s="181" t="s">
-        <v>396</v>
-      </c>
-      <c r="D14" s="182">
-        <v>1</v>
-      </c>
-      <c r="E14" s="195"/>
-      <c r="F14" s="182" t="s">
-        <v>386</v>
-      </c>
-      <c r="G14" s="210" t="s">
-        <v>421</v>
-      </c>
-      <c r="H14" s="211" t="s">
-        <v>368</v>
-      </c>
-      <c r="I14" s="211" t="s">
-        <v>368</v>
-      </c>
-      <c r="J14" s="211" t="s">
-        <v>385</v>
-      </c>
-      <c r="K14" s="211" t="s">
-        <v>383</v>
-      </c>
-      <c r="L14" s="211" t="s">
-        <v>368</v>
-      </c>
-      <c r="M14" s="212" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="265"/>
-      <c r="B15" s="193"/>
-      <c r="C15" s="181" t="s">
-        <v>397</v>
-      </c>
-      <c r="D15" s="182">
-        <v>1</v>
-      </c>
-      <c r="E15" s="193"/>
-      <c r="F15" s="182" t="s">
-        <v>386</v>
-      </c>
-      <c r="G15" s="211" t="s">
-        <v>368</v>
-      </c>
-      <c r="H15" s="211" t="s">
-        <v>368</v>
-      </c>
-      <c r="I15" s="211" t="s">
-        <v>368</v>
-      </c>
-      <c r="J15" s="211" t="s">
-        <v>385</v>
-      </c>
-      <c r="K15" s="211" t="s">
-        <v>368</v>
-      </c>
-      <c r="L15" s="211" t="s">
-        <v>368</v>
-      </c>
-      <c r="M15" s="212" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="265"/>
-      <c r="B16" s="192" t="s">
-        <v>266</v>
-      </c>
-      <c r="C16" s="178" t="s">
-        <v>398</v>
-      </c>
-      <c r="D16" s="179">
-        <v>1</v>
-      </c>
-      <c r="E16" s="192" t="s">
-        <v>399</v>
-      </c>
-      <c r="F16" s="179" t="s">
-        <v>386</v>
-      </c>
-      <c r="G16" s="206" t="s">
-        <v>431</v>
-      </c>
-      <c r="H16" s="236" t="s">
-        <v>435</v>
-      </c>
-      <c r="I16" s="236" t="s">
-        <v>436</v>
-      </c>
-      <c r="J16" s="208" t="s">
-        <v>400</v>
-      </c>
-      <c r="K16" s="208" t="s">
-        <v>383</v>
-      </c>
-      <c r="L16" s="208" t="s">
-        <v>401</v>
-      </c>
-      <c r="M16" s="209" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="265"/>
-      <c r="B17" s="193"/>
-      <c r="C17" s="181" t="s">
-        <v>402</v>
-      </c>
-      <c r="D17" s="182">
-        <v>2</v>
-      </c>
-      <c r="E17" s="193"/>
-      <c r="F17" s="182" t="s">
-        <v>400</v>
-      </c>
-      <c r="G17" s="211" t="s">
-        <v>383</v>
-      </c>
-      <c r="H17" s="211" t="s">
-        <v>403</v>
-      </c>
-      <c r="I17" s="211" t="s">
-        <v>403</v>
-      </c>
-      <c r="J17" s="211" t="s">
-        <v>367</v>
-      </c>
-      <c r="K17" s="211" t="s">
-        <v>383</v>
-      </c>
-      <c r="L17" s="211" t="s">
-        <v>403</v>
-      </c>
-      <c r="M17" s="212" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="265"/>
-      <c r="B18" s="194" t="s">
-        <v>115</v>
-      </c>
-      <c r="C18" s="181" t="s">
-        <v>116</v>
-      </c>
-      <c r="D18" s="182">
-        <v>1</v>
-      </c>
-      <c r="E18" s="194" t="s">
-        <v>376</v>
-      </c>
-      <c r="F18" s="182" t="s">
-        <v>404</v>
-      </c>
-      <c r="G18" s="210" t="s">
-        <v>432</v>
-      </c>
-      <c r="H18" s="211" t="s">
-        <v>403</v>
-      </c>
-      <c r="I18" s="211" t="s">
-        <v>403</v>
-      </c>
-      <c r="J18" s="211" t="s">
-        <v>385</v>
-      </c>
-      <c r="K18" s="211" t="s">
-        <v>368</v>
-      </c>
-      <c r="L18" s="211" t="s">
-        <v>368</v>
-      </c>
-      <c r="M18" s="212" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="265"/>
-      <c r="B19" s="193"/>
-      <c r="C19" s="181" t="s">
-        <v>118</v>
-      </c>
-      <c r="D19" s="182">
-        <v>2</v>
-      </c>
-      <c r="E19" s="195"/>
-      <c r="F19" s="182" t="s">
-        <v>404</v>
-      </c>
-      <c r="G19" s="210" t="s">
-        <v>421</v>
-      </c>
-      <c r="H19" s="211" t="s">
-        <v>368</v>
-      </c>
-      <c r="I19" s="211" t="s">
-        <v>368</v>
-      </c>
-      <c r="J19" s="211" t="s">
-        <v>385</v>
-      </c>
-      <c r="K19" s="211" t="s">
-        <v>368</v>
-      </c>
-      <c r="L19" s="211" t="s">
-        <v>368</v>
-      </c>
-      <c r="M19" s="212" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="265"/>
-      <c r="B20" s="204" t="s">
-        <v>405</v>
-      </c>
-      <c r="C20" s="181" t="s">
-        <v>406</v>
-      </c>
-      <c r="D20" s="182">
-        <v>1</v>
-      </c>
-      <c r="E20" s="193"/>
-      <c r="F20" s="182" t="s">
-        <v>390</v>
-      </c>
-      <c r="G20" s="210" t="s">
-        <v>421</v>
-      </c>
-      <c r="H20" s="211" t="s">
-        <v>383</v>
-      </c>
-      <c r="I20" s="211" t="s">
-        <v>383</v>
-      </c>
-      <c r="J20" s="211" t="s">
-        <v>385</v>
-      </c>
-      <c r="K20" s="211" t="s">
-        <v>368</v>
-      </c>
-      <c r="L20" s="211" t="s">
-        <v>383</v>
-      </c>
-      <c r="M20" s="212" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="265"/>
-      <c r="B21" s="194" t="s">
-        <v>407</v>
-      </c>
-      <c r="C21" s="181" t="s">
-        <v>408</v>
-      </c>
-      <c r="D21" s="182">
-        <v>3</v>
-      </c>
-      <c r="E21" s="194" t="s">
-        <v>366</v>
-      </c>
-      <c r="F21" s="182" t="s">
-        <v>404</v>
-      </c>
-      <c r="G21" s="210" t="s">
-        <v>433</v>
-      </c>
-      <c r="H21" s="211" t="s">
-        <v>403</v>
-      </c>
-      <c r="I21" s="211" t="s">
-        <v>403</v>
-      </c>
-      <c r="J21" s="211" t="s">
-        <v>409</v>
-      </c>
-      <c r="K21" s="211" t="s">
-        <v>403</v>
-      </c>
-      <c r="L21" s="211" t="s">
-        <v>403</v>
-      </c>
-      <c r="M21" s="212" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="265"/>
-      <c r="B22" s="195"/>
-      <c r="C22" s="181" t="s">
-        <v>410</v>
-      </c>
-      <c r="D22" s="182">
-        <v>3</v>
-      </c>
-      <c r="E22" s="195"/>
-      <c r="F22" s="182" t="s">
-        <v>404</v>
-      </c>
-      <c r="G22" s="210" t="s">
-        <v>433</v>
-      </c>
-      <c r="H22" s="211" t="s">
-        <v>403</v>
-      </c>
-      <c r="I22" s="211" t="s">
-        <v>403</v>
-      </c>
-      <c r="J22" s="211" t="s">
-        <v>409</v>
-      </c>
-      <c r="K22" s="211" t="s">
-        <v>403</v>
-      </c>
-      <c r="L22" s="211" t="s">
-        <v>403</v>
-      </c>
-      <c r="M22" s="212" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="265"/>
-      <c r="B23" s="195"/>
-      <c r="C23" s="181" t="s">
-        <v>280</v>
-      </c>
-      <c r="D23" s="182">
-        <v>3</v>
-      </c>
-      <c r="E23" s="193"/>
-      <c r="F23" s="182" t="s">
-        <v>404</v>
-      </c>
-      <c r="G23" s="210" t="s">
-        <v>433</v>
-      </c>
-      <c r="H23" s="211" t="s">
-        <v>403</v>
-      </c>
-      <c r="I23" s="211" t="s">
-        <v>403</v>
-      </c>
-      <c r="J23" s="211" t="s">
-        <v>409</v>
-      </c>
-      <c r="K23" s="211" t="s">
-        <v>403</v>
-      </c>
-      <c r="L23" s="211" t="s">
-        <v>403</v>
-      </c>
-      <c r="M23" s="212" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="263"/>
-      <c r="B24" s="196"/>
-      <c r="C24" s="184" t="s">
-        <v>411</v>
-      </c>
-      <c r="D24" s="185">
-        <v>2</v>
-      </c>
-      <c r="E24" s="202" t="s">
-        <v>376</v>
-      </c>
-      <c r="F24" s="185" t="s">
-        <v>400</v>
-      </c>
-      <c r="G24" s="222" t="s">
-        <v>434</v>
-      </c>
-      <c r="H24" s="214" t="s">
-        <v>412</v>
-      </c>
-      <c r="I24" s="214" t="s">
-        <v>412</v>
-      </c>
-      <c r="J24" s="211" t="s">
-        <v>385</v>
-      </c>
-      <c r="K24" s="214" t="s">
-        <v>403</v>
-      </c>
-      <c r="L24" s="214" t="s">
-        <v>401</v>
-      </c>
-      <c r="M24" s="215" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="264" t="s">
-        <v>413</v>
-      </c>
-      <c r="B25" s="192" t="s">
-        <v>414</v>
-      </c>
-      <c r="C25" s="178" t="s">
-        <v>126</v>
-      </c>
-      <c r="D25" s="179">
-        <v>1</v>
-      </c>
-      <c r="E25" s="192" t="s">
-        <v>366</v>
-      </c>
-      <c r="F25" s="180" t="s">
-        <v>370</v>
-      </c>
-      <c r="G25" s="206" t="s">
-        <v>437</v>
-      </c>
-      <c r="H25" s="208" t="s">
-        <v>368</v>
-      </c>
-      <c r="I25" s="208" t="s">
-        <v>368</v>
-      </c>
-      <c r="J25" s="211" t="s">
-        <v>409</v>
-      </c>
-      <c r="K25" s="208" t="s">
-        <v>368</v>
-      </c>
-      <c r="L25" s="208" t="s">
-        <v>368</v>
-      </c>
-      <c r="M25" s="209" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="265"/>
-      <c r="B26" s="195"/>
-      <c r="C26" s="181" t="s">
-        <v>129</v>
-      </c>
-      <c r="D26" s="182">
-        <v>1</v>
-      </c>
-      <c r="E26" s="193"/>
-      <c r="F26" s="179" t="s">
-        <v>370</v>
-      </c>
-      <c r="G26" s="210" t="s">
-        <v>422</v>
-      </c>
-      <c r="H26" s="211" t="s">
-        <v>368</v>
-      </c>
-      <c r="I26" s="211" t="s">
-        <v>368</v>
-      </c>
-      <c r="J26" s="211" t="s">
-        <v>409</v>
-      </c>
-      <c r="K26" s="211" t="s">
-        <v>368</v>
-      </c>
-      <c r="L26" s="211" t="s">
-        <v>368</v>
-      </c>
-      <c r="M26" s="212" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="24.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="265"/>
-      <c r="B27" s="195"/>
-      <c r="C27" s="181" t="s">
-        <v>418</v>
-      </c>
-      <c r="D27" s="182">
-        <v>3</v>
-      </c>
-      <c r="E27" s="194" t="s">
-        <v>376</v>
-      </c>
-      <c r="F27" s="182" t="s">
-        <v>377</v>
-      </c>
-      <c r="G27" s="210" t="s">
-        <v>438</v>
-      </c>
-      <c r="H27" s="211" t="s">
-        <v>419</v>
-      </c>
-      <c r="I27" s="211" t="s">
-        <v>368</v>
-      </c>
-      <c r="J27" s="211" t="s">
-        <v>409</v>
-      </c>
-      <c r="K27" s="211" t="s">
-        <v>368</v>
-      </c>
-      <c r="L27" s="211" t="s">
-        <v>368</v>
-      </c>
-      <c r="M27" s="212" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="265"/>
-      <c r="B28" s="193"/>
-      <c r="C28" s="181" t="s">
-        <v>125</v>
-      </c>
-      <c r="D28" s="182">
-        <v>3</v>
-      </c>
-      <c r="E28" s="195"/>
-      <c r="F28" s="182" t="s">
-        <v>377</v>
-      </c>
-      <c r="G28" s="210" t="s">
-        <v>438</v>
-      </c>
-      <c r="H28" s="211" t="s">
-        <v>368</v>
-      </c>
-      <c r="I28" s="211" t="s">
-        <v>368</v>
-      </c>
-      <c r="J28" s="211" t="s">
-        <v>409</v>
-      </c>
-      <c r="K28" s="211" t="s">
-        <v>368</v>
-      </c>
-      <c r="L28" s="211" t="s">
-        <v>368</v>
-      </c>
-      <c r="M28" s="212" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="263"/>
-      <c r="B29" s="202" t="s">
-        <v>415</v>
-      </c>
-      <c r="C29" s="203" t="s">
-        <v>416</v>
-      </c>
-      <c r="D29" s="185">
-        <v>2</v>
-      </c>
-      <c r="E29" s="196"/>
-      <c r="F29" s="185" t="s">
-        <v>370</v>
-      </c>
-      <c r="G29" s="222" t="s">
-        <v>439</v>
-      </c>
-      <c r="H29" s="214" t="s">
-        <v>403</v>
-      </c>
-      <c r="I29" s="214" t="s">
-        <v>403</v>
-      </c>
-      <c r="J29" s="214" t="s">
-        <v>409</v>
-      </c>
-      <c r="K29" s="214" t="s">
-        <v>383</v>
-      </c>
-      <c r="L29" s="214" t="s">
-        <v>403</v>
-      </c>
-      <c r="M29" s="215" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="264" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" s="192" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="178" t="s">
-        <v>72</v>
-      </c>
-      <c r="D30" s="179">
-        <v>3</v>
-      </c>
-      <c r="E30" s="192" t="s">
-        <v>366</v>
-      </c>
-      <c r="F30" s="180" t="s">
-        <v>367</v>
-      </c>
-      <c r="G30" s="206" t="s">
-        <v>422</v>
-      </c>
-      <c r="H30" s="208" t="s">
-        <v>368</v>
-      </c>
-      <c r="I30" s="208" t="s">
-        <v>368</v>
-      </c>
-      <c r="J30" s="208" t="s">
-        <v>342</v>
-      </c>
-      <c r="K30" s="208" t="s">
-        <v>342</v>
-      </c>
-      <c r="L30" s="208" t="s">
-        <v>342</v>
-      </c>
-      <c r="M30" s="209" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="265"/>
-      <c r="B31" s="193"/>
-      <c r="C31" s="181" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" s="182">
-        <v>3</v>
-      </c>
-      <c r="E31" s="193"/>
-      <c r="F31" s="179" t="s">
-        <v>367</v>
-      </c>
-      <c r="G31" s="210" t="s">
-        <v>422</v>
-      </c>
-      <c r="H31" s="211" t="s">
-        <v>368</v>
-      </c>
-      <c r="I31" s="211" t="s">
-        <v>368</v>
-      </c>
-      <c r="J31" s="211" t="s">
-        <v>342</v>
-      </c>
-      <c r="K31" s="211" t="s">
-        <v>342</v>
-      </c>
-      <c r="L31" s="211" t="s">
-        <v>342</v>
-      </c>
-      <c r="M31" s="212" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="265"/>
-      <c r="B32" s="194" t="s">
-        <v>267</v>
-      </c>
-      <c r="C32" s="181" t="s">
-        <v>369</v>
-      </c>
-      <c r="D32" s="182">
-        <v>2</v>
-      </c>
-      <c r="E32" s="194" t="s">
-        <v>288</v>
-      </c>
-      <c r="F32" s="182" t="s">
-        <v>370</v>
-      </c>
-      <c r="G32" s="211" t="s">
-        <v>371</v>
-      </c>
-      <c r="H32" s="211" t="s">
-        <v>368</v>
-      </c>
-      <c r="I32" s="211" t="s">
-        <v>368</v>
-      </c>
-      <c r="J32" s="211" t="s">
-        <v>342</v>
-      </c>
-      <c r="K32" s="211" t="s">
-        <v>342</v>
-      </c>
-      <c r="L32" s="211" t="s">
-        <v>342</v>
-      </c>
-      <c r="M32" s="212" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="265"/>
-      <c r="B33" s="195"/>
-      <c r="C33" s="181" t="s">
-        <v>372</v>
-      </c>
-      <c r="D33" s="182">
-        <v>2</v>
-      </c>
-      <c r="E33" s="195"/>
-      <c r="F33" s="182" t="s">
-        <v>370</v>
-      </c>
-      <c r="G33" s="211" t="s">
-        <v>373</v>
-      </c>
-      <c r="H33" s="211" t="s">
-        <v>368</v>
-      </c>
-      <c r="I33" s="211" t="s">
-        <v>368</v>
-      </c>
-      <c r="J33" s="211" t="s">
-        <v>342</v>
-      </c>
-      <c r="K33" s="211" t="s">
-        <v>342</v>
-      </c>
-      <c r="L33" s="211" t="s">
-        <v>342</v>
-      </c>
-      <c r="M33" s="212" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="265"/>
-      <c r="B34" s="193"/>
-      <c r="C34" s="181" t="s">
-        <v>374</v>
-      </c>
-      <c r="D34" s="182">
-        <v>2</v>
-      </c>
-      <c r="E34" s="193"/>
-      <c r="F34" s="182" t="s">
-        <v>370</v>
-      </c>
-      <c r="G34" s="211" t="s">
-        <v>373</v>
-      </c>
-      <c r="H34" s="211" t="s">
-        <v>368</v>
-      </c>
-      <c r="I34" s="211" t="s">
-        <v>368</v>
-      </c>
-      <c r="J34" s="211" t="s">
-        <v>342</v>
-      </c>
-      <c r="K34" s="211" t="s">
-        <v>342</v>
-      </c>
-      <c r="L34" s="211" t="s">
-        <v>342</v>
-      </c>
-      <c r="M34" s="212" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="265"/>
-      <c r="B35" s="194" t="s">
-        <v>268</v>
-      </c>
-      <c r="C35" s="181" t="s">
-        <v>375</v>
-      </c>
-      <c r="D35" s="182">
-        <v>2</v>
-      </c>
-      <c r="E35" s="194" t="s">
-        <v>376</v>
-      </c>
-      <c r="F35" s="182" t="s">
-        <v>377</v>
-      </c>
-      <c r="G35" s="218" t="s">
-        <v>371</v>
-      </c>
-      <c r="H35" s="211" t="s">
-        <v>368</v>
-      </c>
-      <c r="I35" s="211" t="s">
-        <v>368</v>
-      </c>
-      <c r="J35" s="211" t="s">
-        <v>342</v>
-      </c>
-      <c r="K35" s="211" t="s">
-        <v>342</v>
-      </c>
-      <c r="L35" s="211" t="s">
-        <v>342</v>
-      </c>
-      <c r="M35" s="212" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="265"/>
-      <c r="B36" s="193"/>
-      <c r="C36" s="181" t="s">
-        <v>106</v>
-      </c>
-      <c r="D36" s="182">
-        <v>3</v>
-      </c>
-      <c r="E36" s="195"/>
-      <c r="F36" s="182" t="s">
-        <v>377</v>
-      </c>
-      <c r="G36" s="218" t="s">
-        <v>371</v>
-      </c>
-      <c r="H36" s="211" t="s">
-        <v>368</v>
-      </c>
-      <c r="I36" s="211" t="s">
-        <v>368</v>
-      </c>
-      <c r="J36" s="211" t="s">
-        <v>342</v>
-      </c>
-      <c r="K36" s="211" t="s">
-        <v>342</v>
-      </c>
-      <c r="L36" s="211" t="s">
-        <v>342</v>
-      </c>
-      <c r="M36" s="212" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="265"/>
-      <c r="B37" s="197" t="s">
-        <v>378</v>
-      </c>
-      <c r="C37" s="183" t="s">
-        <v>379</v>
-      </c>
-      <c r="D37" s="182">
-        <v>2</v>
-      </c>
-      <c r="E37" s="195"/>
-      <c r="F37" s="182" t="s">
-        <v>377</v>
-      </c>
-      <c r="G37" s="218" t="s">
-        <v>371</v>
-      </c>
-      <c r="H37" s="211" t="s">
-        <v>368</v>
-      </c>
-      <c r="I37" s="211" t="s">
-        <v>368</v>
-      </c>
-      <c r="J37" s="211" t="s">
-        <v>342</v>
-      </c>
-      <c r="K37" s="211" t="s">
-        <v>342</v>
-      </c>
-      <c r="L37" s="211" t="s">
-        <v>342</v>
-      </c>
-      <c r="M37" s="212" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="263"/>
-      <c r="B38" s="198"/>
-      <c r="C38" s="184" t="s">
-        <v>380</v>
-      </c>
-      <c r="D38" s="185">
-        <v>3</v>
-      </c>
-      <c r="E38" s="196"/>
-      <c r="F38" s="185" t="s">
-        <v>377</v>
-      </c>
-      <c r="G38" s="219" t="s">
-        <v>371</v>
-      </c>
-      <c r="H38" s="214" t="s">
-        <v>368</v>
-      </c>
-      <c r="I38" s="214" t="s">
-        <v>368</v>
-      </c>
-      <c r="J38" s="214" t="s">
-        <v>342</v>
-      </c>
-      <c r="K38" s="214" t="s">
-        <v>342</v>
-      </c>
-      <c r="L38" s="214" t="s">
-        <v>342</v>
-      </c>
-      <c r="M38" s="215" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="264" t="s">
-        <v>68</v>
-      </c>
-      <c r="B39" s="192" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39" s="199" t="s">
-        <v>69</v>
-      </c>
-      <c r="D39" s="201">
-        <v>1</v>
-      </c>
-      <c r="E39" s="192" t="s">
-        <v>366</v>
-      </c>
-      <c r="F39" s="201" t="s">
-        <v>381</v>
-      </c>
-      <c r="G39" s="220" t="s">
-        <v>422</v>
-      </c>
-      <c r="H39" s="230" t="s">
-        <v>440</v>
-      </c>
-      <c r="I39" s="231" t="s">
-        <v>371</v>
-      </c>
-      <c r="J39" s="231" t="s">
-        <v>382</v>
-      </c>
-      <c r="K39" s="231" t="s">
-        <v>368</v>
-      </c>
-      <c r="L39" s="231" t="s">
-        <v>383</v>
-      </c>
-      <c r="M39" s="232" t="s">
-        <v>368</v>
-      </c>
     </row>
     <row r="40" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="263"/>
-      <c r="B40" s="196"/>
-      <c r="C40" s="200"/>
-      <c r="D40" s="198"/>
-      <c r="E40" s="196"/>
-      <c r="F40" s="198"/>
-      <c r="G40" s="221"/>
-      <c r="H40" s="233"/>
-      <c r="I40" s="234"/>
-      <c r="J40" s="234"/>
-      <c r="K40" s="234"/>
-      <c r="L40" s="234"/>
-      <c r="M40" s="235"/>
+      <c r="A40" s="243"/>
+      <c r="B40" s="240"/>
+      <c r="C40" s="257"/>
+      <c r="D40" s="259"/>
+      <c r="E40" s="240"/>
+      <c r="F40" s="259"/>
+      <c r="G40" s="261"/>
+      <c r="H40" s="251"/>
+      <c r="I40" s="253"/>
+      <c r="J40" s="253"/>
+      <c r="K40" s="253"/>
+      <c r="L40" s="253"/>
+      <c r="M40" s="255"/>
     </row>
     <row r="41" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="42" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="237"/>
-      <c r="B42" s="268"/>
-      <c r="C42" s="268"/>
-      <c r="D42" s="268"/>
-      <c r="E42" s="268"/>
-      <c r="F42" s="268"/>
-      <c r="G42" s="268"/>
-      <c r="H42" s="269"/>
+      <c r="A42" s="165"/>
+      <c r="B42" s="193"/>
+      <c r="C42" s="193"/>
+      <c r="D42" s="193"/>
+      <c r="E42" s="193"/>
+      <c r="F42" s="193"/>
+      <c r="G42" s="193"/>
+      <c r="H42" s="194"/>
     </row>
     <row r="43" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="238" t="s">
+      <c r="A43" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="239" t="s">
+      <c r="B43" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="239" t="s">
+      <c r="C43" s="167" t="s">
         <v>5</v>
       </c>
-      <c r="D43" s="239" t="s">
+      <c r="D43" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="E43" s="239" t="s">
+      <c r="E43" s="167" t="s">
+        <v>422</v>
+      </c>
+      <c r="F43" s="168" t="s">
         <v>423</v>
       </c>
-      <c r="F43" s="240" t="s">
+      <c r="G43" s="167" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" s="169" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" s="170"/>
+      <c r="B44" s="195"/>
+      <c r="C44" s="195"/>
+      <c r="D44" s="195"/>
+      <c r="E44" s="195"/>
+      <c r="F44" s="195"/>
+      <c r="G44" s="195"/>
+      <c r="H44" s="196"/>
+    </row>
+    <row r="45" spans="1:13" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A45" s="171" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="139" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="140">
+        <v>1</v>
+      </c>
+      <c r="D45" s="239" t="s">
+        <v>366</v>
+      </c>
+      <c r="E45" s="172">
+        <v>1</v>
+      </c>
+      <c r="F45" s="172">
+        <v>1</v>
+      </c>
+      <c r="G45" s="173"/>
+      <c r="H45" s="174"/>
+    </row>
+    <row r="46" spans="1:13" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="192"/>
+      <c r="B46" s="145" t="s">
+        <v>265</v>
+      </c>
+      <c r="C46" s="143">
+        <v>1</v>
+      </c>
+      <c r="D46" s="240"/>
+      <c r="E46" s="175">
+        <v>1</v>
+      </c>
+      <c r="F46" s="175">
+        <v>1</v>
+      </c>
+      <c r="G46" s="176"/>
+      <c r="H46" s="177"/>
+    </row>
+    <row r="47" spans="1:13" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A47" s="135" t="s">
+        <v>387</v>
+      </c>
+      <c r="B47" s="136" t="s">
+        <v>388</v>
+      </c>
+      <c r="C47" s="137">
+        <v>1</v>
+      </c>
+      <c r="D47" s="244" t="s">
+        <v>288</v>
+      </c>
+      <c r="E47" s="178">
+        <v>1</v>
+      </c>
+      <c r="F47" s="178">
+        <v>1</v>
+      </c>
+      <c r="G47" s="179"/>
+      <c r="H47" s="180"/>
+    </row>
+    <row r="48" spans="1:13" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A48" s="191"/>
+      <c r="B48" s="139" t="s">
+        <v>394</v>
+      </c>
+      <c r="C48" s="140">
+        <v>1</v>
+      </c>
+      <c r="D48" s="245"/>
+      <c r="E48" s="172">
+        <v>1</v>
+      </c>
+      <c r="F48" s="172">
+        <v>1</v>
+      </c>
+      <c r="G48" s="173"/>
+      <c r="H48" s="174"/>
+    </row>
+    <row r="49" spans="1:8" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A49" s="191"/>
+      <c r="B49" s="139" t="s">
+        <v>266</v>
+      </c>
+      <c r="C49" s="140">
+        <v>1</v>
+      </c>
+      <c r="D49" s="146" t="s">
+        <v>399</v>
+      </c>
+      <c r="E49" s="172">
+        <v>1</v>
+      </c>
+      <c r="F49" s="181" t="s">
         <v>424</v>
       </c>
-      <c r="G43" s="239" t="s">
-        <v>7</v>
-      </c>
-      <c r="H43" s="241" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" s="242"/>
-      <c r="B44" s="270"/>
-      <c r="C44" s="270"/>
-      <c r="D44" s="270"/>
-      <c r="E44" s="270"/>
-      <c r="F44" s="270"/>
-      <c r="G44" s="270"/>
-      <c r="H44" s="271"/>
-    </row>
-    <row r="45" spans="1:13" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A45" s="243" t="s">
-        <v>10</v>
-      </c>
-      <c r="B45" s="181" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45" s="182">
+      <c r="G49" s="181" t="s">
+        <v>425</v>
+      </c>
+      <c r="H49" s="174"/>
+    </row>
+    <row r="50" spans="1:8" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A50" s="191"/>
+      <c r="B50" s="139" t="s">
+        <v>115</v>
+      </c>
+      <c r="C50" s="140">
         <v>1</v>
       </c>
-      <c r="D45" s="194" t="s">
+      <c r="D50" s="239" t="s">
+        <v>376</v>
+      </c>
+      <c r="E50" s="172">
+        <v>1</v>
+      </c>
+      <c r="F50" s="172">
+        <v>1</v>
+      </c>
+      <c r="G50" s="173"/>
+      <c r="H50" s="174"/>
+    </row>
+    <row r="51" spans="1:8" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A51" s="191"/>
+      <c r="B51" s="139" t="s">
+        <v>405</v>
+      </c>
+      <c r="C51" s="140">
+        <v>1</v>
+      </c>
+      <c r="D51" s="245"/>
+      <c r="E51" s="172">
+        <v>1</v>
+      </c>
+      <c r="F51" s="181" t="s">
+        <v>424</v>
+      </c>
+      <c r="G51" s="173"/>
+      <c r="H51" s="174"/>
+    </row>
+    <row r="52" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="192"/>
+      <c r="B52" s="145" t="s">
+        <v>407</v>
+      </c>
+      <c r="C52" s="143">
+        <v>2</v>
+      </c>
+      <c r="D52" s="144" t="s">
+        <v>426</v>
+      </c>
+      <c r="E52" s="175">
+        <v>1</v>
+      </c>
+      <c r="F52" s="182" t="s">
+        <v>424</v>
+      </c>
+      <c r="G52" s="176"/>
+      <c r="H52" s="177"/>
+    </row>
+    <row r="53" spans="1:8" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A53" s="135" t="s">
+        <v>413</v>
+      </c>
+      <c r="B53" s="136" t="s">
+        <v>414</v>
+      </c>
+      <c r="C53" s="137">
+        <v>3</v>
+      </c>
+      <c r="D53" s="183" t="s">
+        <v>426</v>
+      </c>
+      <c r="E53" s="178">
+        <v>1</v>
+      </c>
+      <c r="F53" s="184" t="s">
+        <v>424</v>
+      </c>
+      <c r="G53" s="179"/>
+      <c r="H53" s="180"/>
+    </row>
+    <row r="54" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="192"/>
+      <c r="B54" s="145" t="s">
+        <v>415</v>
+      </c>
+      <c r="C54" s="143">
+        <v>2</v>
+      </c>
+      <c r="D54" s="144" t="s">
+        <v>376</v>
+      </c>
+      <c r="E54" s="175">
+        <v>1</v>
+      </c>
+      <c r="F54" s="175">
+        <v>1</v>
+      </c>
+      <c r="G54" s="176"/>
+      <c r="H54" s="177"/>
+    </row>
+    <row r="55" spans="1:8" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A55" s="135" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" s="136" t="s">
+        <v>71</v>
+      </c>
+      <c r="C55" s="137">
+        <v>3</v>
+      </c>
+      <c r="D55" s="183" t="s">
         <v>366</v>
       </c>
-      <c r="E45" s="244">
+      <c r="E55" s="178">
         <v>1</v>
       </c>
-      <c r="F45" s="244">
+      <c r="F55" s="178">
         <v>1</v>
       </c>
-      <c r="G45" s="245"/>
-      <c r="H45" s="246"/>
-    </row>
-    <row r="46" spans="1:13" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="267"/>
-      <c r="B46" s="203" t="s">
-        <v>265</v>
-      </c>
-      <c r="C46" s="185">
+      <c r="G55" s="179"/>
+      <c r="H55" s="180"/>
+    </row>
+    <row r="56" spans="1:8" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A56" s="191"/>
+      <c r="B56" s="139" t="s">
+        <v>267</v>
+      </c>
+      <c r="C56" s="140">
+        <v>2</v>
+      </c>
+      <c r="D56" s="146" t="s">
+        <v>288</v>
+      </c>
+      <c r="E56" s="172">
         <v>1</v>
       </c>
-      <c r="D46" s="196"/>
-      <c r="E46" s="247">
+      <c r="F56" s="172">
         <v>1</v>
       </c>
-      <c r="F46" s="247">
+      <c r="G56" s="173"/>
+      <c r="H56" s="174"/>
+    </row>
+    <row r="57" spans="1:8" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A57" s="191"/>
+      <c r="B57" s="139" t="s">
+        <v>268</v>
+      </c>
+      <c r="C57" s="140">
+        <v>3</v>
+      </c>
+      <c r="D57" s="239" t="s">
+        <v>376</v>
+      </c>
+      <c r="E57" s="172">
         <v>1</v>
       </c>
-      <c r="G46" s="248"/>
-      <c r="H46" s="249"/>
-    </row>
-    <row r="47" spans="1:13" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A47" s="177" t="s">
-        <v>387</v>
-      </c>
-      <c r="B47" s="178" t="s">
-        <v>388</v>
-      </c>
-      <c r="C47" s="179">
+      <c r="F57" s="172">
         <v>1</v>
       </c>
-      <c r="D47" s="192" t="s">
-        <v>288</v>
-      </c>
-      <c r="E47" s="250">
+      <c r="G57" s="173"/>
+      <c r="H57" s="174"/>
+    </row>
+    <row r="58" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="192"/>
+      <c r="B58" s="142" t="s">
+        <v>378</v>
+      </c>
+      <c r="C58" s="143">
+        <v>3</v>
+      </c>
+      <c r="D58" s="240"/>
+      <c r="E58" s="175">
         <v>1</v>
       </c>
-      <c r="F47" s="250">
+      <c r="F58" s="175">
         <v>1</v>
       </c>
-      <c r="G47" s="251"/>
-      <c r="H47" s="252"/>
-    </row>
-    <row r="48" spans="1:13" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A48" s="266"/>
-      <c r="B48" s="181" t="s">
-        <v>394</v>
-      </c>
-      <c r="C48" s="182">
+      <c r="G58" s="176"/>
+      <c r="H58" s="177"/>
+    </row>
+    <row r="59" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="185" t="s">
+        <v>68</v>
+      </c>
+      <c r="B59" s="186" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="138">
         <v>1</v>
       </c>
-      <c r="D48" s="193"/>
-      <c r="E48" s="244">
+      <c r="D59" s="187" t="s">
+        <v>366</v>
+      </c>
+      <c r="E59" s="188">
         <v>1</v>
       </c>
-      <c r="F48" s="244">
+      <c r="F59" s="188">
         <v>1</v>
       </c>
-      <c r="G48" s="245"/>
-      <c r="H48" s="246"/>
-    </row>
-    <row r="49" spans="1:8" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A49" s="266"/>
-      <c r="B49" s="181" t="s">
-        <v>266</v>
-      </c>
-      <c r="C49" s="182">
-        <v>1</v>
-      </c>
-      <c r="D49" s="204" t="s">
-        <v>399</v>
-      </c>
-      <c r="E49" s="244">
-        <v>1</v>
-      </c>
-      <c r="F49" s="253" t="s">
-        <v>425</v>
-      </c>
-      <c r="G49" s="253" t="s">
-        <v>426</v>
-      </c>
-      <c r="H49" s="246"/>
-    </row>
-    <row r="50" spans="1:8" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A50" s="266"/>
-      <c r="B50" s="181" t="s">
-        <v>115</v>
-      </c>
-      <c r="C50" s="182">
-        <v>1</v>
-      </c>
-      <c r="D50" s="194" t="s">
-        <v>376</v>
-      </c>
-      <c r="E50" s="244">
-        <v>1</v>
-      </c>
-      <c r="F50" s="244">
-        <v>1</v>
-      </c>
-      <c r="G50" s="245"/>
-      <c r="H50" s="246"/>
-    </row>
-    <row r="51" spans="1:8" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A51" s="266"/>
-      <c r="B51" s="181" t="s">
-        <v>405</v>
-      </c>
-      <c r="C51" s="182">
-        <v>1</v>
-      </c>
-      <c r="D51" s="193"/>
-      <c r="E51" s="244">
-        <v>1</v>
-      </c>
-      <c r="F51" s="253" t="s">
-        <v>425</v>
-      </c>
-      <c r="G51" s="245"/>
-      <c r="H51" s="246"/>
-    </row>
-    <row r="52" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="267"/>
-      <c r="B52" s="203" t="s">
-        <v>407</v>
-      </c>
-      <c r="C52" s="185">
-        <v>2</v>
-      </c>
-      <c r="D52" s="202" t="s">
-        <v>427</v>
-      </c>
-      <c r="E52" s="247">
-        <v>1</v>
-      </c>
-      <c r="F52" s="254" t="s">
-        <v>425</v>
-      </c>
-      <c r="G52" s="248"/>
-      <c r="H52" s="249"/>
-    </row>
-    <row r="53" spans="1:8" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A53" s="177" t="s">
-        <v>413</v>
-      </c>
-      <c r="B53" s="178" t="s">
-        <v>414</v>
-      </c>
-      <c r="C53" s="179">
-        <v>3</v>
-      </c>
-      <c r="D53" s="255" t="s">
-        <v>427</v>
-      </c>
-      <c r="E53" s="250">
-        <v>1</v>
-      </c>
-      <c r="F53" s="256" t="s">
-        <v>425</v>
-      </c>
-      <c r="G53" s="251"/>
-      <c r="H53" s="252"/>
-    </row>
-    <row r="54" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="267"/>
-      <c r="B54" s="203" t="s">
-        <v>415</v>
-      </c>
-      <c r="C54" s="185">
-        <v>2</v>
-      </c>
-      <c r="D54" s="202" t="s">
-        <v>376</v>
-      </c>
-      <c r="E54" s="247">
-        <v>1</v>
-      </c>
-      <c r="F54" s="247">
-        <v>1</v>
-      </c>
-      <c r="G54" s="248"/>
-      <c r="H54" s="249"/>
-    </row>
-    <row r="55" spans="1:8" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A55" s="177" t="s">
-        <v>67</v>
-      </c>
-      <c r="B55" s="178" t="s">
-        <v>71</v>
-      </c>
-      <c r="C55" s="179">
-        <v>3</v>
-      </c>
-      <c r="D55" s="255" t="s">
-        <v>366</v>
-      </c>
-      <c r="E55" s="250">
-        <v>1</v>
-      </c>
-      <c r="F55" s="250">
-        <v>1</v>
-      </c>
-      <c r="G55" s="251"/>
-      <c r="H55" s="252"/>
-    </row>
-    <row r="56" spans="1:8" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A56" s="266"/>
-      <c r="B56" s="181" t="s">
-        <v>267</v>
-      </c>
-      <c r="C56" s="182">
-        <v>2</v>
-      </c>
-      <c r="D56" s="204" t="s">
-        <v>288</v>
-      </c>
-      <c r="E56" s="244">
-        <v>1</v>
-      </c>
-      <c r="F56" s="244">
-        <v>1</v>
-      </c>
-      <c r="G56" s="245"/>
-      <c r="H56" s="246"/>
-    </row>
-    <row r="57" spans="1:8" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A57" s="266"/>
-      <c r="B57" s="181" t="s">
-        <v>268</v>
-      </c>
-      <c r="C57" s="182">
-        <v>3</v>
-      </c>
-      <c r="D57" s="194" t="s">
-        <v>376</v>
-      </c>
-      <c r="E57" s="244">
-        <v>1</v>
-      </c>
-      <c r="F57" s="244">
-        <v>1</v>
-      </c>
-      <c r="G57" s="245"/>
-      <c r="H57" s="246"/>
-    </row>
-    <row r="58" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="267"/>
-      <c r="B58" s="184" t="s">
-        <v>378</v>
-      </c>
-      <c r="C58" s="185">
-        <v>3</v>
-      </c>
-      <c r="D58" s="196"/>
-      <c r="E58" s="247">
-        <v>1</v>
-      </c>
-      <c r="F58" s="247">
-        <v>1</v>
-      </c>
-      <c r="G58" s="248"/>
-      <c r="H58" s="249"/>
-    </row>
-    <row r="59" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="257" t="s">
-        <v>68</v>
-      </c>
-      <c r="B59" s="258" t="s">
-        <v>69</v>
-      </c>
-      <c r="C59" s="180">
-        <v>1</v>
-      </c>
-      <c r="D59" s="259" t="s">
-        <v>366</v>
-      </c>
-      <c r="E59" s="260">
-        <v>1</v>
-      </c>
-      <c r="F59" s="260">
-        <v>1</v>
-      </c>
-      <c r="G59" s="261"/>
-      <c r="H59" s="262"/>
+      <c r="G59" s="189"/>
+      <c r="H59" s="190"/>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="A1:A3"/>
     <mergeCell ref="D57:D58"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="A9:A24"/>
@@ -27316,51 +27362,9 @@
     <mergeCell ref="D45:D46"/>
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
     <mergeCell ref="B30:B31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="B37:B38"/>
     <mergeCell ref="B25:B28"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="E21:E23"/>
     <mergeCell ref="B13:B15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="F1:I1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27387,12 +27391,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="148"/>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="150"/>
+      <c r="A1" s="220"/>
+      <c r="B1" s="221"/>
+      <c r="C1" s="221"/>
+      <c r="D1" s="221"/>
+      <c r="E1" s="221"/>
+      <c r="F1" s="222"/>
     </row>
     <row r="2" spans="1:6" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
@@ -27415,15 +27419,15 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="159"/>
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="161"/>
+      <c r="A3" s="211"/>
+      <c r="B3" s="212"/>
+      <c r="C3" s="212"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="212"/>
+      <c r="F3" s="213"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="155" t="s">
+      <c r="A4" s="224" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="74" t="s">
@@ -27432,26 +27436,26 @@
       <c r="C4" s="117">
         <v>1</v>
       </c>
-      <c r="D4" s="145" t="s">
+      <c r="D4" s="228" t="s">
         <v>283</v>
       </c>
       <c r="E4" s="33"/>
       <c r="F4" s="34"/>
     </row>
     <row r="5" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="165"/>
+      <c r="A5" s="230"/>
       <c r="B5" s="75" t="s">
         <v>265</v>
       </c>
       <c r="C5" s="118">
         <v>1</v>
       </c>
-      <c r="D5" s="158"/>
+      <c r="D5" s="229"/>
       <c r="E5" s="35"/>
       <c r="F5" s="36"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="151" t="s">
+      <c r="A6" s="209" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="76" t="s">
@@ -27460,26 +27464,26 @@
       <c r="C6" s="116">
         <v>1</v>
       </c>
-      <c r="D6" s="157" t="s">
+      <c r="D6" s="226" t="s">
         <v>308</v>
       </c>
       <c r="E6" s="31"/>
       <c r="F6" s="32"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="152"/>
+      <c r="A7" s="210"/>
       <c r="B7" s="74" t="s">
         <v>111</v>
       </c>
       <c r="C7" s="117">
         <v>1</v>
       </c>
-      <c r="D7" s="147"/>
+      <c r="D7" s="225"/>
       <c r="E7" s="33"/>
       <c r="F7" s="34"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="152"/>
+      <c r="A8" s="210"/>
       <c r="B8" s="77" t="s">
         <v>266</v>
       </c>
@@ -27493,33 +27497,33 @@
       <c r="F8" s="34"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="152"/>
+      <c r="A9" s="210"/>
       <c r="B9" s="74" t="s">
         <v>115</v>
       </c>
       <c r="C9" s="117">
         <v>1</v>
       </c>
-      <c r="D9" s="145" t="s">
+      <c r="D9" s="228" t="s">
         <v>289</v>
       </c>
       <c r="E9" s="33"/>
       <c r="F9" s="34"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="152"/>
+      <c r="A10" s="210"/>
       <c r="B10" s="77" t="s">
         <v>295</v>
       </c>
       <c r="C10" s="117">
         <v>1</v>
       </c>
-      <c r="D10" s="147"/>
+      <c r="D10" s="225"/>
       <c r="E10" s="33"/>
       <c r="F10" s="34"/>
     </row>
     <row r="11" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="165"/>
+      <c r="A11" s="230"/>
       <c r="B11" s="79" t="s">
         <v>43</v>
       </c>
@@ -27533,7 +27537,7 @@
       <c r="F11" s="34"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="151" t="s">
+      <c r="A12" s="209" t="s">
         <v>45</v>
       </c>
       <c r="B12" s="73" t="s">
@@ -27549,7 +27553,7 @@
       <c r="F12" s="32"/>
     </row>
     <row r="13" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="165"/>
+      <c r="A13" s="230"/>
       <c r="B13" s="68" t="s">
         <v>139</v>
       </c>
@@ -27563,7 +27567,7 @@
       <c r="F13" s="36"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="151" t="s">
+      <c r="A14" s="209" t="s">
         <v>67</v>
       </c>
       <c r="B14" s="78" t="s">
@@ -27579,7 +27583,7 @@
       <c r="F14" s="56"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="152"/>
+      <c r="A15" s="210"/>
       <c r="B15" s="78" t="s">
         <v>267</v>
       </c>
@@ -27593,28 +27597,28 @@
       <c r="F15" s="34"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="152"/>
+      <c r="A16" s="210"/>
       <c r="B16" s="74" t="s">
         <v>268</v>
       </c>
       <c r="C16" s="117">
         <v>3</v>
       </c>
-      <c r="D16" s="145" t="s">
+      <c r="D16" s="228" t="s">
         <v>289</v>
       </c>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
     </row>
     <row r="17" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="165"/>
+      <c r="A17" s="230"/>
       <c r="B17" s="80" t="s">
         <v>269</v>
       </c>
       <c r="C17" s="121">
         <v>3</v>
       </c>
-      <c r="D17" s="158"/>
+      <c r="D17" s="229"/>
       <c r="E17" s="44"/>
       <c r="F17" s="45"/>
     </row>

--- a/WebContent/발표/3조 5차 요구사항정의서.xlsx
+++ b/WebContent/발표/3조 5차 요구사항정의서.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\507-14\Desktop\project05\WebContent\발표\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pkmon\Desktop\project05\WebContent\발표\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="448">
   <si>
     <t>구분</t>
   </si>
@@ -2175,11 +2175,35 @@
     <t>1/6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>1/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0/0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58%(7/12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3394,7 +3418,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="272">
+  <cellXfs count="273">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3986,10 +4010,7 @@
     <xf numFmtId="0" fontId="10" fillId="10" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3998,19 +4019,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4022,10 +4037,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4040,52 +4103,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4103,58 +4136,55 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4172,43 +4202,40 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="12" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="12" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -4574,10 +4601,10 @@
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="206" t="s">
+      <c r="B3" s="203" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="197" t="s">
+      <c r="C3" s="200" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="15" t="s">
@@ -4594,8 +4621,8 @@
       <c r="K3" s="11"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="207"/>
-      <c r="C4" s="198"/>
+      <c r="B4" s="204"/>
+      <c r="C4" s="201"/>
       <c r="D4" s="13" t="s">
         <v>13</v>
       </c>
@@ -4610,8 +4637,8 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="207"/>
-      <c r="C5" s="201"/>
+      <c r="B5" s="204"/>
+      <c r="C5" s="202"/>
       <c r="D5" s="16" t="s">
         <v>15</v>
       </c>
@@ -4626,8 +4653,8 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="207"/>
-      <c r="C6" s="197" t="s">
+      <c r="B6" s="204"/>
+      <c r="C6" s="200" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="12" t="s">
@@ -4644,8 +4671,8 @@
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="207"/>
-      <c r="C7" s="198"/>
+      <c r="B7" s="204"/>
+      <c r="C7" s="201"/>
       <c r="D7" s="13" t="s">
         <v>20</v>
       </c>
@@ -4660,8 +4687,8 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="208"/>
-      <c r="C8" s="201"/>
+      <c r="B8" s="205"/>
+      <c r="C8" s="202"/>
       <c r="D8" s="16" t="s">
         <v>17</v>
       </c>
@@ -4678,10 +4705,10 @@
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="205" t="s">
+      <c r="B9" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="197" t="s">
+      <c r="C9" s="200" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="15" t="s">
@@ -4698,8 +4725,8 @@
       <c r="K9" s="11"/>
     </row>
     <row r="10" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="199"/>
-      <c r="C10" s="201"/>
+      <c r="B10" s="198"/>
+      <c r="C10" s="202"/>
       <c r="D10" s="17" t="s">
         <v>25</v>
       </c>
@@ -4714,11 +4741,11 @@
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="199"/>
-      <c r="C11" s="197" t="s">
+      <c r="B11" s="198"/>
+      <c r="C11" s="200" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="202" t="s">
+      <c r="D11" s="206" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="10" t="s">
@@ -4732,9 +4759,9 @@
       <c r="K11" s="11"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="199"/>
-      <c r="C12" s="198"/>
-      <c r="D12" s="204"/>
+      <c r="B12" s="198"/>
+      <c r="C12" s="201"/>
+      <c r="D12" s="207"/>
       <c r="E12" s="1" t="s">
         <v>34</v>
       </c>
@@ -4746,8 +4773,8 @@
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="199"/>
-      <c r="C13" s="198"/>
+      <c r="B13" s="198"/>
+      <c r="C13" s="201"/>
       <c r="D13" s="13" t="s">
         <v>31</v>
       </c>
@@ -4762,8 +4789,8 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="199"/>
-      <c r="C14" s="198"/>
+      <c r="B14" s="198"/>
+      <c r="C14" s="201"/>
       <c r="D14" s="13" t="s">
         <v>32</v>
       </c>
@@ -4778,8 +4805,8 @@
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="199"/>
-      <c r="C15" s="201"/>
+      <c r="B15" s="198"/>
+      <c r="C15" s="202"/>
       <c r="D15" s="17" t="s">
         <v>35</v>
       </c>
@@ -4796,8 +4823,8 @@
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="199"/>
-      <c r="C16" s="197" t="s">
+      <c r="B16" s="198"/>
+      <c r="C16" s="200" t="s">
         <v>38</v>
       </c>
       <c r="D16" s="15" t="s">
@@ -4814,8 +4841,8 @@
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="199"/>
-      <c r="C17" s="198"/>
+      <c r="B17" s="198"/>
+      <c r="C17" s="201"/>
       <c r="D17" s="13" t="s">
         <v>31</v>
       </c>
@@ -4830,8 +4857,8 @@
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="199"/>
-      <c r="C18" s="198"/>
+      <c r="B18" s="198"/>
+      <c r="C18" s="201"/>
       <c r="D18" s="13" t="s">
         <v>42</v>
       </c>
@@ -4846,8 +4873,8 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="200"/>
-      <c r="C19" s="201"/>
+      <c r="B19" s="199"/>
+      <c r="C19" s="202"/>
       <c r="D19" s="17" t="s">
         <v>35</v>
       </c>
@@ -4862,10 +4889,10 @@
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="205" t="s">
+      <c r="B20" s="197" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="197" t="s">
+      <c r="C20" s="200" t="s">
         <v>46</v>
       </c>
       <c r="D20" s="15" t="s">
@@ -4882,8 +4909,8 @@
       <c r="K20" s="11"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="199"/>
-      <c r="C21" s="198"/>
+      <c r="B21" s="198"/>
+      <c r="C21" s="201"/>
       <c r="D21" s="13" t="s">
         <v>48</v>
       </c>
@@ -4898,8 +4925,8 @@
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="199"/>
-      <c r="C22" s="201"/>
+      <c r="B22" s="198"/>
+      <c r="C22" s="202"/>
       <c r="D22" s="16" t="s">
         <v>52</v>
       </c>
@@ -4914,7 +4941,7 @@
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="199"/>
+      <c r="B23" s="198"/>
       <c r="C23" s="21" t="s">
         <v>54</v>
       </c>
@@ -4932,10 +4959,10 @@
       <c r="K23" s="20"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="205" t="s">
+      <c r="B24" s="197" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="197" t="s">
+      <c r="C24" s="200" t="s">
         <v>49</v>
       </c>
       <c r="D24" s="15" t="s">
@@ -4952,8 +4979,8 @@
       <c r="K24" s="11"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="199"/>
-      <c r="C25" s="198"/>
+      <c r="B25" s="198"/>
+      <c r="C25" s="201"/>
       <c r="D25" s="13" t="s">
         <v>59</v>
       </c>
@@ -4968,8 +4995,8 @@
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="199"/>
-      <c r="C26" s="201"/>
+      <c r="B26" s="198"/>
+      <c r="C26" s="202"/>
       <c r="D26" s="16" t="s">
         <v>61</v>
       </c>
@@ -4984,7 +5011,7 @@
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="199"/>
+      <c r="B27" s="198"/>
       <c r="C27" s="23" t="s">
         <v>56</v>
       </c>
@@ -5002,7 +5029,7 @@
       <c r="K27" s="20"/>
     </row>
     <row r="28" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="200"/>
+      <c r="B28" s="199"/>
       <c r="C28" s="23" t="s">
         <v>44</v>
       </c>
@@ -5040,10 +5067,10 @@
       <c r="K29" s="20"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="197" t="s">
+      <c r="B30" s="200" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="202" t="s">
+      <c r="C30" s="206" t="s">
         <v>71</v>
       </c>
       <c r="D30" s="15" t="s">
@@ -5060,8 +5087,8 @@
       <c r="K30" s="11"/>
     </row>
     <row r="31" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="198"/>
-      <c r="C31" s="203"/>
+      <c r="B31" s="201"/>
+      <c r="C31" s="208"/>
       <c r="D31" s="14" t="s">
         <v>74</v>
       </c>
@@ -5076,8 +5103,8 @@
       <c r="K31" s="27"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="199"/>
-      <c r="C32" s="197" t="s">
+      <c r="B32" s="198"/>
+      <c r="C32" s="200" t="s">
         <v>85</v>
       </c>
       <c r="D32" s="15" t="s">
@@ -5094,8 +5121,8 @@
       <c r="K32" s="11"/>
     </row>
     <row r="33" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="199"/>
-      <c r="C33" s="201"/>
+      <c r="B33" s="198"/>
+      <c r="C33" s="202"/>
       <c r="D33" s="16" t="s">
         <v>88</v>
       </c>
@@ -5110,8 +5137,8 @@
       <c r="K33" s="4"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="199"/>
-      <c r="C34" s="197" t="s">
+      <c r="B34" s="198"/>
+      <c r="C34" s="200" t="s">
         <v>90</v>
       </c>
       <c r="D34" s="15" t="s">
@@ -5128,8 +5155,8 @@
       <c r="K34" s="11"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="199"/>
-      <c r="C35" s="198"/>
+      <c r="B35" s="198"/>
+      <c r="C35" s="201"/>
       <c r="D35" s="13"/>
       <c r="E35" s="1" t="s">
         <v>34</v>
@@ -5142,8 +5169,8 @@
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="199"/>
-      <c r="C36" s="198"/>
+      <c r="B36" s="198"/>
+      <c r="C36" s="201"/>
       <c r="D36" s="13" t="s">
         <v>31</v>
       </c>
@@ -5158,8 +5185,8 @@
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="199"/>
-      <c r="C37" s="198"/>
+      <c r="B37" s="198"/>
+      <c r="C37" s="201"/>
       <c r="D37" s="13" t="s">
         <v>92</v>
       </c>
@@ -5174,8 +5201,8 @@
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="199"/>
-      <c r="C38" s="201"/>
+      <c r="B38" s="198"/>
+      <c r="C38" s="202"/>
       <c r="D38" s="16" t="s">
         <v>94</v>
       </c>
@@ -5190,8 +5217,8 @@
       <c r="K38" s="4"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="199"/>
-      <c r="C39" s="197" t="s">
+      <c r="B39" s="198"/>
+      <c r="C39" s="200" t="s">
         <v>38</v>
       </c>
       <c r="D39" s="15" t="s">
@@ -5208,8 +5235,8 @@
       <c r="K39" s="11"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="199"/>
-      <c r="C40" s="198"/>
+      <c r="B40" s="198"/>
+      <c r="C40" s="201"/>
       <c r="D40" s="13" t="s">
         <v>31</v>
       </c>
@@ -5224,8 +5251,8 @@
       <c r="K40" s="2"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="199"/>
-      <c r="C41" s="198"/>
+      <c r="B41" s="198"/>
+      <c r="C41" s="201"/>
       <c r="D41" s="13" t="s">
         <v>92</v>
       </c>
@@ -5240,8 +5267,8 @@
       <c r="K41" s="2"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="199"/>
-      <c r="C42" s="198"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="201"/>
       <c r="D42" s="13" t="s">
         <v>35</v>
       </c>
@@ -5256,8 +5283,8 @@
       <c r="K42" s="2"/>
     </row>
     <row r="43" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="199"/>
-      <c r="C43" s="201"/>
+      <c r="B43" s="198"/>
+      <c r="C43" s="202"/>
       <c r="D43" s="16" t="s">
         <v>97</v>
       </c>
@@ -5272,8 +5299,8 @@
       <c r="K43" s="4"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="199"/>
-      <c r="C44" s="197" t="s">
+      <c r="B44" s="198"/>
+      <c r="C44" s="200" t="s">
         <v>76</v>
       </c>
       <c r="D44" s="15" t="s">
@@ -5290,8 +5317,8 @@
       <c r="K44" s="11"/>
     </row>
     <row r="45" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="199"/>
-      <c r="C45" s="201"/>
+      <c r="B45" s="198"/>
+      <c r="C45" s="202"/>
       <c r="D45" s="16" t="s">
         <v>79</v>
       </c>
@@ -5306,8 +5333,8 @@
       <c r="K45" s="4"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="199"/>
-      <c r="C46" s="197" t="s">
+      <c r="B46" s="198"/>
+      <c r="C46" s="200" t="s">
         <v>81</v>
       </c>
       <c r="D46" s="15" t="s">
@@ -5324,8 +5351,8 @@
       <c r="K46" s="11"/>
     </row>
     <row r="47" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="199"/>
-      <c r="C47" s="201"/>
+      <c r="B47" s="198"/>
+      <c r="C47" s="202"/>
       <c r="D47" s="16" t="s">
         <v>83</v>
       </c>
@@ -5340,8 +5367,8 @@
       <c r="K47" s="4"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="199"/>
-      <c r="C48" s="197" t="s">
+      <c r="B48" s="198"/>
+      <c r="C48" s="200" t="s">
         <v>56</v>
       </c>
       <c r="D48" s="15" t="s">
@@ -5358,8 +5385,8 @@
       <c r="K48" s="11"/>
     </row>
     <row r="49" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="200"/>
-      <c r="C49" s="201"/>
+      <c r="B49" s="199"/>
+      <c r="C49" s="202"/>
       <c r="D49" s="16" t="s">
         <v>101</v>
       </c>
@@ -5375,18 +5402,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B9:B19"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C22"/>
     <mergeCell ref="B30:B49"/>
     <mergeCell ref="C39:C43"/>
     <mergeCell ref="C34:C38"/>
@@ -5395,6 +5410,18 @@
     <mergeCell ref="C48:C49"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B9:B19"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5424,15 +5451,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="220"/>
-      <c r="B1" s="221"/>
-      <c r="C1" s="221"/>
-      <c r="D1" s="221"/>
-      <c r="E1" s="221"/>
-      <c r="F1" s="221"/>
-      <c r="G1" s="221"/>
-      <c r="H1" s="221"/>
-      <c r="I1" s="222"/>
+      <c r="A1" s="213"/>
+      <c r="B1" s="214"/>
+      <c r="C1" s="214"/>
+      <c r="D1" s="214"/>
+      <c r="E1" s="214"/>
+      <c r="F1" s="214"/>
+      <c r="G1" s="214"/>
+      <c r="H1" s="214"/>
+      <c r="I1" s="215"/>
     </row>
     <row r="2" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
@@ -5464,21 +5491,21 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="211"/>
-      <c r="B3" s="212"/>
-      <c r="C3" s="212"/>
-      <c r="D3" s="212"/>
-      <c r="E3" s="212"/>
-      <c r="F3" s="212"/>
-      <c r="G3" s="212"/>
-      <c r="H3" s="212"/>
-      <c r="I3" s="213"/>
+      <c r="A3" s="224"/>
+      <c r="B3" s="225"/>
+      <c r="C3" s="225"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="225"/>
+      <c r="F3" s="225"/>
+      <c r="G3" s="225"/>
+      <c r="H3" s="225"/>
+      <c r="I3" s="226"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="214" t="s">
+      <c r="A4" s="227" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="217" t="s">
+      <c r="B4" s="221" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="37" t="s">
@@ -5494,8 +5521,8 @@
       <c r="I4" s="32"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="215"/>
-      <c r="B5" s="218"/>
+      <c r="A5" s="219"/>
+      <c r="B5" s="209"/>
       <c r="C5" s="38" t="s">
         <v>13</v>
       </c>
@@ -5509,8 +5536,8 @@
       <c r="I5" s="34"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="215"/>
-      <c r="B6" s="218"/>
+      <c r="A6" s="219"/>
+      <c r="B6" s="209"/>
       <c r="C6" s="38" t="s">
         <v>15</v>
       </c>
@@ -5524,8 +5551,8 @@
       <c r="I6" s="34"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="215"/>
-      <c r="B7" s="218" t="s">
+      <c r="A7" s="219"/>
+      <c r="B7" s="209" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="38" t="s">
@@ -5541,8 +5568,8 @@
       <c r="I7" s="34"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="215"/>
-      <c r="B8" s="218"/>
+      <c r="A8" s="219"/>
+      <c r="B8" s="209"/>
       <c r="C8" s="38" t="s">
         <v>20</v>
       </c>
@@ -5556,8 +5583,8 @@
       <c r="I8" s="34"/>
     </row>
     <row r="9" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="216"/>
-      <c r="B9" s="219"/>
+      <c r="A9" s="228"/>
+      <c r="B9" s="229"/>
       <c r="C9" s="39" t="s">
         <v>17</v>
       </c>
@@ -5571,10 +5598,10 @@
       <c r="I9" s="36"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="209" t="s">
+      <c r="A10" s="216" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="226" t="s">
+      <c r="B10" s="222" t="s">
         <v>103</v>
       </c>
       <c r="C10" s="37" t="s">
@@ -5590,8 +5617,8 @@
       <c r="I10" s="32"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="210"/>
-      <c r="B11" s="227"/>
+      <c r="A11" s="217"/>
+      <c r="B11" s="211"/>
       <c r="C11" s="38" t="s">
         <v>105</v>
       </c>
@@ -5605,8 +5632,8 @@
       <c r="I11" s="34"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="210"/>
-      <c r="B12" s="227"/>
+      <c r="A12" s="217"/>
+      <c r="B12" s="211"/>
       <c r="C12" s="38" t="s">
         <v>92</v>
       </c>
@@ -5620,8 +5647,8 @@
       <c r="I12" s="34"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="210"/>
-      <c r="B13" s="225"/>
+      <c r="A13" s="217"/>
+      <c r="B13" s="212"/>
       <c r="C13" s="38" t="s">
         <v>109</v>
       </c>
@@ -5637,8 +5664,8 @@
       <c r="I13" s="34"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="210"/>
-      <c r="B14" s="228" t="s">
+      <c r="A14" s="217"/>
+      <c r="B14" s="210" t="s">
         <v>180</v>
       </c>
       <c r="C14" s="38" t="s">
@@ -5654,8 +5681,8 @@
       <c r="I14" s="34"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="210"/>
-      <c r="B15" s="227"/>
+      <c r="A15" s="217"/>
+      <c r="B15" s="211"/>
       <c r="C15" s="38" t="s">
         <v>184</v>
       </c>
@@ -5669,8 +5696,8 @@
       <c r="I15" s="34"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="210"/>
-      <c r="B16" s="228" t="s">
+      <c r="A16" s="217"/>
+      <c r="B16" s="210" t="s">
         <v>111</v>
       </c>
       <c r="C16" s="58" t="s">
@@ -5686,8 +5713,8 @@
       <c r="I16" s="34"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="210"/>
-      <c r="B17" s="227"/>
+      <c r="A17" s="217"/>
+      <c r="B17" s="211"/>
       <c r="C17" s="38" t="s">
         <v>105</v>
       </c>
@@ -5701,8 +5728,8 @@
       <c r="I17" s="34"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="210"/>
-      <c r="B18" s="227"/>
+      <c r="A18" s="217"/>
+      <c r="B18" s="211"/>
       <c r="C18" s="38" t="s">
         <v>113</v>
       </c>
@@ -5718,8 +5745,8 @@
       <c r="I18" s="34"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="210"/>
-      <c r="B19" s="225"/>
+      <c r="A19" s="217"/>
+      <c r="B19" s="212"/>
       <c r="C19" s="38" t="s">
         <v>109</v>
       </c>
@@ -5733,8 +5760,8 @@
       <c r="I19" s="34"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="210"/>
-      <c r="B20" s="228" t="s">
+      <c r="A20" s="217"/>
+      <c r="B20" s="210" t="s">
         <v>193</v>
       </c>
       <c r="C20" s="59" t="s">
@@ -5750,8 +5777,8 @@
       <c r="I20" s="34"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="210"/>
-      <c r="B21" s="225"/>
+      <c r="A21" s="217"/>
+      <c r="B21" s="212"/>
       <c r="C21" s="59" t="s">
         <v>194</v>
       </c>
@@ -5765,8 +5792,8 @@
       <c r="I21" s="34"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="210"/>
-      <c r="B22" s="228" t="s">
+      <c r="A22" s="217"/>
+      <c r="B22" s="210" t="s">
         <v>115</v>
       </c>
       <c r="C22" s="38" t="s">
@@ -5782,8 +5809,8 @@
       <c r="I22" s="34"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="210"/>
-      <c r="B23" s="227"/>
+      <c r="A23" s="217"/>
+      <c r="B23" s="211"/>
       <c r="C23" s="38" t="s">
         <v>118</v>
       </c>
@@ -5797,8 +5824,8 @@
       <c r="I23" s="34"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="210"/>
-      <c r="B24" s="227"/>
+      <c r="A24" s="217"/>
+      <c r="B24" s="211"/>
       <c r="C24" s="38" t="s">
         <v>120</v>
       </c>
@@ -5812,8 +5839,8 @@
       <c r="I24" s="34"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="210"/>
-      <c r="B25" s="225"/>
+      <c r="A25" s="217"/>
+      <c r="B25" s="212"/>
       <c r="C25" s="38" t="s">
         <v>122</v>
       </c>
@@ -5827,8 +5854,8 @@
       <c r="I25" s="34"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="210"/>
-      <c r="B26" s="228" t="s">
+      <c r="A26" s="217"/>
+      <c r="B26" s="210" t="s">
         <v>174</v>
       </c>
       <c r="C26" s="38" t="s">
@@ -5844,8 +5871,8 @@
       <c r="I26" s="34"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="210"/>
-      <c r="B27" s="227"/>
+      <c r="A27" s="217"/>
+      <c r="B27" s="211"/>
       <c r="C27" s="38" t="s">
         <v>178</v>
       </c>
@@ -5859,8 +5886,8 @@
       <c r="I27" s="34"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="210"/>
-      <c r="B28" s="227"/>
+      <c r="A28" s="217"/>
+      <c r="B28" s="211"/>
       <c r="C28" s="38" t="s">
         <v>182</v>
       </c>
@@ -5874,8 +5901,8 @@
       <c r="I28" s="34"/>
     </row>
     <row r="29" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="210"/>
-      <c r="B29" s="227"/>
+      <c r="A29" s="217"/>
+      <c r="B29" s="211"/>
       <c r="C29" s="58" t="s">
         <v>176</v>
       </c>
@@ -5889,10 +5916,10 @@
       <c r="I29" s="45"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="209" t="s">
+      <c r="A30" s="216" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="217" t="s">
+      <c r="B30" s="221" t="s">
         <v>127</v>
       </c>
       <c r="C30" s="62" t="s">
@@ -5908,8 +5935,8 @@
       <c r="I30" s="32"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="210"/>
-      <c r="B31" s="218"/>
+      <c r="A31" s="217"/>
+      <c r="B31" s="209"/>
       <c r="C31" s="63" t="s">
         <v>129</v>
       </c>
@@ -5923,8 +5950,8 @@
       <c r="I31" s="34"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="210"/>
-      <c r="B32" s="218"/>
+      <c r="A32" s="217"/>
+      <c r="B32" s="209"/>
       <c r="C32" s="63" t="s">
         <v>132</v>
       </c>
@@ -5938,8 +5965,8 @@
       <c r="I32" s="34"/>
     </row>
     <row r="33" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A33" s="210"/>
-      <c r="B33" s="218"/>
+      <c r="A33" s="217"/>
+      <c r="B33" s="209"/>
       <c r="C33" s="63" t="s">
         <v>125</v>
       </c>
@@ -5953,8 +5980,8 @@
       <c r="I33" s="34"/>
     </row>
     <row r="34" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A34" s="210"/>
-      <c r="B34" s="218" t="s">
+      <c r="A34" s="217"/>
+      <c r="B34" s="209" t="s">
         <v>133</v>
       </c>
       <c r="C34" s="63" t="s">
@@ -5970,8 +5997,8 @@
       <c r="I34" s="45"/>
     </row>
     <row r="35" spans="1:16384" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="210"/>
-      <c r="B35" s="218"/>
+      <c r="A35" s="217"/>
+      <c r="B35" s="209"/>
       <c r="C35" s="63" t="s">
         <v>134</v>
       </c>
@@ -22360,8 +22387,8 @@
       <c r="XFD35" s="46"/>
     </row>
     <row r="36" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A36" s="210"/>
-      <c r="B36" s="218"/>
+      <c r="A36" s="217"/>
+      <c r="B36" s="209"/>
       <c r="C36" s="64" t="s">
         <v>187</v>
       </c>
@@ -22373,8 +22400,8 @@
       <c r="I36" s="56"/>
     </row>
     <row r="37" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A37" s="210"/>
-      <c r="B37" s="218" t="s">
+      <c r="A37" s="217"/>
+      <c r="B37" s="209" t="s">
         <v>136</v>
       </c>
       <c r="C37" s="63" t="s">
@@ -22390,8 +22417,8 @@
       <c r="I37" s="34"/>
     </row>
     <row r="38" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A38" s="210"/>
-      <c r="B38" s="218"/>
+      <c r="A38" s="217"/>
+      <c r="B38" s="209"/>
       <c r="C38" s="63" t="s">
         <v>92</v>
       </c>
@@ -22405,7 +22432,7 @@
       <c r="I38" s="34"/>
     </row>
     <row r="39" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A39" s="210"/>
+      <c r="A39" s="217"/>
       <c r="B39" s="57" t="s">
         <v>139</v>
       </c>
@@ -22422,10 +22449,10 @@
       <c r="I39" s="34"/>
     </row>
     <row r="40" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A40" s="223" t="s">
+      <c r="A40" s="218" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="225" t="s">
+      <c r="B40" s="212" t="s">
         <v>71</v>
       </c>
       <c r="C40" s="41" t="s">
@@ -22441,8 +22468,8 @@
       <c r="I40" s="56"/>
     </row>
     <row r="41" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A41" s="215"/>
-      <c r="B41" s="218"/>
+      <c r="A41" s="219"/>
+      <c r="B41" s="209"/>
       <c r="C41" s="40" t="s">
         <v>74</v>
       </c>
@@ -22456,8 +22483,8 @@
       <c r="I41" s="34"/>
     </row>
     <row r="42" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A42" s="215"/>
-      <c r="B42" s="218" t="s">
+      <c r="A42" s="219"/>
+      <c r="B42" s="209" t="s">
         <v>152</v>
       </c>
       <c r="C42" s="40" t="s">
@@ -22473,8 +22500,8 @@
       <c r="I42" s="34"/>
     </row>
     <row r="43" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A43" s="215"/>
-      <c r="B43" s="218"/>
+      <c r="A43" s="219"/>
+      <c r="B43" s="209"/>
       <c r="C43" s="40" t="s">
         <v>144</v>
       </c>
@@ -22488,11 +22515,11 @@
       <c r="I43" s="34"/>
     </row>
     <row r="44" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A44" s="215"/>
-      <c r="B44" s="218" t="s">
+      <c r="A44" s="219"/>
+      <c r="B44" s="209" t="s">
         <v>163</v>
       </c>
-      <c r="C44" s="228" t="s">
+      <c r="C44" s="210" t="s">
         <v>162</v>
       </c>
       <c r="D44" s="33" t="s">
@@ -22505,9 +22532,9 @@
       <c r="I44" s="34"/>
     </row>
     <row r="45" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A45" s="215"/>
-      <c r="B45" s="218"/>
-      <c r="C45" s="225"/>
+      <c r="A45" s="219"/>
+      <c r="B45" s="209"/>
+      <c r="C45" s="212"/>
       <c r="D45" s="33" t="s">
         <v>164</v>
       </c>
@@ -22518,8 +22545,8 @@
       <c r="I45" s="34"/>
     </row>
     <row r="46" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A46" s="215"/>
-      <c r="B46" s="218"/>
+      <c r="A46" s="219"/>
+      <c r="B46" s="209"/>
       <c r="C46" s="40" t="s">
         <v>112</v>
       </c>
@@ -22533,8 +22560,8 @@
       <c r="I46" s="34"/>
     </row>
     <row r="47" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A47" s="215"/>
-      <c r="B47" s="218"/>
+      <c r="A47" s="219"/>
+      <c r="B47" s="209"/>
       <c r="C47" s="40" t="s">
         <v>106</v>
       </c>
@@ -22548,8 +22575,8 @@
       <c r="I47" s="34"/>
     </row>
     <row r="48" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A48" s="215"/>
-      <c r="B48" s="218"/>
+      <c r="A48" s="219"/>
+      <c r="B48" s="209"/>
       <c r="C48" s="40" t="s">
         <v>147</v>
       </c>
@@ -22563,8 +22590,8 @@
       <c r="I48" s="34"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="215"/>
-      <c r="B49" s="218" t="s">
+      <c r="A49" s="219"/>
+      <c r="B49" s="209" t="s">
         <v>153</v>
       </c>
       <c r="C49" s="40" t="s">
@@ -22580,8 +22607,8 @@
       <c r="I49" s="34"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="215"/>
-      <c r="B50" s="218"/>
+      <c r="A50" s="219"/>
+      <c r="B50" s="209"/>
       <c r="C50" s="40" t="s">
         <v>112</v>
       </c>
@@ -22595,8 +22622,8 @@
       <c r="I50" s="34"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="215"/>
-      <c r="B51" s="218"/>
+      <c r="A51" s="219"/>
+      <c r="B51" s="209"/>
       <c r="C51" s="40" t="s">
         <v>106</v>
       </c>
@@ -22610,8 +22637,8 @@
       <c r="I51" s="34"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="215"/>
-      <c r="B52" s="218"/>
+      <c r="A52" s="219"/>
+      <c r="B52" s="209"/>
       <c r="C52" s="40" t="s">
         <v>147</v>
       </c>
@@ -22625,8 +22652,8 @@
       <c r="I52" s="34"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="215"/>
-      <c r="B53" s="228" t="s">
+      <c r="A53" s="219"/>
+      <c r="B53" s="210" t="s">
         <v>154</v>
       </c>
       <c r="C53" s="40" t="s">
@@ -22642,8 +22669,8 @@
       <c r="I53" s="34"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="215"/>
-      <c r="B54" s="227"/>
+      <c r="A54" s="219"/>
+      <c r="B54" s="211"/>
       <c r="C54" s="49" t="s">
         <v>159</v>
       </c>
@@ -22657,8 +22684,8 @@
       <c r="I54" s="34"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="215"/>
-      <c r="B55" s="218" t="s">
+      <c r="A55" s="219"/>
+      <c r="B55" s="209" t="s">
         <v>76</v>
       </c>
       <c r="C55" s="40" t="s">
@@ -22674,8 +22701,8 @@
       <c r="I55" s="34"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="215"/>
-      <c r="B56" s="218"/>
+      <c r="A56" s="219"/>
+      <c r="B56" s="209"/>
       <c r="C56" s="40" t="s">
         <v>79</v>
       </c>
@@ -22689,8 +22716,8 @@
       <c r="I56" s="34"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="215"/>
-      <c r="B57" s="228" t="s">
+      <c r="A57" s="219"/>
+      <c r="B57" s="210" t="s">
         <v>81</v>
       </c>
       <c r="C57" s="40" t="s">
@@ -22706,8 +22733,8 @@
       <c r="I57" s="34"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="224"/>
-      <c r="B58" s="225"/>
+      <c r="A58" s="220"/>
+      <c r="B58" s="212"/>
       <c r="C58" s="50" t="s">
         <v>167</v>
       </c>
@@ -22721,8 +22748,8 @@
       <c r="I58" s="45"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="224"/>
-      <c r="B59" s="228" t="s">
+      <c r="A59" s="220"/>
+      <c r="B59" s="210" t="s">
         <v>172</v>
       </c>
       <c r="C59" s="50" t="s">
@@ -22738,8 +22765,8 @@
       <c r="I59" s="45"/>
     </row>
     <row r="60" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="224"/>
-      <c r="B60" s="229"/>
+      <c r="A60" s="220"/>
+      <c r="B60" s="223"/>
       <c r="C60" s="42" t="s">
         <v>171</v>
       </c>
@@ -23002,11 +23029,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A30:A39"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A10:A29"/>
     <mergeCell ref="A40:A60"/>
@@ -23023,11 +23050,11 @@
     <mergeCell ref="C44:C45"/>
     <mergeCell ref="B59:B60"/>
     <mergeCell ref="B44:B48"/>
-    <mergeCell ref="A30:A39"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B20:B21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23070,15 +23097,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="220"/>
-      <c r="B1" s="221"/>
-      <c r="C1" s="221"/>
-      <c r="D1" s="221"/>
-      <c r="E1" s="221"/>
-      <c r="F1" s="221"/>
-      <c r="G1" s="221"/>
-      <c r="H1" s="221"/>
-      <c r="I1" s="222"/>
+      <c r="A1" s="213"/>
+      <c r="B1" s="214"/>
+      <c r="C1" s="214"/>
+      <c r="D1" s="214"/>
+      <c r="E1" s="214"/>
+      <c r="F1" s="214"/>
+      <c r="G1" s="214"/>
+      <c r="H1" s="214"/>
+      <c r="I1" s="215"/>
     </row>
     <row r="2" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
@@ -23110,21 +23137,21 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="211"/>
-      <c r="B3" s="212"/>
-      <c r="C3" s="212"/>
-      <c r="D3" s="212"/>
-      <c r="E3" s="212"/>
-      <c r="F3" s="212"/>
-      <c r="G3" s="212"/>
-      <c r="H3" s="212"/>
-      <c r="I3" s="213"/>
+      <c r="A3" s="224"/>
+      <c r="B3" s="225"/>
+      <c r="C3" s="225"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="225"/>
+      <c r="F3" s="225"/>
+      <c r="G3" s="225"/>
+      <c r="H3" s="225"/>
+      <c r="I3" s="226"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="209" t="s">
+      <c r="A4" s="216" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="226" t="s">
+      <c r="B4" s="222" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="88" t="s">
@@ -23135,15 +23162,15 @@
       </c>
       <c r="E4" s="31"/>
       <c r="F4" s="31"/>
-      <c r="G4" s="226" t="s">
+      <c r="G4" s="222" t="s">
         <v>284</v>
       </c>
       <c r="H4" s="31"/>
       <c r="I4" s="32"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="210"/>
-      <c r="B5" s="227"/>
+      <c r="A5" s="217"/>
+      <c r="B5" s="211"/>
       <c r="C5" s="89" t="s">
         <v>13</v>
       </c>
@@ -23152,13 +23179,13 @@
       </c>
       <c r="E5" s="33"/>
       <c r="F5" s="33"/>
-      <c r="G5" s="227"/>
+      <c r="G5" s="211"/>
       <c r="H5" s="33"/>
       <c r="I5" s="34"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="210"/>
-      <c r="B6" s="225"/>
+      <c r="A6" s="217"/>
+      <c r="B6" s="212"/>
       <c r="C6" s="89" t="s">
         <v>15</v>
       </c>
@@ -23167,13 +23194,13 @@
       </c>
       <c r="E6" s="33"/>
       <c r="F6" s="33"/>
-      <c r="G6" s="227"/>
+      <c r="G6" s="211"/>
       <c r="H6" s="33"/>
       <c r="I6" s="34"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="210"/>
-      <c r="B7" s="228" t="s">
+      <c r="A7" s="217"/>
+      <c r="B7" s="210" t="s">
         <v>253</v>
       </c>
       <c r="C7" s="89" t="s">
@@ -23184,13 +23211,13 @@
       </c>
       <c r="E7" s="65"/>
       <c r="F7" s="33"/>
-      <c r="G7" s="227"/>
+      <c r="G7" s="211"/>
       <c r="H7" s="33"/>
       <c r="I7" s="34"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="210"/>
-      <c r="B8" s="227"/>
+      <c r="A8" s="217"/>
+      <c r="B8" s="211"/>
       <c r="C8" s="89" t="s">
         <v>254</v>
       </c>
@@ -23199,13 +23226,13 @@
       </c>
       <c r="E8" s="67"/>
       <c r="F8" s="33"/>
-      <c r="G8" s="227"/>
+      <c r="G8" s="211"/>
       <c r="H8" s="33"/>
       <c r="I8" s="34"/>
     </row>
     <row r="9" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="230"/>
-      <c r="B9" s="229"/>
+      <c r="B9" s="223"/>
       <c r="C9" s="90" t="s">
         <v>253</v>
       </c>
@@ -23214,15 +23241,15 @@
       </c>
       <c r="E9" s="66"/>
       <c r="F9" s="35"/>
-      <c r="G9" s="229"/>
+      <c r="G9" s="223"/>
       <c r="H9" s="35"/>
       <c r="I9" s="36"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="209" t="s">
+      <c r="A10" s="216" t="s">
         <v>198</v>
       </c>
-      <c r="B10" s="226" t="s">
+      <c r="B10" s="222" t="s">
         <v>199</v>
       </c>
       <c r="C10" s="96" t="s">
@@ -23235,15 +23262,15 @@
         <v>202</v>
       </c>
       <c r="F10" s="31"/>
-      <c r="G10" s="226" t="s">
+      <c r="G10" s="222" t="s">
         <v>288</v>
       </c>
       <c r="H10" s="31"/>
       <c r="I10" s="32"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="210"/>
-      <c r="B11" s="227"/>
+      <c r="A11" s="217"/>
+      <c r="B11" s="211"/>
       <c r="C11" s="97" t="s">
         <v>203</v>
       </c>
@@ -23254,13 +23281,13 @@
         <v>205</v>
       </c>
       <c r="F11" s="33"/>
-      <c r="G11" s="227"/>
+      <c r="G11" s="211"/>
       <c r="H11" s="33"/>
       <c r="I11" s="34"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="210"/>
-      <c r="B12" s="227"/>
+      <c r="A12" s="217"/>
+      <c r="B12" s="211"/>
       <c r="C12" s="97" t="s">
         <v>206</v>
       </c>
@@ -23271,13 +23298,13 @@
         <v>208</v>
       </c>
       <c r="F12" s="33"/>
-      <c r="G12" s="227"/>
+      <c r="G12" s="211"/>
       <c r="H12" s="33"/>
       <c r="I12" s="34"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="210"/>
-      <c r="B13" s="225"/>
+      <c r="A13" s="217"/>
+      <c r="B13" s="212"/>
       <c r="C13" s="97" t="s">
         <v>209</v>
       </c>
@@ -23286,13 +23313,13 @@
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="33"/>
-      <c r="G13" s="225"/>
+      <c r="G13" s="212"/>
       <c r="H13" s="33"/>
       <c r="I13" s="34"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="210"/>
-      <c r="B14" s="228" t="s">
+      <c r="A14" s="217"/>
+      <c r="B14" s="210" t="s">
         <v>216</v>
       </c>
       <c r="C14" s="98" t="s">
@@ -23305,15 +23332,15 @@
         <v>219</v>
       </c>
       <c r="F14" s="33"/>
-      <c r="G14" s="228" t="s">
+      <c r="G14" s="210" t="s">
         <v>288</v>
       </c>
       <c r="H14" s="33"/>
       <c r="I14" s="34"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="210"/>
-      <c r="B15" s="227"/>
+      <c r="A15" s="217"/>
+      <c r="B15" s="211"/>
       <c r="C15" s="97" t="s">
         <v>220</v>
       </c>
@@ -23324,13 +23351,13 @@
         <v>205</v>
       </c>
       <c r="F15" s="33"/>
-      <c r="G15" s="227"/>
+      <c r="G15" s="211"/>
       <c r="H15" s="33"/>
       <c r="I15" s="34"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="210"/>
-      <c r="B16" s="225"/>
+      <c r="A16" s="217"/>
+      <c r="B16" s="212"/>
       <c r="C16" s="97" t="s">
         <v>222</v>
       </c>
@@ -23341,13 +23368,13 @@
         <v>224</v>
       </c>
       <c r="F16" s="33"/>
-      <c r="G16" s="225"/>
+      <c r="G16" s="212"/>
       <c r="H16" s="33"/>
       <c r="I16" s="34"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="210"/>
-      <c r="B17" s="228" t="s">
+      <c r="A17" s="217"/>
+      <c r="B17" s="210" t="s">
         <v>211</v>
       </c>
       <c r="C17" s="94" t="s">
@@ -23360,15 +23387,15 @@
         <v>282</v>
       </c>
       <c r="F17" s="33"/>
-      <c r="G17" s="228" t="s">
+      <c r="G17" s="210" t="s">
         <v>292</v>
       </c>
       <c r="H17" s="33"/>
       <c r="I17" s="34"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="210"/>
-      <c r="B18" s="225"/>
+      <c r="A18" s="217"/>
+      <c r="B18" s="212"/>
       <c r="C18" s="94" t="s">
         <v>214</v>
       </c>
@@ -23379,13 +23406,13 @@
         <v>281</v>
       </c>
       <c r="F18" s="33"/>
-      <c r="G18" s="225"/>
+      <c r="G18" s="212"/>
       <c r="H18" s="33"/>
       <c r="I18" s="34"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="210"/>
-      <c r="B19" s="228" t="s">
+      <c r="A19" s="217"/>
+      <c r="B19" s="210" t="s">
         <v>115</v>
       </c>
       <c r="C19" s="99" t="s">
@@ -23396,15 +23423,15 @@
       </c>
       <c r="E19" s="33"/>
       <c r="F19" s="33"/>
-      <c r="G19" s="227" t="s">
+      <c r="G19" s="211" t="s">
         <v>291</v>
       </c>
       <c r="H19" s="33"/>
       <c r="I19" s="34"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="210"/>
-      <c r="B20" s="225"/>
+      <c r="A20" s="217"/>
+      <c r="B20" s="212"/>
       <c r="C20" s="99" t="s">
         <v>118</v>
       </c>
@@ -23413,12 +23440,12 @@
       </c>
       <c r="E20" s="33"/>
       <c r="F20" s="33"/>
-      <c r="G20" s="227"/>
+      <c r="G20" s="211"/>
       <c r="H20" s="33"/>
       <c r="I20" s="34"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="210"/>
+      <c r="A21" s="217"/>
       <c r="B21" s="129" t="s">
         <v>295</v>
       </c>
@@ -23430,13 +23457,13 @@
       </c>
       <c r="E21" s="33"/>
       <c r="F21" s="33"/>
-      <c r="G21" s="225"/>
+      <c r="G21" s="212"/>
       <c r="H21" s="33"/>
       <c r="I21" s="34"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="210"/>
-      <c r="B22" s="228" t="s">
+      <c r="A22" s="217"/>
+      <c r="B22" s="210" t="s">
         <v>225</v>
       </c>
       <c r="C22" s="94" t="s">
@@ -23447,15 +23474,15 @@
       </c>
       <c r="E22" s="33"/>
       <c r="F22" s="33"/>
-      <c r="G22" s="228" t="s">
+      <c r="G22" s="210" t="s">
         <v>285</v>
       </c>
       <c r="H22" s="33"/>
       <c r="I22" s="34"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="210"/>
-      <c r="B23" s="227"/>
+      <c r="A23" s="217"/>
+      <c r="B23" s="211"/>
       <c r="C23" s="94" t="s">
         <v>228</v>
       </c>
@@ -23464,13 +23491,13 @@
       </c>
       <c r="E23" s="33"/>
       <c r="F23" s="33"/>
-      <c r="G23" s="227"/>
+      <c r="G23" s="211"/>
       <c r="H23" s="33"/>
       <c r="I23" s="34"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="210"/>
-      <c r="B24" s="227"/>
+      <c r="A24" s="217"/>
+      <c r="B24" s="211"/>
       <c r="C24" s="94" t="s">
         <v>274</v>
       </c>
@@ -23479,13 +23506,13 @@
       </c>
       <c r="E24" s="33"/>
       <c r="F24" s="33"/>
-      <c r="G24" s="225"/>
+      <c r="G24" s="212"/>
       <c r="H24" s="33"/>
       <c r="I24" s="34"/>
     </row>
     <row r="25" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="230"/>
-      <c r="B25" s="229"/>
+      <c r="B25" s="223"/>
       <c r="C25" s="95" t="s">
         <v>230</v>
       </c>
@@ -23501,10 +23528,10 @@
       <c r="I25" s="45"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="209" t="s">
+      <c r="A26" s="216" t="s">
         <v>232</v>
       </c>
-      <c r="B26" s="226" t="s">
+      <c r="B26" s="222" t="s">
         <v>233</v>
       </c>
       <c r="C26" s="91" t="s">
@@ -23515,15 +23542,15 @@
       </c>
       <c r="E26" s="31"/>
       <c r="F26" s="31"/>
-      <c r="G26" s="226" t="s">
+      <c r="G26" s="222" t="s">
         <v>286</v>
       </c>
       <c r="H26" s="31"/>
       <c r="I26" s="32"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="210"/>
-      <c r="B27" s="227"/>
+      <c r="A27" s="217"/>
+      <c r="B27" s="211"/>
       <c r="C27" s="92" t="s">
         <v>129</v>
       </c>
@@ -23532,13 +23559,13 @@
       </c>
       <c r="E27" s="33"/>
       <c r="F27" s="33"/>
-      <c r="G27" s="225"/>
+      <c r="G27" s="212"/>
       <c r="H27" s="33"/>
       <c r="I27" s="34"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="210"/>
-      <c r="B28" s="227"/>
+      <c r="A28" s="217"/>
+      <c r="B28" s="211"/>
       <c r="C28" s="100" t="s">
         <v>236</v>
       </c>
@@ -23547,15 +23574,15 @@
       </c>
       <c r="E28" s="33"/>
       <c r="F28" s="33"/>
-      <c r="G28" s="228" t="s">
+      <c r="G28" s="210" t="s">
         <v>289</v>
       </c>
       <c r="H28" s="33"/>
       <c r="I28" s="34"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="210"/>
-      <c r="B29" s="225"/>
+      <c r="A29" s="217"/>
+      <c r="B29" s="212"/>
       <c r="C29" s="100" t="s">
         <v>125</v>
       </c>
@@ -23564,7 +23591,7 @@
       </c>
       <c r="E29" s="33"/>
       <c r="F29" s="33"/>
-      <c r="G29" s="227"/>
+      <c r="G29" s="211"/>
       <c r="H29" s="33"/>
       <c r="I29" s="34"/>
     </row>
@@ -23583,15 +23610,15 @@
         <v>256</v>
       </c>
       <c r="F30" s="35"/>
-      <c r="G30" s="229"/>
+      <c r="G30" s="223"/>
       <c r="H30" s="35"/>
       <c r="I30" s="36"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="209" t="s">
+      <c r="A31" s="216" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="226" t="s">
+      <c r="B31" s="222" t="s">
         <v>71</v>
       </c>
       <c r="C31" s="93" t="s">
@@ -23602,15 +23629,15 @@
       </c>
       <c r="E31" s="55"/>
       <c r="F31" s="55"/>
-      <c r="G31" s="226" t="s">
+      <c r="G31" s="222" t="s">
         <v>287</v>
       </c>
       <c r="H31" s="55"/>
       <c r="I31" s="56"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="210"/>
-      <c r="B32" s="225"/>
+      <c r="A32" s="217"/>
+      <c r="B32" s="212"/>
       <c r="C32" s="89" t="s">
         <v>294</v>
       </c>
@@ -23619,13 +23646,13 @@
       </c>
       <c r="E32" s="33"/>
       <c r="F32" s="33"/>
-      <c r="G32" s="225"/>
+      <c r="G32" s="212"/>
       <c r="H32" s="33"/>
       <c r="I32" s="34"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="210"/>
-      <c r="B33" s="228" t="s">
+      <c r="A33" s="217"/>
+      <c r="B33" s="210" t="s">
         <v>257</v>
       </c>
       <c r="C33" s="97" t="s">
@@ -23636,15 +23663,15 @@
       </c>
       <c r="E33" s="33"/>
       <c r="F33" s="33"/>
-      <c r="G33" s="228" t="s">
+      <c r="G33" s="210" t="s">
         <v>288</v>
       </c>
       <c r="H33" s="33"/>
       <c r="I33" s="34"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="210"/>
-      <c r="B34" s="227"/>
+      <c r="A34" s="217"/>
+      <c r="B34" s="211"/>
       <c r="C34" s="97" t="s">
         <v>260</v>
       </c>
@@ -23653,13 +23680,13 @@
       </c>
       <c r="E34" s="33"/>
       <c r="F34" s="33"/>
-      <c r="G34" s="227"/>
+      <c r="G34" s="211"/>
       <c r="H34" s="33"/>
       <c r="I34" s="34"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="210"/>
-      <c r="B35" s="225"/>
+      <c r="A35" s="217"/>
+      <c r="B35" s="212"/>
       <c r="C35" s="97" t="s">
         <v>259</v>
       </c>
@@ -23670,13 +23697,13 @@
         <v>264</v>
       </c>
       <c r="F35" s="33"/>
-      <c r="G35" s="225"/>
+      <c r="G35" s="212"/>
       <c r="H35" s="33"/>
       <c r="I35" s="34"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="210"/>
-      <c r="B36" s="228" t="s">
+      <c r="A36" s="217"/>
+      <c r="B36" s="210" t="s">
         <v>242</v>
       </c>
       <c r="C36" s="99" t="s">
@@ -23689,15 +23716,15 @@
         <v>245</v>
       </c>
       <c r="F36" s="33"/>
-      <c r="G36" s="228" t="s">
+      <c r="G36" s="210" t="s">
         <v>291</v>
       </c>
       <c r="H36" s="33"/>
       <c r="I36" s="34"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="210"/>
-      <c r="B37" s="225"/>
+      <c r="A37" s="217"/>
+      <c r="B37" s="212"/>
       <c r="C37" s="99" t="s">
         <v>246</v>
       </c>
@@ -23708,13 +23735,13 @@
         <v>248</v>
       </c>
       <c r="F37" s="33"/>
-      <c r="G37" s="227"/>
+      <c r="G37" s="211"/>
       <c r="H37" s="33"/>
       <c r="I37" s="34"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="210"/>
-      <c r="B38" s="228" t="s">
+      <c r="A38" s="217"/>
+      <c r="B38" s="210" t="s">
         <v>270</v>
       </c>
       <c r="C38" s="95" t="s">
@@ -23727,13 +23754,13 @@
         <v>250</v>
       </c>
       <c r="F38" s="44"/>
-      <c r="G38" s="227"/>
+      <c r="G38" s="211"/>
       <c r="H38" s="44"/>
       <c r="I38" s="45"/>
     </row>
     <row r="39" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="230"/>
-      <c r="B39" s="229"/>
+      <c r="B39" s="223"/>
       <c r="C39" s="95" t="s">
         <v>272</v>
       </c>
@@ -23744,7 +23771,7 @@
         <v>252</v>
       </c>
       <c r="F39" s="44"/>
-      <c r="G39" s="229"/>
+      <c r="G39" s="223"/>
       <c r="H39" s="44"/>
       <c r="I39" s="45"/>
     </row>
@@ -24000,19 +24027,10 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="G4:G9"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="A10:A25"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="G36:G39"/>
     <mergeCell ref="A26:A30"/>
     <mergeCell ref="A31:A39"/>
     <mergeCell ref="B10:B13"/>
@@ -24025,10 +24043,19 @@
     <mergeCell ref="B33:B35"/>
     <mergeCell ref="B36:B37"/>
     <mergeCell ref="B38:B39"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="G4:G9"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="A10:A25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24078,52 +24105,52 @@
       <c r="O1" s="84"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="236" t="s">
+      <c r="A2" s="232" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="231" t="s">
+      <c r="B2" s="234" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="231" t="s">
+      <c r="C2" s="234" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="231" t="s">
+      <c r="D2" s="234" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="231" t="s">
+      <c r="E2" s="234" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="231" t="s">
+      <c r="F2" s="234" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="231" t="s">
+      <c r="G2" s="234" t="s">
         <v>277</v>
       </c>
-      <c r="H2" s="233" t="s">
+      <c r="H2" s="236" t="s">
         <v>276</v>
       </c>
-      <c r="I2" s="234"/>
-      <c r="J2" s="235"/>
-      <c r="K2" s="231" t="s">
+      <c r="I2" s="237"/>
+      <c r="J2" s="238"/>
+      <c r="K2" s="234" t="s">
         <v>275</v>
       </c>
-      <c r="L2" s="231" t="s">
+      <c r="L2" s="234" t="s">
         <v>278</v>
       </c>
-      <c r="M2" s="233" t="s">
+      <c r="M2" s="236" t="s">
         <v>279</v>
       </c>
-      <c r="N2" s="234"/>
-      <c r="O2" s="235"/>
+      <c r="N2" s="237"/>
+      <c r="O2" s="238"/>
     </row>
     <row r="3" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="237"/>
-      <c r="B3" s="232"/>
-      <c r="C3" s="232"/>
-      <c r="D3" s="232"/>
-      <c r="E3" s="232"/>
-      <c r="F3" s="232"/>
-      <c r="G3" s="232"/>
+      <c r="A3" s="233"/>
+      <c r="B3" s="235"/>
+      <c r="C3" s="235"/>
+      <c r="D3" s="235"/>
+      <c r="E3" s="235"/>
+      <c r="F3" s="235"/>
+      <c r="G3" s="235"/>
       <c r="H3" s="122" t="s">
         <v>297</v>
       </c>
@@ -24133,8 +24160,8 @@
       <c r="J3" s="122" t="s">
         <v>299</v>
       </c>
-      <c r="K3" s="232"/>
-      <c r="L3" s="232"/>
+      <c r="K3" s="235"/>
+      <c r="L3" s="235"/>
       <c r="M3" s="122" t="s">
         <v>300</v>
       </c>
@@ -24163,10 +24190,10 @@
       <c r="O4" s="86"/>
     </row>
     <row r="5" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="238" t="s">
+      <c r="A5" s="231" t="s">
         <v>356</v>
       </c>
-      <c r="B5" s="226" t="s">
+      <c r="B5" s="222" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="88" t="s">
@@ -24175,7 +24202,7 @@
       <c r="D5" s="85">
         <v>1</v>
       </c>
-      <c r="E5" s="226" t="s">
+      <c r="E5" s="222" t="s">
         <v>284</v>
       </c>
       <c r="F5" s="85"/>
@@ -24194,15 +24221,15 @@
       <c r="O5" s="110"/>
     </row>
     <row r="6" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="210"/>
-      <c r="B6" s="227"/>
+      <c r="A6" s="217"/>
+      <c r="B6" s="211"/>
       <c r="C6" s="89" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="81">
         <v>1</v>
       </c>
-      <c r="E6" s="227"/>
+      <c r="E6" s="211"/>
       <c r="F6" s="81"/>
       <c r="G6" s="113" t="s">
         <v>316</v>
@@ -24219,15 +24246,15 @@
       <c r="O6" s="107"/>
     </row>
     <row r="7" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="210"/>
-      <c r="B7" s="225"/>
+      <c r="A7" s="217"/>
+      <c r="B7" s="212"/>
       <c r="C7" s="89" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="81">
         <v>1</v>
       </c>
-      <c r="E7" s="227"/>
+      <c r="E7" s="211"/>
       <c r="F7" s="81"/>
       <c r="G7" s="113" t="s">
         <v>316</v>
@@ -24244,8 +24271,8 @@
       <c r="O7" s="107"/>
     </row>
     <row r="8" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="210"/>
-      <c r="B8" s="228" t="s">
+      <c r="A8" s="217"/>
+      <c r="B8" s="210" t="s">
         <v>253</v>
       </c>
       <c r="C8" s="89" t="s">
@@ -24254,7 +24281,7 @@
       <c r="D8" s="81">
         <v>1</v>
       </c>
-      <c r="E8" s="227"/>
+      <c r="E8" s="211"/>
       <c r="F8" s="81"/>
       <c r="G8" s="107" t="s">
         <v>318</v>
@@ -24271,15 +24298,15 @@
       <c r="O8" s="107"/>
     </row>
     <row r="9" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="210"/>
-      <c r="B9" s="227"/>
+      <c r="A9" s="217"/>
+      <c r="B9" s="211"/>
       <c r="C9" s="89" t="s">
         <v>254</v>
       </c>
       <c r="D9" s="81">
         <v>1</v>
       </c>
-      <c r="E9" s="227"/>
+      <c r="E9" s="211"/>
       <c r="F9" s="81"/>
       <c r="G9" s="107" t="s">
         <v>319</v>
@@ -24297,14 +24324,14 @@
     </row>
     <row r="10" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="230"/>
-      <c r="B10" s="229"/>
+      <c r="B10" s="223"/>
       <c r="C10" s="90" t="s">
         <v>253</v>
       </c>
       <c r="D10" s="87">
         <v>1</v>
       </c>
-      <c r="E10" s="229"/>
+      <c r="E10" s="223"/>
       <c r="F10" s="87"/>
       <c r="G10" s="107" t="s">
         <v>319</v>
@@ -24321,10 +24348,10 @@
       <c r="O10" s="111"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="238" t="s">
+      <c r="A11" s="231" t="s">
         <v>357</v>
       </c>
-      <c r="B11" s="226" t="s">
+      <c r="B11" s="222" t="s">
         <v>103</v>
       </c>
       <c r="C11" s="96" t="s">
@@ -24333,7 +24360,7 @@
       <c r="D11" s="85">
         <v>2</v>
       </c>
-      <c r="E11" s="226" t="s">
+      <c r="E11" s="222" t="s">
         <v>288</v>
       </c>
       <c r="F11" s="85"/>
@@ -24352,15 +24379,15 @@
       <c r="O11" s="110"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="210"/>
-      <c r="B12" s="227"/>
+      <c r="A12" s="217"/>
+      <c r="B12" s="211"/>
       <c r="C12" s="97" t="s">
         <v>203</v>
       </c>
       <c r="D12" s="81">
         <v>1</v>
       </c>
-      <c r="E12" s="227"/>
+      <c r="E12" s="211"/>
       <c r="F12" s="81"/>
       <c r="G12" s="107" t="s">
         <v>348</v>
@@ -24377,15 +24404,15 @@
       <c r="O12" s="107"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="210"/>
-      <c r="B13" s="227"/>
+      <c r="A13" s="217"/>
+      <c r="B13" s="211"/>
       <c r="C13" s="97" t="s">
         <v>206</v>
       </c>
       <c r="D13" s="81">
         <v>1</v>
       </c>
-      <c r="E13" s="227"/>
+      <c r="E13" s="211"/>
       <c r="F13" s="81"/>
       <c r="G13" s="107" t="s">
         <v>348</v>
@@ -24402,15 +24429,15 @@
       <c r="O13" s="107"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="210"/>
-      <c r="B14" s="225"/>
+      <c r="A14" s="217"/>
+      <c r="B14" s="212"/>
       <c r="C14" s="97" t="s">
         <v>209</v>
       </c>
       <c r="D14" s="81">
         <v>2</v>
       </c>
-      <c r="E14" s="225"/>
+      <c r="E14" s="212"/>
       <c r="F14" s="81"/>
       <c r="G14" s="107" t="s">
         <v>350</v>
@@ -24427,8 +24454,8 @@
       <c r="O14" s="107"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="210"/>
-      <c r="B15" s="228" t="s">
+      <c r="A15" s="217"/>
+      <c r="B15" s="210" t="s">
         <v>111</v>
       </c>
       <c r="C15" s="98" t="s">
@@ -24437,7 +24464,7 @@
       <c r="D15" s="81">
         <v>2</v>
       </c>
-      <c r="E15" s="228" t="s">
+      <c r="E15" s="210" t="s">
         <v>288</v>
       </c>
       <c r="F15" s="81"/>
@@ -24456,15 +24483,15 @@
       <c r="O15" s="107"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="210"/>
-      <c r="B16" s="227"/>
+      <c r="A16" s="217"/>
+      <c r="B16" s="211"/>
       <c r="C16" s="97" t="s">
         <v>220</v>
       </c>
       <c r="D16" s="81">
         <v>1</v>
       </c>
-      <c r="E16" s="227"/>
+      <c r="E16" s="211"/>
       <c r="F16" s="81"/>
       <c r="G16" s="107" t="s">
         <v>348</v>
@@ -24481,15 +24508,15 @@
       <c r="O16" s="107"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="210"/>
-      <c r="B17" s="227"/>
+      <c r="A17" s="217"/>
+      <c r="B17" s="211"/>
       <c r="C17" s="97" t="s">
         <v>222</v>
       </c>
       <c r="D17" s="81">
         <v>1</v>
       </c>
-      <c r="E17" s="225"/>
+      <c r="E17" s="212"/>
       <c r="F17" s="81"/>
       <c r="G17" s="107" t="s">
         <v>348</v>
@@ -24506,8 +24533,8 @@
       <c r="O17" s="107"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="210"/>
-      <c r="B18" s="228" t="s">
+      <c r="A18" s="217"/>
+      <c r="B18" s="210" t="s">
         <v>180</v>
       </c>
       <c r="C18" s="94" t="s">
@@ -24516,7 +24543,7 @@
       <c r="D18" s="81">
         <v>1</v>
       </c>
-      <c r="E18" s="228" t="s">
+      <c r="E18" s="210" t="s">
         <v>292</v>
       </c>
       <c r="F18" s="81"/>
@@ -24535,15 +24562,15 @@
       <c r="O18" s="107"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="210"/>
-      <c r="B19" s="225"/>
+      <c r="A19" s="217"/>
+      <c r="B19" s="212"/>
       <c r="C19" s="94" t="s">
         <v>184</v>
       </c>
       <c r="D19" s="81">
         <v>2</v>
       </c>
-      <c r="E19" s="225"/>
+      <c r="E19" s="212"/>
       <c r="F19" s="81"/>
       <c r="G19" s="107" t="s">
         <v>345</v>
@@ -24560,8 +24587,8 @@
       <c r="O19" s="107"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="210"/>
-      <c r="B20" s="228" t="s">
+      <c r="A20" s="217"/>
+      <c r="B20" s="210" t="s">
         <v>115</v>
       </c>
       <c r="C20" s="99" t="s">
@@ -24570,7 +24597,7 @@
       <c r="D20" s="81">
         <v>1</v>
       </c>
-      <c r="E20" s="227" t="s">
+      <c r="E20" s="211" t="s">
         <v>307</v>
       </c>
       <c r="F20" s="81"/>
@@ -24589,15 +24616,15 @@
       <c r="O20" s="107"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="210"/>
-      <c r="B21" s="225"/>
+      <c r="A21" s="217"/>
+      <c r="B21" s="212"/>
       <c r="C21" s="99" t="s">
         <v>118</v>
       </c>
       <c r="D21" s="81">
         <v>2</v>
       </c>
-      <c r="E21" s="227"/>
+      <c r="E21" s="211"/>
       <c r="F21" s="81"/>
       <c r="G21" s="107" t="s">
         <v>330</v>
@@ -24614,7 +24641,7 @@
       <c r="O21" s="107"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="210"/>
+      <c r="A22" s="217"/>
       <c r="B22" s="126" t="s">
         <v>302</v>
       </c>
@@ -24624,7 +24651,7 @@
       <c r="D22" s="81">
         <v>1</v>
       </c>
-      <c r="E22" s="225"/>
+      <c r="E22" s="212"/>
       <c r="F22" s="81"/>
       <c r="G22" s="107" t="s">
         <v>333</v>
@@ -24641,8 +24668,8 @@
       <c r="O22" s="107"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="210"/>
-      <c r="B23" s="228" t="s">
+      <c r="A23" s="217"/>
+      <c r="B23" s="210" t="s">
         <v>43</v>
       </c>
       <c r="C23" s="94" t="s">
@@ -24651,7 +24678,7 @@
       <c r="D23" s="81">
         <v>3</v>
       </c>
-      <c r="E23" s="228" t="s">
+      <c r="E23" s="210" t="s">
         <v>285</v>
       </c>
       <c r="F23" s="81"/>
@@ -24670,15 +24697,15 @@
       <c r="O23" s="107"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="210"/>
-      <c r="B24" s="227"/>
+      <c r="A24" s="217"/>
+      <c r="B24" s="211"/>
       <c r="C24" s="94" t="s">
         <v>178</v>
       </c>
       <c r="D24" s="81">
         <v>3</v>
       </c>
-      <c r="E24" s="227"/>
+      <c r="E24" s="211"/>
       <c r="F24" s="81"/>
       <c r="G24" s="107" t="s">
         <v>321</v>
@@ -24695,15 +24722,15 @@
       <c r="O24" s="107"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="210"/>
-      <c r="B25" s="227"/>
+      <c r="A25" s="217"/>
+      <c r="B25" s="211"/>
       <c r="C25" s="94" t="s">
         <v>280</v>
       </c>
       <c r="D25" s="81">
         <v>3</v>
       </c>
-      <c r="E25" s="225"/>
+      <c r="E25" s="212"/>
       <c r="F25" s="81"/>
       <c r="G25" s="107" t="s">
         <v>321</v>
@@ -24721,7 +24748,7 @@
     </row>
     <row r="26" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="230"/>
-      <c r="B26" s="229"/>
+      <c r="B26" s="223"/>
       <c r="C26" s="95" t="s">
         <v>273</v>
       </c>
@@ -24747,10 +24774,10 @@
       <c r="O26" s="112"/>
     </row>
     <row r="27" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="238" t="s">
+      <c r="A27" s="231" t="s">
         <v>358</v>
       </c>
-      <c r="B27" s="226" t="s">
+      <c r="B27" s="222" t="s">
         <v>127</v>
       </c>
       <c r="C27" s="91" t="s">
@@ -24759,7 +24786,7 @@
       <c r="D27" s="85">
         <v>1</v>
       </c>
-      <c r="E27" s="226" t="s">
+      <c r="E27" s="222" t="s">
         <v>286</v>
       </c>
       <c r="F27" s="85"/>
@@ -24778,15 +24805,15 @@
       <c r="O27" s="110"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="210"/>
-      <c r="B28" s="227"/>
+      <c r="A28" s="217"/>
+      <c r="B28" s="211"/>
       <c r="C28" s="92" t="s">
         <v>129</v>
       </c>
       <c r="D28" s="81">
         <v>1</v>
       </c>
-      <c r="E28" s="225"/>
+      <c r="E28" s="212"/>
       <c r="F28" s="81"/>
       <c r="G28" s="110" t="s">
         <v>324</v>
@@ -24803,15 +24830,15 @@
       <c r="O28" s="107"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="210"/>
-      <c r="B29" s="227"/>
+      <c r="A29" s="217"/>
+      <c r="B29" s="211"/>
       <c r="C29" s="100" t="s">
         <v>132</v>
       </c>
       <c r="D29" s="81">
         <v>3</v>
       </c>
-      <c r="E29" s="228" t="s">
+      <c r="E29" s="210" t="s">
         <v>289</v>
       </c>
       <c r="F29" s="81"/>
@@ -24830,15 +24857,15 @@
       <c r="O29" s="107"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="210"/>
-      <c r="B30" s="225"/>
+      <c r="A30" s="217"/>
+      <c r="B30" s="212"/>
       <c r="C30" s="100" t="s">
         <v>125</v>
       </c>
       <c r="D30" s="81">
         <v>3</v>
       </c>
-      <c r="E30" s="227"/>
+      <c r="E30" s="211"/>
       <c r="F30" s="81"/>
       <c r="G30" s="107" t="s">
         <v>337</v>
@@ -24865,7 +24892,7 @@
       <c r="D31" s="87">
         <v>2</v>
       </c>
-      <c r="E31" s="229"/>
+      <c r="E31" s="223"/>
       <c r="F31" s="87"/>
       <c r="G31" s="111" t="s">
         <v>338</v>
@@ -24882,10 +24909,10 @@
       <c r="O31" s="111"/>
     </row>
     <row r="32" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="238" t="s">
+      <c r="A32" s="231" t="s">
         <v>359</v>
       </c>
-      <c r="B32" s="226" t="s">
+      <c r="B32" s="222" t="s">
         <v>71</v>
       </c>
       <c r="C32" s="93" t="s">
@@ -24894,7 +24921,7 @@
       <c r="D32" s="83">
         <v>3</v>
       </c>
-      <c r="E32" s="226" t="s">
+      <c r="E32" s="222" t="s">
         <v>287</v>
       </c>
       <c r="F32" s="83"/>
@@ -24913,15 +24940,15 @@
       <c r="O32" s="113"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="210"/>
-      <c r="B33" s="225"/>
+      <c r="A33" s="217"/>
+      <c r="B33" s="212"/>
       <c r="C33" s="89" t="s">
         <v>293</v>
       </c>
       <c r="D33" s="81">
         <v>3</v>
       </c>
-      <c r="E33" s="225"/>
+      <c r="E33" s="212"/>
       <c r="F33" s="81"/>
       <c r="G33" s="123" t="s">
         <v>326</v>
@@ -24938,8 +24965,8 @@
       <c r="O33" s="107"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="210"/>
-      <c r="B34" s="228" t="s">
+      <c r="A34" s="217"/>
+      <c r="B34" s="210" t="s">
         <v>257</v>
       </c>
       <c r="C34" s="97" t="s">
@@ -24948,7 +24975,7 @@
       <c r="D34" s="81">
         <v>2</v>
       </c>
-      <c r="E34" s="228" t="s">
+      <c r="E34" s="210" t="s">
         <v>288</v>
       </c>
       <c r="F34" s="81"/>
@@ -24967,15 +24994,15 @@
       <c r="O34" s="107"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="210"/>
-      <c r="B35" s="227"/>
+      <c r="A35" s="217"/>
+      <c r="B35" s="211"/>
       <c r="C35" s="97" t="s">
         <v>260</v>
       </c>
       <c r="D35" s="81">
         <v>2</v>
       </c>
-      <c r="E35" s="227"/>
+      <c r="E35" s="211"/>
       <c r="F35" s="81"/>
       <c r="G35" s="107" t="s">
         <v>353</v>
@@ -24992,15 +25019,15 @@
       <c r="O35" s="107"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="210"/>
-      <c r="B36" s="225"/>
+      <c r="A36" s="217"/>
+      <c r="B36" s="212"/>
       <c r="C36" s="97" t="s">
         <v>259</v>
       </c>
       <c r="D36" s="81">
         <v>2</v>
       </c>
-      <c r="E36" s="225"/>
+      <c r="E36" s="212"/>
       <c r="F36" s="81"/>
       <c r="G36" s="107" t="s">
         <v>354</v>
@@ -25017,8 +25044,8 @@
       <c r="O36" s="107"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="210"/>
-      <c r="B37" s="228" t="s">
+      <c r="A37" s="217"/>
+      <c r="B37" s="210" t="s">
         <v>154</v>
       </c>
       <c r="C37" s="99" t="s">
@@ -25027,7 +25054,7 @@
       <c r="D37" s="81">
         <v>2</v>
       </c>
-      <c r="E37" s="228" t="s">
+      <c r="E37" s="210" t="s">
         <v>291</v>
       </c>
       <c r="F37" s="81"/>
@@ -25046,15 +25073,15 @@
       <c r="O37" s="107"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="210"/>
-      <c r="B38" s="225"/>
+      <c r="A38" s="217"/>
+      <c r="B38" s="212"/>
       <c r="C38" s="99" t="s">
         <v>92</v>
       </c>
       <c r="D38" s="81">
         <v>3</v>
       </c>
-      <c r="E38" s="227"/>
+      <c r="E38" s="211"/>
       <c r="F38" s="81"/>
       <c r="G38" s="107" t="s">
         <v>337</v>
@@ -25071,8 +25098,8 @@
       <c r="O38" s="107"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="210"/>
-      <c r="B39" s="228" t="s">
+      <c r="A39" s="217"/>
+      <c r="B39" s="210" t="s">
         <v>269</v>
       </c>
       <c r="C39" s="95" t="s">
@@ -25081,7 +25108,7 @@
       <c r="D39" s="82">
         <v>2</v>
       </c>
-      <c r="E39" s="227"/>
+      <c r="E39" s="211"/>
       <c r="F39" s="82"/>
       <c r="G39" s="107" t="s">
         <v>341</v>
@@ -25099,14 +25126,14 @@
     </row>
     <row r="40" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="230"/>
-      <c r="B40" s="229"/>
+      <c r="B40" s="223"/>
       <c r="C40" s="95" t="s">
         <v>272</v>
       </c>
       <c r="D40" s="82">
         <v>3</v>
       </c>
-      <c r="E40" s="229"/>
+      <c r="E40" s="223"/>
       <c r="F40" s="82"/>
       <c r="G40" s="112" t="s">
         <v>340</v>
@@ -25498,18 +25525,16 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="A32:A40"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="E37:E40"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="E23:E25"/>
     <mergeCell ref="E27:E28"/>
@@ -25526,16 +25551,18 @@
     <mergeCell ref="A11:A26"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="B15:B17"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="E37:E40"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="A32:A40"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25547,8 +25574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -25559,64 +25586,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="246" t="s">
+      <c r="A1" s="252" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="246" t="s">
+      <c r="B1" s="252" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="249" t="s">
+      <c r="C1" s="268" t="s">
         <v>417</v>
       </c>
-      <c r="D1" s="246" t="s">
+      <c r="D1" s="252" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="246" t="s">
+      <c r="E1" s="252" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="269" t="s">
+      <c r="F1" s="242" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="270"/>
-      <c r="H1" s="270"/>
-      <c r="I1" s="271"/>
-      <c r="J1" s="264" t="s">
+      <c r="G1" s="243"/>
+      <c r="H1" s="243"/>
+      <c r="I1" s="244"/>
+      <c r="J1" s="239" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="265"/>
-      <c r="L1" s="265"/>
-      <c r="M1" s="266"/>
+      <c r="K1" s="240"/>
+      <c r="L1" s="240"/>
+      <c r="M1" s="241"/>
     </row>
     <row r="2" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="247"/>
-      <c r="B2" s="247"/>
-      <c r="C2" s="247"/>
-      <c r="D2" s="247"/>
-      <c r="E2" s="247"/>
-      <c r="F2" s="246" t="s">
+      <c r="A2" s="267"/>
+      <c r="B2" s="267"/>
+      <c r="C2" s="267"/>
+      <c r="D2" s="267"/>
+      <c r="E2" s="267"/>
+      <c r="F2" s="252" t="s">
         <v>361</v>
       </c>
-      <c r="G2" s="264" t="s">
+      <c r="G2" s="239" t="s">
         <v>362</v>
       </c>
-      <c r="H2" s="265"/>
-      <c r="I2" s="266"/>
-      <c r="J2" s="267" t="s">
+      <c r="H2" s="240"/>
+      <c r="I2" s="241"/>
+      <c r="J2" s="248" t="s">
         <v>361</v>
       </c>
-      <c r="K2" s="264" t="s">
+      <c r="K2" s="239" t="s">
         <v>362</v>
       </c>
-      <c r="L2" s="265"/>
-      <c r="M2" s="266"/>
+      <c r="L2" s="240"/>
+      <c r="M2" s="241"/>
     </row>
     <row r="3" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="248"/>
-      <c r="B3" s="248"/>
-      <c r="C3" s="248"/>
-      <c r="D3" s="248"/>
-      <c r="E3" s="248"/>
-      <c r="F3" s="248"/>
+      <c r="A3" s="253"/>
+      <c r="B3" s="253"/>
+      <c r="C3" s="253"/>
+      <c r="D3" s="253"/>
+      <c r="E3" s="253"/>
+      <c r="F3" s="253"/>
       <c r="G3" s="158" t="s">
         <v>363</v>
       </c>
@@ -25626,7 +25653,7 @@
       <c r="I3" s="163" t="s">
         <v>365</v>
       </c>
-      <c r="J3" s="268"/>
+      <c r="J3" s="249"/>
       <c r="K3" s="158" t="s">
         <v>363</v>
       </c>
@@ -25653,10 +25680,10 @@
       <c r="M4" s="157"/>
     </row>
     <row r="5" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="241" t="s">
+      <c r="A5" s="269" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="244" t="s">
+      <c r="B5" s="250" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="136" t="s">
@@ -25665,7 +25692,7 @@
       <c r="D5" s="137">
         <v>1</v>
       </c>
-      <c r="E5" s="244" t="s">
+      <c r="E5" s="250" t="s">
         <v>366</v>
       </c>
       <c r="F5" s="137" t="s">
@@ -25694,15 +25721,15 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="242"/>
-      <c r="B6" s="262"/>
+      <c r="A6" s="270"/>
+      <c r="B6" s="246"/>
       <c r="C6" s="139" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="140">
         <v>1</v>
       </c>
-      <c r="E6" s="262"/>
+      <c r="E6" s="246"/>
       <c r="F6" s="140" t="s">
         <v>384</v>
       </c>
@@ -25729,15 +25756,15 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="242"/>
-      <c r="B7" s="245"/>
+      <c r="A7" s="270"/>
+      <c r="B7" s="247"/>
       <c r="C7" s="139" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="140">
         <v>1</v>
       </c>
-      <c r="E7" s="262"/>
+      <c r="E7" s="246"/>
       <c r="F7" s="140" t="s">
         <v>384</v>
       </c>
@@ -25764,7 +25791,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="243"/>
+      <c r="A8" s="271"/>
       <c r="B8" s="144" t="s">
         <v>265</v>
       </c>
@@ -25774,7 +25801,7 @@
       <c r="D8" s="143">
         <v>1</v>
       </c>
-      <c r="E8" s="240"/>
+      <c r="E8" s="251"/>
       <c r="F8" s="143" t="s">
         <v>386</v>
       </c>
@@ -25801,10 +25828,10 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="241" t="s">
+      <c r="A9" s="269" t="s">
         <v>387</v>
       </c>
-      <c r="B9" s="244" t="s">
+      <c r="B9" s="250" t="s">
         <v>388</v>
       </c>
       <c r="C9" s="136" t="s">
@@ -25813,7 +25840,7 @@
       <c r="D9" s="137">
         <v>2</v>
       </c>
-      <c r="E9" s="244" t="s">
+      <c r="E9" s="250" t="s">
         <v>288</v>
       </c>
       <c r="F9" s="137" t="s">
@@ -25823,10 +25850,10 @@
         <v>420</v>
       </c>
       <c r="H9" s="149" t="s">
-        <v>368</v>
-      </c>
-      <c r="I9" s="149" t="s">
-        <v>368</v>
+        <v>444</v>
+      </c>
+      <c r="I9" s="164" t="s">
+        <v>446</v>
       </c>
       <c r="J9" s="149" t="s">
         <v>385</v>
@@ -25842,15 +25869,15 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="242"/>
-      <c r="B10" s="262"/>
+      <c r="A10" s="270"/>
+      <c r="B10" s="246"/>
       <c r="C10" s="139" t="s">
         <v>391</v>
       </c>
       <c r="D10" s="140">
         <v>1</v>
       </c>
-      <c r="E10" s="262"/>
+      <c r="E10" s="246"/>
       <c r="F10" s="140" t="s">
         <v>386</v>
       </c>
@@ -25858,10 +25885,10 @@
         <v>421</v>
       </c>
       <c r="H10" s="152" t="s">
-        <v>368</v>
-      </c>
-      <c r="I10" s="152" t="s">
-        <v>368</v>
+        <v>444</v>
+      </c>
+      <c r="I10" s="272" t="s">
+        <v>443</v>
       </c>
       <c r="J10" s="152" t="s">
         <v>385</v>
@@ -25877,15 +25904,15 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="242"/>
-      <c r="B11" s="262"/>
+      <c r="A11" s="270"/>
+      <c r="B11" s="246"/>
       <c r="C11" s="139" t="s">
         <v>392</v>
       </c>
       <c r="D11" s="140">
         <v>1</v>
       </c>
-      <c r="E11" s="262"/>
+      <c r="E11" s="246"/>
       <c r="F11" s="140" t="s">
         <v>386</v>
       </c>
@@ -25912,15 +25939,15 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="242"/>
-      <c r="B12" s="245"/>
+      <c r="A12" s="270"/>
+      <c r="B12" s="247"/>
       <c r="C12" s="139" t="s">
         <v>393</v>
       </c>
       <c r="D12" s="140">
         <v>2</v>
       </c>
-      <c r="E12" s="245"/>
+      <c r="E12" s="247"/>
       <c r="F12" s="140" t="s">
         <v>390</v>
       </c>
@@ -25931,7 +25958,7 @@
         <v>368</v>
       </c>
       <c r="I12" s="152" t="s">
-        <v>368</v>
+        <v>445</v>
       </c>
       <c r="J12" s="152" t="s">
         <v>385</v>
@@ -25947,8 +25974,8 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="242"/>
-      <c r="B13" s="239" t="s">
+      <c r="A13" s="270"/>
+      <c r="B13" s="245" t="s">
         <v>394</v>
       </c>
       <c r="C13" s="139" t="s">
@@ -25957,7 +25984,7 @@
       <c r="D13" s="140">
         <v>2</v>
       </c>
-      <c r="E13" s="239" t="s">
+      <c r="E13" s="245" t="s">
         <v>288</v>
       </c>
       <c r="F13" s="140" t="s">
@@ -25986,15 +26013,15 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="242"/>
-      <c r="B14" s="262"/>
+      <c r="A14" s="270"/>
+      <c r="B14" s="246"/>
       <c r="C14" s="139" t="s">
         <v>396</v>
       </c>
       <c r="D14" s="140">
         <v>1</v>
       </c>
-      <c r="E14" s="262"/>
+      <c r="E14" s="246"/>
       <c r="F14" s="140" t="s">
         <v>386</v>
       </c>
@@ -26021,20 +26048,20 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="242"/>
-      <c r="B15" s="245"/>
+      <c r="A15" s="270"/>
+      <c r="B15" s="247"/>
       <c r="C15" s="139" t="s">
         <v>397</v>
       </c>
       <c r="D15" s="140">
         <v>1</v>
       </c>
-      <c r="E15" s="245"/>
+      <c r="E15" s="247"/>
       <c r="F15" s="140" t="s">
         <v>386</v>
       </c>
-      <c r="G15" s="152" t="s">
-        <v>368</v>
+      <c r="G15" s="272" t="s">
+        <v>442</v>
       </c>
       <c r="H15" s="152" t="s">
         <v>368</v>
@@ -26056,8 +26083,8 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="242"/>
-      <c r="B16" s="244" t="s">
+      <c r="A16" s="270"/>
+      <c r="B16" s="250" t="s">
         <v>266</v>
       </c>
       <c r="C16" s="136" t="s">
@@ -26066,7 +26093,7 @@
       <c r="D16" s="137">
         <v>1</v>
       </c>
-      <c r="E16" s="244" t="s">
+      <c r="E16" s="250" t="s">
         <v>399</v>
       </c>
       <c r="F16" s="137" t="s">
@@ -26095,15 +26122,15 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="242"/>
-      <c r="B17" s="245"/>
+      <c r="A17" s="270"/>
+      <c r="B17" s="247"/>
       <c r="C17" s="139" t="s">
         <v>402</v>
       </c>
       <c r="D17" s="140">
         <v>2</v>
       </c>
-      <c r="E17" s="245"/>
+      <c r="E17" s="247"/>
       <c r="F17" s="140" t="s">
         <v>400</v>
       </c>
@@ -26130,8 +26157,8 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="242"/>
-      <c r="B18" s="239" t="s">
+      <c r="A18" s="270"/>
+      <c r="B18" s="245" t="s">
         <v>115</v>
       </c>
       <c r="C18" s="139" t="s">
@@ -26140,7 +26167,7 @@
       <c r="D18" s="140">
         <v>1</v>
       </c>
-      <c r="E18" s="239" t="s">
+      <c r="E18" s="245" t="s">
         <v>376</v>
       </c>
       <c r="F18" s="140" t="s">
@@ -26169,15 +26196,15 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="242"/>
-      <c r="B19" s="245"/>
+      <c r="A19" s="270"/>
+      <c r="B19" s="247"/>
       <c r="C19" s="139" t="s">
         <v>118</v>
       </c>
       <c r="D19" s="140">
         <v>2</v>
       </c>
-      <c r="E19" s="262"/>
+      <c r="E19" s="246"/>
       <c r="F19" s="140" t="s">
         <v>404</v>
       </c>
@@ -26204,7 +26231,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="242"/>
+      <c r="A20" s="270"/>
       <c r="B20" s="146" t="s">
         <v>405</v>
       </c>
@@ -26214,7 +26241,7 @@
       <c r="D20" s="140">
         <v>1</v>
       </c>
-      <c r="E20" s="245"/>
+      <c r="E20" s="247"/>
       <c r="F20" s="140" t="s">
         <v>390</v>
       </c>
@@ -26241,8 +26268,8 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="242"/>
-      <c r="B21" s="239" t="s">
+      <c r="A21" s="270"/>
+      <c r="B21" s="245" t="s">
         <v>407</v>
       </c>
       <c r="C21" s="139" t="s">
@@ -26251,7 +26278,7 @@
       <c r="D21" s="140">
         <v>3</v>
       </c>
-      <c r="E21" s="239" t="s">
+      <c r="E21" s="245" t="s">
         <v>366</v>
       </c>
       <c r="F21" s="140" t="s">
@@ -26280,15 +26307,15 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="242"/>
-      <c r="B22" s="262"/>
+      <c r="A22" s="270"/>
+      <c r="B22" s="246"/>
       <c r="C22" s="139" t="s">
         <v>410</v>
       </c>
       <c r="D22" s="140">
         <v>3</v>
       </c>
-      <c r="E22" s="262"/>
+      <c r="E22" s="246"/>
       <c r="F22" s="140" t="s">
         <v>404</v>
       </c>
@@ -26315,15 +26342,15 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="242"/>
-      <c r="B23" s="262"/>
+      <c r="A23" s="270"/>
+      <c r="B23" s="246"/>
       <c r="C23" s="139" t="s">
         <v>280</v>
       </c>
       <c r="D23" s="140">
         <v>3</v>
       </c>
-      <c r="E23" s="245"/>
+      <c r="E23" s="247"/>
       <c r="F23" s="140" t="s">
         <v>404</v>
       </c>
@@ -26350,8 +26377,8 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="243"/>
-      <c r="B24" s="240"/>
+      <c r="A24" s="271"/>
+      <c r="B24" s="251"/>
       <c r="C24" s="142" t="s">
         <v>411</v>
       </c>
@@ -26387,10 +26414,10 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="241" t="s">
+      <c r="A25" s="269" t="s">
         <v>413</v>
       </c>
-      <c r="B25" s="244" t="s">
+      <c r="B25" s="250" t="s">
         <v>414</v>
       </c>
       <c r="C25" s="136" t="s">
@@ -26399,7 +26426,7 @@
       <c r="D25" s="137">
         <v>1</v>
       </c>
-      <c r="E25" s="244" t="s">
+      <c r="E25" s="250" t="s">
         <v>366</v>
       </c>
       <c r="F25" s="138" t="s">
@@ -26428,15 +26455,15 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="242"/>
-      <c r="B26" s="262"/>
+      <c r="A26" s="270"/>
+      <c r="B26" s="246"/>
       <c r="C26" s="139" t="s">
         <v>129</v>
       </c>
       <c r="D26" s="140">
         <v>1</v>
       </c>
-      <c r="E26" s="245"/>
+      <c r="E26" s="247"/>
       <c r="F26" s="137" t="s">
         <v>370</v>
       </c>
@@ -26463,15 +26490,15 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="242"/>
-      <c r="B27" s="262"/>
+      <c r="A27" s="270"/>
+      <c r="B27" s="246"/>
       <c r="C27" s="139" t="s">
         <v>418</v>
       </c>
       <c r="D27" s="140">
         <v>3</v>
       </c>
-      <c r="E27" s="239" t="s">
+      <c r="E27" s="245" t="s">
         <v>376</v>
       </c>
       <c r="F27" s="140" t="s">
@@ -26500,15 +26527,15 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="242"/>
-      <c r="B28" s="245"/>
+      <c r="A28" s="270"/>
+      <c r="B28" s="247"/>
       <c r="C28" s="139" t="s">
         <v>125</v>
       </c>
       <c r="D28" s="140">
         <v>3</v>
       </c>
-      <c r="E28" s="262"/>
+      <c r="E28" s="246"/>
       <c r="F28" s="140" t="s">
         <v>377</v>
       </c>
@@ -26535,7 +26562,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="243"/>
+      <c r="A29" s="271"/>
       <c r="B29" s="144" t="s">
         <v>415</v>
       </c>
@@ -26545,7 +26572,7 @@
       <c r="D29" s="143">
         <v>2</v>
       </c>
-      <c r="E29" s="240"/>
+      <c r="E29" s="251"/>
       <c r="F29" s="143" t="s">
         <v>370</v>
       </c>
@@ -26572,10 +26599,10 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="241" t="s">
+      <c r="A30" s="269" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="244" t="s">
+      <c r="B30" s="250" t="s">
         <v>71</v>
       </c>
       <c r="C30" s="136" t="s">
@@ -26584,7 +26611,7 @@
       <c r="D30" s="137">
         <v>3</v>
       </c>
-      <c r="E30" s="244" t="s">
+      <c r="E30" s="250" t="s">
         <v>366</v>
       </c>
       <c r="F30" s="138" t="s">
@@ -26613,15 +26640,15 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="242"/>
-      <c r="B31" s="245"/>
+      <c r="A31" s="270"/>
+      <c r="B31" s="247"/>
       <c r="C31" s="139" t="s">
         <v>74</v>
       </c>
       <c r="D31" s="140">
         <v>3</v>
       </c>
-      <c r="E31" s="245"/>
+      <c r="E31" s="247"/>
       <c r="F31" s="137" t="s">
         <v>367</v>
       </c>
@@ -26648,8 +26675,8 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="242"/>
-      <c r="B32" s="239" t="s">
+      <c r="A32" s="270"/>
+      <c r="B32" s="245" t="s">
         <v>267</v>
       </c>
       <c r="C32" s="139" t="s">
@@ -26658,7 +26685,7 @@
       <c r="D32" s="140">
         <v>2</v>
       </c>
-      <c r="E32" s="239" t="s">
+      <c r="E32" s="245" t="s">
         <v>288</v>
       </c>
       <c r="F32" s="140" t="s">
@@ -26687,15 +26714,15 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="242"/>
-      <c r="B33" s="262"/>
+      <c r="A33" s="270"/>
+      <c r="B33" s="246"/>
       <c r="C33" s="139" t="s">
         <v>372</v>
       </c>
       <c r="D33" s="140">
         <v>2</v>
       </c>
-      <c r="E33" s="262"/>
+      <c r="E33" s="246"/>
       <c r="F33" s="140" t="s">
         <v>370</v>
       </c>
@@ -26722,15 +26749,15 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="242"/>
-      <c r="B34" s="245"/>
+      <c r="A34" s="270"/>
+      <c r="B34" s="247"/>
       <c r="C34" s="139" t="s">
         <v>374</v>
       </c>
       <c r="D34" s="140">
         <v>2</v>
       </c>
-      <c r="E34" s="245"/>
+      <c r="E34" s="247"/>
       <c r="F34" s="140" t="s">
         <v>370</v>
       </c>
@@ -26757,8 +26784,8 @@
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="242"/>
-      <c r="B35" s="239" t="s">
+      <c r="A35" s="270"/>
+      <c r="B35" s="245" t="s">
         <v>268</v>
       </c>
       <c r="C35" s="139" t="s">
@@ -26767,7 +26794,7 @@
       <c r="D35" s="140">
         <v>2</v>
       </c>
-      <c r="E35" s="239" t="s">
+      <c r="E35" s="245" t="s">
         <v>376</v>
       </c>
       <c r="F35" s="140" t="s">
@@ -26796,15 +26823,15 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="242"/>
-      <c r="B36" s="245"/>
+      <c r="A36" s="270"/>
+      <c r="B36" s="247"/>
       <c r="C36" s="139" t="s">
         <v>106</v>
       </c>
       <c r="D36" s="140">
         <v>3</v>
       </c>
-      <c r="E36" s="262"/>
+      <c r="E36" s="246"/>
       <c r="F36" s="140" t="s">
         <v>377</v>
       </c>
@@ -26831,8 +26858,8 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="242"/>
-      <c r="B37" s="263" t="s">
+      <c r="A37" s="270"/>
+      <c r="B37" s="254" t="s">
         <v>378</v>
       </c>
       <c r="C37" s="141" t="s">
@@ -26841,7 +26868,7 @@
       <c r="D37" s="140">
         <v>2</v>
       </c>
-      <c r="E37" s="262"/>
+      <c r="E37" s="246"/>
       <c r="F37" s="140" t="s">
         <v>377</v>
       </c>
@@ -26868,15 +26895,15 @@
       </c>
     </row>
     <row r="38" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="243"/>
-      <c r="B38" s="259"/>
+      <c r="A38" s="271"/>
+      <c r="B38" s="255"/>
       <c r="C38" s="142" t="s">
         <v>380</v>
       </c>
       <c r="D38" s="143">
         <v>3</v>
       </c>
-      <c r="E38" s="240"/>
+      <c r="E38" s="251"/>
       <c r="F38" s="143" t="s">
         <v>377</v>
       </c>
@@ -26903,60 +26930,60 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="241" t="s">
+      <c r="A39" s="269" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="244" t="s">
+      <c r="B39" s="250" t="s">
         <v>69</v>
       </c>
-      <c r="C39" s="256" t="s">
+      <c r="C39" s="258" t="s">
         <v>69</v>
       </c>
-      <c r="D39" s="258">
+      <c r="D39" s="260">
         <v>1</v>
       </c>
-      <c r="E39" s="244" t="s">
+      <c r="E39" s="250" t="s">
         <v>366</v>
       </c>
-      <c r="F39" s="258" t="s">
+      <c r="F39" s="260" t="s">
         <v>381</v>
       </c>
-      <c r="G39" s="260" t="s">
+      <c r="G39" s="261" t="s">
         <v>421</v>
       </c>
-      <c r="H39" s="250" t="s">
+      <c r="H39" s="263" t="s">
         <v>438</v>
       </c>
-      <c r="I39" s="252" t="s">
+      <c r="I39" s="265" t="s">
         <v>371</v>
       </c>
-      <c r="J39" s="252" t="s">
+      <c r="J39" s="265" t="s">
         <v>382</v>
       </c>
-      <c r="K39" s="252" t="s">
+      <c r="K39" s="265" t="s">
         <v>368</v>
       </c>
-      <c r="L39" s="252" t="s">
+      <c r="L39" s="265" t="s">
         <v>383</v>
       </c>
-      <c r="M39" s="254" t="s">
+      <c r="M39" s="256" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="243"/>
-      <c r="B40" s="240"/>
-      <c r="C40" s="257"/>
-      <c r="D40" s="259"/>
-      <c r="E40" s="240"/>
-      <c r="F40" s="259"/>
-      <c r="G40" s="261"/>
-      <c r="H40" s="251"/>
-      <c r="I40" s="253"/>
-      <c r="J40" s="253"/>
-      <c r="K40" s="253"/>
-      <c r="L40" s="253"/>
-      <c r="M40" s="255"/>
+      <c r="A40" s="271"/>
+      <c r="B40" s="251"/>
+      <c r="C40" s="259"/>
+      <c r="D40" s="255"/>
+      <c r="E40" s="251"/>
+      <c r="F40" s="255"/>
+      <c r="G40" s="262"/>
+      <c r="H40" s="264"/>
+      <c r="I40" s="266"/>
+      <c r="J40" s="266"/>
+      <c r="K40" s="266"/>
+      <c r="L40" s="266"/>
+      <c r="M40" s="257"/>
     </row>
     <row r="41" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="42" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -27015,7 +27042,7 @@
       <c r="C45" s="140">
         <v>1</v>
       </c>
-      <c r="D45" s="239" t="s">
+      <c r="D45" s="245" t="s">
         <v>366</v>
       </c>
       <c r="E45" s="172">
@@ -27035,7 +27062,7 @@
       <c r="C46" s="143">
         <v>1</v>
       </c>
-      <c r="D46" s="240"/>
+      <c r="D46" s="251"/>
       <c r="E46" s="175">
         <v>1</v>
       </c>
@@ -27055,7 +27082,7 @@
       <c r="C47" s="137">
         <v>1</v>
       </c>
-      <c r="D47" s="244" t="s">
+      <c r="D47" s="250" t="s">
         <v>288</v>
       </c>
       <c r="E47" s="178">
@@ -27064,7 +27091,9 @@
       <c r="F47" s="178">
         <v>1</v>
       </c>
-      <c r="G47" s="179"/>
+      <c r="G47" s="181" t="s">
+        <v>447</v>
+      </c>
       <c r="H47" s="180"/>
     </row>
     <row r="48" spans="1:13" ht="23.25" x14ac:dyDescent="0.3">
@@ -27075,7 +27104,7 @@
       <c r="C48" s="140">
         <v>1</v>
       </c>
-      <c r="D48" s="245"/>
+      <c r="D48" s="247"/>
       <c r="E48" s="172">
         <v>1</v>
       </c>
@@ -27115,7 +27144,7 @@
       <c r="C50" s="140">
         <v>1</v>
       </c>
-      <c r="D50" s="239" t="s">
+      <c r="D50" s="245" t="s">
         <v>376</v>
       </c>
       <c r="E50" s="172">
@@ -27135,7 +27164,7 @@
       <c r="C51" s="140">
         <v>1</v>
       </c>
-      <c r="D51" s="245"/>
+      <c r="D51" s="247"/>
       <c r="E51" s="172">
         <v>1</v>
       </c>
@@ -27257,7 +27286,7 @@
       <c r="C57" s="140">
         <v>3</v>
       </c>
-      <c r="D57" s="239" t="s">
+      <c r="D57" s="245" t="s">
         <v>376</v>
       </c>
       <c r="E57" s="172">
@@ -27277,7 +27306,7 @@
       <c r="C58" s="143">
         <v>3</v>
       </c>
-      <c r="D58" s="240"/>
+      <c r="D58" s="251"/>
       <c r="E58" s="175">
         <v>1</v>
       </c>
@@ -27311,47 +27340,6 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="B1:B3"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="D57:D58"/>
     <mergeCell ref="A5:A8"/>
@@ -27365,6 +27353,47 @@
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="B25:B28"/>
     <mergeCell ref="B13:B15"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27391,12 +27420,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="220"/>
-      <c r="B1" s="221"/>
-      <c r="C1" s="221"/>
-      <c r="D1" s="221"/>
-      <c r="E1" s="221"/>
-      <c r="F1" s="222"/>
+      <c r="A1" s="213"/>
+      <c r="B1" s="214"/>
+      <c r="C1" s="214"/>
+      <c r="D1" s="214"/>
+      <c r="E1" s="214"/>
+      <c r="F1" s="215"/>
     </row>
     <row r="2" spans="1:6" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
@@ -27419,15 +27448,15 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="211"/>
-      <c r="B3" s="212"/>
-      <c r="C3" s="212"/>
-      <c r="D3" s="212"/>
-      <c r="E3" s="212"/>
-      <c r="F3" s="213"/>
+      <c r="A3" s="224"/>
+      <c r="B3" s="225"/>
+      <c r="C3" s="225"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="225"/>
+      <c r="F3" s="226"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="224" t="s">
+      <c r="A4" s="220" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="74" t="s">
@@ -27436,7 +27465,7 @@
       <c r="C4" s="117">
         <v>1</v>
       </c>
-      <c r="D4" s="228" t="s">
+      <c r="D4" s="210" t="s">
         <v>283</v>
       </c>
       <c r="E4" s="33"/>
@@ -27450,12 +27479,12 @@
       <c r="C5" s="118">
         <v>1</v>
       </c>
-      <c r="D5" s="229"/>
+      <c r="D5" s="223"/>
       <c r="E5" s="35"/>
       <c r="F5" s="36"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="209" t="s">
+      <c r="A6" s="216" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="76" t="s">
@@ -27464,26 +27493,26 @@
       <c r="C6" s="116">
         <v>1</v>
       </c>
-      <c r="D6" s="226" t="s">
+      <c r="D6" s="222" t="s">
         <v>308</v>
       </c>
       <c r="E6" s="31"/>
       <c r="F6" s="32"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="210"/>
+      <c r="A7" s="217"/>
       <c r="B7" s="74" t="s">
         <v>111</v>
       </c>
       <c r="C7" s="117">
         <v>1</v>
       </c>
-      <c r="D7" s="225"/>
+      <c r="D7" s="212"/>
       <c r="E7" s="33"/>
       <c r="F7" s="34"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="210"/>
+      <c r="A8" s="217"/>
       <c r="B8" s="77" t="s">
         <v>266</v>
       </c>
@@ -27497,28 +27526,28 @@
       <c r="F8" s="34"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="210"/>
+      <c r="A9" s="217"/>
       <c r="B9" s="74" t="s">
         <v>115</v>
       </c>
       <c r="C9" s="117">
         <v>1</v>
       </c>
-      <c r="D9" s="228" t="s">
+      <c r="D9" s="210" t="s">
         <v>289</v>
       </c>
       <c r="E9" s="33"/>
       <c r="F9" s="34"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="210"/>
+      <c r="A10" s="217"/>
       <c r="B10" s="77" t="s">
         <v>295</v>
       </c>
       <c r="C10" s="117">
         <v>1</v>
       </c>
-      <c r="D10" s="225"/>
+      <c r="D10" s="212"/>
       <c r="E10" s="33"/>
       <c r="F10" s="34"/>
     </row>
@@ -27537,7 +27566,7 @@
       <c r="F11" s="34"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="209" t="s">
+      <c r="A12" s="216" t="s">
         <v>45</v>
       </c>
       <c r="B12" s="73" t="s">
@@ -27567,7 +27596,7 @@
       <c r="F13" s="36"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="209" t="s">
+      <c r="A14" s="216" t="s">
         <v>67</v>
       </c>
       <c r="B14" s="78" t="s">
@@ -27583,7 +27612,7 @@
       <c r="F14" s="56"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="210"/>
+      <c r="A15" s="217"/>
       <c r="B15" s="78" t="s">
         <v>267</v>
       </c>
@@ -27597,14 +27626,14 @@
       <c r="F15" s="34"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="210"/>
+      <c r="A16" s="217"/>
       <c r="B16" s="74" t="s">
         <v>268</v>
       </c>
       <c r="C16" s="117">
         <v>3</v>
       </c>
-      <c r="D16" s="228" t="s">
+      <c r="D16" s="210" t="s">
         <v>289</v>
       </c>
       <c r="E16" s="33"/>
@@ -27618,7 +27647,7 @@
       <c r="C17" s="121">
         <v>3</v>
       </c>
-      <c r="D17" s="229"/>
+      <c r="D17" s="223"/>
       <c r="E17" s="44"/>
       <c r="F17" s="45"/>
     </row>

--- a/WebContent/발표/3조 5차 요구사항정의서.xlsx
+++ b/WebContent/발표/3조 5차 요구사항정의서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pkmon\Desktop\project05\WebContent\발표\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a01_javaexp\project04\project05\WebContent\발표\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="458">
   <si>
     <t>구분</t>
   </si>
@@ -1985,9 +1985,6 @@
     </r>
   </si>
   <si>
-    <t>0/12</t>
-  </si>
-  <si>
     <t>마이페이지</t>
   </si>
   <si>
@@ -2128,10 +2125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2/3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2/6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2141,10 +2134,6 @@
   </si>
   <si>
     <t>1/1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2199,11 +2188,63 @@
     <t>58%(7/12)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>3/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4010,7 +4051,13 @@
     <xf numFmtId="0" fontId="10" fillId="10" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4019,13 +4066,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4037,58 +4090,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4103,22 +4108,52 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4136,55 +4171,46 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4200,6 +4226,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="12" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4220,22 +4249,34 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -4601,10 +4642,10 @@
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="203" t="s">
+      <c r="B3" s="207" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="200" t="s">
+      <c r="C3" s="198" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="15" t="s">
@@ -4621,8 +4662,8 @@
       <c r="K3" s="11"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="204"/>
-      <c r="C4" s="201"/>
+      <c r="B4" s="208"/>
+      <c r="C4" s="199"/>
       <c r="D4" s="13" t="s">
         <v>13</v>
       </c>
@@ -4637,7 +4678,7 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="204"/>
+      <c r="B5" s="208"/>
       <c r="C5" s="202"/>
       <c r="D5" s="16" t="s">
         <v>15</v>
@@ -4653,8 +4694,8 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="204"/>
-      <c r="C6" s="200" t="s">
+      <c r="B6" s="208"/>
+      <c r="C6" s="198" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="12" t="s">
@@ -4671,8 +4712,8 @@
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="204"/>
-      <c r="C7" s="201"/>
+      <c r="B7" s="208"/>
+      <c r="C7" s="199"/>
       <c r="D7" s="13" t="s">
         <v>20</v>
       </c>
@@ -4687,7 +4728,7 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="205"/>
+      <c r="B8" s="209"/>
       <c r="C8" s="202"/>
       <c r="D8" s="16" t="s">
         <v>17</v>
@@ -4705,10 +4746,10 @@
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="197" t="s">
+      <c r="B9" s="206" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="200" t="s">
+      <c r="C9" s="198" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="15" t="s">
@@ -4725,7 +4766,7 @@
       <c r="K9" s="11"/>
     </row>
     <row r="10" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="198"/>
+      <c r="B10" s="200"/>
       <c r="C10" s="202"/>
       <c r="D10" s="17" t="s">
         <v>25</v>
@@ -4741,11 +4782,11 @@
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="198"/>
-      <c r="C11" s="200" t="s">
+      <c r="B11" s="200"/>
+      <c r="C11" s="198" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="206" t="s">
+      <c r="D11" s="203" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="10" t="s">
@@ -4759,9 +4800,9 @@
       <c r="K11" s="11"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="198"/>
-      <c r="C12" s="201"/>
-      <c r="D12" s="207"/>
+      <c r="B12" s="200"/>
+      <c r="C12" s="199"/>
+      <c r="D12" s="205"/>
       <c r="E12" s="1" t="s">
         <v>34</v>
       </c>
@@ -4773,8 +4814,8 @@
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="198"/>
-      <c r="C13" s="201"/>
+      <c r="B13" s="200"/>
+      <c r="C13" s="199"/>
       <c r="D13" s="13" t="s">
         <v>31</v>
       </c>
@@ -4789,8 +4830,8 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="198"/>
-      <c r="C14" s="201"/>
+      <c r="B14" s="200"/>
+      <c r="C14" s="199"/>
       <c r="D14" s="13" t="s">
         <v>32</v>
       </c>
@@ -4805,7 +4846,7 @@
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="198"/>
+      <c r="B15" s="200"/>
       <c r="C15" s="202"/>
       <c r="D15" s="17" t="s">
         <v>35</v>
@@ -4823,8 +4864,8 @@
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="198"/>
-      <c r="C16" s="200" t="s">
+      <c r="B16" s="200"/>
+      <c r="C16" s="198" t="s">
         <v>38</v>
       </c>
       <c r="D16" s="15" t="s">
@@ -4841,8 +4882,8 @@
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="198"/>
-      <c r="C17" s="201"/>
+      <c r="B17" s="200"/>
+      <c r="C17" s="199"/>
       <c r="D17" s="13" t="s">
         <v>31</v>
       </c>
@@ -4857,8 +4898,8 @@
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="198"/>
-      <c r="C18" s="201"/>
+      <c r="B18" s="200"/>
+      <c r="C18" s="199"/>
       <c r="D18" s="13" t="s">
         <v>42</v>
       </c>
@@ -4873,7 +4914,7 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="199"/>
+      <c r="B19" s="201"/>
       <c r="C19" s="202"/>
       <c r="D19" s="17" t="s">
         <v>35</v>
@@ -4889,10 +4930,10 @@
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="197" t="s">
+      <c r="B20" s="206" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="200" t="s">
+      <c r="C20" s="198" t="s">
         <v>46</v>
       </c>
       <c r="D20" s="15" t="s">
@@ -4909,8 +4950,8 @@
       <c r="K20" s="11"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="198"/>
-      <c r="C21" s="201"/>
+      <c r="B21" s="200"/>
+      <c r="C21" s="199"/>
       <c r="D21" s="13" t="s">
         <v>48</v>
       </c>
@@ -4925,7 +4966,7 @@
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="198"/>
+      <c r="B22" s="200"/>
       <c r="C22" s="202"/>
       <c r="D22" s="16" t="s">
         <v>52</v>
@@ -4941,7 +4982,7 @@
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="198"/>
+      <c r="B23" s="200"/>
       <c r="C23" s="21" t="s">
         <v>54</v>
       </c>
@@ -4959,10 +5000,10 @@
       <c r="K23" s="20"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="197" t="s">
+      <c r="B24" s="206" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="200" t="s">
+      <c r="C24" s="198" t="s">
         <v>49</v>
       </c>
       <c r="D24" s="15" t="s">
@@ -4979,8 +5020,8 @@
       <c r="K24" s="11"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="198"/>
-      <c r="C25" s="201"/>
+      <c r="B25" s="200"/>
+      <c r="C25" s="199"/>
       <c r="D25" s="13" t="s">
         <v>59</v>
       </c>
@@ -4995,7 +5036,7 @@
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="198"/>
+      <c r="B26" s="200"/>
       <c r="C26" s="202"/>
       <c r="D26" s="16" t="s">
         <v>61</v>
@@ -5011,7 +5052,7 @@
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="198"/>
+      <c r="B27" s="200"/>
       <c r="C27" s="23" t="s">
         <v>56</v>
       </c>
@@ -5029,7 +5070,7 @@
       <c r="K27" s="20"/>
     </row>
     <row r="28" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="199"/>
+      <c r="B28" s="201"/>
       <c r="C28" s="23" t="s">
         <v>44</v>
       </c>
@@ -5067,10 +5108,10 @@
       <c r="K29" s="20"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="200" t="s">
+      <c r="B30" s="198" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="206" t="s">
+      <c r="C30" s="203" t="s">
         <v>71</v>
       </c>
       <c r="D30" s="15" t="s">
@@ -5087,8 +5128,8 @@
       <c r="K30" s="11"/>
     </row>
     <row r="31" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="201"/>
-      <c r="C31" s="208"/>
+      <c r="B31" s="199"/>
+      <c r="C31" s="204"/>
       <c r="D31" s="14" t="s">
         <v>74</v>
       </c>
@@ -5103,8 +5144,8 @@
       <c r="K31" s="27"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="198"/>
-      <c r="C32" s="200" t="s">
+      <c r="B32" s="200"/>
+      <c r="C32" s="198" t="s">
         <v>85</v>
       </c>
       <c r="D32" s="15" t="s">
@@ -5121,7 +5162,7 @@
       <c r="K32" s="11"/>
     </row>
     <row r="33" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="198"/>
+      <c r="B33" s="200"/>
       <c r="C33" s="202"/>
       <c r="D33" s="16" t="s">
         <v>88</v>
@@ -5137,8 +5178,8 @@
       <c r="K33" s="4"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="198"/>
-      <c r="C34" s="200" t="s">
+      <c r="B34" s="200"/>
+      <c r="C34" s="198" t="s">
         <v>90</v>
       </c>
       <c r="D34" s="15" t="s">
@@ -5155,8 +5196,8 @@
       <c r="K34" s="11"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="198"/>
-      <c r="C35" s="201"/>
+      <c r="B35" s="200"/>
+      <c r="C35" s="199"/>
       <c r="D35" s="13"/>
       <c r="E35" s="1" t="s">
         <v>34</v>
@@ -5169,8 +5210,8 @@
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="198"/>
-      <c r="C36" s="201"/>
+      <c r="B36" s="200"/>
+      <c r="C36" s="199"/>
       <c r="D36" s="13" t="s">
         <v>31</v>
       </c>
@@ -5185,8 +5226,8 @@
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="198"/>
-      <c r="C37" s="201"/>
+      <c r="B37" s="200"/>
+      <c r="C37" s="199"/>
       <c r="D37" s="13" t="s">
         <v>92</v>
       </c>
@@ -5201,7 +5242,7 @@
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="198"/>
+      <c r="B38" s="200"/>
       <c r="C38" s="202"/>
       <c r="D38" s="16" t="s">
         <v>94</v>
@@ -5217,8 +5258,8 @@
       <c r="K38" s="4"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="198"/>
-      <c r="C39" s="200" t="s">
+      <c r="B39" s="200"/>
+      <c r="C39" s="198" t="s">
         <v>38</v>
       </c>
       <c r="D39" s="15" t="s">
@@ -5235,8 +5276,8 @@
       <c r="K39" s="11"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="198"/>
-      <c r="C40" s="201"/>
+      <c r="B40" s="200"/>
+      <c r="C40" s="199"/>
       <c r="D40" s="13" t="s">
         <v>31</v>
       </c>
@@ -5251,8 +5292,8 @@
       <c r="K40" s="2"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="198"/>
-      <c r="C41" s="201"/>
+      <c r="B41" s="200"/>
+      <c r="C41" s="199"/>
       <c r="D41" s="13" t="s">
         <v>92</v>
       </c>
@@ -5267,8 +5308,8 @@
       <c r="K41" s="2"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="198"/>
-      <c r="C42" s="201"/>
+      <c r="B42" s="200"/>
+      <c r="C42" s="199"/>
       <c r="D42" s="13" t="s">
         <v>35</v>
       </c>
@@ -5283,7 +5324,7 @@
       <c r="K42" s="2"/>
     </row>
     <row r="43" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="198"/>
+      <c r="B43" s="200"/>
       <c r="C43" s="202"/>
       <c r="D43" s="16" t="s">
         <v>97</v>
@@ -5299,8 +5340,8 @@
       <c r="K43" s="4"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="198"/>
-      <c r="C44" s="200" t="s">
+      <c r="B44" s="200"/>
+      <c r="C44" s="198" t="s">
         <v>76</v>
       </c>
       <c r="D44" s="15" t="s">
@@ -5317,7 +5358,7 @@
       <c r="K44" s="11"/>
     </row>
     <row r="45" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="198"/>
+      <c r="B45" s="200"/>
       <c r="C45" s="202"/>
       <c r="D45" s="16" t="s">
         <v>79</v>
@@ -5333,8 +5374,8 @@
       <c r="K45" s="4"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="198"/>
-      <c r="C46" s="200" t="s">
+      <c r="B46" s="200"/>
+      <c r="C46" s="198" t="s">
         <v>81</v>
       </c>
       <c r="D46" s="15" t="s">
@@ -5351,7 +5392,7 @@
       <c r="K46" s="11"/>
     </row>
     <row r="47" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="198"/>
+      <c r="B47" s="200"/>
       <c r="C47" s="202"/>
       <c r="D47" s="16" t="s">
         <v>83</v>
@@ -5367,8 +5408,8 @@
       <c r="K47" s="4"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="198"/>
-      <c r="C48" s="200" t="s">
+      <c r="B48" s="200"/>
+      <c r="C48" s="198" t="s">
         <v>56</v>
       </c>
       <c r="D48" s="15" t="s">
@@ -5385,7 +5426,7 @@
       <c r="K48" s="11"/>
     </row>
     <row r="49" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="199"/>
+      <c r="B49" s="201"/>
       <c r="C49" s="202"/>
       <c r="D49" s="16" t="s">
         <v>101</v>
@@ -5402,6 +5443,18 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B9:B19"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C22"/>
     <mergeCell ref="B30:B49"/>
     <mergeCell ref="C39:C43"/>
     <mergeCell ref="C34:C38"/>
@@ -5410,18 +5463,6 @@
     <mergeCell ref="C48:C49"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B9:B19"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5451,15 +5492,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="213"/>
-      <c r="B1" s="214"/>
-      <c r="C1" s="214"/>
-      <c r="D1" s="214"/>
-      <c r="E1" s="214"/>
-      <c r="F1" s="214"/>
-      <c r="G1" s="214"/>
-      <c r="H1" s="214"/>
-      <c r="I1" s="215"/>
+      <c r="A1" s="221"/>
+      <c r="B1" s="222"/>
+      <c r="C1" s="222"/>
+      <c r="D1" s="222"/>
+      <c r="E1" s="222"/>
+      <c r="F1" s="222"/>
+      <c r="G1" s="222"/>
+      <c r="H1" s="222"/>
+      <c r="I1" s="223"/>
     </row>
     <row r="2" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
@@ -5491,21 +5532,21 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="224"/>
-      <c r="B3" s="225"/>
-      <c r="C3" s="225"/>
-      <c r="D3" s="225"/>
-      <c r="E3" s="225"/>
-      <c r="F3" s="225"/>
-      <c r="G3" s="225"/>
-      <c r="H3" s="225"/>
-      <c r="I3" s="226"/>
+      <c r="A3" s="212"/>
+      <c r="B3" s="213"/>
+      <c r="C3" s="213"/>
+      <c r="D3" s="213"/>
+      <c r="E3" s="213"/>
+      <c r="F3" s="213"/>
+      <c r="G3" s="213"/>
+      <c r="H3" s="213"/>
+      <c r="I3" s="214"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="227" t="s">
+      <c r="A4" s="215" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="221" t="s">
+      <c r="B4" s="218" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="37" t="s">
@@ -5521,8 +5562,8 @@
       <c r="I4" s="32"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="219"/>
-      <c r="B5" s="209"/>
+      <c r="A5" s="216"/>
+      <c r="B5" s="219"/>
       <c r="C5" s="38" t="s">
         <v>13</v>
       </c>
@@ -5536,8 +5577,8 @@
       <c r="I5" s="34"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="219"/>
-      <c r="B6" s="209"/>
+      <c r="A6" s="216"/>
+      <c r="B6" s="219"/>
       <c r="C6" s="38" t="s">
         <v>15</v>
       </c>
@@ -5551,8 +5592,8 @@
       <c r="I6" s="34"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="219"/>
-      <c r="B7" s="209" t="s">
+      <c r="A7" s="216"/>
+      <c r="B7" s="219" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="38" t="s">
@@ -5568,8 +5609,8 @@
       <c r="I7" s="34"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="219"/>
-      <c r="B8" s="209"/>
+      <c r="A8" s="216"/>
+      <c r="B8" s="219"/>
       <c r="C8" s="38" t="s">
         <v>20</v>
       </c>
@@ -5583,8 +5624,8 @@
       <c r="I8" s="34"/>
     </row>
     <row r="9" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="228"/>
-      <c r="B9" s="229"/>
+      <c r="A9" s="217"/>
+      <c r="B9" s="220"/>
       <c r="C9" s="39" t="s">
         <v>17</v>
       </c>
@@ -5598,10 +5639,10 @@
       <c r="I9" s="36"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="216" t="s">
+      <c r="A10" s="210" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="222" t="s">
+      <c r="B10" s="227" t="s">
         <v>103</v>
       </c>
       <c r="C10" s="37" t="s">
@@ -5617,8 +5658,8 @@
       <c r="I10" s="32"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="217"/>
-      <c r="B11" s="211"/>
+      <c r="A11" s="211"/>
+      <c r="B11" s="228"/>
       <c r="C11" s="38" t="s">
         <v>105</v>
       </c>
@@ -5632,8 +5673,8 @@
       <c r="I11" s="34"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="217"/>
-      <c r="B12" s="211"/>
+      <c r="A12" s="211"/>
+      <c r="B12" s="228"/>
       <c r="C12" s="38" t="s">
         <v>92</v>
       </c>
@@ -5647,8 +5688,8 @@
       <c r="I12" s="34"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="217"/>
-      <c r="B13" s="212"/>
+      <c r="A13" s="211"/>
+      <c r="B13" s="226"/>
       <c r="C13" s="38" t="s">
         <v>109</v>
       </c>
@@ -5664,8 +5705,8 @@
       <c r="I13" s="34"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="217"/>
-      <c r="B14" s="210" t="s">
+      <c r="A14" s="211"/>
+      <c r="B14" s="229" t="s">
         <v>180</v>
       </c>
       <c r="C14" s="38" t="s">
@@ -5681,8 +5722,8 @@
       <c r="I14" s="34"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="217"/>
-      <c r="B15" s="211"/>
+      <c r="A15" s="211"/>
+      <c r="B15" s="228"/>
       <c r="C15" s="38" t="s">
         <v>184</v>
       </c>
@@ -5696,8 +5737,8 @@
       <c r="I15" s="34"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="217"/>
-      <c r="B16" s="210" t="s">
+      <c r="A16" s="211"/>
+      <c r="B16" s="229" t="s">
         <v>111</v>
       </c>
       <c r="C16" s="58" t="s">
@@ -5713,8 +5754,8 @@
       <c r="I16" s="34"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="217"/>
-      <c r="B17" s="211"/>
+      <c r="A17" s="211"/>
+      <c r="B17" s="228"/>
       <c r="C17" s="38" t="s">
         <v>105</v>
       </c>
@@ -5728,8 +5769,8 @@
       <c r="I17" s="34"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="217"/>
-      <c r="B18" s="211"/>
+      <c r="A18" s="211"/>
+      <c r="B18" s="228"/>
       <c r="C18" s="38" t="s">
         <v>113</v>
       </c>
@@ -5745,8 +5786,8 @@
       <c r="I18" s="34"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="217"/>
-      <c r="B19" s="212"/>
+      <c r="A19" s="211"/>
+      <c r="B19" s="226"/>
       <c r="C19" s="38" t="s">
         <v>109</v>
       </c>
@@ -5760,8 +5801,8 @@
       <c r="I19" s="34"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="217"/>
-      <c r="B20" s="210" t="s">
+      <c r="A20" s="211"/>
+      <c r="B20" s="229" t="s">
         <v>193</v>
       </c>
       <c r="C20" s="59" t="s">
@@ -5777,8 +5818,8 @@
       <c r="I20" s="34"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="217"/>
-      <c r="B21" s="212"/>
+      <c r="A21" s="211"/>
+      <c r="B21" s="226"/>
       <c r="C21" s="59" t="s">
         <v>194</v>
       </c>
@@ -5792,8 +5833,8 @@
       <c r="I21" s="34"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="217"/>
-      <c r="B22" s="210" t="s">
+      <c r="A22" s="211"/>
+      <c r="B22" s="229" t="s">
         <v>115</v>
       </c>
       <c r="C22" s="38" t="s">
@@ -5809,8 +5850,8 @@
       <c r="I22" s="34"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="217"/>
-      <c r="B23" s="211"/>
+      <c r="A23" s="211"/>
+      <c r="B23" s="228"/>
       <c r="C23" s="38" t="s">
         <v>118</v>
       </c>
@@ -5824,8 +5865,8 @@
       <c r="I23" s="34"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="217"/>
-      <c r="B24" s="211"/>
+      <c r="A24" s="211"/>
+      <c r="B24" s="228"/>
       <c r="C24" s="38" t="s">
         <v>120</v>
       </c>
@@ -5839,8 +5880,8 @@
       <c r="I24" s="34"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="217"/>
-      <c r="B25" s="212"/>
+      <c r="A25" s="211"/>
+      <c r="B25" s="226"/>
       <c r="C25" s="38" t="s">
         <v>122</v>
       </c>
@@ -5854,8 +5895,8 @@
       <c r="I25" s="34"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="217"/>
-      <c r="B26" s="210" t="s">
+      <c r="A26" s="211"/>
+      <c r="B26" s="229" t="s">
         <v>174</v>
       </c>
       <c r="C26" s="38" t="s">
@@ -5871,8 +5912,8 @@
       <c r="I26" s="34"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="217"/>
-      <c r="B27" s="211"/>
+      <c r="A27" s="211"/>
+      <c r="B27" s="228"/>
       <c r="C27" s="38" t="s">
         <v>178</v>
       </c>
@@ -5886,8 +5927,8 @@
       <c r="I27" s="34"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="217"/>
-      <c r="B28" s="211"/>
+      <c r="A28" s="211"/>
+      <c r="B28" s="228"/>
       <c r="C28" s="38" t="s">
         <v>182</v>
       </c>
@@ -5901,8 +5942,8 @@
       <c r="I28" s="34"/>
     </row>
     <row r="29" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="217"/>
-      <c r="B29" s="211"/>
+      <c r="A29" s="211"/>
+      <c r="B29" s="228"/>
       <c r="C29" s="58" t="s">
         <v>176</v>
       </c>
@@ -5916,10 +5957,10 @@
       <c r="I29" s="45"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="216" t="s">
+      <c r="A30" s="210" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="221" t="s">
+      <c r="B30" s="218" t="s">
         <v>127</v>
       </c>
       <c r="C30" s="62" t="s">
@@ -5935,8 +5976,8 @@
       <c r="I30" s="32"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="217"/>
-      <c r="B31" s="209"/>
+      <c r="A31" s="211"/>
+      <c r="B31" s="219"/>
       <c r="C31" s="63" t="s">
         <v>129</v>
       </c>
@@ -5950,8 +5991,8 @@
       <c r="I31" s="34"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="217"/>
-      <c r="B32" s="209"/>
+      <c r="A32" s="211"/>
+      <c r="B32" s="219"/>
       <c r="C32" s="63" t="s">
         <v>132</v>
       </c>
@@ -5965,8 +6006,8 @@
       <c r="I32" s="34"/>
     </row>
     <row r="33" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A33" s="217"/>
-      <c r="B33" s="209"/>
+      <c r="A33" s="211"/>
+      <c r="B33" s="219"/>
       <c r="C33" s="63" t="s">
         <v>125</v>
       </c>
@@ -5980,8 +6021,8 @@
       <c r="I33" s="34"/>
     </row>
     <row r="34" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A34" s="217"/>
-      <c r="B34" s="209" t="s">
+      <c r="A34" s="211"/>
+      <c r="B34" s="219" t="s">
         <v>133</v>
       </c>
       <c r="C34" s="63" t="s">
@@ -5997,8 +6038,8 @@
       <c r="I34" s="45"/>
     </row>
     <row r="35" spans="1:16384" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="217"/>
-      <c r="B35" s="209"/>
+      <c r="A35" s="211"/>
+      <c r="B35" s="219"/>
       <c r="C35" s="63" t="s">
         <v>134</v>
       </c>
@@ -22387,8 +22428,8 @@
       <c r="XFD35" s="46"/>
     </row>
     <row r="36" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A36" s="217"/>
-      <c r="B36" s="209"/>
+      <c r="A36" s="211"/>
+      <c r="B36" s="219"/>
       <c r="C36" s="64" t="s">
         <v>187</v>
       </c>
@@ -22400,8 +22441,8 @@
       <c r="I36" s="56"/>
     </row>
     <row r="37" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A37" s="217"/>
-      <c r="B37" s="209" t="s">
+      <c r="A37" s="211"/>
+      <c r="B37" s="219" t="s">
         <v>136</v>
       </c>
       <c r="C37" s="63" t="s">
@@ -22417,8 +22458,8 @@
       <c r="I37" s="34"/>
     </row>
     <row r="38" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A38" s="217"/>
-      <c r="B38" s="209"/>
+      <c r="A38" s="211"/>
+      <c r="B38" s="219"/>
       <c r="C38" s="63" t="s">
         <v>92</v>
       </c>
@@ -22432,7 +22473,7 @@
       <c r="I38" s="34"/>
     </row>
     <row r="39" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A39" s="217"/>
+      <c r="A39" s="211"/>
       <c r="B39" s="57" t="s">
         <v>139</v>
       </c>
@@ -22449,10 +22490,10 @@
       <c r="I39" s="34"/>
     </row>
     <row r="40" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A40" s="218" t="s">
+      <c r="A40" s="224" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="212" t="s">
+      <c r="B40" s="226" t="s">
         <v>71</v>
       </c>
       <c r="C40" s="41" t="s">
@@ -22468,8 +22509,8 @@
       <c r="I40" s="56"/>
     </row>
     <row r="41" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A41" s="219"/>
-      <c r="B41" s="209"/>
+      <c r="A41" s="216"/>
+      <c r="B41" s="219"/>
       <c r="C41" s="40" t="s">
         <v>74</v>
       </c>
@@ -22483,8 +22524,8 @@
       <c r="I41" s="34"/>
     </row>
     <row r="42" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A42" s="219"/>
-      <c r="B42" s="209" t="s">
+      <c r="A42" s="216"/>
+      <c r="B42" s="219" t="s">
         <v>152</v>
       </c>
       <c r="C42" s="40" t="s">
@@ -22500,8 +22541,8 @@
       <c r="I42" s="34"/>
     </row>
     <row r="43" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A43" s="219"/>
-      <c r="B43" s="209"/>
+      <c r="A43" s="216"/>
+      <c r="B43" s="219"/>
       <c r="C43" s="40" t="s">
         <v>144</v>
       </c>
@@ -22515,11 +22556,11 @@
       <c r="I43" s="34"/>
     </row>
     <row r="44" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A44" s="219"/>
-      <c r="B44" s="209" t="s">
+      <c r="A44" s="216"/>
+      <c r="B44" s="219" t="s">
         <v>163</v>
       </c>
-      <c r="C44" s="210" t="s">
+      <c r="C44" s="229" t="s">
         <v>162</v>
       </c>
       <c r="D44" s="33" t="s">
@@ -22532,9 +22573,9 @@
       <c r="I44" s="34"/>
     </row>
     <row r="45" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A45" s="219"/>
-      <c r="B45" s="209"/>
-      <c r="C45" s="212"/>
+      <c r="A45" s="216"/>
+      <c r="B45" s="219"/>
+      <c r="C45" s="226"/>
       <c r="D45" s="33" t="s">
         <v>164</v>
       </c>
@@ -22545,8 +22586,8 @@
       <c r="I45" s="34"/>
     </row>
     <row r="46" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A46" s="219"/>
-      <c r="B46" s="209"/>
+      <c r="A46" s="216"/>
+      <c r="B46" s="219"/>
       <c r="C46" s="40" t="s">
         <v>112</v>
       </c>
@@ -22560,8 +22601,8 @@
       <c r="I46" s="34"/>
     </row>
     <row r="47" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A47" s="219"/>
-      <c r="B47" s="209"/>
+      <c r="A47" s="216"/>
+      <c r="B47" s="219"/>
       <c r="C47" s="40" t="s">
         <v>106</v>
       </c>
@@ -22575,8 +22616,8 @@
       <c r="I47" s="34"/>
     </row>
     <row r="48" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A48" s="219"/>
-      <c r="B48" s="209"/>
+      <c r="A48" s="216"/>
+      <c r="B48" s="219"/>
       <c r="C48" s="40" t="s">
         <v>147</v>
       </c>
@@ -22590,8 +22631,8 @@
       <c r="I48" s="34"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="219"/>
-      <c r="B49" s="209" t="s">
+      <c r="A49" s="216"/>
+      <c r="B49" s="219" t="s">
         <v>153</v>
       </c>
       <c r="C49" s="40" t="s">
@@ -22607,8 +22648,8 @@
       <c r="I49" s="34"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="219"/>
-      <c r="B50" s="209"/>
+      <c r="A50" s="216"/>
+      <c r="B50" s="219"/>
       <c r="C50" s="40" t="s">
         <v>112</v>
       </c>
@@ -22622,8 +22663,8 @@
       <c r="I50" s="34"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="219"/>
-      <c r="B51" s="209"/>
+      <c r="A51" s="216"/>
+      <c r="B51" s="219"/>
       <c r="C51" s="40" t="s">
         <v>106</v>
       </c>
@@ -22637,8 +22678,8 @@
       <c r="I51" s="34"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="219"/>
-      <c r="B52" s="209"/>
+      <c r="A52" s="216"/>
+      <c r="B52" s="219"/>
       <c r="C52" s="40" t="s">
         <v>147</v>
       </c>
@@ -22652,8 +22693,8 @@
       <c r="I52" s="34"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="219"/>
-      <c r="B53" s="210" t="s">
+      <c r="A53" s="216"/>
+      <c r="B53" s="229" t="s">
         <v>154</v>
       </c>
       <c r="C53" s="40" t="s">
@@ -22669,8 +22710,8 @@
       <c r="I53" s="34"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="219"/>
-      <c r="B54" s="211"/>
+      <c r="A54" s="216"/>
+      <c r="B54" s="228"/>
       <c r="C54" s="49" t="s">
         <v>159</v>
       </c>
@@ -22684,8 +22725,8 @@
       <c r="I54" s="34"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="219"/>
-      <c r="B55" s="209" t="s">
+      <c r="A55" s="216"/>
+      <c r="B55" s="219" t="s">
         <v>76</v>
       </c>
       <c r="C55" s="40" t="s">
@@ -22701,8 +22742,8 @@
       <c r="I55" s="34"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="219"/>
-      <c r="B56" s="209"/>
+      <c r="A56" s="216"/>
+      <c r="B56" s="219"/>
       <c r="C56" s="40" t="s">
         <v>79</v>
       </c>
@@ -22716,8 +22757,8 @@
       <c r="I56" s="34"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="219"/>
-      <c r="B57" s="210" t="s">
+      <c r="A57" s="216"/>
+      <c r="B57" s="229" t="s">
         <v>81</v>
       </c>
       <c r="C57" s="40" t="s">
@@ -22733,8 +22774,8 @@
       <c r="I57" s="34"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="220"/>
-      <c r="B58" s="212"/>
+      <c r="A58" s="225"/>
+      <c r="B58" s="226"/>
       <c r="C58" s="50" t="s">
         <v>167</v>
       </c>
@@ -22748,8 +22789,8 @@
       <c r="I58" s="45"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="220"/>
-      <c r="B59" s="210" t="s">
+      <c r="A59" s="225"/>
+      <c r="B59" s="229" t="s">
         <v>172</v>
       </c>
       <c r="C59" s="50" t="s">
@@ -22765,8 +22806,8 @@
       <c r="I59" s="45"/>
     </row>
     <row r="60" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="220"/>
-      <c r="B60" s="223"/>
+      <c r="A60" s="225"/>
+      <c r="B60" s="230"/>
       <c r="C60" s="42" t="s">
         <v>171</v>
       </c>
@@ -23029,11 +23070,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A30:A39"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B20:B21"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A10:A29"/>
     <mergeCell ref="A40:A60"/>
@@ -23050,11 +23091,11 @@
     <mergeCell ref="C44:C45"/>
     <mergeCell ref="B59:B60"/>
     <mergeCell ref="B44:B48"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A30:A39"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23097,15 +23138,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="213"/>
-      <c r="B1" s="214"/>
-      <c r="C1" s="214"/>
-      <c r="D1" s="214"/>
-      <c r="E1" s="214"/>
-      <c r="F1" s="214"/>
-      <c r="G1" s="214"/>
-      <c r="H1" s="214"/>
-      <c r="I1" s="215"/>
+      <c r="A1" s="221"/>
+      <c r="B1" s="222"/>
+      <c r="C1" s="222"/>
+      <c r="D1" s="222"/>
+      <c r="E1" s="222"/>
+      <c r="F1" s="222"/>
+      <c r="G1" s="222"/>
+      <c r="H1" s="222"/>
+      <c r="I1" s="223"/>
     </row>
     <row r="2" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
@@ -23137,21 +23178,21 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="224"/>
-      <c r="B3" s="225"/>
-      <c r="C3" s="225"/>
-      <c r="D3" s="225"/>
-      <c r="E3" s="225"/>
-      <c r="F3" s="225"/>
-      <c r="G3" s="225"/>
-      <c r="H3" s="225"/>
-      <c r="I3" s="226"/>
+      <c r="A3" s="212"/>
+      <c r="B3" s="213"/>
+      <c r="C3" s="213"/>
+      <c r="D3" s="213"/>
+      <c r="E3" s="213"/>
+      <c r="F3" s="213"/>
+      <c r="G3" s="213"/>
+      <c r="H3" s="213"/>
+      <c r="I3" s="214"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="216" t="s">
+      <c r="A4" s="210" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="222" t="s">
+      <c r="B4" s="227" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="88" t="s">
@@ -23162,15 +23203,15 @@
       </c>
       <c r="E4" s="31"/>
       <c r="F4" s="31"/>
-      <c r="G4" s="222" t="s">
+      <c r="G4" s="227" t="s">
         <v>284</v>
       </c>
       <c r="H4" s="31"/>
       <c r="I4" s="32"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="217"/>
-      <c r="B5" s="211"/>
+      <c r="A5" s="211"/>
+      <c r="B5" s="228"/>
       <c r="C5" s="89" t="s">
         <v>13</v>
       </c>
@@ -23179,13 +23220,13 @@
       </c>
       <c r="E5" s="33"/>
       <c r="F5" s="33"/>
-      <c r="G5" s="211"/>
+      <c r="G5" s="228"/>
       <c r="H5" s="33"/>
       <c r="I5" s="34"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="217"/>
-      <c r="B6" s="212"/>
+      <c r="A6" s="211"/>
+      <c r="B6" s="226"/>
       <c r="C6" s="89" t="s">
         <v>15</v>
       </c>
@@ -23194,13 +23235,13 @@
       </c>
       <c r="E6" s="33"/>
       <c r="F6" s="33"/>
-      <c r="G6" s="211"/>
+      <c r="G6" s="228"/>
       <c r="H6" s="33"/>
       <c r="I6" s="34"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="217"/>
-      <c r="B7" s="210" t="s">
+      <c r="A7" s="211"/>
+      <c r="B7" s="229" t="s">
         <v>253</v>
       </c>
       <c r="C7" s="89" t="s">
@@ -23211,13 +23252,13 @@
       </c>
       <c r="E7" s="65"/>
       <c r="F7" s="33"/>
-      <c r="G7" s="211"/>
+      <c r="G7" s="228"/>
       <c r="H7" s="33"/>
       <c r="I7" s="34"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="217"/>
-      <c r="B8" s="211"/>
+      <c r="A8" s="211"/>
+      <c r="B8" s="228"/>
       <c r="C8" s="89" t="s">
         <v>254</v>
       </c>
@@ -23226,13 +23267,13 @@
       </c>
       <c r="E8" s="67"/>
       <c r="F8" s="33"/>
-      <c r="G8" s="211"/>
+      <c r="G8" s="228"/>
       <c r="H8" s="33"/>
       <c r="I8" s="34"/>
     </row>
     <row r="9" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="230"/>
-      <c r="B9" s="223"/>
+      <c r="A9" s="231"/>
+      <c r="B9" s="230"/>
       <c r="C9" s="90" t="s">
         <v>253</v>
       </c>
@@ -23241,15 +23282,15 @@
       </c>
       <c r="E9" s="66"/>
       <c r="F9" s="35"/>
-      <c r="G9" s="223"/>
+      <c r="G9" s="230"/>
       <c r="H9" s="35"/>
       <c r="I9" s="36"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="216" t="s">
+      <c r="A10" s="210" t="s">
         <v>198</v>
       </c>
-      <c r="B10" s="222" t="s">
+      <c r="B10" s="227" t="s">
         <v>199</v>
       </c>
       <c r="C10" s="96" t="s">
@@ -23262,15 +23303,15 @@
         <v>202</v>
       </c>
       <c r="F10" s="31"/>
-      <c r="G10" s="222" t="s">
+      <c r="G10" s="227" t="s">
         <v>288</v>
       </c>
       <c r="H10" s="31"/>
       <c r="I10" s="32"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="217"/>
-      <c r="B11" s="211"/>
+      <c r="A11" s="211"/>
+      <c r="B11" s="228"/>
       <c r="C11" s="97" t="s">
         <v>203</v>
       </c>
@@ -23281,13 +23322,13 @@
         <v>205</v>
       </c>
       <c r="F11" s="33"/>
-      <c r="G11" s="211"/>
+      <c r="G11" s="228"/>
       <c r="H11" s="33"/>
       <c r="I11" s="34"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="217"/>
-      <c r="B12" s="211"/>
+      <c r="A12" s="211"/>
+      <c r="B12" s="228"/>
       <c r="C12" s="97" t="s">
         <v>206</v>
       </c>
@@ -23298,13 +23339,13 @@
         <v>208</v>
       </c>
       <c r="F12" s="33"/>
-      <c r="G12" s="211"/>
+      <c r="G12" s="228"/>
       <c r="H12" s="33"/>
       <c r="I12" s="34"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="217"/>
-      <c r="B13" s="212"/>
+      <c r="A13" s="211"/>
+      <c r="B13" s="226"/>
       <c r="C13" s="97" t="s">
         <v>209</v>
       </c>
@@ -23313,13 +23354,13 @@
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="33"/>
-      <c r="G13" s="212"/>
+      <c r="G13" s="226"/>
       <c r="H13" s="33"/>
       <c r="I13" s="34"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="217"/>
-      <c r="B14" s="210" t="s">
+      <c r="A14" s="211"/>
+      <c r="B14" s="229" t="s">
         <v>216</v>
       </c>
       <c r="C14" s="98" t="s">
@@ -23332,15 +23373,15 @@
         <v>219</v>
       </c>
       <c r="F14" s="33"/>
-      <c r="G14" s="210" t="s">
+      <c r="G14" s="229" t="s">
         <v>288</v>
       </c>
       <c r="H14" s="33"/>
       <c r="I14" s="34"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="217"/>
-      <c r="B15" s="211"/>
+      <c r="A15" s="211"/>
+      <c r="B15" s="228"/>
       <c r="C15" s="97" t="s">
         <v>220</v>
       </c>
@@ -23351,13 +23392,13 @@
         <v>205</v>
       </c>
       <c r="F15" s="33"/>
-      <c r="G15" s="211"/>
+      <c r="G15" s="228"/>
       <c r="H15" s="33"/>
       <c r="I15" s="34"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="217"/>
-      <c r="B16" s="212"/>
+      <c r="A16" s="211"/>
+      <c r="B16" s="226"/>
       <c r="C16" s="97" t="s">
         <v>222</v>
       </c>
@@ -23368,13 +23409,13 @@
         <v>224</v>
       </c>
       <c r="F16" s="33"/>
-      <c r="G16" s="212"/>
+      <c r="G16" s="226"/>
       <c r="H16" s="33"/>
       <c r="I16" s="34"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="217"/>
-      <c r="B17" s="210" t="s">
+      <c r="A17" s="211"/>
+      <c r="B17" s="229" t="s">
         <v>211</v>
       </c>
       <c r="C17" s="94" t="s">
@@ -23387,15 +23428,15 @@
         <v>282</v>
       </c>
       <c r="F17" s="33"/>
-      <c r="G17" s="210" t="s">
+      <c r="G17" s="229" t="s">
         <v>292</v>
       </c>
       <c r="H17" s="33"/>
       <c r="I17" s="34"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="217"/>
-      <c r="B18" s="212"/>
+      <c r="A18" s="211"/>
+      <c r="B18" s="226"/>
       <c r="C18" s="94" t="s">
         <v>214</v>
       </c>
@@ -23406,13 +23447,13 @@
         <v>281</v>
       </c>
       <c r="F18" s="33"/>
-      <c r="G18" s="212"/>
+      <c r="G18" s="226"/>
       <c r="H18" s="33"/>
       <c r="I18" s="34"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="217"/>
-      <c r="B19" s="210" t="s">
+      <c r="A19" s="211"/>
+      <c r="B19" s="229" t="s">
         <v>115</v>
       </c>
       <c r="C19" s="99" t="s">
@@ -23423,15 +23464,15 @@
       </c>
       <c r="E19" s="33"/>
       <c r="F19" s="33"/>
-      <c r="G19" s="211" t="s">
+      <c r="G19" s="228" t="s">
         <v>291</v>
       </c>
       <c r="H19" s="33"/>
       <c r="I19" s="34"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="217"/>
-      <c r="B20" s="212"/>
+      <c r="A20" s="211"/>
+      <c r="B20" s="226"/>
       <c r="C20" s="99" t="s">
         <v>118</v>
       </c>
@@ -23440,12 +23481,12 @@
       </c>
       <c r="E20" s="33"/>
       <c r="F20" s="33"/>
-      <c r="G20" s="211"/>
+      <c r="G20" s="228"/>
       <c r="H20" s="33"/>
       <c r="I20" s="34"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="217"/>
+      <c r="A21" s="211"/>
       <c r="B21" s="129" t="s">
         <v>295</v>
       </c>
@@ -23457,13 +23498,13 @@
       </c>
       <c r="E21" s="33"/>
       <c r="F21" s="33"/>
-      <c r="G21" s="212"/>
+      <c r="G21" s="226"/>
       <c r="H21" s="33"/>
       <c r="I21" s="34"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="217"/>
-      <c r="B22" s="210" t="s">
+      <c r="A22" s="211"/>
+      <c r="B22" s="229" t="s">
         <v>225</v>
       </c>
       <c r="C22" s="94" t="s">
@@ -23474,15 +23515,15 @@
       </c>
       <c r="E22" s="33"/>
       <c r="F22" s="33"/>
-      <c r="G22" s="210" t="s">
+      <c r="G22" s="229" t="s">
         <v>285</v>
       </c>
       <c r="H22" s="33"/>
       <c r="I22" s="34"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="217"/>
-      <c r="B23" s="211"/>
+      <c r="A23" s="211"/>
+      <c r="B23" s="228"/>
       <c r="C23" s="94" t="s">
         <v>228</v>
       </c>
@@ -23491,13 +23532,13 @@
       </c>
       <c r="E23" s="33"/>
       <c r="F23" s="33"/>
-      <c r="G23" s="211"/>
+      <c r="G23" s="228"/>
       <c r="H23" s="33"/>
       <c r="I23" s="34"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="217"/>
-      <c r="B24" s="211"/>
+      <c r="A24" s="211"/>
+      <c r="B24" s="228"/>
       <c r="C24" s="94" t="s">
         <v>274</v>
       </c>
@@ -23506,13 +23547,13 @@
       </c>
       <c r="E24" s="33"/>
       <c r="F24" s="33"/>
-      <c r="G24" s="212"/>
+      <c r="G24" s="226"/>
       <c r="H24" s="33"/>
       <c r="I24" s="34"/>
     </row>
     <row r="25" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="230"/>
-      <c r="B25" s="223"/>
+      <c r="A25" s="231"/>
+      <c r="B25" s="230"/>
       <c r="C25" s="95" t="s">
         <v>230</v>
       </c>
@@ -23528,10 +23569,10 @@
       <c r="I25" s="45"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="216" t="s">
+      <c r="A26" s="210" t="s">
         <v>232</v>
       </c>
-      <c r="B26" s="222" t="s">
+      <c r="B26" s="227" t="s">
         <v>233</v>
       </c>
       <c r="C26" s="91" t="s">
@@ -23542,15 +23583,15 @@
       </c>
       <c r="E26" s="31"/>
       <c r="F26" s="31"/>
-      <c r="G26" s="222" t="s">
+      <c r="G26" s="227" t="s">
         <v>286</v>
       </c>
       <c r="H26" s="31"/>
       <c r="I26" s="32"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="217"/>
-      <c r="B27" s="211"/>
+      <c r="A27" s="211"/>
+      <c r="B27" s="228"/>
       <c r="C27" s="92" t="s">
         <v>129</v>
       </c>
@@ -23559,13 +23600,13 @@
       </c>
       <c r="E27" s="33"/>
       <c r="F27" s="33"/>
-      <c r="G27" s="212"/>
+      <c r="G27" s="226"/>
       <c r="H27" s="33"/>
       <c r="I27" s="34"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="217"/>
-      <c r="B28" s="211"/>
+      <c r="A28" s="211"/>
+      <c r="B28" s="228"/>
       <c r="C28" s="100" t="s">
         <v>236</v>
       </c>
@@ -23574,15 +23615,15 @@
       </c>
       <c r="E28" s="33"/>
       <c r="F28" s="33"/>
-      <c r="G28" s="210" t="s">
+      <c r="G28" s="229" t="s">
         <v>289</v>
       </c>
       <c r="H28" s="33"/>
       <c r="I28" s="34"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="217"/>
-      <c r="B29" s="212"/>
+      <c r="A29" s="211"/>
+      <c r="B29" s="226"/>
       <c r="C29" s="100" t="s">
         <v>125</v>
       </c>
@@ -23591,12 +23632,12 @@
       </c>
       <c r="E29" s="33"/>
       <c r="F29" s="33"/>
-      <c r="G29" s="211"/>
+      <c r="G29" s="228"/>
       <c r="H29" s="33"/>
       <c r="I29" s="34"/>
     </row>
     <row r="30" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="230"/>
+      <c r="A30" s="231"/>
       <c r="B30" s="128" t="s">
         <v>239</v>
       </c>
@@ -23610,15 +23651,15 @@
         <v>256</v>
       </c>
       <c r="F30" s="35"/>
-      <c r="G30" s="223"/>
+      <c r="G30" s="230"/>
       <c r="H30" s="35"/>
       <c r="I30" s="36"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="216" t="s">
+      <c r="A31" s="210" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="222" t="s">
+      <c r="B31" s="227" t="s">
         <v>71</v>
       </c>
       <c r="C31" s="93" t="s">
@@ -23629,15 +23670,15 @@
       </c>
       <c r="E31" s="55"/>
       <c r="F31" s="55"/>
-      <c r="G31" s="222" t="s">
+      <c r="G31" s="227" t="s">
         <v>287</v>
       </c>
       <c r="H31" s="55"/>
       <c r="I31" s="56"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="217"/>
-      <c r="B32" s="212"/>
+      <c r="A32" s="211"/>
+      <c r="B32" s="226"/>
       <c r="C32" s="89" t="s">
         <v>294</v>
       </c>
@@ -23646,13 +23687,13 @@
       </c>
       <c r="E32" s="33"/>
       <c r="F32" s="33"/>
-      <c r="G32" s="212"/>
+      <c r="G32" s="226"/>
       <c r="H32" s="33"/>
       <c r="I32" s="34"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="217"/>
-      <c r="B33" s="210" t="s">
+      <c r="A33" s="211"/>
+      <c r="B33" s="229" t="s">
         <v>257</v>
       </c>
       <c r="C33" s="97" t="s">
@@ -23663,15 +23704,15 @@
       </c>
       <c r="E33" s="33"/>
       <c r="F33" s="33"/>
-      <c r="G33" s="210" t="s">
+      <c r="G33" s="229" t="s">
         <v>288</v>
       </c>
       <c r="H33" s="33"/>
       <c r="I33" s="34"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="217"/>
-      <c r="B34" s="211"/>
+      <c r="A34" s="211"/>
+      <c r="B34" s="228"/>
       <c r="C34" s="97" t="s">
         <v>260</v>
       </c>
@@ -23680,13 +23721,13 @@
       </c>
       <c r="E34" s="33"/>
       <c r="F34" s="33"/>
-      <c r="G34" s="211"/>
+      <c r="G34" s="228"/>
       <c r="H34" s="33"/>
       <c r="I34" s="34"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="217"/>
-      <c r="B35" s="212"/>
+      <c r="A35" s="211"/>
+      <c r="B35" s="226"/>
       <c r="C35" s="97" t="s">
         <v>259</v>
       </c>
@@ -23697,13 +23738,13 @@
         <v>264</v>
       </c>
       <c r="F35" s="33"/>
-      <c r="G35" s="212"/>
+      <c r="G35" s="226"/>
       <c r="H35" s="33"/>
       <c r="I35" s="34"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="217"/>
-      <c r="B36" s="210" t="s">
+      <c r="A36" s="211"/>
+      <c r="B36" s="229" t="s">
         <v>242</v>
       </c>
       <c r="C36" s="99" t="s">
@@ -23716,15 +23757,15 @@
         <v>245</v>
       </c>
       <c r="F36" s="33"/>
-      <c r="G36" s="210" t="s">
+      <c r="G36" s="229" t="s">
         <v>291</v>
       </c>
       <c r="H36" s="33"/>
       <c r="I36" s="34"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="217"/>
-      <c r="B37" s="212"/>
+      <c r="A37" s="211"/>
+      <c r="B37" s="226"/>
       <c r="C37" s="99" t="s">
         <v>246</v>
       </c>
@@ -23735,13 +23776,13 @@
         <v>248</v>
       </c>
       <c r="F37" s="33"/>
-      <c r="G37" s="211"/>
+      <c r="G37" s="228"/>
       <c r="H37" s="33"/>
       <c r="I37" s="34"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="217"/>
-      <c r="B38" s="210" t="s">
+      <c r="A38" s="211"/>
+      <c r="B38" s="229" t="s">
         <v>270</v>
       </c>
       <c r="C38" s="95" t="s">
@@ -23754,13 +23795,13 @@
         <v>250</v>
       </c>
       <c r="F38" s="44"/>
-      <c r="G38" s="211"/>
+      <c r="G38" s="228"/>
       <c r="H38" s="44"/>
       <c r="I38" s="45"/>
     </row>
     <row r="39" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="230"/>
-      <c r="B39" s="223"/>
+      <c r="A39" s="231"/>
+      <c r="B39" s="230"/>
       <c r="C39" s="95" t="s">
         <v>272</v>
       </c>
@@ -23771,7 +23812,7 @@
         <v>252</v>
       </c>
       <c r="F39" s="44"/>
-      <c r="G39" s="223"/>
+      <c r="G39" s="230"/>
       <c r="H39" s="44"/>
       <c r="I39" s="45"/>
     </row>
@@ -24027,27 +24068,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="A31:A39"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="G26:G27"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="G4:G9"/>
@@ -24056,6 +24076,27 @@
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="A10:A25"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A31:A39"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24105,52 +24146,52 @@
       <c r="O1" s="84"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="232" t="s">
+      <c r="A2" s="237" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="234" t="s">
+      <c r="B2" s="232" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="234" t="s">
+      <c r="C2" s="232" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="234" t="s">
+      <c r="D2" s="232" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="234" t="s">
+      <c r="E2" s="232" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="234" t="s">
+      <c r="F2" s="232" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="234" t="s">
+      <c r="G2" s="232" t="s">
         <v>277</v>
       </c>
-      <c r="H2" s="236" t="s">
+      <c r="H2" s="234" t="s">
         <v>276</v>
       </c>
-      <c r="I2" s="237"/>
-      <c r="J2" s="238"/>
-      <c r="K2" s="234" t="s">
+      <c r="I2" s="235"/>
+      <c r="J2" s="236"/>
+      <c r="K2" s="232" t="s">
         <v>275</v>
       </c>
-      <c r="L2" s="234" t="s">
+      <c r="L2" s="232" t="s">
         <v>278</v>
       </c>
-      <c r="M2" s="236" t="s">
+      <c r="M2" s="234" t="s">
         <v>279</v>
       </c>
-      <c r="N2" s="237"/>
-      <c r="O2" s="238"/>
+      <c r="N2" s="235"/>
+      <c r="O2" s="236"/>
     </row>
     <row r="3" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="233"/>
-      <c r="B3" s="235"/>
-      <c r="C3" s="235"/>
-      <c r="D3" s="235"/>
-      <c r="E3" s="235"/>
-      <c r="F3" s="235"/>
-      <c r="G3" s="235"/>
+      <c r="A3" s="238"/>
+      <c r="B3" s="233"/>
+      <c r="C3" s="233"/>
+      <c r="D3" s="233"/>
+      <c r="E3" s="233"/>
+      <c r="F3" s="233"/>
+      <c r="G3" s="233"/>
       <c r="H3" s="122" t="s">
         <v>297</v>
       </c>
@@ -24160,8 +24201,8 @@
       <c r="J3" s="122" t="s">
         <v>299</v>
       </c>
-      <c r="K3" s="235"/>
-      <c r="L3" s="235"/>
+      <c r="K3" s="233"/>
+      <c r="L3" s="233"/>
       <c r="M3" s="122" t="s">
         <v>300</v>
       </c>
@@ -24190,10 +24231,10 @@
       <c r="O4" s="86"/>
     </row>
     <row r="5" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="231" t="s">
+      <c r="A5" s="239" t="s">
         <v>356</v>
       </c>
-      <c r="B5" s="222" t="s">
+      <c r="B5" s="227" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="88" t="s">
@@ -24202,7 +24243,7 @@
       <c r="D5" s="85">
         <v>1</v>
       </c>
-      <c r="E5" s="222" t="s">
+      <c r="E5" s="227" t="s">
         <v>284</v>
       </c>
       <c r="F5" s="85"/>
@@ -24221,15 +24262,15 @@
       <c r="O5" s="110"/>
     </row>
     <row r="6" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="217"/>
-      <c r="B6" s="211"/>
+      <c r="A6" s="211"/>
+      <c r="B6" s="228"/>
       <c r="C6" s="89" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="81">
         <v>1</v>
       </c>
-      <c r="E6" s="211"/>
+      <c r="E6" s="228"/>
       <c r="F6" s="81"/>
       <c r="G6" s="113" t="s">
         <v>316</v>
@@ -24246,15 +24287,15 @@
       <c r="O6" s="107"/>
     </row>
     <row r="7" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="217"/>
-      <c r="B7" s="212"/>
+      <c r="A7" s="211"/>
+      <c r="B7" s="226"/>
       <c r="C7" s="89" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="81">
         <v>1</v>
       </c>
-      <c r="E7" s="211"/>
+      <c r="E7" s="228"/>
       <c r="F7" s="81"/>
       <c r="G7" s="113" t="s">
         <v>316</v>
@@ -24271,8 +24312,8 @@
       <c r="O7" s="107"/>
     </row>
     <row r="8" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="217"/>
-      <c r="B8" s="210" t="s">
+      <c r="A8" s="211"/>
+      <c r="B8" s="229" t="s">
         <v>253</v>
       </c>
       <c r="C8" s="89" t="s">
@@ -24281,7 +24322,7 @@
       <c r="D8" s="81">
         <v>1</v>
       </c>
-      <c r="E8" s="211"/>
+      <c r="E8" s="228"/>
       <c r="F8" s="81"/>
       <c r="G8" s="107" t="s">
         <v>318</v>
@@ -24298,15 +24339,15 @@
       <c r="O8" s="107"/>
     </row>
     <row r="9" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="217"/>
-      <c r="B9" s="211"/>
+      <c r="A9" s="211"/>
+      <c r="B9" s="228"/>
       <c r="C9" s="89" t="s">
         <v>254</v>
       </c>
       <c r="D9" s="81">
         <v>1</v>
       </c>
-      <c r="E9" s="211"/>
+      <c r="E9" s="228"/>
       <c r="F9" s="81"/>
       <c r="G9" s="107" t="s">
         <v>319</v>
@@ -24323,15 +24364,15 @@
       <c r="O9" s="107"/>
     </row>
     <row r="10" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="230"/>
-      <c r="B10" s="223"/>
+      <c r="A10" s="231"/>
+      <c r="B10" s="230"/>
       <c r="C10" s="90" t="s">
         <v>253</v>
       </c>
       <c r="D10" s="87">
         <v>1</v>
       </c>
-      <c r="E10" s="223"/>
+      <c r="E10" s="230"/>
       <c r="F10" s="87"/>
       <c r="G10" s="107" t="s">
         <v>319</v>
@@ -24348,10 +24389,10 @@
       <c r="O10" s="111"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="231" t="s">
+      <c r="A11" s="239" t="s">
         <v>357</v>
       </c>
-      <c r="B11" s="222" t="s">
+      <c r="B11" s="227" t="s">
         <v>103</v>
       </c>
       <c r="C11" s="96" t="s">
@@ -24360,7 +24401,7 @@
       <c r="D11" s="85">
         <v>2</v>
       </c>
-      <c r="E11" s="222" t="s">
+      <c r="E11" s="227" t="s">
         <v>288</v>
       </c>
       <c r="F11" s="85"/>
@@ -24379,15 +24420,15 @@
       <c r="O11" s="110"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="217"/>
-      <c r="B12" s="211"/>
+      <c r="A12" s="211"/>
+      <c r="B12" s="228"/>
       <c r="C12" s="97" t="s">
         <v>203</v>
       </c>
       <c r="D12" s="81">
         <v>1</v>
       </c>
-      <c r="E12" s="211"/>
+      <c r="E12" s="228"/>
       <c r="F12" s="81"/>
       <c r="G12" s="107" t="s">
         <v>348</v>
@@ -24404,15 +24445,15 @@
       <c r="O12" s="107"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="217"/>
-      <c r="B13" s="211"/>
+      <c r="A13" s="211"/>
+      <c r="B13" s="228"/>
       <c r="C13" s="97" t="s">
         <v>206</v>
       </c>
       <c r="D13" s="81">
         <v>1</v>
       </c>
-      <c r="E13" s="211"/>
+      <c r="E13" s="228"/>
       <c r="F13" s="81"/>
       <c r="G13" s="107" t="s">
         <v>348</v>
@@ -24429,15 +24470,15 @@
       <c r="O13" s="107"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="217"/>
-      <c r="B14" s="212"/>
+      <c r="A14" s="211"/>
+      <c r="B14" s="226"/>
       <c r="C14" s="97" t="s">
         <v>209</v>
       </c>
       <c r="D14" s="81">
         <v>2</v>
       </c>
-      <c r="E14" s="212"/>
+      <c r="E14" s="226"/>
       <c r="F14" s="81"/>
       <c r="G14" s="107" t="s">
         <v>350</v>
@@ -24454,8 +24495,8 @@
       <c r="O14" s="107"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="217"/>
-      <c r="B15" s="210" t="s">
+      <c r="A15" s="211"/>
+      <c r="B15" s="229" t="s">
         <v>111</v>
       </c>
       <c r="C15" s="98" t="s">
@@ -24464,7 +24505,7 @@
       <c r="D15" s="81">
         <v>2</v>
       </c>
-      <c r="E15" s="210" t="s">
+      <c r="E15" s="229" t="s">
         <v>288</v>
       </c>
       <c r="F15" s="81"/>
@@ -24483,15 +24524,15 @@
       <c r="O15" s="107"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="217"/>
-      <c r="B16" s="211"/>
+      <c r="A16" s="211"/>
+      <c r="B16" s="228"/>
       <c r="C16" s="97" t="s">
         <v>220</v>
       </c>
       <c r="D16" s="81">
         <v>1</v>
       </c>
-      <c r="E16" s="211"/>
+      <c r="E16" s="228"/>
       <c r="F16" s="81"/>
       <c r="G16" s="107" t="s">
         <v>348</v>
@@ -24508,15 +24549,15 @@
       <c r="O16" s="107"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="217"/>
-      <c r="B17" s="211"/>
+      <c r="A17" s="211"/>
+      <c r="B17" s="228"/>
       <c r="C17" s="97" t="s">
         <v>222</v>
       </c>
       <c r="D17" s="81">
         <v>1</v>
       </c>
-      <c r="E17" s="212"/>
+      <c r="E17" s="226"/>
       <c r="F17" s="81"/>
       <c r="G17" s="107" t="s">
         <v>348</v>
@@ -24533,8 +24574,8 @@
       <c r="O17" s="107"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="217"/>
-      <c r="B18" s="210" t="s">
+      <c r="A18" s="211"/>
+      <c r="B18" s="229" t="s">
         <v>180</v>
       </c>
       <c r="C18" s="94" t="s">
@@ -24543,7 +24584,7 @@
       <c r="D18" s="81">
         <v>1</v>
       </c>
-      <c r="E18" s="210" t="s">
+      <c r="E18" s="229" t="s">
         <v>292</v>
       </c>
       <c r="F18" s="81"/>
@@ -24562,15 +24603,15 @@
       <c r="O18" s="107"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="217"/>
-      <c r="B19" s="212"/>
+      <c r="A19" s="211"/>
+      <c r="B19" s="226"/>
       <c r="C19" s="94" t="s">
         <v>184</v>
       </c>
       <c r="D19" s="81">
         <v>2</v>
       </c>
-      <c r="E19" s="212"/>
+      <c r="E19" s="226"/>
       <c r="F19" s="81"/>
       <c r="G19" s="107" t="s">
         <v>345</v>
@@ -24587,8 +24628,8 @@
       <c r="O19" s="107"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="217"/>
-      <c r="B20" s="210" t="s">
+      <c r="A20" s="211"/>
+      <c r="B20" s="229" t="s">
         <v>115</v>
       </c>
       <c r="C20" s="99" t="s">
@@ -24597,7 +24638,7 @@
       <c r="D20" s="81">
         <v>1</v>
       </c>
-      <c r="E20" s="211" t="s">
+      <c r="E20" s="228" t="s">
         <v>307</v>
       </c>
       <c r="F20" s="81"/>
@@ -24616,15 +24657,15 @@
       <c r="O20" s="107"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="217"/>
-      <c r="B21" s="212"/>
+      <c r="A21" s="211"/>
+      <c r="B21" s="226"/>
       <c r="C21" s="99" t="s">
         <v>118</v>
       </c>
       <c r="D21" s="81">
         <v>2</v>
       </c>
-      <c r="E21" s="211"/>
+      <c r="E21" s="228"/>
       <c r="F21" s="81"/>
       <c r="G21" s="107" t="s">
         <v>330</v>
@@ -24641,7 +24682,7 @@
       <c r="O21" s="107"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="217"/>
+      <c r="A22" s="211"/>
       <c r="B22" s="126" t="s">
         <v>302</v>
       </c>
@@ -24651,7 +24692,7 @@
       <c r="D22" s="81">
         <v>1</v>
       </c>
-      <c r="E22" s="212"/>
+      <c r="E22" s="226"/>
       <c r="F22" s="81"/>
       <c r="G22" s="107" t="s">
         <v>333</v>
@@ -24668,8 +24709,8 @@
       <c r="O22" s="107"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="217"/>
-      <c r="B23" s="210" t="s">
+      <c r="A23" s="211"/>
+      <c r="B23" s="229" t="s">
         <v>43</v>
       </c>
       <c r="C23" s="94" t="s">
@@ -24678,7 +24719,7 @@
       <c r="D23" s="81">
         <v>3</v>
       </c>
-      <c r="E23" s="210" t="s">
+      <c r="E23" s="229" t="s">
         <v>285</v>
       </c>
       <c r="F23" s="81"/>
@@ -24697,15 +24738,15 @@
       <c r="O23" s="107"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="217"/>
-      <c r="B24" s="211"/>
+      <c r="A24" s="211"/>
+      <c r="B24" s="228"/>
       <c r="C24" s="94" t="s">
         <v>178</v>
       </c>
       <c r="D24" s="81">
         <v>3</v>
       </c>
-      <c r="E24" s="211"/>
+      <c r="E24" s="228"/>
       <c r="F24" s="81"/>
       <c r="G24" s="107" t="s">
         <v>321</v>
@@ -24722,15 +24763,15 @@
       <c r="O24" s="107"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="217"/>
-      <c r="B25" s="211"/>
+      <c r="A25" s="211"/>
+      <c r="B25" s="228"/>
       <c r="C25" s="94" t="s">
         <v>280</v>
       </c>
       <c r="D25" s="81">
         <v>3</v>
       </c>
-      <c r="E25" s="212"/>
+      <c r="E25" s="226"/>
       <c r="F25" s="81"/>
       <c r="G25" s="107" t="s">
         <v>321</v>
@@ -24747,8 +24788,8 @@
       <c r="O25" s="107"/>
     </row>
     <row r="26" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="230"/>
-      <c r="B26" s="223"/>
+      <c r="A26" s="231"/>
+      <c r="B26" s="230"/>
       <c r="C26" s="95" t="s">
         <v>273</v>
       </c>
@@ -24774,10 +24815,10 @@
       <c r="O26" s="112"/>
     </row>
     <row r="27" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="231" t="s">
+      <c r="A27" s="239" t="s">
         <v>358</v>
       </c>
-      <c r="B27" s="222" t="s">
+      <c r="B27" s="227" t="s">
         <v>127</v>
       </c>
       <c r="C27" s="91" t="s">
@@ -24786,7 +24827,7 @@
       <c r="D27" s="85">
         <v>1</v>
       </c>
-      <c r="E27" s="222" t="s">
+      <c r="E27" s="227" t="s">
         <v>286</v>
       </c>
       <c r="F27" s="85"/>
@@ -24805,15 +24846,15 @@
       <c r="O27" s="110"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="217"/>
-      <c r="B28" s="211"/>
+      <c r="A28" s="211"/>
+      <c r="B28" s="228"/>
       <c r="C28" s="92" t="s">
         <v>129</v>
       </c>
       <c r="D28" s="81">
         <v>1</v>
       </c>
-      <c r="E28" s="212"/>
+      <c r="E28" s="226"/>
       <c r="F28" s="81"/>
       <c r="G28" s="110" t="s">
         <v>324</v>
@@ -24830,15 +24871,15 @@
       <c r="O28" s="107"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="217"/>
-      <c r="B29" s="211"/>
+      <c r="A29" s="211"/>
+      <c r="B29" s="228"/>
       <c r="C29" s="100" t="s">
         <v>132</v>
       </c>
       <c r="D29" s="81">
         <v>3</v>
       </c>
-      <c r="E29" s="210" t="s">
+      <c r="E29" s="229" t="s">
         <v>289</v>
       </c>
       <c r="F29" s="81"/>
@@ -24857,15 +24898,15 @@
       <c r="O29" s="107"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="217"/>
-      <c r="B30" s="212"/>
+      <c r="A30" s="211"/>
+      <c r="B30" s="226"/>
       <c r="C30" s="100" t="s">
         <v>125</v>
       </c>
       <c r="D30" s="81">
         <v>3</v>
       </c>
-      <c r="E30" s="211"/>
+      <c r="E30" s="228"/>
       <c r="F30" s="81"/>
       <c r="G30" s="107" t="s">
         <v>337</v>
@@ -24882,7 +24923,7 @@
       <c r="O30" s="107"/>
     </row>
     <row r="31" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="230"/>
+      <c r="A31" s="231"/>
       <c r="B31" s="87" t="s">
         <v>139</v>
       </c>
@@ -24892,7 +24933,7 @@
       <c r="D31" s="87">
         <v>2</v>
       </c>
-      <c r="E31" s="223"/>
+      <c r="E31" s="230"/>
       <c r="F31" s="87"/>
       <c r="G31" s="111" t="s">
         <v>338</v>
@@ -24909,10 +24950,10 @@
       <c r="O31" s="111"/>
     </row>
     <row r="32" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="231" t="s">
+      <c r="A32" s="239" t="s">
         <v>359</v>
       </c>
-      <c r="B32" s="222" t="s">
+      <c r="B32" s="227" t="s">
         <v>71</v>
       </c>
       <c r="C32" s="93" t="s">
@@ -24921,7 +24962,7 @@
       <c r="D32" s="83">
         <v>3</v>
       </c>
-      <c r="E32" s="222" t="s">
+      <c r="E32" s="227" t="s">
         <v>287</v>
       </c>
       <c r="F32" s="83"/>
@@ -24940,15 +24981,15 @@
       <c r="O32" s="113"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="217"/>
-      <c r="B33" s="212"/>
+      <c r="A33" s="211"/>
+      <c r="B33" s="226"/>
       <c r="C33" s="89" t="s">
         <v>293</v>
       </c>
       <c r="D33" s="81">
         <v>3</v>
       </c>
-      <c r="E33" s="212"/>
+      <c r="E33" s="226"/>
       <c r="F33" s="81"/>
       <c r="G33" s="123" t="s">
         <v>326</v>
@@ -24965,8 +25006,8 @@
       <c r="O33" s="107"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="217"/>
-      <c r="B34" s="210" t="s">
+      <c r="A34" s="211"/>
+      <c r="B34" s="229" t="s">
         <v>257</v>
       </c>
       <c r="C34" s="97" t="s">
@@ -24975,7 +25016,7 @@
       <c r="D34" s="81">
         <v>2</v>
       </c>
-      <c r="E34" s="210" t="s">
+      <c r="E34" s="229" t="s">
         <v>288</v>
       </c>
       <c r="F34" s="81"/>
@@ -24994,15 +25035,15 @@
       <c r="O34" s="107"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="217"/>
-      <c r="B35" s="211"/>
+      <c r="A35" s="211"/>
+      <c r="B35" s="228"/>
       <c r="C35" s="97" t="s">
         <v>260</v>
       </c>
       <c r="D35" s="81">
         <v>2</v>
       </c>
-      <c r="E35" s="211"/>
+      <c r="E35" s="228"/>
       <c r="F35" s="81"/>
       <c r="G35" s="107" t="s">
         <v>353</v>
@@ -25019,15 +25060,15 @@
       <c r="O35" s="107"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="217"/>
-      <c r="B36" s="212"/>
+      <c r="A36" s="211"/>
+      <c r="B36" s="226"/>
       <c r="C36" s="97" t="s">
         <v>259</v>
       </c>
       <c r="D36" s="81">
         <v>2</v>
       </c>
-      <c r="E36" s="212"/>
+      <c r="E36" s="226"/>
       <c r="F36" s="81"/>
       <c r="G36" s="107" t="s">
         <v>354</v>
@@ -25044,8 +25085,8 @@
       <c r="O36" s="107"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="217"/>
-      <c r="B37" s="210" t="s">
+      <c r="A37" s="211"/>
+      <c r="B37" s="229" t="s">
         <v>154</v>
       </c>
       <c r="C37" s="99" t="s">
@@ -25054,7 +25095,7 @@
       <c r="D37" s="81">
         <v>2</v>
       </c>
-      <c r="E37" s="210" t="s">
+      <c r="E37" s="229" t="s">
         <v>291</v>
       </c>
       <c r="F37" s="81"/>
@@ -25073,15 +25114,15 @@
       <c r="O37" s="107"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="217"/>
-      <c r="B38" s="212"/>
+      <c r="A38" s="211"/>
+      <c r="B38" s="226"/>
       <c r="C38" s="99" t="s">
         <v>92</v>
       </c>
       <c r="D38" s="81">
         <v>3</v>
       </c>
-      <c r="E38" s="211"/>
+      <c r="E38" s="228"/>
       <c r="F38" s="81"/>
       <c r="G38" s="107" t="s">
         <v>337</v>
@@ -25098,8 +25139,8 @@
       <c r="O38" s="107"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="217"/>
-      <c r="B39" s="210" t="s">
+      <c r="A39" s="211"/>
+      <c r="B39" s="229" t="s">
         <v>269</v>
       </c>
       <c r="C39" s="95" t="s">
@@ -25108,7 +25149,7 @@
       <c r="D39" s="82">
         <v>2</v>
       </c>
-      <c r="E39" s="211"/>
+      <c r="E39" s="228"/>
       <c r="F39" s="82"/>
       <c r="G39" s="107" t="s">
         <v>341</v>
@@ -25125,15 +25166,15 @@
       <c r="O39" s="112"/>
     </row>
     <row r="40" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="230"/>
-      <c r="B40" s="223"/>
+      <c r="A40" s="231"/>
+      <c r="B40" s="230"/>
       <c r="C40" s="95" t="s">
         <v>272</v>
       </c>
       <c r="D40" s="82">
         <v>3</v>
       </c>
-      <c r="E40" s="223"/>
+      <c r="E40" s="230"/>
       <c r="F40" s="82"/>
       <c r="G40" s="112" t="s">
         <v>340</v>
@@ -25525,16 +25566,18 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="A32:A40"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="E37:E40"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="E23:E25"/>
     <mergeCell ref="E27:E28"/>
@@ -25551,18 +25594,16 @@
     <mergeCell ref="A11:A26"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="E37:E40"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="A32:A40"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25574,8 +25615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -25586,64 +25627,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="252" t="s">
+      <c r="A1" s="240" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="252" t="s">
+      <c r="B1" s="240" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="268" t="s">
-        <v>417</v>
-      </c>
-      <c r="D1" s="252" t="s">
+      <c r="C1" s="264" t="s">
+        <v>416</v>
+      </c>
+      <c r="D1" s="240" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="252" t="s">
+      <c r="E1" s="240" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="242" t="s">
+      <c r="F1" s="268" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="243"/>
-      <c r="H1" s="243"/>
-      <c r="I1" s="244"/>
-      <c r="J1" s="239" t="s">
+      <c r="G1" s="269"/>
+      <c r="H1" s="269"/>
+      <c r="I1" s="270"/>
+      <c r="J1" s="265" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="240"/>
-      <c r="L1" s="240"/>
-      <c r="M1" s="241"/>
+      <c r="K1" s="266"/>
+      <c r="L1" s="266"/>
+      <c r="M1" s="267"/>
     </row>
     <row r="2" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="267"/>
-      <c r="B2" s="267"/>
-      <c r="C2" s="267"/>
-      <c r="D2" s="267"/>
-      <c r="E2" s="267"/>
-      <c r="F2" s="252" t="s">
+      <c r="A2" s="241"/>
+      <c r="B2" s="241"/>
+      <c r="C2" s="241"/>
+      <c r="D2" s="241"/>
+      <c r="E2" s="241"/>
+      <c r="F2" s="240" t="s">
         <v>361</v>
       </c>
-      <c r="G2" s="239" t="s">
+      <c r="G2" s="265" t="s">
         <v>362</v>
       </c>
-      <c r="H2" s="240"/>
-      <c r="I2" s="241"/>
-      <c r="J2" s="248" t="s">
+      <c r="H2" s="266"/>
+      <c r="I2" s="267"/>
+      <c r="J2" s="271" t="s">
         <v>361</v>
       </c>
-      <c r="K2" s="239" t="s">
+      <c r="K2" s="265" t="s">
         <v>362</v>
       </c>
-      <c r="L2" s="240"/>
-      <c r="M2" s="241"/>
+      <c r="L2" s="266"/>
+      <c r="M2" s="267"/>
     </row>
     <row r="3" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="253"/>
-      <c r="B3" s="253"/>
-      <c r="C3" s="253"/>
-      <c r="D3" s="253"/>
-      <c r="E3" s="253"/>
-      <c r="F3" s="253"/>
+      <c r="A3" s="242"/>
+      <c r="B3" s="242"/>
+      <c r="C3" s="242"/>
+      <c r="D3" s="242"/>
+      <c r="E3" s="242"/>
+      <c r="F3" s="242"/>
       <c r="G3" s="158" t="s">
         <v>363</v>
       </c>
@@ -25653,7 +25694,7 @@
       <c r="I3" s="163" t="s">
         <v>365</v>
       </c>
-      <c r="J3" s="249"/>
+      <c r="J3" s="272"/>
       <c r="K3" s="158" t="s">
         <v>363</v>
       </c>
@@ -25680,10 +25721,10 @@
       <c r="M4" s="157"/>
     </row>
     <row r="5" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="269" t="s">
+      <c r="A5" s="245" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="250" t="s">
+      <c r="B5" s="248" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="136" t="s">
@@ -25692,20 +25733,20 @@
       <c r="D5" s="137">
         <v>1</v>
       </c>
-      <c r="E5" s="250" t="s">
+      <c r="E5" s="248" t="s">
         <v>366</v>
       </c>
       <c r="F5" s="137" t="s">
         <v>384</v>
       </c>
       <c r="G5" s="147" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H5" s="147" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I5" s="147" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J5" s="148" t="s">
         <v>385</v>
@@ -25721,23 +25762,23 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="270"/>
-      <c r="B6" s="246"/>
+      <c r="A6" s="246"/>
+      <c r="B6" s="250"/>
       <c r="C6" s="139" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="140">
         <v>1</v>
       </c>
-      <c r="E6" s="246"/>
+      <c r="E6" s="250"/>
       <c r="F6" s="140" t="s">
         <v>384</v>
       </c>
       <c r="G6" s="151" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H6" s="152" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="I6" s="152" t="s">
         <v>371</v>
@@ -25756,20 +25797,20 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="270"/>
-      <c r="B7" s="247"/>
+      <c r="A7" s="246"/>
+      <c r="B7" s="249"/>
       <c r="C7" s="139" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="140">
         <v>1</v>
       </c>
-      <c r="E7" s="246"/>
+      <c r="E7" s="250"/>
       <c r="F7" s="140" t="s">
         <v>384</v>
       </c>
       <c r="G7" s="151" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H7" s="152" t="s">
         <v>368</v>
@@ -25791,7 +25832,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="271"/>
+      <c r="A8" s="247"/>
       <c r="B8" s="144" t="s">
         <v>265</v>
       </c>
@@ -25801,12 +25842,12 @@
       <c r="D8" s="143">
         <v>1</v>
       </c>
-      <c r="E8" s="251"/>
+      <c r="E8" s="244"/>
       <c r="F8" s="143" t="s">
         <v>386</v>
       </c>
       <c r="G8" s="154" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H8" s="155" t="s">
         <v>383</v>
@@ -25828,10 +25869,10 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="269" t="s">
+      <c r="A9" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="B9" s="250" t="s">
+      <c r="B9" s="248" t="s">
         <v>388</v>
       </c>
       <c r="C9" s="136" t="s">
@@ -25840,20 +25881,20 @@
       <c r="D9" s="137">
         <v>2</v>
       </c>
-      <c r="E9" s="250" t="s">
+      <c r="E9" s="248" t="s">
         <v>288</v>
       </c>
       <c r="F9" s="137" t="s">
         <v>390</v>
       </c>
       <c r="G9" s="147" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H9" s="149" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="I9" s="164" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="J9" s="149" t="s">
         <v>385</v>
@@ -25869,26 +25910,26 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="270"/>
-      <c r="B10" s="246"/>
+      <c r="A10" s="246"/>
+      <c r="B10" s="250"/>
       <c r="C10" s="139" t="s">
         <v>391</v>
       </c>
       <c r="D10" s="140">
         <v>1</v>
       </c>
-      <c r="E10" s="246"/>
+      <c r="E10" s="250"/>
       <c r="F10" s="140" t="s">
         <v>386</v>
       </c>
       <c r="G10" s="151" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H10" s="152" t="s">
-        <v>444</v>
-      </c>
-      <c r="I10" s="272" t="s">
-        <v>443</v>
+        <v>441</v>
+      </c>
+      <c r="I10" s="197" t="s">
+        <v>440</v>
       </c>
       <c r="J10" s="152" t="s">
         <v>385</v>
@@ -25904,20 +25945,20 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="270"/>
-      <c r="B11" s="246"/>
+      <c r="A11" s="246"/>
+      <c r="B11" s="250"/>
       <c r="C11" s="139" t="s">
         <v>392</v>
       </c>
       <c r="D11" s="140">
         <v>1</v>
       </c>
-      <c r="E11" s="246"/>
+      <c r="E11" s="250"/>
       <c r="F11" s="140" t="s">
         <v>386</v>
       </c>
       <c r="G11" s="151" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H11" s="152" t="s">
         <v>368</v>
@@ -25939,26 +25980,26 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="270"/>
-      <c r="B12" s="247"/>
+      <c r="A12" s="246"/>
+      <c r="B12" s="249"/>
       <c r="C12" s="139" t="s">
         <v>393</v>
       </c>
       <c r="D12" s="140">
         <v>2</v>
       </c>
-      <c r="E12" s="247"/>
+      <c r="E12" s="249"/>
       <c r="F12" s="140" t="s">
         <v>390</v>
       </c>
       <c r="G12" s="151" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H12" s="152" t="s">
         <v>368</v>
       </c>
       <c r="I12" s="152" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="J12" s="152" t="s">
         <v>385</v>
@@ -25974,8 +26015,8 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="270"/>
-      <c r="B13" s="245" t="s">
+      <c r="A13" s="246"/>
+      <c r="B13" s="243" t="s">
         <v>394</v>
       </c>
       <c r="C13" s="139" t="s">
@@ -25984,14 +26025,14 @@
       <c r="D13" s="140">
         <v>2</v>
       </c>
-      <c r="E13" s="245" t="s">
+      <c r="E13" s="243" t="s">
         <v>288</v>
       </c>
       <c r="F13" s="140" t="s">
         <v>390</v>
       </c>
       <c r="G13" s="151" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H13" s="152" t="s">
         <v>368</v>
@@ -26013,20 +26054,20 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="270"/>
-      <c r="B14" s="246"/>
+      <c r="A14" s="246"/>
+      <c r="B14" s="250"/>
       <c r="C14" s="139" t="s">
         <v>396</v>
       </c>
       <c r="D14" s="140">
         <v>1</v>
       </c>
-      <c r="E14" s="246"/>
+      <c r="E14" s="250"/>
       <c r="F14" s="140" t="s">
         <v>386</v>
       </c>
       <c r="G14" s="151" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H14" s="152" t="s">
         <v>368</v>
@@ -26048,20 +26089,20 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="270"/>
-      <c r="B15" s="247"/>
+      <c r="A15" s="246"/>
+      <c r="B15" s="249"/>
       <c r="C15" s="139" t="s">
         <v>397</v>
       </c>
       <c r="D15" s="140">
         <v>1</v>
       </c>
-      <c r="E15" s="247"/>
+      <c r="E15" s="249"/>
       <c r="F15" s="140" t="s">
         <v>386</v>
       </c>
-      <c r="G15" s="272" t="s">
-        <v>442</v>
+      <c r="G15" s="197" t="s">
+        <v>439</v>
       </c>
       <c r="H15" s="152" t="s">
         <v>368</v>
@@ -26083,8 +26124,8 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="270"/>
-      <c r="B16" s="250" t="s">
+      <c r="A16" s="246"/>
+      <c r="B16" s="248" t="s">
         <v>266</v>
       </c>
       <c r="C16" s="136" t="s">
@@ -26093,20 +26134,20 @@
       <c r="D16" s="137">
         <v>1</v>
       </c>
-      <c r="E16" s="250" t="s">
+      <c r="E16" s="248" t="s">
         <v>399</v>
       </c>
       <c r="F16" s="137" t="s">
         <v>386</v>
       </c>
       <c r="G16" s="147" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H16" s="164" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="I16" s="164" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="J16" s="149" t="s">
         <v>400</v>
@@ -26122,15 +26163,15 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="270"/>
-      <c r="B17" s="247"/>
+      <c r="A17" s="246"/>
+      <c r="B17" s="249"/>
       <c r="C17" s="139" t="s">
         <v>402</v>
       </c>
       <c r="D17" s="140">
         <v>2</v>
       </c>
-      <c r="E17" s="247"/>
+      <c r="E17" s="249"/>
       <c r="F17" s="140" t="s">
         <v>400</v>
       </c>
@@ -26157,8 +26198,8 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="270"/>
-      <c r="B18" s="245" t="s">
+      <c r="A18" s="246"/>
+      <c r="B18" s="243" t="s">
         <v>115</v>
       </c>
       <c r="C18" s="139" t="s">
@@ -26167,20 +26208,20 @@
       <c r="D18" s="140">
         <v>1</v>
       </c>
-      <c r="E18" s="245" t="s">
+      <c r="E18" s="243" t="s">
         <v>376</v>
       </c>
       <c r="F18" s="140" t="s">
         <v>404</v>
       </c>
       <c r="G18" s="151" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H18" s="152" t="s">
-        <v>403</v>
+        <v>447</v>
       </c>
       <c r="I18" s="152" t="s">
-        <v>403</v>
+        <v>448</v>
       </c>
       <c r="J18" s="152" t="s">
         <v>385</v>
@@ -26196,23 +26237,23 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="270"/>
-      <c r="B19" s="247"/>
+      <c r="A19" s="246"/>
+      <c r="B19" s="249"/>
       <c r="C19" s="139" t="s">
         <v>118</v>
       </c>
       <c r="D19" s="140">
         <v>2</v>
       </c>
-      <c r="E19" s="246"/>
+      <c r="E19" s="250"/>
       <c r="F19" s="140" t="s">
         <v>404</v>
       </c>
       <c r="G19" s="151" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H19" s="152" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="I19" s="152" t="s">
         <v>368</v>
@@ -26231,7 +26272,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="270"/>
+      <c r="A20" s="246"/>
       <c r="B20" s="146" t="s">
         <v>405</v>
       </c>
@@ -26241,18 +26282,18 @@
       <c r="D20" s="140">
         <v>1</v>
       </c>
-      <c r="E20" s="247"/>
+      <c r="E20" s="249"/>
       <c r="F20" s="140" t="s">
         <v>390</v>
       </c>
       <c r="G20" s="151" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H20" s="152" t="s">
         <v>383</v>
       </c>
       <c r="I20" s="152" t="s">
-        <v>383</v>
+        <v>449</v>
       </c>
       <c r="J20" s="152" t="s">
         <v>385</v>
@@ -26268,8 +26309,8 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="270"/>
-      <c r="B21" s="245" t="s">
+      <c r="A21" s="246"/>
+      <c r="B21" s="243" t="s">
         <v>407</v>
       </c>
       <c r="C21" s="139" t="s">
@@ -26278,14 +26319,14 @@
       <c r="D21" s="140">
         <v>3</v>
       </c>
-      <c r="E21" s="245" t="s">
+      <c r="E21" s="243" t="s">
         <v>366</v>
       </c>
       <c r="F21" s="140" t="s">
         <v>404</v>
       </c>
       <c r="G21" s="151" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H21" s="152" t="s">
         <v>403</v>
@@ -26307,20 +26348,20 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="270"/>
-      <c r="B22" s="246"/>
+      <c r="A22" s="246"/>
+      <c r="B22" s="250"/>
       <c r="C22" s="139" t="s">
         <v>410</v>
       </c>
       <c r="D22" s="140">
         <v>3</v>
       </c>
-      <c r="E22" s="246"/>
+      <c r="E22" s="250"/>
       <c r="F22" s="140" t="s">
         <v>404</v>
       </c>
       <c r="G22" s="151" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H22" s="152" t="s">
         <v>403</v>
@@ -26342,20 +26383,20 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="270"/>
-      <c r="B23" s="246"/>
+      <c r="A23" s="246"/>
+      <c r="B23" s="250"/>
       <c r="C23" s="139" t="s">
         <v>280</v>
       </c>
       <c r="D23" s="140">
         <v>3</v>
       </c>
-      <c r="E23" s="247"/>
+      <c r="E23" s="249"/>
       <c r="F23" s="140" t="s">
         <v>404</v>
       </c>
       <c r="G23" s="151" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H23" s="152" t="s">
         <v>403</v>
@@ -26377,8 +26418,8 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="271"/>
-      <c r="B24" s="251"/>
+      <c r="A24" s="247"/>
+      <c r="B24" s="244"/>
       <c r="C24" s="142" t="s">
         <v>411</v>
       </c>
@@ -26392,13 +26433,13 @@
         <v>400</v>
       </c>
       <c r="G24" s="161" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="H24" s="155" t="s">
-        <v>412</v>
+        <v>451</v>
       </c>
       <c r="I24" s="155" t="s">
-        <v>412</v>
+        <v>450</v>
       </c>
       <c r="J24" s="152" t="s">
         <v>385</v>
@@ -26414,11 +26455,11 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="269" t="s">
+      <c r="A25" s="245" t="s">
+        <v>412</v>
+      </c>
+      <c r="B25" s="248" t="s">
         <v>413</v>
-      </c>
-      <c r="B25" s="250" t="s">
-        <v>414</v>
       </c>
       <c r="C25" s="136" t="s">
         <v>126</v>
@@ -26426,14 +26467,14 @@
       <c r="D25" s="137">
         <v>1</v>
       </c>
-      <c r="E25" s="250" t="s">
+      <c r="E25" s="248" t="s">
         <v>366</v>
       </c>
       <c r="F25" s="138" t="s">
         <v>370</v>
       </c>
       <c r="G25" s="147" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H25" s="149" t="s">
         <v>368</v>
@@ -26455,20 +26496,20 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="270"/>
-      <c r="B26" s="246"/>
+      <c r="A26" s="246"/>
+      <c r="B26" s="250"/>
       <c r="C26" s="139" t="s">
         <v>129</v>
       </c>
       <c r="D26" s="140">
         <v>1</v>
       </c>
-      <c r="E26" s="247"/>
+      <c r="E26" s="249"/>
       <c r="F26" s="137" t="s">
         <v>370</v>
       </c>
       <c r="G26" s="151" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H26" s="152" t="s">
         <v>368</v>
@@ -26490,28 +26531,28 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="270"/>
-      <c r="B27" s="246"/>
+      <c r="A27" s="246"/>
+      <c r="B27" s="250"/>
       <c r="C27" s="139" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D27" s="140">
         <v>3</v>
       </c>
-      <c r="E27" s="245" t="s">
+      <c r="E27" s="243" t="s">
         <v>376</v>
       </c>
       <c r="F27" s="140" t="s">
         <v>377</v>
       </c>
       <c r="G27" s="151" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H27" s="152" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I27" s="152" t="s">
-        <v>368</v>
+        <v>455</v>
       </c>
       <c r="J27" s="152" t="s">
         <v>409</v>
@@ -26527,26 +26568,26 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="270"/>
-      <c r="B28" s="247"/>
+      <c r="A28" s="246"/>
+      <c r="B28" s="249"/>
       <c r="C28" s="139" t="s">
         <v>125</v>
       </c>
       <c r="D28" s="140">
         <v>3</v>
       </c>
-      <c r="E28" s="246"/>
+      <c r="E28" s="250"/>
       <c r="F28" s="140" t="s">
         <v>377</v>
       </c>
       <c r="G28" s="151" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H28" s="152" t="s">
-        <v>368</v>
+        <v>457</v>
       </c>
       <c r="I28" s="152" t="s">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="J28" s="152" t="s">
         <v>409</v>
@@ -26562,28 +26603,28 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="271"/>
+      <c r="A29" s="247"/>
       <c r="B29" s="144" t="s">
+        <v>414</v>
+      </c>
+      <c r="C29" s="145" t="s">
         <v>415</v>
-      </c>
-      <c r="C29" s="145" t="s">
-        <v>416</v>
       </c>
       <c r="D29" s="143">
         <v>2</v>
       </c>
-      <c r="E29" s="251"/>
+      <c r="E29" s="244"/>
       <c r="F29" s="143" t="s">
         <v>370</v>
       </c>
       <c r="G29" s="161" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="H29" s="155" t="s">
-        <v>403</v>
+        <v>453</v>
       </c>
       <c r="I29" s="155" t="s">
-        <v>403</v>
+        <v>452</v>
       </c>
       <c r="J29" s="155" t="s">
         <v>409</v>
@@ -26595,14 +26636,14 @@
         <v>403</v>
       </c>
       <c r="M29" s="156" t="s">
-        <v>403</v>
+        <v>454</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="269" t="s">
+      <c r="A30" s="245" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="250" t="s">
+      <c r="B30" s="248" t="s">
         <v>71</v>
       </c>
       <c r="C30" s="136" t="s">
@@ -26611,14 +26652,14 @@
       <c r="D30" s="137">
         <v>3</v>
       </c>
-      <c r="E30" s="250" t="s">
+      <c r="E30" s="248" t="s">
         <v>366</v>
       </c>
       <c r="F30" s="138" t="s">
         <v>367</v>
       </c>
       <c r="G30" s="147" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H30" s="149" t="s">
         <v>368</v>
@@ -26640,20 +26681,20 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="270"/>
-      <c r="B31" s="247"/>
+      <c r="A31" s="246"/>
+      <c r="B31" s="249"/>
       <c r="C31" s="139" t="s">
         <v>74</v>
       </c>
       <c r="D31" s="140">
         <v>3</v>
       </c>
-      <c r="E31" s="247"/>
+      <c r="E31" s="249"/>
       <c r="F31" s="137" t="s">
         <v>367</v>
       </c>
       <c r="G31" s="151" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H31" s="152" t="s">
         <v>368</v>
@@ -26675,8 +26716,8 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="270"/>
-      <c r="B32" s="245" t="s">
+      <c r="A32" s="246"/>
+      <c r="B32" s="243" t="s">
         <v>267</v>
       </c>
       <c r="C32" s="139" t="s">
@@ -26685,7 +26726,7 @@
       <c r="D32" s="140">
         <v>2</v>
       </c>
-      <c r="E32" s="245" t="s">
+      <c r="E32" s="243" t="s">
         <v>288</v>
       </c>
       <c r="F32" s="140" t="s">
@@ -26714,15 +26755,15 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="270"/>
-      <c r="B33" s="246"/>
+      <c r="A33" s="246"/>
+      <c r="B33" s="250"/>
       <c r="C33" s="139" t="s">
         <v>372</v>
       </c>
       <c r="D33" s="140">
         <v>2</v>
       </c>
-      <c r="E33" s="246"/>
+      <c r="E33" s="250"/>
       <c r="F33" s="140" t="s">
         <v>370</v>
       </c>
@@ -26749,15 +26790,15 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="270"/>
-      <c r="B34" s="247"/>
+      <c r="A34" s="246"/>
+      <c r="B34" s="249"/>
       <c r="C34" s="139" t="s">
         <v>374</v>
       </c>
       <c r="D34" s="140">
         <v>2</v>
       </c>
-      <c r="E34" s="247"/>
+      <c r="E34" s="249"/>
       <c r="F34" s="140" t="s">
         <v>370</v>
       </c>
@@ -26784,8 +26825,8 @@
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="270"/>
-      <c r="B35" s="245" t="s">
+      <c r="A35" s="246"/>
+      <c r="B35" s="243" t="s">
         <v>268</v>
       </c>
       <c r="C35" s="139" t="s">
@@ -26794,7 +26835,7 @@
       <c r="D35" s="140">
         <v>2</v>
       </c>
-      <c r="E35" s="245" t="s">
+      <c r="E35" s="243" t="s">
         <v>376</v>
       </c>
       <c r="F35" s="140" t="s">
@@ -26823,15 +26864,15 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="270"/>
-      <c r="B36" s="247"/>
+      <c r="A36" s="246"/>
+      <c r="B36" s="249"/>
       <c r="C36" s="139" t="s">
         <v>106</v>
       </c>
       <c r="D36" s="140">
         <v>3</v>
       </c>
-      <c r="E36" s="246"/>
+      <c r="E36" s="250"/>
       <c r="F36" s="140" t="s">
         <v>377</v>
       </c>
@@ -26858,8 +26899,8 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="270"/>
-      <c r="B37" s="254" t="s">
+      <c r="A37" s="246"/>
+      <c r="B37" s="263" t="s">
         <v>378</v>
       </c>
       <c r="C37" s="141" t="s">
@@ -26868,7 +26909,7 @@
       <c r="D37" s="140">
         <v>2</v>
       </c>
-      <c r="E37" s="246"/>
+      <c r="E37" s="250"/>
       <c r="F37" s="140" t="s">
         <v>377</v>
       </c>
@@ -26895,15 +26936,15 @@
       </c>
     </row>
     <row r="38" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="271"/>
-      <c r="B38" s="255"/>
+      <c r="A38" s="247"/>
+      <c r="B38" s="256"/>
       <c r="C38" s="142" t="s">
         <v>380</v>
       </c>
       <c r="D38" s="143">
         <v>3</v>
       </c>
-      <c r="E38" s="251"/>
+      <c r="E38" s="244"/>
       <c r="F38" s="143" t="s">
         <v>377</v>
       </c>
@@ -26930,60 +26971,60 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="269" t="s">
+      <c r="A39" s="245" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="250" t="s">
+      <c r="B39" s="248" t="s">
         <v>69</v>
       </c>
-      <c r="C39" s="258" t="s">
+      <c r="C39" s="253" t="s">
         <v>69</v>
       </c>
-      <c r="D39" s="260">
+      <c r="D39" s="255">
         <v>1</v>
       </c>
-      <c r="E39" s="250" t="s">
+      <c r="E39" s="248" t="s">
         <v>366</v>
       </c>
-      <c r="F39" s="260" t="s">
+      <c r="F39" s="255" t="s">
         <v>381</v>
       </c>
-      <c r="G39" s="261" t="s">
-        <v>421</v>
-      </c>
-      <c r="H39" s="263" t="s">
-        <v>438</v>
-      </c>
-      <c r="I39" s="265" t="s">
+      <c r="G39" s="257" t="s">
+        <v>420</v>
+      </c>
+      <c r="H39" s="259" t="s">
+        <v>435</v>
+      </c>
+      <c r="I39" s="261" t="s">
         <v>371</v>
       </c>
-      <c r="J39" s="265" t="s">
+      <c r="J39" s="261" t="s">
         <v>382</v>
       </c>
-      <c r="K39" s="265" t="s">
+      <c r="K39" s="261" t="s">
         <v>368</v>
       </c>
-      <c r="L39" s="265" t="s">
+      <c r="L39" s="261" t="s">
         <v>383</v>
       </c>
-      <c r="M39" s="256" t="s">
+      <c r="M39" s="251" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="271"/>
-      <c r="B40" s="251"/>
-      <c r="C40" s="259"/>
-      <c r="D40" s="255"/>
-      <c r="E40" s="251"/>
-      <c r="F40" s="255"/>
-      <c r="G40" s="262"/>
-      <c r="H40" s="264"/>
-      <c r="I40" s="266"/>
-      <c r="J40" s="266"/>
-      <c r="K40" s="266"/>
-      <c r="L40" s="266"/>
-      <c r="M40" s="257"/>
+      <c r="A40" s="247"/>
+      <c r="B40" s="244"/>
+      <c r="C40" s="254"/>
+      <c r="D40" s="256"/>
+      <c r="E40" s="244"/>
+      <c r="F40" s="256"/>
+      <c r="G40" s="258"/>
+      <c r="H40" s="260"/>
+      <c r="I40" s="262"/>
+      <c r="J40" s="262"/>
+      <c r="K40" s="262"/>
+      <c r="L40" s="262"/>
+      <c r="M40" s="252"/>
     </row>
     <row r="41" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="42" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -27010,10 +27051,10 @@
         <v>6</v>
       </c>
       <c r="E43" s="167" t="s">
+        <v>421</v>
+      </c>
+      <c r="F43" s="168" t="s">
         <v>422</v>
-      </c>
-      <c r="F43" s="168" t="s">
-        <v>423</v>
       </c>
       <c r="G43" s="167" t="s">
         <v>7</v>
@@ -27042,7 +27083,7 @@
       <c r="C45" s="140">
         <v>1</v>
       </c>
-      <c r="D45" s="245" t="s">
+      <c r="D45" s="243" t="s">
         <v>366</v>
       </c>
       <c r="E45" s="172">
@@ -27062,7 +27103,7 @@
       <c r="C46" s="143">
         <v>1</v>
       </c>
-      <c r="D46" s="251"/>
+      <c r="D46" s="244"/>
       <c r="E46" s="175">
         <v>1</v>
       </c>
@@ -27082,7 +27123,7 @@
       <c r="C47" s="137">
         <v>1</v>
       </c>
-      <c r="D47" s="250" t="s">
+      <c r="D47" s="248" t="s">
         <v>288</v>
       </c>
       <c r="E47" s="178">
@@ -27092,7 +27133,7 @@
         <v>1</v>
       </c>
       <c r="G47" s="181" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="H47" s="180"/>
     </row>
@@ -27104,7 +27145,7 @@
       <c r="C48" s="140">
         <v>1</v>
       </c>
-      <c r="D48" s="247"/>
+      <c r="D48" s="249"/>
       <c r="E48" s="172">
         <v>1</v>
       </c>
@@ -27129,10 +27170,10 @@
         <v>1</v>
       </c>
       <c r="F49" s="181" t="s">
+        <v>423</v>
+      </c>
+      <c r="G49" s="181" t="s">
         <v>424</v>
-      </c>
-      <c r="G49" s="181" t="s">
-        <v>425</v>
       </c>
       <c r="H49" s="174"/>
     </row>
@@ -27144,7 +27185,7 @@
       <c r="C50" s="140">
         <v>1</v>
       </c>
-      <c r="D50" s="245" t="s">
+      <c r="D50" s="243" t="s">
         <v>376</v>
       </c>
       <c r="E50" s="172">
@@ -27164,12 +27205,12 @@
       <c r="C51" s="140">
         <v>1</v>
       </c>
-      <c r="D51" s="247"/>
+      <c r="D51" s="249"/>
       <c r="E51" s="172">
         <v>1</v>
       </c>
       <c r="F51" s="181" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G51" s="173"/>
       <c r="H51" s="174"/>
@@ -27183,35 +27224,35 @@
         <v>2</v>
       </c>
       <c r="D52" s="144" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E52" s="175">
         <v>1</v>
       </c>
       <c r="F52" s="182" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G52" s="176"/>
       <c r="H52" s="177"/>
     </row>
     <row r="53" spans="1:8" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A53" s="135" t="s">
+        <v>412</v>
+      </c>
+      <c r="B53" s="136" t="s">
         <v>413</v>
-      </c>
-      <c r="B53" s="136" t="s">
-        <v>414</v>
       </c>
       <c r="C53" s="137">
         <v>3</v>
       </c>
       <c r="D53" s="183" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E53" s="178">
         <v>1</v>
       </c>
       <c r="F53" s="184" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G53" s="179"/>
       <c r="H53" s="180"/>
@@ -27219,7 +27260,7 @@
     <row r="54" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="192"/>
       <c r="B54" s="145" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C54" s="143">
         <v>2</v>
@@ -27286,7 +27327,7 @@
       <c r="C57" s="140">
         <v>3</v>
       </c>
-      <c r="D57" s="245" t="s">
+      <c r="D57" s="243" t="s">
         <v>376</v>
       </c>
       <c r="E57" s="172">
@@ -27306,7 +27347,7 @@
       <c r="C58" s="143">
         <v>3</v>
       </c>
-      <c r="D58" s="251"/>
+      <c r="D58" s="244"/>
       <c r="E58" s="175">
         <v>1</v>
       </c>
@@ -27340,6 +27381,46 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="D57:D58"/>
     <mergeCell ref="A5:A8"/>
@@ -27353,47 +27434,7 @@
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="B25:B28"/>
     <mergeCell ref="B13:B15"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="E21:E23"/>
     <mergeCell ref="B5:B7"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27420,12 +27461,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="213"/>
-      <c r="B1" s="214"/>
-      <c r="C1" s="214"/>
-      <c r="D1" s="214"/>
-      <c r="E1" s="214"/>
-      <c r="F1" s="215"/>
+      <c r="A1" s="221"/>
+      <c r="B1" s="222"/>
+      <c r="C1" s="222"/>
+      <c r="D1" s="222"/>
+      <c r="E1" s="222"/>
+      <c r="F1" s="223"/>
     </row>
     <row r="2" spans="1:6" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
@@ -27448,15 +27489,15 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="224"/>
-      <c r="B3" s="225"/>
-      <c r="C3" s="225"/>
-      <c r="D3" s="225"/>
-      <c r="E3" s="225"/>
-      <c r="F3" s="226"/>
+      <c r="A3" s="212"/>
+      <c r="B3" s="213"/>
+      <c r="C3" s="213"/>
+      <c r="D3" s="213"/>
+      <c r="E3" s="213"/>
+      <c r="F3" s="214"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="220" t="s">
+      <c r="A4" s="225" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="74" t="s">
@@ -27465,26 +27506,26 @@
       <c r="C4" s="117">
         <v>1</v>
       </c>
-      <c r="D4" s="210" t="s">
+      <c r="D4" s="229" t="s">
         <v>283</v>
       </c>
       <c r="E4" s="33"/>
       <c r="F4" s="34"/>
     </row>
     <row r="5" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="230"/>
+      <c r="A5" s="231"/>
       <c r="B5" s="75" t="s">
         <v>265</v>
       </c>
       <c r="C5" s="118">
         <v>1</v>
       </c>
-      <c r="D5" s="223"/>
+      <c r="D5" s="230"/>
       <c r="E5" s="35"/>
       <c r="F5" s="36"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="216" t="s">
+      <c r="A6" s="210" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="76" t="s">
@@ -27493,26 +27534,26 @@
       <c r="C6" s="116">
         <v>1</v>
       </c>
-      <c r="D6" s="222" t="s">
+      <c r="D6" s="227" t="s">
         <v>308</v>
       </c>
       <c r="E6" s="31"/>
       <c r="F6" s="32"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="217"/>
+      <c r="A7" s="211"/>
       <c r="B7" s="74" t="s">
         <v>111</v>
       </c>
       <c r="C7" s="117">
         <v>1</v>
       </c>
-      <c r="D7" s="212"/>
+      <c r="D7" s="226"/>
       <c r="E7" s="33"/>
       <c r="F7" s="34"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="217"/>
+      <c r="A8" s="211"/>
       <c r="B8" s="77" t="s">
         <v>266</v>
       </c>
@@ -27526,33 +27567,33 @@
       <c r="F8" s="34"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="217"/>
+      <c r="A9" s="211"/>
       <c r="B9" s="74" t="s">
         <v>115</v>
       </c>
       <c r="C9" s="117">
         <v>1</v>
       </c>
-      <c r="D9" s="210" t="s">
+      <c r="D9" s="229" t="s">
         <v>289</v>
       </c>
       <c r="E9" s="33"/>
       <c r="F9" s="34"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="217"/>
+      <c r="A10" s="211"/>
       <c r="B10" s="77" t="s">
         <v>295</v>
       </c>
       <c r="C10" s="117">
         <v>1</v>
       </c>
-      <c r="D10" s="212"/>
+      <c r="D10" s="226"/>
       <c r="E10" s="33"/>
       <c r="F10" s="34"/>
     </row>
     <row r="11" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="230"/>
+      <c r="A11" s="231"/>
       <c r="B11" s="79" t="s">
         <v>43</v>
       </c>
@@ -27566,7 +27607,7 @@
       <c r="F11" s="34"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="216" t="s">
+      <c r="A12" s="210" t="s">
         <v>45</v>
       </c>
       <c r="B12" s="73" t="s">
@@ -27582,7 +27623,7 @@
       <c r="F12" s="32"/>
     </row>
     <row r="13" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="230"/>
+      <c r="A13" s="231"/>
       <c r="B13" s="68" t="s">
         <v>139</v>
       </c>
@@ -27596,7 +27637,7 @@
       <c r="F13" s="36"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="216" t="s">
+      <c r="A14" s="210" t="s">
         <v>67</v>
       </c>
       <c r="B14" s="78" t="s">
@@ -27612,7 +27653,7 @@
       <c r="F14" s="56"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="217"/>
+      <c r="A15" s="211"/>
       <c r="B15" s="78" t="s">
         <v>267</v>
       </c>
@@ -27626,28 +27667,28 @@
       <c r="F15" s="34"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="217"/>
+      <c r="A16" s="211"/>
       <c r="B16" s="74" t="s">
         <v>268</v>
       </c>
       <c r="C16" s="117">
         <v>3</v>
       </c>
-      <c r="D16" s="210" t="s">
+      <c r="D16" s="229" t="s">
         <v>289</v>
       </c>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
     </row>
     <row r="17" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="230"/>
+      <c r="A17" s="231"/>
       <c r="B17" s="80" t="s">
         <v>269</v>
       </c>
       <c r="C17" s="121">
         <v>3</v>
       </c>
-      <c r="D17" s="223"/>
+      <c r="D17" s="230"/>
       <c r="E17" s="44"/>
       <c r="F17" s="45"/>
     </row>

--- a/WebContent/발표/3조 5차 요구사항정의서.xlsx
+++ b/WebContent/발표/3조 5차 요구사항정의서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a01_javaexp\project04\project05\WebContent\발표\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a01_javaexp\github\project05\WebContent\발표\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="460">
   <si>
     <t>구분</t>
   </si>
@@ -2125,10 +2125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2/6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1/1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2161,10 +2157,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1/6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1/1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2238,6 +2230,22 @@
   </si>
   <si>
     <t>1/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6/6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6/6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4054,10 +4062,7 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4066,19 +4071,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4090,10 +4089,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4108,52 +4155,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4171,46 +4188,61 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4226,9 +4258,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="12" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4249,34 +4278,13 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -4642,10 +4650,10 @@
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="207" t="s">
+      <c r="B3" s="204" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="198" t="s">
+      <c r="C3" s="201" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="15" t="s">
@@ -4662,8 +4670,8 @@
       <c r="K3" s="11"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="208"/>
-      <c r="C4" s="199"/>
+      <c r="B4" s="205"/>
+      <c r="C4" s="202"/>
       <c r="D4" s="13" t="s">
         <v>13</v>
       </c>
@@ -4678,8 +4686,8 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="208"/>
-      <c r="C5" s="202"/>
+      <c r="B5" s="205"/>
+      <c r="C5" s="203"/>
       <c r="D5" s="16" t="s">
         <v>15</v>
       </c>
@@ -4694,8 +4702,8 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="208"/>
-      <c r="C6" s="198" t="s">
+      <c r="B6" s="205"/>
+      <c r="C6" s="201" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="12" t="s">
@@ -4712,8 +4720,8 @@
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="208"/>
-      <c r="C7" s="199"/>
+      <c r="B7" s="205"/>
+      <c r="C7" s="202"/>
       <c r="D7" s="13" t="s">
         <v>20</v>
       </c>
@@ -4728,8 +4736,8 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="209"/>
-      <c r="C8" s="202"/>
+      <c r="B8" s="206"/>
+      <c r="C8" s="203"/>
       <c r="D8" s="16" t="s">
         <v>17</v>
       </c>
@@ -4746,10 +4754,10 @@
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="206" t="s">
+      <c r="B9" s="198" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="198" t="s">
+      <c r="C9" s="201" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="15" t="s">
@@ -4766,8 +4774,8 @@
       <c r="K9" s="11"/>
     </row>
     <row r="10" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="200"/>
-      <c r="C10" s="202"/>
+      <c r="B10" s="199"/>
+      <c r="C10" s="203"/>
       <c r="D10" s="17" t="s">
         <v>25</v>
       </c>
@@ -4782,11 +4790,11 @@
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="200"/>
-      <c r="C11" s="198" t="s">
+      <c r="B11" s="199"/>
+      <c r="C11" s="201" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="203" t="s">
+      <c r="D11" s="207" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="10" t="s">
@@ -4800,9 +4808,9 @@
       <c r="K11" s="11"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="200"/>
-      <c r="C12" s="199"/>
-      <c r="D12" s="205"/>
+      <c r="B12" s="199"/>
+      <c r="C12" s="202"/>
+      <c r="D12" s="208"/>
       <c r="E12" s="1" t="s">
         <v>34</v>
       </c>
@@ -4814,8 +4822,8 @@
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="200"/>
-      <c r="C13" s="199"/>
+      <c r="B13" s="199"/>
+      <c r="C13" s="202"/>
       <c r="D13" s="13" t="s">
         <v>31</v>
       </c>
@@ -4830,8 +4838,8 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="200"/>
-      <c r="C14" s="199"/>
+      <c r="B14" s="199"/>
+      <c r="C14" s="202"/>
       <c r="D14" s="13" t="s">
         <v>32</v>
       </c>
@@ -4846,8 +4854,8 @@
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="200"/>
-      <c r="C15" s="202"/>
+      <c r="B15" s="199"/>
+      <c r="C15" s="203"/>
       <c r="D15" s="17" t="s">
         <v>35</v>
       </c>
@@ -4864,8 +4872,8 @@
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="200"/>
-      <c r="C16" s="198" t="s">
+      <c r="B16" s="199"/>
+      <c r="C16" s="201" t="s">
         <v>38</v>
       </c>
       <c r="D16" s="15" t="s">
@@ -4882,8 +4890,8 @@
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="200"/>
-      <c r="C17" s="199"/>
+      <c r="B17" s="199"/>
+      <c r="C17" s="202"/>
       <c r="D17" s="13" t="s">
         <v>31</v>
       </c>
@@ -4898,8 +4906,8 @@
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="200"/>
-      <c r="C18" s="199"/>
+      <c r="B18" s="199"/>
+      <c r="C18" s="202"/>
       <c r="D18" s="13" t="s">
         <v>42</v>
       </c>
@@ -4914,8 +4922,8 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="201"/>
-      <c r="C19" s="202"/>
+      <c r="B19" s="200"/>
+      <c r="C19" s="203"/>
       <c r="D19" s="17" t="s">
         <v>35</v>
       </c>
@@ -4930,10 +4938,10 @@
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="206" t="s">
+      <c r="B20" s="198" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="198" t="s">
+      <c r="C20" s="201" t="s">
         <v>46</v>
       </c>
       <c r="D20" s="15" t="s">
@@ -4950,8 +4958,8 @@
       <c r="K20" s="11"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="200"/>
-      <c r="C21" s="199"/>
+      <c r="B21" s="199"/>
+      <c r="C21" s="202"/>
       <c r="D21" s="13" t="s">
         <v>48</v>
       </c>
@@ -4966,8 +4974,8 @@
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="200"/>
-      <c r="C22" s="202"/>
+      <c r="B22" s="199"/>
+      <c r="C22" s="203"/>
       <c r="D22" s="16" t="s">
         <v>52</v>
       </c>
@@ -4982,7 +4990,7 @@
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="200"/>
+      <c r="B23" s="199"/>
       <c r="C23" s="21" t="s">
         <v>54</v>
       </c>
@@ -5000,10 +5008,10 @@
       <c r="K23" s="20"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="206" t="s">
+      <c r="B24" s="198" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="198" t="s">
+      <c r="C24" s="201" t="s">
         <v>49</v>
       </c>
       <c r="D24" s="15" t="s">
@@ -5020,8 +5028,8 @@
       <c r="K24" s="11"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="200"/>
-      <c r="C25" s="199"/>
+      <c r="B25" s="199"/>
+      <c r="C25" s="202"/>
       <c r="D25" s="13" t="s">
         <v>59</v>
       </c>
@@ -5036,8 +5044,8 @@
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="200"/>
-      <c r="C26" s="202"/>
+      <c r="B26" s="199"/>
+      <c r="C26" s="203"/>
       <c r="D26" s="16" t="s">
         <v>61</v>
       </c>
@@ -5052,7 +5060,7 @@
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="200"/>
+      <c r="B27" s="199"/>
       <c r="C27" s="23" t="s">
         <v>56</v>
       </c>
@@ -5070,7 +5078,7 @@
       <c r="K27" s="20"/>
     </row>
     <row r="28" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="201"/>
+      <c r="B28" s="200"/>
       <c r="C28" s="23" t="s">
         <v>44</v>
       </c>
@@ -5108,10 +5116,10 @@
       <c r="K29" s="20"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="198" t="s">
+      <c r="B30" s="201" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="203" t="s">
+      <c r="C30" s="207" t="s">
         <v>71</v>
       </c>
       <c r="D30" s="15" t="s">
@@ -5128,8 +5136,8 @@
       <c r="K30" s="11"/>
     </row>
     <row r="31" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="199"/>
-      <c r="C31" s="204"/>
+      <c r="B31" s="202"/>
+      <c r="C31" s="209"/>
       <c r="D31" s="14" t="s">
         <v>74</v>
       </c>
@@ -5144,8 +5152,8 @@
       <c r="K31" s="27"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="200"/>
-      <c r="C32" s="198" t="s">
+      <c r="B32" s="199"/>
+      <c r="C32" s="201" t="s">
         <v>85</v>
       </c>
       <c r="D32" s="15" t="s">
@@ -5162,8 +5170,8 @@
       <c r="K32" s="11"/>
     </row>
     <row r="33" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="200"/>
-      <c r="C33" s="202"/>
+      <c r="B33" s="199"/>
+      <c r="C33" s="203"/>
       <c r="D33" s="16" t="s">
         <v>88</v>
       </c>
@@ -5178,8 +5186,8 @@
       <c r="K33" s="4"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="200"/>
-      <c r="C34" s="198" t="s">
+      <c r="B34" s="199"/>
+      <c r="C34" s="201" t="s">
         <v>90</v>
       </c>
       <c r="D34" s="15" t="s">
@@ -5196,8 +5204,8 @@
       <c r="K34" s="11"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="200"/>
-      <c r="C35" s="199"/>
+      <c r="B35" s="199"/>
+      <c r="C35" s="202"/>
       <c r="D35" s="13"/>
       <c r="E35" s="1" t="s">
         <v>34</v>
@@ -5210,8 +5218,8 @@
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="200"/>
-      <c r="C36" s="199"/>
+      <c r="B36" s="199"/>
+      <c r="C36" s="202"/>
       <c r="D36" s="13" t="s">
         <v>31</v>
       </c>
@@ -5226,8 +5234,8 @@
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="200"/>
-      <c r="C37" s="199"/>
+      <c r="B37" s="199"/>
+      <c r="C37" s="202"/>
       <c r="D37" s="13" t="s">
         <v>92</v>
       </c>
@@ -5242,8 +5250,8 @@
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="200"/>
-      <c r="C38" s="202"/>
+      <c r="B38" s="199"/>
+      <c r="C38" s="203"/>
       <c r="D38" s="16" t="s">
         <v>94</v>
       </c>
@@ -5258,8 +5266,8 @@
       <c r="K38" s="4"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="200"/>
-      <c r="C39" s="198" t="s">
+      <c r="B39" s="199"/>
+      <c r="C39" s="201" t="s">
         <v>38</v>
       </c>
       <c r="D39" s="15" t="s">
@@ -5276,8 +5284,8 @@
       <c r="K39" s="11"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="200"/>
-      <c r="C40" s="199"/>
+      <c r="B40" s="199"/>
+      <c r="C40" s="202"/>
       <c r="D40" s="13" t="s">
         <v>31</v>
       </c>
@@ -5292,8 +5300,8 @@
       <c r="K40" s="2"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="200"/>
-      <c r="C41" s="199"/>
+      <c r="B41" s="199"/>
+      <c r="C41" s="202"/>
       <c r="D41" s="13" t="s">
         <v>92</v>
       </c>
@@ -5308,8 +5316,8 @@
       <c r="K41" s="2"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="200"/>
-      <c r="C42" s="199"/>
+      <c r="B42" s="199"/>
+      <c r="C42" s="202"/>
       <c r="D42" s="13" t="s">
         <v>35</v>
       </c>
@@ -5324,8 +5332,8 @@
       <c r="K42" s="2"/>
     </row>
     <row r="43" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="200"/>
-      <c r="C43" s="202"/>
+      <c r="B43" s="199"/>
+      <c r="C43" s="203"/>
       <c r="D43" s="16" t="s">
         <v>97</v>
       </c>
@@ -5340,8 +5348,8 @@
       <c r="K43" s="4"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="200"/>
-      <c r="C44" s="198" t="s">
+      <c r="B44" s="199"/>
+      <c r="C44" s="201" t="s">
         <v>76</v>
       </c>
       <c r="D44" s="15" t="s">
@@ -5358,8 +5366,8 @@
       <c r="K44" s="11"/>
     </row>
     <row r="45" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="200"/>
-      <c r="C45" s="202"/>
+      <c r="B45" s="199"/>
+      <c r="C45" s="203"/>
       <c r="D45" s="16" t="s">
         <v>79</v>
       </c>
@@ -5374,8 +5382,8 @@
       <c r="K45" s="4"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="200"/>
-      <c r="C46" s="198" t="s">
+      <c r="B46" s="199"/>
+      <c r="C46" s="201" t="s">
         <v>81</v>
       </c>
       <c r="D46" s="15" t="s">
@@ -5392,8 +5400,8 @@
       <c r="K46" s="11"/>
     </row>
     <row r="47" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="200"/>
-      <c r="C47" s="202"/>
+      <c r="B47" s="199"/>
+      <c r="C47" s="203"/>
       <c r="D47" s="16" t="s">
         <v>83</v>
       </c>
@@ -5408,8 +5416,8 @@
       <c r="K47" s="4"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="200"/>
-      <c r="C48" s="198" t="s">
+      <c r="B48" s="199"/>
+      <c r="C48" s="201" t="s">
         <v>56</v>
       </c>
       <c r="D48" s="15" t="s">
@@ -5426,8 +5434,8 @@
       <c r="K48" s="11"/>
     </row>
     <row r="49" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="201"/>
-      <c r="C49" s="202"/>
+      <c r="B49" s="200"/>
+      <c r="C49" s="203"/>
       <c r="D49" s="16" t="s">
         <v>101</v>
       </c>
@@ -5443,18 +5451,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B9:B19"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C22"/>
     <mergeCell ref="B30:B49"/>
     <mergeCell ref="C39:C43"/>
     <mergeCell ref="C34:C38"/>
@@ -5463,6 +5459,18 @@
     <mergeCell ref="C48:C49"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B9:B19"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5492,15 +5500,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="221"/>
-      <c r="B1" s="222"/>
-      <c r="C1" s="222"/>
-      <c r="D1" s="222"/>
-      <c r="E1" s="222"/>
-      <c r="F1" s="222"/>
-      <c r="G1" s="222"/>
-      <c r="H1" s="222"/>
-      <c r="I1" s="223"/>
+      <c r="A1" s="214"/>
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
+      <c r="H1" s="215"/>
+      <c r="I1" s="216"/>
     </row>
     <row r="2" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
@@ -5532,21 +5540,21 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="212"/>
-      <c r="B3" s="213"/>
-      <c r="C3" s="213"/>
-      <c r="D3" s="213"/>
-      <c r="E3" s="213"/>
-      <c r="F3" s="213"/>
-      <c r="G3" s="213"/>
-      <c r="H3" s="213"/>
-      <c r="I3" s="214"/>
+      <c r="A3" s="225"/>
+      <c r="B3" s="226"/>
+      <c r="C3" s="226"/>
+      <c r="D3" s="226"/>
+      <c r="E3" s="226"/>
+      <c r="F3" s="226"/>
+      <c r="G3" s="226"/>
+      <c r="H3" s="226"/>
+      <c r="I3" s="227"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="215" t="s">
+      <c r="A4" s="228" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="218" t="s">
+      <c r="B4" s="222" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="37" t="s">
@@ -5562,8 +5570,8 @@
       <c r="I4" s="32"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="216"/>
-      <c r="B5" s="219"/>
+      <c r="A5" s="220"/>
+      <c r="B5" s="210"/>
       <c r="C5" s="38" t="s">
         <v>13</v>
       </c>
@@ -5577,8 +5585,8 @@
       <c r="I5" s="34"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="216"/>
-      <c r="B6" s="219"/>
+      <c r="A6" s="220"/>
+      <c r="B6" s="210"/>
       <c r="C6" s="38" t="s">
         <v>15</v>
       </c>
@@ -5592,8 +5600,8 @@
       <c r="I6" s="34"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="216"/>
-      <c r="B7" s="219" t="s">
+      <c r="A7" s="220"/>
+      <c r="B7" s="210" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="38" t="s">
@@ -5609,8 +5617,8 @@
       <c r="I7" s="34"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="216"/>
-      <c r="B8" s="219"/>
+      <c r="A8" s="220"/>
+      <c r="B8" s="210"/>
       <c r="C8" s="38" t="s">
         <v>20</v>
       </c>
@@ -5624,8 +5632,8 @@
       <c r="I8" s="34"/>
     </row>
     <row r="9" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="217"/>
-      <c r="B9" s="220"/>
+      <c r="A9" s="229"/>
+      <c r="B9" s="230"/>
       <c r="C9" s="39" t="s">
         <v>17</v>
       </c>
@@ -5639,10 +5647,10 @@
       <c r="I9" s="36"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="210" t="s">
+      <c r="A10" s="217" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="227" t="s">
+      <c r="B10" s="223" t="s">
         <v>103</v>
       </c>
       <c r="C10" s="37" t="s">
@@ -5658,8 +5666,8 @@
       <c r="I10" s="32"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="211"/>
-      <c r="B11" s="228"/>
+      <c r="A11" s="218"/>
+      <c r="B11" s="212"/>
       <c r="C11" s="38" t="s">
         <v>105</v>
       </c>
@@ -5673,8 +5681,8 @@
       <c r="I11" s="34"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="211"/>
-      <c r="B12" s="228"/>
+      <c r="A12" s="218"/>
+      <c r="B12" s="212"/>
       <c r="C12" s="38" t="s">
         <v>92</v>
       </c>
@@ -5688,8 +5696,8 @@
       <c r="I12" s="34"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="211"/>
-      <c r="B13" s="226"/>
+      <c r="A13" s="218"/>
+      <c r="B13" s="213"/>
       <c r="C13" s="38" t="s">
         <v>109</v>
       </c>
@@ -5705,8 +5713,8 @@
       <c r="I13" s="34"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="211"/>
-      <c r="B14" s="229" t="s">
+      <c r="A14" s="218"/>
+      <c r="B14" s="211" t="s">
         <v>180</v>
       </c>
       <c r="C14" s="38" t="s">
@@ -5722,8 +5730,8 @@
       <c r="I14" s="34"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="211"/>
-      <c r="B15" s="228"/>
+      <c r="A15" s="218"/>
+      <c r="B15" s="212"/>
       <c r="C15" s="38" t="s">
         <v>184</v>
       </c>
@@ -5737,8 +5745,8 @@
       <c r="I15" s="34"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="211"/>
-      <c r="B16" s="229" t="s">
+      <c r="A16" s="218"/>
+      <c r="B16" s="211" t="s">
         <v>111</v>
       </c>
       <c r="C16" s="58" t="s">
@@ -5754,8 +5762,8 @@
       <c r="I16" s="34"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="211"/>
-      <c r="B17" s="228"/>
+      <c r="A17" s="218"/>
+      <c r="B17" s="212"/>
       <c r="C17" s="38" t="s">
         <v>105</v>
       </c>
@@ -5769,8 +5777,8 @@
       <c r="I17" s="34"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="211"/>
-      <c r="B18" s="228"/>
+      <c r="A18" s="218"/>
+      <c r="B18" s="212"/>
       <c r="C18" s="38" t="s">
         <v>113</v>
       </c>
@@ -5786,8 +5794,8 @@
       <c r="I18" s="34"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="211"/>
-      <c r="B19" s="226"/>
+      <c r="A19" s="218"/>
+      <c r="B19" s="213"/>
       <c r="C19" s="38" t="s">
         <v>109</v>
       </c>
@@ -5801,8 +5809,8 @@
       <c r="I19" s="34"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="211"/>
-      <c r="B20" s="229" t="s">
+      <c r="A20" s="218"/>
+      <c r="B20" s="211" t="s">
         <v>193</v>
       </c>
       <c r="C20" s="59" t="s">
@@ -5818,8 +5826,8 @@
       <c r="I20" s="34"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="211"/>
-      <c r="B21" s="226"/>
+      <c r="A21" s="218"/>
+      <c r="B21" s="213"/>
       <c r="C21" s="59" t="s">
         <v>194</v>
       </c>
@@ -5833,8 +5841,8 @@
       <c r="I21" s="34"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="211"/>
-      <c r="B22" s="229" t="s">
+      <c r="A22" s="218"/>
+      <c r="B22" s="211" t="s">
         <v>115</v>
       </c>
       <c r="C22" s="38" t="s">
@@ -5850,8 +5858,8 @@
       <c r="I22" s="34"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="211"/>
-      <c r="B23" s="228"/>
+      <c r="A23" s="218"/>
+      <c r="B23" s="212"/>
       <c r="C23" s="38" t="s">
         <v>118</v>
       </c>
@@ -5865,8 +5873,8 @@
       <c r="I23" s="34"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="211"/>
-      <c r="B24" s="228"/>
+      <c r="A24" s="218"/>
+      <c r="B24" s="212"/>
       <c r="C24" s="38" t="s">
         <v>120</v>
       </c>
@@ -5880,8 +5888,8 @@
       <c r="I24" s="34"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="211"/>
-      <c r="B25" s="226"/>
+      <c r="A25" s="218"/>
+      <c r="B25" s="213"/>
       <c r="C25" s="38" t="s">
         <v>122</v>
       </c>
@@ -5895,8 +5903,8 @@
       <c r="I25" s="34"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="211"/>
-      <c r="B26" s="229" t="s">
+      <c r="A26" s="218"/>
+      <c r="B26" s="211" t="s">
         <v>174</v>
       </c>
       <c r="C26" s="38" t="s">
@@ -5912,8 +5920,8 @@
       <c r="I26" s="34"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="211"/>
-      <c r="B27" s="228"/>
+      <c r="A27" s="218"/>
+      <c r="B27" s="212"/>
       <c r="C27" s="38" t="s">
         <v>178</v>
       </c>
@@ -5927,8 +5935,8 @@
       <c r="I27" s="34"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="211"/>
-      <c r="B28" s="228"/>
+      <c r="A28" s="218"/>
+      <c r="B28" s="212"/>
       <c r="C28" s="38" t="s">
         <v>182</v>
       </c>
@@ -5942,8 +5950,8 @@
       <c r="I28" s="34"/>
     </row>
     <row r="29" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="211"/>
-      <c r="B29" s="228"/>
+      <c r="A29" s="218"/>
+      <c r="B29" s="212"/>
       <c r="C29" s="58" t="s">
         <v>176</v>
       </c>
@@ -5957,10 +5965,10 @@
       <c r="I29" s="45"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="210" t="s">
+      <c r="A30" s="217" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="218" t="s">
+      <c r="B30" s="222" t="s">
         <v>127</v>
       </c>
       <c r="C30" s="62" t="s">
@@ -5976,8 +5984,8 @@
       <c r="I30" s="32"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="211"/>
-      <c r="B31" s="219"/>
+      <c r="A31" s="218"/>
+      <c r="B31" s="210"/>
       <c r="C31" s="63" t="s">
         <v>129</v>
       </c>
@@ -5991,8 +5999,8 @@
       <c r="I31" s="34"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="211"/>
-      <c r="B32" s="219"/>
+      <c r="A32" s="218"/>
+      <c r="B32" s="210"/>
       <c r="C32" s="63" t="s">
         <v>132</v>
       </c>
@@ -6006,8 +6014,8 @@
       <c r="I32" s="34"/>
     </row>
     <row r="33" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A33" s="211"/>
-      <c r="B33" s="219"/>
+      <c r="A33" s="218"/>
+      <c r="B33" s="210"/>
       <c r="C33" s="63" t="s">
         <v>125</v>
       </c>
@@ -6021,8 +6029,8 @@
       <c r="I33" s="34"/>
     </row>
     <row r="34" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A34" s="211"/>
-      <c r="B34" s="219" t="s">
+      <c r="A34" s="218"/>
+      <c r="B34" s="210" t="s">
         <v>133</v>
       </c>
       <c r="C34" s="63" t="s">
@@ -6038,8 +6046,8 @@
       <c r="I34" s="45"/>
     </row>
     <row r="35" spans="1:16384" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="211"/>
-      <c r="B35" s="219"/>
+      <c r="A35" s="218"/>
+      <c r="B35" s="210"/>
       <c r="C35" s="63" t="s">
         <v>134</v>
       </c>
@@ -22428,8 +22436,8 @@
       <c r="XFD35" s="46"/>
     </row>
     <row r="36" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A36" s="211"/>
-      <c r="B36" s="219"/>
+      <c r="A36" s="218"/>
+      <c r="B36" s="210"/>
       <c r="C36" s="64" t="s">
         <v>187</v>
       </c>
@@ -22441,8 +22449,8 @@
       <c r="I36" s="56"/>
     </row>
     <row r="37" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A37" s="211"/>
-      <c r="B37" s="219" t="s">
+      <c r="A37" s="218"/>
+      <c r="B37" s="210" t="s">
         <v>136</v>
       </c>
       <c r="C37" s="63" t="s">
@@ -22458,8 +22466,8 @@
       <c r="I37" s="34"/>
     </row>
     <row r="38" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A38" s="211"/>
-      <c r="B38" s="219"/>
+      <c r="A38" s="218"/>
+      <c r="B38" s="210"/>
       <c r="C38" s="63" t="s">
         <v>92</v>
       </c>
@@ -22473,7 +22481,7 @@
       <c r="I38" s="34"/>
     </row>
     <row r="39" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A39" s="211"/>
+      <c r="A39" s="218"/>
       <c r="B39" s="57" t="s">
         <v>139</v>
       </c>
@@ -22490,10 +22498,10 @@
       <c r="I39" s="34"/>
     </row>
     <row r="40" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A40" s="224" t="s">
+      <c r="A40" s="219" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="226" t="s">
+      <c r="B40" s="213" t="s">
         <v>71</v>
       </c>
       <c r="C40" s="41" t="s">
@@ -22509,8 +22517,8 @@
       <c r="I40" s="56"/>
     </row>
     <row r="41" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A41" s="216"/>
-      <c r="B41" s="219"/>
+      <c r="A41" s="220"/>
+      <c r="B41" s="210"/>
       <c r="C41" s="40" t="s">
         <v>74</v>
       </c>
@@ -22524,8 +22532,8 @@
       <c r="I41" s="34"/>
     </row>
     <row r="42" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A42" s="216"/>
-      <c r="B42" s="219" t="s">
+      <c r="A42" s="220"/>
+      <c r="B42" s="210" t="s">
         <v>152</v>
       </c>
       <c r="C42" s="40" t="s">
@@ -22541,8 +22549,8 @@
       <c r="I42" s="34"/>
     </row>
     <row r="43" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A43" s="216"/>
-      <c r="B43" s="219"/>
+      <c r="A43" s="220"/>
+      <c r="B43" s="210"/>
       <c r="C43" s="40" t="s">
         <v>144</v>
       </c>
@@ -22556,11 +22564,11 @@
       <c r="I43" s="34"/>
     </row>
     <row r="44" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A44" s="216"/>
-      <c r="B44" s="219" t="s">
+      <c r="A44" s="220"/>
+      <c r="B44" s="210" t="s">
         <v>163</v>
       </c>
-      <c r="C44" s="229" t="s">
+      <c r="C44" s="211" t="s">
         <v>162</v>
       </c>
       <c r="D44" s="33" t="s">
@@ -22573,9 +22581,9 @@
       <c r="I44" s="34"/>
     </row>
     <row r="45" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A45" s="216"/>
-      <c r="B45" s="219"/>
-      <c r="C45" s="226"/>
+      <c r="A45" s="220"/>
+      <c r="B45" s="210"/>
+      <c r="C45" s="213"/>
       <c r="D45" s="33" t="s">
         <v>164</v>
       </c>
@@ -22586,8 +22594,8 @@
       <c r="I45" s="34"/>
     </row>
     <row r="46" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A46" s="216"/>
-      <c r="B46" s="219"/>
+      <c r="A46" s="220"/>
+      <c r="B46" s="210"/>
       <c r="C46" s="40" t="s">
         <v>112</v>
       </c>
@@ -22601,8 +22609,8 @@
       <c r="I46" s="34"/>
     </row>
     <row r="47" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A47" s="216"/>
-      <c r="B47" s="219"/>
+      <c r="A47" s="220"/>
+      <c r="B47" s="210"/>
       <c r="C47" s="40" t="s">
         <v>106</v>
       </c>
@@ -22616,8 +22624,8 @@
       <c r="I47" s="34"/>
     </row>
     <row r="48" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A48" s="216"/>
-      <c r="B48" s="219"/>
+      <c r="A48" s="220"/>
+      <c r="B48" s="210"/>
       <c r="C48" s="40" t="s">
         <v>147</v>
       </c>
@@ -22631,8 +22639,8 @@
       <c r="I48" s="34"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="216"/>
-      <c r="B49" s="219" t="s">
+      <c r="A49" s="220"/>
+      <c r="B49" s="210" t="s">
         <v>153</v>
       </c>
       <c r="C49" s="40" t="s">
@@ -22648,8 +22656,8 @@
       <c r="I49" s="34"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="216"/>
-      <c r="B50" s="219"/>
+      <c r="A50" s="220"/>
+      <c r="B50" s="210"/>
       <c r="C50" s="40" t="s">
         <v>112</v>
       </c>
@@ -22663,8 +22671,8 @@
       <c r="I50" s="34"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="216"/>
-      <c r="B51" s="219"/>
+      <c r="A51" s="220"/>
+      <c r="B51" s="210"/>
       <c r="C51" s="40" t="s">
         <v>106</v>
       </c>
@@ -22678,8 +22686,8 @@
       <c r="I51" s="34"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="216"/>
-      <c r="B52" s="219"/>
+      <c r="A52" s="220"/>
+      <c r="B52" s="210"/>
       <c r="C52" s="40" t="s">
         <v>147</v>
       </c>
@@ -22693,8 +22701,8 @@
       <c r="I52" s="34"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="216"/>
-      <c r="B53" s="229" t="s">
+      <c r="A53" s="220"/>
+      <c r="B53" s="211" t="s">
         <v>154</v>
       </c>
       <c r="C53" s="40" t="s">
@@ -22710,8 +22718,8 @@
       <c r="I53" s="34"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="216"/>
-      <c r="B54" s="228"/>
+      <c r="A54" s="220"/>
+      <c r="B54" s="212"/>
       <c r="C54" s="49" t="s">
         <v>159</v>
       </c>
@@ -22725,8 +22733,8 @@
       <c r="I54" s="34"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="216"/>
-      <c r="B55" s="219" t="s">
+      <c r="A55" s="220"/>
+      <c r="B55" s="210" t="s">
         <v>76</v>
       </c>
       <c r="C55" s="40" t="s">
@@ -22742,8 +22750,8 @@
       <c r="I55" s="34"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="216"/>
-      <c r="B56" s="219"/>
+      <c r="A56" s="220"/>
+      <c r="B56" s="210"/>
       <c r="C56" s="40" t="s">
         <v>79</v>
       </c>
@@ -22757,8 +22765,8 @@
       <c r="I56" s="34"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="216"/>
-      <c r="B57" s="229" t="s">
+      <c r="A57" s="220"/>
+      <c r="B57" s="211" t="s">
         <v>81</v>
       </c>
       <c r="C57" s="40" t="s">
@@ -22774,8 +22782,8 @@
       <c r="I57" s="34"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="225"/>
-      <c r="B58" s="226"/>
+      <c r="A58" s="221"/>
+      <c r="B58" s="213"/>
       <c r="C58" s="50" t="s">
         <v>167</v>
       </c>
@@ -22789,8 +22797,8 @@
       <c r="I58" s="45"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="225"/>
-      <c r="B59" s="229" t="s">
+      <c r="A59" s="221"/>
+      <c r="B59" s="211" t="s">
         <v>172</v>
       </c>
       <c r="C59" s="50" t="s">
@@ -22806,8 +22814,8 @@
       <c r="I59" s="45"/>
     </row>
     <row r="60" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="225"/>
-      <c r="B60" s="230"/>
+      <c r="A60" s="221"/>
+      <c r="B60" s="224"/>
       <c r="C60" s="42" t="s">
         <v>171</v>
       </c>
@@ -23070,11 +23078,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A30:A39"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A10:A29"/>
     <mergeCell ref="A40:A60"/>
@@ -23091,11 +23099,11 @@
     <mergeCell ref="C44:C45"/>
     <mergeCell ref="B59:B60"/>
     <mergeCell ref="B44:B48"/>
-    <mergeCell ref="A30:A39"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B20:B21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23138,15 +23146,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="221"/>
-      <c r="B1" s="222"/>
-      <c r="C1" s="222"/>
-      <c r="D1" s="222"/>
-      <c r="E1" s="222"/>
-      <c r="F1" s="222"/>
-      <c r="G1" s="222"/>
-      <c r="H1" s="222"/>
-      <c r="I1" s="223"/>
+      <c r="A1" s="214"/>
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
+      <c r="H1" s="215"/>
+      <c r="I1" s="216"/>
     </row>
     <row r="2" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
@@ -23178,21 +23186,21 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="212"/>
-      <c r="B3" s="213"/>
-      <c r="C3" s="213"/>
-      <c r="D3" s="213"/>
-      <c r="E3" s="213"/>
-      <c r="F3" s="213"/>
-      <c r="G3" s="213"/>
-      <c r="H3" s="213"/>
-      <c r="I3" s="214"/>
+      <c r="A3" s="225"/>
+      <c r="B3" s="226"/>
+      <c r="C3" s="226"/>
+      <c r="D3" s="226"/>
+      <c r="E3" s="226"/>
+      <c r="F3" s="226"/>
+      <c r="G3" s="226"/>
+      <c r="H3" s="226"/>
+      <c r="I3" s="227"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="210" t="s">
+      <c r="A4" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="227" t="s">
+      <c r="B4" s="223" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="88" t="s">
@@ -23203,15 +23211,15 @@
       </c>
       <c r="E4" s="31"/>
       <c r="F4" s="31"/>
-      <c r="G4" s="227" t="s">
+      <c r="G4" s="223" t="s">
         <v>284</v>
       </c>
       <c r="H4" s="31"/>
       <c r="I4" s="32"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="211"/>
-      <c r="B5" s="228"/>
+      <c r="A5" s="218"/>
+      <c r="B5" s="212"/>
       <c r="C5" s="89" t="s">
         <v>13</v>
       </c>
@@ -23220,13 +23228,13 @@
       </c>
       <c r="E5" s="33"/>
       <c r="F5" s="33"/>
-      <c r="G5" s="228"/>
+      <c r="G5" s="212"/>
       <c r="H5" s="33"/>
       <c r="I5" s="34"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="211"/>
-      <c r="B6" s="226"/>
+      <c r="A6" s="218"/>
+      <c r="B6" s="213"/>
       <c r="C6" s="89" t="s">
         <v>15</v>
       </c>
@@ -23235,13 +23243,13 @@
       </c>
       <c r="E6" s="33"/>
       <c r="F6" s="33"/>
-      <c r="G6" s="228"/>
+      <c r="G6" s="212"/>
       <c r="H6" s="33"/>
       <c r="I6" s="34"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="211"/>
-      <c r="B7" s="229" t="s">
+      <c r="A7" s="218"/>
+      <c r="B7" s="211" t="s">
         <v>253</v>
       </c>
       <c r="C7" s="89" t="s">
@@ -23252,13 +23260,13 @@
       </c>
       <c r="E7" s="65"/>
       <c r="F7" s="33"/>
-      <c r="G7" s="228"/>
+      <c r="G7" s="212"/>
       <c r="H7" s="33"/>
       <c r="I7" s="34"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="211"/>
-      <c r="B8" s="228"/>
+      <c r="A8" s="218"/>
+      <c r="B8" s="212"/>
       <c r="C8" s="89" t="s">
         <v>254</v>
       </c>
@@ -23267,13 +23275,13 @@
       </c>
       <c r="E8" s="67"/>
       <c r="F8" s="33"/>
-      <c r="G8" s="228"/>
+      <c r="G8" s="212"/>
       <c r="H8" s="33"/>
       <c r="I8" s="34"/>
     </row>
     <row r="9" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="231"/>
-      <c r="B9" s="230"/>
+      <c r="B9" s="224"/>
       <c r="C9" s="90" t="s">
         <v>253</v>
       </c>
@@ -23282,15 +23290,15 @@
       </c>
       <c r="E9" s="66"/>
       <c r="F9" s="35"/>
-      <c r="G9" s="230"/>
+      <c r="G9" s="224"/>
       <c r="H9" s="35"/>
       <c r="I9" s="36"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="210" t="s">
+      <c r="A10" s="217" t="s">
         <v>198</v>
       </c>
-      <c r="B10" s="227" t="s">
+      <c r="B10" s="223" t="s">
         <v>199</v>
       </c>
       <c r="C10" s="96" t="s">
@@ -23303,15 +23311,15 @@
         <v>202</v>
       </c>
       <c r="F10" s="31"/>
-      <c r="G10" s="227" t="s">
+      <c r="G10" s="223" t="s">
         <v>288</v>
       </c>
       <c r="H10" s="31"/>
       <c r="I10" s="32"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="211"/>
-      <c r="B11" s="228"/>
+      <c r="A11" s="218"/>
+      <c r="B11" s="212"/>
       <c r="C11" s="97" t="s">
         <v>203</v>
       </c>
@@ -23322,13 +23330,13 @@
         <v>205</v>
       </c>
       <c r="F11" s="33"/>
-      <c r="G11" s="228"/>
+      <c r="G11" s="212"/>
       <c r="H11" s="33"/>
       <c r="I11" s="34"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="211"/>
-      <c r="B12" s="228"/>
+      <c r="A12" s="218"/>
+      <c r="B12" s="212"/>
       <c r="C12" s="97" t="s">
         <v>206</v>
       </c>
@@ -23339,13 +23347,13 @@
         <v>208</v>
       </c>
       <c r="F12" s="33"/>
-      <c r="G12" s="228"/>
+      <c r="G12" s="212"/>
       <c r="H12" s="33"/>
       <c r="I12" s="34"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="211"/>
-      <c r="B13" s="226"/>
+      <c r="A13" s="218"/>
+      <c r="B13" s="213"/>
       <c r="C13" s="97" t="s">
         <v>209</v>
       </c>
@@ -23354,13 +23362,13 @@
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="33"/>
-      <c r="G13" s="226"/>
+      <c r="G13" s="213"/>
       <c r="H13" s="33"/>
       <c r="I13" s="34"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="211"/>
-      <c r="B14" s="229" t="s">
+      <c r="A14" s="218"/>
+      <c r="B14" s="211" t="s">
         <v>216</v>
       </c>
       <c r="C14" s="98" t="s">
@@ -23373,15 +23381,15 @@
         <v>219</v>
       </c>
       <c r="F14" s="33"/>
-      <c r="G14" s="229" t="s">
+      <c r="G14" s="211" t="s">
         <v>288</v>
       </c>
       <c r="H14" s="33"/>
       <c r="I14" s="34"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="211"/>
-      <c r="B15" s="228"/>
+      <c r="A15" s="218"/>
+      <c r="B15" s="212"/>
       <c r="C15" s="97" t="s">
         <v>220</v>
       </c>
@@ -23392,13 +23400,13 @@
         <v>205</v>
       </c>
       <c r="F15" s="33"/>
-      <c r="G15" s="228"/>
+      <c r="G15" s="212"/>
       <c r="H15" s="33"/>
       <c r="I15" s="34"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="211"/>
-      <c r="B16" s="226"/>
+      <c r="A16" s="218"/>
+      <c r="B16" s="213"/>
       <c r="C16" s="97" t="s">
         <v>222</v>
       </c>
@@ -23409,13 +23417,13 @@
         <v>224</v>
       </c>
       <c r="F16" s="33"/>
-      <c r="G16" s="226"/>
+      <c r="G16" s="213"/>
       <c r="H16" s="33"/>
       <c r="I16" s="34"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="211"/>
-      <c r="B17" s="229" t="s">
+      <c r="A17" s="218"/>
+      <c r="B17" s="211" t="s">
         <v>211</v>
       </c>
       <c r="C17" s="94" t="s">
@@ -23428,15 +23436,15 @@
         <v>282</v>
       </c>
       <c r="F17" s="33"/>
-      <c r="G17" s="229" t="s">
+      <c r="G17" s="211" t="s">
         <v>292</v>
       </c>
       <c r="H17" s="33"/>
       <c r="I17" s="34"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="211"/>
-      <c r="B18" s="226"/>
+      <c r="A18" s="218"/>
+      <c r="B18" s="213"/>
       <c r="C18" s="94" t="s">
         <v>214</v>
       </c>
@@ -23447,13 +23455,13 @@
         <v>281</v>
       </c>
       <c r="F18" s="33"/>
-      <c r="G18" s="226"/>
+      <c r="G18" s="213"/>
       <c r="H18" s="33"/>
       <c r="I18" s="34"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="211"/>
-      <c r="B19" s="229" t="s">
+      <c r="A19" s="218"/>
+      <c r="B19" s="211" t="s">
         <v>115</v>
       </c>
       <c r="C19" s="99" t="s">
@@ -23464,15 +23472,15 @@
       </c>
       <c r="E19" s="33"/>
       <c r="F19" s="33"/>
-      <c r="G19" s="228" t="s">
+      <c r="G19" s="212" t="s">
         <v>291</v>
       </c>
       <c r="H19" s="33"/>
       <c r="I19" s="34"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="211"/>
-      <c r="B20" s="226"/>
+      <c r="A20" s="218"/>
+      <c r="B20" s="213"/>
       <c r="C20" s="99" t="s">
         <v>118</v>
       </c>
@@ -23481,12 +23489,12 @@
       </c>
       <c r="E20" s="33"/>
       <c r="F20" s="33"/>
-      <c r="G20" s="228"/>
+      <c r="G20" s="212"/>
       <c r="H20" s="33"/>
       <c r="I20" s="34"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="211"/>
+      <c r="A21" s="218"/>
       <c r="B21" s="129" t="s">
         <v>295</v>
       </c>
@@ -23498,13 +23506,13 @@
       </c>
       <c r="E21" s="33"/>
       <c r="F21" s="33"/>
-      <c r="G21" s="226"/>
+      <c r="G21" s="213"/>
       <c r="H21" s="33"/>
       <c r="I21" s="34"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="211"/>
-      <c r="B22" s="229" t="s">
+      <c r="A22" s="218"/>
+      <c r="B22" s="211" t="s">
         <v>225</v>
       </c>
       <c r="C22" s="94" t="s">
@@ -23515,15 +23523,15 @@
       </c>
       <c r="E22" s="33"/>
       <c r="F22" s="33"/>
-      <c r="G22" s="229" t="s">
+      <c r="G22" s="211" t="s">
         <v>285</v>
       </c>
       <c r="H22" s="33"/>
       <c r="I22" s="34"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="211"/>
-      <c r="B23" s="228"/>
+      <c r="A23" s="218"/>
+      <c r="B23" s="212"/>
       <c r="C23" s="94" t="s">
         <v>228</v>
       </c>
@@ -23532,13 +23540,13 @@
       </c>
       <c r="E23" s="33"/>
       <c r="F23" s="33"/>
-      <c r="G23" s="228"/>
+      <c r="G23" s="212"/>
       <c r="H23" s="33"/>
       <c r="I23" s="34"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="211"/>
-      <c r="B24" s="228"/>
+      <c r="A24" s="218"/>
+      <c r="B24" s="212"/>
       <c r="C24" s="94" t="s">
         <v>274</v>
       </c>
@@ -23547,13 +23555,13 @@
       </c>
       <c r="E24" s="33"/>
       <c r="F24" s="33"/>
-      <c r="G24" s="226"/>
+      <c r="G24" s="213"/>
       <c r="H24" s="33"/>
       <c r="I24" s="34"/>
     </row>
     <row r="25" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="231"/>
-      <c r="B25" s="230"/>
+      <c r="B25" s="224"/>
       <c r="C25" s="95" t="s">
         <v>230</v>
       </c>
@@ -23569,10 +23577,10 @@
       <c r="I25" s="45"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="210" t="s">
+      <c r="A26" s="217" t="s">
         <v>232</v>
       </c>
-      <c r="B26" s="227" t="s">
+      <c r="B26" s="223" t="s">
         <v>233</v>
       </c>
       <c r="C26" s="91" t="s">
@@ -23583,15 +23591,15 @@
       </c>
       <c r="E26" s="31"/>
       <c r="F26" s="31"/>
-      <c r="G26" s="227" t="s">
+      <c r="G26" s="223" t="s">
         <v>286</v>
       </c>
       <c r="H26" s="31"/>
       <c r="I26" s="32"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="211"/>
-      <c r="B27" s="228"/>
+      <c r="A27" s="218"/>
+      <c r="B27" s="212"/>
       <c r="C27" s="92" t="s">
         <v>129</v>
       </c>
@@ -23600,13 +23608,13 @@
       </c>
       <c r="E27" s="33"/>
       <c r="F27" s="33"/>
-      <c r="G27" s="226"/>
+      <c r="G27" s="213"/>
       <c r="H27" s="33"/>
       <c r="I27" s="34"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="211"/>
-      <c r="B28" s="228"/>
+      <c r="A28" s="218"/>
+      <c r="B28" s="212"/>
       <c r="C28" s="100" t="s">
         <v>236</v>
       </c>
@@ -23615,15 +23623,15 @@
       </c>
       <c r="E28" s="33"/>
       <c r="F28" s="33"/>
-      <c r="G28" s="229" t="s">
+      <c r="G28" s="211" t="s">
         <v>289</v>
       </c>
       <c r="H28" s="33"/>
       <c r="I28" s="34"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="211"/>
-      <c r="B29" s="226"/>
+      <c r="A29" s="218"/>
+      <c r="B29" s="213"/>
       <c r="C29" s="100" t="s">
         <v>125</v>
       </c>
@@ -23632,7 +23640,7 @@
       </c>
       <c r="E29" s="33"/>
       <c r="F29" s="33"/>
-      <c r="G29" s="228"/>
+      <c r="G29" s="212"/>
       <c r="H29" s="33"/>
       <c r="I29" s="34"/>
     </row>
@@ -23651,15 +23659,15 @@
         <v>256</v>
       </c>
       <c r="F30" s="35"/>
-      <c r="G30" s="230"/>
+      <c r="G30" s="224"/>
       <c r="H30" s="35"/>
       <c r="I30" s="36"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="210" t="s">
+      <c r="A31" s="217" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="227" t="s">
+      <c r="B31" s="223" t="s">
         <v>71</v>
       </c>
       <c r="C31" s="93" t="s">
@@ -23670,15 +23678,15 @@
       </c>
       <c r="E31" s="55"/>
       <c r="F31" s="55"/>
-      <c r="G31" s="227" t="s">
+      <c r="G31" s="223" t="s">
         <v>287</v>
       </c>
       <c r="H31" s="55"/>
       <c r="I31" s="56"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="211"/>
-      <c r="B32" s="226"/>
+      <c r="A32" s="218"/>
+      <c r="B32" s="213"/>
       <c r="C32" s="89" t="s">
         <v>294</v>
       </c>
@@ -23687,13 +23695,13 @@
       </c>
       <c r="E32" s="33"/>
       <c r="F32" s="33"/>
-      <c r="G32" s="226"/>
+      <c r="G32" s="213"/>
       <c r="H32" s="33"/>
       <c r="I32" s="34"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="211"/>
-      <c r="B33" s="229" t="s">
+      <c r="A33" s="218"/>
+      <c r="B33" s="211" t="s">
         <v>257</v>
       </c>
       <c r="C33" s="97" t="s">
@@ -23704,15 +23712,15 @@
       </c>
       <c r="E33" s="33"/>
       <c r="F33" s="33"/>
-      <c r="G33" s="229" t="s">
+      <c r="G33" s="211" t="s">
         <v>288</v>
       </c>
       <c r="H33" s="33"/>
       <c r="I33" s="34"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="211"/>
-      <c r="B34" s="228"/>
+      <c r="A34" s="218"/>
+      <c r="B34" s="212"/>
       <c r="C34" s="97" t="s">
         <v>260</v>
       </c>
@@ -23721,13 +23729,13 @@
       </c>
       <c r="E34" s="33"/>
       <c r="F34" s="33"/>
-      <c r="G34" s="228"/>
+      <c r="G34" s="212"/>
       <c r="H34" s="33"/>
       <c r="I34" s="34"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="211"/>
-      <c r="B35" s="226"/>
+      <c r="A35" s="218"/>
+      <c r="B35" s="213"/>
       <c r="C35" s="97" t="s">
         <v>259</v>
       </c>
@@ -23738,13 +23746,13 @@
         <v>264</v>
       </c>
       <c r="F35" s="33"/>
-      <c r="G35" s="226"/>
+      <c r="G35" s="213"/>
       <c r="H35" s="33"/>
       <c r="I35" s="34"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="211"/>
-      <c r="B36" s="229" t="s">
+      <c r="A36" s="218"/>
+      <c r="B36" s="211" t="s">
         <v>242</v>
       </c>
       <c r="C36" s="99" t="s">
@@ -23757,15 +23765,15 @@
         <v>245</v>
       </c>
       <c r="F36" s="33"/>
-      <c r="G36" s="229" t="s">
+      <c r="G36" s="211" t="s">
         <v>291</v>
       </c>
       <c r="H36" s="33"/>
       <c r="I36" s="34"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="211"/>
-      <c r="B37" s="226"/>
+      <c r="A37" s="218"/>
+      <c r="B37" s="213"/>
       <c r="C37" s="99" t="s">
         <v>246</v>
       </c>
@@ -23776,13 +23784,13 @@
         <v>248</v>
       </c>
       <c r="F37" s="33"/>
-      <c r="G37" s="228"/>
+      <c r="G37" s="212"/>
       <c r="H37" s="33"/>
       <c r="I37" s="34"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="211"/>
-      <c r="B38" s="229" t="s">
+      <c r="A38" s="218"/>
+      <c r="B38" s="211" t="s">
         <v>270</v>
       </c>
       <c r="C38" s="95" t="s">
@@ -23795,13 +23803,13 @@
         <v>250</v>
       </c>
       <c r="F38" s="44"/>
-      <c r="G38" s="228"/>
+      <c r="G38" s="212"/>
       <c r="H38" s="44"/>
       <c r="I38" s="45"/>
     </row>
     <row r="39" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="231"/>
-      <c r="B39" s="230"/>
+      <c r="B39" s="224"/>
       <c r="C39" s="95" t="s">
         <v>272</v>
       </c>
@@ -23812,7 +23820,7 @@
         <v>252</v>
       </c>
       <c r="F39" s="44"/>
-      <c r="G39" s="230"/>
+      <c r="G39" s="224"/>
       <c r="H39" s="44"/>
       <c r="I39" s="45"/>
     </row>
@@ -24068,6 +24076,23 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A31:A39"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B22:B25"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="G4:G9"/>
@@ -24080,23 +24105,6 @@
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="G19:G21"/>
     <mergeCell ref="G22:G24"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="A31:A39"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24146,52 +24154,52 @@
       <c r="O1" s="84"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="237" t="s">
+      <c r="A2" s="233" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="232" t="s">
+      <c r="B2" s="235" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="232" t="s">
+      <c r="C2" s="235" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="232" t="s">
+      <c r="D2" s="235" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="232" t="s">
+      <c r="E2" s="235" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="232" t="s">
+      <c r="F2" s="235" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="232" t="s">
+      <c r="G2" s="235" t="s">
         <v>277</v>
       </c>
-      <c r="H2" s="234" t="s">
+      <c r="H2" s="237" t="s">
         <v>276</v>
       </c>
-      <c r="I2" s="235"/>
-      <c r="J2" s="236"/>
-      <c r="K2" s="232" t="s">
+      <c r="I2" s="238"/>
+      <c r="J2" s="239"/>
+      <c r="K2" s="235" t="s">
         <v>275</v>
       </c>
-      <c r="L2" s="232" t="s">
+      <c r="L2" s="235" t="s">
         <v>278</v>
       </c>
-      <c r="M2" s="234" t="s">
+      <c r="M2" s="237" t="s">
         <v>279</v>
       </c>
-      <c r="N2" s="235"/>
-      <c r="O2" s="236"/>
+      <c r="N2" s="238"/>
+      <c r="O2" s="239"/>
     </row>
     <row r="3" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="238"/>
-      <c r="B3" s="233"/>
-      <c r="C3" s="233"/>
-      <c r="D3" s="233"/>
-      <c r="E3" s="233"/>
-      <c r="F3" s="233"/>
-      <c r="G3" s="233"/>
+      <c r="A3" s="234"/>
+      <c r="B3" s="236"/>
+      <c r="C3" s="236"/>
+      <c r="D3" s="236"/>
+      <c r="E3" s="236"/>
+      <c r="F3" s="236"/>
+      <c r="G3" s="236"/>
       <c r="H3" s="122" t="s">
         <v>297</v>
       </c>
@@ -24201,8 +24209,8 @@
       <c r="J3" s="122" t="s">
         <v>299</v>
       </c>
-      <c r="K3" s="233"/>
-      <c r="L3" s="233"/>
+      <c r="K3" s="236"/>
+      <c r="L3" s="236"/>
       <c r="M3" s="122" t="s">
         <v>300</v>
       </c>
@@ -24231,10 +24239,10 @@
       <c r="O4" s="86"/>
     </row>
     <row r="5" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="239" t="s">
+      <c r="A5" s="232" t="s">
         <v>356</v>
       </c>
-      <c r="B5" s="227" t="s">
+      <c r="B5" s="223" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="88" t="s">
@@ -24243,7 +24251,7 @@
       <c r="D5" s="85">
         <v>1</v>
       </c>
-      <c r="E5" s="227" t="s">
+      <c r="E5" s="223" t="s">
         <v>284</v>
       </c>
       <c r="F5" s="85"/>
@@ -24262,15 +24270,15 @@
       <c r="O5" s="110"/>
     </row>
     <row r="6" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="211"/>
-      <c r="B6" s="228"/>
+      <c r="A6" s="218"/>
+      <c r="B6" s="212"/>
       <c r="C6" s="89" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="81">
         <v>1</v>
       </c>
-      <c r="E6" s="228"/>
+      <c r="E6" s="212"/>
       <c r="F6" s="81"/>
       <c r="G6" s="113" t="s">
         <v>316</v>
@@ -24287,15 +24295,15 @@
       <c r="O6" s="107"/>
     </row>
     <row r="7" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="211"/>
-      <c r="B7" s="226"/>
+      <c r="A7" s="218"/>
+      <c r="B7" s="213"/>
       <c r="C7" s="89" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="81">
         <v>1</v>
       </c>
-      <c r="E7" s="228"/>
+      <c r="E7" s="212"/>
       <c r="F7" s="81"/>
       <c r="G7" s="113" t="s">
         <v>316</v>
@@ -24312,8 +24320,8 @@
       <c r="O7" s="107"/>
     </row>
     <row r="8" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="211"/>
-      <c r="B8" s="229" t="s">
+      <c r="A8" s="218"/>
+      <c r="B8" s="211" t="s">
         <v>253</v>
       </c>
       <c r="C8" s="89" t="s">
@@ -24322,7 +24330,7 @@
       <c r="D8" s="81">
         <v>1</v>
       </c>
-      <c r="E8" s="228"/>
+      <c r="E8" s="212"/>
       <c r="F8" s="81"/>
       <c r="G8" s="107" t="s">
         <v>318</v>
@@ -24339,15 +24347,15 @@
       <c r="O8" s="107"/>
     </row>
     <row r="9" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="211"/>
-      <c r="B9" s="228"/>
+      <c r="A9" s="218"/>
+      <c r="B9" s="212"/>
       <c r="C9" s="89" t="s">
         <v>254</v>
       </c>
       <c r="D9" s="81">
         <v>1</v>
       </c>
-      <c r="E9" s="228"/>
+      <c r="E9" s="212"/>
       <c r="F9" s="81"/>
       <c r="G9" s="107" t="s">
         <v>319</v>
@@ -24365,14 +24373,14 @@
     </row>
     <row r="10" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="231"/>
-      <c r="B10" s="230"/>
+      <c r="B10" s="224"/>
       <c r="C10" s="90" t="s">
         <v>253</v>
       </c>
       <c r="D10" s="87">
         <v>1</v>
       </c>
-      <c r="E10" s="230"/>
+      <c r="E10" s="224"/>
       <c r="F10" s="87"/>
       <c r="G10" s="107" t="s">
         <v>319</v>
@@ -24389,10 +24397,10 @@
       <c r="O10" s="111"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="239" t="s">
+      <c r="A11" s="232" t="s">
         <v>357</v>
       </c>
-      <c r="B11" s="227" t="s">
+      <c r="B11" s="223" t="s">
         <v>103</v>
       </c>
       <c r="C11" s="96" t="s">
@@ -24401,7 +24409,7 @@
       <c r="D11" s="85">
         <v>2</v>
       </c>
-      <c r="E11" s="227" t="s">
+      <c r="E11" s="223" t="s">
         <v>288</v>
       </c>
       <c r="F11" s="85"/>
@@ -24420,15 +24428,15 @@
       <c r="O11" s="110"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="211"/>
-      <c r="B12" s="228"/>
+      <c r="A12" s="218"/>
+      <c r="B12" s="212"/>
       <c r="C12" s="97" t="s">
         <v>203</v>
       </c>
       <c r="D12" s="81">
         <v>1</v>
       </c>
-      <c r="E12" s="228"/>
+      <c r="E12" s="212"/>
       <c r="F12" s="81"/>
       <c r="G12" s="107" t="s">
         <v>348</v>
@@ -24445,15 +24453,15 @@
       <c r="O12" s="107"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="211"/>
-      <c r="B13" s="228"/>
+      <c r="A13" s="218"/>
+      <c r="B13" s="212"/>
       <c r="C13" s="97" t="s">
         <v>206</v>
       </c>
       <c r="D13" s="81">
         <v>1</v>
       </c>
-      <c r="E13" s="228"/>
+      <c r="E13" s="212"/>
       <c r="F13" s="81"/>
       <c r="G13" s="107" t="s">
         <v>348</v>
@@ -24470,15 +24478,15 @@
       <c r="O13" s="107"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="211"/>
-      <c r="B14" s="226"/>
+      <c r="A14" s="218"/>
+      <c r="B14" s="213"/>
       <c r="C14" s="97" t="s">
         <v>209</v>
       </c>
       <c r="D14" s="81">
         <v>2</v>
       </c>
-      <c r="E14" s="226"/>
+      <c r="E14" s="213"/>
       <c r="F14" s="81"/>
       <c r="G14" s="107" t="s">
         <v>350</v>
@@ -24495,8 +24503,8 @@
       <c r="O14" s="107"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="211"/>
-      <c r="B15" s="229" t="s">
+      <c r="A15" s="218"/>
+      <c r="B15" s="211" t="s">
         <v>111</v>
       </c>
       <c r="C15" s="98" t="s">
@@ -24505,7 +24513,7 @@
       <c r="D15" s="81">
         <v>2</v>
       </c>
-      <c r="E15" s="229" t="s">
+      <c r="E15" s="211" t="s">
         <v>288</v>
       </c>
       <c r="F15" s="81"/>
@@ -24524,15 +24532,15 @@
       <c r="O15" s="107"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="211"/>
-      <c r="B16" s="228"/>
+      <c r="A16" s="218"/>
+      <c r="B16" s="212"/>
       <c r="C16" s="97" t="s">
         <v>220</v>
       </c>
       <c r="D16" s="81">
         <v>1</v>
       </c>
-      <c r="E16" s="228"/>
+      <c r="E16" s="212"/>
       <c r="F16" s="81"/>
       <c r="G16" s="107" t="s">
         <v>348</v>
@@ -24549,15 +24557,15 @@
       <c r="O16" s="107"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="211"/>
-      <c r="B17" s="228"/>
+      <c r="A17" s="218"/>
+      <c r="B17" s="212"/>
       <c r="C17" s="97" t="s">
         <v>222</v>
       </c>
       <c r="D17" s="81">
         <v>1</v>
       </c>
-      <c r="E17" s="226"/>
+      <c r="E17" s="213"/>
       <c r="F17" s="81"/>
       <c r="G17" s="107" t="s">
         <v>348</v>
@@ -24574,8 +24582,8 @@
       <c r="O17" s="107"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="211"/>
-      <c r="B18" s="229" t="s">
+      <c r="A18" s="218"/>
+      <c r="B18" s="211" t="s">
         <v>180</v>
       </c>
       <c r="C18" s="94" t="s">
@@ -24584,7 +24592,7 @@
       <c r="D18" s="81">
         <v>1</v>
       </c>
-      <c r="E18" s="229" t="s">
+      <c r="E18" s="211" t="s">
         <v>292</v>
       </c>
       <c r="F18" s="81"/>
@@ -24603,15 +24611,15 @@
       <c r="O18" s="107"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="211"/>
-      <c r="B19" s="226"/>
+      <c r="A19" s="218"/>
+      <c r="B19" s="213"/>
       <c r="C19" s="94" t="s">
         <v>184</v>
       </c>
       <c r="D19" s="81">
         <v>2</v>
       </c>
-      <c r="E19" s="226"/>
+      <c r="E19" s="213"/>
       <c r="F19" s="81"/>
       <c r="G19" s="107" t="s">
         <v>345</v>
@@ -24628,8 +24636,8 @@
       <c r="O19" s="107"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="211"/>
-      <c r="B20" s="229" t="s">
+      <c r="A20" s="218"/>
+      <c r="B20" s="211" t="s">
         <v>115</v>
       </c>
       <c r="C20" s="99" t="s">
@@ -24638,7 +24646,7 @@
       <c r="D20" s="81">
         <v>1</v>
       </c>
-      <c r="E20" s="228" t="s">
+      <c r="E20" s="212" t="s">
         <v>307</v>
       </c>
       <c r="F20" s="81"/>
@@ -24657,15 +24665,15 @@
       <c r="O20" s="107"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="211"/>
-      <c r="B21" s="226"/>
+      <c r="A21" s="218"/>
+      <c r="B21" s="213"/>
       <c r="C21" s="99" t="s">
         <v>118</v>
       </c>
       <c r="D21" s="81">
         <v>2</v>
       </c>
-      <c r="E21" s="228"/>
+      <c r="E21" s="212"/>
       <c r="F21" s="81"/>
       <c r="G21" s="107" t="s">
         <v>330</v>
@@ -24682,7 +24690,7 @@
       <c r="O21" s="107"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="211"/>
+      <c r="A22" s="218"/>
       <c r="B22" s="126" t="s">
         <v>302</v>
       </c>
@@ -24692,7 +24700,7 @@
       <c r="D22" s="81">
         <v>1</v>
       </c>
-      <c r="E22" s="226"/>
+      <c r="E22" s="213"/>
       <c r="F22" s="81"/>
       <c r="G22" s="107" t="s">
         <v>333</v>
@@ -24709,8 +24717,8 @@
       <c r="O22" s="107"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="211"/>
-      <c r="B23" s="229" t="s">
+      <c r="A23" s="218"/>
+      <c r="B23" s="211" t="s">
         <v>43</v>
       </c>
       <c r="C23" s="94" t="s">
@@ -24719,7 +24727,7 @@
       <c r="D23" s="81">
         <v>3</v>
       </c>
-      <c r="E23" s="229" t="s">
+      <c r="E23" s="211" t="s">
         <v>285</v>
       </c>
       <c r="F23" s="81"/>
@@ -24738,15 +24746,15 @@
       <c r="O23" s="107"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="211"/>
-      <c r="B24" s="228"/>
+      <c r="A24" s="218"/>
+      <c r="B24" s="212"/>
       <c r="C24" s="94" t="s">
         <v>178</v>
       </c>
       <c r="D24" s="81">
         <v>3</v>
       </c>
-      <c r="E24" s="228"/>
+      <c r="E24" s="212"/>
       <c r="F24" s="81"/>
       <c r="G24" s="107" t="s">
         <v>321</v>
@@ -24763,15 +24771,15 @@
       <c r="O24" s="107"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="211"/>
-      <c r="B25" s="228"/>
+      <c r="A25" s="218"/>
+      <c r="B25" s="212"/>
       <c r="C25" s="94" t="s">
         <v>280</v>
       </c>
       <c r="D25" s="81">
         <v>3</v>
       </c>
-      <c r="E25" s="226"/>
+      <c r="E25" s="213"/>
       <c r="F25" s="81"/>
       <c r="G25" s="107" t="s">
         <v>321</v>
@@ -24789,7 +24797,7 @@
     </row>
     <row r="26" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="231"/>
-      <c r="B26" s="230"/>
+      <c r="B26" s="224"/>
       <c r="C26" s="95" t="s">
         <v>273</v>
       </c>
@@ -24815,10 +24823,10 @@
       <c r="O26" s="112"/>
     </row>
     <row r="27" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="239" t="s">
+      <c r="A27" s="232" t="s">
         <v>358</v>
       </c>
-      <c r="B27" s="227" t="s">
+      <c r="B27" s="223" t="s">
         <v>127</v>
       </c>
       <c r="C27" s="91" t="s">
@@ -24827,7 +24835,7 @@
       <c r="D27" s="85">
         <v>1</v>
       </c>
-      <c r="E27" s="227" t="s">
+      <c r="E27" s="223" t="s">
         <v>286</v>
       </c>
       <c r="F27" s="85"/>
@@ -24846,15 +24854,15 @@
       <c r="O27" s="110"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="211"/>
-      <c r="B28" s="228"/>
+      <c r="A28" s="218"/>
+      <c r="B28" s="212"/>
       <c r="C28" s="92" t="s">
         <v>129</v>
       </c>
       <c r="D28" s="81">
         <v>1</v>
       </c>
-      <c r="E28" s="226"/>
+      <c r="E28" s="213"/>
       <c r="F28" s="81"/>
       <c r="G28" s="110" t="s">
         <v>324</v>
@@ -24871,15 +24879,15 @@
       <c r="O28" s="107"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="211"/>
-      <c r="B29" s="228"/>
+      <c r="A29" s="218"/>
+      <c r="B29" s="212"/>
       <c r="C29" s="100" t="s">
         <v>132</v>
       </c>
       <c r="D29" s="81">
         <v>3</v>
       </c>
-      <c r="E29" s="229" t="s">
+      <c r="E29" s="211" t="s">
         <v>289</v>
       </c>
       <c r="F29" s="81"/>
@@ -24898,15 +24906,15 @@
       <c r="O29" s="107"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="211"/>
-      <c r="B30" s="226"/>
+      <c r="A30" s="218"/>
+      <c r="B30" s="213"/>
       <c r="C30" s="100" t="s">
         <v>125</v>
       </c>
       <c r="D30" s="81">
         <v>3</v>
       </c>
-      <c r="E30" s="228"/>
+      <c r="E30" s="212"/>
       <c r="F30" s="81"/>
       <c r="G30" s="107" t="s">
         <v>337</v>
@@ -24933,7 +24941,7 @@
       <c r="D31" s="87">
         <v>2</v>
       </c>
-      <c r="E31" s="230"/>
+      <c r="E31" s="224"/>
       <c r="F31" s="87"/>
       <c r="G31" s="111" t="s">
         <v>338</v>
@@ -24950,10 +24958,10 @@
       <c r="O31" s="111"/>
     </row>
     <row r="32" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="239" t="s">
+      <c r="A32" s="232" t="s">
         <v>359</v>
       </c>
-      <c r="B32" s="227" t="s">
+      <c r="B32" s="223" t="s">
         <v>71</v>
       </c>
       <c r="C32" s="93" t="s">
@@ -24962,7 +24970,7 @@
       <c r="D32" s="83">
         <v>3</v>
       </c>
-      <c r="E32" s="227" t="s">
+      <c r="E32" s="223" t="s">
         <v>287</v>
       </c>
       <c r="F32" s="83"/>
@@ -24981,15 +24989,15 @@
       <c r="O32" s="113"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="211"/>
-      <c r="B33" s="226"/>
+      <c r="A33" s="218"/>
+      <c r="B33" s="213"/>
       <c r="C33" s="89" t="s">
         <v>293</v>
       </c>
       <c r="D33" s="81">
         <v>3</v>
       </c>
-      <c r="E33" s="226"/>
+      <c r="E33" s="213"/>
       <c r="F33" s="81"/>
       <c r="G33" s="123" t="s">
         <v>326</v>
@@ -25006,8 +25014,8 @@
       <c r="O33" s="107"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="211"/>
-      <c r="B34" s="229" t="s">
+      <c r="A34" s="218"/>
+      <c r="B34" s="211" t="s">
         <v>257</v>
       </c>
       <c r="C34" s="97" t="s">
@@ -25016,7 +25024,7 @@
       <c r="D34" s="81">
         <v>2</v>
       </c>
-      <c r="E34" s="229" t="s">
+      <c r="E34" s="211" t="s">
         <v>288</v>
       </c>
       <c r="F34" s="81"/>
@@ -25035,15 +25043,15 @@
       <c r="O34" s="107"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="211"/>
-      <c r="B35" s="228"/>
+      <c r="A35" s="218"/>
+      <c r="B35" s="212"/>
       <c r="C35" s="97" t="s">
         <v>260</v>
       </c>
       <c r="D35" s="81">
         <v>2</v>
       </c>
-      <c r="E35" s="228"/>
+      <c r="E35" s="212"/>
       <c r="F35" s="81"/>
       <c r="G35" s="107" t="s">
         <v>353</v>
@@ -25060,15 +25068,15 @@
       <c r="O35" s="107"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="211"/>
-      <c r="B36" s="226"/>
+      <c r="A36" s="218"/>
+      <c r="B36" s="213"/>
       <c r="C36" s="97" t="s">
         <v>259</v>
       </c>
       <c r="D36" s="81">
         <v>2</v>
       </c>
-      <c r="E36" s="226"/>
+      <c r="E36" s="213"/>
       <c r="F36" s="81"/>
       <c r="G36" s="107" t="s">
         <v>354</v>
@@ -25085,8 +25093,8 @@
       <c r="O36" s="107"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="211"/>
-      <c r="B37" s="229" t="s">
+      <c r="A37" s="218"/>
+      <c r="B37" s="211" t="s">
         <v>154</v>
       </c>
       <c r="C37" s="99" t="s">
@@ -25095,7 +25103,7 @@
       <c r="D37" s="81">
         <v>2</v>
       </c>
-      <c r="E37" s="229" t="s">
+      <c r="E37" s="211" t="s">
         <v>291</v>
       </c>
       <c r="F37" s="81"/>
@@ -25114,15 +25122,15 @@
       <c r="O37" s="107"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="211"/>
-      <c r="B38" s="226"/>
+      <c r="A38" s="218"/>
+      <c r="B38" s="213"/>
       <c r="C38" s="99" t="s">
         <v>92</v>
       </c>
       <c r="D38" s="81">
         <v>3</v>
       </c>
-      <c r="E38" s="228"/>
+      <c r="E38" s="212"/>
       <c r="F38" s="81"/>
       <c r="G38" s="107" t="s">
         <v>337</v>
@@ -25139,8 +25147,8 @@
       <c r="O38" s="107"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="211"/>
-      <c r="B39" s="229" t="s">
+      <c r="A39" s="218"/>
+      <c r="B39" s="211" t="s">
         <v>269</v>
       </c>
       <c r="C39" s="95" t="s">
@@ -25149,7 +25157,7 @@
       <c r="D39" s="82">
         <v>2</v>
       </c>
-      <c r="E39" s="228"/>
+      <c r="E39" s="212"/>
       <c r="F39" s="82"/>
       <c r="G39" s="107" t="s">
         <v>341</v>
@@ -25167,14 +25175,14 @@
     </row>
     <row r="40" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="231"/>
-      <c r="B40" s="230"/>
+      <c r="B40" s="224"/>
       <c r="C40" s="95" t="s">
         <v>272</v>
       </c>
       <c r="D40" s="82">
         <v>3</v>
       </c>
-      <c r="E40" s="230"/>
+      <c r="E40" s="224"/>
       <c r="F40" s="82"/>
       <c r="G40" s="112" t="s">
         <v>340</v>
@@ -25566,18 +25574,16 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="A32:A40"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="E37:E40"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="E23:E25"/>
     <mergeCell ref="E27:E28"/>
@@ -25594,16 +25600,18 @@
     <mergeCell ref="A11:A26"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="B15:B17"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="E37:E40"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="A32:A40"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25615,8 +25623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -25627,64 +25635,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="240" t="s">
+      <c r="A1" s="253" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="240" t="s">
+      <c r="B1" s="253" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="264" t="s">
+      <c r="C1" s="256" t="s">
         <v>416</v>
       </c>
-      <c r="D1" s="240" t="s">
+      <c r="D1" s="253" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="240" t="s">
+      <c r="E1" s="253" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="268" t="s">
+      <c r="F1" s="243" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="269"/>
-      <c r="H1" s="269"/>
-      <c r="I1" s="270"/>
-      <c r="J1" s="265" t="s">
+      <c r="G1" s="244"/>
+      <c r="H1" s="244"/>
+      <c r="I1" s="245"/>
+      <c r="J1" s="240" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="266"/>
-      <c r="L1" s="266"/>
-      <c r="M1" s="267"/>
+      <c r="K1" s="241"/>
+      <c r="L1" s="241"/>
+      <c r="M1" s="242"/>
     </row>
     <row r="2" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="241"/>
-      <c r="B2" s="241"/>
-      <c r="C2" s="241"/>
-      <c r="D2" s="241"/>
-      <c r="E2" s="241"/>
-      <c r="F2" s="240" t="s">
+      <c r="A2" s="255"/>
+      <c r="B2" s="255"/>
+      <c r="C2" s="255"/>
+      <c r="D2" s="255"/>
+      <c r="E2" s="255"/>
+      <c r="F2" s="253" t="s">
         <v>361</v>
       </c>
-      <c r="G2" s="265" t="s">
+      <c r="G2" s="240" t="s">
         <v>362</v>
       </c>
-      <c r="H2" s="266"/>
-      <c r="I2" s="267"/>
-      <c r="J2" s="271" t="s">
+      <c r="H2" s="241"/>
+      <c r="I2" s="242"/>
+      <c r="J2" s="249" t="s">
         <v>361</v>
       </c>
-      <c r="K2" s="265" t="s">
+      <c r="K2" s="240" t="s">
         <v>362</v>
       </c>
-      <c r="L2" s="266"/>
-      <c r="M2" s="267"/>
+      <c r="L2" s="241"/>
+      <c r="M2" s="242"/>
     </row>
     <row r="3" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="242"/>
-      <c r="B3" s="242"/>
-      <c r="C3" s="242"/>
-      <c r="D3" s="242"/>
-      <c r="E3" s="242"/>
-      <c r="F3" s="242"/>
+      <c r="A3" s="254"/>
+      <c r="B3" s="254"/>
+      <c r="C3" s="254"/>
+      <c r="D3" s="254"/>
+      <c r="E3" s="254"/>
+      <c r="F3" s="254"/>
       <c r="G3" s="158" t="s">
         <v>363</v>
       </c>
@@ -25694,7 +25702,7 @@
       <c r="I3" s="163" t="s">
         <v>365</v>
       </c>
-      <c r="J3" s="272"/>
+      <c r="J3" s="250"/>
       <c r="K3" s="158" t="s">
         <v>363</v>
       </c>
@@ -25721,10 +25729,10 @@
       <c r="M4" s="157"/>
     </row>
     <row r="5" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="245" t="s">
+      <c r="A5" s="270" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="248" t="s">
+      <c r="B5" s="251" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="136" t="s">
@@ -25733,7 +25741,7 @@
       <c r="D5" s="137">
         <v>1</v>
       </c>
-      <c r="E5" s="248" t="s">
+      <c r="E5" s="251" t="s">
         <v>366</v>
       </c>
       <c r="F5" s="137" t="s">
@@ -25762,15 +25770,15 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="246"/>
-      <c r="B6" s="250"/>
+      <c r="A6" s="271"/>
+      <c r="B6" s="247"/>
       <c r="C6" s="139" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="140">
         <v>1</v>
       </c>
-      <c r="E6" s="250"/>
+      <c r="E6" s="247"/>
       <c r="F6" s="140" t="s">
         <v>384</v>
       </c>
@@ -25778,7 +25786,7 @@
         <v>427</v>
       </c>
       <c r="H6" s="152" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I6" s="152" t="s">
         <v>371</v>
@@ -25797,15 +25805,15 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="246"/>
-      <c r="B7" s="249"/>
+      <c r="A7" s="271"/>
+      <c r="B7" s="248"/>
       <c r="C7" s="139" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="140">
         <v>1</v>
       </c>
-      <c r="E7" s="250"/>
+      <c r="E7" s="247"/>
       <c r="F7" s="140" t="s">
         <v>384</v>
       </c>
@@ -25832,7 +25840,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="247"/>
+      <c r="A8" s="272"/>
       <c r="B8" s="144" t="s">
         <v>265</v>
       </c>
@@ -25842,7 +25850,7 @@
       <c r="D8" s="143">
         <v>1</v>
       </c>
-      <c r="E8" s="244"/>
+      <c r="E8" s="252"/>
       <c r="F8" s="143" t="s">
         <v>386</v>
       </c>
@@ -25869,10 +25877,10 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="245" t="s">
+      <c r="A9" s="270" t="s">
         <v>387</v>
       </c>
-      <c r="B9" s="248" t="s">
+      <c r="B9" s="251" t="s">
         <v>388</v>
       </c>
       <c r="C9" s="136" t="s">
@@ -25881,7 +25889,7 @@
       <c r="D9" s="137">
         <v>2</v>
       </c>
-      <c r="E9" s="248" t="s">
+      <c r="E9" s="251" t="s">
         <v>288</v>
       </c>
       <c r="F9" s="137" t="s">
@@ -25891,10 +25899,10 @@
         <v>419</v>
       </c>
       <c r="H9" s="149" t="s">
+        <v>439</v>
+      </c>
+      <c r="I9" s="164" t="s">
         <v>441</v>
-      </c>
-      <c r="I9" s="164" t="s">
-        <v>443</v>
       </c>
       <c r="J9" s="149" t="s">
         <v>385</v>
@@ -25910,15 +25918,15 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="246"/>
-      <c r="B10" s="250"/>
+      <c r="A10" s="271"/>
+      <c r="B10" s="247"/>
       <c r="C10" s="139" t="s">
         <v>391</v>
       </c>
       <c r="D10" s="140">
         <v>1</v>
       </c>
-      <c r="E10" s="250"/>
+      <c r="E10" s="247"/>
       <c r="F10" s="140" t="s">
         <v>386</v>
       </c>
@@ -25926,10 +25934,10 @@
         <v>420</v>
       </c>
       <c r="H10" s="152" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="I10" s="197" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="J10" s="152" t="s">
         <v>385</v>
@@ -25945,15 +25953,15 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="246"/>
-      <c r="B11" s="250"/>
+      <c r="A11" s="271"/>
+      <c r="B11" s="247"/>
       <c r="C11" s="139" t="s">
         <v>392</v>
       </c>
       <c r="D11" s="140">
         <v>1</v>
       </c>
-      <c r="E11" s="250"/>
+      <c r="E11" s="247"/>
       <c r="F11" s="140" t="s">
         <v>386</v>
       </c>
@@ -25980,15 +25988,15 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="246"/>
-      <c r="B12" s="249"/>
+      <c r="A12" s="271"/>
+      <c r="B12" s="248"/>
       <c r="C12" s="139" t="s">
         <v>393</v>
       </c>
       <c r="D12" s="140">
         <v>2</v>
       </c>
-      <c r="E12" s="249"/>
+      <c r="E12" s="248"/>
       <c r="F12" s="140" t="s">
         <v>390</v>
       </c>
@@ -25999,7 +26007,7 @@
         <v>368</v>
       </c>
       <c r="I12" s="152" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="J12" s="152" t="s">
         <v>385</v>
@@ -26015,8 +26023,8 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="246"/>
-      <c r="B13" s="243" t="s">
+      <c r="A13" s="271"/>
+      <c r="B13" s="246" t="s">
         <v>394</v>
       </c>
       <c r="C13" s="139" t="s">
@@ -26025,7 +26033,7 @@
       <c r="D13" s="140">
         <v>2</v>
       </c>
-      <c r="E13" s="243" t="s">
+      <c r="E13" s="246" t="s">
         <v>288</v>
       </c>
       <c r="F13" s="140" t="s">
@@ -26054,15 +26062,15 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="246"/>
-      <c r="B14" s="250"/>
+      <c r="A14" s="271"/>
+      <c r="B14" s="247"/>
       <c r="C14" s="139" t="s">
         <v>396</v>
       </c>
       <c r="D14" s="140">
         <v>1</v>
       </c>
-      <c r="E14" s="250"/>
+      <c r="E14" s="247"/>
       <c r="F14" s="140" t="s">
         <v>386</v>
       </c>
@@ -26089,20 +26097,20 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="246"/>
-      <c r="B15" s="249"/>
+      <c r="A15" s="271"/>
+      <c r="B15" s="248"/>
       <c r="C15" s="139" t="s">
         <v>397</v>
       </c>
       <c r="D15" s="140">
         <v>1</v>
       </c>
-      <c r="E15" s="249"/>
+      <c r="E15" s="248"/>
       <c r="F15" s="140" t="s">
         <v>386</v>
       </c>
       <c r="G15" s="197" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H15" s="152" t="s">
         <v>368</v>
@@ -26124,8 +26132,8 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="246"/>
-      <c r="B16" s="248" t="s">
+      <c r="A16" s="271"/>
+      <c r="B16" s="251" t="s">
         <v>266</v>
       </c>
       <c r="C16" s="136" t="s">
@@ -26134,7 +26142,7 @@
       <c r="D16" s="137">
         <v>1</v>
       </c>
-      <c r="E16" s="248" t="s">
+      <c r="E16" s="251" t="s">
         <v>399</v>
       </c>
       <c r="F16" s="137" t="s">
@@ -26144,10 +26152,10 @@
         <v>429</v>
       </c>
       <c r="H16" s="164" t="s">
-        <v>438</v>
+        <v>458</v>
       </c>
       <c r="I16" s="164" t="s">
-        <v>432</v>
+        <v>459</v>
       </c>
       <c r="J16" s="149" t="s">
         <v>400</v>
@@ -26163,26 +26171,26 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="246"/>
-      <c r="B17" s="249"/>
+      <c r="A17" s="271"/>
+      <c r="B17" s="248"/>
       <c r="C17" s="139" t="s">
         <v>402</v>
       </c>
       <c r="D17" s="140">
         <v>2</v>
       </c>
-      <c r="E17" s="249"/>
+      <c r="E17" s="248"/>
       <c r="F17" s="140" t="s">
         <v>400</v>
       </c>
-      <c r="G17" s="152" t="s">
-        <v>383</v>
-      </c>
-      <c r="H17" s="152" t="s">
-        <v>403</v>
-      </c>
-      <c r="I17" s="152" t="s">
-        <v>403</v>
+      <c r="G17" s="197" t="s">
+        <v>456</v>
+      </c>
+      <c r="H17" s="197" t="s">
+        <v>457</v>
+      </c>
+      <c r="I17" s="197" t="s">
+        <v>457</v>
       </c>
       <c r="J17" s="152" t="s">
         <v>367</v>
@@ -26198,8 +26206,8 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="246"/>
-      <c r="B18" s="243" t="s">
+      <c r="A18" s="271"/>
+      <c r="B18" s="246" t="s">
         <v>115</v>
       </c>
       <c r="C18" s="139" t="s">
@@ -26208,7 +26216,7 @@
       <c r="D18" s="140">
         <v>1</v>
       </c>
-      <c r="E18" s="243" t="s">
+      <c r="E18" s="246" t="s">
         <v>376</v>
       </c>
       <c r="F18" s="140" t="s">
@@ -26218,10 +26226,10 @@
         <v>430</v>
       </c>
       <c r="H18" s="152" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="I18" s="152" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="J18" s="152" t="s">
         <v>385</v>
@@ -26237,15 +26245,15 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="246"/>
-      <c r="B19" s="249"/>
+      <c r="A19" s="271"/>
+      <c r="B19" s="248"/>
       <c r="C19" s="139" t="s">
         <v>118</v>
       </c>
       <c r="D19" s="140">
         <v>2</v>
       </c>
-      <c r="E19" s="250"/>
+      <c r="E19" s="247"/>
       <c r="F19" s="140" t="s">
         <v>404</v>
       </c>
@@ -26253,7 +26261,7 @@
         <v>419</v>
       </c>
       <c r="H19" s="152" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I19" s="152" t="s">
         <v>368</v>
@@ -26272,7 +26280,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="246"/>
+      <c r="A20" s="271"/>
       <c r="B20" s="146" t="s">
         <v>405</v>
       </c>
@@ -26282,7 +26290,7 @@
       <c r="D20" s="140">
         <v>1</v>
       </c>
-      <c r="E20" s="249"/>
+      <c r="E20" s="248"/>
       <c r="F20" s="140" t="s">
         <v>390</v>
       </c>
@@ -26293,7 +26301,7 @@
         <v>383</v>
       </c>
       <c r="I20" s="152" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="J20" s="152" t="s">
         <v>385</v>
@@ -26309,8 +26317,8 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="246"/>
-      <c r="B21" s="243" t="s">
+      <c r="A21" s="271"/>
+      <c r="B21" s="246" t="s">
         <v>407</v>
       </c>
       <c r="C21" s="139" t="s">
@@ -26319,7 +26327,7 @@
       <c r="D21" s="140">
         <v>3</v>
       </c>
-      <c r="E21" s="243" t="s">
+      <c r="E21" s="246" t="s">
         <v>366</v>
       </c>
       <c r="F21" s="140" t="s">
@@ -26348,15 +26356,15 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="246"/>
-      <c r="B22" s="250"/>
+      <c r="A22" s="271"/>
+      <c r="B22" s="247"/>
       <c r="C22" s="139" t="s">
         <v>410</v>
       </c>
       <c r="D22" s="140">
         <v>3</v>
       </c>
-      <c r="E22" s="250"/>
+      <c r="E22" s="247"/>
       <c r="F22" s="140" t="s">
         <v>404</v>
       </c>
@@ -26383,15 +26391,15 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="246"/>
-      <c r="B23" s="250"/>
+      <c r="A23" s="271"/>
+      <c r="B23" s="247"/>
       <c r="C23" s="139" t="s">
         <v>280</v>
       </c>
       <c r="D23" s="140">
         <v>3</v>
       </c>
-      <c r="E23" s="249"/>
+      <c r="E23" s="248"/>
       <c r="F23" s="140" t="s">
         <v>404</v>
       </c>
@@ -26418,8 +26426,8 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="247"/>
-      <c r="B24" s="244"/>
+      <c r="A24" s="272"/>
+      <c r="B24" s="252"/>
       <c r="C24" s="142" t="s">
         <v>411</v>
       </c>
@@ -26433,13 +26441,13 @@
         <v>400</v>
       </c>
       <c r="G24" s="161" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H24" s="155" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="I24" s="155" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="J24" s="152" t="s">
         <v>385</v>
@@ -26455,10 +26463,10 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="245" t="s">
+      <c r="A25" s="270" t="s">
         <v>412</v>
       </c>
-      <c r="B25" s="248" t="s">
+      <c r="B25" s="251" t="s">
         <v>413</v>
       </c>
       <c r="C25" s="136" t="s">
@@ -26467,14 +26475,14 @@
       <c r="D25" s="137">
         <v>1</v>
       </c>
-      <c r="E25" s="248" t="s">
+      <c r="E25" s="251" t="s">
         <v>366</v>
       </c>
       <c r="F25" s="138" t="s">
         <v>370</v>
       </c>
       <c r="G25" s="147" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H25" s="149" t="s">
         <v>368</v>
@@ -26496,15 +26504,15 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="246"/>
-      <c r="B26" s="250"/>
+      <c r="A26" s="271"/>
+      <c r="B26" s="247"/>
       <c r="C26" s="139" t="s">
         <v>129</v>
       </c>
       <c r="D26" s="140">
         <v>1</v>
       </c>
-      <c r="E26" s="249"/>
+      <c r="E26" s="248"/>
       <c r="F26" s="137" t="s">
         <v>370</v>
       </c>
@@ -26531,28 +26539,28 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="246"/>
-      <c r="B27" s="250"/>
+      <c r="A27" s="271"/>
+      <c r="B27" s="247"/>
       <c r="C27" s="139" t="s">
         <v>417</v>
       </c>
       <c r="D27" s="140">
         <v>3</v>
       </c>
-      <c r="E27" s="243" t="s">
+      <c r="E27" s="246" t="s">
         <v>376</v>
       </c>
       <c r="F27" s="140" t="s">
         <v>377</v>
       </c>
       <c r="G27" s="151" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H27" s="152" t="s">
         <v>418</v>
       </c>
       <c r="I27" s="152" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="J27" s="152" t="s">
         <v>409</v>
@@ -26568,26 +26576,26 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="246"/>
-      <c r="B28" s="249"/>
+      <c r="A28" s="271"/>
+      <c r="B28" s="248"/>
       <c r="C28" s="139" t="s">
         <v>125</v>
       </c>
       <c r="D28" s="140">
         <v>3</v>
       </c>
-      <c r="E28" s="250"/>
+      <c r="E28" s="247"/>
       <c r="F28" s="140" t="s">
         <v>377</v>
       </c>
       <c r="G28" s="151" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H28" s="152" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I28" s="152" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="J28" s="152" t="s">
         <v>409</v>
@@ -26603,7 +26611,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="247"/>
+      <c r="A29" s="272"/>
       <c r="B29" s="144" t="s">
         <v>414</v>
       </c>
@@ -26613,18 +26621,18 @@
       <c r="D29" s="143">
         <v>2</v>
       </c>
-      <c r="E29" s="244"/>
+      <c r="E29" s="252"/>
       <c r="F29" s="143" t="s">
         <v>370</v>
       </c>
       <c r="G29" s="161" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H29" s="155" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="I29" s="155" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="J29" s="155" t="s">
         <v>409</v>
@@ -26636,14 +26644,14 @@
         <v>403</v>
       </c>
       <c r="M29" s="156" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="245" t="s">
+      <c r="A30" s="270" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="248" t="s">
+      <c r="B30" s="251" t="s">
         <v>71</v>
       </c>
       <c r="C30" s="136" t="s">
@@ -26652,7 +26660,7 @@
       <c r="D30" s="137">
         <v>3</v>
       </c>
-      <c r="E30" s="248" t="s">
+      <c r="E30" s="251" t="s">
         <v>366</v>
       </c>
       <c r="F30" s="138" t="s">
@@ -26681,15 +26689,15 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="246"/>
-      <c r="B31" s="249"/>
+      <c r="A31" s="271"/>
+      <c r="B31" s="248"/>
       <c r="C31" s="139" t="s">
         <v>74</v>
       </c>
       <c r="D31" s="140">
         <v>3</v>
       </c>
-      <c r="E31" s="249"/>
+      <c r="E31" s="248"/>
       <c r="F31" s="137" t="s">
         <v>367</v>
       </c>
@@ -26716,8 +26724,8 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="246"/>
-      <c r="B32" s="243" t="s">
+      <c r="A32" s="271"/>
+      <c r="B32" s="246" t="s">
         <v>267</v>
       </c>
       <c r="C32" s="139" t="s">
@@ -26726,7 +26734,7 @@
       <c r="D32" s="140">
         <v>2</v>
       </c>
-      <c r="E32" s="243" t="s">
+      <c r="E32" s="246" t="s">
         <v>288</v>
       </c>
       <c r="F32" s="140" t="s">
@@ -26755,15 +26763,15 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="246"/>
-      <c r="B33" s="250"/>
+      <c r="A33" s="271"/>
+      <c r="B33" s="247"/>
       <c r="C33" s="139" t="s">
         <v>372</v>
       </c>
       <c r="D33" s="140">
         <v>2</v>
       </c>
-      <c r="E33" s="250"/>
+      <c r="E33" s="247"/>
       <c r="F33" s="140" t="s">
         <v>370</v>
       </c>
@@ -26790,15 +26798,15 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="246"/>
-      <c r="B34" s="249"/>
+      <c r="A34" s="271"/>
+      <c r="B34" s="248"/>
       <c r="C34" s="139" t="s">
         <v>374</v>
       </c>
       <c r="D34" s="140">
         <v>2</v>
       </c>
-      <c r="E34" s="249"/>
+      <c r="E34" s="248"/>
       <c r="F34" s="140" t="s">
         <v>370</v>
       </c>
@@ -26825,8 +26833,8 @@
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="246"/>
-      <c r="B35" s="243" t="s">
+      <c r="A35" s="271"/>
+      <c r="B35" s="246" t="s">
         <v>268</v>
       </c>
       <c r="C35" s="139" t="s">
@@ -26835,7 +26843,7 @@
       <c r="D35" s="140">
         <v>2</v>
       </c>
-      <c r="E35" s="243" t="s">
+      <c r="E35" s="246" t="s">
         <v>376</v>
       </c>
       <c r="F35" s="140" t="s">
@@ -26864,15 +26872,15 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="246"/>
-      <c r="B36" s="249"/>
+      <c r="A36" s="271"/>
+      <c r="B36" s="248"/>
       <c r="C36" s="139" t="s">
         <v>106</v>
       </c>
       <c r="D36" s="140">
         <v>3</v>
       </c>
-      <c r="E36" s="250"/>
+      <c r="E36" s="247"/>
       <c r="F36" s="140" t="s">
         <v>377</v>
       </c>
@@ -26899,8 +26907,8 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="246"/>
-      <c r="B37" s="263" t="s">
+      <c r="A37" s="271"/>
+      <c r="B37" s="257" t="s">
         <v>378</v>
       </c>
       <c r="C37" s="141" t="s">
@@ -26909,7 +26917,7 @@
       <c r="D37" s="140">
         <v>2</v>
       </c>
-      <c r="E37" s="250"/>
+      <c r="E37" s="247"/>
       <c r="F37" s="140" t="s">
         <v>377</v>
       </c>
@@ -26936,15 +26944,15 @@
       </c>
     </row>
     <row r="38" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="247"/>
-      <c r="B38" s="256"/>
+      <c r="A38" s="272"/>
+      <c r="B38" s="258"/>
       <c r="C38" s="142" t="s">
         <v>380</v>
       </c>
       <c r="D38" s="143">
         <v>3</v>
       </c>
-      <c r="E38" s="244"/>
+      <c r="E38" s="252"/>
       <c r="F38" s="143" t="s">
         <v>377</v>
       </c>
@@ -26971,60 +26979,60 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="245" t="s">
+      <c r="A39" s="270" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="248" t="s">
+      <c r="B39" s="251" t="s">
         <v>69</v>
       </c>
-      <c r="C39" s="253" t="s">
+      <c r="C39" s="261" t="s">
         <v>69</v>
       </c>
-      <c r="D39" s="255">
+      <c r="D39" s="263">
         <v>1</v>
       </c>
-      <c r="E39" s="248" t="s">
+      <c r="E39" s="251" t="s">
         <v>366</v>
       </c>
-      <c r="F39" s="255" t="s">
+      <c r="F39" s="263" t="s">
         <v>381</v>
       </c>
-      <c r="G39" s="257" t="s">
+      <c r="G39" s="264" t="s">
         <v>420</v>
       </c>
-      <c r="H39" s="259" t="s">
-        <v>435</v>
-      </c>
-      <c r="I39" s="261" t="s">
+      <c r="H39" s="266" t="s">
+        <v>434</v>
+      </c>
+      <c r="I39" s="268" t="s">
         <v>371</v>
       </c>
-      <c r="J39" s="261" t="s">
+      <c r="J39" s="268" t="s">
         <v>382</v>
       </c>
-      <c r="K39" s="261" t="s">
+      <c r="K39" s="268" t="s">
         <v>368</v>
       </c>
-      <c r="L39" s="261" t="s">
+      <c r="L39" s="268" t="s">
         <v>383</v>
       </c>
-      <c r="M39" s="251" t="s">
+      <c r="M39" s="259" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="247"/>
-      <c r="B40" s="244"/>
-      <c r="C40" s="254"/>
-      <c r="D40" s="256"/>
-      <c r="E40" s="244"/>
-      <c r="F40" s="256"/>
-      <c r="G40" s="258"/>
-      <c r="H40" s="260"/>
-      <c r="I40" s="262"/>
-      <c r="J40" s="262"/>
-      <c r="K40" s="262"/>
-      <c r="L40" s="262"/>
-      <c r="M40" s="252"/>
+      <c r="A40" s="272"/>
+      <c r="B40" s="252"/>
+      <c r="C40" s="262"/>
+      <c r="D40" s="258"/>
+      <c r="E40" s="252"/>
+      <c r="F40" s="258"/>
+      <c r="G40" s="265"/>
+      <c r="H40" s="267"/>
+      <c r="I40" s="269"/>
+      <c r="J40" s="269"/>
+      <c r="K40" s="269"/>
+      <c r="L40" s="269"/>
+      <c r="M40" s="260"/>
     </row>
     <row r="41" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="42" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -27083,7 +27091,7 @@
       <c r="C45" s="140">
         <v>1</v>
       </c>
-      <c r="D45" s="243" t="s">
+      <c r="D45" s="246" t="s">
         <v>366</v>
       </c>
       <c r="E45" s="172">
@@ -27103,7 +27111,7 @@
       <c r="C46" s="143">
         <v>1</v>
       </c>
-      <c r="D46" s="244"/>
+      <c r="D46" s="252"/>
       <c r="E46" s="175">
         <v>1</v>
       </c>
@@ -27123,7 +27131,7 @@
       <c r="C47" s="137">
         <v>1</v>
       </c>
-      <c r="D47" s="248" t="s">
+      <c r="D47" s="251" t="s">
         <v>288</v>
       </c>
       <c r="E47" s="178">
@@ -27133,7 +27141,7 @@
         <v>1</v>
       </c>
       <c r="G47" s="181" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H47" s="180"/>
     </row>
@@ -27145,7 +27153,7 @@
       <c r="C48" s="140">
         <v>1</v>
       </c>
-      <c r="D48" s="249"/>
+      <c r="D48" s="248"/>
       <c r="E48" s="172">
         <v>1</v>
       </c>
@@ -27185,7 +27193,7 @@
       <c r="C50" s="140">
         <v>1</v>
       </c>
-      <c r="D50" s="243" t="s">
+      <c r="D50" s="246" t="s">
         <v>376</v>
       </c>
       <c r="E50" s="172">
@@ -27205,7 +27213,7 @@
       <c r="C51" s="140">
         <v>1</v>
       </c>
-      <c r="D51" s="249"/>
+      <c r="D51" s="248"/>
       <c r="E51" s="172">
         <v>1</v>
       </c>
@@ -27327,7 +27335,7 @@
       <c r="C57" s="140">
         <v>3</v>
       </c>
-      <c r="D57" s="243" t="s">
+      <c r="D57" s="246" t="s">
         <v>376</v>
       </c>
       <c r="E57" s="172">
@@ -27347,7 +27355,7 @@
       <c r="C58" s="143">
         <v>3</v>
       </c>
-      <c r="D58" s="244"/>
+      <c r="D58" s="252"/>
       <c r="E58" s="175">
         <v>1</v>
       </c>
@@ -27381,46 +27389,6 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="D57:D58"/>
     <mergeCell ref="A5:A8"/>
@@ -27435,6 +27403,46 @@
     <mergeCell ref="B25:B28"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="B5:B7"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="E5:E8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27461,12 +27469,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="221"/>
-      <c r="B1" s="222"/>
-      <c r="C1" s="222"/>
-      <c r="D1" s="222"/>
-      <c r="E1" s="222"/>
-      <c r="F1" s="223"/>
+      <c r="A1" s="214"/>
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="216"/>
     </row>
     <row r="2" spans="1:6" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
@@ -27489,15 +27497,15 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="212"/>
-      <c r="B3" s="213"/>
-      <c r="C3" s="213"/>
-      <c r="D3" s="213"/>
-      <c r="E3" s="213"/>
-      <c r="F3" s="214"/>
+      <c r="A3" s="225"/>
+      <c r="B3" s="226"/>
+      <c r="C3" s="226"/>
+      <c r="D3" s="226"/>
+      <c r="E3" s="226"/>
+      <c r="F3" s="227"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="225" t="s">
+      <c r="A4" s="221" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="74" t="s">
@@ -27506,7 +27514,7 @@
       <c r="C4" s="117">
         <v>1</v>
       </c>
-      <c r="D4" s="229" t="s">
+      <c r="D4" s="211" t="s">
         <v>283</v>
       </c>
       <c r="E4" s="33"/>
@@ -27520,12 +27528,12 @@
       <c r="C5" s="118">
         <v>1</v>
       </c>
-      <c r="D5" s="230"/>
+      <c r="D5" s="224"/>
       <c r="E5" s="35"/>
       <c r="F5" s="36"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="210" t="s">
+      <c r="A6" s="217" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="76" t="s">
@@ -27534,26 +27542,26 @@
       <c r="C6" s="116">
         <v>1</v>
       </c>
-      <c r="D6" s="227" t="s">
+      <c r="D6" s="223" t="s">
         <v>308</v>
       </c>
       <c r="E6" s="31"/>
       <c r="F6" s="32"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="211"/>
+      <c r="A7" s="218"/>
       <c r="B7" s="74" t="s">
         <v>111</v>
       </c>
       <c r="C7" s="117">
         <v>1</v>
       </c>
-      <c r="D7" s="226"/>
+      <c r="D7" s="213"/>
       <c r="E7" s="33"/>
       <c r="F7" s="34"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="211"/>
+      <c r="A8" s="218"/>
       <c r="B8" s="77" t="s">
         <v>266</v>
       </c>
@@ -27567,28 +27575,28 @@
       <c r="F8" s="34"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="211"/>
+      <c r="A9" s="218"/>
       <c r="B9" s="74" t="s">
         <v>115</v>
       </c>
       <c r="C9" s="117">
         <v>1</v>
       </c>
-      <c r="D9" s="229" t="s">
+      <c r="D9" s="211" t="s">
         <v>289</v>
       </c>
       <c r="E9" s="33"/>
       <c r="F9" s="34"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="211"/>
+      <c r="A10" s="218"/>
       <c r="B10" s="77" t="s">
         <v>295</v>
       </c>
       <c r="C10" s="117">
         <v>1</v>
       </c>
-      <c r="D10" s="226"/>
+      <c r="D10" s="213"/>
       <c r="E10" s="33"/>
       <c r="F10" s="34"/>
     </row>
@@ -27607,7 +27615,7 @@
       <c r="F11" s="34"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="210" t="s">
+      <c r="A12" s="217" t="s">
         <v>45</v>
       </c>
       <c r="B12" s="73" t="s">
@@ -27637,7 +27645,7 @@
       <c r="F13" s="36"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="210" t="s">
+      <c r="A14" s="217" t="s">
         <v>67</v>
       </c>
       <c r="B14" s="78" t="s">
@@ -27653,7 +27661,7 @@
       <c r="F14" s="56"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="211"/>
+      <c r="A15" s="218"/>
       <c r="B15" s="78" t="s">
         <v>267</v>
       </c>
@@ -27667,14 +27675,14 @@
       <c r="F15" s="34"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="211"/>
+      <c r="A16" s="218"/>
       <c r="B16" s="74" t="s">
         <v>268</v>
       </c>
       <c r="C16" s="117">
         <v>3</v>
       </c>
-      <c r="D16" s="229" t="s">
+      <c r="D16" s="211" t="s">
         <v>289</v>
       </c>
       <c r="E16" s="33"/>
@@ -27688,7 +27696,7 @@
       <c r="C17" s="121">
         <v>3</v>
       </c>
-      <c r="D17" s="230"/>
+      <c r="D17" s="224"/>
       <c r="E17" s="44"/>
       <c r="F17" s="45"/>
     </row>

--- a/WebContent/발표/3조 5차 요구사항정의서.xlsx
+++ b/WebContent/발표/3조 5차 요구사항정의서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a01_javaexp\github\project05\WebContent\발표\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\507-14\Desktop\project05\WebContent\발표\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="477">
   <si>
     <t>구분</t>
   </si>
@@ -2071,12 +2071,6 @@
     <t>DB(SQL)</t>
   </si>
   <si>
-    <t>66%(2/3)</t>
-  </si>
-  <si>
-    <t>50%(1/2)</t>
-  </si>
-  <si>
     <r>
       <t>김형준</t>
     </r>
@@ -2177,10 +2171,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>58%(7/12)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3/3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2247,6 +2237,66 @@
   <si>
     <t>6/6</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>63%(7/11)</t>
+  </si>
+  <si>
+    <t>0%(0/11)</t>
+  </si>
+  <si>
+    <t>60%(3/5)</t>
+  </si>
+  <si>
+    <t>0%(0/5)</t>
+  </si>
+  <si>
+    <t>86%(13/15)</t>
+  </si>
+  <si>
+    <t>0%(0/15)</t>
+  </si>
+  <si>
+    <t>91%(11/12)</t>
+  </si>
+  <si>
+    <t>0%(0/10)</t>
+  </si>
+  <si>
+    <t>0%(0/22)</t>
+  </si>
+  <si>
+    <t>50%(3/6)</t>
+  </si>
+  <si>
+    <t>0%(0/6)</t>
+  </si>
+  <si>
+    <t>40%(2/5)</t>
+  </si>
+  <si>
+    <t>42%(15/35)</t>
+  </si>
+  <si>
+    <t>0%(0/42)</t>
+  </si>
+  <si>
+    <t>0%(0/12)</t>
+  </si>
+  <si>
+    <t>0%(0/4)</t>
+  </si>
+  <si>
+    <t>33%(2/6)</t>
+  </si>
+  <si>
+    <t>0%(0/16)</t>
+  </si>
+  <si>
+    <t>75%(3/4)</t>
+  </si>
+  <si>
+    <t>0%(0/3)</t>
   </si>
 </sst>
 </file>
@@ -2275,11 +2325,6 @@
       <name val="굴림"/>
       <family val="3"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -2331,6 +2376,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="굴림"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -3467,7 +3519,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="273">
+  <cellXfs count="274">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3864,205 +3916,163 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="12" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="12" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="12" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="12" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="12" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="12" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="10" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="13" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="13" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="12" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="12" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="12" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="12" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4071,13 +4081,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4089,58 +4105,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4155,22 +4123,52 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4188,38 +4186,59 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -4227,64 +4246,100 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="12" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="12" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="12" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="12" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="12" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="12" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="12" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="2" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="12" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -4650,10 +4705,10 @@
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="204" t="s">
+      <c r="B3" s="192" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="201" t="s">
+      <c r="C3" s="183" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="15" t="s">
@@ -4670,8 +4725,8 @@
       <c r="K3" s="11"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="205"/>
-      <c r="C4" s="202"/>
+      <c r="B4" s="193"/>
+      <c r="C4" s="184"/>
       <c r="D4" s="13" t="s">
         <v>13</v>
       </c>
@@ -4686,8 +4741,8 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="205"/>
-      <c r="C5" s="203"/>
+      <c r="B5" s="193"/>
+      <c r="C5" s="187"/>
       <c r="D5" s="16" t="s">
         <v>15</v>
       </c>
@@ -4702,8 +4757,8 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="205"/>
-      <c r="C6" s="201" t="s">
+      <c r="B6" s="193"/>
+      <c r="C6" s="183" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="12" t="s">
@@ -4720,8 +4775,8 @@
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="205"/>
-      <c r="C7" s="202"/>
+      <c r="B7" s="193"/>
+      <c r="C7" s="184"/>
       <c r="D7" s="13" t="s">
         <v>20</v>
       </c>
@@ -4736,8 +4791,8 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="206"/>
-      <c r="C8" s="203"/>
+      <c r="B8" s="194"/>
+      <c r="C8" s="187"/>
       <c r="D8" s="16" t="s">
         <v>17</v>
       </c>
@@ -4754,10 +4809,10 @@
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="198" t="s">
+      <c r="B9" s="191" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="201" t="s">
+      <c r="C9" s="183" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="15" t="s">
@@ -4774,8 +4829,8 @@
       <c r="K9" s="11"/>
     </row>
     <row r="10" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="199"/>
-      <c r="C10" s="203"/>
+      <c r="B10" s="185"/>
+      <c r="C10" s="187"/>
       <c r="D10" s="17" t="s">
         <v>25</v>
       </c>
@@ -4790,11 +4845,11 @@
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="199"/>
-      <c r="C11" s="201" t="s">
+      <c r="B11" s="185"/>
+      <c r="C11" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="207" t="s">
+      <c r="D11" s="188" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="10" t="s">
@@ -4808,9 +4863,9 @@
       <c r="K11" s="11"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="199"/>
-      <c r="C12" s="202"/>
-      <c r="D12" s="208"/>
+      <c r="B12" s="185"/>
+      <c r="C12" s="184"/>
+      <c r="D12" s="190"/>
       <c r="E12" s="1" t="s">
         <v>34</v>
       </c>
@@ -4822,8 +4877,8 @@
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="199"/>
-      <c r="C13" s="202"/>
+      <c r="B13" s="185"/>
+      <c r="C13" s="184"/>
       <c r="D13" s="13" t="s">
         <v>31</v>
       </c>
@@ -4838,8 +4893,8 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="199"/>
-      <c r="C14" s="202"/>
+      <c r="B14" s="185"/>
+      <c r="C14" s="184"/>
       <c r="D14" s="13" t="s">
         <v>32</v>
       </c>
@@ -4854,8 +4909,8 @@
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="199"/>
-      <c r="C15" s="203"/>
+      <c r="B15" s="185"/>
+      <c r="C15" s="187"/>
       <c r="D15" s="17" t="s">
         <v>35</v>
       </c>
@@ -4872,8 +4927,8 @@
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="199"/>
-      <c r="C16" s="201" t="s">
+      <c r="B16" s="185"/>
+      <c r="C16" s="183" t="s">
         <v>38</v>
       </c>
       <c r="D16" s="15" t="s">
@@ -4890,8 +4945,8 @@
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="199"/>
-      <c r="C17" s="202"/>
+      <c r="B17" s="185"/>
+      <c r="C17" s="184"/>
       <c r="D17" s="13" t="s">
         <v>31</v>
       </c>
@@ -4906,8 +4961,8 @@
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="199"/>
-      <c r="C18" s="202"/>
+      <c r="B18" s="185"/>
+      <c r="C18" s="184"/>
       <c r="D18" s="13" t="s">
         <v>42</v>
       </c>
@@ -4922,8 +4977,8 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="200"/>
-      <c r="C19" s="203"/>
+      <c r="B19" s="186"/>
+      <c r="C19" s="187"/>
       <c r="D19" s="17" t="s">
         <v>35</v>
       </c>
@@ -4938,10 +4993,10 @@
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="198" t="s">
+      <c r="B20" s="191" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="201" t="s">
+      <c r="C20" s="183" t="s">
         <v>46</v>
       </c>
       <c r="D20" s="15" t="s">
@@ -4958,8 +5013,8 @@
       <c r="K20" s="11"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="199"/>
-      <c r="C21" s="202"/>
+      <c r="B21" s="185"/>
+      <c r="C21" s="184"/>
       <c r="D21" s="13" t="s">
         <v>48</v>
       </c>
@@ -4974,8 +5029,8 @@
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="199"/>
-      <c r="C22" s="203"/>
+      <c r="B22" s="185"/>
+      <c r="C22" s="187"/>
       <c r="D22" s="16" t="s">
         <v>52</v>
       </c>
@@ -4990,7 +5045,7 @@
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="199"/>
+      <c r="B23" s="185"/>
       <c r="C23" s="21" t="s">
         <v>54</v>
       </c>
@@ -5008,10 +5063,10 @@
       <c r="K23" s="20"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="198" t="s">
+      <c r="B24" s="191" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="201" t="s">
+      <c r="C24" s="183" t="s">
         <v>49</v>
       </c>
       <c r="D24" s="15" t="s">
@@ -5028,8 +5083,8 @@
       <c r="K24" s="11"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="199"/>
-      <c r="C25" s="202"/>
+      <c r="B25" s="185"/>
+      <c r="C25" s="184"/>
       <c r="D25" s="13" t="s">
         <v>59</v>
       </c>
@@ -5044,8 +5099,8 @@
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="199"/>
-      <c r="C26" s="203"/>
+      <c r="B26" s="185"/>
+      <c r="C26" s="187"/>
       <c r="D26" s="16" t="s">
         <v>61</v>
       </c>
@@ -5060,7 +5115,7 @@
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="199"/>
+      <c r="B27" s="185"/>
       <c r="C27" s="23" t="s">
         <v>56</v>
       </c>
@@ -5078,7 +5133,7 @@
       <c r="K27" s="20"/>
     </row>
     <row r="28" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="200"/>
+      <c r="B28" s="186"/>
       <c r="C28" s="23" t="s">
         <v>44</v>
       </c>
@@ -5116,10 +5171,10 @@
       <c r="K29" s="20"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="201" t="s">
+      <c r="B30" s="183" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="207" t="s">
+      <c r="C30" s="188" t="s">
         <v>71</v>
       </c>
       <c r="D30" s="15" t="s">
@@ -5136,8 +5191,8 @@
       <c r="K30" s="11"/>
     </row>
     <row r="31" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="202"/>
-      <c r="C31" s="209"/>
+      <c r="B31" s="184"/>
+      <c r="C31" s="189"/>
       <c r="D31" s="14" t="s">
         <v>74</v>
       </c>
@@ -5152,8 +5207,8 @@
       <c r="K31" s="27"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="199"/>
-      <c r="C32" s="201" t="s">
+      <c r="B32" s="185"/>
+      <c r="C32" s="183" t="s">
         <v>85</v>
       </c>
       <c r="D32" s="15" t="s">
@@ -5170,8 +5225,8 @@
       <c r="K32" s="11"/>
     </row>
     <row r="33" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="199"/>
-      <c r="C33" s="203"/>
+      <c r="B33" s="185"/>
+      <c r="C33" s="187"/>
       <c r="D33" s="16" t="s">
         <v>88</v>
       </c>
@@ -5186,8 +5241,8 @@
       <c r="K33" s="4"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="199"/>
-      <c r="C34" s="201" t="s">
+      <c r="B34" s="185"/>
+      <c r="C34" s="183" t="s">
         <v>90</v>
       </c>
       <c r="D34" s="15" t="s">
@@ -5204,8 +5259,8 @@
       <c r="K34" s="11"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="199"/>
-      <c r="C35" s="202"/>
+      <c r="B35" s="185"/>
+      <c r="C35" s="184"/>
       <c r="D35" s="13"/>
       <c r="E35" s="1" t="s">
         <v>34</v>
@@ -5218,8 +5273,8 @@
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="199"/>
-      <c r="C36" s="202"/>
+      <c r="B36" s="185"/>
+      <c r="C36" s="184"/>
       <c r="D36" s="13" t="s">
         <v>31</v>
       </c>
@@ -5234,8 +5289,8 @@
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="199"/>
-      <c r="C37" s="202"/>
+      <c r="B37" s="185"/>
+      <c r="C37" s="184"/>
       <c r="D37" s="13" t="s">
         <v>92</v>
       </c>
@@ -5250,8 +5305,8 @@
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="199"/>
-      <c r="C38" s="203"/>
+      <c r="B38" s="185"/>
+      <c r="C38" s="187"/>
       <c r="D38" s="16" t="s">
         <v>94</v>
       </c>
@@ -5266,8 +5321,8 @@
       <c r="K38" s="4"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="199"/>
-      <c r="C39" s="201" t="s">
+      <c r="B39" s="185"/>
+      <c r="C39" s="183" t="s">
         <v>38</v>
       </c>
       <c r="D39" s="15" t="s">
@@ -5284,8 +5339,8 @@
       <c r="K39" s="11"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="199"/>
-      <c r="C40" s="202"/>
+      <c r="B40" s="185"/>
+      <c r="C40" s="184"/>
       <c r="D40" s="13" t="s">
         <v>31</v>
       </c>
@@ -5300,8 +5355,8 @@
       <c r="K40" s="2"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="199"/>
-      <c r="C41" s="202"/>
+      <c r="B41" s="185"/>
+      <c r="C41" s="184"/>
       <c r="D41" s="13" t="s">
         <v>92</v>
       </c>
@@ -5316,8 +5371,8 @@
       <c r="K41" s="2"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="199"/>
-      <c r="C42" s="202"/>
+      <c r="B42" s="185"/>
+      <c r="C42" s="184"/>
       <c r="D42" s="13" t="s">
         <v>35</v>
       </c>
@@ -5332,8 +5387,8 @@
       <c r="K42" s="2"/>
     </row>
     <row r="43" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="199"/>
-      <c r="C43" s="203"/>
+      <c r="B43" s="185"/>
+      <c r="C43" s="187"/>
       <c r="D43" s="16" t="s">
         <v>97</v>
       </c>
@@ -5348,8 +5403,8 @@
       <c r="K43" s="4"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="199"/>
-      <c r="C44" s="201" t="s">
+      <c r="B44" s="185"/>
+      <c r="C44" s="183" t="s">
         <v>76</v>
       </c>
       <c r="D44" s="15" t="s">
@@ -5366,8 +5421,8 @@
       <c r="K44" s="11"/>
     </row>
     <row r="45" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="199"/>
-      <c r="C45" s="203"/>
+      <c r="B45" s="185"/>
+      <c r="C45" s="187"/>
       <c r="D45" s="16" t="s">
         <v>79</v>
       </c>
@@ -5382,8 +5437,8 @@
       <c r="K45" s="4"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="199"/>
-      <c r="C46" s="201" t="s">
+      <c r="B46" s="185"/>
+      <c r="C46" s="183" t="s">
         <v>81</v>
       </c>
       <c r="D46" s="15" t="s">
@@ -5400,8 +5455,8 @@
       <c r="K46" s="11"/>
     </row>
     <row r="47" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="199"/>
-      <c r="C47" s="203"/>
+      <c r="B47" s="185"/>
+      <c r="C47" s="187"/>
       <c r="D47" s="16" t="s">
         <v>83</v>
       </c>
@@ -5416,8 +5471,8 @@
       <c r="K47" s="4"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="199"/>
-      <c r="C48" s="201" t="s">
+      <c r="B48" s="185"/>
+      <c r="C48" s="183" t="s">
         <v>56</v>
       </c>
       <c r="D48" s="15" t="s">
@@ -5434,8 +5489,8 @@
       <c r="K48" s="11"/>
     </row>
     <row r="49" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="200"/>
-      <c r="C49" s="203"/>
+      <c r="B49" s="186"/>
+      <c r="C49" s="187"/>
       <c r="D49" s="16" t="s">
         <v>101</v>
       </c>
@@ -5451,6 +5506,18 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B9:B19"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C22"/>
     <mergeCell ref="B30:B49"/>
     <mergeCell ref="C39:C43"/>
     <mergeCell ref="C34:C38"/>
@@ -5459,18 +5526,6 @@
     <mergeCell ref="C48:C49"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B9:B19"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5500,15 +5555,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="214"/>
-      <c r="B1" s="215"/>
-      <c r="C1" s="215"/>
-      <c r="D1" s="215"/>
-      <c r="E1" s="215"/>
-      <c r="F1" s="215"/>
-      <c r="G1" s="215"/>
-      <c r="H1" s="215"/>
-      <c r="I1" s="216"/>
+      <c r="A1" s="206"/>
+      <c r="B1" s="207"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+      <c r="H1" s="207"/>
+      <c r="I1" s="208"/>
     </row>
     <row r="2" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
@@ -5540,21 +5595,21 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="225"/>
-      <c r="B3" s="226"/>
-      <c r="C3" s="226"/>
-      <c r="D3" s="226"/>
-      <c r="E3" s="226"/>
-      <c r="F3" s="226"/>
-      <c r="G3" s="226"/>
-      <c r="H3" s="226"/>
-      <c r="I3" s="227"/>
+      <c r="A3" s="197"/>
+      <c r="B3" s="198"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="198"/>
+      <c r="F3" s="198"/>
+      <c r="G3" s="198"/>
+      <c r="H3" s="198"/>
+      <c r="I3" s="199"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="228" t="s">
+      <c r="A4" s="200" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="222" t="s">
+      <c r="B4" s="203" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="37" t="s">
@@ -5570,8 +5625,8 @@
       <c r="I4" s="32"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="220"/>
-      <c r="B5" s="210"/>
+      <c r="A5" s="201"/>
+      <c r="B5" s="204"/>
       <c r="C5" s="38" t="s">
         <v>13</v>
       </c>
@@ -5585,8 +5640,8 @@
       <c r="I5" s="34"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="220"/>
-      <c r="B6" s="210"/>
+      <c r="A6" s="201"/>
+      <c r="B6" s="204"/>
       <c r="C6" s="38" t="s">
         <v>15</v>
       </c>
@@ -5600,8 +5655,8 @@
       <c r="I6" s="34"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="220"/>
-      <c r="B7" s="210" t="s">
+      <c r="A7" s="201"/>
+      <c r="B7" s="204" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="38" t="s">
@@ -5617,8 +5672,8 @@
       <c r="I7" s="34"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="220"/>
-      <c r="B8" s="210"/>
+      <c r="A8" s="201"/>
+      <c r="B8" s="204"/>
       <c r="C8" s="38" t="s">
         <v>20</v>
       </c>
@@ -5632,8 +5687,8 @@
       <c r="I8" s="34"/>
     </row>
     <row r="9" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="229"/>
-      <c r="B9" s="230"/>
+      <c r="A9" s="202"/>
+      <c r="B9" s="205"/>
       <c r="C9" s="39" t="s">
         <v>17</v>
       </c>
@@ -5647,10 +5702,10 @@
       <c r="I9" s="36"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="217" t="s">
+      <c r="A10" s="195" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="223" t="s">
+      <c r="B10" s="212" t="s">
         <v>103</v>
       </c>
       <c r="C10" s="37" t="s">
@@ -5666,8 +5721,8 @@
       <c r="I10" s="32"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="218"/>
-      <c r="B11" s="212"/>
+      <c r="A11" s="196"/>
+      <c r="B11" s="213"/>
       <c r="C11" s="38" t="s">
         <v>105</v>
       </c>
@@ -5681,8 +5736,8 @@
       <c r="I11" s="34"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="218"/>
-      <c r="B12" s="212"/>
+      <c r="A12" s="196"/>
+      <c r="B12" s="213"/>
       <c r="C12" s="38" t="s">
         <v>92</v>
       </c>
@@ -5696,8 +5751,8 @@
       <c r="I12" s="34"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="218"/>
-      <c r="B13" s="213"/>
+      <c r="A13" s="196"/>
+      <c r="B13" s="211"/>
       <c r="C13" s="38" t="s">
         <v>109</v>
       </c>
@@ -5713,8 +5768,8 @@
       <c r="I13" s="34"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="218"/>
-      <c r="B14" s="211" t="s">
+      <c r="A14" s="196"/>
+      <c r="B14" s="214" t="s">
         <v>180</v>
       </c>
       <c r="C14" s="38" t="s">
@@ -5730,8 +5785,8 @@
       <c r="I14" s="34"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="218"/>
-      <c r="B15" s="212"/>
+      <c r="A15" s="196"/>
+      <c r="B15" s="213"/>
       <c r="C15" s="38" t="s">
         <v>184</v>
       </c>
@@ -5745,8 +5800,8 @@
       <c r="I15" s="34"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="218"/>
-      <c r="B16" s="211" t="s">
+      <c r="A16" s="196"/>
+      <c r="B16" s="214" t="s">
         <v>111</v>
       </c>
       <c r="C16" s="58" t="s">
@@ -5762,8 +5817,8 @@
       <c r="I16" s="34"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="218"/>
-      <c r="B17" s="212"/>
+      <c r="A17" s="196"/>
+      <c r="B17" s="213"/>
       <c r="C17" s="38" t="s">
         <v>105</v>
       </c>
@@ -5777,8 +5832,8 @@
       <c r="I17" s="34"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="218"/>
-      <c r="B18" s="212"/>
+      <c r="A18" s="196"/>
+      <c r="B18" s="213"/>
       <c r="C18" s="38" t="s">
         <v>113</v>
       </c>
@@ -5794,8 +5849,8 @@
       <c r="I18" s="34"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="218"/>
-      <c r="B19" s="213"/>
+      <c r="A19" s="196"/>
+      <c r="B19" s="211"/>
       <c r="C19" s="38" t="s">
         <v>109</v>
       </c>
@@ -5809,8 +5864,8 @@
       <c r="I19" s="34"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="218"/>
-      <c r="B20" s="211" t="s">
+      <c r="A20" s="196"/>
+      <c r="B20" s="214" t="s">
         <v>193</v>
       </c>
       <c r="C20" s="59" t="s">
@@ -5826,8 +5881,8 @@
       <c r="I20" s="34"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="218"/>
-      <c r="B21" s="213"/>
+      <c r="A21" s="196"/>
+      <c r="B21" s="211"/>
       <c r="C21" s="59" t="s">
         <v>194</v>
       </c>
@@ -5841,8 +5896,8 @@
       <c r="I21" s="34"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="218"/>
-      <c r="B22" s="211" t="s">
+      <c r="A22" s="196"/>
+      <c r="B22" s="214" t="s">
         <v>115</v>
       </c>
       <c r="C22" s="38" t="s">
@@ -5858,8 +5913,8 @@
       <c r="I22" s="34"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="218"/>
-      <c r="B23" s="212"/>
+      <c r="A23" s="196"/>
+      <c r="B23" s="213"/>
       <c r="C23" s="38" t="s">
         <v>118</v>
       </c>
@@ -5873,8 +5928,8 @@
       <c r="I23" s="34"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="218"/>
-      <c r="B24" s="212"/>
+      <c r="A24" s="196"/>
+      <c r="B24" s="213"/>
       <c r="C24" s="38" t="s">
         <v>120</v>
       </c>
@@ -5888,8 +5943,8 @@
       <c r="I24" s="34"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="218"/>
-      <c r="B25" s="213"/>
+      <c r="A25" s="196"/>
+      <c r="B25" s="211"/>
       <c r="C25" s="38" t="s">
         <v>122</v>
       </c>
@@ -5903,8 +5958,8 @@
       <c r="I25" s="34"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="218"/>
-      <c r="B26" s="211" t="s">
+      <c r="A26" s="196"/>
+      <c r="B26" s="214" t="s">
         <v>174</v>
       </c>
       <c r="C26" s="38" t="s">
@@ -5920,8 +5975,8 @@
       <c r="I26" s="34"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="218"/>
-      <c r="B27" s="212"/>
+      <c r="A27" s="196"/>
+      <c r="B27" s="213"/>
       <c r="C27" s="38" t="s">
         <v>178</v>
       </c>
@@ -5935,8 +5990,8 @@
       <c r="I27" s="34"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="218"/>
-      <c r="B28" s="212"/>
+      <c r="A28" s="196"/>
+      <c r="B28" s="213"/>
       <c r="C28" s="38" t="s">
         <v>182</v>
       </c>
@@ -5950,8 +6005,8 @@
       <c r="I28" s="34"/>
     </row>
     <row r="29" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="218"/>
-      <c r="B29" s="212"/>
+      <c r="A29" s="196"/>
+      <c r="B29" s="213"/>
       <c r="C29" s="58" t="s">
         <v>176</v>
       </c>
@@ -5965,10 +6020,10 @@
       <c r="I29" s="45"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="217" t="s">
+      <c r="A30" s="195" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="222" t="s">
+      <c r="B30" s="203" t="s">
         <v>127</v>
       </c>
       <c r="C30" s="62" t="s">
@@ -5984,8 +6039,8 @@
       <c r="I30" s="32"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="218"/>
-      <c r="B31" s="210"/>
+      <c r="A31" s="196"/>
+      <c r="B31" s="204"/>
       <c r="C31" s="63" t="s">
         <v>129</v>
       </c>
@@ -5999,8 +6054,8 @@
       <c r="I31" s="34"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="218"/>
-      <c r="B32" s="210"/>
+      <c r="A32" s="196"/>
+      <c r="B32" s="204"/>
       <c r="C32" s="63" t="s">
         <v>132</v>
       </c>
@@ -6014,8 +6069,8 @@
       <c r="I32" s="34"/>
     </row>
     <row r="33" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A33" s="218"/>
-      <c r="B33" s="210"/>
+      <c r="A33" s="196"/>
+      <c r="B33" s="204"/>
       <c r="C33" s="63" t="s">
         <v>125</v>
       </c>
@@ -6029,8 +6084,8 @@
       <c r="I33" s="34"/>
     </row>
     <row r="34" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A34" s="218"/>
-      <c r="B34" s="210" t="s">
+      <c r="A34" s="196"/>
+      <c r="B34" s="204" t="s">
         <v>133</v>
       </c>
       <c r="C34" s="63" t="s">
@@ -6046,8 +6101,8 @@
       <c r="I34" s="45"/>
     </row>
     <row r="35" spans="1:16384" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="218"/>
-      <c r="B35" s="210"/>
+      <c r="A35" s="196"/>
+      <c r="B35" s="204"/>
       <c r="C35" s="63" t="s">
         <v>134</v>
       </c>
@@ -22436,8 +22491,8 @@
       <c r="XFD35" s="46"/>
     </row>
     <row r="36" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A36" s="218"/>
-      <c r="B36" s="210"/>
+      <c r="A36" s="196"/>
+      <c r="B36" s="204"/>
       <c r="C36" s="64" t="s">
         <v>187</v>
       </c>
@@ -22449,8 +22504,8 @@
       <c r="I36" s="56"/>
     </row>
     <row r="37" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A37" s="218"/>
-      <c r="B37" s="210" t="s">
+      <c r="A37" s="196"/>
+      <c r="B37" s="204" t="s">
         <v>136</v>
       </c>
       <c r="C37" s="63" t="s">
@@ -22466,8 +22521,8 @@
       <c r="I37" s="34"/>
     </row>
     <row r="38" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A38" s="218"/>
-      <c r="B38" s="210"/>
+      <c r="A38" s="196"/>
+      <c r="B38" s="204"/>
       <c r="C38" s="63" t="s">
         <v>92</v>
       </c>
@@ -22481,7 +22536,7 @@
       <c r="I38" s="34"/>
     </row>
     <row r="39" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A39" s="218"/>
+      <c r="A39" s="196"/>
       <c r="B39" s="57" t="s">
         <v>139</v>
       </c>
@@ -22498,10 +22553,10 @@
       <c r="I39" s="34"/>
     </row>
     <row r="40" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A40" s="219" t="s">
+      <c r="A40" s="209" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="213" t="s">
+      <c r="B40" s="211" t="s">
         <v>71</v>
       </c>
       <c r="C40" s="41" t="s">
@@ -22517,8 +22572,8 @@
       <c r="I40" s="56"/>
     </row>
     <row r="41" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A41" s="220"/>
-      <c r="B41" s="210"/>
+      <c r="A41" s="201"/>
+      <c r="B41" s="204"/>
       <c r="C41" s="40" t="s">
         <v>74</v>
       </c>
@@ -22532,8 +22587,8 @@
       <c r="I41" s="34"/>
     </row>
     <row r="42" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A42" s="220"/>
-      <c r="B42" s="210" t="s">
+      <c r="A42" s="201"/>
+      <c r="B42" s="204" t="s">
         <v>152</v>
       </c>
       <c r="C42" s="40" t="s">
@@ -22549,8 +22604,8 @@
       <c r="I42" s="34"/>
     </row>
     <row r="43" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A43" s="220"/>
-      <c r="B43" s="210"/>
+      <c r="A43" s="201"/>
+      <c r="B43" s="204"/>
       <c r="C43" s="40" t="s">
         <v>144</v>
       </c>
@@ -22564,11 +22619,11 @@
       <c r="I43" s="34"/>
     </row>
     <row r="44" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A44" s="220"/>
-      <c r="B44" s="210" t="s">
+      <c r="A44" s="201"/>
+      <c r="B44" s="204" t="s">
         <v>163</v>
       </c>
-      <c r="C44" s="211" t="s">
+      <c r="C44" s="214" t="s">
         <v>162</v>
       </c>
       <c r="D44" s="33" t="s">
@@ -22581,9 +22636,9 @@
       <c r="I44" s="34"/>
     </row>
     <row r="45" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A45" s="220"/>
-      <c r="B45" s="210"/>
-      <c r="C45" s="213"/>
+      <c r="A45" s="201"/>
+      <c r="B45" s="204"/>
+      <c r="C45" s="211"/>
       <c r="D45" s="33" t="s">
         <v>164</v>
       </c>
@@ -22594,8 +22649,8 @@
       <c r="I45" s="34"/>
     </row>
     <row r="46" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A46" s="220"/>
-      <c r="B46" s="210"/>
+      <c r="A46" s="201"/>
+      <c r="B46" s="204"/>
       <c r="C46" s="40" t="s">
         <v>112</v>
       </c>
@@ -22609,8 +22664,8 @@
       <c r="I46" s="34"/>
     </row>
     <row r="47" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A47" s="220"/>
-      <c r="B47" s="210"/>
+      <c r="A47" s="201"/>
+      <c r="B47" s="204"/>
       <c r="C47" s="40" t="s">
         <v>106</v>
       </c>
@@ -22624,8 +22679,8 @@
       <c r="I47" s="34"/>
     </row>
     <row r="48" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A48" s="220"/>
-      <c r="B48" s="210"/>
+      <c r="A48" s="201"/>
+      <c r="B48" s="204"/>
       <c r="C48" s="40" t="s">
         <v>147</v>
       </c>
@@ -22639,8 +22694,8 @@
       <c r="I48" s="34"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="220"/>
-      <c r="B49" s="210" t="s">
+      <c r="A49" s="201"/>
+      <c r="B49" s="204" t="s">
         <v>153</v>
       </c>
       <c r="C49" s="40" t="s">
@@ -22656,8 +22711,8 @@
       <c r="I49" s="34"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="220"/>
-      <c r="B50" s="210"/>
+      <c r="A50" s="201"/>
+      <c r="B50" s="204"/>
       <c r="C50" s="40" t="s">
         <v>112</v>
       </c>
@@ -22671,8 +22726,8 @@
       <c r="I50" s="34"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="220"/>
-      <c r="B51" s="210"/>
+      <c r="A51" s="201"/>
+      <c r="B51" s="204"/>
       <c r="C51" s="40" t="s">
         <v>106</v>
       </c>
@@ -22686,8 +22741,8 @@
       <c r="I51" s="34"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="220"/>
-      <c r="B52" s="210"/>
+      <c r="A52" s="201"/>
+      <c r="B52" s="204"/>
       <c r="C52" s="40" t="s">
         <v>147</v>
       </c>
@@ -22701,8 +22756,8 @@
       <c r="I52" s="34"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="220"/>
-      <c r="B53" s="211" t="s">
+      <c r="A53" s="201"/>
+      <c r="B53" s="214" t="s">
         <v>154</v>
       </c>
       <c r="C53" s="40" t="s">
@@ -22718,8 +22773,8 @@
       <c r="I53" s="34"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="220"/>
-      <c r="B54" s="212"/>
+      <c r="A54" s="201"/>
+      <c r="B54" s="213"/>
       <c r="C54" s="49" t="s">
         <v>159</v>
       </c>
@@ -22733,8 +22788,8 @@
       <c r="I54" s="34"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="220"/>
-      <c r="B55" s="210" t="s">
+      <c r="A55" s="201"/>
+      <c r="B55" s="204" t="s">
         <v>76</v>
       </c>
       <c r="C55" s="40" t="s">
@@ -22750,8 +22805,8 @@
       <c r="I55" s="34"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="220"/>
-      <c r="B56" s="210"/>
+      <c r="A56" s="201"/>
+      <c r="B56" s="204"/>
       <c r="C56" s="40" t="s">
         <v>79</v>
       </c>
@@ -22765,8 +22820,8 @@
       <c r="I56" s="34"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="220"/>
-      <c r="B57" s="211" t="s">
+      <c r="A57" s="201"/>
+      <c r="B57" s="214" t="s">
         <v>81</v>
       </c>
       <c r="C57" s="40" t="s">
@@ -22782,8 +22837,8 @@
       <c r="I57" s="34"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="221"/>
-      <c r="B58" s="213"/>
+      <c r="A58" s="210"/>
+      <c r="B58" s="211"/>
       <c r="C58" s="50" t="s">
         <v>167</v>
       </c>
@@ -22797,8 +22852,8 @@
       <c r="I58" s="45"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="221"/>
-      <c r="B59" s="211" t="s">
+      <c r="A59" s="210"/>
+      <c r="B59" s="214" t="s">
         <v>172</v>
       </c>
       <c r="C59" s="50" t="s">
@@ -22814,8 +22869,8 @@
       <c r="I59" s="45"/>
     </row>
     <row r="60" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="221"/>
-      <c r="B60" s="224"/>
+      <c r="A60" s="210"/>
+      <c r="B60" s="215"/>
       <c r="C60" s="42" t="s">
         <v>171</v>
       </c>
@@ -23078,11 +23133,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A30:A39"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B20:B21"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A10:A29"/>
     <mergeCell ref="A40:A60"/>
@@ -23099,11 +23154,11 @@
     <mergeCell ref="C44:C45"/>
     <mergeCell ref="B59:B60"/>
     <mergeCell ref="B44:B48"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A30:A39"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23146,15 +23201,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="214"/>
-      <c r="B1" s="215"/>
-      <c r="C1" s="215"/>
-      <c r="D1" s="215"/>
-      <c r="E1" s="215"/>
-      <c r="F1" s="215"/>
-      <c r="G1" s="215"/>
-      <c r="H1" s="215"/>
-      <c r="I1" s="216"/>
+      <c r="A1" s="206"/>
+      <c r="B1" s="207"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+      <c r="H1" s="207"/>
+      <c r="I1" s="208"/>
     </row>
     <row r="2" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
@@ -23186,21 +23241,21 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="225"/>
-      <c r="B3" s="226"/>
-      <c r="C3" s="226"/>
-      <c r="D3" s="226"/>
-      <c r="E3" s="226"/>
-      <c r="F3" s="226"/>
-      <c r="G3" s="226"/>
-      <c r="H3" s="226"/>
-      <c r="I3" s="227"/>
+      <c r="A3" s="197"/>
+      <c r="B3" s="198"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="198"/>
+      <c r="F3" s="198"/>
+      <c r="G3" s="198"/>
+      <c r="H3" s="198"/>
+      <c r="I3" s="199"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="217" t="s">
+      <c r="A4" s="195" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="223" t="s">
+      <c r="B4" s="212" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="88" t="s">
@@ -23211,15 +23266,15 @@
       </c>
       <c r="E4" s="31"/>
       <c r="F4" s="31"/>
-      <c r="G4" s="223" t="s">
+      <c r="G4" s="212" t="s">
         <v>284</v>
       </c>
       <c r="H4" s="31"/>
       <c r="I4" s="32"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="218"/>
-      <c r="B5" s="212"/>
+      <c r="A5" s="196"/>
+      <c r="B5" s="213"/>
       <c r="C5" s="89" t="s">
         <v>13</v>
       </c>
@@ -23228,13 +23283,13 @@
       </c>
       <c r="E5" s="33"/>
       <c r="F5" s="33"/>
-      <c r="G5" s="212"/>
+      <c r="G5" s="213"/>
       <c r="H5" s="33"/>
       <c r="I5" s="34"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="218"/>
-      <c r="B6" s="213"/>
+      <c r="A6" s="196"/>
+      <c r="B6" s="211"/>
       <c r="C6" s="89" t="s">
         <v>15</v>
       </c>
@@ -23243,13 +23298,13 @@
       </c>
       <c r="E6" s="33"/>
       <c r="F6" s="33"/>
-      <c r="G6" s="212"/>
+      <c r="G6" s="213"/>
       <c r="H6" s="33"/>
       <c r="I6" s="34"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="218"/>
-      <c r="B7" s="211" t="s">
+      <c r="A7" s="196"/>
+      <c r="B7" s="214" t="s">
         <v>253</v>
       </c>
       <c r="C7" s="89" t="s">
@@ -23260,13 +23315,13 @@
       </c>
       <c r="E7" s="65"/>
       <c r="F7" s="33"/>
-      <c r="G7" s="212"/>
+      <c r="G7" s="213"/>
       <c r="H7" s="33"/>
       <c r="I7" s="34"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="218"/>
-      <c r="B8" s="212"/>
+      <c r="A8" s="196"/>
+      <c r="B8" s="213"/>
       <c r="C8" s="89" t="s">
         <v>254</v>
       </c>
@@ -23275,13 +23330,13 @@
       </c>
       <c r="E8" s="67"/>
       <c r="F8" s="33"/>
-      <c r="G8" s="212"/>
+      <c r="G8" s="213"/>
       <c r="H8" s="33"/>
       <c r="I8" s="34"/>
     </row>
     <row r="9" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="231"/>
-      <c r="B9" s="224"/>
+      <c r="A9" s="216"/>
+      <c r="B9" s="215"/>
       <c r="C9" s="90" t="s">
         <v>253</v>
       </c>
@@ -23290,15 +23345,15 @@
       </c>
       <c r="E9" s="66"/>
       <c r="F9" s="35"/>
-      <c r="G9" s="224"/>
+      <c r="G9" s="215"/>
       <c r="H9" s="35"/>
       <c r="I9" s="36"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="217" t="s">
+      <c r="A10" s="195" t="s">
         <v>198</v>
       </c>
-      <c r="B10" s="223" t="s">
+      <c r="B10" s="212" t="s">
         <v>199</v>
       </c>
       <c r="C10" s="96" t="s">
@@ -23311,15 +23366,15 @@
         <v>202</v>
       </c>
       <c r="F10" s="31"/>
-      <c r="G10" s="223" t="s">
+      <c r="G10" s="212" t="s">
         <v>288</v>
       </c>
       <c r="H10" s="31"/>
       <c r="I10" s="32"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="218"/>
-      <c r="B11" s="212"/>
+      <c r="A11" s="196"/>
+      <c r="B11" s="213"/>
       <c r="C11" s="97" t="s">
         <v>203</v>
       </c>
@@ -23330,13 +23385,13 @@
         <v>205</v>
       </c>
       <c r="F11" s="33"/>
-      <c r="G11" s="212"/>
+      <c r="G11" s="213"/>
       <c r="H11" s="33"/>
       <c r="I11" s="34"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="218"/>
-      <c r="B12" s="212"/>
+      <c r="A12" s="196"/>
+      <c r="B12" s="213"/>
       <c r="C12" s="97" t="s">
         <v>206</v>
       </c>
@@ -23347,13 +23402,13 @@
         <v>208</v>
       </c>
       <c r="F12" s="33"/>
-      <c r="G12" s="212"/>
+      <c r="G12" s="213"/>
       <c r="H12" s="33"/>
       <c r="I12" s="34"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="218"/>
-      <c r="B13" s="213"/>
+      <c r="A13" s="196"/>
+      <c r="B13" s="211"/>
       <c r="C13" s="97" t="s">
         <v>209</v>
       </c>
@@ -23362,13 +23417,13 @@
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="33"/>
-      <c r="G13" s="213"/>
+      <c r="G13" s="211"/>
       <c r="H13" s="33"/>
       <c r="I13" s="34"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="218"/>
-      <c r="B14" s="211" t="s">
+      <c r="A14" s="196"/>
+      <c r="B14" s="214" t="s">
         <v>216</v>
       </c>
       <c r="C14" s="98" t="s">
@@ -23381,15 +23436,15 @@
         <v>219</v>
       </c>
       <c r="F14" s="33"/>
-      <c r="G14" s="211" t="s">
+      <c r="G14" s="214" t="s">
         <v>288</v>
       </c>
       <c r="H14" s="33"/>
       <c r="I14" s="34"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="218"/>
-      <c r="B15" s="212"/>
+      <c r="A15" s="196"/>
+      <c r="B15" s="213"/>
       <c r="C15" s="97" t="s">
         <v>220</v>
       </c>
@@ -23400,13 +23455,13 @@
         <v>205</v>
       </c>
       <c r="F15" s="33"/>
-      <c r="G15" s="212"/>
+      <c r="G15" s="213"/>
       <c r="H15" s="33"/>
       <c r="I15" s="34"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="218"/>
-      <c r="B16" s="213"/>
+      <c r="A16" s="196"/>
+      <c r="B16" s="211"/>
       <c r="C16" s="97" t="s">
         <v>222</v>
       </c>
@@ -23417,13 +23472,13 @@
         <v>224</v>
       </c>
       <c r="F16" s="33"/>
-      <c r="G16" s="213"/>
+      <c r="G16" s="211"/>
       <c r="H16" s="33"/>
       <c r="I16" s="34"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="218"/>
-      <c r="B17" s="211" t="s">
+      <c r="A17" s="196"/>
+      <c r="B17" s="214" t="s">
         <v>211</v>
       </c>
       <c r="C17" s="94" t="s">
@@ -23436,15 +23491,15 @@
         <v>282</v>
       </c>
       <c r="F17" s="33"/>
-      <c r="G17" s="211" t="s">
+      <c r="G17" s="214" t="s">
         <v>292</v>
       </c>
       <c r="H17" s="33"/>
       <c r="I17" s="34"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="218"/>
-      <c r="B18" s="213"/>
+      <c r="A18" s="196"/>
+      <c r="B18" s="211"/>
       <c r="C18" s="94" t="s">
         <v>214</v>
       </c>
@@ -23455,13 +23510,13 @@
         <v>281</v>
       </c>
       <c r="F18" s="33"/>
-      <c r="G18" s="213"/>
+      <c r="G18" s="211"/>
       <c r="H18" s="33"/>
       <c r="I18" s="34"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="218"/>
-      <c r="B19" s="211" t="s">
+      <c r="A19" s="196"/>
+      <c r="B19" s="214" t="s">
         <v>115</v>
       </c>
       <c r="C19" s="99" t="s">
@@ -23472,15 +23527,15 @@
       </c>
       <c r="E19" s="33"/>
       <c r="F19" s="33"/>
-      <c r="G19" s="212" t="s">
+      <c r="G19" s="213" t="s">
         <v>291</v>
       </c>
       <c r="H19" s="33"/>
       <c r="I19" s="34"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="218"/>
-      <c r="B20" s="213"/>
+      <c r="A20" s="196"/>
+      <c r="B20" s="211"/>
       <c r="C20" s="99" t="s">
         <v>118</v>
       </c>
@@ -23489,12 +23544,12 @@
       </c>
       <c r="E20" s="33"/>
       <c r="F20" s="33"/>
-      <c r="G20" s="212"/>
+      <c r="G20" s="213"/>
       <c r="H20" s="33"/>
       <c r="I20" s="34"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="218"/>
+      <c r="A21" s="196"/>
       <c r="B21" s="129" t="s">
         <v>295</v>
       </c>
@@ -23506,13 +23561,13 @@
       </c>
       <c r="E21" s="33"/>
       <c r="F21" s="33"/>
-      <c r="G21" s="213"/>
+      <c r="G21" s="211"/>
       <c r="H21" s="33"/>
       <c r="I21" s="34"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="218"/>
-      <c r="B22" s="211" t="s">
+      <c r="A22" s="196"/>
+      <c r="B22" s="214" t="s">
         <v>225</v>
       </c>
       <c r="C22" s="94" t="s">
@@ -23523,15 +23578,15 @@
       </c>
       <c r="E22" s="33"/>
       <c r="F22" s="33"/>
-      <c r="G22" s="211" t="s">
+      <c r="G22" s="214" t="s">
         <v>285</v>
       </c>
       <c r="H22" s="33"/>
       <c r="I22" s="34"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="218"/>
-      <c r="B23" s="212"/>
+      <c r="A23" s="196"/>
+      <c r="B23" s="213"/>
       <c r="C23" s="94" t="s">
         <v>228</v>
       </c>
@@ -23540,13 +23595,13 @@
       </c>
       <c r="E23" s="33"/>
       <c r="F23" s="33"/>
-      <c r="G23" s="212"/>
+      <c r="G23" s="213"/>
       <c r="H23" s="33"/>
       <c r="I23" s="34"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="218"/>
-      <c r="B24" s="212"/>
+      <c r="A24" s="196"/>
+      <c r="B24" s="213"/>
       <c r="C24" s="94" t="s">
         <v>274</v>
       </c>
@@ -23555,13 +23610,13 @@
       </c>
       <c r="E24" s="33"/>
       <c r="F24" s="33"/>
-      <c r="G24" s="213"/>
+      <c r="G24" s="211"/>
       <c r="H24" s="33"/>
       <c r="I24" s="34"/>
     </row>
     <row r="25" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="231"/>
-      <c r="B25" s="224"/>
+      <c r="A25" s="216"/>
+      <c r="B25" s="215"/>
       <c r="C25" s="95" t="s">
         <v>230</v>
       </c>
@@ -23577,10 +23632,10 @@
       <c r="I25" s="45"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="217" t="s">
+      <c r="A26" s="195" t="s">
         <v>232</v>
       </c>
-      <c r="B26" s="223" t="s">
+      <c r="B26" s="212" t="s">
         <v>233</v>
       </c>
       <c r="C26" s="91" t="s">
@@ -23591,15 +23646,15 @@
       </c>
       <c r="E26" s="31"/>
       <c r="F26" s="31"/>
-      <c r="G26" s="223" t="s">
+      <c r="G26" s="212" t="s">
         <v>286</v>
       </c>
       <c r="H26" s="31"/>
       <c r="I26" s="32"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="218"/>
-      <c r="B27" s="212"/>
+      <c r="A27" s="196"/>
+      <c r="B27" s="213"/>
       <c r="C27" s="92" t="s">
         <v>129</v>
       </c>
@@ -23608,13 +23663,13 @@
       </c>
       <c r="E27" s="33"/>
       <c r="F27" s="33"/>
-      <c r="G27" s="213"/>
+      <c r="G27" s="211"/>
       <c r="H27" s="33"/>
       <c r="I27" s="34"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="218"/>
-      <c r="B28" s="212"/>
+      <c r="A28" s="196"/>
+      <c r="B28" s="213"/>
       <c r="C28" s="100" t="s">
         <v>236</v>
       </c>
@@ -23623,15 +23678,15 @@
       </c>
       <c r="E28" s="33"/>
       <c r="F28" s="33"/>
-      <c r="G28" s="211" t="s">
+      <c r="G28" s="214" t="s">
         <v>289</v>
       </c>
       <c r="H28" s="33"/>
       <c r="I28" s="34"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="218"/>
-      <c r="B29" s="213"/>
+      <c r="A29" s="196"/>
+      <c r="B29" s="211"/>
       <c r="C29" s="100" t="s">
         <v>125</v>
       </c>
@@ -23640,12 +23695,12 @@
       </c>
       <c r="E29" s="33"/>
       <c r="F29" s="33"/>
-      <c r="G29" s="212"/>
+      <c r="G29" s="213"/>
       <c r="H29" s="33"/>
       <c r="I29" s="34"/>
     </row>
     <row r="30" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="231"/>
+      <c r="A30" s="216"/>
       <c r="B30" s="128" t="s">
         <v>239</v>
       </c>
@@ -23659,15 +23714,15 @@
         <v>256</v>
       </c>
       <c r="F30" s="35"/>
-      <c r="G30" s="224"/>
+      <c r="G30" s="215"/>
       <c r="H30" s="35"/>
       <c r="I30" s="36"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="217" t="s">
+      <c r="A31" s="195" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="223" t="s">
+      <c r="B31" s="212" t="s">
         <v>71</v>
       </c>
       <c r="C31" s="93" t="s">
@@ -23678,15 +23733,15 @@
       </c>
       <c r="E31" s="55"/>
       <c r="F31" s="55"/>
-      <c r="G31" s="223" t="s">
+      <c r="G31" s="212" t="s">
         <v>287</v>
       </c>
       <c r="H31" s="55"/>
       <c r="I31" s="56"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="218"/>
-      <c r="B32" s="213"/>
+      <c r="A32" s="196"/>
+      <c r="B32" s="211"/>
       <c r="C32" s="89" t="s">
         <v>294</v>
       </c>
@@ -23695,13 +23750,13 @@
       </c>
       <c r="E32" s="33"/>
       <c r="F32" s="33"/>
-      <c r="G32" s="213"/>
+      <c r="G32" s="211"/>
       <c r="H32" s="33"/>
       <c r="I32" s="34"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="218"/>
-      <c r="B33" s="211" t="s">
+      <c r="A33" s="196"/>
+      <c r="B33" s="214" t="s">
         <v>257</v>
       </c>
       <c r="C33" s="97" t="s">
@@ -23712,15 +23767,15 @@
       </c>
       <c r="E33" s="33"/>
       <c r="F33" s="33"/>
-      <c r="G33" s="211" t="s">
+      <c r="G33" s="214" t="s">
         <v>288</v>
       </c>
       <c r="H33" s="33"/>
       <c r="I33" s="34"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="218"/>
-      <c r="B34" s="212"/>
+      <c r="A34" s="196"/>
+      <c r="B34" s="213"/>
       <c r="C34" s="97" t="s">
         <v>260</v>
       </c>
@@ -23729,13 +23784,13 @@
       </c>
       <c r="E34" s="33"/>
       <c r="F34" s="33"/>
-      <c r="G34" s="212"/>
+      <c r="G34" s="213"/>
       <c r="H34" s="33"/>
       <c r="I34" s="34"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="218"/>
-      <c r="B35" s="213"/>
+      <c r="A35" s="196"/>
+      <c r="B35" s="211"/>
       <c r="C35" s="97" t="s">
         <v>259</v>
       </c>
@@ -23746,13 +23801,13 @@
         <v>264</v>
       </c>
       <c r="F35" s="33"/>
-      <c r="G35" s="213"/>
+      <c r="G35" s="211"/>
       <c r="H35" s="33"/>
       <c r="I35" s="34"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="218"/>
-      <c r="B36" s="211" t="s">
+      <c r="A36" s="196"/>
+      <c r="B36" s="214" t="s">
         <v>242</v>
       </c>
       <c r="C36" s="99" t="s">
@@ -23765,15 +23820,15 @@
         <v>245</v>
       </c>
       <c r="F36" s="33"/>
-      <c r="G36" s="211" t="s">
+      <c r="G36" s="214" t="s">
         <v>291</v>
       </c>
       <c r="H36" s="33"/>
       <c r="I36" s="34"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="218"/>
-      <c r="B37" s="213"/>
+      <c r="A37" s="196"/>
+      <c r="B37" s="211"/>
       <c r="C37" s="99" t="s">
         <v>246</v>
       </c>
@@ -23784,13 +23839,13 @@
         <v>248</v>
       </c>
       <c r="F37" s="33"/>
-      <c r="G37" s="212"/>
+      <c r="G37" s="213"/>
       <c r="H37" s="33"/>
       <c r="I37" s="34"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="218"/>
-      <c r="B38" s="211" t="s">
+      <c r="A38" s="196"/>
+      <c r="B38" s="214" t="s">
         <v>270</v>
       </c>
       <c r="C38" s="95" t="s">
@@ -23803,13 +23858,13 @@
         <v>250</v>
       </c>
       <c r="F38" s="44"/>
-      <c r="G38" s="212"/>
+      <c r="G38" s="213"/>
       <c r="H38" s="44"/>
       <c r="I38" s="45"/>
     </row>
     <row r="39" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="231"/>
-      <c r="B39" s="224"/>
+      <c r="A39" s="216"/>
+      <c r="B39" s="215"/>
       <c r="C39" s="95" t="s">
         <v>272</v>
       </c>
@@ -23820,7 +23875,7 @@
         <v>252</v>
       </c>
       <c r="F39" s="44"/>
-      <c r="G39" s="224"/>
+      <c r="G39" s="215"/>
       <c r="H39" s="44"/>
       <c r="I39" s="45"/>
     </row>
@@ -24076,6 +24131,23 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="G4:G9"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="A10:A25"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B22:B25"/>
     <mergeCell ref="G28:G30"/>
     <mergeCell ref="G31:G32"/>
     <mergeCell ref="G33:G35"/>
@@ -24088,23 +24160,6 @@
     <mergeCell ref="B36:B37"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="G26:G27"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="G4:G9"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="A10:A25"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="G22:G24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24154,52 +24209,52 @@
       <c r="O1" s="84"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="233" t="s">
+      <c r="A2" s="222" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="235" t="s">
+      <c r="B2" s="217" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="235" t="s">
+      <c r="C2" s="217" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="235" t="s">
+      <c r="D2" s="217" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="235" t="s">
+      <c r="E2" s="217" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="235" t="s">
+      <c r="F2" s="217" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="235" t="s">
+      <c r="G2" s="217" t="s">
         <v>277</v>
       </c>
-      <c r="H2" s="237" t="s">
+      <c r="H2" s="219" t="s">
         <v>276</v>
       </c>
-      <c r="I2" s="238"/>
-      <c r="J2" s="239"/>
-      <c r="K2" s="235" t="s">
+      <c r="I2" s="220"/>
+      <c r="J2" s="221"/>
+      <c r="K2" s="217" t="s">
         <v>275</v>
       </c>
-      <c r="L2" s="235" t="s">
+      <c r="L2" s="217" t="s">
         <v>278</v>
       </c>
-      <c r="M2" s="237" t="s">
+      <c r="M2" s="219" t="s">
         <v>279</v>
       </c>
-      <c r="N2" s="238"/>
-      <c r="O2" s="239"/>
+      <c r="N2" s="220"/>
+      <c r="O2" s="221"/>
     </row>
     <row r="3" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="234"/>
-      <c r="B3" s="236"/>
-      <c r="C3" s="236"/>
-      <c r="D3" s="236"/>
-      <c r="E3" s="236"/>
-      <c r="F3" s="236"/>
-      <c r="G3" s="236"/>
+      <c r="A3" s="223"/>
+      <c r="B3" s="218"/>
+      <c r="C3" s="218"/>
+      <c r="D3" s="218"/>
+      <c r="E3" s="218"/>
+      <c r="F3" s="218"/>
+      <c r="G3" s="218"/>
       <c r="H3" s="122" t="s">
         <v>297</v>
       </c>
@@ -24209,8 +24264,8 @@
       <c r="J3" s="122" t="s">
         <v>299</v>
       </c>
-      <c r="K3" s="236"/>
-      <c r="L3" s="236"/>
+      <c r="K3" s="218"/>
+      <c r="L3" s="218"/>
       <c r="M3" s="122" t="s">
         <v>300</v>
       </c>
@@ -24239,10 +24294,10 @@
       <c r="O4" s="86"/>
     </row>
     <row r="5" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="232" t="s">
+      <c r="A5" s="224" t="s">
         <v>356</v>
       </c>
-      <c r="B5" s="223" t="s">
+      <c r="B5" s="212" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="88" t="s">
@@ -24251,7 +24306,7 @@
       <c r="D5" s="85">
         <v>1</v>
       </c>
-      <c r="E5" s="223" t="s">
+      <c r="E5" s="212" t="s">
         <v>284</v>
       </c>
       <c r="F5" s="85"/>
@@ -24270,15 +24325,15 @@
       <c r="O5" s="110"/>
     </row>
     <row r="6" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="218"/>
-      <c r="B6" s="212"/>
+      <c r="A6" s="196"/>
+      <c r="B6" s="213"/>
       <c r="C6" s="89" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="81">
         <v>1</v>
       </c>
-      <c r="E6" s="212"/>
+      <c r="E6" s="213"/>
       <c r="F6" s="81"/>
       <c r="G6" s="113" t="s">
         <v>316</v>
@@ -24295,15 +24350,15 @@
       <c r="O6" s="107"/>
     </row>
     <row r="7" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="218"/>
-      <c r="B7" s="213"/>
+      <c r="A7" s="196"/>
+      <c r="B7" s="211"/>
       <c r="C7" s="89" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="81">
         <v>1</v>
       </c>
-      <c r="E7" s="212"/>
+      <c r="E7" s="213"/>
       <c r="F7" s="81"/>
       <c r="G7" s="113" t="s">
         <v>316</v>
@@ -24320,8 +24375,8 @@
       <c r="O7" s="107"/>
     </row>
     <row r="8" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="218"/>
-      <c r="B8" s="211" t="s">
+      <c r="A8" s="196"/>
+      <c r="B8" s="214" t="s">
         <v>253</v>
       </c>
       <c r="C8" s="89" t="s">
@@ -24330,7 +24385,7 @@
       <c r="D8" s="81">
         <v>1</v>
       </c>
-      <c r="E8" s="212"/>
+      <c r="E8" s="213"/>
       <c r="F8" s="81"/>
       <c r="G8" s="107" t="s">
         <v>318</v>
@@ -24347,15 +24402,15 @@
       <c r="O8" s="107"/>
     </row>
     <row r="9" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="218"/>
-      <c r="B9" s="212"/>
+      <c r="A9" s="196"/>
+      <c r="B9" s="213"/>
       <c r="C9" s="89" t="s">
         <v>254</v>
       </c>
       <c r="D9" s="81">
         <v>1</v>
       </c>
-      <c r="E9" s="212"/>
+      <c r="E9" s="213"/>
       <c r="F9" s="81"/>
       <c r="G9" s="107" t="s">
         <v>319</v>
@@ -24372,15 +24427,15 @@
       <c r="O9" s="107"/>
     </row>
     <row r="10" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="231"/>
-      <c r="B10" s="224"/>
+      <c r="A10" s="216"/>
+      <c r="B10" s="215"/>
       <c r="C10" s="90" t="s">
         <v>253</v>
       </c>
       <c r="D10" s="87">
         <v>1</v>
       </c>
-      <c r="E10" s="224"/>
+      <c r="E10" s="215"/>
       <c r="F10" s="87"/>
       <c r="G10" s="107" t="s">
         <v>319</v>
@@ -24397,10 +24452,10 @@
       <c r="O10" s="111"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="232" t="s">
+      <c r="A11" s="224" t="s">
         <v>357</v>
       </c>
-      <c r="B11" s="223" t="s">
+      <c r="B11" s="212" t="s">
         <v>103</v>
       </c>
       <c r="C11" s="96" t="s">
@@ -24409,7 +24464,7 @@
       <c r="D11" s="85">
         <v>2</v>
       </c>
-      <c r="E11" s="223" t="s">
+      <c r="E11" s="212" t="s">
         <v>288</v>
       </c>
       <c r="F11" s="85"/>
@@ -24428,15 +24483,15 @@
       <c r="O11" s="110"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="218"/>
-      <c r="B12" s="212"/>
+      <c r="A12" s="196"/>
+      <c r="B12" s="213"/>
       <c r="C12" s="97" t="s">
         <v>203</v>
       </c>
       <c r="D12" s="81">
         <v>1</v>
       </c>
-      <c r="E12" s="212"/>
+      <c r="E12" s="213"/>
       <c r="F12" s="81"/>
       <c r="G12" s="107" t="s">
         <v>348</v>
@@ -24453,15 +24508,15 @@
       <c r="O12" s="107"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="218"/>
-      <c r="B13" s="212"/>
+      <c r="A13" s="196"/>
+      <c r="B13" s="213"/>
       <c r="C13" s="97" t="s">
         <v>206</v>
       </c>
       <c r="D13" s="81">
         <v>1</v>
       </c>
-      <c r="E13" s="212"/>
+      <c r="E13" s="213"/>
       <c r="F13" s="81"/>
       <c r="G13" s="107" t="s">
         <v>348</v>
@@ -24478,15 +24533,15 @@
       <c r="O13" s="107"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="218"/>
-      <c r="B14" s="213"/>
+      <c r="A14" s="196"/>
+      <c r="B14" s="211"/>
       <c r="C14" s="97" t="s">
         <v>209</v>
       </c>
       <c r="D14" s="81">
         <v>2</v>
       </c>
-      <c r="E14" s="213"/>
+      <c r="E14" s="211"/>
       <c r="F14" s="81"/>
       <c r="G14" s="107" t="s">
         <v>350</v>
@@ -24503,8 +24558,8 @@
       <c r="O14" s="107"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="218"/>
-      <c r="B15" s="211" t="s">
+      <c r="A15" s="196"/>
+      <c r="B15" s="214" t="s">
         <v>111</v>
       </c>
       <c r="C15" s="98" t="s">
@@ -24513,7 +24568,7 @@
       <c r="D15" s="81">
         <v>2</v>
       </c>
-      <c r="E15" s="211" t="s">
+      <c r="E15" s="214" t="s">
         <v>288</v>
       </c>
       <c r="F15" s="81"/>
@@ -24532,15 +24587,15 @@
       <c r="O15" s="107"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="218"/>
-      <c r="B16" s="212"/>
+      <c r="A16" s="196"/>
+      <c r="B16" s="213"/>
       <c r="C16" s="97" t="s">
         <v>220</v>
       </c>
       <c r="D16" s="81">
         <v>1</v>
       </c>
-      <c r="E16" s="212"/>
+      <c r="E16" s="213"/>
       <c r="F16" s="81"/>
       <c r="G16" s="107" t="s">
         <v>348</v>
@@ -24557,15 +24612,15 @@
       <c r="O16" s="107"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="218"/>
-      <c r="B17" s="212"/>
+      <c r="A17" s="196"/>
+      <c r="B17" s="213"/>
       <c r="C17" s="97" t="s">
         <v>222</v>
       </c>
       <c r="D17" s="81">
         <v>1</v>
       </c>
-      <c r="E17" s="213"/>
+      <c r="E17" s="211"/>
       <c r="F17" s="81"/>
       <c r="G17" s="107" t="s">
         <v>348</v>
@@ -24582,8 +24637,8 @@
       <c r="O17" s="107"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="218"/>
-      <c r="B18" s="211" t="s">
+      <c r="A18" s="196"/>
+      <c r="B18" s="214" t="s">
         <v>180</v>
       </c>
       <c r="C18" s="94" t="s">
@@ -24592,7 +24647,7 @@
       <c r="D18" s="81">
         <v>1</v>
       </c>
-      <c r="E18" s="211" t="s">
+      <c r="E18" s="214" t="s">
         <v>292</v>
       </c>
       <c r="F18" s="81"/>
@@ -24611,15 +24666,15 @@
       <c r="O18" s="107"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="218"/>
-      <c r="B19" s="213"/>
+      <c r="A19" s="196"/>
+      <c r="B19" s="211"/>
       <c r="C19" s="94" t="s">
         <v>184</v>
       </c>
       <c r="D19" s="81">
         <v>2</v>
       </c>
-      <c r="E19" s="213"/>
+      <c r="E19" s="211"/>
       <c r="F19" s="81"/>
       <c r="G19" s="107" t="s">
         <v>345</v>
@@ -24636,8 +24691,8 @@
       <c r="O19" s="107"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="218"/>
-      <c r="B20" s="211" t="s">
+      <c r="A20" s="196"/>
+      <c r="B20" s="214" t="s">
         <v>115</v>
       </c>
       <c r="C20" s="99" t="s">
@@ -24646,7 +24701,7 @@
       <c r="D20" s="81">
         <v>1</v>
       </c>
-      <c r="E20" s="212" t="s">
+      <c r="E20" s="213" t="s">
         <v>307</v>
       </c>
       <c r="F20" s="81"/>
@@ -24665,15 +24720,15 @@
       <c r="O20" s="107"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="218"/>
-      <c r="B21" s="213"/>
+      <c r="A21" s="196"/>
+      <c r="B21" s="211"/>
       <c r="C21" s="99" t="s">
         <v>118</v>
       </c>
       <c r="D21" s="81">
         <v>2</v>
       </c>
-      <c r="E21" s="212"/>
+      <c r="E21" s="213"/>
       <c r="F21" s="81"/>
       <c r="G21" s="107" t="s">
         <v>330</v>
@@ -24690,7 +24745,7 @@
       <c r="O21" s="107"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="218"/>
+      <c r="A22" s="196"/>
       <c r="B22" s="126" t="s">
         <v>302</v>
       </c>
@@ -24700,7 +24755,7 @@
       <c r="D22" s="81">
         <v>1</v>
       </c>
-      <c r="E22" s="213"/>
+      <c r="E22" s="211"/>
       <c r="F22" s="81"/>
       <c r="G22" s="107" t="s">
         <v>333</v>
@@ -24717,8 +24772,8 @@
       <c r="O22" s="107"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="218"/>
-      <c r="B23" s="211" t="s">
+      <c r="A23" s="196"/>
+      <c r="B23" s="214" t="s">
         <v>43</v>
       </c>
       <c r="C23" s="94" t="s">
@@ -24727,7 +24782,7 @@
       <c r="D23" s="81">
         <v>3</v>
       </c>
-      <c r="E23" s="211" t="s">
+      <c r="E23" s="214" t="s">
         <v>285</v>
       </c>
       <c r="F23" s="81"/>
@@ -24746,15 +24801,15 @@
       <c r="O23" s="107"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="218"/>
-      <c r="B24" s="212"/>
+      <c r="A24" s="196"/>
+      <c r="B24" s="213"/>
       <c r="C24" s="94" t="s">
         <v>178</v>
       </c>
       <c r="D24" s="81">
         <v>3</v>
       </c>
-      <c r="E24" s="212"/>
+      <c r="E24" s="213"/>
       <c r="F24" s="81"/>
       <c r="G24" s="107" t="s">
         <v>321</v>
@@ -24771,15 +24826,15 @@
       <c r="O24" s="107"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="218"/>
-      <c r="B25" s="212"/>
+      <c r="A25" s="196"/>
+      <c r="B25" s="213"/>
       <c r="C25" s="94" t="s">
         <v>280</v>
       </c>
       <c r="D25" s="81">
         <v>3</v>
       </c>
-      <c r="E25" s="213"/>
+      <c r="E25" s="211"/>
       <c r="F25" s="81"/>
       <c r="G25" s="107" t="s">
         <v>321</v>
@@ -24796,8 +24851,8 @@
       <c r="O25" s="107"/>
     </row>
     <row r="26" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="231"/>
-      <c r="B26" s="224"/>
+      <c r="A26" s="216"/>
+      <c r="B26" s="215"/>
       <c r="C26" s="95" t="s">
         <v>273</v>
       </c>
@@ -24823,10 +24878,10 @@
       <c r="O26" s="112"/>
     </row>
     <row r="27" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="232" t="s">
+      <c r="A27" s="224" t="s">
         <v>358</v>
       </c>
-      <c r="B27" s="223" t="s">
+      <c r="B27" s="212" t="s">
         <v>127</v>
       </c>
       <c r="C27" s="91" t="s">
@@ -24835,7 +24890,7 @@
       <c r="D27" s="85">
         <v>1</v>
       </c>
-      <c r="E27" s="223" t="s">
+      <c r="E27" s="212" t="s">
         <v>286</v>
       </c>
       <c r="F27" s="85"/>
@@ -24854,15 +24909,15 @@
       <c r="O27" s="110"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="218"/>
-      <c r="B28" s="212"/>
+      <c r="A28" s="196"/>
+      <c r="B28" s="213"/>
       <c r="C28" s="92" t="s">
         <v>129</v>
       </c>
       <c r="D28" s="81">
         <v>1</v>
       </c>
-      <c r="E28" s="213"/>
+      <c r="E28" s="211"/>
       <c r="F28" s="81"/>
       <c r="G28" s="110" t="s">
         <v>324</v>
@@ -24879,15 +24934,15 @@
       <c r="O28" s="107"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="218"/>
-      <c r="B29" s="212"/>
+      <c r="A29" s="196"/>
+      <c r="B29" s="213"/>
       <c r="C29" s="100" t="s">
         <v>132</v>
       </c>
       <c r="D29" s="81">
         <v>3</v>
       </c>
-      <c r="E29" s="211" t="s">
+      <c r="E29" s="214" t="s">
         <v>289</v>
       </c>
       <c r="F29" s="81"/>
@@ -24906,15 +24961,15 @@
       <c r="O29" s="107"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="218"/>
-      <c r="B30" s="213"/>
+      <c r="A30" s="196"/>
+      <c r="B30" s="211"/>
       <c r="C30" s="100" t="s">
         <v>125</v>
       </c>
       <c r="D30" s="81">
         <v>3</v>
       </c>
-      <c r="E30" s="212"/>
+      <c r="E30" s="213"/>
       <c r="F30" s="81"/>
       <c r="G30" s="107" t="s">
         <v>337</v>
@@ -24931,7 +24986,7 @@
       <c r="O30" s="107"/>
     </row>
     <row r="31" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="231"/>
+      <c r="A31" s="216"/>
       <c r="B31" s="87" t="s">
         <v>139</v>
       </c>
@@ -24941,7 +24996,7 @@
       <c r="D31" s="87">
         <v>2</v>
       </c>
-      <c r="E31" s="224"/>
+      <c r="E31" s="215"/>
       <c r="F31" s="87"/>
       <c r="G31" s="111" t="s">
         <v>338</v>
@@ -24958,10 +25013,10 @@
       <c r="O31" s="111"/>
     </row>
     <row r="32" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="232" t="s">
+      <c r="A32" s="224" t="s">
         <v>359</v>
       </c>
-      <c r="B32" s="223" t="s">
+      <c r="B32" s="212" t="s">
         <v>71</v>
       </c>
       <c r="C32" s="93" t="s">
@@ -24970,7 +25025,7 @@
       <c r="D32" s="83">
         <v>3</v>
       </c>
-      <c r="E32" s="223" t="s">
+      <c r="E32" s="212" t="s">
         <v>287</v>
       </c>
       <c r="F32" s="83"/>
@@ -24989,15 +25044,15 @@
       <c r="O32" s="113"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="218"/>
-      <c r="B33" s="213"/>
+      <c r="A33" s="196"/>
+      <c r="B33" s="211"/>
       <c r="C33" s="89" t="s">
         <v>293</v>
       </c>
       <c r="D33" s="81">
         <v>3</v>
       </c>
-      <c r="E33" s="213"/>
+      <c r="E33" s="211"/>
       <c r="F33" s="81"/>
       <c r="G33" s="123" t="s">
         <v>326</v>
@@ -25014,8 +25069,8 @@
       <c r="O33" s="107"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="218"/>
-      <c r="B34" s="211" t="s">
+      <c r="A34" s="196"/>
+      <c r="B34" s="214" t="s">
         <v>257</v>
       </c>
       <c r="C34" s="97" t="s">
@@ -25024,7 +25079,7 @@
       <c r="D34" s="81">
         <v>2</v>
       </c>
-      <c r="E34" s="211" t="s">
+      <c r="E34" s="214" t="s">
         <v>288</v>
       </c>
       <c r="F34" s="81"/>
@@ -25043,15 +25098,15 @@
       <c r="O34" s="107"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="218"/>
-      <c r="B35" s="212"/>
+      <c r="A35" s="196"/>
+      <c r="B35" s="213"/>
       <c r="C35" s="97" t="s">
         <v>260</v>
       </c>
       <c r="D35" s="81">
         <v>2</v>
       </c>
-      <c r="E35" s="212"/>
+      <c r="E35" s="213"/>
       <c r="F35" s="81"/>
       <c r="G35" s="107" t="s">
         <v>353</v>
@@ -25068,15 +25123,15 @@
       <c r="O35" s="107"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="218"/>
-      <c r="B36" s="213"/>
+      <c r="A36" s="196"/>
+      <c r="B36" s="211"/>
       <c r="C36" s="97" t="s">
         <v>259</v>
       </c>
       <c r="D36" s="81">
         <v>2</v>
       </c>
-      <c r="E36" s="213"/>
+      <c r="E36" s="211"/>
       <c r="F36" s="81"/>
       <c r="G36" s="107" t="s">
         <v>354</v>
@@ -25093,8 +25148,8 @@
       <c r="O36" s="107"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="218"/>
-      <c r="B37" s="211" t="s">
+      <c r="A37" s="196"/>
+      <c r="B37" s="214" t="s">
         <v>154</v>
       </c>
       <c r="C37" s="99" t="s">
@@ -25103,7 +25158,7 @@
       <c r="D37" s="81">
         <v>2</v>
       </c>
-      <c r="E37" s="211" t="s">
+      <c r="E37" s="214" t="s">
         <v>291</v>
       </c>
       <c r="F37" s="81"/>
@@ -25122,15 +25177,15 @@
       <c r="O37" s="107"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="218"/>
-      <c r="B38" s="213"/>
+      <c r="A38" s="196"/>
+      <c r="B38" s="211"/>
       <c r="C38" s="99" t="s">
         <v>92</v>
       </c>
       <c r="D38" s="81">
         <v>3</v>
       </c>
-      <c r="E38" s="212"/>
+      <c r="E38" s="213"/>
       <c r="F38" s="81"/>
       <c r="G38" s="107" t="s">
         <v>337</v>
@@ -25147,8 +25202,8 @@
       <c r="O38" s="107"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="218"/>
-      <c r="B39" s="211" t="s">
+      <c r="A39" s="196"/>
+      <c r="B39" s="214" t="s">
         <v>269</v>
       </c>
       <c r="C39" s="95" t="s">
@@ -25157,7 +25212,7 @@
       <c r="D39" s="82">
         <v>2</v>
       </c>
-      <c r="E39" s="212"/>
+      <c r="E39" s="213"/>
       <c r="F39" s="82"/>
       <c r="G39" s="107" t="s">
         <v>341</v>
@@ -25174,15 +25229,15 @@
       <c r="O39" s="112"/>
     </row>
     <row r="40" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="231"/>
-      <c r="B40" s="224"/>
+      <c r="A40" s="216"/>
+      <c r="B40" s="215"/>
       <c r="C40" s="95" t="s">
         <v>272</v>
       </c>
       <c r="D40" s="82">
         <v>3</v>
       </c>
-      <c r="E40" s="224"/>
+      <c r="E40" s="215"/>
       <c r="F40" s="82"/>
       <c r="G40" s="112" t="s">
         <v>340</v>
@@ -25574,16 +25629,18 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="A32:A40"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="E37:E40"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="E23:E25"/>
     <mergeCell ref="E27:E28"/>
@@ -25600,18 +25657,16 @@
     <mergeCell ref="A11:A26"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="E37:E40"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="A32:A40"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25623,8 +25678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -25635,64 +25690,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="253" t="s">
+      <c r="A1" s="225" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="253" t="s">
+      <c r="B1" s="225" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="256" t="s">
+      <c r="C1" s="249" t="s">
         <v>416</v>
       </c>
-      <c r="D1" s="253" t="s">
+      <c r="D1" s="225" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="253" t="s">
+      <c r="E1" s="225" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="243" t="s">
+      <c r="F1" s="253" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="244"/>
-      <c r="H1" s="244"/>
-      <c r="I1" s="245"/>
-      <c r="J1" s="240" t="s">
+      <c r="G1" s="254"/>
+      <c r="H1" s="254"/>
+      <c r="I1" s="255"/>
+      <c r="J1" s="250" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="241"/>
-      <c r="L1" s="241"/>
-      <c r="M1" s="242"/>
+      <c r="K1" s="251"/>
+      <c r="L1" s="251"/>
+      <c r="M1" s="252"/>
     </row>
     <row r="2" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="255"/>
-      <c r="B2" s="255"/>
-      <c r="C2" s="255"/>
-      <c r="D2" s="255"/>
-      <c r="E2" s="255"/>
-      <c r="F2" s="253" t="s">
+      <c r="A2" s="226"/>
+      <c r="B2" s="226"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="226"/>
+      <c r="F2" s="225" t="s">
         <v>361</v>
       </c>
-      <c r="G2" s="240" t="s">
+      <c r="G2" s="250" t="s">
         <v>362</v>
       </c>
-      <c r="H2" s="241"/>
-      <c r="I2" s="242"/>
-      <c r="J2" s="249" t="s">
+      <c r="H2" s="251"/>
+      <c r="I2" s="252"/>
+      <c r="J2" s="256" t="s">
         <v>361</v>
       </c>
-      <c r="K2" s="240" t="s">
+      <c r="K2" s="250" t="s">
         <v>362</v>
       </c>
-      <c r="L2" s="241"/>
-      <c r="M2" s="242"/>
+      <c r="L2" s="251"/>
+      <c r="M2" s="252"/>
     </row>
     <row r="3" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="254"/>
-      <c r="B3" s="254"/>
-      <c r="C3" s="254"/>
-      <c r="D3" s="254"/>
-      <c r="E3" s="254"/>
-      <c r="F3" s="254"/>
+      <c r="A3" s="227"/>
+      <c r="B3" s="227"/>
+      <c r="C3" s="227"/>
+      <c r="D3" s="227"/>
+      <c r="E3" s="227"/>
+      <c r="F3" s="227"/>
       <c r="G3" s="158" t="s">
         <v>363</v>
       </c>
@@ -25702,7 +25757,7 @@
       <c r="I3" s="163" t="s">
         <v>365</v>
       </c>
-      <c r="J3" s="250"/>
+      <c r="J3" s="257"/>
       <c r="K3" s="158" t="s">
         <v>363</v>
       </c>
@@ -25729,10 +25784,10 @@
       <c r="M4" s="157"/>
     </row>
     <row r="5" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="270" t="s">
+      <c r="A5" s="230" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="251" t="s">
+      <c r="B5" s="233" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="136" t="s">
@@ -25741,20 +25796,20 @@
       <c r="D5" s="137">
         <v>1</v>
       </c>
-      <c r="E5" s="251" t="s">
+      <c r="E5" s="233" t="s">
         <v>366</v>
       </c>
       <c r="F5" s="137" t="s">
         <v>384</v>
       </c>
       <c r="G5" s="147" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H5" s="147" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="I5" s="147" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="J5" s="148" t="s">
         <v>385</v>
@@ -25770,23 +25825,23 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="271"/>
-      <c r="B6" s="247"/>
+      <c r="A6" s="231"/>
+      <c r="B6" s="235"/>
       <c r="C6" s="139" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="140">
         <v>1</v>
       </c>
-      <c r="E6" s="247"/>
+      <c r="E6" s="235"/>
       <c r="F6" s="140" t="s">
         <v>384</v>
       </c>
       <c r="G6" s="151" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H6" s="152" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="I6" s="152" t="s">
         <v>371</v>
@@ -25805,20 +25860,20 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="271"/>
-      <c r="B7" s="248"/>
+      <c r="A7" s="231"/>
+      <c r="B7" s="234"/>
       <c r="C7" s="139" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="140">
         <v>1</v>
       </c>
-      <c r="E7" s="247"/>
+      <c r="E7" s="235"/>
       <c r="F7" s="140" t="s">
         <v>384</v>
       </c>
       <c r="G7" s="151" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H7" s="152" t="s">
         <v>368</v>
@@ -25840,7 +25895,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="272"/>
+      <c r="A8" s="232"/>
       <c r="B8" s="144" t="s">
         <v>265</v>
       </c>
@@ -25850,7 +25905,7 @@
       <c r="D8" s="143">
         <v>1</v>
       </c>
-      <c r="E8" s="252"/>
+      <c r="E8" s="229"/>
       <c r="F8" s="143" t="s">
         <v>386</v>
       </c>
@@ -25877,10 +25932,10 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="270" t="s">
+      <c r="A9" s="230" t="s">
         <v>387</v>
       </c>
-      <c r="B9" s="251" t="s">
+      <c r="B9" s="233" t="s">
         <v>388</v>
       </c>
       <c r="C9" s="136" t="s">
@@ -25889,7 +25944,7 @@
       <c r="D9" s="137">
         <v>2</v>
       </c>
-      <c r="E9" s="251" t="s">
+      <c r="E9" s="233" t="s">
         <v>288</v>
       </c>
       <c r="F9" s="137" t="s">
@@ -25899,10 +25954,10 @@
         <v>419</v>
       </c>
       <c r="H9" s="149" t="s">
+        <v>437</v>
+      </c>
+      <c r="I9" s="164" t="s">
         <v>439</v>
-      </c>
-      <c r="I9" s="164" t="s">
-        <v>441</v>
       </c>
       <c r="J9" s="149" t="s">
         <v>385</v>
@@ -25918,15 +25973,15 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="271"/>
-      <c r="B10" s="247"/>
+      <c r="A10" s="231"/>
+      <c r="B10" s="235"/>
       <c r="C10" s="139" t="s">
         <v>391</v>
       </c>
       <c r="D10" s="140">
         <v>1</v>
       </c>
-      <c r="E10" s="247"/>
+      <c r="E10" s="235"/>
       <c r="F10" s="140" t="s">
         <v>386</v>
       </c>
@@ -25934,10 +25989,10 @@
         <v>420</v>
       </c>
       <c r="H10" s="152" t="s">
-        <v>439</v>
-      </c>
-      <c r="I10" s="197" t="s">
-        <v>438</v>
+        <v>437</v>
+      </c>
+      <c r="I10" s="182" t="s">
+        <v>436</v>
       </c>
       <c r="J10" s="152" t="s">
         <v>385</v>
@@ -25953,15 +26008,15 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="271"/>
-      <c r="B11" s="247"/>
+      <c r="A11" s="231"/>
+      <c r="B11" s="235"/>
       <c r="C11" s="139" t="s">
         <v>392</v>
       </c>
       <c r="D11" s="140">
         <v>1</v>
       </c>
-      <c r="E11" s="247"/>
+      <c r="E11" s="235"/>
       <c r="F11" s="140" t="s">
         <v>386</v>
       </c>
@@ -25988,15 +26043,15 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="271"/>
-      <c r="B12" s="248"/>
+      <c r="A12" s="231"/>
+      <c r="B12" s="234"/>
       <c r="C12" s="139" t="s">
         <v>393</v>
       </c>
       <c r="D12" s="140">
         <v>2</v>
       </c>
-      <c r="E12" s="248"/>
+      <c r="E12" s="234"/>
       <c r="F12" s="140" t="s">
         <v>390</v>
       </c>
@@ -26007,7 +26062,7 @@
         <v>368</v>
       </c>
       <c r="I12" s="152" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="J12" s="152" t="s">
         <v>385</v>
@@ -26023,8 +26078,8 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="271"/>
-      <c r="B13" s="246" t="s">
+      <c r="A13" s="231"/>
+      <c r="B13" s="228" t="s">
         <v>394</v>
       </c>
       <c r="C13" s="139" t="s">
@@ -26033,7 +26088,7 @@
       <c r="D13" s="140">
         <v>2</v>
       </c>
-      <c r="E13" s="246" t="s">
+      <c r="E13" s="228" t="s">
         <v>288</v>
       </c>
       <c r="F13" s="140" t="s">
@@ -26062,15 +26117,15 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="271"/>
-      <c r="B14" s="247"/>
+      <c r="A14" s="231"/>
+      <c r="B14" s="235"/>
       <c r="C14" s="139" t="s">
         <v>396</v>
       </c>
       <c r="D14" s="140">
         <v>1</v>
       </c>
-      <c r="E14" s="247"/>
+      <c r="E14" s="235"/>
       <c r="F14" s="140" t="s">
         <v>386</v>
       </c>
@@ -26097,20 +26152,20 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="271"/>
-      <c r="B15" s="248"/>
+      <c r="A15" s="231"/>
+      <c r="B15" s="234"/>
       <c r="C15" s="139" t="s">
         <v>397</v>
       </c>
       <c r="D15" s="140">
         <v>1</v>
       </c>
-      <c r="E15" s="248"/>
+      <c r="E15" s="234"/>
       <c r="F15" s="140" t="s">
         <v>386</v>
       </c>
-      <c r="G15" s="197" t="s">
-        <v>437</v>
+      <c r="G15" s="182" t="s">
+        <v>435</v>
       </c>
       <c r="H15" s="152" t="s">
         <v>368</v>
@@ -26132,8 +26187,8 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="271"/>
-      <c r="B16" s="251" t="s">
+      <c r="A16" s="231"/>
+      <c r="B16" s="233" t="s">
         <v>266</v>
       </c>
       <c r="C16" s="136" t="s">
@@ -26142,20 +26197,20 @@
       <c r="D16" s="137">
         <v>1</v>
       </c>
-      <c r="E16" s="251" t="s">
+      <c r="E16" s="233" t="s">
         <v>399</v>
       </c>
       <c r="F16" s="137" t="s">
         <v>386</v>
       </c>
       <c r="G16" s="147" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="H16" s="164" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="I16" s="164" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="J16" s="149" t="s">
         <v>400</v>
@@ -26171,26 +26226,26 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="271"/>
-      <c r="B17" s="248"/>
+      <c r="A17" s="231"/>
+      <c r="B17" s="234"/>
       <c r="C17" s="139" t="s">
         <v>402</v>
       </c>
       <c r="D17" s="140">
         <v>2</v>
       </c>
-      <c r="E17" s="248"/>
+      <c r="E17" s="234"/>
       <c r="F17" s="140" t="s">
         <v>400</v>
       </c>
-      <c r="G17" s="197" t="s">
-        <v>456</v>
-      </c>
-      <c r="H17" s="197" t="s">
-        <v>457</v>
-      </c>
-      <c r="I17" s="197" t="s">
-        <v>457</v>
+      <c r="G17" s="182" t="s">
+        <v>453</v>
+      </c>
+      <c r="H17" s="182" t="s">
+        <v>454</v>
+      </c>
+      <c r="I17" s="182" t="s">
+        <v>454</v>
       </c>
       <c r="J17" s="152" t="s">
         <v>367</v>
@@ -26206,8 +26261,8 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="271"/>
-      <c r="B18" s="246" t="s">
+      <c r="A18" s="231"/>
+      <c r="B18" s="228" t="s">
         <v>115</v>
       </c>
       <c r="C18" s="139" t="s">
@@ -26216,20 +26271,20 @@
       <c r="D18" s="140">
         <v>1</v>
       </c>
-      <c r="E18" s="246" t="s">
+      <c r="E18" s="228" t="s">
         <v>376</v>
       </c>
       <c r="F18" s="140" t="s">
         <v>404</v>
       </c>
       <c r="G18" s="151" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H18" s="152" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="I18" s="152" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="J18" s="152" t="s">
         <v>385</v>
@@ -26245,15 +26300,15 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="271"/>
-      <c r="B19" s="248"/>
+      <c r="A19" s="231"/>
+      <c r="B19" s="234"/>
       <c r="C19" s="139" t="s">
         <v>118</v>
       </c>
       <c r="D19" s="140">
         <v>2</v>
       </c>
-      <c r="E19" s="247"/>
+      <c r="E19" s="235"/>
       <c r="F19" s="140" t="s">
         <v>404</v>
       </c>
@@ -26261,7 +26316,7 @@
         <v>419</v>
       </c>
       <c r="H19" s="152" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="I19" s="152" t="s">
         <v>368</v>
@@ -26280,7 +26335,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="271"/>
+      <c r="A20" s="231"/>
       <c r="B20" s="146" t="s">
         <v>405</v>
       </c>
@@ -26290,7 +26345,7 @@
       <c r="D20" s="140">
         <v>1</v>
       </c>
-      <c r="E20" s="248"/>
+      <c r="E20" s="234"/>
       <c r="F20" s="140" t="s">
         <v>390</v>
       </c>
@@ -26301,7 +26356,7 @@
         <v>383</v>
       </c>
       <c r="I20" s="152" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="J20" s="152" t="s">
         <v>385</v>
@@ -26317,8 +26372,8 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="271"/>
-      <c r="B21" s="246" t="s">
+      <c r="A21" s="231"/>
+      <c r="B21" s="228" t="s">
         <v>407</v>
       </c>
       <c r="C21" s="139" t="s">
@@ -26327,14 +26382,14 @@
       <c r="D21" s="140">
         <v>3</v>
       </c>
-      <c r="E21" s="246" t="s">
+      <c r="E21" s="228" t="s">
         <v>366</v>
       </c>
       <c r="F21" s="140" t="s">
         <v>404</v>
       </c>
       <c r="G21" s="151" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="H21" s="152" t="s">
         <v>403</v>
@@ -26356,20 +26411,20 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="271"/>
-      <c r="B22" s="247"/>
+      <c r="A22" s="231"/>
+      <c r="B22" s="235"/>
       <c r="C22" s="139" t="s">
         <v>410</v>
       </c>
       <c r="D22" s="140">
         <v>3</v>
       </c>
-      <c r="E22" s="247"/>
+      <c r="E22" s="235"/>
       <c r="F22" s="140" t="s">
         <v>404</v>
       </c>
       <c r="G22" s="151" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="H22" s="152" t="s">
         <v>403</v>
@@ -26391,20 +26446,20 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="271"/>
-      <c r="B23" s="247"/>
+      <c r="A23" s="231"/>
+      <c r="B23" s="235"/>
       <c r="C23" s="139" t="s">
         <v>280</v>
       </c>
       <c r="D23" s="140">
         <v>3</v>
       </c>
-      <c r="E23" s="248"/>
+      <c r="E23" s="234"/>
       <c r="F23" s="140" t="s">
         <v>404</v>
       </c>
       <c r="G23" s="151" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="H23" s="152" t="s">
         <v>403</v>
@@ -26426,8 +26481,8 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="272"/>
-      <c r="B24" s="252"/>
+      <c r="A24" s="232"/>
+      <c r="B24" s="229"/>
       <c r="C24" s="142" t="s">
         <v>411</v>
       </c>
@@ -26441,13 +26496,13 @@
         <v>400</v>
       </c>
       <c r="G24" s="161" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="H24" s="155" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="I24" s="155" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J24" s="152" t="s">
         <v>385</v>
@@ -26463,10 +26518,10 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="270" t="s">
+      <c r="A25" s="230" t="s">
         <v>412</v>
       </c>
-      <c r="B25" s="251" t="s">
+      <c r="B25" s="233" t="s">
         <v>413</v>
       </c>
       <c r="C25" s="136" t="s">
@@ -26475,14 +26530,14 @@
       <c r="D25" s="137">
         <v>1</v>
       </c>
-      <c r="E25" s="251" t="s">
+      <c r="E25" s="233" t="s">
         <v>366</v>
       </c>
       <c r="F25" s="138" t="s">
         <v>370</v>
       </c>
       <c r="G25" s="147" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H25" s="149" t="s">
         <v>368</v>
@@ -26504,15 +26559,15 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="271"/>
-      <c r="B26" s="247"/>
+      <c r="A26" s="231"/>
+      <c r="B26" s="235"/>
       <c r="C26" s="139" t="s">
         <v>129</v>
       </c>
       <c r="D26" s="140">
         <v>1</v>
       </c>
-      <c r="E26" s="248"/>
+      <c r="E26" s="234"/>
       <c r="F26" s="137" t="s">
         <v>370</v>
       </c>
@@ -26539,28 +26594,28 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="271"/>
-      <c r="B27" s="247"/>
+      <c r="A27" s="231"/>
+      <c r="B27" s="235"/>
       <c r="C27" s="139" t="s">
         <v>417</v>
       </c>
       <c r="D27" s="140">
         <v>3</v>
       </c>
-      <c r="E27" s="246" t="s">
+      <c r="E27" s="228" t="s">
         <v>376</v>
       </c>
       <c r="F27" s="140" t="s">
         <v>377</v>
       </c>
       <c r="G27" s="151" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H27" s="152" t="s">
         <v>418</v>
       </c>
       <c r="I27" s="152" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="J27" s="152" t="s">
         <v>409</v>
@@ -26576,26 +26631,26 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="271"/>
-      <c r="B28" s="248"/>
+      <c r="A28" s="231"/>
+      <c r="B28" s="234"/>
       <c r="C28" s="139" t="s">
         <v>125</v>
       </c>
       <c r="D28" s="140">
         <v>3</v>
       </c>
-      <c r="E28" s="247"/>
+      <c r="E28" s="235"/>
       <c r="F28" s="140" t="s">
         <v>377</v>
       </c>
       <c r="G28" s="151" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H28" s="152" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="I28" s="152" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="J28" s="152" t="s">
         <v>409</v>
@@ -26611,7 +26666,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="272"/>
+      <c r="A29" s="232"/>
       <c r="B29" s="144" t="s">
         <v>414</v>
       </c>
@@ -26621,18 +26676,18 @@
       <c r="D29" s="143">
         <v>2</v>
       </c>
-      <c r="E29" s="252"/>
+      <c r="E29" s="229"/>
       <c r="F29" s="143" t="s">
         <v>370</v>
       </c>
       <c r="G29" s="161" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="H29" s="155" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="I29" s="155" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="J29" s="155" t="s">
         <v>409</v>
@@ -26644,14 +26699,14 @@
         <v>403</v>
       </c>
       <c r="M29" s="156" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="270" t="s">
+      <c r="A30" s="230" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="251" t="s">
+      <c r="B30" s="233" t="s">
         <v>71</v>
       </c>
       <c r="C30" s="136" t="s">
@@ -26660,7 +26715,7 @@
       <c r="D30" s="137">
         <v>3</v>
       </c>
-      <c r="E30" s="251" t="s">
+      <c r="E30" s="233" t="s">
         <v>366</v>
       </c>
       <c r="F30" s="138" t="s">
@@ -26689,15 +26744,15 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="271"/>
-      <c r="B31" s="248"/>
+      <c r="A31" s="231"/>
+      <c r="B31" s="234"/>
       <c r="C31" s="139" t="s">
         <v>74</v>
       </c>
       <c r="D31" s="140">
         <v>3</v>
       </c>
-      <c r="E31" s="248"/>
+      <c r="E31" s="234"/>
       <c r="F31" s="137" t="s">
         <v>367</v>
       </c>
@@ -26724,8 +26779,8 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="271"/>
-      <c r="B32" s="246" t="s">
+      <c r="A32" s="231"/>
+      <c r="B32" s="228" t="s">
         <v>267</v>
       </c>
       <c r="C32" s="139" t="s">
@@ -26734,7 +26789,7 @@
       <c r="D32" s="140">
         <v>2</v>
       </c>
-      <c r="E32" s="246" t="s">
+      <c r="E32" s="228" t="s">
         <v>288</v>
       </c>
       <c r="F32" s="140" t="s">
@@ -26763,15 +26818,15 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="271"/>
-      <c r="B33" s="247"/>
+      <c r="A33" s="231"/>
+      <c r="B33" s="235"/>
       <c r="C33" s="139" t="s">
         <v>372</v>
       </c>
       <c r="D33" s="140">
         <v>2</v>
       </c>
-      <c r="E33" s="247"/>
+      <c r="E33" s="235"/>
       <c r="F33" s="140" t="s">
         <v>370</v>
       </c>
@@ -26798,15 +26853,15 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="271"/>
-      <c r="B34" s="248"/>
+      <c r="A34" s="231"/>
+      <c r="B34" s="234"/>
       <c r="C34" s="139" t="s">
         <v>374</v>
       </c>
       <c r="D34" s="140">
         <v>2</v>
       </c>
-      <c r="E34" s="248"/>
+      <c r="E34" s="234"/>
       <c r="F34" s="140" t="s">
         <v>370</v>
       </c>
@@ -26833,8 +26888,8 @@
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="271"/>
-      <c r="B35" s="246" t="s">
+      <c r="A35" s="231"/>
+      <c r="B35" s="228" t="s">
         <v>268</v>
       </c>
       <c r="C35" s="139" t="s">
@@ -26843,7 +26898,7 @@
       <c r="D35" s="140">
         <v>2</v>
       </c>
-      <c r="E35" s="246" t="s">
+      <c r="E35" s="228" t="s">
         <v>376</v>
       </c>
       <c r="F35" s="140" t="s">
@@ -26872,15 +26927,15 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="271"/>
-      <c r="B36" s="248"/>
+      <c r="A36" s="231"/>
+      <c r="B36" s="234"/>
       <c r="C36" s="139" t="s">
         <v>106</v>
       </c>
       <c r="D36" s="140">
         <v>3</v>
       </c>
-      <c r="E36" s="247"/>
+      <c r="E36" s="235"/>
       <c r="F36" s="140" t="s">
         <v>377</v>
       </c>
@@ -26907,8 +26962,8 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="271"/>
-      <c r="B37" s="257" t="s">
+      <c r="A37" s="231"/>
+      <c r="B37" s="248" t="s">
         <v>378</v>
       </c>
       <c r="C37" s="141" t="s">
@@ -26917,7 +26972,7 @@
       <c r="D37" s="140">
         <v>2</v>
       </c>
-      <c r="E37" s="247"/>
+      <c r="E37" s="235"/>
       <c r="F37" s="140" t="s">
         <v>377</v>
       </c>
@@ -26944,15 +26999,15 @@
       </c>
     </row>
     <row r="38" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="272"/>
-      <c r="B38" s="258"/>
+      <c r="A38" s="232"/>
+      <c r="B38" s="241"/>
       <c r="C38" s="142" t="s">
         <v>380</v>
       </c>
       <c r="D38" s="143">
         <v>3</v>
       </c>
-      <c r="E38" s="252"/>
+      <c r="E38" s="229"/>
       <c r="F38" s="143" t="s">
         <v>377</v>
       </c>
@@ -26979,71 +27034,71 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="270" t="s">
+      <c r="A39" s="230" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="251" t="s">
+      <c r="B39" s="233" t="s">
         <v>69</v>
       </c>
-      <c r="C39" s="261" t="s">
+      <c r="C39" s="238" t="s">
         <v>69</v>
       </c>
-      <c r="D39" s="263">
+      <c r="D39" s="240">
         <v>1</v>
       </c>
-      <c r="E39" s="251" t="s">
+      <c r="E39" s="233" t="s">
         <v>366</v>
       </c>
-      <c r="F39" s="263" t="s">
+      <c r="F39" s="240" t="s">
         <v>381</v>
       </c>
-      <c r="G39" s="264" t="s">
+      <c r="G39" s="242" t="s">
         <v>420</v>
       </c>
-      <c r="H39" s="266" t="s">
-        <v>434</v>
-      </c>
-      <c r="I39" s="268" t="s">
+      <c r="H39" s="244" t="s">
+        <v>432</v>
+      </c>
+      <c r="I39" s="246" t="s">
         <v>371</v>
       </c>
-      <c r="J39" s="268" t="s">
+      <c r="J39" s="246" t="s">
         <v>382</v>
       </c>
-      <c r="K39" s="268" t="s">
+      <c r="K39" s="246" t="s">
         <v>368</v>
       </c>
-      <c r="L39" s="268" t="s">
+      <c r="L39" s="246" t="s">
         <v>383</v>
       </c>
-      <c r="M39" s="259" t="s">
+      <c r="M39" s="236" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="272"/>
-      <c r="B40" s="252"/>
-      <c r="C40" s="262"/>
-      <c r="D40" s="258"/>
-      <c r="E40" s="252"/>
-      <c r="F40" s="258"/>
-      <c r="G40" s="265"/>
-      <c r="H40" s="267"/>
-      <c r="I40" s="269"/>
-      <c r="J40" s="269"/>
-      <c r="K40" s="269"/>
-      <c r="L40" s="269"/>
-      <c r="M40" s="260"/>
+      <c r="A40" s="232"/>
+      <c r="B40" s="229"/>
+      <c r="C40" s="239"/>
+      <c r="D40" s="241"/>
+      <c r="E40" s="229"/>
+      <c r="F40" s="241"/>
+      <c r="G40" s="243"/>
+      <c r="H40" s="245"/>
+      <c r="I40" s="247"/>
+      <c r="J40" s="247"/>
+      <c r="K40" s="247"/>
+      <c r="L40" s="247"/>
+      <c r="M40" s="237"/>
     </row>
     <row r="41" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="42" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="165"/>
-      <c r="B42" s="193"/>
-      <c r="C42" s="193"/>
-      <c r="D42" s="193"/>
-      <c r="E42" s="193"/>
-      <c r="F42" s="193"/>
-      <c r="G42" s="193"/>
-      <c r="H42" s="194"/>
+      <c r="B42" s="178"/>
+      <c r="C42" s="178"/>
+      <c r="D42" s="178"/>
+      <c r="E42" s="178"/>
+      <c r="F42" s="178"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="179"/>
     </row>
     <row r="43" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="166" t="s">
@@ -27073,15 +27128,15 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="170"/>
-      <c r="B44" s="195"/>
-      <c r="C44" s="195"/>
-      <c r="D44" s="195"/>
-      <c r="E44" s="195"/>
-      <c r="F44" s="195"/>
-      <c r="G44" s="195"/>
-      <c r="H44" s="196"/>
-    </row>
-    <row r="45" spans="1:13" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="B44" s="180"/>
+      <c r="C44" s="180"/>
+      <c r="D44" s="180"/>
+      <c r="E44" s="180"/>
+      <c r="F44" s="180"/>
+      <c r="G44" s="180"/>
+      <c r="H44" s="181"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="171" t="s">
         <v>10</v>
       </c>
@@ -27091,37 +27146,45 @@
       <c r="C45" s="140">
         <v>1</v>
       </c>
-      <c r="D45" s="246" t="s">
+      <c r="D45" s="228" t="s">
         <v>366</v>
       </c>
-      <c r="E45" s="172">
+      <c r="E45" s="258">
         <v>1</v>
       </c>
-      <c r="F45" s="172">
+      <c r="F45" s="258">
         <v>1</v>
       </c>
-      <c r="G45" s="173"/>
-      <c r="H45" s="174"/>
-    </row>
-    <row r="46" spans="1:13" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="192"/>
+      <c r="G45" s="259" t="s">
+        <v>457</v>
+      </c>
+      <c r="H45" s="260" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="177"/>
       <c r="B46" s="145" t="s">
         <v>265</v>
       </c>
       <c r="C46" s="143">
         <v>1</v>
       </c>
-      <c r="D46" s="252"/>
-      <c r="E46" s="175">
+      <c r="D46" s="229"/>
+      <c r="E46" s="261">
         <v>1</v>
       </c>
-      <c r="F46" s="175">
+      <c r="F46" s="261">
         <v>1</v>
       </c>
-      <c r="G46" s="176"/>
-      <c r="H46" s="177"/>
-    </row>
-    <row r="47" spans="1:13" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="G46" s="262" t="s">
+        <v>459</v>
+      </c>
+      <c r="H46" s="263" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="135" t="s">
         <v>387</v>
       </c>
@@ -27131,40 +27194,46 @@
       <c r="C47" s="137">
         <v>1</v>
       </c>
-      <c r="D47" s="251" t="s">
+      <c r="D47" s="233" t="s">
         <v>288</v>
       </c>
-      <c r="E47" s="178">
+      <c r="E47" s="264">
         <v>1</v>
       </c>
-      <c r="F47" s="178">
+      <c r="F47" s="264">
         <v>1</v>
       </c>
-      <c r="G47" s="181" t="s">
-        <v>442</v>
-      </c>
-      <c r="H47" s="180"/>
-    </row>
-    <row r="48" spans="1:13" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A48" s="191"/>
+      <c r="G47" s="265" t="s">
+        <v>461</v>
+      </c>
+      <c r="H47" s="266" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" s="176"/>
       <c r="B48" s="139" t="s">
         <v>394</v>
       </c>
       <c r="C48" s="140">
         <v>1</v>
       </c>
-      <c r="D48" s="248"/>
-      <c r="E48" s="172">
+      <c r="D48" s="234"/>
+      <c r="E48" s="258">
         <v>1</v>
       </c>
-      <c r="F48" s="172">
+      <c r="F48" s="258">
         <v>1</v>
       </c>
-      <c r="G48" s="173"/>
-      <c r="H48" s="174"/>
-    </row>
-    <row r="49" spans="1:8" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A49" s="191"/>
+      <c r="G48" s="259" t="s">
+        <v>463</v>
+      </c>
+      <c r="H48" s="260" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="176"/>
       <c r="B49" s="139" t="s">
         <v>266</v>
       </c>
@@ -27174,57 +27243,67 @@
       <c r="D49" s="146" t="s">
         <v>399</v>
       </c>
-      <c r="E49" s="172">
+      <c r="E49" s="258">
         <v>1</v>
       </c>
-      <c r="F49" s="181" t="s">
-        <v>423</v>
-      </c>
-      <c r="G49" s="181" t="s">
-        <v>424</v>
-      </c>
-      <c r="H49" s="174"/>
-    </row>
-    <row r="50" spans="1:8" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A50" s="191"/>
+      <c r="F49" s="267">
+        <v>1</v>
+      </c>
+      <c r="G49" s="267">
+        <v>1</v>
+      </c>
+      <c r="H49" s="260" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="176"/>
       <c r="B50" s="139" t="s">
         <v>115</v>
       </c>
       <c r="C50" s="140">
         <v>1</v>
       </c>
-      <c r="D50" s="246" t="s">
+      <c r="D50" s="228" t="s">
         <v>376</v>
       </c>
-      <c r="E50" s="172">
+      <c r="E50" s="258">
         <v>1</v>
       </c>
-      <c r="F50" s="172">
+      <c r="F50" s="258">
         <v>1</v>
       </c>
-      <c r="G50" s="173"/>
-      <c r="H50" s="174"/>
-    </row>
-    <row r="51" spans="1:8" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A51" s="191"/>
+      <c r="G50" s="259" t="s">
+        <v>466</v>
+      </c>
+      <c r="H50" s="260" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="176"/>
       <c r="B51" s="139" t="s">
         <v>405</v>
       </c>
       <c r="C51" s="140">
         <v>1</v>
       </c>
-      <c r="D51" s="248"/>
-      <c r="E51" s="172">
+      <c r="D51" s="234"/>
+      <c r="E51" s="258">
         <v>1</v>
       </c>
-      <c r="F51" s="181" t="s">
-        <v>423</v>
-      </c>
-      <c r="G51" s="173"/>
-      <c r="H51" s="174"/>
+      <c r="F51" s="267">
+        <v>1</v>
+      </c>
+      <c r="G51" s="259" t="s">
+        <v>468</v>
+      </c>
+      <c r="H51" s="260" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="52" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="192"/>
+      <c r="A52" s="177"/>
       <c r="B52" s="145" t="s">
         <v>407</v>
       </c>
@@ -27232,16 +27311,20 @@
         <v>2</v>
       </c>
       <c r="D52" s="144" t="s">
-        <v>425</v>
-      </c>
-      <c r="E52" s="175">
+        <v>423</v>
+      </c>
+      <c r="E52" s="261">
         <v>1</v>
       </c>
-      <c r="F52" s="182" t="s">
-        <v>423</v>
-      </c>
-      <c r="G52" s="176"/>
-      <c r="H52" s="177"/>
+      <c r="F52" s="268">
+        <v>1</v>
+      </c>
+      <c r="G52" s="262" t="s">
+        <v>469</v>
+      </c>
+      <c r="H52" s="263" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="53" spans="1:8" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A53" s="135" t="s">
@@ -27253,20 +27336,24 @@
       <c r="C53" s="137">
         <v>3</v>
       </c>
-      <c r="D53" s="183" t="s">
-        <v>425</v>
-      </c>
-      <c r="E53" s="178">
+      <c r="D53" s="172" t="s">
+        <v>423</v>
+      </c>
+      <c r="E53" s="264">
         <v>1</v>
       </c>
-      <c r="F53" s="184" t="s">
-        <v>423</v>
-      </c>
-      <c r="G53" s="179"/>
-      <c r="H53" s="180"/>
-    </row>
-    <row r="54" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="192"/>
+      <c r="F53" s="269">
+        <v>1</v>
+      </c>
+      <c r="G53" s="269">
+        <v>1</v>
+      </c>
+      <c r="H53" s="266" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="177"/>
       <c r="B54" s="145" t="s">
         <v>414</v>
       </c>
@@ -27276,16 +27363,20 @@
       <c r="D54" s="144" t="s">
         <v>376</v>
       </c>
-      <c r="E54" s="175">
+      <c r="E54" s="261">
         <v>1</v>
       </c>
-      <c r="F54" s="175">
+      <c r="F54" s="261">
         <v>1</v>
       </c>
-      <c r="G54" s="176"/>
-      <c r="H54" s="177"/>
-    </row>
-    <row r="55" spans="1:8" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="G54" s="262" t="s">
+        <v>463</v>
+      </c>
+      <c r="H54" s="263" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="135" t="s">
         <v>67</v>
       </c>
@@ -27295,20 +27386,24 @@
       <c r="C55" s="137">
         <v>3</v>
       </c>
-      <c r="D55" s="183" t="s">
+      <c r="D55" s="172" t="s">
         <v>366</v>
       </c>
-      <c r="E55" s="178">
+      <c r="E55" s="264">
         <v>1</v>
       </c>
-      <c r="F55" s="178">
+      <c r="F55" s="264">
         <v>1</v>
       </c>
-      <c r="G55" s="179"/>
-      <c r="H55" s="180"/>
-    </row>
-    <row r="56" spans="1:8" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A56" s="191"/>
+      <c r="G55" s="265" t="s">
+        <v>473</v>
+      </c>
+      <c r="H55" s="266" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="176"/>
       <c r="B56" s="139" t="s">
         <v>267</v>
       </c>
@@ -27318,77 +27413,131 @@
       <c r="D56" s="146" t="s">
         <v>288</v>
       </c>
-      <c r="E56" s="172">
+      <c r="E56" s="258">
         <v>1</v>
       </c>
-      <c r="F56" s="172">
+      <c r="F56" s="258">
         <v>1</v>
       </c>
-      <c r="G56" s="173"/>
-      <c r="H56" s="174"/>
-    </row>
-    <row r="57" spans="1:8" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A57" s="191"/>
+      <c r="G56" s="270" t="s">
+        <v>474</v>
+      </c>
+      <c r="H56" s="260" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="176"/>
       <c r="B57" s="139" t="s">
         <v>268</v>
       </c>
       <c r="C57" s="140">
         <v>3</v>
       </c>
-      <c r="D57" s="246" t="s">
+      <c r="D57" s="228" t="s">
         <v>376</v>
       </c>
-      <c r="E57" s="172">
+      <c r="E57" s="258">
         <v>1</v>
       </c>
-      <c r="F57" s="172">
+      <c r="F57" s="258">
         <v>1</v>
       </c>
-      <c r="G57" s="173"/>
-      <c r="H57" s="174"/>
-    </row>
-    <row r="58" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="192"/>
+      <c r="G57" s="259" t="s">
+        <v>473</v>
+      </c>
+      <c r="H57" s="260" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="177"/>
       <c r="B58" s="142" t="s">
         <v>378</v>
       </c>
       <c r="C58" s="143">
         <v>3</v>
       </c>
-      <c r="D58" s="252"/>
-      <c r="E58" s="175">
+      <c r="D58" s="229"/>
+      <c r="E58" s="261">
         <v>1</v>
       </c>
-      <c r="F58" s="175">
+      <c r="F58" s="261">
         <v>1</v>
       </c>
-      <c r="G58" s="176"/>
-      <c r="H58" s="177"/>
-    </row>
-    <row r="59" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="185" t="s">
+      <c r="G58" s="262" t="s">
+        <v>473</v>
+      </c>
+      <c r="H58" s="263" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="173" t="s">
         <v>68</v>
       </c>
-      <c r="B59" s="186" t="s">
+      <c r="B59" s="174" t="s">
         <v>69</v>
       </c>
       <c r="C59" s="138">
         <v>1</v>
       </c>
-      <c r="D59" s="187" t="s">
+      <c r="D59" s="175" t="s">
         <v>366</v>
       </c>
-      <c r="E59" s="188">
+      <c r="E59" s="271">
         <v>1</v>
       </c>
-      <c r="F59" s="188">
+      <c r="F59" s="271">
         <v>1</v>
       </c>
-      <c r="G59" s="189"/>
-      <c r="H59" s="190"/>
+      <c r="G59" s="272" t="s">
+        <v>475</v>
+      </c>
+      <c r="H59" s="273" t="s">
+        <v>476</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="D57:D58"/>
     <mergeCell ref="A5:A8"/>
@@ -27403,46 +27552,8 @@
     <mergeCell ref="B25:B28"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="B5:B7"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="E21:E23"/>
     <mergeCell ref="B9:B12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="C1:C3"/>
     <mergeCell ref="B1:B3"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="E5:E8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27469,12 +27580,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="214"/>
-      <c r="B1" s="215"/>
-      <c r="C1" s="215"/>
-      <c r="D1" s="215"/>
-      <c r="E1" s="215"/>
-      <c r="F1" s="216"/>
+      <c r="A1" s="206"/>
+      <c r="B1" s="207"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="208"/>
     </row>
     <row r="2" spans="1:6" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
@@ -27497,15 +27608,15 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="225"/>
-      <c r="B3" s="226"/>
-      <c r="C3" s="226"/>
-      <c r="D3" s="226"/>
-      <c r="E3" s="226"/>
-      <c r="F3" s="227"/>
+      <c r="A3" s="197"/>
+      <c r="B3" s="198"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="198"/>
+      <c r="F3" s="199"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="221" t="s">
+      <c r="A4" s="210" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="74" t="s">
@@ -27514,26 +27625,26 @@
       <c r="C4" s="117">
         <v>1</v>
       </c>
-      <c r="D4" s="211" t="s">
+      <c r="D4" s="214" t="s">
         <v>283</v>
       </c>
       <c r="E4" s="33"/>
       <c r="F4" s="34"/>
     </row>
     <row r="5" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="231"/>
+      <c r="A5" s="216"/>
       <c r="B5" s="75" t="s">
         <v>265</v>
       </c>
       <c r="C5" s="118">
         <v>1</v>
       </c>
-      <c r="D5" s="224"/>
+      <c r="D5" s="215"/>
       <c r="E5" s="35"/>
       <c r="F5" s="36"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="217" t="s">
+      <c r="A6" s="195" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="76" t="s">
@@ -27542,26 +27653,26 @@
       <c r="C6" s="116">
         <v>1</v>
       </c>
-      <c r="D6" s="223" t="s">
+      <c r="D6" s="212" t="s">
         <v>308</v>
       </c>
       <c r="E6" s="31"/>
       <c r="F6" s="32"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="218"/>
+      <c r="A7" s="196"/>
       <c r="B7" s="74" t="s">
         <v>111</v>
       </c>
       <c r="C7" s="117">
         <v>1</v>
       </c>
-      <c r="D7" s="213"/>
+      <c r="D7" s="211"/>
       <c r="E7" s="33"/>
       <c r="F7" s="34"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="218"/>
+      <c r="A8" s="196"/>
       <c r="B8" s="77" t="s">
         <v>266</v>
       </c>
@@ -27575,33 +27686,33 @@
       <c r="F8" s="34"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="218"/>
+      <c r="A9" s="196"/>
       <c r="B9" s="74" t="s">
         <v>115</v>
       </c>
       <c r="C9" s="117">
         <v>1</v>
       </c>
-      <c r="D9" s="211" t="s">
+      <c r="D9" s="214" t="s">
         <v>289</v>
       </c>
       <c r="E9" s="33"/>
       <c r="F9" s="34"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="218"/>
+      <c r="A10" s="196"/>
       <c r="B10" s="77" t="s">
         <v>295</v>
       </c>
       <c r="C10" s="117">
         <v>1</v>
       </c>
-      <c r="D10" s="213"/>
+      <c r="D10" s="211"/>
       <c r="E10" s="33"/>
       <c r="F10" s="34"/>
     </row>
     <row r="11" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="231"/>
+      <c r="A11" s="216"/>
       <c r="B11" s="79" t="s">
         <v>43</v>
       </c>
@@ -27615,7 +27726,7 @@
       <c r="F11" s="34"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="217" t="s">
+      <c r="A12" s="195" t="s">
         <v>45</v>
       </c>
       <c r="B12" s="73" t="s">
@@ -27631,7 +27742,7 @@
       <c r="F12" s="32"/>
     </row>
     <row r="13" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="231"/>
+      <c r="A13" s="216"/>
       <c r="B13" s="68" t="s">
         <v>139</v>
       </c>
@@ -27645,7 +27756,7 @@
       <c r="F13" s="36"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="217" t="s">
+      <c r="A14" s="195" t="s">
         <v>67</v>
       </c>
       <c r="B14" s="78" t="s">
@@ -27661,7 +27772,7 @@
       <c r="F14" s="56"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="218"/>
+      <c r="A15" s="196"/>
       <c r="B15" s="78" t="s">
         <v>267</v>
       </c>
@@ -27675,28 +27786,28 @@
       <c r="F15" s="34"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="218"/>
+      <c r="A16" s="196"/>
       <c r="B16" s="74" t="s">
         <v>268</v>
       </c>
       <c r="C16" s="117">
         <v>3</v>
       </c>
-      <c r="D16" s="211" t="s">
+      <c r="D16" s="214" t="s">
         <v>289</v>
       </c>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
     </row>
     <row r="17" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="231"/>
+      <c r="A17" s="216"/>
       <c r="B17" s="80" t="s">
         <v>269</v>
       </c>
       <c r="C17" s="121">
         <v>3</v>
       </c>
-      <c r="D17" s="224"/>
+      <c r="D17" s="215"/>
       <c r="E17" s="44"/>
       <c r="F17" s="45"/>
     </row>

--- a/WebContent/발표/3조 5차 요구사항정의서.xlsx
+++ b/WebContent/발표/3조 5차 요구사항정의서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\507-14\Desktop\project05\WebContent\발표\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a01_javaexp\github\project05\WebContent\발표\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="484">
   <si>
     <t>구분</t>
   </si>
@@ -2191,14 +2191,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1/12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1/2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2263,9 +2255,6 @@
     <t>0%(0/10)</t>
   </si>
   <si>
-    <t>0%(0/22)</t>
-  </si>
-  <si>
     <t>50%(3/6)</t>
   </si>
   <si>
@@ -2297,6 +2286,104 @@
   </si>
   <si>
     <t>0%(0/3)</t>
+  </si>
+  <si>
+    <t>0%(1/22)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최민기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한송우</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최민기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한송우</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2387,7 +2474,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2463,6 +2550,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3519,7 +3612,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="274">
+  <cellXfs count="277">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4000,9 +4093,6 @@
     <xf numFmtId="49" fontId="6" fillId="13" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -4069,231 +4159,6 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="12" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="12" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="11" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="11" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="11" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="11" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="11" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="9" fontId="11" fillId="12" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -4340,6 +4205,243 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="12" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="12" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="14" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="14" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="14" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -4705,10 +4807,10 @@
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="192" t="s">
+      <c r="B3" s="204" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="183" t="s">
+      <c r="C3" s="201" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="15" t="s">
@@ -4725,8 +4827,8 @@
       <c r="K3" s="11"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="193"/>
-      <c r="C4" s="184"/>
+      <c r="B4" s="205"/>
+      <c r="C4" s="202"/>
       <c r="D4" s="13" t="s">
         <v>13</v>
       </c>
@@ -4741,8 +4843,8 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="193"/>
-      <c r="C5" s="187"/>
+      <c r="B5" s="205"/>
+      <c r="C5" s="203"/>
       <c r="D5" s="16" t="s">
         <v>15</v>
       </c>
@@ -4757,8 +4859,8 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="193"/>
-      <c r="C6" s="183" t="s">
+      <c r="B6" s="205"/>
+      <c r="C6" s="201" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="12" t="s">
@@ -4775,8 +4877,8 @@
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="193"/>
-      <c r="C7" s="184"/>
+      <c r="B7" s="205"/>
+      <c r="C7" s="202"/>
       <c r="D7" s="13" t="s">
         <v>20</v>
       </c>
@@ -4791,8 +4893,8 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="194"/>
-      <c r="C8" s="187"/>
+      <c r="B8" s="206"/>
+      <c r="C8" s="203"/>
       <c r="D8" s="16" t="s">
         <v>17</v>
       </c>
@@ -4809,10 +4911,10 @@
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="191" t="s">
+      <c r="B9" s="198" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="183" t="s">
+      <c r="C9" s="201" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="15" t="s">
@@ -4829,8 +4931,8 @@
       <c r="K9" s="11"/>
     </row>
     <row r="10" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="185"/>
-      <c r="C10" s="187"/>
+      <c r="B10" s="199"/>
+      <c r="C10" s="203"/>
       <c r="D10" s="17" t="s">
         <v>25</v>
       </c>
@@ -4845,11 +4947,11 @@
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="185"/>
-      <c r="C11" s="183" t="s">
+      <c r="B11" s="199"/>
+      <c r="C11" s="201" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="188" t="s">
+      <c r="D11" s="207" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="10" t="s">
@@ -4863,9 +4965,9 @@
       <c r="K11" s="11"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="185"/>
-      <c r="C12" s="184"/>
-      <c r="D12" s="190"/>
+      <c r="B12" s="199"/>
+      <c r="C12" s="202"/>
+      <c r="D12" s="208"/>
       <c r="E12" s="1" t="s">
         <v>34</v>
       </c>
@@ -4877,8 +4979,8 @@
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="185"/>
-      <c r="C13" s="184"/>
+      <c r="B13" s="199"/>
+      <c r="C13" s="202"/>
       <c r="D13" s="13" t="s">
         <v>31</v>
       </c>
@@ -4893,8 +4995,8 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="185"/>
-      <c r="C14" s="184"/>
+      <c r="B14" s="199"/>
+      <c r="C14" s="202"/>
       <c r="D14" s="13" t="s">
         <v>32</v>
       </c>
@@ -4909,8 +5011,8 @@
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="185"/>
-      <c r="C15" s="187"/>
+      <c r="B15" s="199"/>
+      <c r="C15" s="203"/>
       <c r="D15" s="17" t="s">
         <v>35</v>
       </c>
@@ -4927,8 +5029,8 @@
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="185"/>
-      <c r="C16" s="183" t="s">
+      <c r="B16" s="199"/>
+      <c r="C16" s="201" t="s">
         <v>38</v>
       </c>
       <c r="D16" s="15" t="s">
@@ -4945,8 +5047,8 @@
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="185"/>
-      <c r="C17" s="184"/>
+      <c r="B17" s="199"/>
+      <c r="C17" s="202"/>
       <c r="D17" s="13" t="s">
         <v>31</v>
       </c>
@@ -4961,8 +5063,8 @@
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="185"/>
-      <c r="C18" s="184"/>
+      <c r="B18" s="199"/>
+      <c r="C18" s="202"/>
       <c r="D18" s="13" t="s">
         <v>42</v>
       </c>
@@ -4977,8 +5079,8 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="186"/>
-      <c r="C19" s="187"/>
+      <c r="B19" s="200"/>
+      <c r="C19" s="203"/>
       <c r="D19" s="17" t="s">
         <v>35</v>
       </c>
@@ -4993,10 +5095,10 @@
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="191" t="s">
+      <c r="B20" s="198" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="183" t="s">
+      <c r="C20" s="201" t="s">
         <v>46</v>
       </c>
       <c r="D20" s="15" t="s">
@@ -5013,8 +5115,8 @@
       <c r="K20" s="11"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="185"/>
-      <c r="C21" s="184"/>
+      <c r="B21" s="199"/>
+      <c r="C21" s="202"/>
       <c r="D21" s="13" t="s">
         <v>48</v>
       </c>
@@ -5029,8 +5131,8 @@
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="185"/>
-      <c r="C22" s="187"/>
+      <c r="B22" s="199"/>
+      <c r="C22" s="203"/>
       <c r="D22" s="16" t="s">
         <v>52</v>
       </c>
@@ -5045,7 +5147,7 @@
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="185"/>
+      <c r="B23" s="199"/>
       <c r="C23" s="21" t="s">
         <v>54</v>
       </c>
@@ -5063,10 +5165,10 @@
       <c r="K23" s="20"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="191" t="s">
+      <c r="B24" s="198" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="183" t="s">
+      <c r="C24" s="201" t="s">
         <v>49</v>
       </c>
       <c r="D24" s="15" t="s">
@@ -5083,8 +5185,8 @@
       <c r="K24" s="11"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="185"/>
-      <c r="C25" s="184"/>
+      <c r="B25" s="199"/>
+      <c r="C25" s="202"/>
       <c r="D25" s="13" t="s">
         <v>59</v>
       </c>
@@ -5099,8 +5201,8 @@
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="185"/>
-      <c r="C26" s="187"/>
+      <c r="B26" s="199"/>
+      <c r="C26" s="203"/>
       <c r="D26" s="16" t="s">
         <v>61</v>
       </c>
@@ -5115,7 +5217,7 @@
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="185"/>
+      <c r="B27" s="199"/>
       <c r="C27" s="23" t="s">
         <v>56</v>
       </c>
@@ -5133,7 +5235,7 @@
       <c r="K27" s="20"/>
     </row>
     <row r="28" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="186"/>
+      <c r="B28" s="200"/>
       <c r="C28" s="23" t="s">
         <v>44</v>
       </c>
@@ -5171,10 +5273,10 @@
       <c r="K29" s="20"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="183" t="s">
+      <c r="B30" s="201" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="188" t="s">
+      <c r="C30" s="207" t="s">
         <v>71</v>
       </c>
       <c r="D30" s="15" t="s">
@@ -5191,8 +5293,8 @@
       <c r="K30" s="11"/>
     </row>
     <row r="31" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="184"/>
-      <c r="C31" s="189"/>
+      <c r="B31" s="202"/>
+      <c r="C31" s="209"/>
       <c r="D31" s="14" t="s">
         <v>74</v>
       </c>
@@ -5207,8 +5309,8 @@
       <c r="K31" s="27"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="185"/>
-      <c r="C32" s="183" t="s">
+      <c r="B32" s="199"/>
+      <c r="C32" s="201" t="s">
         <v>85</v>
       </c>
       <c r="D32" s="15" t="s">
@@ -5225,8 +5327,8 @@
       <c r="K32" s="11"/>
     </row>
     <row r="33" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="185"/>
-      <c r="C33" s="187"/>
+      <c r="B33" s="199"/>
+      <c r="C33" s="203"/>
       <c r="D33" s="16" t="s">
         <v>88</v>
       </c>
@@ -5241,8 +5343,8 @@
       <c r="K33" s="4"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="185"/>
-      <c r="C34" s="183" t="s">
+      <c r="B34" s="199"/>
+      <c r="C34" s="201" t="s">
         <v>90</v>
       </c>
       <c r="D34" s="15" t="s">
@@ -5259,8 +5361,8 @@
       <c r="K34" s="11"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="185"/>
-      <c r="C35" s="184"/>
+      <c r="B35" s="199"/>
+      <c r="C35" s="202"/>
       <c r="D35" s="13"/>
       <c r="E35" s="1" t="s">
         <v>34</v>
@@ -5273,8 +5375,8 @@
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="185"/>
-      <c r="C36" s="184"/>
+      <c r="B36" s="199"/>
+      <c r="C36" s="202"/>
       <c r="D36" s="13" t="s">
         <v>31</v>
       </c>
@@ -5289,8 +5391,8 @@
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="185"/>
-      <c r="C37" s="184"/>
+      <c r="B37" s="199"/>
+      <c r="C37" s="202"/>
       <c r="D37" s="13" t="s">
         <v>92</v>
       </c>
@@ -5305,8 +5407,8 @@
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="185"/>
-      <c r="C38" s="187"/>
+      <c r="B38" s="199"/>
+      <c r="C38" s="203"/>
       <c r="D38" s="16" t="s">
         <v>94</v>
       </c>
@@ -5321,8 +5423,8 @@
       <c r="K38" s="4"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="185"/>
-      <c r="C39" s="183" t="s">
+      <c r="B39" s="199"/>
+      <c r="C39" s="201" t="s">
         <v>38</v>
       </c>
       <c r="D39" s="15" t="s">
@@ -5339,8 +5441,8 @@
       <c r="K39" s="11"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="185"/>
-      <c r="C40" s="184"/>
+      <c r="B40" s="199"/>
+      <c r="C40" s="202"/>
       <c r="D40" s="13" t="s">
         <v>31</v>
       </c>
@@ -5355,8 +5457,8 @@
       <c r="K40" s="2"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="185"/>
-      <c r="C41" s="184"/>
+      <c r="B41" s="199"/>
+      <c r="C41" s="202"/>
       <c r="D41" s="13" t="s">
         <v>92</v>
       </c>
@@ -5371,8 +5473,8 @@
       <c r="K41" s="2"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="185"/>
-      <c r="C42" s="184"/>
+      <c r="B42" s="199"/>
+      <c r="C42" s="202"/>
       <c r="D42" s="13" t="s">
         <v>35</v>
       </c>
@@ -5387,8 +5489,8 @@
       <c r="K42" s="2"/>
     </row>
     <row r="43" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="185"/>
-      <c r="C43" s="187"/>
+      <c r="B43" s="199"/>
+      <c r="C43" s="203"/>
       <c r="D43" s="16" t="s">
         <v>97</v>
       </c>
@@ -5403,8 +5505,8 @@
       <c r="K43" s="4"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="185"/>
-      <c r="C44" s="183" t="s">
+      <c r="B44" s="199"/>
+      <c r="C44" s="201" t="s">
         <v>76</v>
       </c>
       <c r="D44" s="15" t="s">
@@ -5421,8 +5523,8 @@
       <c r="K44" s="11"/>
     </row>
     <row r="45" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="185"/>
-      <c r="C45" s="187"/>
+      <c r="B45" s="199"/>
+      <c r="C45" s="203"/>
       <c r="D45" s="16" t="s">
         <v>79</v>
       </c>
@@ -5437,8 +5539,8 @@
       <c r="K45" s="4"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="185"/>
-      <c r="C46" s="183" t="s">
+      <c r="B46" s="199"/>
+      <c r="C46" s="201" t="s">
         <v>81</v>
       </c>
       <c r="D46" s="15" t="s">
@@ -5455,8 +5557,8 @@
       <c r="K46" s="11"/>
     </row>
     <row r="47" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="185"/>
-      <c r="C47" s="187"/>
+      <c r="B47" s="199"/>
+      <c r="C47" s="203"/>
       <c r="D47" s="16" t="s">
         <v>83</v>
       </c>
@@ -5471,8 +5573,8 @@
       <c r="K47" s="4"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="185"/>
-      <c r="C48" s="183" t="s">
+      <c r="B48" s="199"/>
+      <c r="C48" s="201" t="s">
         <v>56</v>
       </c>
       <c r="D48" s="15" t="s">
@@ -5489,8 +5591,8 @@
       <c r="K48" s="11"/>
     </row>
     <row r="49" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="186"/>
-      <c r="C49" s="187"/>
+      <c r="B49" s="200"/>
+      <c r="C49" s="203"/>
       <c r="D49" s="16" t="s">
         <v>101</v>
       </c>
@@ -5506,18 +5608,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B9:B19"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C22"/>
     <mergeCell ref="B30:B49"/>
     <mergeCell ref="C39:C43"/>
     <mergeCell ref="C34:C38"/>
@@ -5526,6 +5616,18 @@
     <mergeCell ref="C48:C49"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B9:B19"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5555,15 +5657,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="206"/>
-      <c r="B1" s="207"/>
-      <c r="C1" s="207"/>
-      <c r="D1" s="207"/>
-      <c r="E1" s="207"/>
-      <c r="F1" s="207"/>
-      <c r="G1" s="207"/>
-      <c r="H1" s="207"/>
-      <c r="I1" s="208"/>
+      <c r="A1" s="214"/>
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
+      <c r="H1" s="215"/>
+      <c r="I1" s="216"/>
     </row>
     <row r="2" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
@@ -5595,21 +5697,21 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="197"/>
-      <c r="B3" s="198"/>
-      <c r="C3" s="198"/>
-      <c r="D3" s="198"/>
-      <c r="E3" s="198"/>
-      <c r="F3" s="198"/>
-      <c r="G3" s="198"/>
-      <c r="H3" s="198"/>
-      <c r="I3" s="199"/>
+      <c r="A3" s="225"/>
+      <c r="B3" s="226"/>
+      <c r="C3" s="226"/>
+      <c r="D3" s="226"/>
+      <c r="E3" s="226"/>
+      <c r="F3" s="226"/>
+      <c r="G3" s="226"/>
+      <c r="H3" s="226"/>
+      <c r="I3" s="227"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="200" t="s">
+      <c r="A4" s="228" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="203" t="s">
+      <c r="B4" s="222" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="37" t="s">
@@ -5625,8 +5727,8 @@
       <c r="I4" s="32"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="201"/>
-      <c r="B5" s="204"/>
+      <c r="A5" s="220"/>
+      <c r="B5" s="210"/>
       <c r="C5" s="38" t="s">
         <v>13</v>
       </c>
@@ -5640,8 +5742,8 @@
       <c r="I5" s="34"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="201"/>
-      <c r="B6" s="204"/>
+      <c r="A6" s="220"/>
+      <c r="B6" s="210"/>
       <c r="C6" s="38" t="s">
         <v>15</v>
       </c>
@@ -5655,8 +5757,8 @@
       <c r="I6" s="34"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="201"/>
-      <c r="B7" s="204" t="s">
+      <c r="A7" s="220"/>
+      <c r="B7" s="210" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="38" t="s">
@@ -5672,8 +5774,8 @@
       <c r="I7" s="34"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="201"/>
-      <c r="B8" s="204"/>
+      <c r="A8" s="220"/>
+      <c r="B8" s="210"/>
       <c r="C8" s="38" t="s">
         <v>20</v>
       </c>
@@ -5687,8 +5789,8 @@
       <c r="I8" s="34"/>
     </row>
     <row r="9" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="202"/>
-      <c r="B9" s="205"/>
+      <c r="A9" s="229"/>
+      <c r="B9" s="230"/>
       <c r="C9" s="39" t="s">
         <v>17</v>
       </c>
@@ -5702,10 +5804,10 @@
       <c r="I9" s="36"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="195" t="s">
+      <c r="A10" s="217" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="212" t="s">
+      <c r="B10" s="223" t="s">
         <v>103</v>
       </c>
       <c r="C10" s="37" t="s">
@@ -5721,8 +5823,8 @@
       <c r="I10" s="32"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="196"/>
-      <c r="B11" s="213"/>
+      <c r="A11" s="218"/>
+      <c r="B11" s="212"/>
       <c r="C11" s="38" t="s">
         <v>105</v>
       </c>
@@ -5736,8 +5838,8 @@
       <c r="I11" s="34"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="196"/>
-      <c r="B12" s="213"/>
+      <c r="A12" s="218"/>
+      <c r="B12" s="212"/>
       <c r="C12" s="38" t="s">
         <v>92</v>
       </c>
@@ -5751,8 +5853,8 @@
       <c r="I12" s="34"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="196"/>
-      <c r="B13" s="211"/>
+      <c r="A13" s="218"/>
+      <c r="B13" s="213"/>
       <c r="C13" s="38" t="s">
         <v>109</v>
       </c>
@@ -5768,8 +5870,8 @@
       <c r="I13" s="34"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="196"/>
-      <c r="B14" s="214" t="s">
+      <c r="A14" s="218"/>
+      <c r="B14" s="211" t="s">
         <v>180</v>
       </c>
       <c r="C14" s="38" t="s">
@@ -5785,8 +5887,8 @@
       <c r="I14" s="34"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="196"/>
-      <c r="B15" s="213"/>
+      <c r="A15" s="218"/>
+      <c r="B15" s="212"/>
       <c r="C15" s="38" t="s">
         <v>184</v>
       </c>
@@ -5800,8 +5902,8 @@
       <c r="I15" s="34"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="196"/>
-      <c r="B16" s="214" t="s">
+      <c r="A16" s="218"/>
+      <c r="B16" s="211" t="s">
         <v>111</v>
       </c>
       <c r="C16" s="58" t="s">
@@ -5817,8 +5919,8 @@
       <c r="I16" s="34"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="196"/>
-      <c r="B17" s="213"/>
+      <c r="A17" s="218"/>
+      <c r="B17" s="212"/>
       <c r="C17" s="38" t="s">
         <v>105</v>
       </c>
@@ -5832,8 +5934,8 @@
       <c r="I17" s="34"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="196"/>
-      <c r="B18" s="213"/>
+      <c r="A18" s="218"/>
+      <c r="B18" s="212"/>
       <c r="C18" s="38" t="s">
         <v>113</v>
       </c>
@@ -5849,8 +5951,8 @@
       <c r="I18" s="34"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="196"/>
-      <c r="B19" s="211"/>
+      <c r="A19" s="218"/>
+      <c r="B19" s="213"/>
       <c r="C19" s="38" t="s">
         <v>109</v>
       </c>
@@ -5864,8 +5966,8 @@
       <c r="I19" s="34"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="196"/>
-      <c r="B20" s="214" t="s">
+      <c r="A20" s="218"/>
+      <c r="B20" s="211" t="s">
         <v>193</v>
       </c>
       <c r="C20" s="59" t="s">
@@ -5881,8 +5983,8 @@
       <c r="I20" s="34"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="196"/>
-      <c r="B21" s="211"/>
+      <c r="A21" s="218"/>
+      <c r="B21" s="213"/>
       <c r="C21" s="59" t="s">
         <v>194</v>
       </c>
@@ -5896,8 +5998,8 @@
       <c r="I21" s="34"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="196"/>
-      <c r="B22" s="214" t="s">
+      <c r="A22" s="218"/>
+      <c r="B22" s="211" t="s">
         <v>115</v>
       </c>
       <c r="C22" s="38" t="s">
@@ -5913,8 +6015,8 @@
       <c r="I22" s="34"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="196"/>
-      <c r="B23" s="213"/>
+      <c r="A23" s="218"/>
+      <c r="B23" s="212"/>
       <c r="C23" s="38" t="s">
         <v>118</v>
       </c>
@@ -5928,8 +6030,8 @@
       <c r="I23" s="34"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="196"/>
-      <c r="B24" s="213"/>
+      <c r="A24" s="218"/>
+      <c r="B24" s="212"/>
       <c r="C24" s="38" t="s">
         <v>120</v>
       </c>
@@ -5943,8 +6045,8 @@
       <c r="I24" s="34"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="196"/>
-      <c r="B25" s="211"/>
+      <c r="A25" s="218"/>
+      <c r="B25" s="213"/>
       <c r="C25" s="38" t="s">
         <v>122</v>
       </c>
@@ -5958,8 +6060,8 @@
       <c r="I25" s="34"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="196"/>
-      <c r="B26" s="214" t="s">
+      <c r="A26" s="218"/>
+      <c r="B26" s="211" t="s">
         <v>174</v>
       </c>
       <c r="C26" s="38" t="s">
@@ -5975,8 +6077,8 @@
       <c r="I26" s="34"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="196"/>
-      <c r="B27" s="213"/>
+      <c r="A27" s="218"/>
+      <c r="B27" s="212"/>
       <c r="C27" s="38" t="s">
         <v>178</v>
       </c>
@@ -5990,8 +6092,8 @@
       <c r="I27" s="34"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="196"/>
-      <c r="B28" s="213"/>
+      <c r="A28" s="218"/>
+      <c r="B28" s="212"/>
       <c r="C28" s="38" t="s">
         <v>182</v>
       </c>
@@ -6005,8 +6107,8 @@
       <c r="I28" s="34"/>
     </row>
     <row r="29" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="196"/>
-      <c r="B29" s="213"/>
+      <c r="A29" s="218"/>
+      <c r="B29" s="212"/>
       <c r="C29" s="58" t="s">
         <v>176</v>
       </c>
@@ -6020,10 +6122,10 @@
       <c r="I29" s="45"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="195" t="s">
+      <c r="A30" s="217" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="203" t="s">
+      <c r="B30" s="222" t="s">
         <v>127</v>
       </c>
       <c r="C30" s="62" t="s">
@@ -6039,8 +6141,8 @@
       <c r="I30" s="32"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="196"/>
-      <c r="B31" s="204"/>
+      <c r="A31" s="218"/>
+      <c r="B31" s="210"/>
       <c r="C31" s="63" t="s">
         <v>129</v>
       </c>
@@ -6054,8 +6156,8 @@
       <c r="I31" s="34"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="196"/>
-      <c r="B32" s="204"/>
+      <c r="A32" s="218"/>
+      <c r="B32" s="210"/>
       <c r="C32" s="63" t="s">
         <v>132</v>
       </c>
@@ -6069,8 +6171,8 @@
       <c r="I32" s="34"/>
     </row>
     <row r="33" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A33" s="196"/>
-      <c r="B33" s="204"/>
+      <c r="A33" s="218"/>
+      <c r="B33" s="210"/>
       <c r="C33" s="63" t="s">
         <v>125</v>
       </c>
@@ -6084,8 +6186,8 @@
       <c r="I33" s="34"/>
     </row>
     <row r="34" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A34" s="196"/>
-      <c r="B34" s="204" t="s">
+      <c r="A34" s="218"/>
+      <c r="B34" s="210" t="s">
         <v>133</v>
       </c>
       <c r="C34" s="63" t="s">
@@ -6101,8 +6203,8 @@
       <c r="I34" s="45"/>
     </row>
     <row r="35" spans="1:16384" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="196"/>
-      <c r="B35" s="204"/>
+      <c r="A35" s="218"/>
+      <c r="B35" s="210"/>
       <c r="C35" s="63" t="s">
         <v>134</v>
       </c>
@@ -22491,8 +22593,8 @@
       <c r="XFD35" s="46"/>
     </row>
     <row r="36" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A36" s="196"/>
-      <c r="B36" s="204"/>
+      <c r="A36" s="218"/>
+      <c r="B36" s="210"/>
       <c r="C36" s="64" t="s">
         <v>187</v>
       </c>
@@ -22504,8 +22606,8 @@
       <c r="I36" s="56"/>
     </row>
     <row r="37" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A37" s="196"/>
-      <c r="B37" s="204" t="s">
+      <c r="A37" s="218"/>
+      <c r="B37" s="210" t="s">
         <v>136</v>
       </c>
       <c r="C37" s="63" t="s">
@@ -22521,8 +22623,8 @@
       <c r="I37" s="34"/>
     </row>
     <row r="38" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A38" s="196"/>
-      <c r="B38" s="204"/>
+      <c r="A38" s="218"/>
+      <c r="B38" s="210"/>
       <c r="C38" s="63" t="s">
         <v>92</v>
       </c>
@@ -22536,7 +22638,7 @@
       <c r="I38" s="34"/>
     </row>
     <row r="39" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A39" s="196"/>
+      <c r="A39" s="218"/>
       <c r="B39" s="57" t="s">
         <v>139</v>
       </c>
@@ -22553,10 +22655,10 @@
       <c r="I39" s="34"/>
     </row>
     <row r="40" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A40" s="209" t="s">
+      <c r="A40" s="219" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="211" t="s">
+      <c r="B40" s="213" t="s">
         <v>71</v>
       </c>
       <c r="C40" s="41" t="s">
@@ -22572,8 +22674,8 @@
       <c r="I40" s="56"/>
     </row>
     <row r="41" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A41" s="201"/>
-      <c r="B41" s="204"/>
+      <c r="A41" s="220"/>
+      <c r="B41" s="210"/>
       <c r="C41" s="40" t="s">
         <v>74</v>
       </c>
@@ -22587,8 +22689,8 @@
       <c r="I41" s="34"/>
     </row>
     <row r="42" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A42" s="201"/>
-      <c r="B42" s="204" t="s">
+      <c r="A42" s="220"/>
+      <c r="B42" s="210" t="s">
         <v>152</v>
       </c>
       <c r="C42" s="40" t="s">
@@ -22604,8 +22706,8 @@
       <c r="I42" s="34"/>
     </row>
     <row r="43" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A43" s="201"/>
-      <c r="B43" s="204"/>
+      <c r="A43" s="220"/>
+      <c r="B43" s="210"/>
       <c r="C43" s="40" t="s">
         <v>144</v>
       </c>
@@ -22619,11 +22721,11 @@
       <c r="I43" s="34"/>
     </row>
     <row r="44" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A44" s="201"/>
-      <c r="B44" s="204" t="s">
+      <c r="A44" s="220"/>
+      <c r="B44" s="210" t="s">
         <v>163</v>
       </c>
-      <c r="C44" s="214" t="s">
+      <c r="C44" s="211" t="s">
         <v>162</v>
       </c>
       <c r="D44" s="33" t="s">
@@ -22636,9 +22738,9 @@
       <c r="I44" s="34"/>
     </row>
     <row r="45" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A45" s="201"/>
-      <c r="B45" s="204"/>
-      <c r="C45" s="211"/>
+      <c r="A45" s="220"/>
+      <c r="B45" s="210"/>
+      <c r="C45" s="213"/>
       <c r="D45" s="33" t="s">
         <v>164</v>
       </c>
@@ -22649,8 +22751,8 @@
       <c r="I45" s="34"/>
     </row>
     <row r="46" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A46" s="201"/>
-      <c r="B46" s="204"/>
+      <c r="A46" s="220"/>
+      <c r="B46" s="210"/>
       <c r="C46" s="40" t="s">
         <v>112</v>
       </c>
@@ -22664,8 +22766,8 @@
       <c r="I46" s="34"/>
     </row>
     <row r="47" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A47" s="201"/>
-      <c r="B47" s="204"/>
+      <c r="A47" s="220"/>
+      <c r="B47" s="210"/>
       <c r="C47" s="40" t="s">
         <v>106</v>
       </c>
@@ -22679,8 +22781,8 @@
       <c r="I47" s="34"/>
     </row>
     <row r="48" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A48" s="201"/>
-      <c r="B48" s="204"/>
+      <c r="A48" s="220"/>
+      <c r="B48" s="210"/>
       <c r="C48" s="40" t="s">
         <v>147</v>
       </c>
@@ -22694,8 +22796,8 @@
       <c r="I48" s="34"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="201"/>
-      <c r="B49" s="204" t="s">
+      <c r="A49" s="220"/>
+      <c r="B49" s="210" t="s">
         <v>153</v>
       </c>
       <c r="C49" s="40" t="s">
@@ -22711,8 +22813,8 @@
       <c r="I49" s="34"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="201"/>
-      <c r="B50" s="204"/>
+      <c r="A50" s="220"/>
+      <c r="B50" s="210"/>
       <c r="C50" s="40" t="s">
         <v>112</v>
       </c>
@@ -22726,8 +22828,8 @@
       <c r="I50" s="34"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="201"/>
-      <c r="B51" s="204"/>
+      <c r="A51" s="220"/>
+      <c r="B51" s="210"/>
       <c r="C51" s="40" t="s">
         <v>106</v>
       </c>
@@ -22741,8 +22843,8 @@
       <c r="I51" s="34"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="201"/>
-      <c r="B52" s="204"/>
+      <c r="A52" s="220"/>
+      <c r="B52" s="210"/>
       <c r="C52" s="40" t="s">
         <v>147</v>
       </c>
@@ -22756,8 +22858,8 @@
       <c r="I52" s="34"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="201"/>
-      <c r="B53" s="214" t="s">
+      <c r="A53" s="220"/>
+      <c r="B53" s="211" t="s">
         <v>154</v>
       </c>
       <c r="C53" s="40" t="s">
@@ -22773,8 +22875,8 @@
       <c r="I53" s="34"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="201"/>
-      <c r="B54" s="213"/>
+      <c r="A54" s="220"/>
+      <c r="B54" s="212"/>
       <c r="C54" s="49" t="s">
         <v>159</v>
       </c>
@@ -22788,8 +22890,8 @@
       <c r="I54" s="34"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="201"/>
-      <c r="B55" s="204" t="s">
+      <c r="A55" s="220"/>
+      <c r="B55" s="210" t="s">
         <v>76</v>
       </c>
       <c r="C55" s="40" t="s">
@@ -22805,8 +22907,8 @@
       <c r="I55" s="34"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="201"/>
-      <c r="B56" s="204"/>
+      <c r="A56" s="220"/>
+      <c r="B56" s="210"/>
       <c r="C56" s="40" t="s">
         <v>79</v>
       </c>
@@ -22820,8 +22922,8 @@
       <c r="I56" s="34"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="201"/>
-      <c r="B57" s="214" t="s">
+      <c r="A57" s="220"/>
+      <c r="B57" s="211" t="s">
         <v>81</v>
       </c>
       <c r="C57" s="40" t="s">
@@ -22837,8 +22939,8 @@
       <c r="I57" s="34"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="210"/>
-      <c r="B58" s="211"/>
+      <c r="A58" s="221"/>
+      <c r="B58" s="213"/>
       <c r="C58" s="50" t="s">
         <v>167</v>
       </c>
@@ -22852,8 +22954,8 @@
       <c r="I58" s="45"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="210"/>
-      <c r="B59" s="214" t="s">
+      <c r="A59" s="221"/>
+      <c r="B59" s="211" t="s">
         <v>172</v>
       </c>
       <c r="C59" s="50" t="s">
@@ -22869,8 +22971,8 @@
       <c r="I59" s="45"/>
     </row>
     <row r="60" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="210"/>
-      <c r="B60" s="215"/>
+      <c r="A60" s="221"/>
+      <c r="B60" s="224"/>
       <c r="C60" s="42" t="s">
         <v>171</v>
       </c>
@@ -23133,11 +23235,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A30:A39"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A10:A29"/>
     <mergeCell ref="A40:A60"/>
@@ -23154,11 +23256,11 @@
     <mergeCell ref="C44:C45"/>
     <mergeCell ref="B59:B60"/>
     <mergeCell ref="B44:B48"/>
-    <mergeCell ref="A30:A39"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B20:B21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23201,15 +23303,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="206"/>
-      <c r="B1" s="207"/>
-      <c r="C1" s="207"/>
-      <c r="D1" s="207"/>
-      <c r="E1" s="207"/>
-      <c r="F1" s="207"/>
-      <c r="G1" s="207"/>
-      <c r="H1" s="207"/>
-      <c r="I1" s="208"/>
+      <c r="A1" s="214"/>
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
+      <c r="H1" s="215"/>
+      <c r="I1" s="216"/>
     </row>
     <row r="2" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
@@ -23241,21 +23343,21 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="197"/>
-      <c r="B3" s="198"/>
-      <c r="C3" s="198"/>
-      <c r="D3" s="198"/>
-      <c r="E3" s="198"/>
-      <c r="F3" s="198"/>
-      <c r="G3" s="198"/>
-      <c r="H3" s="198"/>
-      <c r="I3" s="199"/>
+      <c r="A3" s="225"/>
+      <c r="B3" s="226"/>
+      <c r="C3" s="226"/>
+      <c r="D3" s="226"/>
+      <c r="E3" s="226"/>
+      <c r="F3" s="226"/>
+      <c r="G3" s="226"/>
+      <c r="H3" s="226"/>
+      <c r="I3" s="227"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="195" t="s">
+      <c r="A4" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="212" t="s">
+      <c r="B4" s="223" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="88" t="s">
@@ -23266,15 +23368,15 @@
       </c>
       <c r="E4" s="31"/>
       <c r="F4" s="31"/>
-      <c r="G4" s="212" t="s">
+      <c r="G4" s="223" t="s">
         <v>284</v>
       </c>
       <c r="H4" s="31"/>
       <c r="I4" s="32"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="196"/>
-      <c r="B5" s="213"/>
+      <c r="A5" s="218"/>
+      <c r="B5" s="212"/>
       <c r="C5" s="89" t="s">
         <v>13</v>
       </c>
@@ -23283,13 +23385,13 @@
       </c>
       <c r="E5" s="33"/>
       <c r="F5" s="33"/>
-      <c r="G5" s="213"/>
+      <c r="G5" s="212"/>
       <c r="H5" s="33"/>
       <c r="I5" s="34"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="196"/>
-      <c r="B6" s="211"/>
+      <c r="A6" s="218"/>
+      <c r="B6" s="213"/>
       <c r="C6" s="89" t="s">
         <v>15</v>
       </c>
@@ -23298,13 +23400,13 @@
       </c>
       <c r="E6" s="33"/>
       <c r="F6" s="33"/>
-      <c r="G6" s="213"/>
+      <c r="G6" s="212"/>
       <c r="H6" s="33"/>
       <c r="I6" s="34"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="196"/>
-      <c r="B7" s="214" t="s">
+      <c r="A7" s="218"/>
+      <c r="B7" s="211" t="s">
         <v>253</v>
       </c>
       <c r="C7" s="89" t="s">
@@ -23315,13 +23417,13 @@
       </c>
       <c r="E7" s="65"/>
       <c r="F7" s="33"/>
-      <c r="G7" s="213"/>
+      <c r="G7" s="212"/>
       <c r="H7" s="33"/>
       <c r="I7" s="34"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="196"/>
-      <c r="B8" s="213"/>
+      <c r="A8" s="218"/>
+      <c r="B8" s="212"/>
       <c r="C8" s="89" t="s">
         <v>254</v>
       </c>
@@ -23330,13 +23432,13 @@
       </c>
       <c r="E8" s="67"/>
       <c r="F8" s="33"/>
-      <c r="G8" s="213"/>
+      <c r="G8" s="212"/>
       <c r="H8" s="33"/>
       <c r="I8" s="34"/>
     </row>
     <row r="9" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="216"/>
-      <c r="B9" s="215"/>
+      <c r="A9" s="231"/>
+      <c r="B9" s="224"/>
       <c r="C9" s="90" t="s">
         <v>253</v>
       </c>
@@ -23345,15 +23447,15 @@
       </c>
       <c r="E9" s="66"/>
       <c r="F9" s="35"/>
-      <c r="G9" s="215"/>
+      <c r="G9" s="224"/>
       <c r="H9" s="35"/>
       <c r="I9" s="36"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="195" t="s">
+      <c r="A10" s="217" t="s">
         <v>198</v>
       </c>
-      <c r="B10" s="212" t="s">
+      <c r="B10" s="223" t="s">
         <v>199</v>
       </c>
       <c r="C10" s="96" t="s">
@@ -23366,15 +23468,15 @@
         <v>202</v>
       </c>
       <c r="F10" s="31"/>
-      <c r="G10" s="212" t="s">
+      <c r="G10" s="223" t="s">
         <v>288</v>
       </c>
       <c r="H10" s="31"/>
       <c r="I10" s="32"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="196"/>
-      <c r="B11" s="213"/>
+      <c r="A11" s="218"/>
+      <c r="B11" s="212"/>
       <c r="C11" s="97" t="s">
         <v>203</v>
       </c>
@@ -23385,13 +23487,13 @@
         <v>205</v>
       </c>
       <c r="F11" s="33"/>
-      <c r="G11" s="213"/>
+      <c r="G11" s="212"/>
       <c r="H11" s="33"/>
       <c r="I11" s="34"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="196"/>
-      <c r="B12" s="213"/>
+      <c r="A12" s="218"/>
+      <c r="B12" s="212"/>
       <c r="C12" s="97" t="s">
         <v>206</v>
       </c>
@@ -23402,13 +23504,13 @@
         <v>208</v>
       </c>
       <c r="F12" s="33"/>
-      <c r="G12" s="213"/>
+      <c r="G12" s="212"/>
       <c r="H12" s="33"/>
       <c r="I12" s="34"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="196"/>
-      <c r="B13" s="211"/>
+      <c r="A13" s="218"/>
+      <c r="B13" s="213"/>
       <c r="C13" s="97" t="s">
         <v>209</v>
       </c>
@@ -23417,13 +23519,13 @@
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="33"/>
-      <c r="G13" s="211"/>
+      <c r="G13" s="213"/>
       <c r="H13" s="33"/>
       <c r="I13" s="34"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="196"/>
-      <c r="B14" s="214" t="s">
+      <c r="A14" s="218"/>
+      <c r="B14" s="211" t="s">
         <v>216</v>
       </c>
       <c r="C14" s="98" t="s">
@@ -23436,15 +23538,15 @@
         <v>219</v>
       </c>
       <c r="F14" s="33"/>
-      <c r="G14" s="214" t="s">
+      <c r="G14" s="211" t="s">
         <v>288</v>
       </c>
       <c r="H14" s="33"/>
       <c r="I14" s="34"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="196"/>
-      <c r="B15" s="213"/>
+      <c r="A15" s="218"/>
+      <c r="B15" s="212"/>
       <c r="C15" s="97" t="s">
         <v>220</v>
       </c>
@@ -23455,13 +23557,13 @@
         <v>205</v>
       </c>
       <c r="F15" s="33"/>
-      <c r="G15" s="213"/>
+      <c r="G15" s="212"/>
       <c r="H15" s="33"/>
       <c r="I15" s="34"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="196"/>
-      <c r="B16" s="211"/>
+      <c r="A16" s="218"/>
+      <c r="B16" s="213"/>
       <c r="C16" s="97" t="s">
         <v>222</v>
       </c>
@@ -23472,13 +23574,13 @@
         <v>224</v>
       </c>
       <c r="F16" s="33"/>
-      <c r="G16" s="211"/>
+      <c r="G16" s="213"/>
       <c r="H16" s="33"/>
       <c r="I16" s="34"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="196"/>
-      <c r="B17" s="214" t="s">
+      <c r="A17" s="218"/>
+      <c r="B17" s="211" t="s">
         <v>211</v>
       </c>
       <c r="C17" s="94" t="s">
@@ -23491,15 +23593,15 @@
         <v>282</v>
       </c>
       <c r="F17" s="33"/>
-      <c r="G17" s="214" t="s">
+      <c r="G17" s="211" t="s">
         <v>292</v>
       </c>
       <c r="H17" s="33"/>
       <c r="I17" s="34"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="196"/>
-      <c r="B18" s="211"/>
+      <c r="A18" s="218"/>
+      <c r="B18" s="213"/>
       <c r="C18" s="94" t="s">
         <v>214</v>
       </c>
@@ -23510,13 +23612,13 @@
         <v>281</v>
       </c>
       <c r="F18" s="33"/>
-      <c r="G18" s="211"/>
+      <c r="G18" s="213"/>
       <c r="H18" s="33"/>
       <c r="I18" s="34"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="196"/>
-      <c r="B19" s="214" t="s">
+      <c r="A19" s="218"/>
+      <c r="B19" s="211" t="s">
         <v>115</v>
       </c>
       <c r="C19" s="99" t="s">
@@ -23527,15 +23629,15 @@
       </c>
       <c r="E19" s="33"/>
       <c r="F19" s="33"/>
-      <c r="G19" s="213" t="s">
+      <c r="G19" s="212" t="s">
         <v>291</v>
       </c>
       <c r="H19" s="33"/>
       <c r="I19" s="34"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="196"/>
-      <c r="B20" s="211"/>
+      <c r="A20" s="218"/>
+      <c r="B20" s="213"/>
       <c r="C20" s="99" t="s">
         <v>118</v>
       </c>
@@ -23544,12 +23646,12 @@
       </c>
       <c r="E20" s="33"/>
       <c r="F20" s="33"/>
-      <c r="G20" s="213"/>
+      <c r="G20" s="212"/>
       <c r="H20" s="33"/>
       <c r="I20" s="34"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="196"/>
+      <c r="A21" s="218"/>
       <c r="B21" s="129" t="s">
         <v>295</v>
       </c>
@@ -23561,13 +23663,13 @@
       </c>
       <c r="E21" s="33"/>
       <c r="F21" s="33"/>
-      <c r="G21" s="211"/>
+      <c r="G21" s="213"/>
       <c r="H21" s="33"/>
       <c r="I21" s="34"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="196"/>
-      <c r="B22" s="214" t="s">
+      <c r="A22" s="218"/>
+      <c r="B22" s="211" t="s">
         <v>225</v>
       </c>
       <c r="C22" s="94" t="s">
@@ -23578,15 +23680,15 @@
       </c>
       <c r="E22" s="33"/>
       <c r="F22" s="33"/>
-      <c r="G22" s="214" t="s">
+      <c r="G22" s="211" t="s">
         <v>285</v>
       </c>
       <c r="H22" s="33"/>
       <c r="I22" s="34"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="196"/>
-      <c r="B23" s="213"/>
+      <c r="A23" s="218"/>
+      <c r="B23" s="212"/>
       <c r="C23" s="94" t="s">
         <v>228</v>
       </c>
@@ -23595,13 +23697,13 @@
       </c>
       <c r="E23" s="33"/>
       <c r="F23" s="33"/>
-      <c r="G23" s="213"/>
+      <c r="G23" s="212"/>
       <c r="H23" s="33"/>
       <c r="I23" s="34"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="196"/>
-      <c r="B24" s="213"/>
+      <c r="A24" s="218"/>
+      <c r="B24" s="212"/>
       <c r="C24" s="94" t="s">
         <v>274</v>
       </c>
@@ -23610,13 +23712,13 @@
       </c>
       <c r="E24" s="33"/>
       <c r="F24" s="33"/>
-      <c r="G24" s="211"/>
+      <c r="G24" s="213"/>
       <c r="H24" s="33"/>
       <c r="I24" s="34"/>
     </row>
     <row r="25" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="216"/>
-      <c r="B25" s="215"/>
+      <c r="A25" s="231"/>
+      <c r="B25" s="224"/>
       <c r="C25" s="95" t="s">
         <v>230</v>
       </c>
@@ -23632,10 +23734,10 @@
       <c r="I25" s="45"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="195" t="s">
+      <c r="A26" s="217" t="s">
         <v>232</v>
       </c>
-      <c r="B26" s="212" t="s">
+      <c r="B26" s="223" t="s">
         <v>233</v>
       </c>
       <c r="C26" s="91" t="s">
@@ -23646,15 +23748,15 @@
       </c>
       <c r="E26" s="31"/>
       <c r="F26" s="31"/>
-      <c r="G26" s="212" t="s">
+      <c r="G26" s="223" t="s">
         <v>286</v>
       </c>
       <c r="H26" s="31"/>
       <c r="I26" s="32"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="196"/>
-      <c r="B27" s="213"/>
+      <c r="A27" s="218"/>
+      <c r="B27" s="212"/>
       <c r="C27" s="92" t="s">
         <v>129</v>
       </c>
@@ -23663,13 +23765,13 @@
       </c>
       <c r="E27" s="33"/>
       <c r="F27" s="33"/>
-      <c r="G27" s="211"/>
+      <c r="G27" s="213"/>
       <c r="H27" s="33"/>
       <c r="I27" s="34"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="196"/>
-      <c r="B28" s="213"/>
+      <c r="A28" s="218"/>
+      <c r="B28" s="212"/>
       <c r="C28" s="100" t="s">
         <v>236</v>
       </c>
@@ -23678,15 +23780,15 @@
       </c>
       <c r="E28" s="33"/>
       <c r="F28" s="33"/>
-      <c r="G28" s="214" t="s">
+      <c r="G28" s="211" t="s">
         <v>289</v>
       </c>
       <c r="H28" s="33"/>
       <c r="I28" s="34"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="196"/>
-      <c r="B29" s="211"/>
+      <c r="A29" s="218"/>
+      <c r="B29" s="213"/>
       <c r="C29" s="100" t="s">
         <v>125</v>
       </c>
@@ -23695,12 +23797,12 @@
       </c>
       <c r="E29" s="33"/>
       <c r="F29" s="33"/>
-      <c r="G29" s="213"/>
+      <c r="G29" s="212"/>
       <c r="H29" s="33"/>
       <c r="I29" s="34"/>
     </row>
     <row r="30" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="216"/>
+      <c r="A30" s="231"/>
       <c r="B30" s="128" t="s">
         <v>239</v>
       </c>
@@ -23714,15 +23816,15 @@
         <v>256</v>
       </c>
       <c r="F30" s="35"/>
-      <c r="G30" s="215"/>
+      <c r="G30" s="224"/>
       <c r="H30" s="35"/>
       <c r="I30" s="36"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="195" t="s">
+      <c r="A31" s="217" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="212" t="s">
+      <c r="B31" s="223" t="s">
         <v>71</v>
       </c>
       <c r="C31" s="93" t="s">
@@ -23733,15 +23835,15 @@
       </c>
       <c r="E31" s="55"/>
       <c r="F31" s="55"/>
-      <c r="G31" s="212" t="s">
+      <c r="G31" s="223" t="s">
         <v>287</v>
       </c>
       <c r="H31" s="55"/>
       <c r="I31" s="56"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="196"/>
-      <c r="B32" s="211"/>
+      <c r="A32" s="218"/>
+      <c r="B32" s="213"/>
       <c r="C32" s="89" t="s">
         <v>294</v>
       </c>
@@ -23750,13 +23852,13 @@
       </c>
       <c r="E32" s="33"/>
       <c r="F32" s="33"/>
-      <c r="G32" s="211"/>
+      <c r="G32" s="213"/>
       <c r="H32" s="33"/>
       <c r="I32" s="34"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="196"/>
-      <c r="B33" s="214" t="s">
+      <c r="A33" s="218"/>
+      <c r="B33" s="211" t="s">
         <v>257</v>
       </c>
       <c r="C33" s="97" t="s">
@@ -23767,15 +23869,15 @@
       </c>
       <c r="E33" s="33"/>
       <c r="F33" s="33"/>
-      <c r="G33" s="214" t="s">
+      <c r="G33" s="211" t="s">
         <v>288</v>
       </c>
       <c r="H33" s="33"/>
       <c r="I33" s="34"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="196"/>
-      <c r="B34" s="213"/>
+      <c r="A34" s="218"/>
+      <c r="B34" s="212"/>
       <c r="C34" s="97" t="s">
         <v>260</v>
       </c>
@@ -23784,13 +23886,13 @@
       </c>
       <c r="E34" s="33"/>
       <c r="F34" s="33"/>
-      <c r="G34" s="213"/>
+      <c r="G34" s="212"/>
       <c r="H34" s="33"/>
       <c r="I34" s="34"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="196"/>
-      <c r="B35" s="211"/>
+      <c r="A35" s="218"/>
+      <c r="B35" s="213"/>
       <c r="C35" s="97" t="s">
         <v>259</v>
       </c>
@@ -23801,13 +23903,13 @@
         <v>264</v>
       </c>
       <c r="F35" s="33"/>
-      <c r="G35" s="211"/>
+      <c r="G35" s="213"/>
       <c r="H35" s="33"/>
       <c r="I35" s="34"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="196"/>
-      <c r="B36" s="214" t="s">
+      <c r="A36" s="218"/>
+      <c r="B36" s="211" t="s">
         <v>242</v>
       </c>
       <c r="C36" s="99" t="s">
@@ -23820,15 +23922,15 @@
         <v>245</v>
       </c>
       <c r="F36" s="33"/>
-      <c r="G36" s="214" t="s">
+      <c r="G36" s="211" t="s">
         <v>291</v>
       </c>
       <c r="H36" s="33"/>
       <c r="I36" s="34"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="196"/>
-      <c r="B37" s="211"/>
+      <c r="A37" s="218"/>
+      <c r="B37" s="213"/>
       <c r="C37" s="99" t="s">
         <v>246</v>
       </c>
@@ -23839,13 +23941,13 @@
         <v>248</v>
       </c>
       <c r="F37" s="33"/>
-      <c r="G37" s="213"/>
+      <c r="G37" s="212"/>
       <c r="H37" s="33"/>
       <c r="I37" s="34"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="196"/>
-      <c r="B38" s="214" t="s">
+      <c r="A38" s="218"/>
+      <c r="B38" s="211" t="s">
         <v>270</v>
       </c>
       <c r="C38" s="95" t="s">
@@ -23858,13 +23960,13 @@
         <v>250</v>
       </c>
       <c r="F38" s="44"/>
-      <c r="G38" s="213"/>
+      <c r="G38" s="212"/>
       <c r="H38" s="44"/>
       <c r="I38" s="45"/>
     </row>
     <row r="39" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="216"/>
-      <c r="B39" s="215"/>
+      <c r="A39" s="231"/>
+      <c r="B39" s="224"/>
       <c r="C39" s="95" t="s">
         <v>272</v>
       </c>
@@ -23875,7 +23977,7 @@
         <v>252</v>
       </c>
       <c r="F39" s="44"/>
-      <c r="G39" s="215"/>
+      <c r="G39" s="224"/>
       <c r="H39" s="44"/>
       <c r="I39" s="45"/>
     </row>
@@ -24131,6 +24233,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A31:A39"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="G26:G27"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="G4:G9"/>
@@ -24147,19 +24262,6 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="A31:A39"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="G26:G27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24209,52 +24311,52 @@
       <c r="O1" s="84"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="222" t="s">
+      <c r="A2" s="233" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="217" t="s">
+      <c r="B2" s="235" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="217" t="s">
+      <c r="C2" s="235" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="217" t="s">
+      <c r="D2" s="235" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="217" t="s">
+      <c r="E2" s="235" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="217" t="s">
+      <c r="F2" s="235" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="217" t="s">
+      <c r="G2" s="235" t="s">
         <v>277</v>
       </c>
-      <c r="H2" s="219" t="s">
+      <c r="H2" s="237" t="s">
         <v>276</v>
       </c>
-      <c r="I2" s="220"/>
-      <c r="J2" s="221"/>
-      <c r="K2" s="217" t="s">
+      <c r="I2" s="238"/>
+      <c r="J2" s="239"/>
+      <c r="K2" s="235" t="s">
         <v>275</v>
       </c>
-      <c r="L2" s="217" t="s">
+      <c r="L2" s="235" t="s">
         <v>278</v>
       </c>
-      <c r="M2" s="219" t="s">
+      <c r="M2" s="237" t="s">
         <v>279</v>
       </c>
-      <c r="N2" s="220"/>
-      <c r="O2" s="221"/>
+      <c r="N2" s="238"/>
+      <c r="O2" s="239"/>
     </row>
     <row r="3" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="223"/>
-      <c r="B3" s="218"/>
-      <c r="C3" s="218"/>
-      <c r="D3" s="218"/>
-      <c r="E3" s="218"/>
-      <c r="F3" s="218"/>
-      <c r="G3" s="218"/>
+      <c r="A3" s="234"/>
+      <c r="B3" s="236"/>
+      <c r="C3" s="236"/>
+      <c r="D3" s="236"/>
+      <c r="E3" s="236"/>
+      <c r="F3" s="236"/>
+      <c r="G3" s="236"/>
       <c r="H3" s="122" t="s">
         <v>297</v>
       </c>
@@ -24264,8 +24366,8 @@
       <c r="J3" s="122" t="s">
         <v>299</v>
       </c>
-      <c r="K3" s="218"/>
-      <c r="L3" s="218"/>
+      <c r="K3" s="236"/>
+      <c r="L3" s="236"/>
       <c r="M3" s="122" t="s">
         <v>300</v>
       </c>
@@ -24294,10 +24396,10 @@
       <c r="O4" s="86"/>
     </row>
     <row r="5" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="224" t="s">
+      <c r="A5" s="232" t="s">
         <v>356</v>
       </c>
-      <c r="B5" s="212" t="s">
+      <c r="B5" s="223" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="88" t="s">
@@ -24306,7 +24408,7 @@
       <c r="D5" s="85">
         <v>1</v>
       </c>
-      <c r="E5" s="212" t="s">
+      <c r="E5" s="223" t="s">
         <v>284</v>
       </c>
       <c r="F5" s="85"/>
@@ -24325,15 +24427,15 @@
       <c r="O5" s="110"/>
     </row>
     <row r="6" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="196"/>
-      <c r="B6" s="213"/>
+      <c r="A6" s="218"/>
+      <c r="B6" s="212"/>
       <c r="C6" s="89" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="81">
         <v>1</v>
       </c>
-      <c r="E6" s="213"/>
+      <c r="E6" s="212"/>
       <c r="F6" s="81"/>
       <c r="G6" s="113" t="s">
         <v>316</v>
@@ -24350,15 +24452,15 @@
       <c r="O6" s="107"/>
     </row>
     <row r="7" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="196"/>
-      <c r="B7" s="211"/>
+      <c r="A7" s="218"/>
+      <c r="B7" s="213"/>
       <c r="C7" s="89" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="81">
         <v>1</v>
       </c>
-      <c r="E7" s="213"/>
+      <c r="E7" s="212"/>
       <c r="F7" s="81"/>
       <c r="G7" s="113" t="s">
         <v>316</v>
@@ -24375,8 +24477,8 @@
       <c r="O7" s="107"/>
     </row>
     <row r="8" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="196"/>
-      <c r="B8" s="214" t="s">
+      <c r="A8" s="218"/>
+      <c r="B8" s="211" t="s">
         <v>253</v>
       </c>
       <c r="C8" s="89" t="s">
@@ -24385,7 +24487,7 @@
       <c r="D8" s="81">
         <v>1</v>
       </c>
-      <c r="E8" s="213"/>
+      <c r="E8" s="212"/>
       <c r="F8" s="81"/>
       <c r="G8" s="107" t="s">
         <v>318</v>
@@ -24402,15 +24504,15 @@
       <c r="O8" s="107"/>
     </row>
     <row r="9" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="196"/>
-      <c r="B9" s="213"/>
+      <c r="A9" s="218"/>
+      <c r="B9" s="212"/>
       <c r="C9" s="89" t="s">
         <v>254</v>
       </c>
       <c r="D9" s="81">
         <v>1</v>
       </c>
-      <c r="E9" s="213"/>
+      <c r="E9" s="212"/>
       <c r="F9" s="81"/>
       <c r="G9" s="107" t="s">
         <v>319</v>
@@ -24427,15 +24529,15 @@
       <c r="O9" s="107"/>
     </row>
     <row r="10" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="216"/>
-      <c r="B10" s="215"/>
+      <c r="A10" s="231"/>
+      <c r="B10" s="224"/>
       <c r="C10" s="90" t="s">
         <v>253</v>
       </c>
       <c r="D10" s="87">
         <v>1</v>
       </c>
-      <c r="E10" s="215"/>
+      <c r="E10" s="224"/>
       <c r="F10" s="87"/>
       <c r="G10" s="107" t="s">
         <v>319</v>
@@ -24452,10 +24554,10 @@
       <c r="O10" s="111"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="224" t="s">
+      <c r="A11" s="232" t="s">
         <v>357</v>
       </c>
-      <c r="B11" s="212" t="s">
+      <c r="B11" s="223" t="s">
         <v>103</v>
       </c>
       <c r="C11" s="96" t="s">
@@ -24464,7 +24566,7 @@
       <c r="D11" s="85">
         <v>2</v>
       </c>
-      <c r="E11" s="212" t="s">
+      <c r="E11" s="223" t="s">
         <v>288</v>
       </c>
       <c r="F11" s="85"/>
@@ -24483,15 +24585,15 @@
       <c r="O11" s="110"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="196"/>
-      <c r="B12" s="213"/>
+      <c r="A12" s="218"/>
+      <c r="B12" s="212"/>
       <c r="C12" s="97" t="s">
         <v>203</v>
       </c>
       <c r="D12" s="81">
         <v>1</v>
       </c>
-      <c r="E12" s="213"/>
+      <c r="E12" s="212"/>
       <c r="F12" s="81"/>
       <c r="G12" s="107" t="s">
         <v>348</v>
@@ -24508,15 +24610,15 @@
       <c r="O12" s="107"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="196"/>
-      <c r="B13" s="213"/>
+      <c r="A13" s="218"/>
+      <c r="B13" s="212"/>
       <c r="C13" s="97" t="s">
         <v>206</v>
       </c>
       <c r="D13" s="81">
         <v>1</v>
       </c>
-      <c r="E13" s="213"/>
+      <c r="E13" s="212"/>
       <c r="F13" s="81"/>
       <c r="G13" s="107" t="s">
         <v>348</v>
@@ -24533,15 +24635,15 @@
       <c r="O13" s="107"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="196"/>
-      <c r="B14" s="211"/>
+      <c r="A14" s="218"/>
+      <c r="B14" s="213"/>
       <c r="C14" s="97" t="s">
         <v>209</v>
       </c>
       <c r="D14" s="81">
         <v>2</v>
       </c>
-      <c r="E14" s="211"/>
+      <c r="E14" s="213"/>
       <c r="F14" s="81"/>
       <c r="G14" s="107" t="s">
         <v>350</v>
@@ -24558,8 +24660,8 @@
       <c r="O14" s="107"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="196"/>
-      <c r="B15" s="214" t="s">
+      <c r="A15" s="218"/>
+      <c r="B15" s="211" t="s">
         <v>111</v>
       </c>
       <c r="C15" s="98" t="s">
@@ -24568,7 +24670,7 @@
       <c r="D15" s="81">
         <v>2</v>
       </c>
-      <c r="E15" s="214" t="s">
+      <c r="E15" s="211" t="s">
         <v>288</v>
       </c>
       <c r="F15" s="81"/>
@@ -24587,15 +24689,15 @@
       <c r="O15" s="107"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="196"/>
-      <c r="B16" s="213"/>
+      <c r="A16" s="218"/>
+      <c r="B16" s="212"/>
       <c r="C16" s="97" t="s">
         <v>220</v>
       </c>
       <c r="D16" s="81">
         <v>1</v>
       </c>
-      <c r="E16" s="213"/>
+      <c r="E16" s="212"/>
       <c r="F16" s="81"/>
       <c r="G16" s="107" t="s">
         <v>348</v>
@@ -24612,15 +24714,15 @@
       <c r="O16" s="107"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="196"/>
-      <c r="B17" s="213"/>
+      <c r="A17" s="218"/>
+      <c r="B17" s="212"/>
       <c r="C17" s="97" t="s">
         <v>222</v>
       </c>
       <c r="D17" s="81">
         <v>1</v>
       </c>
-      <c r="E17" s="211"/>
+      <c r="E17" s="213"/>
       <c r="F17" s="81"/>
       <c r="G17" s="107" t="s">
         <v>348</v>
@@ -24637,8 +24739,8 @@
       <c r="O17" s="107"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="196"/>
-      <c r="B18" s="214" t="s">
+      <c r="A18" s="218"/>
+      <c r="B18" s="211" t="s">
         <v>180</v>
       </c>
       <c r="C18" s="94" t="s">
@@ -24647,7 +24749,7 @@
       <c r="D18" s="81">
         <v>1</v>
       </c>
-      <c r="E18" s="214" t="s">
+      <c r="E18" s="211" t="s">
         <v>292</v>
       </c>
       <c r="F18" s="81"/>
@@ -24666,15 +24768,15 @@
       <c r="O18" s="107"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="196"/>
-      <c r="B19" s="211"/>
+      <c r="A19" s="218"/>
+      <c r="B19" s="213"/>
       <c r="C19" s="94" t="s">
         <v>184</v>
       </c>
       <c r="D19" s="81">
         <v>2</v>
       </c>
-      <c r="E19" s="211"/>
+      <c r="E19" s="213"/>
       <c r="F19" s="81"/>
       <c r="G19" s="107" t="s">
         <v>345</v>
@@ -24691,8 +24793,8 @@
       <c r="O19" s="107"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="196"/>
-      <c r="B20" s="214" t="s">
+      <c r="A20" s="218"/>
+      <c r="B20" s="211" t="s">
         <v>115</v>
       </c>
       <c r="C20" s="99" t="s">
@@ -24701,7 +24803,7 @@
       <c r="D20" s="81">
         <v>1</v>
       </c>
-      <c r="E20" s="213" t="s">
+      <c r="E20" s="212" t="s">
         <v>307</v>
       </c>
       <c r="F20" s="81"/>
@@ -24720,15 +24822,15 @@
       <c r="O20" s="107"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="196"/>
-      <c r="B21" s="211"/>
+      <c r="A21" s="218"/>
+      <c r="B21" s="213"/>
       <c r="C21" s="99" t="s">
         <v>118</v>
       </c>
       <c r="D21" s="81">
         <v>2</v>
       </c>
-      <c r="E21" s="213"/>
+      <c r="E21" s="212"/>
       <c r="F21" s="81"/>
       <c r="G21" s="107" t="s">
         <v>330</v>
@@ -24745,7 +24847,7 @@
       <c r="O21" s="107"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="196"/>
+      <c r="A22" s="218"/>
       <c r="B22" s="126" t="s">
         <v>302</v>
       </c>
@@ -24755,7 +24857,7 @@
       <c r="D22" s="81">
         <v>1</v>
       </c>
-      <c r="E22" s="211"/>
+      <c r="E22" s="213"/>
       <c r="F22" s="81"/>
       <c r="G22" s="107" t="s">
         <v>333</v>
@@ -24772,8 +24874,8 @@
       <c r="O22" s="107"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="196"/>
-      <c r="B23" s="214" t="s">
+      <c r="A23" s="218"/>
+      <c r="B23" s="211" t="s">
         <v>43</v>
       </c>
       <c r="C23" s="94" t="s">
@@ -24782,7 +24884,7 @@
       <c r="D23" s="81">
         <v>3</v>
       </c>
-      <c r="E23" s="214" t="s">
+      <c r="E23" s="211" t="s">
         <v>285</v>
       </c>
       <c r="F23" s="81"/>
@@ -24801,15 +24903,15 @@
       <c r="O23" s="107"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="196"/>
-      <c r="B24" s="213"/>
+      <c r="A24" s="218"/>
+      <c r="B24" s="212"/>
       <c r="C24" s="94" t="s">
         <v>178</v>
       </c>
       <c r="D24" s="81">
         <v>3</v>
       </c>
-      <c r="E24" s="213"/>
+      <c r="E24" s="212"/>
       <c r="F24" s="81"/>
       <c r="G24" s="107" t="s">
         <v>321</v>
@@ -24826,15 +24928,15 @@
       <c r="O24" s="107"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="196"/>
-      <c r="B25" s="213"/>
+      <c r="A25" s="218"/>
+      <c r="B25" s="212"/>
       <c r="C25" s="94" t="s">
         <v>280</v>
       </c>
       <c r="D25" s="81">
         <v>3</v>
       </c>
-      <c r="E25" s="211"/>
+      <c r="E25" s="213"/>
       <c r="F25" s="81"/>
       <c r="G25" s="107" t="s">
         <v>321</v>
@@ -24851,8 +24953,8 @@
       <c r="O25" s="107"/>
     </row>
     <row r="26" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="216"/>
-      <c r="B26" s="215"/>
+      <c r="A26" s="231"/>
+      <c r="B26" s="224"/>
       <c r="C26" s="95" t="s">
         <v>273</v>
       </c>
@@ -24878,10 +24980,10 @@
       <c r="O26" s="112"/>
     </row>
     <row r="27" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="224" t="s">
+      <c r="A27" s="232" t="s">
         <v>358</v>
       </c>
-      <c r="B27" s="212" t="s">
+      <c r="B27" s="223" t="s">
         <v>127</v>
       </c>
       <c r="C27" s="91" t="s">
@@ -24890,7 +24992,7 @@
       <c r="D27" s="85">
         <v>1</v>
       </c>
-      <c r="E27" s="212" t="s">
+      <c r="E27" s="223" t="s">
         <v>286</v>
       </c>
       <c r="F27" s="85"/>
@@ -24909,15 +25011,15 @@
       <c r="O27" s="110"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="196"/>
-      <c r="B28" s="213"/>
+      <c r="A28" s="218"/>
+      <c r="B28" s="212"/>
       <c r="C28" s="92" t="s">
         <v>129</v>
       </c>
       <c r="D28" s="81">
         <v>1</v>
       </c>
-      <c r="E28" s="211"/>
+      <c r="E28" s="213"/>
       <c r="F28" s="81"/>
       <c r="G28" s="110" t="s">
         <v>324</v>
@@ -24934,15 +25036,15 @@
       <c r="O28" s="107"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="196"/>
-      <c r="B29" s="213"/>
+      <c r="A29" s="218"/>
+      <c r="B29" s="212"/>
       <c r="C29" s="100" t="s">
         <v>132</v>
       </c>
       <c r="D29" s="81">
         <v>3</v>
       </c>
-      <c r="E29" s="214" t="s">
+      <c r="E29" s="211" t="s">
         <v>289</v>
       </c>
       <c r="F29" s="81"/>
@@ -24961,15 +25063,15 @@
       <c r="O29" s="107"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="196"/>
-      <c r="B30" s="211"/>
+      <c r="A30" s="218"/>
+      <c r="B30" s="213"/>
       <c r="C30" s="100" t="s">
         <v>125</v>
       </c>
       <c r="D30" s="81">
         <v>3</v>
       </c>
-      <c r="E30" s="213"/>
+      <c r="E30" s="212"/>
       <c r="F30" s="81"/>
       <c r="G30" s="107" t="s">
         <v>337</v>
@@ -24986,7 +25088,7 @@
       <c r="O30" s="107"/>
     </row>
     <row r="31" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="216"/>
+      <c r="A31" s="231"/>
       <c r="B31" s="87" t="s">
         <v>139</v>
       </c>
@@ -24996,7 +25098,7 @@
       <c r="D31" s="87">
         <v>2</v>
       </c>
-      <c r="E31" s="215"/>
+      <c r="E31" s="224"/>
       <c r="F31" s="87"/>
       <c r="G31" s="111" t="s">
         <v>338</v>
@@ -25013,10 +25115,10 @@
       <c r="O31" s="111"/>
     </row>
     <row r="32" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="224" t="s">
+      <c r="A32" s="232" t="s">
         <v>359</v>
       </c>
-      <c r="B32" s="212" t="s">
+      <c r="B32" s="223" t="s">
         <v>71</v>
       </c>
       <c r="C32" s="93" t="s">
@@ -25025,7 +25127,7 @@
       <c r="D32" s="83">
         <v>3</v>
       </c>
-      <c r="E32" s="212" t="s">
+      <c r="E32" s="223" t="s">
         <v>287</v>
       </c>
       <c r="F32" s="83"/>
@@ -25044,15 +25146,15 @@
       <c r="O32" s="113"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="196"/>
-      <c r="B33" s="211"/>
+      <c r="A33" s="218"/>
+      <c r="B33" s="213"/>
       <c r="C33" s="89" t="s">
         <v>293</v>
       </c>
       <c r="D33" s="81">
         <v>3</v>
       </c>
-      <c r="E33" s="211"/>
+      <c r="E33" s="213"/>
       <c r="F33" s="81"/>
       <c r="G33" s="123" t="s">
         <v>326</v>
@@ -25069,8 +25171,8 @@
       <c r="O33" s="107"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="196"/>
-      <c r="B34" s="214" t="s">
+      <c r="A34" s="218"/>
+      <c r="B34" s="211" t="s">
         <v>257</v>
       </c>
       <c r="C34" s="97" t="s">
@@ -25079,7 +25181,7 @@
       <c r="D34" s="81">
         <v>2</v>
       </c>
-      <c r="E34" s="214" t="s">
+      <c r="E34" s="211" t="s">
         <v>288</v>
       </c>
       <c r="F34" s="81"/>
@@ -25098,15 +25200,15 @@
       <c r="O34" s="107"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="196"/>
-      <c r="B35" s="213"/>
+      <c r="A35" s="218"/>
+      <c r="B35" s="212"/>
       <c r="C35" s="97" t="s">
         <v>260</v>
       </c>
       <c r="D35" s="81">
         <v>2</v>
       </c>
-      <c r="E35" s="213"/>
+      <c r="E35" s="212"/>
       <c r="F35" s="81"/>
       <c r="G35" s="107" t="s">
         <v>353</v>
@@ -25123,15 +25225,15 @@
       <c r="O35" s="107"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="196"/>
-      <c r="B36" s="211"/>
+      <c r="A36" s="218"/>
+      <c r="B36" s="213"/>
       <c r="C36" s="97" t="s">
         <v>259</v>
       </c>
       <c r="D36" s="81">
         <v>2</v>
       </c>
-      <c r="E36" s="211"/>
+      <c r="E36" s="213"/>
       <c r="F36" s="81"/>
       <c r="G36" s="107" t="s">
         <v>354</v>
@@ -25148,8 +25250,8 @@
       <c r="O36" s="107"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="196"/>
-      <c r="B37" s="214" t="s">
+      <c r="A37" s="218"/>
+      <c r="B37" s="211" t="s">
         <v>154</v>
       </c>
       <c r="C37" s="99" t="s">
@@ -25158,7 +25260,7 @@
       <c r="D37" s="81">
         <v>2</v>
       </c>
-      <c r="E37" s="214" t="s">
+      <c r="E37" s="211" t="s">
         <v>291</v>
       </c>
       <c r="F37" s="81"/>
@@ -25177,15 +25279,15 @@
       <c r="O37" s="107"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="196"/>
-      <c r="B38" s="211"/>
+      <c r="A38" s="218"/>
+      <c r="B38" s="213"/>
       <c r="C38" s="99" t="s">
         <v>92</v>
       </c>
       <c r="D38" s="81">
         <v>3</v>
       </c>
-      <c r="E38" s="213"/>
+      <c r="E38" s="212"/>
       <c r="F38" s="81"/>
       <c r="G38" s="107" t="s">
         <v>337</v>
@@ -25202,8 +25304,8 @@
       <c r="O38" s="107"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="196"/>
-      <c r="B39" s="214" t="s">
+      <c r="A39" s="218"/>
+      <c r="B39" s="211" t="s">
         <v>269</v>
       </c>
       <c r="C39" s="95" t="s">
@@ -25212,7 +25314,7 @@
       <c r="D39" s="82">
         <v>2</v>
       </c>
-      <c r="E39" s="213"/>
+      <c r="E39" s="212"/>
       <c r="F39" s="82"/>
       <c r="G39" s="107" t="s">
         <v>341</v>
@@ -25229,15 +25331,15 @@
       <c r="O39" s="112"/>
     </row>
     <row r="40" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="216"/>
-      <c r="B40" s="215"/>
+      <c r="A40" s="231"/>
+      <c r="B40" s="224"/>
       <c r="C40" s="95" t="s">
         <v>272</v>
       </c>
       <c r="D40" s="82">
         <v>3</v>
       </c>
-      <c r="E40" s="215"/>
+      <c r="E40" s="224"/>
       <c r="F40" s="82"/>
       <c r="G40" s="112" t="s">
         <v>340</v>
@@ -25629,18 +25731,16 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="A32:A40"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="E37:E40"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="E23:E25"/>
     <mergeCell ref="E27:E28"/>
@@ -25657,16 +25757,18 @@
     <mergeCell ref="A11:A26"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="B15:B17"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="E37:E40"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="A32:A40"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25678,93 +25780,93 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.75" customWidth="1"/>
     <col min="3" max="3" width="21.125" customWidth="1"/>
-    <col min="7" max="13" width="9" style="162"/>
+    <col min="7" max="13" width="9" style="161"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="225" t="s">
+      <c r="A1" s="253" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="225" t="s">
+      <c r="B1" s="253" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="249" t="s">
+      <c r="C1" s="256" t="s">
         <v>416</v>
       </c>
-      <c r="D1" s="225" t="s">
+      <c r="D1" s="253" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="225" t="s">
+      <c r="E1" s="253" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="253" t="s">
+      <c r="F1" s="243" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="254"/>
-      <c r="H1" s="254"/>
-      <c r="I1" s="255"/>
-      <c r="J1" s="250" t="s">
+      <c r="G1" s="244"/>
+      <c r="H1" s="244"/>
+      <c r="I1" s="245"/>
+      <c r="J1" s="240" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="251"/>
-      <c r="L1" s="251"/>
-      <c r="M1" s="252"/>
+      <c r="K1" s="241"/>
+      <c r="L1" s="241"/>
+      <c r="M1" s="242"/>
     </row>
     <row r="2" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="226"/>
-      <c r="B2" s="226"/>
-      <c r="C2" s="226"/>
-      <c r="D2" s="226"/>
-      <c r="E2" s="226"/>
-      <c r="F2" s="225" t="s">
+      <c r="A2" s="255"/>
+      <c r="B2" s="255"/>
+      <c r="C2" s="255"/>
+      <c r="D2" s="255"/>
+      <c r="E2" s="255"/>
+      <c r="F2" s="253" t="s">
         <v>361</v>
       </c>
-      <c r="G2" s="250" t="s">
+      <c r="G2" s="240" t="s">
         <v>362</v>
       </c>
-      <c r="H2" s="251"/>
-      <c r="I2" s="252"/>
-      <c r="J2" s="256" t="s">
+      <c r="H2" s="241"/>
+      <c r="I2" s="242"/>
+      <c r="J2" s="249" t="s">
         <v>361</v>
       </c>
-      <c r="K2" s="250" t="s">
+      <c r="K2" s="240" t="s">
         <v>362</v>
       </c>
-      <c r="L2" s="251"/>
-      <c r="M2" s="252"/>
+      <c r="L2" s="241"/>
+      <c r="M2" s="242"/>
     </row>
     <row r="3" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="227"/>
-      <c r="B3" s="227"/>
-      <c r="C3" s="227"/>
-      <c r="D3" s="227"/>
-      <c r="E3" s="227"/>
-      <c r="F3" s="227"/>
+      <c r="A3" s="254"/>
+      <c r="B3" s="254"/>
+      <c r="C3" s="254"/>
+      <c r="D3" s="254"/>
+      <c r="E3" s="254"/>
+      <c r="F3" s="254"/>
       <c r="G3" s="158" t="s">
         <v>363</v>
       </c>
       <c r="H3" s="158" t="s">
         <v>364</v>
       </c>
-      <c r="I3" s="163" t="s">
+      <c r="I3" s="162" t="s">
         <v>365</v>
       </c>
-      <c r="J3" s="257"/>
+      <c r="J3" s="250"/>
       <c r="K3" s="158" t="s">
         <v>363</v>
       </c>
       <c r="L3" s="158" t="s">
         <v>364</v>
       </c>
-      <c r="M3" s="163" t="s">
+      <c r="M3" s="162" t="s">
         <v>365</v>
       </c>
     </row>
@@ -25784,10 +25886,10 @@
       <c r="M4" s="157"/>
     </row>
     <row r="5" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="230" t="s">
+      <c r="A5" s="270" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="233" t="s">
+      <c r="B5" s="251" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="136" t="s">
@@ -25796,7 +25898,7 @@
       <c r="D5" s="137">
         <v>1</v>
       </c>
-      <c r="E5" s="233" t="s">
+      <c r="E5" s="251" t="s">
         <v>366</v>
       </c>
       <c r="F5" s="137" t="s">
@@ -25825,15 +25927,15 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="231"/>
-      <c r="B6" s="235"/>
+      <c r="A6" s="271"/>
+      <c r="B6" s="247"/>
       <c r="C6" s="139" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="140">
         <v>1</v>
       </c>
-      <c r="E6" s="235"/>
+      <c r="E6" s="247"/>
       <c r="F6" s="140" t="s">
         <v>384</v>
       </c>
@@ -25860,15 +25962,15 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="231"/>
-      <c r="B7" s="234"/>
+      <c r="A7" s="271"/>
+      <c r="B7" s="248"/>
       <c r="C7" s="139" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="140">
         <v>1</v>
       </c>
-      <c r="E7" s="235"/>
+      <c r="E7" s="247"/>
       <c r="F7" s="140" t="s">
         <v>384</v>
       </c>
@@ -25895,7 +25997,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="232"/>
+      <c r="A8" s="272"/>
       <c r="B8" s="144" t="s">
         <v>265</v>
       </c>
@@ -25905,7 +26007,7 @@
       <c r="D8" s="143">
         <v>1</v>
       </c>
-      <c r="E8" s="229"/>
+      <c r="E8" s="252"/>
       <c r="F8" s="143" t="s">
         <v>386</v>
       </c>
@@ -25932,10 +26034,10 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="230" t="s">
+      <c r="A9" s="270" t="s">
         <v>387</v>
       </c>
-      <c r="B9" s="233" t="s">
+      <c r="B9" s="251" t="s">
         <v>388</v>
       </c>
       <c r="C9" s="136" t="s">
@@ -25944,7 +26046,7 @@
       <c r="D9" s="137">
         <v>2</v>
       </c>
-      <c r="E9" s="233" t="s">
+      <c r="E9" s="251" t="s">
         <v>288</v>
       </c>
       <c r="F9" s="137" t="s">
@@ -25956,7 +26058,7 @@
       <c r="H9" s="149" t="s">
         <v>437</v>
       </c>
-      <c r="I9" s="164" t="s">
+      <c r="I9" s="163" t="s">
         <v>439</v>
       </c>
       <c r="J9" s="149" t="s">
@@ -25973,15 +26075,15 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="231"/>
-      <c r="B10" s="235"/>
+      <c r="A10" s="271"/>
+      <c r="B10" s="247"/>
       <c r="C10" s="139" t="s">
         <v>391</v>
       </c>
       <c r="D10" s="140">
         <v>1</v>
       </c>
-      <c r="E10" s="235"/>
+      <c r="E10" s="247"/>
       <c r="F10" s="140" t="s">
         <v>386</v>
       </c>
@@ -25991,7 +26093,7 @@
       <c r="H10" s="152" t="s">
         <v>437</v>
       </c>
-      <c r="I10" s="182" t="s">
+      <c r="I10" s="181" t="s">
         <v>436</v>
       </c>
       <c r="J10" s="152" t="s">
@@ -26008,15 +26110,15 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="231"/>
-      <c r="B11" s="235"/>
+      <c r="A11" s="271"/>
+      <c r="B11" s="247"/>
       <c r="C11" s="139" t="s">
         <v>392</v>
       </c>
       <c r="D11" s="140">
         <v>1</v>
       </c>
-      <c r="E11" s="235"/>
+      <c r="E11" s="247"/>
       <c r="F11" s="140" t="s">
         <v>386</v>
       </c>
@@ -26043,15 +26145,15 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="231"/>
-      <c r="B12" s="234"/>
+      <c r="A12" s="271"/>
+      <c r="B12" s="248"/>
       <c r="C12" s="139" t="s">
         <v>393</v>
       </c>
       <c r="D12" s="140">
         <v>2</v>
       </c>
-      <c r="E12" s="234"/>
+      <c r="E12" s="248"/>
       <c r="F12" s="140" t="s">
         <v>390</v>
       </c>
@@ -26078,8 +26180,8 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="231"/>
-      <c r="B13" s="228" t="s">
+      <c r="A13" s="271"/>
+      <c r="B13" s="246" t="s">
         <v>394</v>
       </c>
       <c r="C13" s="139" t="s">
@@ -26088,7 +26190,7 @@
       <c r="D13" s="140">
         <v>2</v>
       </c>
-      <c r="E13" s="228" t="s">
+      <c r="E13" s="246" t="s">
         <v>288</v>
       </c>
       <c r="F13" s="140" t="s">
@@ -26117,15 +26219,15 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="231"/>
-      <c r="B14" s="235"/>
+      <c r="A14" s="271"/>
+      <c r="B14" s="247"/>
       <c r="C14" s="139" t="s">
         <v>396</v>
       </c>
       <c r="D14" s="140">
         <v>1</v>
       </c>
-      <c r="E14" s="235"/>
+      <c r="E14" s="247"/>
       <c r="F14" s="140" t="s">
         <v>386</v>
       </c>
@@ -26152,19 +26254,19 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="231"/>
-      <c r="B15" s="234"/>
+      <c r="A15" s="271"/>
+      <c r="B15" s="248"/>
       <c r="C15" s="139" t="s">
         <v>397</v>
       </c>
       <c r="D15" s="140">
         <v>1</v>
       </c>
-      <c r="E15" s="234"/>
+      <c r="E15" s="248"/>
       <c r="F15" s="140" t="s">
         <v>386</v>
       </c>
-      <c r="G15" s="182" t="s">
+      <c r="G15" s="181" t="s">
         <v>435</v>
       </c>
       <c r="H15" s="152" t="s">
@@ -26187,8 +26289,8 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="231"/>
-      <c r="B16" s="233" t="s">
+      <c r="A16" s="271"/>
+      <c r="B16" s="251" t="s">
         <v>266</v>
       </c>
       <c r="C16" s="136" t="s">
@@ -26197,7 +26299,7 @@
       <c r="D16" s="137">
         <v>1</v>
       </c>
-      <c r="E16" s="233" t="s">
+      <c r="E16" s="251" t="s">
         <v>399</v>
       </c>
       <c r="F16" s="137" t="s">
@@ -26206,17 +26308,17 @@
       <c r="G16" s="147" t="s">
         <v>427</v>
       </c>
-      <c r="H16" s="164" t="s">
-        <v>455</v>
-      </c>
-      <c r="I16" s="164" t="s">
-        <v>456</v>
+      <c r="H16" s="163" t="s">
+        <v>453</v>
+      </c>
+      <c r="I16" s="163" t="s">
+        <v>454</v>
       </c>
       <c r="J16" s="149" t="s">
         <v>400</v>
       </c>
-      <c r="K16" s="149" t="s">
-        <v>383</v>
+      <c r="K16" s="163" t="s">
+        <v>483</v>
       </c>
       <c r="L16" s="149" t="s">
         <v>401</v>
@@ -26226,26 +26328,26 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="231"/>
-      <c r="B17" s="234"/>
+      <c r="A17" s="271"/>
+      <c r="B17" s="248"/>
       <c r="C17" s="139" t="s">
         <v>402</v>
       </c>
       <c r="D17" s="140">
         <v>2</v>
       </c>
-      <c r="E17" s="234"/>
+      <c r="E17" s="248"/>
       <c r="F17" s="140" t="s">
         <v>400</v>
       </c>
-      <c r="G17" s="182" t="s">
-        <v>453</v>
-      </c>
-      <c r="H17" s="182" t="s">
-        <v>454</v>
-      </c>
-      <c r="I17" s="182" t="s">
-        <v>454</v>
+      <c r="G17" s="181" t="s">
+        <v>451</v>
+      </c>
+      <c r="H17" s="181" t="s">
+        <v>452</v>
+      </c>
+      <c r="I17" s="181" t="s">
+        <v>452</v>
       </c>
       <c r="J17" s="152" t="s">
         <v>367</v>
@@ -26261,8 +26363,8 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="231"/>
-      <c r="B18" s="228" t="s">
+      <c r="A18" s="271"/>
+      <c r="B18" s="246" t="s">
         <v>115</v>
       </c>
       <c r="C18" s="139" t="s">
@@ -26271,7 +26373,7 @@
       <c r="D18" s="140">
         <v>1</v>
       </c>
-      <c r="E18" s="228" t="s">
+      <c r="E18" s="246" t="s">
         <v>376</v>
       </c>
       <c r="F18" s="140" t="s">
@@ -26300,15 +26402,15 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="231"/>
-      <c r="B19" s="234"/>
+      <c r="A19" s="271"/>
+      <c r="B19" s="248"/>
       <c r="C19" s="139" t="s">
         <v>118</v>
       </c>
       <c r="D19" s="140">
         <v>2</v>
       </c>
-      <c r="E19" s="235"/>
+      <c r="E19" s="247"/>
       <c r="F19" s="140" t="s">
         <v>404</v>
       </c>
@@ -26335,7 +26437,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="231"/>
+      <c r="A20" s="271"/>
       <c r="B20" s="146" t="s">
         <v>405</v>
       </c>
@@ -26345,7 +26447,7 @@
       <c r="D20" s="140">
         <v>1</v>
       </c>
-      <c r="E20" s="234"/>
+      <c r="E20" s="248"/>
       <c r="F20" s="140" t="s">
         <v>390</v>
       </c>
@@ -26372,8 +26474,8 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="231"/>
-      <c r="B21" s="228" t="s">
+      <c r="A21" s="271"/>
+      <c r="B21" s="246" t="s">
         <v>407</v>
       </c>
       <c r="C21" s="139" t="s">
@@ -26382,7 +26484,7 @@
       <c r="D21" s="140">
         <v>3</v>
       </c>
-      <c r="E21" s="228" t="s">
+      <c r="E21" s="246" t="s">
         <v>366</v>
       </c>
       <c r="F21" s="140" t="s">
@@ -26411,15 +26513,15 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="231"/>
-      <c r="B22" s="235"/>
+      <c r="A22" s="271"/>
+      <c r="B22" s="247"/>
       <c r="C22" s="139" t="s">
         <v>410</v>
       </c>
       <c r="D22" s="140">
         <v>3</v>
       </c>
-      <c r="E22" s="235"/>
+      <c r="E22" s="247"/>
       <c r="F22" s="140" t="s">
         <v>404</v>
       </c>
@@ -26446,15 +26548,15 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="231"/>
-      <c r="B23" s="235"/>
+      <c r="A23" s="271"/>
+      <c r="B23" s="247"/>
       <c r="C23" s="139" t="s">
         <v>280</v>
       </c>
       <c r="D23" s="140">
         <v>3</v>
       </c>
-      <c r="E23" s="234"/>
+      <c r="E23" s="248"/>
       <c r="F23" s="140" t="s">
         <v>404</v>
       </c>
@@ -26480,9 +26582,9 @@
         <v>403</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="232"/>
-      <c r="B24" s="229"/>
+    <row r="24" spans="1:13" ht="25.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="272"/>
+      <c r="B24" s="252"/>
       <c r="C24" s="142" t="s">
         <v>411</v>
       </c>
@@ -26490,19 +26592,19 @@
         <v>2</v>
       </c>
       <c r="E24" s="144" t="s">
-        <v>376</v>
+        <v>480</v>
       </c>
       <c r="F24" s="143" t="s">
         <v>400</v>
       </c>
-      <c r="G24" s="161" t="s">
+      <c r="G24" s="275" t="s">
         <v>440</v>
       </c>
-      <c r="H24" s="155" t="s">
-        <v>446</v>
-      </c>
-      <c r="I24" s="155" t="s">
-        <v>445</v>
+      <c r="H24" s="160" t="s">
+        <v>481</v>
+      </c>
+      <c r="I24" s="160" t="s">
+        <v>482</v>
       </c>
       <c r="J24" s="152" t="s">
         <v>385</v>
@@ -26518,10 +26620,10 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="230" t="s">
+      <c r="A25" s="270" t="s">
         <v>412</v>
       </c>
-      <c r="B25" s="233" t="s">
+      <c r="B25" s="251" t="s">
         <v>413</v>
       </c>
       <c r="C25" s="136" t="s">
@@ -26530,7 +26632,7 @@
       <c r="D25" s="137">
         <v>1</v>
       </c>
-      <c r="E25" s="233" t="s">
+      <c r="E25" s="251" t="s">
         <v>366</v>
       </c>
       <c r="F25" s="138" t="s">
@@ -26559,15 +26661,15 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="231"/>
-      <c r="B26" s="235"/>
+      <c r="A26" s="271"/>
+      <c r="B26" s="247"/>
       <c r="C26" s="139" t="s">
         <v>129</v>
       </c>
       <c r="D26" s="140">
         <v>1</v>
       </c>
-      <c r="E26" s="234"/>
+      <c r="E26" s="248"/>
       <c r="F26" s="137" t="s">
         <v>370</v>
       </c>
@@ -26594,15 +26696,15 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="231"/>
-      <c r="B27" s="235"/>
+      <c r="A27" s="271"/>
+      <c r="B27" s="247"/>
       <c r="C27" s="139" t="s">
         <v>417</v>
       </c>
       <c r="D27" s="140">
         <v>3</v>
       </c>
-      <c r="E27" s="228" t="s">
+      <c r="E27" s="246" t="s">
         <v>376</v>
       </c>
       <c r="F27" s="140" t="s">
@@ -26615,7 +26717,7 @@
         <v>418</v>
       </c>
       <c r="I27" s="152" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="J27" s="152" t="s">
         <v>409</v>
@@ -26631,15 +26733,15 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="231"/>
-      <c r="B28" s="234"/>
+      <c r="A28" s="271"/>
+      <c r="B28" s="248"/>
       <c r="C28" s="139" t="s">
         <v>125</v>
       </c>
       <c r="D28" s="140">
         <v>3</v>
       </c>
-      <c r="E28" s="235"/>
+      <c r="E28" s="247"/>
       <c r="F28" s="140" t="s">
         <v>377</v>
       </c>
@@ -26647,10 +26749,10 @@
         <v>431</v>
       </c>
       <c r="H28" s="152" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I28" s="152" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="J28" s="152" t="s">
         <v>409</v>
@@ -26666,7 +26768,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="232"/>
+      <c r="A29" s="272"/>
       <c r="B29" s="144" t="s">
         <v>414</v>
       </c>
@@ -26676,18 +26778,18 @@
       <c r="D29" s="143">
         <v>2</v>
       </c>
-      <c r="E29" s="229"/>
+      <c r="E29" s="252"/>
       <c r="F29" s="143" t="s">
         <v>370</v>
       </c>
-      <c r="G29" s="161" t="s">
+      <c r="G29" s="160" t="s">
         <v>441</v>
       </c>
       <c r="H29" s="155" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="I29" s="155" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="J29" s="155" t="s">
         <v>409</v>
@@ -26699,14 +26801,14 @@
         <v>403</v>
       </c>
       <c r="M29" s="156" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="230" t="s">
+      <c r="A30" s="270" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="233" t="s">
+      <c r="B30" s="251" t="s">
         <v>71</v>
       </c>
       <c r="C30" s="136" t="s">
@@ -26715,7 +26817,7 @@
       <c r="D30" s="137">
         <v>3</v>
       </c>
-      <c r="E30" s="233" t="s">
+      <c r="E30" s="251" t="s">
         <v>366</v>
       </c>
       <c r="F30" s="138" t="s">
@@ -26744,15 +26846,15 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="231"/>
-      <c r="B31" s="234"/>
+      <c r="A31" s="271"/>
+      <c r="B31" s="248"/>
       <c r="C31" s="139" t="s">
         <v>74</v>
       </c>
       <c r="D31" s="140">
         <v>3</v>
       </c>
-      <c r="E31" s="234"/>
+      <c r="E31" s="248"/>
       <c r="F31" s="137" t="s">
         <v>367</v>
       </c>
@@ -26779,8 +26881,8 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="231"/>
-      <c r="B32" s="228" t="s">
+      <c r="A32" s="271"/>
+      <c r="B32" s="246" t="s">
         <v>267</v>
       </c>
       <c r="C32" s="139" t="s">
@@ -26789,7 +26891,7 @@
       <c r="D32" s="140">
         <v>2</v>
       </c>
-      <c r="E32" s="228" t="s">
+      <c r="E32" s="246" t="s">
         <v>288</v>
       </c>
       <c r="F32" s="140" t="s">
@@ -26818,15 +26920,15 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="231"/>
-      <c r="B33" s="235"/>
+      <c r="A33" s="271"/>
+      <c r="B33" s="247"/>
       <c r="C33" s="139" t="s">
         <v>372</v>
       </c>
       <c r="D33" s="140">
         <v>2</v>
       </c>
-      <c r="E33" s="235"/>
+      <c r="E33" s="247"/>
       <c r="F33" s="140" t="s">
         <v>370</v>
       </c>
@@ -26853,15 +26955,15 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="231"/>
-      <c r="B34" s="234"/>
+      <c r="A34" s="271"/>
+      <c r="B34" s="248"/>
       <c r="C34" s="139" t="s">
         <v>374</v>
       </c>
       <c r="D34" s="140">
         <v>2</v>
       </c>
-      <c r="E34" s="234"/>
+      <c r="E34" s="248"/>
       <c r="F34" s="140" t="s">
         <v>370</v>
       </c>
@@ -26888,8 +26990,8 @@
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="231"/>
-      <c r="B35" s="228" t="s">
+      <c r="A35" s="271"/>
+      <c r="B35" s="246" t="s">
         <v>268</v>
       </c>
       <c r="C35" s="139" t="s">
@@ -26898,8 +27000,8 @@
       <c r="D35" s="140">
         <v>2</v>
       </c>
-      <c r="E35" s="228" t="s">
-        <v>376</v>
+      <c r="E35" s="246" t="s">
+        <v>479</v>
       </c>
       <c r="F35" s="140" t="s">
         <v>377</v>
@@ -26927,15 +27029,15 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="231"/>
-      <c r="B36" s="234"/>
+      <c r="A36" s="271"/>
+      <c r="B36" s="248"/>
       <c r="C36" s="139" t="s">
         <v>106</v>
       </c>
       <c r="D36" s="140">
         <v>3</v>
       </c>
-      <c r="E36" s="235"/>
+      <c r="E36" s="247"/>
       <c r="F36" s="140" t="s">
         <v>377</v>
       </c>
@@ -26962,8 +27064,8 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="231"/>
-      <c r="B37" s="248" t="s">
+      <c r="A37" s="271"/>
+      <c r="B37" s="257" t="s">
         <v>378</v>
       </c>
       <c r="C37" s="141" t="s">
@@ -26972,18 +27074,18 @@
       <c r="D37" s="140">
         <v>2</v>
       </c>
-      <c r="E37" s="235"/>
+      <c r="E37" s="247"/>
       <c r="F37" s="140" t="s">
         <v>377</v>
       </c>
-      <c r="G37" s="159" t="s">
-        <v>371</v>
-      </c>
-      <c r="H37" s="152" t="s">
-        <v>368</v>
-      </c>
-      <c r="I37" s="152" t="s">
-        <v>368</v>
+      <c r="G37" s="274" t="s">
+        <v>475</v>
+      </c>
+      <c r="H37" s="181" t="s">
+        <v>475</v>
+      </c>
+      <c r="I37" s="181" t="s">
+        <v>477</v>
       </c>
       <c r="J37" s="152" t="s">
         <v>342</v>
@@ -26999,26 +27101,26 @@
       </c>
     </row>
     <row r="38" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="232"/>
-      <c r="B38" s="241"/>
+      <c r="A38" s="272"/>
+      <c r="B38" s="258"/>
       <c r="C38" s="142" t="s">
         <v>380</v>
       </c>
       <c r="D38" s="143">
         <v>3</v>
       </c>
-      <c r="E38" s="229"/>
+      <c r="E38" s="252"/>
       <c r="F38" s="143" t="s">
         <v>377</v>
       </c>
-      <c r="G38" s="160" t="s">
-        <v>371</v>
-      </c>
-      <c r="H38" s="155" t="s">
-        <v>368</v>
-      </c>
-      <c r="I38" s="155" t="s">
-        <v>368</v>
+      <c r="G38" s="275" t="s">
+        <v>475</v>
+      </c>
+      <c r="H38" s="160" t="s">
+        <v>476</v>
+      </c>
+      <c r="I38" s="160" t="s">
+        <v>478</v>
       </c>
       <c r="J38" s="155" t="s">
         <v>342</v>
@@ -27034,110 +27136,110 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="230" t="s">
+      <c r="A39" s="270" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="233" t="s">
+      <c r="B39" s="251" t="s">
         <v>69</v>
       </c>
-      <c r="C39" s="238" t="s">
+      <c r="C39" s="261" t="s">
         <v>69</v>
       </c>
-      <c r="D39" s="240">
+      <c r="D39" s="263">
         <v>1</v>
       </c>
-      <c r="E39" s="233" t="s">
+      <c r="E39" s="251" t="s">
         <v>366</v>
       </c>
-      <c r="F39" s="240" t="s">
+      <c r="F39" s="263" t="s">
         <v>381</v>
       </c>
-      <c r="G39" s="242" t="s">
+      <c r="G39" s="264" t="s">
         <v>420</v>
       </c>
-      <c r="H39" s="244" t="s">
+      <c r="H39" s="266" t="s">
         <v>432</v>
       </c>
-      <c r="I39" s="246" t="s">
+      <c r="I39" s="268" t="s">
         <v>371</v>
       </c>
-      <c r="J39" s="246" t="s">
+      <c r="J39" s="268" t="s">
         <v>382</v>
       </c>
-      <c r="K39" s="246" t="s">
+      <c r="K39" s="268" t="s">
         <v>368</v>
       </c>
-      <c r="L39" s="246" t="s">
+      <c r="L39" s="268" t="s">
         <v>383</v>
       </c>
-      <c r="M39" s="236" t="s">
+      <c r="M39" s="259" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="232"/>
-      <c r="B40" s="229"/>
-      <c r="C40" s="239"/>
-      <c r="D40" s="241"/>
-      <c r="E40" s="229"/>
-      <c r="F40" s="241"/>
-      <c r="G40" s="243"/>
-      <c r="H40" s="245"/>
-      <c r="I40" s="247"/>
-      <c r="J40" s="247"/>
-      <c r="K40" s="247"/>
-      <c r="L40" s="247"/>
-      <c r="M40" s="237"/>
+      <c r="A40" s="272"/>
+      <c r="B40" s="252"/>
+      <c r="C40" s="262"/>
+      <c r="D40" s="258"/>
+      <c r="E40" s="252"/>
+      <c r="F40" s="258"/>
+      <c r="G40" s="265"/>
+      <c r="H40" s="267"/>
+      <c r="I40" s="269"/>
+      <c r="J40" s="269"/>
+      <c r="K40" s="269"/>
+      <c r="L40" s="269"/>
+      <c r="M40" s="260"/>
     </row>
     <row r="41" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="42" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="165"/>
-      <c r="B42" s="178"/>
-      <c r="C42" s="178"/>
-      <c r="D42" s="178"/>
-      <c r="E42" s="178"/>
-      <c r="F42" s="178"/>
-      <c r="G42" s="178"/>
-      <c r="H42" s="179"/>
+      <c r="A42" s="164"/>
+      <c r="B42" s="177"/>
+      <c r="C42" s="177"/>
+      <c r="D42" s="177"/>
+      <c r="E42" s="177"/>
+      <c r="F42" s="177"/>
+      <c r="G42" s="177"/>
+      <c r="H42" s="178"/>
     </row>
     <row r="43" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="166" t="s">
+      <c r="A43" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="167" t="s">
+      <c r="B43" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="167" t="s">
+      <c r="C43" s="166" t="s">
         <v>5</v>
       </c>
-      <c r="D43" s="167" t="s">
+      <c r="D43" s="166" t="s">
         <v>6</v>
       </c>
-      <c r="E43" s="167" t="s">
+      <c r="E43" s="166" t="s">
         <v>421</v>
       </c>
-      <c r="F43" s="168" t="s">
+      <c r="F43" s="167" t="s">
         <v>422</v>
       </c>
-      <c r="G43" s="167" t="s">
+      <c r="G43" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="H43" s="169" t="s">
+      <c r="H43" s="168" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" s="170"/>
-      <c r="B44" s="180"/>
-      <c r="C44" s="180"/>
-      <c r="D44" s="180"/>
-      <c r="E44" s="180"/>
-      <c r="F44" s="180"/>
-      <c r="G44" s="180"/>
-      <c r="H44" s="181"/>
+      <c r="A44" s="169"/>
+      <c r="B44" s="179"/>
+      <c r="C44" s="179"/>
+      <c r="D44" s="179"/>
+      <c r="E44" s="179"/>
+      <c r="F44" s="179"/>
+      <c r="G44" s="179"/>
+      <c r="H44" s="180"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" s="171" t="s">
+      <c r="A45" s="170" t="s">
         <v>10</v>
       </c>
       <c r="B45" s="139" t="s">
@@ -27146,42 +27248,42 @@
       <c r="C45" s="140">
         <v>1</v>
       </c>
-      <c r="D45" s="228" t="s">
+      <c r="D45" s="246" t="s">
         <v>366</v>
       </c>
-      <c r="E45" s="258">
+      <c r="E45" s="182">
         <v>1</v>
       </c>
-      <c r="F45" s="258">
+      <c r="F45" s="182">
         <v>1</v>
       </c>
-      <c r="G45" s="259" t="s">
-        <v>457</v>
-      </c>
-      <c r="H45" s="260" t="s">
-        <v>458</v>
+      <c r="G45" s="183" t="s">
+        <v>455</v>
+      </c>
+      <c r="H45" s="184" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="177"/>
+      <c r="A46" s="176"/>
       <c r="B46" s="145" t="s">
         <v>265</v>
       </c>
       <c r="C46" s="143">
         <v>1</v>
       </c>
-      <c r="D46" s="229"/>
-      <c r="E46" s="261">
+      <c r="D46" s="252"/>
+      <c r="E46" s="185">
         <v>1</v>
       </c>
-      <c r="F46" s="261">
+      <c r="F46" s="185">
         <v>1</v>
       </c>
-      <c r="G46" s="262" t="s">
-        <v>459</v>
-      </c>
-      <c r="H46" s="263" t="s">
-        <v>460</v>
+      <c r="G46" s="186" t="s">
+        <v>457</v>
+      </c>
+      <c r="H46" s="187" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
@@ -27194,46 +27296,46 @@
       <c r="C47" s="137">
         <v>1</v>
       </c>
-      <c r="D47" s="233" t="s">
+      <c r="D47" s="251" t="s">
         <v>288</v>
       </c>
-      <c r="E47" s="264">
+      <c r="E47" s="188">
         <v>1</v>
       </c>
-      <c r="F47" s="264">
+      <c r="F47" s="188">
         <v>1</v>
       </c>
-      <c r="G47" s="265" t="s">
-        <v>461</v>
-      </c>
-      <c r="H47" s="266" t="s">
-        <v>462</v>
+      <c r="G47" s="189" t="s">
+        <v>459</v>
+      </c>
+      <c r="H47" s="190" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" s="176"/>
+      <c r="A48" s="175"/>
       <c r="B48" s="139" t="s">
         <v>394</v>
       </c>
       <c r="C48" s="140">
         <v>1</v>
       </c>
-      <c r="D48" s="234"/>
-      <c r="E48" s="258">
+      <c r="D48" s="248"/>
+      <c r="E48" s="182">
         <v>1</v>
       </c>
-      <c r="F48" s="258">
+      <c r="F48" s="182">
         <v>1</v>
       </c>
-      <c r="G48" s="259" t="s">
-        <v>463</v>
-      </c>
-      <c r="H48" s="260" t="s">
-        <v>464</v>
+      <c r="G48" s="183" t="s">
+        <v>461</v>
+      </c>
+      <c r="H48" s="184" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="176"/>
+      <c r="A49" s="175"/>
       <c r="B49" s="139" t="s">
         <v>266</v>
       </c>
@@ -27243,67 +27345,67 @@
       <c r="D49" s="146" t="s">
         <v>399</v>
       </c>
-      <c r="E49" s="258">
+      <c r="E49" s="182">
         <v>1</v>
       </c>
-      <c r="F49" s="267">
+      <c r="F49" s="273">
         <v>1</v>
       </c>
-      <c r="G49" s="267">
+      <c r="G49" s="273">
         <v>1</v>
       </c>
-      <c r="H49" s="260" t="s">
-        <v>465</v>
+      <c r="H49" s="276" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="176"/>
+      <c r="A50" s="175"/>
       <c r="B50" s="139" t="s">
         <v>115</v>
       </c>
       <c r="C50" s="140">
         <v>1</v>
       </c>
-      <c r="D50" s="228" t="s">
+      <c r="D50" s="246" t="s">
         <v>376</v>
       </c>
-      <c r="E50" s="258">
+      <c r="E50" s="182">
         <v>1</v>
       </c>
-      <c r="F50" s="258">
+      <c r="F50" s="182">
         <v>1</v>
       </c>
-      <c r="G50" s="259" t="s">
-        <v>466</v>
-      </c>
-      <c r="H50" s="260" t="s">
-        <v>467</v>
+      <c r="G50" s="183" t="s">
+        <v>463</v>
+      </c>
+      <c r="H50" s="184" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="176"/>
+      <c r="A51" s="175"/>
       <c r="B51" s="139" t="s">
         <v>405</v>
       </c>
       <c r="C51" s="140">
         <v>1</v>
       </c>
-      <c r="D51" s="234"/>
-      <c r="E51" s="258">
+      <c r="D51" s="248"/>
+      <c r="E51" s="182">
         <v>1</v>
       </c>
-      <c r="F51" s="267">
+      <c r="F51" s="191">
         <v>1</v>
       </c>
-      <c r="G51" s="259" t="s">
-        <v>468</v>
-      </c>
-      <c r="H51" s="260" t="s">
-        <v>460</v>
+      <c r="G51" s="183" t="s">
+        <v>465</v>
+      </c>
+      <c r="H51" s="184" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="177"/>
+      <c r="A52" s="176"/>
       <c r="B52" s="145" t="s">
         <v>407</v>
       </c>
@@ -27313,17 +27415,17 @@
       <c r="D52" s="144" t="s">
         <v>423</v>
       </c>
-      <c r="E52" s="261">
+      <c r="E52" s="185">
         <v>1</v>
       </c>
-      <c r="F52" s="268">
+      <c r="F52" s="192">
         <v>1</v>
       </c>
-      <c r="G52" s="262" t="s">
-        <v>469</v>
-      </c>
-      <c r="H52" s="263" t="s">
-        <v>470</v>
+      <c r="G52" s="186" t="s">
+        <v>466</v>
+      </c>
+      <c r="H52" s="187" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="25.5" x14ac:dyDescent="0.3">
@@ -27336,24 +27438,24 @@
       <c r="C53" s="137">
         <v>3</v>
       </c>
-      <c r="D53" s="172" t="s">
+      <c r="D53" s="171" t="s">
         <v>423</v>
       </c>
-      <c r="E53" s="264">
+      <c r="E53" s="188">
         <v>1</v>
       </c>
-      <c r="F53" s="269">
+      <c r="F53" s="193">
         <v>1</v>
       </c>
-      <c r="G53" s="269">
+      <c r="G53" s="193">
         <v>1</v>
       </c>
-      <c r="H53" s="266" t="s">
-        <v>471</v>
+      <c r="H53" s="190" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="177"/>
+      <c r="A54" s="176"/>
       <c r="B54" s="145" t="s">
         <v>414</v>
       </c>
@@ -27363,17 +27465,17 @@
       <c r="D54" s="144" t="s">
         <v>376</v>
       </c>
-      <c r="E54" s="261">
+      <c r="E54" s="185">
         <v>1</v>
       </c>
-      <c r="F54" s="261">
+      <c r="F54" s="185">
         <v>1</v>
       </c>
-      <c r="G54" s="262" t="s">
-        <v>463</v>
-      </c>
-      <c r="H54" s="263" t="s">
-        <v>472</v>
+      <c r="G54" s="186" t="s">
+        <v>461</v>
+      </c>
+      <c r="H54" s="187" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -27386,24 +27488,24 @@
       <c r="C55" s="137">
         <v>3</v>
       </c>
-      <c r="D55" s="172" t="s">
+      <c r="D55" s="171" t="s">
         <v>366</v>
       </c>
-      <c r="E55" s="264">
+      <c r="E55" s="188">
         <v>1</v>
       </c>
-      <c r="F55" s="264">
+      <c r="F55" s="188">
         <v>1</v>
       </c>
-      <c r="G55" s="265" t="s">
-        <v>473</v>
-      </c>
-      <c r="H55" s="266" t="s">
+      <c r="G55" s="189" t="s">
+        <v>470</v>
+      </c>
+      <c r="H55" s="190" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="176"/>
+      <c r="A56" s="175"/>
       <c r="B56" s="139" t="s">
         <v>267</v>
       </c>
@@ -27413,131 +27515,93 @@
       <c r="D56" s="146" t="s">
         <v>288</v>
       </c>
-      <c r="E56" s="258">
+      <c r="E56" s="182">
         <v>1</v>
       </c>
-      <c r="F56" s="258">
+      <c r="F56" s="182">
         <v>1</v>
       </c>
-      <c r="G56" s="270" t="s">
-        <v>474</v>
-      </c>
-      <c r="H56" s="260" t="s">
+      <c r="G56" s="194" t="s">
+        <v>471</v>
+      </c>
+      <c r="H56" s="184" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="176"/>
+      <c r="A57" s="175"/>
       <c r="B57" s="139" t="s">
         <v>268</v>
       </c>
       <c r="C57" s="140">
         <v>3</v>
       </c>
-      <c r="D57" s="228" t="s">
+      <c r="D57" s="246" t="s">
         <v>376</v>
       </c>
-      <c r="E57" s="258">
+      <c r="E57" s="182">
         <v>1</v>
       </c>
-      <c r="F57" s="258">
+      <c r="F57" s="182">
         <v>1</v>
       </c>
-      <c r="G57" s="259" t="s">
-        <v>473</v>
-      </c>
-      <c r="H57" s="260" t="s">
+      <c r="G57" s="183" t="s">
+        <v>470</v>
+      </c>
+      <c r="H57" s="184" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="177"/>
+      <c r="A58" s="176"/>
       <c r="B58" s="142" t="s">
         <v>378</v>
       </c>
       <c r="C58" s="143">
         <v>3</v>
       </c>
-      <c r="D58" s="229"/>
-      <c r="E58" s="261">
+      <c r="D58" s="252"/>
+      <c r="E58" s="185">
         <v>1</v>
       </c>
-      <c r="F58" s="261">
+      <c r="F58" s="185">
         <v>1</v>
       </c>
-      <c r="G58" s="262" t="s">
-        <v>473</v>
-      </c>
-      <c r="H58" s="263" t="s">
+      <c r="G58" s="186" t="s">
+        <v>470</v>
+      </c>
+      <c r="H58" s="187" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="173" t="s">
+      <c r="A59" s="172" t="s">
         <v>68</v>
       </c>
-      <c r="B59" s="174" t="s">
+      <c r="B59" s="173" t="s">
         <v>69</v>
       </c>
       <c r="C59" s="138">
         <v>1</v>
       </c>
-      <c r="D59" s="175" t="s">
+      <c r="D59" s="174" t="s">
         <v>366</v>
       </c>
-      <c r="E59" s="271">
+      <c r="E59" s="195">
         <v>1</v>
       </c>
-      <c r="F59" s="271">
+      <c r="F59" s="195">
         <v>1</v>
       </c>
-      <c r="G59" s="272" t="s">
-        <v>475</v>
-      </c>
-      <c r="H59" s="273" t="s">
-        <v>476</v>
+      <c r="G59" s="196" t="s">
+        <v>472</v>
+      </c>
+      <c r="H59" s="197" t="s">
+        <v>473</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="D57:D58"/>
     <mergeCell ref="A5:A8"/>
@@ -27554,6 +27618,44 @@
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="B1:B3"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E1:E3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27580,12 +27682,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="206"/>
-      <c r="B1" s="207"/>
-      <c r="C1" s="207"/>
-      <c r="D1" s="207"/>
-      <c r="E1" s="207"/>
-      <c r="F1" s="208"/>
+      <c r="A1" s="214"/>
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="216"/>
     </row>
     <row r="2" spans="1:6" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
@@ -27608,15 +27710,15 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="197"/>
-      <c r="B3" s="198"/>
-      <c r="C3" s="198"/>
-      <c r="D3" s="198"/>
-      <c r="E3" s="198"/>
-      <c r="F3" s="199"/>
+      <c r="A3" s="225"/>
+      <c r="B3" s="226"/>
+      <c r="C3" s="226"/>
+      <c r="D3" s="226"/>
+      <c r="E3" s="226"/>
+      <c r="F3" s="227"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="210" t="s">
+      <c r="A4" s="221" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="74" t="s">
@@ -27625,26 +27727,26 @@
       <c r="C4" s="117">
         <v>1</v>
       </c>
-      <c r="D4" s="214" t="s">
+      <c r="D4" s="211" t="s">
         <v>283</v>
       </c>
       <c r="E4" s="33"/>
       <c r="F4" s="34"/>
     </row>
     <row r="5" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="216"/>
+      <c r="A5" s="231"/>
       <c r="B5" s="75" t="s">
         <v>265</v>
       </c>
       <c r="C5" s="118">
         <v>1</v>
       </c>
-      <c r="D5" s="215"/>
+      <c r="D5" s="224"/>
       <c r="E5" s="35"/>
       <c r="F5" s="36"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="195" t="s">
+      <c r="A6" s="217" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="76" t="s">
@@ -27653,26 +27755,26 @@
       <c r="C6" s="116">
         <v>1</v>
       </c>
-      <c r="D6" s="212" t="s">
+      <c r="D6" s="223" t="s">
         <v>308</v>
       </c>
       <c r="E6" s="31"/>
       <c r="F6" s="32"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="196"/>
+      <c r="A7" s="218"/>
       <c r="B7" s="74" t="s">
         <v>111</v>
       </c>
       <c r="C7" s="117">
         <v>1</v>
       </c>
-      <c r="D7" s="211"/>
+      <c r="D7" s="213"/>
       <c r="E7" s="33"/>
       <c r="F7" s="34"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="196"/>
+      <c r="A8" s="218"/>
       <c r="B8" s="77" t="s">
         <v>266</v>
       </c>
@@ -27686,33 +27788,33 @@
       <c r="F8" s="34"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="196"/>
+      <c r="A9" s="218"/>
       <c r="B9" s="74" t="s">
         <v>115</v>
       </c>
       <c r="C9" s="117">
         <v>1</v>
       </c>
-      <c r="D9" s="214" t="s">
+      <c r="D9" s="211" t="s">
         <v>289</v>
       </c>
       <c r="E9" s="33"/>
       <c r="F9" s="34"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="196"/>
+      <c r="A10" s="218"/>
       <c r="B10" s="77" t="s">
         <v>295</v>
       </c>
       <c r="C10" s="117">
         <v>1</v>
       </c>
-      <c r="D10" s="211"/>
+      <c r="D10" s="213"/>
       <c r="E10" s="33"/>
       <c r="F10" s="34"/>
     </row>
     <row r="11" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="216"/>
+      <c r="A11" s="231"/>
       <c r="B11" s="79" t="s">
         <v>43</v>
       </c>
@@ -27726,7 +27828,7 @@
       <c r="F11" s="34"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="195" t="s">
+      <c r="A12" s="217" t="s">
         <v>45</v>
       </c>
       <c r="B12" s="73" t="s">
@@ -27742,7 +27844,7 @@
       <c r="F12" s="32"/>
     </row>
     <row r="13" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="216"/>
+      <c r="A13" s="231"/>
       <c r="B13" s="68" t="s">
         <v>139</v>
       </c>
@@ -27756,7 +27858,7 @@
       <c r="F13" s="36"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="195" t="s">
+      <c r="A14" s="217" t="s">
         <v>67</v>
       </c>
       <c r="B14" s="78" t="s">
@@ -27772,7 +27874,7 @@
       <c r="F14" s="56"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="196"/>
+      <c r="A15" s="218"/>
       <c r="B15" s="78" t="s">
         <v>267</v>
       </c>
@@ -27786,28 +27888,28 @@
       <c r="F15" s="34"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="196"/>
+      <c r="A16" s="218"/>
       <c r="B16" s="74" t="s">
         <v>268</v>
       </c>
       <c r="C16" s="117">
         <v>3</v>
       </c>
-      <c r="D16" s="214" t="s">
+      <c r="D16" s="211" t="s">
         <v>289</v>
       </c>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
     </row>
     <row r="17" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="216"/>
+      <c r="A17" s="231"/>
       <c r="B17" s="80" t="s">
         <v>269</v>
       </c>
       <c r="C17" s="121">
         <v>3</v>
       </c>
-      <c r="D17" s="215"/>
+      <c r="D17" s="224"/>
       <c r="E17" s="44"/>
       <c r="F17" s="45"/>
     </row>

--- a/WebContent/발표/3조 5차 요구사항정의서.xlsx
+++ b/WebContent/발표/3조 5차 요구사항정의서.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a01_javaexp\github\project05\WebContent\발표\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5"/>
   </bookViews>
@@ -20,7 +15,7 @@
     <sheet name="진행상황" sheetId="7" r:id="rId6"/>
     <sheet name="간략" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="469">
   <si>
     <t>구분</t>
   </si>
@@ -1644,39 +1639,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>23</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>일</t>
-    </r>
-  </si>
-  <si>
     <t>0/2</t>
   </si>
   <si>
@@ -1733,39 +1695,6 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>24</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>일</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
       <t>10</t>
     </r>
     <r>
@@ -1881,9 +1810,6 @@
     </r>
   </si>
   <si>
-    <t>0/6</t>
-  </si>
-  <si>
     <t>견적목록</t>
   </si>
   <si>
@@ -1935,39 +1861,6 @@
     <t>공지사항</t>
   </si>
   <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>27</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>일</t>
-    </r>
-  </si>
-  <si>
     <t>문의사항</t>
   </si>
   <si>
@@ -2199,10 +2092,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0/1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2234,48 +2123,21 @@
     <t>63%(7/11)</t>
   </si>
   <si>
-    <t>0%(0/11)</t>
-  </si>
-  <si>
     <t>60%(3/5)</t>
   </si>
   <si>
-    <t>0%(0/5)</t>
-  </si>
-  <si>
     <t>86%(13/15)</t>
   </si>
   <si>
-    <t>0%(0/15)</t>
-  </si>
-  <si>
     <t>91%(11/12)</t>
   </si>
   <si>
-    <t>0%(0/10)</t>
-  </si>
-  <si>
     <t>50%(3/6)</t>
   </si>
   <si>
-    <t>0%(0/6)</t>
-  </si>
-  <si>
     <t>40%(2/5)</t>
   </si>
   <si>
-    <t>42%(15/35)</t>
-  </si>
-  <si>
-    <t>0%(0/42)</t>
-  </si>
-  <si>
-    <t>0%(0/12)</t>
-  </si>
-  <si>
-    <t>0%(0/4)</t>
-  </si>
-  <si>
     <t>33%(2/6)</t>
   </si>
   <si>
@@ -2283,13 +2145,6 @@
   </si>
   <si>
     <t>75%(3/4)</t>
-  </si>
-  <si>
-    <t>0%(0/3)</t>
-  </si>
-  <si>
-    <t>0%(1/22)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1/1</t>
@@ -2382,7 +2237,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1/2</t>
+    <t>42%(15/35)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0/1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>　</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2560,7 +2431,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="81">
+  <borders count="71">
     <border>
       <left/>
       <right/>
@@ -3372,35 +3243,9 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -3462,56 +3307,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -3536,19 +3331,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -3561,58 +3343,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="277">
+  <cellXfs count="261">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4030,58 +3767,46 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="12" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="12" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="12" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="12" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="12" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="10" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4090,10 +3815,10 @@
     <xf numFmtId="49" fontId="3" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -4117,13 +3842,10 @@
     <xf numFmtId="0" fontId="10" fillId="11" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4147,34 +3869,22 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="12" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="12" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="12" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="12" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="9" fontId="11" fillId="12" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4183,19 +3893,16 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="2" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="2" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="9" fontId="11" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="9" fontId="11" fillId="12" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4204,10 +3911,19 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="14" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="14" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="14" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4216,13 +3932,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4234,58 +3956,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4300,22 +3974,52 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4333,6 +4037,84 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="12" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="12" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="11" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -4349,99 +4131,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="11" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="11" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="12" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="12" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="14" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="14" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="14" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -4750,7 +4439,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4807,10 +4496,10 @@
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="204" t="s">
+      <c r="B3" s="199" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="201" t="s">
+      <c r="C3" s="190" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="15" t="s">
@@ -4827,8 +4516,8 @@
       <c r="K3" s="11"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="205"/>
-      <c r="C4" s="202"/>
+      <c r="B4" s="200"/>
+      <c r="C4" s="191"/>
       <c r="D4" s="13" t="s">
         <v>13</v>
       </c>
@@ -4843,8 +4532,8 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="205"/>
-      <c r="C5" s="203"/>
+      <c r="B5" s="200"/>
+      <c r="C5" s="194"/>
       <c r="D5" s="16" t="s">
         <v>15</v>
       </c>
@@ -4859,8 +4548,8 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="205"/>
-      <c r="C6" s="201" t="s">
+      <c r="B6" s="200"/>
+      <c r="C6" s="190" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="12" t="s">
@@ -4877,8 +4566,8 @@
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="205"/>
-      <c r="C7" s="202"/>
+      <c r="B7" s="200"/>
+      <c r="C7" s="191"/>
       <c r="D7" s="13" t="s">
         <v>20</v>
       </c>
@@ -4893,8 +4582,8 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="206"/>
-      <c r="C8" s="203"/>
+      <c r="B8" s="201"/>
+      <c r="C8" s="194"/>
       <c r="D8" s="16" t="s">
         <v>17</v>
       </c>
@@ -4914,7 +4603,7 @@
       <c r="B9" s="198" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="201" t="s">
+      <c r="C9" s="190" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="15" t="s">
@@ -4931,8 +4620,8 @@
       <c r="K9" s="11"/>
     </row>
     <row r="10" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="199"/>
-      <c r="C10" s="203"/>
+      <c r="B10" s="192"/>
+      <c r="C10" s="194"/>
       <c r="D10" s="17" t="s">
         <v>25</v>
       </c>
@@ -4947,11 +4636,11 @@
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="199"/>
-      <c r="C11" s="201" t="s">
+      <c r="B11" s="192"/>
+      <c r="C11" s="190" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="207" t="s">
+      <c r="D11" s="195" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="10" t="s">
@@ -4965,9 +4654,9 @@
       <c r="K11" s="11"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="199"/>
-      <c r="C12" s="202"/>
-      <c r="D12" s="208"/>
+      <c r="B12" s="192"/>
+      <c r="C12" s="191"/>
+      <c r="D12" s="197"/>
       <c r="E12" s="1" t="s">
         <v>34</v>
       </c>
@@ -4979,8 +4668,8 @@
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="199"/>
-      <c r="C13" s="202"/>
+      <c r="B13" s="192"/>
+      <c r="C13" s="191"/>
       <c r="D13" s="13" t="s">
         <v>31</v>
       </c>
@@ -4995,8 +4684,8 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="199"/>
-      <c r="C14" s="202"/>
+      <c r="B14" s="192"/>
+      <c r="C14" s="191"/>
       <c r="D14" s="13" t="s">
         <v>32</v>
       </c>
@@ -5011,8 +4700,8 @@
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="199"/>
-      <c r="C15" s="203"/>
+      <c r="B15" s="192"/>
+      <c r="C15" s="194"/>
       <c r="D15" s="17" t="s">
         <v>35</v>
       </c>
@@ -5029,8 +4718,8 @@
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="199"/>
-      <c r="C16" s="201" t="s">
+      <c r="B16" s="192"/>
+      <c r="C16" s="190" t="s">
         <v>38</v>
       </c>
       <c r="D16" s="15" t="s">
@@ -5047,8 +4736,8 @@
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="199"/>
-      <c r="C17" s="202"/>
+      <c r="B17" s="192"/>
+      <c r="C17" s="191"/>
       <c r="D17" s="13" t="s">
         <v>31</v>
       </c>
@@ -5063,8 +4752,8 @@
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="199"/>
-      <c r="C18" s="202"/>
+      <c r="B18" s="192"/>
+      <c r="C18" s="191"/>
       <c r="D18" s="13" t="s">
         <v>42</v>
       </c>
@@ -5079,8 +4768,8 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="200"/>
-      <c r="C19" s="203"/>
+      <c r="B19" s="193"/>
+      <c r="C19" s="194"/>
       <c r="D19" s="17" t="s">
         <v>35</v>
       </c>
@@ -5098,7 +4787,7 @@
       <c r="B20" s="198" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="201" t="s">
+      <c r="C20" s="190" t="s">
         <v>46</v>
       </c>
       <c r="D20" s="15" t="s">
@@ -5115,8 +4804,8 @@
       <c r="K20" s="11"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="199"/>
-      <c r="C21" s="202"/>
+      <c r="B21" s="192"/>
+      <c r="C21" s="191"/>
       <c r="D21" s="13" t="s">
         <v>48</v>
       </c>
@@ -5131,8 +4820,8 @@
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="199"/>
-      <c r="C22" s="203"/>
+      <c r="B22" s="192"/>
+      <c r="C22" s="194"/>
       <c r="D22" s="16" t="s">
         <v>52</v>
       </c>
@@ -5147,7 +4836,7 @@
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="199"/>
+      <c r="B23" s="192"/>
       <c r="C23" s="21" t="s">
         <v>54</v>
       </c>
@@ -5168,7 +4857,7 @@
       <c r="B24" s="198" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="201" t="s">
+      <c r="C24" s="190" t="s">
         <v>49</v>
       </c>
       <c r="D24" s="15" t="s">
@@ -5185,8 +4874,8 @@
       <c r="K24" s="11"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="199"/>
-      <c r="C25" s="202"/>
+      <c r="B25" s="192"/>
+      <c r="C25" s="191"/>
       <c r="D25" s="13" t="s">
         <v>59</v>
       </c>
@@ -5201,8 +4890,8 @@
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="199"/>
-      <c r="C26" s="203"/>
+      <c r="B26" s="192"/>
+      <c r="C26" s="194"/>
       <c r="D26" s="16" t="s">
         <v>61</v>
       </c>
@@ -5217,7 +4906,7 @@
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="199"/>
+      <c r="B27" s="192"/>
       <c r="C27" s="23" t="s">
         <v>56</v>
       </c>
@@ -5235,7 +4924,7 @@
       <c r="K27" s="20"/>
     </row>
     <row r="28" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="200"/>
+      <c r="B28" s="193"/>
       <c r="C28" s="23" t="s">
         <v>44</v>
       </c>
@@ -5273,10 +4962,10 @@
       <c r="K29" s="20"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="201" t="s">
+      <c r="B30" s="190" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="207" t="s">
+      <c r="C30" s="195" t="s">
         <v>71</v>
       </c>
       <c r="D30" s="15" t="s">
@@ -5293,8 +4982,8 @@
       <c r="K30" s="11"/>
     </row>
     <row r="31" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="202"/>
-      <c r="C31" s="209"/>
+      <c r="B31" s="191"/>
+      <c r="C31" s="196"/>
       <c r="D31" s="14" t="s">
         <v>74</v>
       </c>
@@ -5309,8 +4998,8 @@
       <c r="K31" s="27"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="199"/>
-      <c r="C32" s="201" t="s">
+      <c r="B32" s="192"/>
+      <c r="C32" s="190" t="s">
         <v>85</v>
       </c>
       <c r="D32" s="15" t="s">
@@ -5327,8 +5016,8 @@
       <c r="K32" s="11"/>
     </row>
     <row r="33" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="199"/>
-      <c r="C33" s="203"/>
+      <c r="B33" s="192"/>
+      <c r="C33" s="194"/>
       <c r="D33" s="16" t="s">
         <v>88</v>
       </c>
@@ -5343,8 +5032,8 @@
       <c r="K33" s="4"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="199"/>
-      <c r="C34" s="201" t="s">
+      <c r="B34" s="192"/>
+      <c r="C34" s="190" t="s">
         <v>90</v>
       </c>
       <c r="D34" s="15" t="s">
@@ -5361,8 +5050,8 @@
       <c r="K34" s="11"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="199"/>
-      <c r="C35" s="202"/>
+      <c r="B35" s="192"/>
+      <c r="C35" s="191"/>
       <c r="D35" s="13"/>
       <c r="E35" s="1" t="s">
         <v>34</v>
@@ -5375,8 +5064,8 @@
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="199"/>
-      <c r="C36" s="202"/>
+      <c r="B36" s="192"/>
+      <c r="C36" s="191"/>
       <c r="D36" s="13" t="s">
         <v>31</v>
       </c>
@@ -5391,8 +5080,8 @@
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="199"/>
-      <c r="C37" s="202"/>
+      <c r="B37" s="192"/>
+      <c r="C37" s="191"/>
       <c r="D37" s="13" t="s">
         <v>92</v>
       </c>
@@ -5407,8 +5096,8 @@
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="199"/>
-      <c r="C38" s="203"/>
+      <c r="B38" s="192"/>
+      <c r="C38" s="194"/>
       <c r="D38" s="16" t="s">
         <v>94</v>
       </c>
@@ -5423,8 +5112,8 @@
       <c r="K38" s="4"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="199"/>
-      <c r="C39" s="201" t="s">
+      <c r="B39" s="192"/>
+      <c r="C39" s="190" t="s">
         <v>38</v>
       </c>
       <c r="D39" s="15" t="s">
@@ -5441,8 +5130,8 @@
       <c r="K39" s="11"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="199"/>
-      <c r="C40" s="202"/>
+      <c r="B40" s="192"/>
+      <c r="C40" s="191"/>
       <c r="D40" s="13" t="s">
         <v>31</v>
       </c>
@@ -5457,8 +5146,8 @@
       <c r="K40" s="2"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="199"/>
-      <c r="C41" s="202"/>
+      <c r="B41" s="192"/>
+      <c r="C41" s="191"/>
       <c r="D41" s="13" t="s">
         <v>92</v>
       </c>
@@ -5473,8 +5162,8 @@
       <c r="K41" s="2"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="199"/>
-      <c r="C42" s="202"/>
+      <c r="B42" s="192"/>
+      <c r="C42" s="191"/>
       <c r="D42" s="13" t="s">
         <v>35</v>
       </c>
@@ -5489,8 +5178,8 @@
       <c r="K42" s="2"/>
     </row>
     <row r="43" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="199"/>
-      <c r="C43" s="203"/>
+      <c r="B43" s="192"/>
+      <c r="C43" s="194"/>
       <c r="D43" s="16" t="s">
         <v>97</v>
       </c>
@@ -5505,8 +5194,8 @@
       <c r="K43" s="4"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="199"/>
-      <c r="C44" s="201" t="s">
+      <c r="B44" s="192"/>
+      <c r="C44" s="190" t="s">
         <v>76</v>
       </c>
       <c r="D44" s="15" t="s">
@@ -5523,8 +5212,8 @@
       <c r="K44" s="11"/>
     </row>
     <row r="45" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="199"/>
-      <c r="C45" s="203"/>
+      <c r="B45" s="192"/>
+      <c r="C45" s="194"/>
       <c r="D45" s="16" t="s">
         <v>79</v>
       </c>
@@ -5539,8 +5228,8 @@
       <c r="K45" s="4"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="199"/>
-      <c r="C46" s="201" t="s">
+      <c r="B46" s="192"/>
+      <c r="C46" s="190" t="s">
         <v>81</v>
       </c>
       <c r="D46" s="15" t="s">
@@ -5557,8 +5246,8 @@
       <c r="K46" s="11"/>
     </row>
     <row r="47" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="199"/>
-      <c r="C47" s="203"/>
+      <c r="B47" s="192"/>
+      <c r="C47" s="194"/>
       <c r="D47" s="16" t="s">
         <v>83</v>
       </c>
@@ -5573,8 +5262,8 @@
       <c r="K47" s="4"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="199"/>
-      <c r="C48" s="201" t="s">
+      <c r="B48" s="192"/>
+      <c r="C48" s="190" t="s">
         <v>56</v>
       </c>
       <c r="D48" s="15" t="s">
@@ -5591,8 +5280,8 @@
       <c r="K48" s="11"/>
     </row>
     <row r="49" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="200"/>
-      <c r="C49" s="203"/>
+      <c r="B49" s="193"/>
+      <c r="C49" s="194"/>
       <c r="D49" s="16" t="s">
         <v>101</v>
       </c>
@@ -5608,6 +5297,18 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B9:B19"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C22"/>
     <mergeCell ref="B30:B49"/>
     <mergeCell ref="C39:C43"/>
     <mergeCell ref="C34:C38"/>
@@ -5616,18 +5317,6 @@
     <mergeCell ref="C48:C49"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B9:B19"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5657,15 +5346,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="214"/>
-      <c r="B1" s="215"/>
-      <c r="C1" s="215"/>
-      <c r="D1" s="215"/>
-      <c r="E1" s="215"/>
-      <c r="F1" s="215"/>
-      <c r="G1" s="215"/>
-      <c r="H1" s="215"/>
-      <c r="I1" s="216"/>
+      <c r="A1" s="213"/>
+      <c r="B1" s="214"/>
+      <c r="C1" s="214"/>
+      <c r="D1" s="214"/>
+      <c r="E1" s="214"/>
+      <c r="F1" s="214"/>
+      <c r="G1" s="214"/>
+      <c r="H1" s="214"/>
+      <c r="I1" s="215"/>
     </row>
     <row r="2" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
@@ -5697,21 +5386,21 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="225"/>
-      <c r="B3" s="226"/>
-      <c r="C3" s="226"/>
-      <c r="D3" s="226"/>
-      <c r="E3" s="226"/>
-      <c r="F3" s="226"/>
-      <c r="G3" s="226"/>
-      <c r="H3" s="226"/>
-      <c r="I3" s="227"/>
+      <c r="A3" s="204"/>
+      <c r="B3" s="205"/>
+      <c r="C3" s="205"/>
+      <c r="D3" s="205"/>
+      <c r="E3" s="205"/>
+      <c r="F3" s="205"/>
+      <c r="G3" s="205"/>
+      <c r="H3" s="205"/>
+      <c r="I3" s="206"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="228" t="s">
+      <c r="A4" s="207" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="222" t="s">
+      <c r="B4" s="210" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="37" t="s">
@@ -5727,8 +5416,8 @@
       <c r="I4" s="32"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="220"/>
-      <c r="B5" s="210"/>
+      <c r="A5" s="208"/>
+      <c r="B5" s="211"/>
       <c r="C5" s="38" t="s">
         <v>13</v>
       </c>
@@ -5742,8 +5431,8 @@
       <c r="I5" s="34"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="220"/>
-      <c r="B6" s="210"/>
+      <c r="A6" s="208"/>
+      <c r="B6" s="211"/>
       <c r="C6" s="38" t="s">
         <v>15</v>
       </c>
@@ -5757,8 +5446,8 @@
       <c r="I6" s="34"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="220"/>
-      <c r="B7" s="210" t="s">
+      <c r="A7" s="208"/>
+      <c r="B7" s="211" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="38" t="s">
@@ -5774,8 +5463,8 @@
       <c r="I7" s="34"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="220"/>
-      <c r="B8" s="210"/>
+      <c r="A8" s="208"/>
+      <c r="B8" s="211"/>
       <c r="C8" s="38" t="s">
         <v>20</v>
       </c>
@@ -5789,8 +5478,8 @@
       <c r="I8" s="34"/>
     </row>
     <row r="9" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="229"/>
-      <c r="B9" s="230"/>
+      <c r="A9" s="209"/>
+      <c r="B9" s="212"/>
       <c r="C9" s="39" t="s">
         <v>17</v>
       </c>
@@ -5804,10 +5493,10 @@
       <c r="I9" s="36"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="217" t="s">
+      <c r="A10" s="202" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="223" t="s">
+      <c r="B10" s="219" t="s">
         <v>103</v>
       </c>
       <c r="C10" s="37" t="s">
@@ -5823,8 +5512,8 @@
       <c r="I10" s="32"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="218"/>
-      <c r="B11" s="212"/>
+      <c r="A11" s="203"/>
+      <c r="B11" s="220"/>
       <c r="C11" s="38" t="s">
         <v>105</v>
       </c>
@@ -5838,8 +5527,8 @@
       <c r="I11" s="34"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="218"/>
-      <c r="B12" s="212"/>
+      <c r="A12" s="203"/>
+      <c r="B12" s="220"/>
       <c r="C12" s="38" t="s">
         <v>92</v>
       </c>
@@ -5853,8 +5542,8 @@
       <c r="I12" s="34"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="218"/>
-      <c r="B13" s="213"/>
+      <c r="A13" s="203"/>
+      <c r="B13" s="218"/>
       <c r="C13" s="38" t="s">
         <v>109</v>
       </c>
@@ -5870,8 +5559,8 @@
       <c r="I13" s="34"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="218"/>
-      <c r="B14" s="211" t="s">
+      <c r="A14" s="203"/>
+      <c r="B14" s="221" t="s">
         <v>180</v>
       </c>
       <c r="C14" s="38" t="s">
@@ -5887,8 +5576,8 @@
       <c r="I14" s="34"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="218"/>
-      <c r="B15" s="212"/>
+      <c r="A15" s="203"/>
+      <c r="B15" s="220"/>
       <c r="C15" s="38" t="s">
         <v>184</v>
       </c>
@@ -5902,8 +5591,8 @@
       <c r="I15" s="34"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="218"/>
-      <c r="B16" s="211" t="s">
+      <c r="A16" s="203"/>
+      <c r="B16" s="221" t="s">
         <v>111</v>
       </c>
       <c r="C16" s="58" t="s">
@@ -5919,8 +5608,8 @@
       <c r="I16" s="34"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="218"/>
-      <c r="B17" s="212"/>
+      <c r="A17" s="203"/>
+      <c r="B17" s="220"/>
       <c r="C17" s="38" t="s">
         <v>105</v>
       </c>
@@ -5934,8 +5623,8 @@
       <c r="I17" s="34"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="218"/>
-      <c r="B18" s="212"/>
+      <c r="A18" s="203"/>
+      <c r="B18" s="220"/>
       <c r="C18" s="38" t="s">
         <v>113</v>
       </c>
@@ -5951,8 +5640,8 @@
       <c r="I18" s="34"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="218"/>
-      <c r="B19" s="213"/>
+      <c r="A19" s="203"/>
+      <c r="B19" s="218"/>
       <c r="C19" s="38" t="s">
         <v>109</v>
       </c>
@@ -5966,8 +5655,8 @@
       <c r="I19" s="34"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="218"/>
-      <c r="B20" s="211" t="s">
+      <c r="A20" s="203"/>
+      <c r="B20" s="221" t="s">
         <v>193</v>
       </c>
       <c r="C20" s="59" t="s">
@@ -5983,8 +5672,8 @@
       <c r="I20" s="34"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="218"/>
-      <c r="B21" s="213"/>
+      <c r="A21" s="203"/>
+      <c r="B21" s="218"/>
       <c r="C21" s="59" t="s">
         <v>194</v>
       </c>
@@ -5998,8 +5687,8 @@
       <c r="I21" s="34"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="218"/>
-      <c r="B22" s="211" t="s">
+      <c r="A22" s="203"/>
+      <c r="B22" s="221" t="s">
         <v>115</v>
       </c>
       <c r="C22" s="38" t="s">
@@ -6015,8 +5704,8 @@
       <c r="I22" s="34"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="218"/>
-      <c r="B23" s="212"/>
+      <c r="A23" s="203"/>
+      <c r="B23" s="220"/>
       <c r="C23" s="38" t="s">
         <v>118</v>
       </c>
@@ -6030,8 +5719,8 @@
       <c r="I23" s="34"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="218"/>
-      <c r="B24" s="212"/>
+      <c r="A24" s="203"/>
+      <c r="B24" s="220"/>
       <c r="C24" s="38" t="s">
         <v>120</v>
       </c>
@@ -6045,8 +5734,8 @@
       <c r="I24" s="34"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="218"/>
-      <c r="B25" s="213"/>
+      <c r="A25" s="203"/>
+      <c r="B25" s="218"/>
       <c r="C25" s="38" t="s">
         <v>122</v>
       </c>
@@ -6060,8 +5749,8 @@
       <c r="I25" s="34"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="218"/>
-      <c r="B26" s="211" t="s">
+      <c r="A26" s="203"/>
+      <c r="B26" s="221" t="s">
         <v>174</v>
       </c>
       <c r="C26" s="38" t="s">
@@ -6077,8 +5766,8 @@
       <c r="I26" s="34"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="218"/>
-      <c r="B27" s="212"/>
+      <c r="A27" s="203"/>
+      <c r="B27" s="220"/>
       <c r="C27" s="38" t="s">
         <v>178</v>
       </c>
@@ -6092,8 +5781,8 @@
       <c r="I27" s="34"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="218"/>
-      <c r="B28" s="212"/>
+      <c r="A28" s="203"/>
+      <c r="B28" s="220"/>
       <c r="C28" s="38" t="s">
         <v>182</v>
       </c>
@@ -6107,8 +5796,8 @@
       <c r="I28" s="34"/>
     </row>
     <row r="29" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="218"/>
-      <c r="B29" s="212"/>
+      <c r="A29" s="203"/>
+      <c r="B29" s="220"/>
       <c r="C29" s="58" t="s">
         <v>176</v>
       </c>
@@ -6122,10 +5811,10 @@
       <c r="I29" s="45"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="217" t="s">
+      <c r="A30" s="202" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="222" t="s">
+      <c r="B30" s="210" t="s">
         <v>127</v>
       </c>
       <c r="C30" s="62" t="s">
@@ -6141,8 +5830,8 @@
       <c r="I30" s="32"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="218"/>
-      <c r="B31" s="210"/>
+      <c r="A31" s="203"/>
+      <c r="B31" s="211"/>
       <c r="C31" s="63" t="s">
         <v>129</v>
       </c>
@@ -6156,8 +5845,8 @@
       <c r="I31" s="34"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="218"/>
-      <c r="B32" s="210"/>
+      <c r="A32" s="203"/>
+      <c r="B32" s="211"/>
       <c r="C32" s="63" t="s">
         <v>132</v>
       </c>
@@ -6171,8 +5860,8 @@
       <c r="I32" s="34"/>
     </row>
     <row r="33" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A33" s="218"/>
-      <c r="B33" s="210"/>
+      <c r="A33" s="203"/>
+      <c r="B33" s="211"/>
       <c r="C33" s="63" t="s">
         <v>125</v>
       </c>
@@ -6186,8 +5875,8 @@
       <c r="I33" s="34"/>
     </row>
     <row r="34" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A34" s="218"/>
-      <c r="B34" s="210" t="s">
+      <c r="A34" s="203"/>
+      <c r="B34" s="211" t="s">
         <v>133</v>
       </c>
       <c r="C34" s="63" t="s">
@@ -6203,8 +5892,8 @@
       <c r="I34" s="45"/>
     </row>
     <row r="35" spans="1:16384" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="218"/>
-      <c r="B35" s="210"/>
+      <c r="A35" s="203"/>
+      <c r="B35" s="211"/>
       <c r="C35" s="63" t="s">
         <v>134</v>
       </c>
@@ -22593,8 +22282,8 @@
       <c r="XFD35" s="46"/>
     </row>
     <row r="36" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A36" s="218"/>
-      <c r="B36" s="210"/>
+      <c r="A36" s="203"/>
+      <c r="B36" s="211"/>
       <c r="C36" s="64" t="s">
         <v>187</v>
       </c>
@@ -22606,8 +22295,8 @@
       <c r="I36" s="56"/>
     </row>
     <row r="37" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A37" s="218"/>
-      <c r="B37" s="210" t="s">
+      <c r="A37" s="203"/>
+      <c r="B37" s="211" t="s">
         <v>136</v>
       </c>
       <c r="C37" s="63" t="s">
@@ -22623,8 +22312,8 @@
       <c r="I37" s="34"/>
     </row>
     <row r="38" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A38" s="218"/>
-      <c r="B38" s="210"/>
+      <c r="A38" s="203"/>
+      <c r="B38" s="211"/>
       <c r="C38" s="63" t="s">
         <v>92</v>
       </c>
@@ -22638,7 +22327,7 @@
       <c r="I38" s="34"/>
     </row>
     <row r="39" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A39" s="218"/>
+      <c r="A39" s="203"/>
       <c r="B39" s="57" t="s">
         <v>139</v>
       </c>
@@ -22655,10 +22344,10 @@
       <c r="I39" s="34"/>
     </row>
     <row r="40" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A40" s="219" t="s">
+      <c r="A40" s="216" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="213" t="s">
+      <c r="B40" s="218" t="s">
         <v>71</v>
       </c>
       <c r="C40" s="41" t="s">
@@ -22674,8 +22363,8 @@
       <c r="I40" s="56"/>
     </row>
     <row r="41" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A41" s="220"/>
-      <c r="B41" s="210"/>
+      <c r="A41" s="208"/>
+      <c r="B41" s="211"/>
       <c r="C41" s="40" t="s">
         <v>74</v>
       </c>
@@ -22689,8 +22378,8 @@
       <c r="I41" s="34"/>
     </row>
     <row r="42" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A42" s="220"/>
-      <c r="B42" s="210" t="s">
+      <c r="A42" s="208"/>
+      <c r="B42" s="211" t="s">
         <v>152</v>
       </c>
       <c r="C42" s="40" t="s">
@@ -22706,8 +22395,8 @@
       <c r="I42" s="34"/>
     </row>
     <row r="43" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A43" s="220"/>
-      <c r="B43" s="210"/>
+      <c r="A43" s="208"/>
+      <c r="B43" s="211"/>
       <c r="C43" s="40" t="s">
         <v>144</v>
       </c>
@@ -22721,11 +22410,11 @@
       <c r="I43" s="34"/>
     </row>
     <row r="44" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A44" s="220"/>
-      <c r="B44" s="210" t="s">
+      <c r="A44" s="208"/>
+      <c r="B44" s="211" t="s">
         <v>163</v>
       </c>
-      <c r="C44" s="211" t="s">
+      <c r="C44" s="221" t="s">
         <v>162</v>
       </c>
       <c r="D44" s="33" t="s">
@@ -22738,9 +22427,9 @@
       <c r="I44" s="34"/>
     </row>
     <row r="45" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A45" s="220"/>
-      <c r="B45" s="210"/>
-      <c r="C45" s="213"/>
+      <c r="A45" s="208"/>
+      <c r="B45" s="211"/>
+      <c r="C45" s="218"/>
       <c r="D45" s="33" t="s">
         <v>164</v>
       </c>
@@ -22751,8 +22440,8 @@
       <c r="I45" s="34"/>
     </row>
     <row r="46" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A46" s="220"/>
-      <c r="B46" s="210"/>
+      <c r="A46" s="208"/>
+      <c r="B46" s="211"/>
       <c r="C46" s="40" t="s">
         <v>112</v>
       </c>
@@ -22766,8 +22455,8 @@
       <c r="I46" s="34"/>
     </row>
     <row r="47" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A47" s="220"/>
-      <c r="B47" s="210"/>
+      <c r="A47" s="208"/>
+      <c r="B47" s="211"/>
       <c r="C47" s="40" t="s">
         <v>106</v>
       </c>
@@ -22781,8 +22470,8 @@
       <c r="I47" s="34"/>
     </row>
     <row r="48" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A48" s="220"/>
-      <c r="B48" s="210"/>
+      <c r="A48" s="208"/>
+      <c r="B48" s="211"/>
       <c r="C48" s="40" t="s">
         <v>147</v>
       </c>
@@ -22796,8 +22485,8 @@
       <c r="I48" s="34"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="220"/>
-      <c r="B49" s="210" t="s">
+      <c r="A49" s="208"/>
+      <c r="B49" s="211" t="s">
         <v>153</v>
       </c>
       <c r="C49" s="40" t="s">
@@ -22813,8 +22502,8 @@
       <c r="I49" s="34"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="220"/>
-      <c r="B50" s="210"/>
+      <c r="A50" s="208"/>
+      <c r="B50" s="211"/>
       <c r="C50" s="40" t="s">
         <v>112</v>
       </c>
@@ -22828,8 +22517,8 @@
       <c r="I50" s="34"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="220"/>
-      <c r="B51" s="210"/>
+      <c r="A51" s="208"/>
+      <c r="B51" s="211"/>
       <c r="C51" s="40" t="s">
         <v>106</v>
       </c>
@@ -22843,8 +22532,8 @@
       <c r="I51" s="34"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="220"/>
-      <c r="B52" s="210"/>
+      <c r="A52" s="208"/>
+      <c r="B52" s="211"/>
       <c r="C52" s="40" t="s">
         <v>147</v>
       </c>
@@ -22858,8 +22547,8 @@
       <c r="I52" s="34"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="220"/>
-      <c r="B53" s="211" t="s">
+      <c r="A53" s="208"/>
+      <c r="B53" s="221" t="s">
         <v>154</v>
       </c>
       <c r="C53" s="40" t="s">
@@ -22875,8 +22564,8 @@
       <c r="I53" s="34"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="220"/>
-      <c r="B54" s="212"/>
+      <c r="A54" s="208"/>
+      <c r="B54" s="220"/>
       <c r="C54" s="49" t="s">
         <v>159</v>
       </c>
@@ -22890,8 +22579,8 @@
       <c r="I54" s="34"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="220"/>
-      <c r="B55" s="210" t="s">
+      <c r="A55" s="208"/>
+      <c r="B55" s="211" t="s">
         <v>76</v>
       </c>
       <c r="C55" s="40" t="s">
@@ -22907,8 +22596,8 @@
       <c r="I55" s="34"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="220"/>
-      <c r="B56" s="210"/>
+      <c r="A56" s="208"/>
+      <c r="B56" s="211"/>
       <c r="C56" s="40" t="s">
         <v>79</v>
       </c>
@@ -22922,8 +22611,8 @@
       <c r="I56" s="34"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="220"/>
-      <c r="B57" s="211" t="s">
+      <c r="A57" s="208"/>
+      <c r="B57" s="221" t="s">
         <v>81</v>
       </c>
       <c r="C57" s="40" t="s">
@@ -22939,8 +22628,8 @@
       <c r="I57" s="34"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="221"/>
-      <c r="B58" s="213"/>
+      <c r="A58" s="217"/>
+      <c r="B58" s="218"/>
       <c r="C58" s="50" t="s">
         <v>167</v>
       </c>
@@ -22954,8 +22643,8 @@
       <c r="I58" s="45"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="221"/>
-      <c r="B59" s="211" t="s">
+      <c r="A59" s="217"/>
+      <c r="B59" s="221" t="s">
         <v>172</v>
       </c>
       <c r="C59" s="50" t="s">
@@ -22971,8 +22660,8 @@
       <c r="I59" s="45"/>
     </row>
     <row r="60" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="221"/>
-      <c r="B60" s="224"/>
+      <c r="A60" s="217"/>
+      <c r="B60" s="222"/>
       <c r="C60" s="42" t="s">
         <v>171</v>
       </c>
@@ -23235,11 +22924,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A30:A39"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B20:B21"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A10:A29"/>
     <mergeCell ref="A40:A60"/>
@@ -23256,11 +22945,11 @@
     <mergeCell ref="C44:C45"/>
     <mergeCell ref="B59:B60"/>
     <mergeCell ref="B44:B48"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A30:A39"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23303,15 +22992,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="214"/>
-      <c r="B1" s="215"/>
-      <c r="C1" s="215"/>
-      <c r="D1" s="215"/>
-      <c r="E1" s="215"/>
-      <c r="F1" s="215"/>
-      <c r="G1" s="215"/>
-      <c r="H1" s="215"/>
-      <c r="I1" s="216"/>
+      <c r="A1" s="213"/>
+      <c r="B1" s="214"/>
+      <c r="C1" s="214"/>
+      <c r="D1" s="214"/>
+      <c r="E1" s="214"/>
+      <c r="F1" s="214"/>
+      <c r="G1" s="214"/>
+      <c r="H1" s="214"/>
+      <c r="I1" s="215"/>
     </row>
     <row r="2" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
@@ -23343,21 +23032,21 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="225"/>
-      <c r="B3" s="226"/>
-      <c r="C3" s="226"/>
-      <c r="D3" s="226"/>
-      <c r="E3" s="226"/>
-      <c r="F3" s="226"/>
-      <c r="G3" s="226"/>
-      <c r="H3" s="226"/>
-      <c r="I3" s="227"/>
+      <c r="A3" s="204"/>
+      <c r="B3" s="205"/>
+      <c r="C3" s="205"/>
+      <c r="D3" s="205"/>
+      <c r="E3" s="205"/>
+      <c r="F3" s="205"/>
+      <c r="G3" s="205"/>
+      <c r="H3" s="205"/>
+      <c r="I3" s="206"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="217" t="s">
+      <c r="A4" s="202" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="223" t="s">
+      <c r="B4" s="219" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="88" t="s">
@@ -23368,15 +23057,15 @@
       </c>
       <c r="E4" s="31"/>
       <c r="F4" s="31"/>
-      <c r="G4" s="223" t="s">
+      <c r="G4" s="219" t="s">
         <v>284</v>
       </c>
       <c r="H4" s="31"/>
       <c r="I4" s="32"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="218"/>
-      <c r="B5" s="212"/>
+      <c r="A5" s="203"/>
+      <c r="B5" s="220"/>
       <c r="C5" s="89" t="s">
         <v>13</v>
       </c>
@@ -23385,13 +23074,13 @@
       </c>
       <c r="E5" s="33"/>
       <c r="F5" s="33"/>
-      <c r="G5" s="212"/>
+      <c r="G5" s="220"/>
       <c r="H5" s="33"/>
       <c r="I5" s="34"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="218"/>
-      <c r="B6" s="213"/>
+      <c r="A6" s="203"/>
+      <c r="B6" s="218"/>
       <c r="C6" s="89" t="s">
         <v>15</v>
       </c>
@@ -23400,13 +23089,13 @@
       </c>
       <c r="E6" s="33"/>
       <c r="F6" s="33"/>
-      <c r="G6" s="212"/>
+      <c r="G6" s="220"/>
       <c r="H6" s="33"/>
       <c r="I6" s="34"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="218"/>
-      <c r="B7" s="211" t="s">
+      <c r="A7" s="203"/>
+      <c r="B7" s="221" t="s">
         <v>253</v>
       </c>
       <c r="C7" s="89" t="s">
@@ -23417,13 +23106,13 @@
       </c>
       <c r="E7" s="65"/>
       <c r="F7" s="33"/>
-      <c r="G7" s="212"/>
+      <c r="G7" s="220"/>
       <c r="H7" s="33"/>
       <c r="I7" s="34"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="218"/>
-      <c r="B8" s="212"/>
+      <c r="A8" s="203"/>
+      <c r="B8" s="220"/>
       <c r="C8" s="89" t="s">
         <v>254</v>
       </c>
@@ -23432,13 +23121,13 @@
       </c>
       <c r="E8" s="67"/>
       <c r="F8" s="33"/>
-      <c r="G8" s="212"/>
+      <c r="G8" s="220"/>
       <c r="H8" s="33"/>
       <c r="I8" s="34"/>
     </row>
     <row r="9" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="231"/>
-      <c r="B9" s="224"/>
+      <c r="A9" s="223"/>
+      <c r="B9" s="222"/>
       <c r="C9" s="90" t="s">
         <v>253</v>
       </c>
@@ -23447,15 +23136,15 @@
       </c>
       <c r="E9" s="66"/>
       <c r="F9" s="35"/>
-      <c r="G9" s="224"/>
+      <c r="G9" s="222"/>
       <c r="H9" s="35"/>
       <c r="I9" s="36"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="217" t="s">
+      <c r="A10" s="202" t="s">
         <v>198</v>
       </c>
-      <c r="B10" s="223" t="s">
+      <c r="B10" s="219" t="s">
         <v>199</v>
       </c>
       <c r="C10" s="96" t="s">
@@ -23468,15 +23157,15 @@
         <v>202</v>
       </c>
       <c r="F10" s="31"/>
-      <c r="G10" s="223" t="s">
+      <c r="G10" s="219" t="s">
         <v>288</v>
       </c>
       <c r="H10" s="31"/>
       <c r="I10" s="32"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="218"/>
-      <c r="B11" s="212"/>
+      <c r="A11" s="203"/>
+      <c r="B11" s="220"/>
       <c r="C11" s="97" t="s">
         <v>203</v>
       </c>
@@ -23487,13 +23176,13 @@
         <v>205</v>
       </c>
       <c r="F11" s="33"/>
-      <c r="G11" s="212"/>
+      <c r="G11" s="220"/>
       <c r="H11" s="33"/>
       <c r="I11" s="34"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="218"/>
-      <c r="B12" s="212"/>
+      <c r="A12" s="203"/>
+      <c r="B12" s="220"/>
       <c r="C12" s="97" t="s">
         <v>206</v>
       </c>
@@ -23504,13 +23193,13 @@
         <v>208</v>
       </c>
       <c r="F12" s="33"/>
-      <c r="G12" s="212"/>
+      <c r="G12" s="220"/>
       <c r="H12" s="33"/>
       <c r="I12" s="34"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="218"/>
-      <c r="B13" s="213"/>
+      <c r="A13" s="203"/>
+      <c r="B13" s="218"/>
       <c r="C13" s="97" t="s">
         <v>209</v>
       </c>
@@ -23519,13 +23208,13 @@
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="33"/>
-      <c r="G13" s="213"/>
+      <c r="G13" s="218"/>
       <c r="H13" s="33"/>
       <c r="I13" s="34"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="218"/>
-      <c r="B14" s="211" t="s">
+      <c r="A14" s="203"/>
+      <c r="B14" s="221" t="s">
         <v>216</v>
       </c>
       <c r="C14" s="98" t="s">
@@ -23538,15 +23227,15 @@
         <v>219</v>
       </c>
       <c r="F14" s="33"/>
-      <c r="G14" s="211" t="s">
+      <c r="G14" s="221" t="s">
         <v>288</v>
       </c>
       <c r="H14" s="33"/>
       <c r="I14" s="34"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="218"/>
-      <c r="B15" s="212"/>
+      <c r="A15" s="203"/>
+      <c r="B15" s="220"/>
       <c r="C15" s="97" t="s">
         <v>220</v>
       </c>
@@ -23557,13 +23246,13 @@
         <v>205</v>
       </c>
       <c r="F15" s="33"/>
-      <c r="G15" s="212"/>
+      <c r="G15" s="220"/>
       <c r="H15" s="33"/>
       <c r="I15" s="34"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="218"/>
-      <c r="B16" s="213"/>
+      <c r="A16" s="203"/>
+      <c r="B16" s="218"/>
       <c r="C16" s="97" t="s">
         <v>222</v>
       </c>
@@ -23574,13 +23263,13 @@
         <v>224</v>
       </c>
       <c r="F16" s="33"/>
-      <c r="G16" s="213"/>
+      <c r="G16" s="218"/>
       <c r="H16" s="33"/>
       <c r="I16" s="34"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="218"/>
-      <c r="B17" s="211" t="s">
+      <c r="A17" s="203"/>
+      <c r="B17" s="221" t="s">
         <v>211</v>
       </c>
       <c r="C17" s="94" t="s">
@@ -23593,15 +23282,15 @@
         <v>282</v>
       </c>
       <c r="F17" s="33"/>
-      <c r="G17" s="211" t="s">
+      <c r="G17" s="221" t="s">
         <v>292</v>
       </c>
       <c r="H17" s="33"/>
       <c r="I17" s="34"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="218"/>
-      <c r="B18" s="213"/>
+      <c r="A18" s="203"/>
+      <c r="B18" s="218"/>
       <c r="C18" s="94" t="s">
         <v>214</v>
       </c>
@@ -23612,13 +23301,13 @@
         <v>281</v>
       </c>
       <c r="F18" s="33"/>
-      <c r="G18" s="213"/>
+      <c r="G18" s="218"/>
       <c r="H18" s="33"/>
       <c r="I18" s="34"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="218"/>
-      <c r="B19" s="211" t="s">
+      <c r="A19" s="203"/>
+      <c r="B19" s="221" t="s">
         <v>115</v>
       </c>
       <c r="C19" s="99" t="s">
@@ -23629,15 +23318,15 @@
       </c>
       <c r="E19" s="33"/>
       <c r="F19" s="33"/>
-      <c r="G19" s="212" t="s">
+      <c r="G19" s="220" t="s">
         <v>291</v>
       </c>
       <c r="H19" s="33"/>
       <c r="I19" s="34"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="218"/>
-      <c r="B20" s="213"/>
+      <c r="A20" s="203"/>
+      <c r="B20" s="218"/>
       <c r="C20" s="99" t="s">
         <v>118</v>
       </c>
@@ -23646,12 +23335,12 @@
       </c>
       <c r="E20" s="33"/>
       <c r="F20" s="33"/>
-      <c r="G20" s="212"/>
+      <c r="G20" s="220"/>
       <c r="H20" s="33"/>
       <c r="I20" s="34"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="218"/>
+      <c r="A21" s="203"/>
       <c r="B21" s="129" t="s">
         <v>295</v>
       </c>
@@ -23663,13 +23352,13 @@
       </c>
       <c r="E21" s="33"/>
       <c r="F21" s="33"/>
-      <c r="G21" s="213"/>
+      <c r="G21" s="218"/>
       <c r="H21" s="33"/>
       <c r="I21" s="34"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="218"/>
-      <c r="B22" s="211" t="s">
+      <c r="A22" s="203"/>
+      <c r="B22" s="221" t="s">
         <v>225</v>
       </c>
       <c r="C22" s="94" t="s">
@@ -23680,15 +23369,15 @@
       </c>
       <c r="E22" s="33"/>
       <c r="F22" s="33"/>
-      <c r="G22" s="211" t="s">
+      <c r="G22" s="221" t="s">
         <v>285</v>
       </c>
       <c r="H22" s="33"/>
       <c r="I22" s="34"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="218"/>
-      <c r="B23" s="212"/>
+      <c r="A23" s="203"/>
+      <c r="B23" s="220"/>
       <c r="C23" s="94" t="s">
         <v>228</v>
       </c>
@@ -23697,13 +23386,13 @@
       </c>
       <c r="E23" s="33"/>
       <c r="F23" s="33"/>
-      <c r="G23" s="212"/>
+      <c r="G23" s="220"/>
       <c r="H23" s="33"/>
       <c r="I23" s="34"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="218"/>
-      <c r="B24" s="212"/>
+      <c r="A24" s="203"/>
+      <c r="B24" s="220"/>
       <c r="C24" s="94" t="s">
         <v>274</v>
       </c>
@@ -23712,13 +23401,13 @@
       </c>
       <c r="E24" s="33"/>
       <c r="F24" s="33"/>
-      <c r="G24" s="213"/>
+      <c r="G24" s="218"/>
       <c r="H24" s="33"/>
       <c r="I24" s="34"/>
     </row>
     <row r="25" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="231"/>
-      <c r="B25" s="224"/>
+      <c r="A25" s="223"/>
+      <c r="B25" s="222"/>
       <c r="C25" s="95" t="s">
         <v>230</v>
       </c>
@@ -23734,10 +23423,10 @@
       <c r="I25" s="45"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="217" t="s">
+      <c r="A26" s="202" t="s">
         <v>232</v>
       </c>
-      <c r="B26" s="223" t="s">
+      <c r="B26" s="219" t="s">
         <v>233</v>
       </c>
       <c r="C26" s="91" t="s">
@@ -23748,15 +23437,15 @@
       </c>
       <c r="E26" s="31"/>
       <c r="F26" s="31"/>
-      <c r="G26" s="223" t="s">
+      <c r="G26" s="219" t="s">
         <v>286</v>
       </c>
       <c r="H26" s="31"/>
       <c r="I26" s="32"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="218"/>
-      <c r="B27" s="212"/>
+      <c r="A27" s="203"/>
+      <c r="B27" s="220"/>
       <c r="C27" s="92" t="s">
         <v>129</v>
       </c>
@@ -23765,13 +23454,13 @@
       </c>
       <c r="E27" s="33"/>
       <c r="F27" s="33"/>
-      <c r="G27" s="213"/>
+      <c r="G27" s="218"/>
       <c r="H27" s="33"/>
       <c r="I27" s="34"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="218"/>
-      <c r="B28" s="212"/>
+      <c r="A28" s="203"/>
+      <c r="B28" s="220"/>
       <c r="C28" s="100" t="s">
         <v>236</v>
       </c>
@@ -23780,15 +23469,15 @@
       </c>
       <c r="E28" s="33"/>
       <c r="F28" s="33"/>
-      <c r="G28" s="211" t="s">
+      <c r="G28" s="221" t="s">
         <v>289</v>
       </c>
       <c r="H28" s="33"/>
       <c r="I28" s="34"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="218"/>
-      <c r="B29" s="213"/>
+      <c r="A29" s="203"/>
+      <c r="B29" s="218"/>
       <c r="C29" s="100" t="s">
         <v>125</v>
       </c>
@@ -23797,12 +23486,12 @@
       </c>
       <c r="E29" s="33"/>
       <c r="F29" s="33"/>
-      <c r="G29" s="212"/>
+      <c r="G29" s="220"/>
       <c r="H29" s="33"/>
       <c r="I29" s="34"/>
     </row>
     <row r="30" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="231"/>
+      <c r="A30" s="223"/>
       <c r="B30" s="128" t="s">
         <v>239</v>
       </c>
@@ -23816,15 +23505,15 @@
         <v>256</v>
       </c>
       <c r="F30" s="35"/>
-      <c r="G30" s="224"/>
+      <c r="G30" s="222"/>
       <c r="H30" s="35"/>
       <c r="I30" s="36"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="217" t="s">
+      <c r="A31" s="202" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="223" t="s">
+      <c r="B31" s="219" t="s">
         <v>71</v>
       </c>
       <c r="C31" s="93" t="s">
@@ -23835,15 +23524,15 @@
       </c>
       <c r="E31" s="55"/>
       <c r="F31" s="55"/>
-      <c r="G31" s="223" t="s">
+      <c r="G31" s="219" t="s">
         <v>287</v>
       </c>
       <c r="H31" s="55"/>
       <c r="I31" s="56"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="218"/>
-      <c r="B32" s="213"/>
+      <c r="A32" s="203"/>
+      <c r="B32" s="218"/>
       <c r="C32" s="89" t="s">
         <v>294</v>
       </c>
@@ -23852,13 +23541,13 @@
       </c>
       <c r="E32" s="33"/>
       <c r="F32" s="33"/>
-      <c r="G32" s="213"/>
+      <c r="G32" s="218"/>
       <c r="H32" s="33"/>
       <c r="I32" s="34"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="218"/>
-      <c r="B33" s="211" t="s">
+      <c r="A33" s="203"/>
+      <c r="B33" s="221" t="s">
         <v>257</v>
       </c>
       <c r="C33" s="97" t="s">
@@ -23869,15 +23558,15 @@
       </c>
       <c r="E33" s="33"/>
       <c r="F33" s="33"/>
-      <c r="G33" s="211" t="s">
+      <c r="G33" s="221" t="s">
         <v>288</v>
       </c>
       <c r="H33" s="33"/>
       <c r="I33" s="34"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="218"/>
-      <c r="B34" s="212"/>
+      <c r="A34" s="203"/>
+      <c r="B34" s="220"/>
       <c r="C34" s="97" t="s">
         <v>260</v>
       </c>
@@ -23886,13 +23575,13 @@
       </c>
       <c r="E34" s="33"/>
       <c r="F34" s="33"/>
-      <c r="G34" s="212"/>
+      <c r="G34" s="220"/>
       <c r="H34" s="33"/>
       <c r="I34" s="34"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="218"/>
-      <c r="B35" s="213"/>
+      <c r="A35" s="203"/>
+      <c r="B35" s="218"/>
       <c r="C35" s="97" t="s">
         <v>259</v>
       </c>
@@ -23903,13 +23592,13 @@
         <v>264</v>
       </c>
       <c r="F35" s="33"/>
-      <c r="G35" s="213"/>
+      <c r="G35" s="218"/>
       <c r="H35" s="33"/>
       <c r="I35" s="34"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="218"/>
-      <c r="B36" s="211" t="s">
+      <c r="A36" s="203"/>
+      <c r="B36" s="221" t="s">
         <v>242</v>
       </c>
       <c r="C36" s="99" t="s">
@@ -23922,15 +23611,15 @@
         <v>245</v>
       </c>
       <c r="F36" s="33"/>
-      <c r="G36" s="211" t="s">
+      <c r="G36" s="221" t="s">
         <v>291</v>
       </c>
       <c r="H36" s="33"/>
       <c r="I36" s="34"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="218"/>
-      <c r="B37" s="213"/>
+      <c r="A37" s="203"/>
+      <c r="B37" s="218"/>
       <c r="C37" s="99" t="s">
         <v>246</v>
       </c>
@@ -23941,13 +23630,13 @@
         <v>248</v>
       </c>
       <c r="F37" s="33"/>
-      <c r="G37" s="212"/>
+      <c r="G37" s="220"/>
       <c r="H37" s="33"/>
       <c r="I37" s="34"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="218"/>
-      <c r="B38" s="211" t="s">
+      <c r="A38" s="203"/>
+      <c r="B38" s="221" t="s">
         <v>270</v>
       </c>
       <c r="C38" s="95" t="s">
@@ -23960,13 +23649,13 @@
         <v>250</v>
       </c>
       <c r="F38" s="44"/>
-      <c r="G38" s="212"/>
+      <c r="G38" s="220"/>
       <c r="H38" s="44"/>
       <c r="I38" s="45"/>
     </row>
     <row r="39" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="231"/>
-      <c r="B39" s="224"/>
+      <c r="A39" s="223"/>
+      <c r="B39" s="222"/>
       <c r="C39" s="95" t="s">
         <v>272</v>
       </c>
@@ -23977,7 +23666,7 @@
         <v>252</v>
       </c>
       <c r="F39" s="44"/>
-      <c r="G39" s="224"/>
+      <c r="G39" s="222"/>
       <c r="H39" s="44"/>
       <c r="I39" s="45"/>
     </row>
@@ -24233,19 +23922,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="A31:A39"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="G26:G27"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="G4:G9"/>
@@ -24262,6 +23938,19 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A31:A39"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24311,52 +24000,52 @@
       <c r="O1" s="84"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="233" t="s">
+      <c r="A2" s="229" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="235" t="s">
+      <c r="B2" s="224" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="235" t="s">
+      <c r="C2" s="224" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="235" t="s">
+      <c r="D2" s="224" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="235" t="s">
+      <c r="E2" s="224" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="235" t="s">
+      <c r="F2" s="224" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="235" t="s">
+      <c r="G2" s="224" t="s">
         <v>277</v>
       </c>
-      <c r="H2" s="237" t="s">
+      <c r="H2" s="226" t="s">
         <v>276</v>
       </c>
-      <c r="I2" s="238"/>
-      <c r="J2" s="239"/>
-      <c r="K2" s="235" t="s">
+      <c r="I2" s="227"/>
+      <c r="J2" s="228"/>
+      <c r="K2" s="224" t="s">
         <v>275</v>
       </c>
-      <c r="L2" s="235" t="s">
+      <c r="L2" s="224" t="s">
         <v>278</v>
       </c>
-      <c r="M2" s="237" t="s">
+      <c r="M2" s="226" t="s">
         <v>279</v>
       </c>
-      <c r="N2" s="238"/>
-      <c r="O2" s="239"/>
+      <c r="N2" s="227"/>
+      <c r="O2" s="228"/>
     </row>
     <row r="3" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="234"/>
-      <c r="B3" s="236"/>
-      <c r="C3" s="236"/>
-      <c r="D3" s="236"/>
-      <c r="E3" s="236"/>
-      <c r="F3" s="236"/>
-      <c r="G3" s="236"/>
+      <c r="A3" s="230"/>
+      <c r="B3" s="225"/>
+      <c r="C3" s="225"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="225"/>
+      <c r="F3" s="225"/>
+      <c r="G3" s="225"/>
       <c r="H3" s="122" t="s">
         <v>297</v>
       </c>
@@ -24366,8 +24055,8 @@
       <c r="J3" s="122" t="s">
         <v>299</v>
       </c>
-      <c r="K3" s="236"/>
-      <c r="L3" s="236"/>
+      <c r="K3" s="225"/>
+      <c r="L3" s="225"/>
       <c r="M3" s="122" t="s">
         <v>300</v>
       </c>
@@ -24396,10 +24085,10 @@
       <c r="O4" s="86"/>
     </row>
     <row r="5" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="232" t="s">
+      <c r="A5" s="231" t="s">
         <v>356</v>
       </c>
-      <c r="B5" s="223" t="s">
+      <c r="B5" s="219" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="88" t="s">
@@ -24408,7 +24097,7 @@
       <c r="D5" s="85">
         <v>1</v>
       </c>
-      <c r="E5" s="223" t="s">
+      <c r="E5" s="219" t="s">
         <v>284</v>
       </c>
       <c r="F5" s="85"/>
@@ -24427,15 +24116,15 @@
       <c r="O5" s="110"/>
     </row>
     <row r="6" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="218"/>
-      <c r="B6" s="212"/>
+      <c r="A6" s="203"/>
+      <c r="B6" s="220"/>
       <c r="C6" s="89" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="81">
         <v>1</v>
       </c>
-      <c r="E6" s="212"/>
+      <c r="E6" s="220"/>
       <c r="F6" s="81"/>
       <c r="G6" s="113" t="s">
         <v>316</v>
@@ -24452,15 +24141,15 @@
       <c r="O6" s="107"/>
     </row>
     <row r="7" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="218"/>
-      <c r="B7" s="213"/>
+      <c r="A7" s="203"/>
+      <c r="B7" s="218"/>
       <c r="C7" s="89" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="81">
         <v>1</v>
       </c>
-      <c r="E7" s="212"/>
+      <c r="E7" s="220"/>
       <c r="F7" s="81"/>
       <c r="G7" s="113" t="s">
         <v>316</v>
@@ -24477,8 +24166,8 @@
       <c r="O7" s="107"/>
     </row>
     <row r="8" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="218"/>
-      <c r="B8" s="211" t="s">
+      <c r="A8" s="203"/>
+      <c r="B8" s="221" t="s">
         <v>253</v>
       </c>
       <c r="C8" s="89" t="s">
@@ -24487,7 +24176,7 @@
       <c r="D8" s="81">
         <v>1</v>
       </c>
-      <c r="E8" s="212"/>
+      <c r="E8" s="220"/>
       <c r="F8" s="81"/>
       <c r="G8" s="107" t="s">
         <v>318</v>
@@ -24504,15 +24193,15 @@
       <c r="O8" s="107"/>
     </row>
     <row r="9" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="218"/>
-      <c r="B9" s="212"/>
+      <c r="A9" s="203"/>
+      <c r="B9" s="220"/>
       <c r="C9" s="89" t="s">
         <v>254</v>
       </c>
       <c r="D9" s="81">
         <v>1</v>
       </c>
-      <c r="E9" s="212"/>
+      <c r="E9" s="220"/>
       <c r="F9" s="81"/>
       <c r="G9" s="107" t="s">
         <v>319</v>
@@ -24529,15 +24218,15 @@
       <c r="O9" s="107"/>
     </row>
     <row r="10" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="231"/>
-      <c r="B10" s="224"/>
+      <c r="A10" s="223"/>
+      <c r="B10" s="222"/>
       <c r="C10" s="90" t="s">
         <v>253</v>
       </c>
       <c r="D10" s="87">
         <v>1</v>
       </c>
-      <c r="E10" s="224"/>
+      <c r="E10" s="222"/>
       <c r="F10" s="87"/>
       <c r="G10" s="107" t="s">
         <v>319</v>
@@ -24554,10 +24243,10 @@
       <c r="O10" s="111"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="232" t="s">
+      <c r="A11" s="231" t="s">
         <v>357</v>
       </c>
-      <c r="B11" s="223" t="s">
+      <c r="B11" s="219" t="s">
         <v>103</v>
       </c>
       <c r="C11" s="96" t="s">
@@ -24566,7 +24255,7 @@
       <c r="D11" s="85">
         <v>2</v>
       </c>
-      <c r="E11" s="223" t="s">
+      <c r="E11" s="219" t="s">
         <v>288</v>
       </c>
       <c r="F11" s="85"/>
@@ -24585,15 +24274,15 @@
       <c r="O11" s="110"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="218"/>
-      <c r="B12" s="212"/>
+      <c r="A12" s="203"/>
+      <c r="B12" s="220"/>
       <c r="C12" s="97" t="s">
         <v>203</v>
       </c>
       <c r="D12" s="81">
         <v>1</v>
       </c>
-      <c r="E12" s="212"/>
+      <c r="E12" s="220"/>
       <c r="F12" s="81"/>
       <c r="G12" s="107" t="s">
         <v>348</v>
@@ -24610,15 +24299,15 @@
       <c r="O12" s="107"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="218"/>
-      <c r="B13" s="212"/>
+      <c r="A13" s="203"/>
+      <c r="B13" s="220"/>
       <c r="C13" s="97" t="s">
         <v>206</v>
       </c>
       <c r="D13" s="81">
         <v>1</v>
       </c>
-      <c r="E13" s="212"/>
+      <c r="E13" s="220"/>
       <c r="F13" s="81"/>
       <c r="G13" s="107" t="s">
         <v>348</v>
@@ -24635,15 +24324,15 @@
       <c r="O13" s="107"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="218"/>
-      <c r="B14" s="213"/>
+      <c r="A14" s="203"/>
+      <c r="B14" s="218"/>
       <c r="C14" s="97" t="s">
         <v>209</v>
       </c>
       <c r="D14" s="81">
         <v>2</v>
       </c>
-      <c r="E14" s="213"/>
+      <c r="E14" s="218"/>
       <c r="F14" s="81"/>
       <c r="G14" s="107" t="s">
         <v>350</v>
@@ -24660,8 +24349,8 @@
       <c r="O14" s="107"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="218"/>
-      <c r="B15" s="211" t="s">
+      <c r="A15" s="203"/>
+      <c r="B15" s="221" t="s">
         <v>111</v>
       </c>
       <c r="C15" s="98" t="s">
@@ -24670,7 +24359,7 @@
       <c r="D15" s="81">
         <v>2</v>
       </c>
-      <c r="E15" s="211" t="s">
+      <c r="E15" s="221" t="s">
         <v>288</v>
       </c>
       <c r="F15" s="81"/>
@@ -24689,15 +24378,15 @@
       <c r="O15" s="107"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="218"/>
-      <c r="B16" s="212"/>
+      <c r="A16" s="203"/>
+      <c r="B16" s="220"/>
       <c r="C16" s="97" t="s">
         <v>220</v>
       </c>
       <c r="D16" s="81">
         <v>1</v>
       </c>
-      <c r="E16" s="212"/>
+      <c r="E16" s="220"/>
       <c r="F16" s="81"/>
       <c r="G16" s="107" t="s">
         <v>348</v>
@@ -24714,15 +24403,15 @@
       <c r="O16" s="107"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="218"/>
-      <c r="B17" s="212"/>
+      <c r="A17" s="203"/>
+      <c r="B17" s="220"/>
       <c r="C17" s="97" t="s">
         <v>222</v>
       </c>
       <c r="D17" s="81">
         <v>1</v>
       </c>
-      <c r="E17" s="213"/>
+      <c r="E17" s="218"/>
       <c r="F17" s="81"/>
       <c r="G17" s="107" t="s">
         <v>348</v>
@@ -24739,8 +24428,8 @@
       <c r="O17" s="107"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="218"/>
-      <c r="B18" s="211" t="s">
+      <c r="A18" s="203"/>
+      <c r="B18" s="221" t="s">
         <v>180</v>
       </c>
       <c r="C18" s="94" t="s">
@@ -24749,7 +24438,7 @@
       <c r="D18" s="81">
         <v>1</v>
       </c>
-      <c r="E18" s="211" t="s">
+      <c r="E18" s="221" t="s">
         <v>292</v>
       </c>
       <c r="F18" s="81"/>
@@ -24768,15 +24457,15 @@
       <c r="O18" s="107"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="218"/>
-      <c r="B19" s="213"/>
+      <c r="A19" s="203"/>
+      <c r="B19" s="218"/>
       <c r="C19" s="94" t="s">
         <v>184</v>
       </c>
       <c r="D19" s="81">
         <v>2</v>
       </c>
-      <c r="E19" s="213"/>
+      <c r="E19" s="218"/>
       <c r="F19" s="81"/>
       <c r="G19" s="107" t="s">
         <v>345</v>
@@ -24793,8 +24482,8 @@
       <c r="O19" s="107"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="218"/>
-      <c r="B20" s="211" t="s">
+      <c r="A20" s="203"/>
+      <c r="B20" s="221" t="s">
         <v>115</v>
       </c>
       <c r="C20" s="99" t="s">
@@ -24803,7 +24492,7 @@
       <c r="D20" s="81">
         <v>1</v>
       </c>
-      <c r="E20" s="212" t="s">
+      <c r="E20" s="220" t="s">
         <v>307</v>
       </c>
       <c r="F20" s="81"/>
@@ -24822,15 +24511,15 @@
       <c r="O20" s="107"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="218"/>
-      <c r="B21" s="213"/>
+      <c r="A21" s="203"/>
+      <c r="B21" s="218"/>
       <c r="C21" s="99" t="s">
         <v>118</v>
       </c>
       <c r="D21" s="81">
         <v>2</v>
       </c>
-      <c r="E21" s="212"/>
+      <c r="E21" s="220"/>
       <c r="F21" s="81"/>
       <c r="G21" s="107" t="s">
         <v>330</v>
@@ -24847,7 +24536,7 @@
       <c r="O21" s="107"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="218"/>
+      <c r="A22" s="203"/>
       <c r="B22" s="126" t="s">
         <v>302</v>
       </c>
@@ -24857,7 +24546,7 @@
       <c r="D22" s="81">
         <v>1</v>
       </c>
-      <c r="E22" s="213"/>
+      <c r="E22" s="218"/>
       <c r="F22" s="81"/>
       <c r="G22" s="107" t="s">
         <v>333</v>
@@ -24874,8 +24563,8 @@
       <c r="O22" s="107"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="218"/>
-      <c r="B23" s="211" t="s">
+      <c r="A23" s="203"/>
+      <c r="B23" s="221" t="s">
         <v>43</v>
       </c>
       <c r="C23" s="94" t="s">
@@ -24884,7 +24573,7 @@
       <c r="D23" s="81">
         <v>3</v>
       </c>
-      <c r="E23" s="211" t="s">
+      <c r="E23" s="221" t="s">
         <v>285</v>
       </c>
       <c r="F23" s="81"/>
@@ -24903,15 +24592,15 @@
       <c r="O23" s="107"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="218"/>
-      <c r="B24" s="212"/>
+      <c r="A24" s="203"/>
+      <c r="B24" s="220"/>
       <c r="C24" s="94" t="s">
         <v>178</v>
       </c>
       <c r="D24" s="81">
         <v>3</v>
       </c>
-      <c r="E24" s="212"/>
+      <c r="E24" s="220"/>
       <c r="F24" s="81"/>
       <c r="G24" s="107" t="s">
         <v>321</v>
@@ -24928,15 +24617,15 @@
       <c r="O24" s="107"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="218"/>
-      <c r="B25" s="212"/>
+      <c r="A25" s="203"/>
+      <c r="B25" s="220"/>
       <c r="C25" s="94" t="s">
         <v>280</v>
       </c>
       <c r="D25" s="81">
         <v>3</v>
       </c>
-      <c r="E25" s="213"/>
+      <c r="E25" s="218"/>
       <c r="F25" s="81"/>
       <c r="G25" s="107" t="s">
         <v>321</v>
@@ -24953,8 +24642,8 @@
       <c r="O25" s="107"/>
     </row>
     <row r="26" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="231"/>
-      <c r="B26" s="224"/>
+      <c r="A26" s="223"/>
+      <c r="B26" s="222"/>
       <c r="C26" s="95" t="s">
         <v>273</v>
       </c>
@@ -24980,10 +24669,10 @@
       <c r="O26" s="112"/>
     </row>
     <row r="27" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="232" t="s">
+      <c r="A27" s="231" t="s">
         <v>358</v>
       </c>
-      <c r="B27" s="223" t="s">
+      <c r="B27" s="219" t="s">
         <v>127</v>
       </c>
       <c r="C27" s="91" t="s">
@@ -24992,7 +24681,7 @@
       <c r="D27" s="85">
         <v>1</v>
       </c>
-      <c r="E27" s="223" t="s">
+      <c r="E27" s="219" t="s">
         <v>286</v>
       </c>
       <c r="F27" s="85"/>
@@ -25011,15 +24700,15 @@
       <c r="O27" s="110"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="218"/>
-      <c r="B28" s="212"/>
+      <c r="A28" s="203"/>
+      <c r="B28" s="220"/>
       <c r="C28" s="92" t="s">
         <v>129</v>
       </c>
       <c r="D28" s="81">
         <v>1</v>
       </c>
-      <c r="E28" s="213"/>
+      <c r="E28" s="218"/>
       <c r="F28" s="81"/>
       <c r="G28" s="110" t="s">
         <v>324</v>
@@ -25036,15 +24725,15 @@
       <c r="O28" s="107"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="218"/>
-      <c r="B29" s="212"/>
+      <c r="A29" s="203"/>
+      <c r="B29" s="220"/>
       <c r="C29" s="100" t="s">
         <v>132</v>
       </c>
       <c r="D29" s="81">
         <v>3</v>
       </c>
-      <c r="E29" s="211" t="s">
+      <c r="E29" s="221" t="s">
         <v>289</v>
       </c>
       <c r="F29" s="81"/>
@@ -25063,15 +24752,15 @@
       <c r="O29" s="107"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="218"/>
-      <c r="B30" s="213"/>
+      <c r="A30" s="203"/>
+      <c r="B30" s="218"/>
       <c r="C30" s="100" t="s">
         <v>125</v>
       </c>
       <c r="D30" s="81">
         <v>3</v>
       </c>
-      <c r="E30" s="212"/>
+      <c r="E30" s="220"/>
       <c r="F30" s="81"/>
       <c r="G30" s="107" t="s">
         <v>337</v>
@@ -25088,7 +24777,7 @@
       <c r="O30" s="107"/>
     </row>
     <row r="31" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="231"/>
+      <c r="A31" s="223"/>
       <c r="B31" s="87" t="s">
         <v>139</v>
       </c>
@@ -25098,7 +24787,7 @@
       <c r="D31" s="87">
         <v>2</v>
       </c>
-      <c r="E31" s="224"/>
+      <c r="E31" s="222"/>
       <c r="F31" s="87"/>
       <c r="G31" s="111" t="s">
         <v>338</v>
@@ -25115,10 +24804,10 @@
       <c r="O31" s="111"/>
     </row>
     <row r="32" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="232" t="s">
+      <c r="A32" s="231" t="s">
         <v>359</v>
       </c>
-      <c r="B32" s="223" t="s">
+      <c r="B32" s="219" t="s">
         <v>71</v>
       </c>
       <c r="C32" s="93" t="s">
@@ -25127,7 +24816,7 @@
       <c r="D32" s="83">
         <v>3</v>
       </c>
-      <c r="E32" s="223" t="s">
+      <c r="E32" s="219" t="s">
         <v>287</v>
       </c>
       <c r="F32" s="83"/>
@@ -25146,15 +24835,15 @@
       <c r="O32" s="113"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="218"/>
-      <c r="B33" s="213"/>
+      <c r="A33" s="203"/>
+      <c r="B33" s="218"/>
       <c r="C33" s="89" t="s">
         <v>293</v>
       </c>
       <c r="D33" s="81">
         <v>3</v>
       </c>
-      <c r="E33" s="213"/>
+      <c r="E33" s="218"/>
       <c r="F33" s="81"/>
       <c r="G33" s="123" t="s">
         <v>326</v>
@@ -25171,8 +24860,8 @@
       <c r="O33" s="107"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="218"/>
-      <c r="B34" s="211" t="s">
+      <c r="A34" s="203"/>
+      <c r="B34" s="221" t="s">
         <v>257</v>
       </c>
       <c r="C34" s="97" t="s">
@@ -25181,7 +24870,7 @@
       <c r="D34" s="81">
         <v>2</v>
       </c>
-      <c r="E34" s="211" t="s">
+      <c r="E34" s="221" t="s">
         <v>288</v>
       </c>
       <c r="F34" s="81"/>
@@ -25200,15 +24889,15 @@
       <c r="O34" s="107"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="218"/>
-      <c r="B35" s="212"/>
+      <c r="A35" s="203"/>
+      <c r="B35" s="220"/>
       <c r="C35" s="97" t="s">
         <v>260</v>
       </c>
       <c r="D35" s="81">
         <v>2</v>
       </c>
-      <c r="E35" s="212"/>
+      <c r="E35" s="220"/>
       <c r="F35" s="81"/>
       <c r="G35" s="107" t="s">
         <v>353</v>
@@ -25225,15 +24914,15 @@
       <c r="O35" s="107"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="218"/>
-      <c r="B36" s="213"/>
+      <c r="A36" s="203"/>
+      <c r="B36" s="218"/>
       <c r="C36" s="97" t="s">
         <v>259</v>
       </c>
       <c r="D36" s="81">
         <v>2</v>
       </c>
-      <c r="E36" s="213"/>
+      <c r="E36" s="218"/>
       <c r="F36" s="81"/>
       <c r="G36" s="107" t="s">
         <v>354</v>
@@ -25250,8 +24939,8 @@
       <c r="O36" s="107"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="218"/>
-      <c r="B37" s="211" t="s">
+      <c r="A37" s="203"/>
+      <c r="B37" s="221" t="s">
         <v>154</v>
       </c>
       <c r="C37" s="99" t="s">
@@ -25260,7 +24949,7 @@
       <c r="D37" s="81">
         <v>2</v>
       </c>
-      <c r="E37" s="211" t="s">
+      <c r="E37" s="221" t="s">
         <v>291</v>
       </c>
       <c r="F37" s="81"/>
@@ -25279,15 +24968,15 @@
       <c r="O37" s="107"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="218"/>
-      <c r="B38" s="213"/>
+      <c r="A38" s="203"/>
+      <c r="B38" s="218"/>
       <c r="C38" s="99" t="s">
         <v>92</v>
       </c>
       <c r="D38" s="81">
         <v>3</v>
       </c>
-      <c r="E38" s="212"/>
+      <c r="E38" s="220"/>
       <c r="F38" s="81"/>
       <c r="G38" s="107" t="s">
         <v>337</v>
@@ -25304,8 +24993,8 @@
       <c r="O38" s="107"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="218"/>
-      <c r="B39" s="211" t="s">
+      <c r="A39" s="203"/>
+      <c r="B39" s="221" t="s">
         <v>269</v>
       </c>
       <c r="C39" s="95" t="s">
@@ -25314,7 +25003,7 @@
       <c r="D39" s="82">
         <v>2</v>
       </c>
-      <c r="E39" s="212"/>
+      <c r="E39" s="220"/>
       <c r="F39" s="82"/>
       <c r="G39" s="107" t="s">
         <v>341</v>
@@ -25331,15 +25020,15 @@
       <c r="O39" s="112"/>
     </row>
     <row r="40" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="231"/>
-      <c r="B40" s="224"/>
+      <c r="A40" s="223"/>
+      <c r="B40" s="222"/>
       <c r="C40" s="95" t="s">
         <v>272</v>
       </c>
       <c r="D40" s="82">
         <v>3</v>
       </c>
-      <c r="E40" s="224"/>
+      <c r="E40" s="222"/>
       <c r="F40" s="82"/>
       <c r="G40" s="112" t="s">
         <v>340</v>
@@ -25731,16 +25420,18 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="A32:A40"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="E37:E40"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="E23:E25"/>
     <mergeCell ref="E27:E28"/>
@@ -25757,18 +25448,16 @@
     <mergeCell ref="A11:A26"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="E37:E40"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="A32:A40"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25778,118 +25467,90 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M59"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.75" customWidth="1"/>
     <col min="3" max="3" width="21.125" customWidth="1"/>
-    <col min="7" max="13" width="9" style="161"/>
+    <col min="7" max="9" width="9" style="157"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="253" t="s">
+    <row r="1" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="232" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="253" t="s">
+      <c r="B1" s="232" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="256" t="s">
-        <v>416</v>
-      </c>
-      <c r="D1" s="253" t="s">
+      <c r="C1" s="254" t="s">
+        <v>412</v>
+      </c>
+      <c r="D1" s="232" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="253" t="s">
+      <c r="E1" s="232" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="243" t="s">
+      <c r="F1" s="258" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="244"/>
-      <c r="H1" s="244"/>
-      <c r="I1" s="245"/>
-      <c r="J1" s="240" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="241"/>
-      <c r="L1" s="241"/>
-      <c r="M1" s="242"/>
-    </row>
-    <row r="2" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="255"/>
-      <c r="B2" s="255"/>
-      <c r="C2" s="255"/>
-      <c r="D2" s="255"/>
-      <c r="E2" s="255"/>
-      <c r="F2" s="253" t="s">
+      <c r="G1" s="259"/>
+      <c r="H1" s="259"/>
+      <c r="I1" s="260"/>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="233"/>
+      <c r="B2" s="233"/>
+      <c r="C2" s="233"/>
+      <c r="D2" s="233"/>
+      <c r="E2" s="233"/>
+      <c r="F2" s="232" t="s">
         <v>361</v>
       </c>
-      <c r="G2" s="240" t="s">
+      <c r="G2" s="255" t="s">
         <v>362</v>
       </c>
-      <c r="H2" s="241"/>
-      <c r="I2" s="242"/>
-      <c r="J2" s="249" t="s">
-        <v>361</v>
-      </c>
-      <c r="K2" s="240" t="s">
-        <v>362</v>
-      </c>
-      <c r="L2" s="241"/>
-      <c r="M2" s="242"/>
-    </row>
-    <row r="3" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="254"/>
-      <c r="B3" s="254"/>
-      <c r="C3" s="254"/>
-      <c r="D3" s="254"/>
-      <c r="E3" s="254"/>
-      <c r="F3" s="254"/>
-      <c r="G3" s="158" t="s">
+      <c r="H2" s="256"/>
+      <c r="I2" s="257"/>
+    </row>
+    <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="234"/>
+      <c r="B3" s="234"/>
+      <c r="C3" s="234"/>
+      <c r="D3" s="234"/>
+      <c r="E3" s="234"/>
+      <c r="F3" s="234"/>
+      <c r="G3" s="154" t="s">
         <v>363</v>
       </c>
-      <c r="H3" s="158" t="s">
+      <c r="H3" s="154" t="s">
         <v>364</v>
       </c>
-      <c r="I3" s="162" t="s">
+      <c r="I3" s="158" t="s">
         <v>365</v>
       </c>
-      <c r="J3" s="250"/>
-      <c r="K3" s="158" t="s">
-        <v>363</v>
-      </c>
-      <c r="L3" s="158" t="s">
-        <v>364</v>
-      </c>
-      <c r="M3" s="162" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="132"/>
       <c r="B4" s="133"/>
       <c r="C4" s="133"/>
       <c r="D4" s="134"/>
       <c r="E4" s="134"/>
       <c r="F4" s="134"/>
-      <c r="G4" s="157"/>
-      <c r="H4" s="157"/>
-      <c r="I4" s="157"/>
-      <c r="J4" s="157"/>
-      <c r="K4" s="157"/>
-      <c r="L4" s="157"/>
-      <c r="M4" s="157"/>
-    </row>
-    <row r="5" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="270" t="s">
+      <c r="G4" s="153"/>
+      <c r="H4" s="153"/>
+      <c r="I4" s="153"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="237" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="251" t="s">
+      <c r="B5" s="240" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="136" t="s">
@@ -25898,106 +25559,70 @@
       <c r="D5" s="137">
         <v>1</v>
       </c>
-      <c r="E5" s="251" t="s">
+      <c r="E5" s="240" t="s">
         <v>366</v>
       </c>
       <c r="F5" s="137" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G5" s="147" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H5" s="147" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="I5" s="147" t="s">
-        <v>424</v>
-      </c>
-      <c r="J5" s="148" t="s">
-        <v>385</v>
-      </c>
-      <c r="K5" s="149" t="s">
-        <v>368</v>
-      </c>
-      <c r="L5" s="149" t="s">
-        <v>368</v>
-      </c>
-      <c r="M5" s="150" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="271"/>
-      <c r="B6" s="247"/>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="238"/>
+      <c r="B6" s="242"/>
       <c r="C6" s="139" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="140">
         <v>1</v>
       </c>
-      <c r="E6" s="247"/>
+      <c r="E6" s="242"/>
       <c r="F6" s="140" t="s">
-        <v>384</v>
-      </c>
-      <c r="G6" s="151" t="s">
-        <v>425</v>
-      </c>
-      <c r="H6" s="152" t="s">
-        <v>433</v>
-      </c>
-      <c r="I6" s="152" t="s">
-        <v>371</v>
-      </c>
-      <c r="J6" s="148" t="s">
-        <v>385</v>
-      </c>
-      <c r="K6" s="152" t="s">
         <v>383</v>
       </c>
-      <c r="L6" s="152" t="s">
-        <v>368</v>
-      </c>
-      <c r="M6" s="153" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="271"/>
-      <c r="B7" s="248"/>
+      <c r="G6" s="149" t="s">
+        <v>421</v>
+      </c>
+      <c r="H6" s="150" t="s">
+        <v>429</v>
+      </c>
+      <c r="I6" s="150" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="238"/>
+      <c r="B7" s="241"/>
       <c r="C7" s="139" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="140">
         <v>1</v>
       </c>
-      <c r="E7" s="247"/>
+      <c r="E7" s="242"/>
       <c r="F7" s="140" t="s">
-        <v>384</v>
-      </c>
-      <c r="G7" s="151" t="s">
-        <v>426</v>
-      </c>
-      <c r="H7" s="152" t="s">
+        <v>383</v>
+      </c>
+      <c r="G7" s="149" t="s">
+        <v>422</v>
+      </c>
+      <c r="H7" s="150" t="s">
         <v>368</v>
       </c>
-      <c r="I7" s="152" t="s">
+      <c r="I7" s="150" t="s">
         <v>371</v>
       </c>
-      <c r="J7" s="148" t="s">
-        <v>385</v>
-      </c>
-      <c r="K7" s="152" t="s">
-        <v>383</v>
-      </c>
-      <c r="L7" s="152" t="s">
-        <v>368</v>
-      </c>
-      <c r="M7" s="153" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="272"/>
+    </row>
+    <row r="8" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="239"/>
       <c r="B8" s="144" t="s">
         <v>265</v>
       </c>
@@ -26007,364 +25632,244 @@
       <c r="D8" s="143">
         <v>1</v>
       </c>
-      <c r="E8" s="252"/>
+      <c r="E8" s="236"/>
       <c r="F8" s="143" t="s">
+        <v>384</v>
+      </c>
+      <c r="G8" s="151" t="s">
+        <v>415</v>
+      </c>
+      <c r="H8" s="152" t="s">
+        <v>382</v>
+      </c>
+      <c r="I8" s="152" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="237" t="s">
+        <v>385</v>
+      </c>
+      <c r="B9" s="240" t="s">
         <v>386</v>
       </c>
-      <c r="G8" s="154" t="s">
-        <v>419</v>
-      </c>
-      <c r="H8" s="155" t="s">
-        <v>383</v>
-      </c>
-      <c r="I8" s="155" t="s">
-        <v>383</v>
-      </c>
-      <c r="J8" s="148" t="s">
-        <v>385</v>
-      </c>
-      <c r="K8" s="155" t="s">
-        <v>368</v>
-      </c>
-      <c r="L8" s="155" t="s">
-        <v>383</v>
-      </c>
-      <c r="M8" s="156" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="270" t="s">
+      <c r="C9" s="136" t="s">
         <v>387</v>
-      </c>
-      <c r="B9" s="251" t="s">
-        <v>388</v>
-      </c>
-      <c r="C9" s="136" t="s">
-        <v>389</v>
       </c>
       <c r="D9" s="137">
         <v>2</v>
       </c>
-      <c r="E9" s="251" t="s">
+      <c r="E9" s="240" t="s">
         <v>288</v>
       </c>
       <c r="F9" s="137" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G9" s="147" t="s">
-        <v>419</v>
-      </c>
-      <c r="H9" s="149" t="s">
-        <v>437</v>
-      </c>
-      <c r="I9" s="163" t="s">
-        <v>439</v>
-      </c>
-      <c r="J9" s="149" t="s">
-        <v>385</v>
-      </c>
-      <c r="K9" s="149" t="s">
-        <v>368</v>
-      </c>
-      <c r="L9" s="149" t="s">
-        <v>368</v>
-      </c>
-      <c r="M9" s="150" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="271"/>
-      <c r="B10" s="247"/>
+        <v>415</v>
+      </c>
+      <c r="H9" s="148" t="s">
+        <v>433</v>
+      </c>
+      <c r="I9" s="159" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="238"/>
+      <c r="B10" s="242"/>
       <c r="C10" s="139" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D10" s="140">
         <v>1</v>
       </c>
-      <c r="E10" s="247"/>
+      <c r="E10" s="242"/>
       <c r="F10" s="140" t="s">
-        <v>386</v>
-      </c>
-      <c r="G10" s="151" t="s">
-        <v>420</v>
-      </c>
-      <c r="H10" s="152" t="s">
-        <v>437</v>
-      </c>
-      <c r="I10" s="181" t="s">
-        <v>436</v>
-      </c>
-      <c r="J10" s="152" t="s">
-        <v>385</v>
-      </c>
-      <c r="K10" s="152" t="s">
-        <v>383</v>
-      </c>
-      <c r="L10" s="152" t="s">
-        <v>368</v>
-      </c>
-      <c r="M10" s="153" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="271"/>
-      <c r="B11" s="247"/>
+        <v>384</v>
+      </c>
+      <c r="G10" s="149" t="s">
+        <v>416</v>
+      </c>
+      <c r="H10" s="150" t="s">
+        <v>433</v>
+      </c>
+      <c r="I10" s="174" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="238"/>
+      <c r="B11" s="242"/>
       <c r="C11" s="139" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D11" s="140">
         <v>1</v>
       </c>
-      <c r="E11" s="247"/>
+      <c r="E11" s="242"/>
       <c r="F11" s="140" t="s">
-        <v>386</v>
-      </c>
-      <c r="G11" s="151" t="s">
-        <v>419</v>
-      </c>
-      <c r="H11" s="152" t="s">
+        <v>384</v>
+      </c>
+      <c r="G11" s="149" t="s">
+        <v>415</v>
+      </c>
+      <c r="H11" s="150" t="s">
         <v>368</v>
       </c>
-      <c r="I11" s="152" t="s">
+      <c r="I11" s="150" t="s">
         <v>368</v>
       </c>
-      <c r="J11" s="152" t="s">
-        <v>385</v>
-      </c>
-      <c r="K11" s="152" t="s">
-        <v>368</v>
-      </c>
-      <c r="L11" s="152" t="s">
-        <v>368</v>
-      </c>
-      <c r="M11" s="153" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="271"/>
-      <c r="B12" s="248"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="238"/>
+      <c r="B12" s="241"/>
       <c r="C12" s="139" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D12" s="140">
         <v>2</v>
       </c>
-      <c r="E12" s="248"/>
+      <c r="E12" s="241"/>
       <c r="F12" s="140" t="s">
-        <v>390</v>
-      </c>
-      <c r="G12" s="151" t="s">
-        <v>419</v>
-      </c>
-      <c r="H12" s="152" t="s">
+        <v>388</v>
+      </c>
+      <c r="G12" s="149" t="s">
+        <v>415</v>
+      </c>
+      <c r="H12" s="150" t="s">
         <v>368</v>
       </c>
-      <c r="I12" s="152" t="s">
-        <v>438</v>
-      </c>
-      <c r="J12" s="152" t="s">
-        <v>385</v>
-      </c>
-      <c r="K12" s="152" t="s">
-        <v>383</v>
-      </c>
-      <c r="L12" s="152" t="s">
-        <v>368</v>
-      </c>
-      <c r="M12" s="153" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="271"/>
-      <c r="B13" s="246" t="s">
-        <v>394</v>
+      <c r="I12" s="150" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="238"/>
+      <c r="B13" s="235" t="s">
+        <v>392</v>
       </c>
       <c r="C13" s="139" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D13" s="140">
         <v>2</v>
       </c>
-      <c r="E13" s="246" t="s">
+      <c r="E13" s="235" t="s">
         <v>288</v>
       </c>
       <c r="F13" s="140" t="s">
-        <v>390</v>
-      </c>
-      <c r="G13" s="151" t="s">
-        <v>419</v>
-      </c>
-      <c r="H13" s="152" t="s">
+        <v>388</v>
+      </c>
+      <c r="G13" s="149" t="s">
+        <v>415</v>
+      </c>
+      <c r="H13" s="150" t="s">
         <v>368</v>
       </c>
-      <c r="I13" s="152" t="s">
+      <c r="I13" s="150" t="s">
         <v>368</v>
       </c>
-      <c r="J13" s="152" t="s">
-        <v>385</v>
-      </c>
-      <c r="K13" s="152" t="s">
-        <v>368</v>
-      </c>
-      <c r="L13" s="152" t="s">
-        <v>368</v>
-      </c>
-      <c r="M13" s="153" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="271"/>
-      <c r="B14" s="247"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="238"/>
+      <c r="B14" s="242"/>
       <c r="C14" s="139" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D14" s="140">
         <v>1</v>
       </c>
-      <c r="E14" s="247"/>
+      <c r="E14" s="242"/>
       <c r="F14" s="140" t="s">
-        <v>386</v>
-      </c>
-      <c r="G14" s="151" t="s">
-        <v>419</v>
-      </c>
-      <c r="H14" s="152" t="s">
+        <v>384</v>
+      </c>
+      <c r="G14" s="149" t="s">
+        <v>415</v>
+      </c>
+      <c r="H14" s="150" t="s">
         <v>368</v>
       </c>
-      <c r="I14" s="152" t="s">
+      <c r="I14" s="150" t="s">
         <v>368</v>
       </c>
-      <c r="J14" s="152" t="s">
-        <v>385</v>
-      </c>
-      <c r="K14" s="152" t="s">
-        <v>383</v>
-      </c>
-      <c r="L14" s="152" t="s">
-        <v>368</v>
-      </c>
-      <c r="M14" s="153" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="271"/>
-      <c r="B15" s="248"/>
+    </row>
+    <row r="15" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="238"/>
+      <c r="B15" s="241"/>
       <c r="C15" s="139" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D15" s="140">
         <v>1</v>
       </c>
-      <c r="E15" s="248"/>
+      <c r="E15" s="241"/>
       <c r="F15" s="140" t="s">
-        <v>386</v>
-      </c>
-      <c r="G15" s="181" t="s">
-        <v>435</v>
-      </c>
-      <c r="H15" s="152" t="s">
+        <v>384</v>
+      </c>
+      <c r="G15" s="174" t="s">
+        <v>431</v>
+      </c>
+      <c r="H15" s="150" t="s">
         <v>368</v>
       </c>
-      <c r="I15" s="152" t="s">
+      <c r="I15" s="150" t="s">
         <v>368</v>
       </c>
-      <c r="J15" s="152" t="s">
-        <v>385</v>
-      </c>
-      <c r="K15" s="152" t="s">
-        <v>368</v>
-      </c>
-      <c r="L15" s="152" t="s">
-        <v>368</v>
-      </c>
-      <c r="M15" s="153" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="271"/>
-      <c r="B16" s="251" t="s">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="238"/>
+      <c r="B16" s="240" t="s">
         <v>266</v>
       </c>
       <c r="C16" s="136" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D16" s="137">
         <v>1</v>
       </c>
-      <c r="E16" s="251" t="s">
+      <c r="E16" s="240" t="s">
+        <v>397</v>
+      </c>
+      <c r="F16" s="137" t="s">
+        <v>384</v>
+      </c>
+      <c r="G16" s="147" t="s">
+        <v>423</v>
+      </c>
+      <c r="H16" s="159" t="s">
+        <v>448</v>
+      </c>
+      <c r="I16" s="159" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="238"/>
+      <c r="B17" s="241"/>
+      <c r="C17" s="139" t="s">
         <v>399</v>
-      </c>
-      <c r="F16" s="137" t="s">
-        <v>386</v>
-      </c>
-      <c r="G16" s="147" t="s">
-        <v>427</v>
-      </c>
-      <c r="H16" s="163" t="s">
-        <v>453</v>
-      </c>
-      <c r="I16" s="163" t="s">
-        <v>454</v>
-      </c>
-      <c r="J16" s="149" t="s">
-        <v>400</v>
-      </c>
-      <c r="K16" s="163" t="s">
-        <v>483</v>
-      </c>
-      <c r="L16" s="149" t="s">
-        <v>401</v>
-      </c>
-      <c r="M16" s="150" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="271"/>
-      <c r="B17" s="248"/>
-      <c r="C17" s="139" t="s">
-        <v>402</v>
       </c>
       <c r="D17" s="140">
         <v>2</v>
       </c>
-      <c r="E17" s="248"/>
+      <c r="E17" s="241"/>
       <c r="F17" s="140" t="s">
-        <v>400</v>
-      </c>
-      <c r="G17" s="181" t="s">
-        <v>451</v>
-      </c>
-      <c r="H17" s="181" t="s">
-        <v>452</v>
-      </c>
-      <c r="I17" s="181" t="s">
-        <v>452</v>
-      </c>
-      <c r="J17" s="152" t="s">
-        <v>367</v>
-      </c>
-      <c r="K17" s="152" t="s">
-        <v>383</v>
-      </c>
-      <c r="L17" s="152" t="s">
-        <v>403</v>
-      </c>
-      <c r="M17" s="153" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="271"/>
-      <c r="B18" s="246" t="s">
+        <v>398</v>
+      </c>
+      <c r="G17" s="174" t="s">
+        <v>446</v>
+      </c>
+      <c r="H17" s="174" t="s">
+        <v>447</v>
+      </c>
+      <c r="I17" s="174" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="238"/>
+      <c r="B18" s="235" t="s">
         <v>115</v>
       </c>
       <c r="C18" s="139" t="s">
@@ -26373,258 +25878,174 @@
       <c r="D18" s="140">
         <v>1</v>
       </c>
-      <c r="E18" s="246" t="s">
+      <c r="E18" s="235" t="s">
         <v>376</v>
       </c>
       <c r="F18" s="140" t="s">
-        <v>404</v>
-      </c>
-      <c r="G18" s="151" t="s">
-        <v>428</v>
-      </c>
-      <c r="H18" s="152" t="s">
-        <v>442</v>
-      </c>
-      <c r="I18" s="152" t="s">
-        <v>443</v>
-      </c>
-      <c r="J18" s="152" t="s">
-        <v>385</v>
-      </c>
-      <c r="K18" s="152" t="s">
-        <v>368</v>
-      </c>
-      <c r="L18" s="152" t="s">
-        <v>368</v>
-      </c>
-      <c r="M18" s="153" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="271"/>
-      <c r="B19" s="248"/>
+        <v>401</v>
+      </c>
+      <c r="G18" s="149" t="s">
+        <v>424</v>
+      </c>
+      <c r="H18" s="150" t="s">
+        <v>438</v>
+      </c>
+      <c r="I18" s="150" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="238"/>
+      <c r="B19" s="241"/>
       <c r="C19" s="139" t="s">
         <v>118</v>
       </c>
       <c r="D19" s="140">
         <v>2</v>
       </c>
-      <c r="E19" s="247"/>
+      <c r="E19" s="242"/>
       <c r="F19" s="140" t="s">
-        <v>404</v>
-      </c>
-      <c r="G19" s="151" t="s">
-        <v>419</v>
-      </c>
-      <c r="H19" s="152" t="s">
-        <v>434</v>
-      </c>
-      <c r="I19" s="152" t="s">
+        <v>401</v>
+      </c>
+      <c r="G19" s="149" t="s">
+        <v>415</v>
+      </c>
+      <c r="H19" s="150" t="s">
+        <v>430</v>
+      </c>
+      <c r="I19" s="150" t="s">
         <v>368</v>
       </c>
-      <c r="J19" s="152" t="s">
-        <v>385</v>
-      </c>
-      <c r="K19" s="152" t="s">
-        <v>368</v>
-      </c>
-      <c r="L19" s="152" t="s">
-        <v>368</v>
-      </c>
-      <c r="M19" s="153" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="271"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="238"/>
       <c r="B20" s="146" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C20" s="139" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D20" s="140">
         <v>1</v>
       </c>
-      <c r="E20" s="248"/>
+      <c r="E20" s="241"/>
       <c r="F20" s="140" t="s">
-        <v>390</v>
-      </c>
-      <c r="G20" s="151" t="s">
-        <v>419</v>
-      </c>
-      <c r="H20" s="152" t="s">
-        <v>383</v>
-      </c>
-      <c r="I20" s="152" t="s">
-        <v>444</v>
-      </c>
-      <c r="J20" s="152" t="s">
-        <v>385</v>
-      </c>
-      <c r="K20" s="152" t="s">
-        <v>368</v>
-      </c>
-      <c r="L20" s="152" t="s">
-        <v>383</v>
-      </c>
-      <c r="M20" s="153" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="271"/>
-      <c r="B21" s="246" t="s">
-        <v>407</v>
+        <v>388</v>
+      </c>
+      <c r="G20" s="149" t="s">
+        <v>415</v>
+      </c>
+      <c r="H20" s="150" t="s">
+        <v>382</v>
+      </c>
+      <c r="I20" s="150" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="238"/>
+      <c r="B21" s="235" t="s">
+        <v>404</v>
       </c>
       <c r="C21" s="139" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D21" s="140">
         <v>3</v>
       </c>
-      <c r="E21" s="246" t="s">
+      <c r="E21" s="235" t="s">
         <v>366</v>
       </c>
       <c r="F21" s="140" t="s">
-        <v>404</v>
-      </c>
-      <c r="G21" s="151" t="s">
-        <v>429</v>
-      </c>
-      <c r="H21" s="152" t="s">
-        <v>403</v>
-      </c>
-      <c r="I21" s="152" t="s">
-        <v>403</v>
-      </c>
-      <c r="J21" s="152" t="s">
-        <v>409</v>
-      </c>
-      <c r="K21" s="152" t="s">
-        <v>403</v>
-      </c>
-      <c r="L21" s="152" t="s">
-        <v>403</v>
-      </c>
-      <c r="M21" s="153" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="271"/>
-      <c r="B22" s="247"/>
+        <v>401</v>
+      </c>
+      <c r="G21" s="149" t="s">
+        <v>425</v>
+      </c>
+      <c r="H21" s="150" t="s">
+        <v>400</v>
+      </c>
+      <c r="I21" s="150" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="238"/>
+      <c r="B22" s="242"/>
       <c r="C22" s="139" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D22" s="140">
         <v>3</v>
       </c>
-      <c r="E22" s="247"/>
+      <c r="E22" s="242"/>
       <c r="F22" s="140" t="s">
-        <v>404</v>
-      </c>
-      <c r="G22" s="151" t="s">
-        <v>429</v>
-      </c>
-      <c r="H22" s="152" t="s">
-        <v>403</v>
-      </c>
-      <c r="I22" s="152" t="s">
-        <v>403</v>
-      </c>
-      <c r="J22" s="152" t="s">
-        <v>409</v>
-      </c>
-      <c r="K22" s="152" t="s">
-        <v>403</v>
-      </c>
-      <c r="L22" s="152" t="s">
-        <v>403</v>
-      </c>
-      <c r="M22" s="153" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="271"/>
-      <c r="B23" s="247"/>
+        <v>401</v>
+      </c>
+      <c r="G22" s="149" t="s">
+        <v>425</v>
+      </c>
+      <c r="H22" s="150" t="s">
+        <v>400</v>
+      </c>
+      <c r="I22" s="150" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="238"/>
+      <c r="B23" s="242"/>
       <c r="C23" s="139" t="s">
         <v>280</v>
       </c>
       <c r="D23" s="140">
         <v>3</v>
       </c>
-      <c r="E23" s="248"/>
+      <c r="E23" s="241"/>
       <c r="F23" s="140" t="s">
-        <v>404</v>
-      </c>
-      <c r="G23" s="151" t="s">
-        <v>429</v>
-      </c>
-      <c r="H23" s="152" t="s">
-        <v>403</v>
-      </c>
-      <c r="I23" s="152" t="s">
-        <v>403</v>
-      </c>
-      <c r="J23" s="152" t="s">
-        <v>409</v>
-      </c>
-      <c r="K23" s="152" t="s">
-        <v>403</v>
-      </c>
-      <c r="L23" s="152" t="s">
-        <v>403</v>
-      </c>
-      <c r="M23" s="153" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="25.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="272"/>
-      <c r="B24" s="252"/>
+        <v>401</v>
+      </c>
+      <c r="G23" s="149" t="s">
+        <v>425</v>
+      </c>
+      <c r="H23" s="150" t="s">
+        <v>400</v>
+      </c>
+      <c r="I23" s="150" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="25.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="239"/>
+      <c r="B24" s="236"/>
       <c r="C24" s="142" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D24" s="143">
         <v>2</v>
       </c>
       <c r="E24" s="144" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="F24" s="143" t="s">
-        <v>400</v>
-      </c>
-      <c r="G24" s="275" t="s">
-        <v>440</v>
-      </c>
-      <c r="H24" s="160" t="s">
-        <v>481</v>
-      </c>
-      <c r="I24" s="160" t="s">
-        <v>482</v>
-      </c>
-      <c r="J24" s="152" t="s">
-        <v>385</v>
-      </c>
-      <c r="K24" s="155" t="s">
-        <v>403</v>
-      </c>
-      <c r="L24" s="155" t="s">
-        <v>401</v>
-      </c>
-      <c r="M24" s="156" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="270" t="s">
-        <v>412</v>
-      </c>
-      <c r="B25" s="251" t="s">
-        <v>413</v>
+        <v>398</v>
+      </c>
+      <c r="G24" s="189" t="s">
+        <v>436</v>
+      </c>
+      <c r="H24" s="156" t="s">
+        <v>465</v>
+      </c>
+      <c r="I24" s="156" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="237" t="s">
+        <v>408</v>
+      </c>
+      <c r="B25" s="240" t="s">
+        <v>409</v>
       </c>
       <c r="C25" s="136" t="s">
         <v>126</v>
@@ -26632,183 +26053,123 @@
       <c r="D25" s="137">
         <v>1</v>
       </c>
-      <c r="E25" s="251" t="s">
+      <c r="E25" s="240" t="s">
         <v>366</v>
       </c>
       <c r="F25" s="138" t="s">
         <v>370</v>
       </c>
       <c r="G25" s="147" t="s">
-        <v>430</v>
-      </c>
-      <c r="H25" s="149" t="s">
+        <v>426</v>
+      </c>
+      <c r="H25" s="148" t="s">
         <v>368</v>
       </c>
-      <c r="I25" s="149" t="s">
+      <c r="I25" s="148" t="s">
         <v>368</v>
       </c>
-      <c r="J25" s="152" t="s">
-        <v>409</v>
-      </c>
-      <c r="K25" s="149" t="s">
-        <v>368</v>
-      </c>
-      <c r="L25" s="149" t="s">
-        <v>368</v>
-      </c>
-      <c r="M25" s="150" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="271"/>
-      <c r="B26" s="247"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="238"/>
+      <c r="B26" s="242"/>
       <c r="C26" s="139" t="s">
         <v>129</v>
       </c>
       <c r="D26" s="140">
         <v>1</v>
       </c>
-      <c r="E26" s="248"/>
+      <c r="E26" s="241"/>
       <c r="F26" s="137" t="s">
         <v>370</v>
       </c>
-      <c r="G26" s="151" t="s">
-        <v>420</v>
-      </c>
-      <c r="H26" s="152" t="s">
+      <c r="G26" s="149" t="s">
+        <v>416</v>
+      </c>
+      <c r="H26" s="150" t="s">
         <v>368</v>
       </c>
-      <c r="I26" s="152" t="s">
+      <c r="I26" s="150" t="s">
         <v>368</v>
       </c>
-      <c r="J26" s="152" t="s">
-        <v>409</v>
-      </c>
-      <c r="K26" s="152" t="s">
-        <v>368</v>
-      </c>
-      <c r="L26" s="152" t="s">
-        <v>368</v>
-      </c>
-      <c r="M26" s="153" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="271"/>
-      <c r="B27" s="247"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="238"/>
+      <c r="B27" s="242"/>
       <c r="C27" s="139" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D27" s="140">
         <v>3</v>
       </c>
-      <c r="E27" s="246" t="s">
+      <c r="E27" s="235" t="s">
         <v>376</v>
       </c>
       <c r="F27" s="140" t="s">
         <v>377</v>
       </c>
-      <c r="G27" s="151" t="s">
-        <v>431</v>
-      </c>
-      <c r="H27" s="152" t="s">
-        <v>418</v>
-      </c>
-      <c r="I27" s="152" t="s">
-        <v>448</v>
-      </c>
-      <c r="J27" s="152" t="s">
-        <v>409</v>
-      </c>
-      <c r="K27" s="152" t="s">
-        <v>368</v>
-      </c>
-      <c r="L27" s="152" t="s">
-        <v>368</v>
-      </c>
-      <c r="M27" s="153" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="271"/>
-      <c r="B28" s="248"/>
+      <c r="G27" s="149" t="s">
+        <v>427</v>
+      </c>
+      <c r="H27" s="150" t="s">
+        <v>414</v>
+      </c>
+      <c r="I27" s="150" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="238"/>
+      <c r="B28" s="241"/>
       <c r="C28" s="139" t="s">
         <v>125</v>
       </c>
       <c r="D28" s="140">
         <v>3</v>
       </c>
-      <c r="E28" s="247"/>
+      <c r="E28" s="242"/>
       <c r="F28" s="140" t="s">
         <v>377</v>
       </c>
-      <c r="G28" s="151" t="s">
-        <v>431</v>
-      </c>
-      <c r="H28" s="152" t="s">
-        <v>450</v>
-      </c>
-      <c r="I28" s="152" t="s">
-        <v>449</v>
-      </c>
-      <c r="J28" s="152" t="s">
-        <v>409</v>
-      </c>
-      <c r="K28" s="152" t="s">
-        <v>368</v>
-      </c>
-      <c r="L28" s="152" t="s">
-        <v>368</v>
-      </c>
-      <c r="M28" s="153" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="272"/>
+      <c r="G28" s="149" t="s">
+        <v>427</v>
+      </c>
+      <c r="H28" s="150" t="s">
+        <v>445</v>
+      </c>
+      <c r="I28" s="150" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="239"/>
       <c r="B29" s="144" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C29" s="145" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D29" s="143">
         <v>2</v>
       </c>
-      <c r="E29" s="252"/>
+      <c r="E29" s="236"/>
       <c r="F29" s="143" t="s">
         <v>370</v>
       </c>
-      <c r="G29" s="160" t="s">
+      <c r="G29" s="156" t="s">
+        <v>437</v>
+      </c>
+      <c r="H29" s="152" t="s">
+        <v>442</v>
+      </c>
+      <c r="I29" s="152" t="s">
         <v>441</v>
       </c>
-      <c r="H29" s="155" t="s">
-        <v>446</v>
-      </c>
-      <c r="I29" s="155" t="s">
-        <v>445</v>
-      </c>
-      <c r="J29" s="155" t="s">
-        <v>409</v>
-      </c>
-      <c r="K29" s="155" t="s">
-        <v>383</v>
-      </c>
-      <c r="L29" s="155" t="s">
-        <v>403</v>
-      </c>
-      <c r="M29" s="156" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="270" t="s">
+    </row>
+    <row r="30" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="237" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="251" t="s">
+      <c r="B30" s="240" t="s">
         <v>71</v>
       </c>
       <c r="C30" s="136" t="s">
@@ -26817,72 +26178,48 @@
       <c r="D30" s="137">
         <v>3</v>
       </c>
-      <c r="E30" s="251" t="s">
+      <c r="E30" s="240" t="s">
         <v>366</v>
       </c>
       <c r="F30" s="138" t="s">
         <v>367</v>
       </c>
       <c r="G30" s="147" t="s">
-        <v>420</v>
-      </c>
-      <c r="H30" s="149" t="s">
+        <v>416</v>
+      </c>
+      <c r="H30" s="148" t="s">
         <v>368</v>
       </c>
-      <c r="I30" s="149" t="s">
+      <c r="I30" s="148" t="s">
         <v>368</v>
       </c>
-      <c r="J30" s="149" t="s">
-        <v>342</v>
-      </c>
-      <c r="K30" s="149" t="s">
-        <v>342</v>
-      </c>
-      <c r="L30" s="149" t="s">
-        <v>342</v>
-      </c>
-      <c r="M30" s="150" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="271"/>
-      <c r="B31" s="248"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="238"/>
+      <c r="B31" s="241"/>
       <c r="C31" s="139" t="s">
         <v>74</v>
       </c>
       <c r="D31" s="140">
         <v>3</v>
       </c>
-      <c r="E31" s="248"/>
+      <c r="E31" s="241"/>
       <c r="F31" s="137" t="s">
         <v>367</v>
       </c>
-      <c r="G31" s="151" t="s">
-        <v>420</v>
-      </c>
-      <c r="H31" s="152" t="s">
+      <c r="G31" s="149" t="s">
+        <v>416</v>
+      </c>
+      <c r="H31" s="150" t="s">
         <v>368</v>
       </c>
-      <c r="I31" s="152" t="s">
+      <c r="I31" s="150" t="s">
         <v>368</v>
       </c>
-      <c r="J31" s="152" t="s">
-        <v>342</v>
-      </c>
-      <c r="K31" s="152" t="s">
-        <v>342</v>
-      </c>
-      <c r="L31" s="152" t="s">
-        <v>342</v>
-      </c>
-      <c r="M31" s="153" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="271"/>
-      <c r="B32" s="246" t="s">
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="238"/>
+      <c r="B32" s="235" t="s">
         <v>267</v>
       </c>
       <c r="C32" s="139" t="s">
@@ -26891,107 +26228,71 @@
       <c r="D32" s="140">
         <v>2</v>
       </c>
-      <c r="E32" s="246" t="s">
+      <c r="E32" s="235" t="s">
         <v>288</v>
       </c>
       <c r="F32" s="140" t="s">
         <v>370</v>
       </c>
-      <c r="G32" s="152" t="s">
+      <c r="G32" s="150" t="s">
         <v>371</v>
       </c>
-      <c r="H32" s="152" t="s">
+      <c r="H32" s="150" t="s">
         <v>368</v>
       </c>
-      <c r="I32" s="152" t="s">
+      <c r="I32" s="150" t="s">
         <v>368</v>
       </c>
-      <c r="J32" s="152" t="s">
-        <v>342</v>
-      </c>
-      <c r="K32" s="152" t="s">
-        <v>342</v>
-      </c>
-      <c r="L32" s="152" t="s">
-        <v>342</v>
-      </c>
-      <c r="M32" s="153" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="271"/>
-      <c r="B33" s="247"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="238"/>
+      <c r="B33" s="242"/>
       <c r="C33" s="139" t="s">
         <v>372</v>
       </c>
       <c r="D33" s="140">
         <v>2</v>
       </c>
-      <c r="E33" s="247"/>
+      <c r="E33" s="242"/>
       <c r="F33" s="140" t="s">
         <v>370</v>
       </c>
-      <c r="G33" s="152" t="s">
+      <c r="G33" s="150" t="s">
         <v>373</v>
       </c>
-      <c r="H33" s="152" t="s">
+      <c r="H33" s="150" t="s">
         <v>368</v>
       </c>
-      <c r="I33" s="152" t="s">
+      <c r="I33" s="150" t="s">
         <v>368</v>
       </c>
-      <c r="J33" s="152" t="s">
-        <v>342</v>
-      </c>
-      <c r="K33" s="152" t="s">
-        <v>342</v>
-      </c>
-      <c r="L33" s="152" t="s">
-        <v>342</v>
-      </c>
-      <c r="M33" s="153" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="271"/>
-      <c r="B34" s="248"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="238"/>
+      <c r="B34" s="241"/>
       <c r="C34" s="139" t="s">
         <v>374</v>
       </c>
       <c r="D34" s="140">
         <v>2</v>
       </c>
-      <c r="E34" s="248"/>
+      <c r="E34" s="241"/>
       <c r="F34" s="140" t="s">
         <v>370</v>
       </c>
-      <c r="G34" s="152" t="s">
+      <c r="G34" s="150" t="s">
         <v>373</v>
       </c>
-      <c r="H34" s="152" t="s">
+      <c r="H34" s="150" t="s">
         <v>368</v>
       </c>
-      <c r="I34" s="152" t="s">
+      <c r="I34" s="150" t="s">
         <v>368</v>
       </c>
-      <c r="J34" s="152" t="s">
-        <v>342</v>
-      </c>
-      <c r="K34" s="152" t="s">
-        <v>342</v>
-      </c>
-      <c r="L34" s="152" t="s">
-        <v>342</v>
-      </c>
-      <c r="M34" s="153" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="271"/>
-      <c r="B35" s="246" t="s">
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="238"/>
+      <c r="B35" s="235" t="s">
         <v>268</v>
       </c>
       <c r="C35" s="139" t="s">
@@ -27000,72 +26301,48 @@
       <c r="D35" s="140">
         <v>2</v>
       </c>
-      <c r="E35" s="246" t="s">
-        <v>479</v>
+      <c r="E35" s="235" t="s">
+        <v>463</v>
       </c>
       <c r="F35" s="140" t="s">
         <v>377</v>
       </c>
-      <c r="G35" s="159" t="s">
+      <c r="G35" s="155" t="s">
         <v>371</v>
       </c>
-      <c r="H35" s="152" t="s">
+      <c r="H35" s="150" t="s">
         <v>368</v>
       </c>
-      <c r="I35" s="152" t="s">
+      <c r="I35" s="150" t="s">
         <v>368</v>
       </c>
-      <c r="J35" s="152" t="s">
-        <v>342</v>
-      </c>
-      <c r="K35" s="152" t="s">
-        <v>342</v>
-      </c>
-      <c r="L35" s="152" t="s">
-        <v>342</v>
-      </c>
-      <c r="M35" s="153" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="271"/>
-      <c r="B36" s="248"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="238"/>
+      <c r="B36" s="241"/>
       <c r="C36" s="139" t="s">
         <v>106</v>
       </c>
       <c r="D36" s="140">
         <v>3</v>
       </c>
-      <c r="E36" s="247"/>
+      <c r="E36" s="242"/>
       <c r="F36" s="140" t="s">
         <v>377</v>
       </c>
-      <c r="G36" s="159" t="s">
+      <c r="G36" s="155" t="s">
         <v>371</v>
       </c>
-      <c r="H36" s="152" t="s">
+      <c r="H36" s="150" t="s">
         <v>368</v>
       </c>
-      <c r="I36" s="152" t="s">
+      <c r="I36" s="150" t="s">
         <v>368</v>
       </c>
-      <c r="J36" s="152" t="s">
-        <v>342</v>
-      </c>
-      <c r="K36" s="152" t="s">
-        <v>342</v>
-      </c>
-      <c r="L36" s="152" t="s">
-        <v>342</v>
-      </c>
-      <c r="M36" s="153" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="271"/>
-      <c r="B37" s="257" t="s">
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="238"/>
+      <c r="B37" s="253" t="s">
         <v>378</v>
       </c>
       <c r="C37" s="141" t="s">
@@ -27074,172 +26351,130 @@
       <c r="D37" s="140">
         <v>2</v>
       </c>
-      <c r="E37" s="247"/>
+      <c r="E37" s="242"/>
       <c r="F37" s="140" t="s">
         <v>377</v>
       </c>
-      <c r="G37" s="274" t="s">
-        <v>475</v>
-      </c>
-      <c r="H37" s="181" t="s">
-        <v>475</v>
-      </c>
-      <c r="I37" s="181" t="s">
-        <v>477</v>
-      </c>
-      <c r="J37" s="152" t="s">
-        <v>342</v>
-      </c>
-      <c r="K37" s="152" t="s">
-        <v>342</v>
-      </c>
-      <c r="L37" s="152" t="s">
-        <v>342</v>
-      </c>
-      <c r="M37" s="153" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="272"/>
-      <c r="B38" s="258"/>
+      <c r="G37" s="188" t="s">
+        <v>459</v>
+      </c>
+      <c r="H37" s="174" t="s">
+        <v>459</v>
+      </c>
+      <c r="I37" s="174" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="239"/>
+      <c r="B38" s="246"/>
       <c r="C38" s="142" t="s">
         <v>380</v>
       </c>
       <c r="D38" s="143">
         <v>3</v>
       </c>
-      <c r="E38" s="252"/>
+      <c r="E38" s="236"/>
       <c r="F38" s="143" t="s">
         <v>377</v>
       </c>
-      <c r="G38" s="275" t="s">
-        <v>475</v>
-      </c>
-      <c r="H38" s="160" t="s">
-        <v>476</v>
-      </c>
-      <c r="I38" s="160" t="s">
-        <v>478</v>
-      </c>
-      <c r="J38" s="155" t="s">
-        <v>342</v>
-      </c>
-      <c r="K38" s="155" t="s">
-        <v>342</v>
-      </c>
-      <c r="L38" s="155" t="s">
-        <v>342</v>
-      </c>
-      <c r="M38" s="156" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="270" t="s">
+      <c r="G38" s="189" t="s">
+        <v>459</v>
+      </c>
+      <c r="H38" s="156" t="s">
+        <v>460</v>
+      </c>
+      <c r="I38" s="156" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="237" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="251" t="s">
+      <c r="B39" s="240" t="s">
         <v>69</v>
       </c>
-      <c r="C39" s="261" t="s">
+      <c r="C39" s="243" t="s">
         <v>69</v>
       </c>
-      <c r="D39" s="263">
+      <c r="D39" s="245">
         <v>1</v>
       </c>
-      <c r="E39" s="251" t="s">
+      <c r="E39" s="240" t="s">
         <v>366</v>
       </c>
-      <c r="F39" s="263" t="s">
+      <c r="F39" s="245" t="s">
         <v>381</v>
       </c>
-      <c r="G39" s="264" t="s">
-        <v>420</v>
-      </c>
-      <c r="H39" s="266" t="s">
-        <v>432</v>
-      </c>
-      <c r="I39" s="268" t="s">
+      <c r="G39" s="247" t="s">
+        <v>416</v>
+      </c>
+      <c r="H39" s="249" t="s">
+        <v>428</v>
+      </c>
+      <c r="I39" s="251" t="s">
         <v>371</v>
       </c>
-      <c r="J39" s="268" t="s">
-        <v>382</v>
-      </c>
-      <c r="K39" s="268" t="s">
-        <v>368</v>
-      </c>
-      <c r="L39" s="268" t="s">
-        <v>383</v>
-      </c>
-      <c r="M39" s="259" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="272"/>
-      <c r="B40" s="252"/>
-      <c r="C40" s="262"/>
-      <c r="D40" s="258"/>
-      <c r="E40" s="252"/>
-      <c r="F40" s="258"/>
-      <c r="G40" s="265"/>
-      <c r="H40" s="267"/>
-      <c r="I40" s="269"/>
-      <c r="J40" s="269"/>
-      <c r="K40" s="269"/>
-      <c r="L40" s="269"/>
-      <c r="M40" s="260"/>
-    </row>
-    <row r="41" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="42" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="164"/>
-      <c r="B42" s="177"/>
-      <c r="C42" s="177"/>
-      <c r="D42" s="177"/>
-      <c r="E42" s="177"/>
-      <c r="F42" s="177"/>
-      <c r="G42" s="177"/>
-      <c r="H42" s="178"/>
-    </row>
-    <row r="43" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="165" t="s">
+    </row>
+    <row r="40" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="239"/>
+      <c r="B40" s="236"/>
+      <c r="C40" s="244"/>
+      <c r="D40" s="246"/>
+      <c r="E40" s="236"/>
+      <c r="F40" s="246"/>
+      <c r="G40" s="248"/>
+      <c r="H40" s="250"/>
+      <c r="I40" s="252"/>
+    </row>
+    <row r="41" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="160"/>
+      <c r="B42" s="172"/>
+      <c r="C42" s="172"/>
+      <c r="D42" s="172"/>
+      <c r="E42" s="172"/>
+      <c r="F42" s="172"/>
+      <c r="G42" s="172"/>
+      <c r="H42"/>
+    </row>
+    <row r="43" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="161" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="166" t="s">
+      <c r="B43" s="162" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="166" t="s">
+      <c r="C43" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="D43" s="166" t="s">
+      <c r="D43" s="162" t="s">
         <v>6</v>
       </c>
-      <c r="E43" s="166" t="s">
-        <v>421</v>
-      </c>
-      <c r="F43" s="167" t="s">
-        <v>422</v>
-      </c>
-      <c r="G43" s="166" t="s">
+      <c r="E43" s="162" t="s">
+        <v>417</v>
+      </c>
+      <c r="F43" s="163" t="s">
+        <v>418</v>
+      </c>
+      <c r="G43" s="162" t="s">
         <v>7</v>
       </c>
-      <c r="H43" s="168" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" s="169"/>
-      <c r="B44" s="179"/>
-      <c r="C44" s="179"/>
-      <c r="D44" s="179"/>
-      <c r="E44" s="179"/>
-      <c r="F44" s="179"/>
-      <c r="G44" s="179"/>
-      <c r="H44" s="180"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" s="170" t="s">
+      <c r="H43"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="164"/>
+      <c r="B44" s="173"/>
+      <c r="C44" s="173"/>
+      <c r="D44" s="173"/>
+      <c r="E44" s="173"/>
+      <c r="F44" s="173"/>
+      <c r="G44" s="173"/>
+      <c r="H44"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="165" t="s">
         <v>10</v>
       </c>
       <c r="B45" s="139" t="s">
@@ -27248,94 +26483,86 @@
       <c r="C45" s="140">
         <v>1</v>
       </c>
-      <c r="D45" s="246" t="s">
+      <c r="D45" s="235" t="s">
         <v>366</v>
       </c>
-      <c r="E45" s="182">
+      <c r="E45" s="175">
         <v>1</v>
       </c>
-      <c r="F45" s="182">
+      <c r="F45" s="175">
         <v>1</v>
       </c>
-      <c r="G45" s="183" t="s">
-        <v>455</v>
-      </c>
-      <c r="H45" s="184" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="176"/>
+      <c r="G45" s="176" t="s">
+        <v>450</v>
+      </c>
+      <c r="H45"/>
+    </row>
+    <row r="46" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="171"/>
